--- a/Excel/작업Action.xlsx
+++ b/Excel/작업Action.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Hancom Office\Peaca 문서\Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26768A2B-88DE-44E4-8FB1-44AE63062407}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{639A5089-25AE-4217-962F-F4A42C557DE1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -173,7 +173,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="126">
   <si>
     <t>Action00101</t>
   </si>
@@ -415,179 +415,187 @@
     <t>id|String</t>
   </si>
   <si>
+    <t>actionName|String</t>
+  </si>
+  <si>
+    <t>listAllowingState|String</t>
+  </si>
+  <si>
+    <t>listNotAllowingState|String</t>
+  </si>
+  <si>
+    <t>mecanimName|String</t>
+  </si>
+  <si>
+    <t>fadeDuration|Float</t>
+  </si>
+  <si>
+    <t>controlId|String</t>
+  </si>
+  <si>
+    <t>castingId|String</t>
+  </si>
+  <si>
+    <t>skillId|String</t>
+  </si>
+  <si>
+    <t>Base Layer.Attack1</t>
+  </si>
+  <si>
+    <t>Control204</t>
+  </si>
+  <si>
+    <t>Control301</t>
+  </si>
+  <si>
+    <t>Control201</t>
+  </si>
+  <si>
+    <t>id|String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>controlType|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inputType|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>controlId_검증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>castingId_검증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skillId_검증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>controlType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inputType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>controlType_Verify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>controlType_List</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inputType_Verify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inputType_List</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>castingType|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prefab|String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>range|Float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>angle|Float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pointRadius|Float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>width|Float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>longDistance|Bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>castingType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>castingType_Verify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>castingType_List</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>actorId|Int</t>
-  </si>
-  <si>
-    <t>actionName|String</t>
-  </si>
-  <si>
-    <t>listAllowingState|String</t>
-  </si>
-  <si>
-    <t>listNotAllowingState|String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>passiveSkill|Bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon|String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cooltime|Float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>damageFactor|String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>useCooltimeOverriding|Bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>useDamageFactorOverriding|Bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>useMecanimNameOverriding|Bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skillId|String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>mecanimName|String</t>
-  </si>
-  <si>
-    <t>fadeDuration|Float</t>
-  </si>
-  <si>
-    <t>controlId|String</t>
-  </si>
-  <si>
-    <t>castingId|String</t>
-  </si>
-  <si>
-    <t>skillId|String</t>
-  </si>
-  <si>
-    <t>Base Layer.Attack1</t>
-  </si>
-  <si>
-    <t>Control204</t>
-  </si>
-  <si>
-    <t>Control301</t>
-  </si>
-  <si>
-    <t>Control201</t>
-  </si>
-  <si>
-    <t>id|String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>controlType|Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>inputType|Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>controlId_검증</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>castingId_검증</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skillId_검증</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>controlType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>inputType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>controlType_Verify</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>controlType_List</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>inputType_Verify</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>inputType_List</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id|Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>castingType|Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prefab|String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>range|Float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>angle|Float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pointRadius|Float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>width|Float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>longDistance|Bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>castingType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>castingType_Verify</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>castingType_List</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>actorId|Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>passiveSkill|Bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>icon|String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cooltime|Float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>damageFactor|String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>useCooltimeOverriding|Bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>useDamageFactorOverriding|Bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>useMecanimNameOverriding|Bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skillId|String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>level|Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mecanimName|String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>actorId|String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Actor001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Actor002</t>
   </si>
 </sst>
 </file>
@@ -995,23 +1003,26 @@
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.875" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="16.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="19.875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="24.125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.875" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="14" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.625" customWidth="1" outlineLevel="1"/>
-    <col min="17" max="17" width="14.25" customWidth="1" outlineLevel="1"/>
-    <col min="19" max="19" width="12.125" customWidth="1" outlineLevel="1"/>
-    <col min="20" max="21" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="11" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="12.25" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="9.875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="13.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="13.625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="16" width="9" collapsed="1"/>
+    <col min="17" max="17" width="14.25" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="18" max="18" width="9" collapsed="1"/>
+    <col min="19" max="19" width="12.125" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="20" max="21" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="22" width="9" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -1019,46 +1030,46 @@
         <v>76</v>
       </c>
       <c r="B1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" t="s">
         <v>77</v>
-      </c>
-      <c r="C1" t="s">
-        <v>78</v>
       </c>
       <c r="D1" t="s">
         <v>58</v>
       </c>
       <c r="E1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F1" t="s">
         <v>58</v>
       </c>
       <c r="G1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1" t="s">
         <v>80</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>81</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>82</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L1" t="s">
         <v>83</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>93</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>84</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>94</v>
-      </c>
-      <c r="N1" t="s">
-        <v>85</v>
-      </c>
-      <c r="O1" t="s">
-        <v>95</v>
       </c>
       <c r="Q1" t="s">
         <v>61</v>
@@ -1097,8 +1108,8 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>1</v>
+      <c r="B2" t="s">
+        <v>124</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -1197,8 +1208,8 @@
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
-        <v>1</v>
+      <c r="B3" t="s">
+        <v>124</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -1250,8 +1261,8 @@
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4">
-        <v>1</v>
+      <c r="B4" t="s">
+        <v>124</v>
       </c>
       <c r="E4" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -1265,7 +1276,7 @@
         <v>3, 4</v>
       </c>
       <c r="H4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I4">
         <v>0.05</v>
@@ -1303,8 +1314,8 @@
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5">
-        <v>1</v>
+      <c r="B5" t="s">
+        <v>124</v>
       </c>
       <c r="E5" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -1324,7 +1335,7 @@
         <v>0.05</v>
       </c>
       <c r="J5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K5" t="str">
         <f>IF(ISBLANK(J5),"",IF(ISERROR(VLOOKUP(J5,ControlTable!$A:$A,1,0)),"없음",""))</f>
@@ -1362,8 +1373,8 @@
       <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6">
-        <v>1</v>
+      <c r="B6" t="s">
+        <v>124</v>
       </c>
       <c r="E6" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -1383,7 +1394,7 @@
         <v>0.05</v>
       </c>
       <c r="J6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K6" t="str">
         <f>IF(ISBLANK(J6),"",IF(ISERROR(VLOOKUP(J6,ControlTable!$A:$A,1,0)),"없음",""))</f>
@@ -1405,8 +1416,8 @@
       <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c r="B7">
-        <v>2</v>
+      <c r="B7" t="s">
+        <v>125</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
@@ -1442,8 +1453,8 @@
       <c r="A8" t="s">
         <v>15</v>
       </c>
-      <c r="B8">
-        <v>2</v>
+      <c r="B8" t="s">
+        <v>125</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -1482,8 +1493,8 @@
       <c r="A9" t="s">
         <v>16</v>
       </c>
-      <c r="B9">
-        <v>2</v>
+      <c r="B9" t="s">
+        <v>125</v>
       </c>
       <c r="E9" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -1497,7 +1508,7 @@
         <v>3, 4</v>
       </c>
       <c r="H9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I9">
         <v>0.05</v>
@@ -1522,8 +1533,8 @@
       <c r="A10" t="s">
         <v>17</v>
       </c>
-      <c r="B10">
-        <v>2</v>
+      <c r="B10" t="s">
+        <v>125</v>
       </c>
       <c r="E10" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -1543,7 +1554,7 @@
         <v>0.05</v>
       </c>
       <c r="J10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K10" t="str">
         <f>IF(ISBLANK(J10),"",IF(ISERROR(VLOOKUP(J10,ControlTable!$A:$A,1,0)),"없음",""))</f>
@@ -1565,8 +1576,8 @@
       <c r="A11" t="s">
         <v>19</v>
       </c>
-      <c r="B11">
-        <v>2</v>
+      <c r="B11" t="s">
+        <v>125</v>
       </c>
       <c r="E11" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -1586,7 +1597,7 @@
         <v>0.05</v>
       </c>
       <c r="J11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K11" t="str">
         <f>IF(ISBLANK(J11),"",IF(ISERROR(VLOOKUP(J11,ControlTable!$A:$A,1,0)),"없음",""))</f>
@@ -1605,7 +1616,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="S2:U4">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="S2:U4">
     <sortCondition descending="1" ref="U2:U4"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1644,25 +1655,25 @@
   <sheetData>
     <row r="1" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" t="s">
         <v>90</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>96</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>91</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>97</v>
       </c>
-      <c r="E1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>98</v>
-      </c>
-      <c r="I1" t="s">
-        <v>99</v>
       </c>
       <c r="J1" t="s">
         <v>35</v>
@@ -1671,10 +1682,10 @@
         <v>21</v>
       </c>
       <c r="M1" t="s">
+        <v>99</v>
+      </c>
+      <c r="O1" t="s">
         <v>100</v>
-      </c>
-      <c r="O1" t="s">
-        <v>101</v>
       </c>
       <c r="P1" t="s">
         <v>35</v>
@@ -1800,7 +1811,7 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B3" t="s">
         <v>37</v>
@@ -1891,7 +1902,7 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B4" t="s">
         <v>37</v>
@@ -1982,7 +1993,7 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B5" t="s">
         <v>28</v>
@@ -2145,7 +2156,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="O2:Q7">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="O2:Q7">
     <sortCondition descending="1" ref="Q2:Q7"/>
     <sortCondition ref="P2:P7"/>
   </sortState>
@@ -2184,37 +2195,37 @@
   <sheetData>
     <row r="1" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" t="s">
         <v>102</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K1" t="s">
         <v>110</v>
       </c>
-      <c r="C1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G1" t="s">
-        <v>107</v>
-      </c>
-      <c r="H1" t="s">
-        <v>108</v>
-      </c>
-      <c r="I1" t="s">
-        <v>109</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>111</v>
-      </c>
-      <c r="M1" t="s">
-        <v>112</v>
       </c>
       <c r="N1" t="s">
         <v>35</v>
@@ -2481,7 +2492,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="M2:O5">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="M2:O5">
     <sortCondition descending="1" ref="O2:O5"/>
     <sortCondition ref="N2:N5"/>
   </sortState>
@@ -2518,31 +2529,31 @@
   <sheetData>
     <row r="1" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" t="s">
         <v>113</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>114</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>115</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>116</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>117</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>118</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>119</v>
-      </c>
-      <c r="I1" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -2775,22 +2786,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" t="s">
         <v>121</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1" t="s">
         <v>122</v>
-      </c>
-      <c r="D1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F1" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">

--- a/Excel/작업Action.xlsx
+++ b/Excel/작업Action.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{639A5089-25AE-4217-962F-F4A42C557DE1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F0D8F12-6FA8-4CFE-8905-1D48ACBF6AEF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -173,7 +173,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="136">
   <si>
     <t>Action00101</t>
   </si>
@@ -596,6 +596,42 @@
   </si>
   <si>
     <t>Actor002</t>
+  </si>
+  <si>
+    <t>Rosehips</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rosehips01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rosehips02</t>
+  </si>
+  <si>
+    <t>Rosehips03</t>
+  </si>
+  <si>
+    <t>Idle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Move</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Die</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base Layer.Die</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Action00106</t>
+  </si>
+  <si>
+    <t>Action00206</t>
   </si>
 </sst>
 </file>
@@ -996,7 +1032,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W11"/>
+  <dimension ref="A1:W16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1115,7 +1151,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="str">
-        <f t="shared" ref="E2:E11" ca="1" si="0">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+        <f t="shared" ref="E2:E16" ca="1" si="0">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D2,
@@ -1142,7 +1178,7 @@
         <v/>
       </c>
       <c r="G2" t="str">
-        <f t="shared" ref="G2:G11" ca="1" si="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+        <f t="shared" ref="G2:G16" ca="1" si="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(F2,
@@ -1264,37 +1300,14 @@
       <c r="B4" t="s">
         <v>124</v>
       </c>
-      <c r="E4" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="F4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G4" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>3, 4</v>
+      <c r="C4" t="s">
+        <v>132</v>
       </c>
       <c r="H4" t="s">
-        <v>85</v>
+        <v>133</v>
       </c>
       <c r="I4">
         <v>0.05</v>
-      </c>
-      <c r="J4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K4" t="str">
-        <f>IF(ISBLANK(J4),"",IF(ISERROR(VLOOKUP(J4,ControlTable!$A:$A,1,0)),"없음",""))</f>
-        <v/>
-      </c>
-      <c r="M4" t="str">
-        <f>IF(ISBLANK(L4),"",IF(ISERROR(VLOOKUP(L4,CastingTable!$A:$A,1,0)),"없음",""))</f>
-        <v/>
-      </c>
-      <c r="O4" t="str">
-        <f>IF(ISBLANK(N4),"",IF(ISERROR(VLOOKUP(N4,SkillTable!$A:$A,1,0)),"없음",""))</f>
-        <v/>
       </c>
       <c r="Q4" t="s">
         <v>23</v>
@@ -1329,27 +1342,21 @@
         <v>3, 4</v>
       </c>
       <c r="H5" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="I5">
         <v>0.05</v>
       </c>
       <c r="J5" t="s">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="K5" t="str">
         <f>IF(ISBLANK(J5),"",IF(ISERROR(VLOOKUP(J5,ControlTable!$A:$A,1,0)),"없음",""))</f>
         <v/>
       </c>
-      <c r="L5" t="s">
-        <v>62</v>
-      </c>
       <c r="M5" t="str">
         <f>IF(ISBLANK(L5),"",IF(ISERROR(VLOOKUP(L5,CastingTable!$A:$A,1,0)),"없음",""))</f>
         <v/>
-      </c>
-      <c r="N5" t="s">
-        <v>10</v>
       </c>
       <c r="O5" t="str">
         <f>IF(ISBLANK(N5),"",IF(ISERROR(VLOOKUP(N5,SkillTable!$A:$A,1,0)),"없음",""))</f>
@@ -1388,24 +1395,27 @@
         <v>3, 4</v>
       </c>
       <c r="H6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I6">
         <v>0.05</v>
       </c>
       <c r="J6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K6" t="str">
         <f>IF(ISBLANK(J6),"",IF(ISERROR(VLOOKUP(J6,ControlTable!$A:$A,1,0)),"없음",""))</f>
         <v/>
       </c>
+      <c r="L6" t="s">
+        <v>62</v>
+      </c>
       <c r="M6" t="str">
         <f>IF(ISBLANK(L6),"",IF(ISERROR(VLOOKUP(L6,CastingTable!$A:$A,1,0)),"없음",""))</f>
         <v/>
       </c>
       <c r="N6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="O6" t="str">
         <f>IF(ISBLANK(N6),"",IF(ISERROR(VLOOKUP(N6,SkillTable!$A:$A,1,0)),"없음",""))</f>
@@ -1414,27 +1424,30 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>134</v>
       </c>
       <c r="B7" t="s">
-        <v>125</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1</v>
+        <v>124</v>
       </c>
       <c r="E7" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
+      <c r="F7" t="s">
+        <v>60</v>
+      </c>
       <c r="G7" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>3, 4</v>
       </c>
       <c r="H7" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="I7">
-        <v>0.1</v>
+        <v>0.05</v>
+      </c>
+      <c r="J7" t="s">
+        <v>87</v>
       </c>
       <c r="K7" t="str">
         <f>IF(ISBLANK(J7),"",IF(ISERROR(VLOOKUP(J7,ControlTable!$A:$A,1,0)),"없음",""))</f>
@@ -1444,6 +1457,9 @@
         <f>IF(ISBLANK(L7),"",IF(ISERROR(VLOOKUP(L7,CastingTable!$A:$A,1,0)),"없음",""))</f>
         <v/>
       </c>
+      <c r="N7" t="s">
+        <v>13</v>
+      </c>
       <c r="O7" t="str">
         <f>IF(ISBLANK(N7),"",IF(ISERROR(VLOOKUP(N7,SkillTable!$A:$A,1,0)),"없음",""))</f>
         <v/>
@@ -1451,27 +1467,24 @@
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
         <v>125</v>
       </c>
       <c r="C8" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="F8" t="s">
-        <v>60</v>
-      </c>
       <c r="G8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>3, 4</v>
+        <v/>
       </c>
       <c r="H8" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I8">
         <v>0.1</v>
@@ -1491,10 +1504,13 @@
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
         <v>125</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
       </c>
       <c r="E9" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -1508,13 +1524,10 @@
         <v>3, 4</v>
       </c>
       <c r="H9" t="s">
-        <v>85</v>
+        <v>5</v>
       </c>
       <c r="I9">
-        <v>0.05</v>
-      </c>
-      <c r="J9" t="s">
-        <v>6</v>
+        <v>0.1</v>
       </c>
       <c r="K9" t="str">
         <f>IF(ISBLANK(J9),"",IF(ISERROR(VLOOKUP(J9,ControlTable!$A:$A,1,0)),"없음",""))</f>
@@ -1531,50 +1544,24 @@
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>125</v>
       </c>
-      <c r="E10" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="F10" t="s">
-        <v>60</v>
-      </c>
-      <c r="G10" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>3, 4</v>
+      <c r="C10" t="s">
+        <v>132</v>
       </c>
       <c r="H10" t="s">
-        <v>9</v>
+        <v>133</v>
       </c>
       <c r="I10">
         <v>0.05</v>
       </c>
-      <c r="J10" t="s">
-        <v>88</v>
-      </c>
-      <c r="K10" t="str">
-        <f>IF(ISBLANK(J10),"",IF(ISERROR(VLOOKUP(J10,ControlTable!$A:$A,1,0)),"없음",""))</f>
-        <v/>
-      </c>
-      <c r="M10" t="str">
-        <f>IF(ISBLANK(L10),"",IF(ISERROR(VLOOKUP(L10,CastingTable!$A:$A,1,0)),"없음",""))</f>
-        <v/>
-      </c>
-      <c r="N10" t="s">
-        <v>18</v>
-      </c>
-      <c r="O10" t="str">
-        <f>IF(ISBLANK(N10),"",IF(ISERROR(VLOOKUP(N10,SkillTable!$A:$A,1,0)),"없음",""))</f>
-        <v/>
-      </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
         <v>125</v>
@@ -1591,13 +1578,13 @@
         <v>3, 4</v>
       </c>
       <c r="H11" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="I11">
         <v>0.05</v>
       </c>
       <c r="J11" t="s">
-        <v>87</v>
+        <v>6</v>
       </c>
       <c r="K11" t="str">
         <f>IF(ISBLANK(J11),"",IF(ISERROR(VLOOKUP(J11,ControlTable!$A:$A,1,0)),"없음",""))</f>
@@ -1607,12 +1594,173 @@
         <f>IF(ISBLANK(L11),"",IF(ISERROR(VLOOKUP(L11,CastingTable!$A:$A,1,0)),"없음",""))</f>
         <v/>
       </c>
-      <c r="N11" t="s">
-        <v>20</v>
-      </c>
       <c r="O11" t="str">
         <f>IF(ISBLANK(N11),"",IF(ISERROR(VLOOKUP(N11,SkillTable!$A:$A,1,0)),"없음",""))</f>
         <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>125</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="F12" t="s">
+        <v>60</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>3, 4</v>
+      </c>
+      <c r="H12" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12">
+        <v>0.05</v>
+      </c>
+      <c r="J12" t="s">
+        <v>88</v>
+      </c>
+      <c r="K12" t="str">
+        <f>IF(ISBLANK(J12),"",IF(ISERROR(VLOOKUP(J12,ControlTable!$A:$A,1,0)),"없음",""))</f>
+        <v/>
+      </c>
+      <c r="M12" t="str">
+        <f>IF(ISBLANK(L12),"",IF(ISERROR(VLOOKUP(L12,CastingTable!$A:$A,1,0)),"없음",""))</f>
+        <v/>
+      </c>
+      <c r="N12" t="s">
+        <v>18</v>
+      </c>
+      <c r="O12" t="str">
+        <f>IF(ISBLANK(N12),"",IF(ISERROR(VLOOKUP(N12,SkillTable!$A:$A,1,0)),"없음",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>135</v>
+      </c>
+      <c r="B13" t="s">
+        <v>125</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="F13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>3, 4</v>
+      </c>
+      <c r="H13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13">
+        <v>0.05</v>
+      </c>
+      <c r="J13" t="s">
+        <v>87</v>
+      </c>
+      <c r="K13" t="str">
+        <f>IF(ISBLANK(J13),"",IF(ISERROR(VLOOKUP(J13,ControlTable!$A:$A,1,0)),"없음",""))</f>
+        <v/>
+      </c>
+      <c r="M13" t="str">
+        <f>IF(ISBLANK(L13),"",IF(ISERROR(VLOOKUP(L13,CastingTable!$A:$A,1,0)),"없음",""))</f>
+        <v/>
+      </c>
+      <c r="N13" t="s">
+        <v>20</v>
+      </c>
+      <c r="O13" t="str">
+        <f>IF(ISBLANK(N13),"",IF(ISERROR(VLOOKUP(N13,SkillTable!$A:$A,1,0)),"없음",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>127</v>
+      </c>
+      <c r="B14" t="s">
+        <v>126</v>
+      </c>
+      <c r="C14" t="s">
+        <v>130</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H14" t="s">
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>128</v>
+      </c>
+      <c r="B15" t="s">
+        <v>126</v>
+      </c>
+      <c r="C15" t="s">
+        <v>131</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="F15" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>3, 4</v>
+      </c>
+      <c r="H15" t="s">
+        <v>5</v>
+      </c>
+      <c r="I15">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>129</v>
+      </c>
+      <c r="B16" t="s">
+        <v>126</v>
+      </c>
+      <c r="C16" t="s">
+        <v>132</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H16" t="s">
+        <v>133</v>
+      </c>
+      <c r="I16">
+        <v>0.05</v>
       </c>
     </row>
   </sheetData>
@@ -1620,8 +1768,8 @@
     <sortCondition descending="1" ref="U2:U4"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="D2:D11 F2:F11" xr:uid="{00000000-0002-0000-0000-000000000000}">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="D2:D13 F2:F13 F15" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$Q$2:$Q$5</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/작업Action.xlsx
+++ b/Excel/작업Action.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F0D8F12-6FA8-4CFE-8905-1D48ACBF6AEF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53859D11-657D-419E-92C7-53CCE4B737CB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ActionTable" sheetId="1" r:id="rId1"/>
@@ -173,7 +173,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="135">
   <si>
     <t>Action00101</t>
   </si>
@@ -236,9 +236,6 @@
   </si>
   <si>
     <t>ActiveTwo002</t>
-  </si>
-  <si>
-    <t>len</t>
   </si>
   <si>
     <t>Attacked</t>
@@ -1041,80 +1038,77 @@
     <col min="1" max="1" width="14.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="16.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="21.875" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="19.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.5" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.875" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="19.875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24.125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="12.25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="9.875" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="14" width="13.625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="13.625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="16" max="16" width="9" collapsed="1"/>
-    <col min="17" max="17" width="14.25" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="18" max="18" width="9" collapsed="1"/>
-    <col min="19" max="19" width="12.125" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="20" max="21" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="22" width="9" collapsed="1"/>
+    <col min="11" max="11" width="11" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.875" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.625" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="17" width="14.25" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="19" width="12.125" customWidth="1" outlineLevel="1"/>
+    <col min="20" max="21" width="9" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" t="s">
         <v>76</v>
       </c>
-      <c r="B1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" t="s">
         <v>77</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L1" t="s">
+        <v>82</v>
+      </c>
+      <c r="M1" t="s">
+        <v>92</v>
+      </c>
+      <c r="N1" t="s">
+        <v>83</v>
+      </c>
+      <c r="O1" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>60</v>
+      </c>
+      <c r="S1" t="s">
         <v>58</v>
       </c>
-      <c r="E1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H1" t="s">
-        <v>80</v>
-      </c>
-      <c r="I1" t="s">
-        <v>81</v>
-      </c>
-      <c r="J1" t="s">
-        <v>82</v>
-      </c>
-      <c r="K1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L1" t="s">
-        <v>83</v>
-      </c>
-      <c r="M1" t="s">
-        <v>93</v>
-      </c>
-      <c r="N1" t="s">
-        <v>84</v>
-      </c>
-      <c r="O1" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>61</v>
-      </c>
-      <c r="S1" t="s">
-        <v>59</v>
-      </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="U1" t="str">
         <f ca="1">IF(OR(OFFSET(U1,1,0)&lt;OFFSET(U1,2,0),
@@ -1145,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -1226,7 +1220,7 @@
         <v>1</v>
       </c>
       <c r="S2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="T2">
         <v>4</v>
@@ -1245,7 +1239,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -1255,7 +1249,7 @@
         <v/>
       </c>
       <c r="F3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1283,7 +1277,7 @@
         <v>4</v>
       </c>
       <c r="S3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T3">
         <v>3</v>
@@ -1298,19 +1292,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C4" t="s">
+        <v>131</v>
+      </c>
+      <c r="H4" t="s">
         <v>132</v>
-      </c>
-      <c r="H4" t="s">
-        <v>133</v>
       </c>
       <c r="I4">
         <v>0.05</v>
       </c>
       <c r="Q4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S4" t="s">
         <v>1</v>
@@ -1328,21 +1322,21 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E5" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="F5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>3, 4</v>
       </c>
       <c r="H5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I5">
         <v>0.05</v>
@@ -1363,7 +1357,7 @@
         <v/>
       </c>
       <c r="Q5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="S5" t="s">
         <v>4</v>
@@ -1381,14 +1375,14 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E6" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="F6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1401,14 +1395,14 @@
         <v>0.05</v>
       </c>
       <c r="J6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K6" t="str">
         <f>IF(ISBLANK(J6),"",IF(ISERROR(VLOOKUP(J6,ControlTable!$A:$A,1,0)),"없음",""))</f>
         <v/>
       </c>
       <c r="L6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M6" t="str">
         <f>IF(ISBLANK(L6),"",IF(ISERROR(VLOOKUP(L6,CastingTable!$A:$A,1,0)),"없음",""))</f>
@@ -1424,17 +1418,17 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E7" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="F7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1447,7 +1441,7 @@
         <v>0.05</v>
       </c>
       <c r="J7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K7" t="str">
         <f>IF(ISBLANK(J7),"",IF(ISERROR(VLOOKUP(J7,ControlTable!$A:$A,1,0)),"없음",""))</f>
@@ -1470,7 +1464,7 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
@@ -1507,7 +1501,7 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
@@ -1517,7 +1511,7 @@
         <v/>
       </c>
       <c r="F9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1547,13 +1541,13 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C10" t="s">
+        <v>131</v>
+      </c>
+      <c r="H10" t="s">
         <v>132</v>
-      </c>
-      <c r="H10" t="s">
-        <v>133</v>
       </c>
       <c r="I10">
         <v>0.05</v>
@@ -1564,21 +1558,21 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E11" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="F11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G11" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>3, 4</v>
       </c>
       <c r="H11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I11">
         <v>0.05</v>
@@ -1604,14 +1598,14 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E12" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="F12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G12" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1624,7 +1618,7 @@
         <v>0.05</v>
       </c>
       <c r="J12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K12" t="str">
         <f>IF(ISBLANK(J12),"",IF(ISERROR(VLOOKUP(J12,ControlTable!$A:$A,1,0)),"없음",""))</f>
@@ -1644,17 +1638,17 @@
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E13" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="F13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G13" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1667,7 +1661,7 @@
         <v>0.05</v>
       </c>
       <c r="J13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K13" t="str">
         <f>IF(ISBLANK(J13),"",IF(ISERROR(VLOOKUP(J13,ControlTable!$A:$A,1,0)),"없음",""))</f>
@@ -1687,13 +1681,13 @@
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E14" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -1712,20 +1706,20 @@
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E15" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="F15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G15" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1740,13 +1734,13 @@
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E16" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -1757,7 +1751,7 @@
         <v/>
       </c>
       <c r="H16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I16">
         <v>0.05</v>
@@ -1768,7 +1762,7 @@
     <sortCondition descending="1" ref="U2:U4"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="D2:D13 F2:F13 F15" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$Q$2:$Q$5</formula1>
     </dataValidation>
@@ -1803,40 +1797,60 @@
   <sheetData>
     <row r="1" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" t="s">
         <v>89</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>95</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>90</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>96</v>
       </c>
-      <c r="E1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>97</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" t="str">
+        <f ca="1">IF(OR(OFFSET(K1,1,0)&lt;OFFSET(K1,2,0),
+OFFSET(K1,1,0)&lt;OFFSET(K1,2,0),
+OFFSET(K1,2,0)&lt;OFFSET(K1,3,0),
+OFFSET(K1,3,0)&lt;OFFSET(K1,4,0),
+OFFSET(K1,4,0)&lt;OFFSET(K1,5,0),
+OFFSET(K1,5,0)&lt;OFFSET(K1,6,0),
+OFFSET(K1,6,0)&lt;OFFSET(K1,7,0),
+OFFSET(K1,7,0)&lt;OFFSET(K1,8,0),
+OFFSET(K1,8,0)&lt;OFFSET(K1,9,0),
+OFFSET(K1,9,0)&lt;OFFSET(K1,10,0),
+OFFSET(K1,10,0)&lt;OFFSET(K1,11,0),
+OFFSET(K1,11,0)&lt;OFFSET(K1,12,0),
+OFFSET(K1,12,0)&lt;OFFSET(K1,13,0),
+OFFSET(K1,13,0)&lt;OFFSET(K1,14,0),
+OFFSET(K1,14,0)&lt;OFFSET(K1,15,0),
+OFFSET(K1,15,0)&lt;OFFSET(K1,16,0),
+OFFSET(K1,16,0)&lt;OFFSET(K1,17,0),
+OFFSET(K1,17,0)&lt;OFFSET(K1,18,0),
+OFFSET(K1,18,0)&lt;OFFSET(K1,19,0),
+OFFSET(K1,19,0)&lt;OFFSET(K1,20,0)),"내림차순 정렬할 것","len")</f>
+        <v>len</v>
+      </c>
+      <c r="M1" t="s">
         <v>98</v>
       </c>
-      <c r="J1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>99</v>
       </c>
-      <c r="O1" t="s">
-        <v>100</v>
-      </c>
       <c r="P1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="str">
         <f ca="1">IF(OR(OFFSET(Q1,1,0)&lt;OFFSET(Q1,2,0),
@@ -1867,7 +1881,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" t="str">
         <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
@@ -1897,7 +1911,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E2" t="str">
         <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
@@ -1927,10 +1941,10 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J2">
         <v>4</v>
@@ -1940,10 +1954,10 @@
         <v>17</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P2">
         <v>6</v>
@@ -1959,10 +1973,10 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3" t="str">
         <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
@@ -1992,7 +2006,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E3" t="str">
         <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
@@ -2022,10 +2036,10 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -2035,10 +2049,10 @@
         <v>16</v>
       </c>
       <c r="M3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P3">
         <v>7</v>
@@ -2050,10 +2064,10 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" t="str">
         <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
@@ -2083,7 +2097,7 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E4" t="str">
         <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
@@ -2113,10 +2127,10 @@
         <v>4</v>
       </c>
       <c r="G4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" t="s">
         <v>37</v>
-      </c>
-      <c r="I4" t="s">
-        <v>38</v>
       </c>
       <c r="J4">
         <v>2</v>
@@ -2126,10 +2140,10 @@
         <v>16</v>
       </c>
       <c r="M4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P4">
         <v>4</v>
@@ -2141,10 +2155,10 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" t="str">
         <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
@@ -2174,7 +2188,7 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5" t="str">
         <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
@@ -2204,10 +2218,10 @@
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J5">
         <v>3</v>
@@ -2217,10 +2231,10 @@
         <v>16</v>
       </c>
       <c r="M5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P5">
         <v>5</v>
@@ -2232,10 +2246,10 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="G6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -2245,10 +2259,10 @@
         <v>4</v>
       </c>
       <c r="M6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -2260,10 +2274,10 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="M7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P7">
         <v>1</v>
@@ -2275,10 +2289,10 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="M8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P8">
         <v>3</v>
@@ -2290,10 +2304,10 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="M9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P9">
         <v>2</v>
@@ -2343,40 +2357,40 @@
   <sheetData>
     <row r="1" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" t="s">
         <v>101</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K1" t="s">
         <v>109</v>
       </c>
-      <c r="C1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F1" t="s">
-        <v>105</v>
-      </c>
-      <c r="G1" t="s">
-        <v>106</v>
-      </c>
-      <c r="H1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I1" t="s">
-        <v>108</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>110</v>
       </c>
-      <c r="M1" t="s">
-        <v>111</v>
-      </c>
       <c r="N1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O1" t="str">
         <f ca="1">IF(OR(OFFSET(O1,1,0)&lt;OFFSET(O1,2,0),
@@ -2404,10 +2418,10 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C2" t="str">
         <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
@@ -2437,7 +2451,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E2">
         <v>5</v>
@@ -2455,10 +2469,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N2">
         <v>3</v>
@@ -2474,10 +2488,10 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3:C5" ca="1" si="0">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
@@ -2507,7 +2521,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E3">
         <v>6.5</v>
@@ -2525,10 +2539,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N3">
         <v>4</v>
@@ -2540,17 +2554,17 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E4">
         <v>10</v>
@@ -2568,10 +2582,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -2583,17 +2597,17 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E5">
         <v>4.5</v>
@@ -2611,10 +2625,10 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N5">
         <v>2</v>
@@ -2626,10 +2640,10 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="K6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -2677,31 +2691,31 @@
   <sheetData>
     <row r="1" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" t="s">
         <v>112</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>113</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>114</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>115</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>116</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>117</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>118</v>
-      </c>
-      <c r="I1" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -2715,13 +2729,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E2">
         <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G2" t="b">
         <f>IF(ISERROR(MATCH($A2,SkillLevelTable!$B:$B,0)),FALSE,
@@ -2750,13 +2764,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E3">
         <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G3" t="b">
         <f>IF(ISERROR(MATCH($A3,SkillLevelTable!$B:$B,0)),FALSE,
@@ -2776,7 +2790,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -2788,7 +2802,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G4" t="b">
         <f>IF(ISERROR(MATCH($A4,SkillLevelTable!$B:$B,0)),FALSE,
@@ -2817,13 +2831,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E5">
         <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G5" t="b">
         <f>IF(ISERROR(MATCH($A5,SkillLevelTable!$B:$B,0)),FALSE,
@@ -2852,13 +2866,13 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E6">
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G6" t="b">
         <f>IF(ISERROR(MATCH($A6,SkillLevelTable!$B:$B,0)),FALSE,
@@ -2878,7 +2892,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -2890,7 +2904,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G7" t="b">
         <f>IF(ISERROR(MATCH($A7,SkillLevelTable!$B:$B,0)),FALSE,
@@ -2934,27 +2948,27 @@
   <sheetData>
     <row r="1" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1" t="s">
         <v>120</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F1" t="s">
         <v>121</v>
-      </c>
-      <c r="D1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F1" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -2966,7 +2980,7 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
@@ -2974,7 +2988,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -2986,15 +3000,15 @@
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -3006,15 +3020,15 @@
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -3026,15 +3040,15 @@
         <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -3046,15 +3060,15 @@
         <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
@@ -3063,12 +3077,12 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
@@ -3077,12 +3091,12 @@
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
@@ -3091,12 +3105,12 @@
         <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -3105,12 +3119,12 @@
         <v>4</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
@@ -3119,7 +3133,7 @@
         <v>5</v>
       </c>
       <c r="E11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/작업Action.xlsx
+++ b/Excel/작업Action.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53859D11-657D-419E-92C7-53CCE4B737CB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABA400B5-6DA6-44F4-B8D2-BC70885F7A98}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ActionTable" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,9 @@
     <sheet name="SkillTable" sheetId="4" r:id="rId4"/>
     <sheet name="SkillLevelTable" sheetId="5" r:id="rId5"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId6"/>
+  </externalReferences>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -173,7 +176,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="152">
   <si>
     <t>Action00101</t>
   </si>
@@ -297,9 +300,6 @@
     <t>S_Forward_ray</t>
   </si>
   <si>
-    <t>0.4,0.5,0.6</t>
-  </si>
-  <si>
     <t>S_spell04</t>
   </si>
   <si>
@@ -430,205 +430,272 @@
     <t>controlId|String</t>
   </si>
   <si>
+    <t>skillId|String</t>
+  </si>
+  <si>
+    <t>Base Layer.Attack1</t>
+  </si>
+  <si>
+    <t>Control204</t>
+  </si>
+  <si>
+    <t>Control301</t>
+  </si>
+  <si>
+    <t>Control201</t>
+  </si>
+  <si>
+    <t>id|String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>controlType|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inputType|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>controlId_검증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>castingId_검증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skillId_검증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>controlType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inputType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>controlType_Verify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>controlType_List</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inputType_Verify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inputType_List</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>castingType|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prefab|String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>range|Float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>angle|Float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pointRadius|Float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>width|Float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>longDistance|Bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>castingType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>castingType_Verify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>castingType_List</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>passiveSkill|Bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon|String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cooltime|Float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>useCooltimeOverriding|Bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>useMecanimNameOverriding|Bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skillId|String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mecanimName|String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>actorId|String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Actor001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Actor002</t>
+  </si>
+  <si>
+    <t>Rosehips</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rosehips01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rosehips02</t>
+  </si>
+  <si>
+    <t>Rosehips03</t>
+  </si>
+  <si>
+    <t>Idle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Move</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Die</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base Layer.Die</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Action00106</t>
+  </si>
+  <si>
+    <t>Action00206</t>
+  </si>
+  <si>
+    <t>Actor001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>passiveAffectorValueId|String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>usePassiveAffectorValueIdOverriding|Bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Passive00101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Passive00102</t>
+  </si>
+  <si>
+    <t>Passive00103</t>
+  </si>
+  <si>
+    <t>Passive00104</t>
+  </si>
+  <si>
+    <t>Passive00105</t>
+  </si>
+  <si>
+    <t>AtkUpBuff001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AtkUpBuff001,DefUpBuff001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40,50,60,90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>툴에적은어펙터밸류Id이건엑셀전용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AffectorValue001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attacked</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>castingId|String</t>
-  </si>
-  <si>
-    <t>skillId|String</t>
-  </si>
-  <si>
-    <t>Base Layer.Attack1</t>
-  </si>
-  <si>
-    <t>Control204</t>
-  </si>
-  <si>
-    <t>Control301</t>
-  </si>
-  <si>
-    <t>Control201</t>
-  </si>
-  <si>
-    <t>id|String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>controlType|Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>inputType|Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>controlId_검증</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>castingId_검증</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skillId_검증</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>controlType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>inputType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>controlType_Verify</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>controlType_List</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>inputType_Verify</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>inputType_List</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id|Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>castingType|Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prefab|String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>range|Float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>angle|Float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pointRadius|Float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>width|Float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>longDistance|Bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>castingType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>castingType_Verify</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>castingType_List</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>actorId|Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>passiveSkill|Bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>icon|String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cooltime|Float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>damageFactor|String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>useCooltimeOverriding|Bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>useDamageFactorOverriding|Bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>useMecanimNameOverriding|Bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skillId|String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>level|Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mecanimName|String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>actorId|String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Actor001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Actor002</t>
-  </si>
-  <si>
-    <t>Rosehips</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rosehips01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rosehips02</t>
-  </si>
-  <si>
-    <t>Rosehips03</t>
-  </si>
-  <si>
-    <t>Idle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Move</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Die</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Base Layer.Die</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Action00106</t>
-  </si>
-  <si>
-    <t>Action00206</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중간용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>descriptionId|String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nameId|String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_ActiveOne001_Name</t>
+  </si>
+  <si>
+    <t>Skill_ActiveOne001_Description</t>
+  </si>
+  <si>
+    <t>passiveAffectorValueId|String!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parameter|String!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -687,9 +754,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -706,6 +776,542 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="AffectorValueTable"/>
+      <sheetName val="AffectorValueLevelTable"/>
+      <sheetName val="어펙터종류"/>
+      <sheetName val="ActorState종류"/>
+      <sheetName val="ConditionValueTable"/>
+      <sheetName val="조건 종류"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>levelId|String</v>
+          </cell>
+          <cell r="B1" t="str">
+            <v>id|String</v>
+          </cell>
+          <cell r="D1" t="str">
+            <v>어펙터레벨</v>
+          </cell>
+          <cell r="E1" t="str">
+            <v>conditionValueId|String</v>
+          </cell>
+          <cell r="F1" t="str">
+            <v>fValue1|Float</v>
+          </cell>
+          <cell r="G1" t="str">
+            <v>fValue2|Float</v>
+          </cell>
+          <cell r="H1" t="str">
+            <v>fValue3|Float</v>
+          </cell>
+          <cell r="I1" t="str">
+            <v>fValue4|Float</v>
+          </cell>
+          <cell r="J1" t="str">
+            <v>iValue1|Int</v>
+          </cell>
+          <cell r="K1" t="str">
+            <v>iValue2|Int</v>
+          </cell>
+          <cell r="L1" t="str">
+            <v>sValue1|String</v>
+          </cell>
+          <cell r="M1" t="str">
+            <v>sValue2|String</v>
+          </cell>
+          <cell r="O1" t="str">
+            <v>affectorId_Verify</v>
+          </cell>
+          <cell r="Q1" t="str">
+            <v>affectorId_List</v>
+          </cell>
+          <cell r="R1" t="str">
+            <v>value</v>
+          </cell>
+          <cell r="S1" t="str">
+            <v>len</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>AffectorValue00101</v>
+          </cell>
+          <cell r="B2" t="str">
+            <v>AffectorValue001</v>
+          </cell>
+          <cell r="C2" t="str">
+            <v>BaseDamage</v>
+          </cell>
+          <cell r="D2">
+            <v>1</v>
+          </cell>
+          <cell r="F2" t="str">
+            <v>0.4,0.5,0.6,0.9</v>
+          </cell>
+          <cell r="O2" t="str">
+            <v>ChangeAction</v>
+          </cell>
+          <cell r="Q2" t="str">
+            <v>ChangeAction</v>
+          </cell>
+          <cell r="R2">
+            <v>1</v>
+          </cell>
+          <cell r="S2">
+            <v>12</v>
+          </cell>
+          <cell r="U2" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>AffectorValue00102</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>AffectorValue001</v>
+          </cell>
+          <cell r="D3">
+            <v>2</v>
+          </cell>
+          <cell r="F3" t="str">
+            <v>0.4,0.5,0.6,0.10</v>
+          </cell>
+          <cell r="O3" t="str">
+            <v>AddForce</v>
+          </cell>
+          <cell r="Q3" t="str">
+            <v>BaseDamage</v>
+          </cell>
+          <cell r="R3">
+            <v>3</v>
+          </cell>
+          <cell r="S3">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>AffectorValue00103</v>
+          </cell>
+          <cell r="B4" t="str">
+            <v>AffectorValue001</v>
+          </cell>
+          <cell r="D4">
+            <v>3</v>
+          </cell>
+          <cell r="F4" t="str">
+            <v>0.4,0.5,0.6,0.11</v>
+          </cell>
+          <cell r="O4" t="str">
+            <v>BaseDamage</v>
+          </cell>
+          <cell r="Q4" t="str">
+            <v>AddForce</v>
+          </cell>
+          <cell r="R4">
+            <v>2</v>
+          </cell>
+          <cell r="S4">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="F5" t="str">
+            <v>지속시간</v>
+          </cell>
+          <cell r="J5" t="str">
+            <v>액터상태종류</v>
+          </cell>
+          <cell r="O5" t="str">
+            <v>AddActorState</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6" t="str">
+            <v>AffectorValue008</v>
+          </cell>
+          <cell r="F6" t="str">
+            <v>지속시간</v>
+          </cell>
+          <cell r="G6" t="str">
+            <v>틱</v>
+          </cell>
+          <cell r="O6" t="str">
+            <v>스탯변경</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7" t="str">
+            <v>AffectorValue009</v>
+          </cell>
+          <cell r="O7" t="str">
+            <v>DOT대미지</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8" t="str">
+            <v>AffectorValue010</v>
+          </cell>
+          <cell r="O8" t="str">
+            <v>BaseDamageWithOnKill</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="O9" t="str">
+            <v>DropItem</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>AffectorValue01101</v>
+          </cell>
+          <cell r="B10" t="str">
+            <v>AddActorState011</v>
+          </cell>
+          <cell r="C10" t="str">
+            <v>AddActorState</v>
+          </cell>
+          <cell r="D10">
+            <v>1</v>
+          </cell>
+          <cell r="E10" t="str">
+            <v>AttackerHp&lt;=10Percent</v>
+          </cell>
+          <cell r="F10">
+            <v>3</v>
+          </cell>
+          <cell r="J10" t="str">
+            <v>무적</v>
+          </cell>
+          <cell r="K10">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>AffectorValue01102</v>
+          </cell>
+          <cell r="B11" t="str">
+            <v>AddActorState011</v>
+          </cell>
+          <cell r="C11" t="str">
+            <v>AddActorState</v>
+          </cell>
+          <cell r="D11">
+            <v>2</v>
+          </cell>
+          <cell r="E11" t="str">
+            <v>AttackerHp&lt;=20Percent</v>
+          </cell>
+          <cell r="F11">
+            <v>3</v>
+          </cell>
+          <cell r="J11" t="str">
+            <v>무적</v>
+          </cell>
+          <cell r="K11">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>AffectorValue01103</v>
+          </cell>
+          <cell r="B12" t="str">
+            <v>AddActorState011</v>
+          </cell>
+          <cell r="C12" t="str">
+            <v>AddActorState</v>
+          </cell>
+          <cell r="D12">
+            <v>3</v>
+          </cell>
+          <cell r="E12" t="str">
+            <v>AttackerHp&lt;=30Percent</v>
+          </cell>
+          <cell r="F12">
+            <v>3</v>
+          </cell>
+          <cell r="J12" t="str">
+            <v>무적</v>
+          </cell>
+          <cell r="K12">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>AffectorValue01001</v>
+          </cell>
+          <cell r="B15" t="str">
+            <v>AffectorValue010</v>
+          </cell>
+          <cell r="C15" t="str">
+            <v>BaseDamage</v>
+          </cell>
+          <cell r="D15">
+            <v>1</v>
+          </cell>
+          <cell r="F15" t="str">
+            <v>0.4,0.5,0.6,0.9</v>
+          </cell>
+          <cell r="L15" t="str">
+            <v>DropItem00101</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>AffectorValue01002</v>
+          </cell>
+          <cell r="B16" t="str">
+            <v>AffectorValue010</v>
+          </cell>
+          <cell r="D16">
+            <v>2</v>
+          </cell>
+          <cell r="F16" t="str">
+            <v>0.4,0.5,0.6,0.10</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>AffectorValue01003</v>
+          </cell>
+          <cell r="B17" t="str">
+            <v>AffectorValue010</v>
+          </cell>
+          <cell r="D17">
+            <v>3</v>
+          </cell>
+          <cell r="F17" t="str">
+            <v>0.4,0.5,0.6,0.11</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>DropItem00101</v>
+          </cell>
+          <cell r="B19" t="str">
+            <v>DropItem001</v>
+          </cell>
+          <cell r="C19" t="str">
+            <v>DropItem</v>
+          </cell>
+          <cell r="D19">
+            <v>1</v>
+          </cell>
+          <cell r="L19" t="str">
+            <v>하트 프리팹</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21" t="str">
+            <v>넉백00101</v>
+          </cell>
+          <cell r="B21" t="str">
+            <v>넉백001</v>
+          </cell>
+          <cell r="D21">
+            <v>1</v>
+          </cell>
+          <cell r="F21">
+            <v>1.5</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22" t="str">
+            <v>피어싱00201</v>
+          </cell>
+          <cell r="B22" t="str">
+            <v>피어싱002</v>
+          </cell>
+          <cell r="D22">
+            <v>1</v>
+          </cell>
+          <cell r="F22">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23" t="str">
+            <v>피어싱00203</v>
+          </cell>
+          <cell r="B23" t="str">
+            <v>피어싱002</v>
+          </cell>
+          <cell r="D23">
+            <v>2</v>
+          </cell>
+          <cell r="F23">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27" t="str">
+            <v>AddActorState00201</v>
+          </cell>
+          <cell r="B27" t="str">
+            <v>AddActorState002</v>
+          </cell>
+          <cell r="C27" t="str">
+            <v>AddActorState</v>
+          </cell>
+          <cell r="D27">
+            <v>1</v>
+          </cell>
+          <cell r="F27">
+            <v>4</v>
+          </cell>
+          <cell r="G27">
+            <v>0.5</v>
+          </cell>
+          <cell r="H27">
+            <v>0.05</v>
+          </cell>
+          <cell r="J27" t="str">
+            <v>화상</v>
+          </cell>
+          <cell r="L27" t="str">
+            <v>지속이펙트</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="D28">
+            <v>2</v>
+          </cell>
+          <cell r="F28">
+            <v>4</v>
+          </cell>
+          <cell r="G28">
+            <v>0.5</v>
+          </cell>
+          <cell r="H28">
+            <v>0.06</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30" t="str">
+            <v>AddActorState00401</v>
+          </cell>
+          <cell r="B30" t="str">
+            <v>AddActorState004</v>
+          </cell>
+          <cell r="C30" t="str">
+            <v>AddActorState</v>
+          </cell>
+          <cell r="D30">
+            <v>1</v>
+          </cell>
+          <cell r="F30">
+            <v>4</v>
+          </cell>
+          <cell r="G30">
+            <v>0.5</v>
+          </cell>
+          <cell r="H30">
+            <v>0.05</v>
+          </cell>
+          <cell r="J30" t="str">
+            <v>리젠힐</v>
+          </cell>
+          <cell r="L30" t="str">
+            <v>지속이펙트2</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="D31">
+            <v>2</v>
+          </cell>
+          <cell r="F31">
+            <v>4</v>
+          </cell>
+          <cell r="G31">
+            <v>0.5</v>
+          </cell>
+          <cell r="H31">
+            <v>0.06</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34" t="str">
+            <v>AddActorState00201</v>
+          </cell>
+          <cell r="B34" t="str">
+            <v>AddActorState003</v>
+          </cell>
+          <cell r="C34" t="str">
+            <v>AddActorState</v>
+          </cell>
+          <cell r="D34">
+            <v>1</v>
+          </cell>
+          <cell r="F34">
+            <v>3.5</v>
+          </cell>
+          <cell r="J34" t="str">
+            <v>기절</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="C36" t="str">
+            <v>AddActorState</v>
+          </cell>
+          <cell r="J36" t="str">
+            <v>캐릭9방어상승1</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="C37" t="str">
+            <v>스탯변경</v>
+          </cell>
+          <cell r="F37">
+            <v>0.2</v>
+          </cell>
+          <cell r="J37" t="str">
+            <v>방어력</v>
+          </cell>
+          <cell r="L37" t="str">
+            <v>이펙트넘버3</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="B40" t="str">
+            <v>DOT대미지003</v>
+          </cell>
+          <cell r="C40" t="str">
+            <v>DOT대미지</v>
+          </cell>
+          <cell r="D40">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="C42" t="str">
+            <v>DOT대미지</v>
+          </cell>
+          <cell r="J42" t="str">
+            <v>리젠힐</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1031,81 +1637,84 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.875" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="16.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="19.875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="24.125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.875" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="14" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.625" customWidth="1" outlineLevel="1"/>
-    <col min="17" max="17" width="14.25" customWidth="1" outlineLevel="1"/>
-    <col min="19" max="19" width="12.125" customWidth="1" outlineLevel="1"/>
-    <col min="20" max="21" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="11" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="12.25" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="9.875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="13.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="13.625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="16" width="9" collapsed="1"/>
+    <col min="17" max="17" width="14.25" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="18" max="18" width="9" collapsed="1"/>
+    <col min="19" max="19" width="12.125" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="20" max="21" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="22" width="9" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" t="s">
         <v>75</v>
       </c>
-      <c r="B1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" t="s">
         <v>76</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M1" t="s">
+        <v>90</v>
+      </c>
+      <c r="N1" t="s">
+        <v>81</v>
+      </c>
+      <c r="O1" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S1" t="s">
         <v>57</v>
-      </c>
-      <c r="E1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K1" t="s">
-        <v>91</v>
-      </c>
-      <c r="L1" t="s">
-        <v>82</v>
-      </c>
-      <c r="M1" t="s">
-        <v>92</v>
-      </c>
-      <c r="N1" t="s">
-        <v>83</v>
-      </c>
-      <c r="O1" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>60</v>
-      </c>
-      <c r="S1" t="s">
-        <v>58</v>
       </c>
       <c r="T1" t="s">
         <v>34</v>
@@ -1139,7 +1748,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -1239,7 +1848,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -1249,11 +1858,11 @@
         <v/>
       </c>
       <c r="F3" t="s">
-        <v>59</v>
+        <v>143</v>
       </c>
       <c r="G3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>3, 4</v>
+        <v>4</v>
       </c>
       <c r="H3" t="s">
         <v>5</v>
@@ -1292,16 +1901,28 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C4" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="H4" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="I4">
         <v>0.05</v>
+      </c>
+      <c r="K4" t="str">
+        <f>IF(ISBLANK(J4),"",IF(ISERROR(VLOOKUP(J4,ControlTable!$A:$A,1,0)),"없음",""))</f>
+        <v/>
+      </c>
+      <c r="M4" t="str">
+        <f>IF(ISBLANK(L4),"",IF(ISERROR(VLOOKUP(L4,CastingTable!$A:$A,1,0)),"없음",""))</f>
+        <v/>
+      </c>
+      <c r="O4" t="str">
+        <f>IF(ISBLANK(N4),"",IF(ISERROR(VLOOKUP(N4,SkillTable!$A:$A,1,0)),"없음",""))</f>
+        <v/>
       </c>
       <c r="Q4" t="s">
         <v>22</v>
@@ -1322,21 +1943,21 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E5" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="F5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>3, 4</v>
       </c>
       <c r="H5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I5">
         <v>0.05</v>
@@ -1375,14 +1996,14 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E6" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="F6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1395,14 +2016,14 @@
         <v>0.05</v>
       </c>
       <c r="J6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K6" t="str">
         <f>IF(ISBLANK(J6),"",IF(ISERROR(VLOOKUP(J6,ControlTable!$A:$A,1,0)),"없음",""))</f>
         <v/>
       </c>
       <c r="L6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M6" t="str">
         <f>IF(ISBLANK(L6),"",IF(ISERROR(VLOOKUP(L6,CastingTable!$A:$A,1,0)),"없음",""))</f>
@@ -1418,17 +2039,17 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B7" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E7" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="F7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1441,7 +2062,7 @@
         <v>0.05</v>
       </c>
       <c r="J7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K7" t="str">
         <f>IF(ISBLANK(J7),"",IF(ISERROR(VLOOKUP(J7,ControlTable!$A:$A,1,0)),"없음",""))</f>
@@ -1464,7 +2085,7 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
@@ -1501,7 +2122,7 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
@@ -1511,11 +2132,11 @@
         <v/>
       </c>
       <c r="F9" t="s">
-        <v>59</v>
+        <v>143</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>3, 4</v>
+        <v>4</v>
       </c>
       <c r="H9" t="s">
         <v>5</v>
@@ -1541,16 +2162,28 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C10" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="H10" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="I10">
         <v>0.05</v>
+      </c>
+      <c r="K10" t="str">
+        <f>IF(ISBLANK(J10),"",IF(ISERROR(VLOOKUP(J10,ControlTable!$A:$A,1,0)),"없음",""))</f>
+        <v/>
+      </c>
+      <c r="M10" t="str">
+        <f>IF(ISBLANK(L10),"",IF(ISERROR(VLOOKUP(L10,CastingTable!$A:$A,1,0)),"없음",""))</f>
+        <v/>
+      </c>
+      <c r="O10" t="str">
+        <f>IF(ISBLANK(N10),"",IF(ISERROR(VLOOKUP(N10,SkillTable!$A:$A,1,0)),"없음",""))</f>
+        <v/>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.3">
@@ -1558,21 +2191,21 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E11" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="F11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G11" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>3, 4</v>
       </c>
       <c r="H11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I11">
         <v>0.05</v>
@@ -1598,14 +2231,14 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E12" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="F12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G12" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1618,7 +2251,7 @@
         <v>0.05</v>
       </c>
       <c r="J12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K12" t="str">
         <f>IF(ISBLANK(J12),"",IF(ISERROR(VLOOKUP(J12,ControlTable!$A:$A,1,0)),"없음",""))</f>
@@ -1638,17 +2271,17 @@
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B13" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E13" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="F13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G13" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1661,7 +2294,7 @@
         <v>0.05</v>
       </c>
       <c r="J13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K13" t="str">
         <f>IF(ISBLANK(J13),"",IF(ISERROR(VLOOKUP(J13,ControlTable!$A:$A,1,0)),"없음",""))</f>
@@ -1681,13 +2314,13 @@
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B14" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C14" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E14" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -1703,23 +2336,35 @@
       <c r="I14">
         <v>0.1</v>
       </c>
+      <c r="K14" t="str">
+        <f>IF(ISBLANK(J14),"",IF(ISERROR(VLOOKUP(J14,ControlTable!$A:$A,1,0)),"없음",""))</f>
+        <v/>
+      </c>
+      <c r="M14" t="str">
+        <f>IF(ISBLANK(L14),"",IF(ISERROR(VLOOKUP(L14,CastingTable!$A:$A,1,0)),"없음",""))</f>
+        <v/>
+      </c>
+      <c r="O14" t="str">
+        <f>IF(ISBLANK(N14),"",IF(ISERROR(VLOOKUP(N14,SkillTable!$A:$A,1,0)),"없음",""))</f>
+        <v/>
+      </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B15" t="s">
+        <v>120</v>
+      </c>
+      <c r="C15" t="s">
         <v>125</v>
-      </c>
-      <c r="C15" t="s">
-        <v>130</v>
       </c>
       <c r="E15" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="F15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G15" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1731,16 +2376,28 @@
       <c r="I15">
         <v>0.1</v>
       </c>
+      <c r="K15" t="str">
+        <f>IF(ISBLANK(J15),"",IF(ISERROR(VLOOKUP(J15,ControlTable!$A:$A,1,0)),"없음",""))</f>
+        <v/>
+      </c>
+      <c r="M15" t="str">
+        <f>IF(ISBLANK(L15),"",IF(ISERROR(VLOOKUP(L15,CastingTable!$A:$A,1,0)),"없음",""))</f>
+        <v/>
+      </c>
+      <c r="O15" t="str">
+        <f>IF(ISBLANK(N15),"",IF(ISERROR(VLOOKUP(N15,SkillTable!$A:$A,1,0)),"없음",""))</f>
+        <v/>
+      </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B16" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C16" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E16" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -1751,18 +2408,30 @@
         <v/>
       </c>
       <c r="H16" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="I16">
         <v>0.05</v>
       </c>
+      <c r="K16" t="str">
+        <f>IF(ISBLANK(J16),"",IF(ISERROR(VLOOKUP(J16,ControlTable!$A:$A,1,0)),"없음",""))</f>
+        <v/>
+      </c>
+      <c r="M16" t="str">
+        <f>IF(ISBLANK(L16),"",IF(ISERROR(VLOOKUP(L16,CastingTable!$A:$A,1,0)),"없음",""))</f>
+        <v/>
+      </c>
+      <c r="O16" t="str">
+        <f>IF(ISBLANK(N16),"",IF(ISERROR(VLOOKUP(N16,SkillTable!$A:$A,1,0)),"없음",""))</f>
+        <v/>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="S2:U4">
+  <sortState ref="S2:U4">
     <sortCondition descending="1" ref="U2:U4"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="D2:D13 F2:F13 F15" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$Q$2:$Q$5</formula1>
     </dataValidation>
@@ -1797,25 +2466,25 @@
   <sheetData>
     <row r="1" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" t="s">
         <v>88</v>
       </c>
-      <c r="B1" t="s">
+      <c r="G1" t="s">
         <v>94</v>
       </c>
-      <c r="C1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="I1" t="s">
         <v>95</v>
-      </c>
-      <c r="E1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G1" t="s">
-        <v>96</v>
-      </c>
-      <c r="I1" t="s">
-        <v>97</v>
       </c>
       <c r="J1" t="s">
         <v>34</v>
@@ -1844,10 +2513,10 @@
         <v>len</v>
       </c>
       <c r="M1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P1" t="s">
         <v>34</v>
@@ -1973,7 +2642,7 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B3" t="s">
         <v>36</v>
@@ -2064,7 +2733,7 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B4" t="s">
         <v>36</v>
@@ -2155,7 +2824,7 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B5" t="s">
         <v>27</v>
@@ -2318,7 +2987,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="O2:Q7">
+  <sortState ref="O2:Q7">
     <sortCondition descending="1" ref="Q2:Q7"/>
     <sortCondition ref="P2:P7"/>
   </sortState>
@@ -2357,37 +3026,37 @@
   <sheetData>
     <row r="1" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" t="s">
         <v>100</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K1" t="s">
+        <v>107</v>
+      </c>
+      <c r="M1" t="s">
         <v>108</v>
-      </c>
-      <c r="C1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F1" t="s">
-        <v>104</v>
-      </c>
-      <c r="G1" t="s">
-        <v>105</v>
-      </c>
-      <c r="H1" t="s">
-        <v>106</v>
-      </c>
-      <c r="I1" t="s">
-        <v>107</v>
-      </c>
-      <c r="K1" t="s">
-        <v>109</v>
-      </c>
-      <c r="M1" t="s">
-        <v>110</v>
       </c>
       <c r="N1" t="s">
         <v>34</v>
@@ -2421,7 +3090,7 @@
         <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C2" t="str">
         <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
@@ -2451,7 +3120,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E2">
         <v>5</v>
@@ -2469,10 +3138,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N2">
         <v>3</v>
@@ -2488,10 +3157,10 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3:C5" ca="1" si="0">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
@@ -2521,7 +3190,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E3">
         <v>6.5</v>
@@ -2539,10 +3208,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N3">
         <v>4</v>
@@ -2554,17 +3223,17 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E4">
         <v>10</v>
@@ -2582,10 +3251,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -2597,17 +3266,17 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E5">
         <v>4.5</v>
@@ -2625,10 +3294,10 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N5">
         <v>2</v>
@@ -2640,7 +3309,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="K6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M6" t="s">
         <v>23</v>
@@ -2654,7 +3323,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="M2:O5">
+  <sortState ref="M2:O5">
     <sortCondition descending="1" ref="O2:O5"/>
     <sortCondition ref="N2:N5"/>
   </sortState>
@@ -2679,51 +3348,51 @@
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.25" customWidth="1"/>
     <col min="3" max="3" width="11.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.25" customWidth="1"/>
     <col min="7" max="7" width="22.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E1" t="s">
         <v>111</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G1" t="s">
         <v>112</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>113</v>
       </c>
-      <c r="E1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F1" t="s">
-        <v>115</v>
-      </c>
-      <c r="G1" t="s">
-        <v>116</v>
-      </c>
-      <c r="H1" t="s">
-        <v>117</v>
-      </c>
       <c r="I1" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2">
-        <v>1</v>
+      <c r="B2" t="s">
+        <v>130</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
@@ -2733,9 +3402,6 @@
       </c>
       <c r="E2">
         <v>5</v>
-      </c>
-      <c r="F2" t="s">
-        <v>40</v>
       </c>
       <c r="G2" t="b">
         <f>IF(ISERROR(MATCH($A2,SkillLevelTable!$B:$B,0)),FALSE,
@@ -2744,12 +3410,12 @@
       </c>
       <c r="H2" t="b">
         <f>IF(ISERROR(MATCH($A2,SkillLevelTable!$B:$B,0)),FALSE,
-IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A2,SkillLevelTable!$B:$B,0),MATCH($F$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
+IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A2,SkillLevelTable!$B:$B,0),MATCH(ActionTable!$H$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
         <v>1</v>
       </c>
       <c r="I2" t="b">
         <f>IF(ISERROR(MATCH($A2,SkillLevelTable!$B:$B,0)),FALSE,
-IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A2,SkillLevelTable!$B:$B,0),MATCH(ActionTable!$H$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
+IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A2,SkillLevelTable!$B:$B,0),MATCH($F$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
         <v>1</v>
       </c>
     </row>
@@ -2757,20 +3423,17 @@
       <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="B3">
-        <v>1</v>
+      <c r="B3" t="s">
+        <v>130</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E3">
         <v>5</v>
-      </c>
-      <c r="F3" t="s">
-        <v>40</v>
       </c>
       <c r="G3" t="b">
         <f>IF(ISERROR(MATCH($A3,SkillLevelTable!$B:$B,0)),FALSE,
@@ -2779,30 +3442,24 @@
       </c>
       <c r="H3" t="b">
         <f>IF(ISERROR(MATCH($A3,SkillLevelTable!$B:$B,0)),FALSE,
+IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A3,SkillLevelTable!$B:$B,0),MATCH(ActionTable!$H$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
+        <v>0</v>
+      </c>
+      <c r="I3" t="b">
+        <f>IF(ISERROR(MATCH($A3,SkillLevelTable!$B:$B,0)),FALSE,
 IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A3,SkillLevelTable!$B:$B,0),MATCH($F$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
         <v>1</v>
       </c>
-      <c r="I3" t="b">
-        <f>IF(ISERROR(MATCH($A3,SkillLevelTable!$B:$B,0)),FALSE,
-IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A3,SkillLevelTable!$B:$B,0),MATCH(ActionTable!$H$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
+        <v>41</v>
+      </c>
+      <c r="B4" t="s">
+        <v>130</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>40</v>
       </c>
       <c r="G4" t="b">
         <f>IF(ISERROR(MATCH($A4,SkillLevelTable!$B:$B,0)),FALSE,
@@ -2811,33 +3468,30 @@
       </c>
       <c r="H4" t="b">
         <f>IF(ISERROR(MATCH($A4,SkillLevelTable!$B:$B,0)),FALSE,
-IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A4,SkillLevelTable!$B:$B,0),MATCH($F$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
+IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A4,SkillLevelTable!$B:$B,0),MATCH(ActionTable!$H$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
         <v>0</v>
       </c>
       <c r="I4" t="b">
         <f>IF(ISERROR(MATCH($A4,SkillLevelTable!$B:$B,0)),FALSE,
-IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A4,SkillLevelTable!$B:$B,0),MATCH(ActionTable!$H$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
-        <v>0</v>
+IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A4,SkillLevelTable!$B:$B,0),MATCH($F$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>18</v>
       </c>
-      <c r="B5">
-        <v>2</v>
+      <c r="B5" t="s">
+        <v>119</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E5">
         <v>5</v>
-      </c>
-      <c r="F5" t="s">
-        <v>40</v>
       </c>
       <c r="G5" t="b">
         <f>IF(ISERROR(MATCH($A5,SkillLevelTable!$B:$B,0)),FALSE,
@@ -2846,12 +3500,12 @@
       </c>
       <c r="H5" t="b">
         <f>IF(ISERROR(MATCH($A5,SkillLevelTable!$B:$B,0)),FALSE,
-IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A5,SkillLevelTable!$B:$B,0),MATCH($F$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
+IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A5,SkillLevelTable!$B:$B,0),MATCH(ActionTable!$H$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
         <v>0</v>
       </c>
       <c r="I5" t="b">
         <f>IF(ISERROR(MATCH($A5,SkillLevelTable!$B:$B,0)),FALSE,
-IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A5,SkillLevelTable!$B:$B,0),MATCH(ActionTable!$H$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
+IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A5,SkillLevelTable!$B:$B,0),MATCH($F$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
         <v>0</v>
       </c>
     </row>
@@ -2859,20 +3513,17 @@
       <c r="A6" t="s">
         <v>20</v>
       </c>
-      <c r="B6">
-        <v>2</v>
+      <c r="B6" t="s">
+        <v>119</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E6">
         <v>5</v>
-      </c>
-      <c r="F6" t="s">
-        <v>40</v>
       </c>
       <c r="G6" t="b">
         <f>IF(ISERROR(MATCH($A6,SkillLevelTable!$B:$B,0)),FALSE,
@@ -2881,30 +3532,24 @@
       </c>
       <c r="H6" t="b">
         <f>IF(ISERROR(MATCH($A6,SkillLevelTable!$B:$B,0)),FALSE,
+IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A6,SkillLevelTable!$B:$B,0),MATCH(ActionTable!$H$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
+        <v>0</v>
+      </c>
+      <c r="I6" t="b">
+        <f>IF(ISERROR(MATCH($A6,SkillLevelTable!$B:$B,0)),FALSE,
 IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A6,SkillLevelTable!$B:$B,0),MATCH($F$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
         <v>0</v>
       </c>
-      <c r="I6" t="b">
-        <f>IF(ISERROR(MATCH($A6,SkillLevelTable!$B:$B,0)),FALSE,
-IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A6,SkillLevelTable!$B:$B,0),MATCH(ActionTable!$H$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
+        <v>44</v>
+      </c>
+      <c r="B7" t="s">
+        <v>119</v>
       </c>
       <c r="C7" t="b">
         <v>1</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7" t="s">
-        <v>40</v>
       </c>
       <c r="G7" t="b">
         <f>IF(ISERROR(MATCH($A7,SkillLevelTable!$B:$B,0)),FALSE,
@@ -2913,12 +3558,12 @@
       </c>
       <c r="H7" t="b">
         <f>IF(ISERROR(MATCH($A7,SkillLevelTable!$B:$B,0)),FALSE,
-IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A7,SkillLevelTable!$B:$B,0),MATCH($F$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
+IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A7,SkillLevelTable!$B:$B,0),MATCH(ActionTable!$H$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
         <v>0</v>
       </c>
       <c r="I7" t="b">
         <f>IF(ISERROR(MATCH($A7,SkillLevelTable!$B:$B,0)),FALSE,
-IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A7,SkillLevelTable!$B:$B,0),MATCH(ActionTable!$H$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
+IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A7,SkillLevelTable!$B:$B,0),MATCH($F$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
         <v>0</v>
       </c>
     </row>
@@ -2932,43 +3577,65 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.75" customWidth="1"/>
+    <col min="8" max="8" width="30.75" customWidth="1"/>
+    <col min="9" max="9" width="19" customWidth="1"/>
+    <col min="10" max="11" width="12.875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="10.625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="10.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="15" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+      <c r="G1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H1" t="s">
+        <v>146</v>
+      </c>
+      <c r="I1" t="s">
+        <v>151</v>
+      </c>
+      <c r="J1" t="s">
+        <v>141</v>
+      </c>
+      <c r="L1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -2980,15 +3647,32 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" t="s">
+        <v>148</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="I2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J2" t="s">
+        <v>142</v>
+      </c>
+      <c r="K2" t="str">
+        <f>J2&amp;TEXT(C2,"00")</f>
+        <v>AffectorValue00101</v>
+      </c>
+      <c r="L2" t="str">
+        <f>VLOOKUP(K2,[1]AffectorValueLevelTable!$1:$1048576,6,0)</f>
+        <v>0.4,0.5,0.6,0.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -3000,15 +3684,13 @@
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>49</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -3020,15 +3702,12 @@
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -3040,15 +3719,12 @@
         <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -3060,15 +3736,12 @@
         <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
@@ -3076,13 +3749,10 @@
       <c r="C7">
         <v>1</v>
       </c>
-      <c r="E7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
@@ -3090,13 +3760,10 @@
       <c r="C8">
         <v>2</v>
       </c>
-      <c r="E8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
@@ -3104,13 +3771,10 @@
       <c r="C9">
         <v>3</v>
       </c>
-      <c r="E9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -3118,13 +3782,10 @@
       <c r="C10">
         <v>4</v>
       </c>
-      <c r="E10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
@@ -3132,8 +3793,75 @@
       <c r="C11">
         <v>5</v>
       </c>
-      <c r="E11" t="s">
-        <v>40</v>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>133</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>134</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="F13" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>135</v>
+      </c>
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="F14" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>136</v>
+      </c>
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="F15" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="F16" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/작업Action.xlsx
+++ b/Excel/작업Action.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABA400B5-6DA6-44F4-B8D2-BC70885F7A98}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C979DEE7-0920-4FDA-AEAA-D0DD4B6D50B1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ActionTable" sheetId="1" r:id="rId1"/>
@@ -176,7 +176,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="149">
   <si>
     <t>Action00101</t>
   </si>
@@ -315,39 +315,9 @@
     <t>Passive002</t>
   </si>
   <si>
-    <t>ActiveOne00101</t>
-  </si>
-  <si>
-    <t>ActiveOne00102</t>
-  </si>
-  <si>
     <t>Base Layer.Attack.skill1_2</t>
   </si>
   <si>
-    <t>ActiveOne00103</t>
-  </si>
-  <si>
-    <t>ActiveOne00104</t>
-  </si>
-  <si>
-    <t>ActiveOne00105</t>
-  </si>
-  <si>
-    <t>ActiveTwo00101</t>
-  </si>
-  <si>
-    <t>ActiveTwo00102</t>
-  </si>
-  <si>
-    <t>ActiveTwo00103</t>
-  </si>
-  <si>
-    <t>ActiveTwo00104</t>
-  </si>
-  <si>
-    <t>ActiveTwo00105</t>
-  </si>
-  <si>
     <t>listState</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -620,30 +590,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>passiveAffectorValueId|String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>usePassiveAffectorValueIdOverriding|Bool</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Passive00101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Passive00102</t>
-  </si>
-  <si>
-    <t>Passive00103</t>
-  </si>
-  <si>
-    <t>Passive00104</t>
-  </si>
-  <si>
-    <t>Passive00105</t>
-  </si>
-  <si>
     <t>AtkUpBuff001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -695,6 +645,58 @@
   </si>
   <si>
     <t>parameter|String!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피어싱어펙터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Actor011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특수피어싱패시브</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxx 레벨팩을 x레벨 소유하는 어펙터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LP_Piercing001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LP_ATK10per</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LP_ATK20per</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LP_ChangeActorStatus010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LP_ChangeActorStatus020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LPAF_PiercingHitObject</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>useNameIdOverriding|Bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>useDescriptionIdOverriding|Bool</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -784,50 +786,54 @@
     <sheetNames>
       <sheetName val="AffectorValueTable"/>
       <sheetName val="AffectorValueLevelTable"/>
+      <sheetName val="ActorStateTable"/>
+      <sheetName val="ConditionValueTable"/>
       <sheetName val="어펙터종류"/>
-      <sheetName val="ActorState종류"/>
-      <sheetName val="ConditionValueTable"/>
-      <sheetName val="조건 종류"/>
+      <sheetName val="AffectorValueTable임시"/>
+      <sheetName val="AffectorValueLevelTable임시"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
       <sheetData sheetId="1">
         <row r="1">
           <cell r="A1" t="str">
-            <v>levelId|String</v>
+            <v>affectorValueId|String</v>
           </cell>
           <cell r="B1" t="str">
-            <v>id|String</v>
+            <v>내가가져오는</v>
+          </cell>
+          <cell r="C1" t="str">
+            <v>level|Int</v>
           </cell>
           <cell r="D1" t="str">
-            <v>어펙터레벨</v>
+            <v>conditionValueId|String!</v>
           </cell>
           <cell r="E1" t="str">
-            <v>conditionValueId|String</v>
+            <v>fValue1|Float</v>
           </cell>
           <cell r="F1" t="str">
-            <v>fValue1|Float</v>
+            <v>fValue2|Float</v>
           </cell>
           <cell r="G1" t="str">
-            <v>fValue2|Float</v>
+            <v>fValue3|Float</v>
           </cell>
           <cell r="H1" t="str">
-            <v>fValue3|Float</v>
+            <v>fValue4|Float</v>
           </cell>
           <cell r="I1" t="str">
-            <v>fValue4|Float</v>
+            <v>iValue1|Int</v>
           </cell>
           <cell r="J1" t="str">
-            <v>iValue1|Int</v>
+            <v>iValue2|Int</v>
           </cell>
           <cell r="K1" t="str">
-            <v>iValue2|Int</v>
+            <v>sValue1|String</v>
           </cell>
           <cell r="L1" t="str">
-            <v>sValue1|String</v>
+            <v>sValue2|String</v>
           </cell>
           <cell r="M1" t="str">
-            <v>sValue2|String</v>
+            <v>어펙터호출</v>
           </cell>
           <cell r="O1" t="str">
             <v>affectorId_Verify</v>
@@ -844,19 +850,28 @@
         </row>
         <row r="2">
           <cell r="A2" t="str">
-            <v>AffectorValue00101</v>
+            <v>NormalAttack01</v>
           </cell>
           <cell r="B2" t="str">
-            <v>AffectorValue001</v>
-          </cell>
-          <cell r="C2" t="str">
             <v>BaseDamage</v>
           </cell>
-          <cell r="D2">
+          <cell r="C2">
             <v>1</v>
           </cell>
-          <cell r="F2" t="str">
-            <v>0.4,0.5,0.6,0.9</v>
+          <cell r="E2">
+            <v>1</v>
+          </cell>
+          <cell r="I2">
+            <v>1</v>
+          </cell>
+          <cell r="J2" t="str">
+            <v>1:온킬</v>
+          </cell>
+          <cell r="K2" t="str">
+            <v>0.4,0.5,0.6</v>
+          </cell>
+          <cell r="L2" t="str">
+            <v>시전자회복밸류아이디</v>
           </cell>
           <cell r="O2" t="str">
             <v>ChangeAction</v>
@@ -876,16 +891,10 @@
         </row>
         <row r="3">
           <cell r="A3" t="str">
-            <v>AffectorValue00102</v>
-          </cell>
-          <cell r="B3" t="str">
-            <v>AffectorValue001</v>
-          </cell>
-          <cell r="D3">
-            <v>2</v>
-          </cell>
-          <cell r="F3" t="str">
-            <v>0.4,0.5,0.6,0.10</v>
+            <v>시전자회복밸류아이디</v>
+          </cell>
+          <cell r="D3" t="str">
+            <v>HP이하</v>
           </cell>
           <cell r="O3" t="str">
             <v>AddForce</v>
@@ -902,16 +911,16 @@
         </row>
         <row r="4">
           <cell r="A4" t="str">
-            <v>AffectorValue00103</v>
-          </cell>
-          <cell r="B4" t="str">
-            <v>AffectorValue001</v>
-          </cell>
-          <cell r="D4">
-            <v>3</v>
-          </cell>
-          <cell r="F4" t="str">
-            <v>0.4,0.5,0.6,0.11</v>
+            <v>LP_PiercingHitObject</v>
+          </cell>
+          <cell r="C4">
+            <v>1</v>
+          </cell>
+          <cell r="I4">
+            <v>1</v>
+          </cell>
+          <cell r="L4">
+            <v>0.9</v>
           </cell>
           <cell r="O4" t="str">
             <v>BaseDamage</v>
@@ -927,42 +936,33 @@
           </cell>
         </row>
         <row r="5">
-          <cell r="F5" t="str">
-            <v>지속시간</v>
-          </cell>
-          <cell r="J5" t="str">
-            <v>액터상태종류</v>
+          <cell r="A5" t="str">
+            <v>LP_PiercingHitObject</v>
+          </cell>
+          <cell r="C5">
+            <v>2</v>
+          </cell>
+          <cell r="I5">
+            <v>2</v>
+          </cell>
+          <cell r="L5" t="str">
+            <v>0.95,0.9</v>
           </cell>
           <cell r="O5" t="str">
             <v>AddActorState</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="B6" t="str">
-            <v>AffectorValue008</v>
-          </cell>
-          <cell r="F6" t="str">
-            <v>지속시간</v>
-          </cell>
-          <cell r="G6" t="str">
-            <v>틱</v>
-          </cell>
           <cell r="O6" t="str">
             <v>스탯변경</v>
           </cell>
         </row>
         <row r="7">
-          <cell r="B7" t="str">
-            <v>AffectorValue009</v>
-          </cell>
           <cell r="O7" t="str">
             <v>DOT대미지</v>
           </cell>
         </row>
         <row r="8">
-          <cell r="B8" t="str">
-            <v>AffectorValue010</v>
-          </cell>
           <cell r="O8" t="str">
             <v>BaseDamageWithOnKill</v>
           </cell>
@@ -972,343 +972,12 @@
             <v>DropItem</v>
           </cell>
         </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>AffectorValue01101</v>
-          </cell>
-          <cell r="B10" t="str">
-            <v>AddActorState011</v>
-          </cell>
-          <cell r="C10" t="str">
-            <v>AddActorState</v>
-          </cell>
-          <cell r="D10">
-            <v>1</v>
-          </cell>
-          <cell r="E10" t="str">
-            <v>AttackerHp&lt;=10Percent</v>
-          </cell>
-          <cell r="F10">
-            <v>3</v>
-          </cell>
-          <cell r="J10" t="str">
-            <v>무적</v>
-          </cell>
-          <cell r="K10">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>AffectorValue01102</v>
-          </cell>
-          <cell r="B11" t="str">
-            <v>AddActorState011</v>
-          </cell>
-          <cell r="C11" t="str">
-            <v>AddActorState</v>
-          </cell>
-          <cell r="D11">
-            <v>2</v>
-          </cell>
-          <cell r="E11" t="str">
-            <v>AttackerHp&lt;=20Percent</v>
-          </cell>
-          <cell r="F11">
-            <v>3</v>
-          </cell>
-          <cell r="J11" t="str">
-            <v>무적</v>
-          </cell>
-          <cell r="K11">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>AffectorValue01103</v>
-          </cell>
-          <cell r="B12" t="str">
-            <v>AddActorState011</v>
-          </cell>
-          <cell r="C12" t="str">
-            <v>AddActorState</v>
-          </cell>
-          <cell r="D12">
-            <v>3</v>
-          </cell>
-          <cell r="E12" t="str">
-            <v>AttackerHp&lt;=30Percent</v>
-          </cell>
-          <cell r="F12">
-            <v>3</v>
-          </cell>
-          <cell r="J12" t="str">
-            <v>무적</v>
-          </cell>
-          <cell r="K12">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15" t="str">
-            <v>AffectorValue01001</v>
-          </cell>
-          <cell r="B15" t="str">
-            <v>AffectorValue010</v>
-          </cell>
-          <cell r="C15" t="str">
-            <v>BaseDamage</v>
-          </cell>
-          <cell r="D15">
-            <v>1</v>
-          </cell>
-          <cell r="F15" t="str">
-            <v>0.4,0.5,0.6,0.9</v>
-          </cell>
-          <cell r="L15" t="str">
-            <v>DropItem00101</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16" t="str">
-            <v>AffectorValue01002</v>
-          </cell>
-          <cell r="B16" t="str">
-            <v>AffectorValue010</v>
-          </cell>
-          <cell r="D16">
-            <v>2</v>
-          </cell>
-          <cell r="F16" t="str">
-            <v>0.4,0.5,0.6,0.10</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17" t="str">
-            <v>AffectorValue01003</v>
-          </cell>
-          <cell r="B17" t="str">
-            <v>AffectorValue010</v>
-          </cell>
-          <cell r="D17">
-            <v>3</v>
-          </cell>
-          <cell r="F17" t="str">
-            <v>0.4,0.5,0.6,0.11</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19" t="str">
-            <v>DropItem00101</v>
-          </cell>
-          <cell r="B19" t="str">
-            <v>DropItem001</v>
-          </cell>
-          <cell r="C19" t="str">
-            <v>DropItem</v>
-          </cell>
-          <cell r="D19">
-            <v>1</v>
-          </cell>
-          <cell r="L19" t="str">
-            <v>하트 프리팹</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21" t="str">
-            <v>넉백00101</v>
-          </cell>
-          <cell r="B21" t="str">
-            <v>넉백001</v>
-          </cell>
-          <cell r="D21">
-            <v>1</v>
-          </cell>
-          <cell r="F21">
-            <v>1.5</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22" t="str">
-            <v>피어싱00201</v>
-          </cell>
-          <cell r="B22" t="str">
-            <v>피어싱002</v>
-          </cell>
-          <cell r="D22">
-            <v>1</v>
-          </cell>
-          <cell r="F22">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23" t="str">
-            <v>피어싱00203</v>
-          </cell>
-          <cell r="B23" t="str">
-            <v>피어싱002</v>
-          </cell>
-          <cell r="D23">
-            <v>2</v>
-          </cell>
-          <cell r="F23">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27" t="str">
-            <v>AddActorState00201</v>
-          </cell>
-          <cell r="B27" t="str">
-            <v>AddActorState002</v>
-          </cell>
-          <cell r="C27" t="str">
-            <v>AddActorState</v>
-          </cell>
-          <cell r="D27">
-            <v>1</v>
-          </cell>
-          <cell r="F27">
-            <v>4</v>
-          </cell>
-          <cell r="G27">
-            <v>0.5</v>
-          </cell>
-          <cell r="H27">
-            <v>0.05</v>
-          </cell>
-          <cell r="J27" t="str">
-            <v>화상</v>
-          </cell>
-          <cell r="L27" t="str">
-            <v>지속이펙트</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="D28">
-            <v>2</v>
-          </cell>
-          <cell r="F28">
-            <v>4</v>
-          </cell>
-          <cell r="G28">
-            <v>0.5</v>
-          </cell>
-          <cell r="H28">
-            <v>0.06</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30" t="str">
-            <v>AddActorState00401</v>
-          </cell>
-          <cell r="B30" t="str">
-            <v>AddActorState004</v>
-          </cell>
-          <cell r="C30" t="str">
-            <v>AddActorState</v>
-          </cell>
-          <cell r="D30">
-            <v>1</v>
-          </cell>
-          <cell r="F30">
-            <v>4</v>
-          </cell>
-          <cell r="G30">
-            <v>0.5</v>
-          </cell>
-          <cell r="H30">
-            <v>0.05</v>
-          </cell>
-          <cell r="J30" t="str">
-            <v>리젠힐</v>
-          </cell>
-          <cell r="L30" t="str">
-            <v>지속이펙트2</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="D31">
-            <v>2</v>
-          </cell>
-          <cell r="F31">
-            <v>4</v>
-          </cell>
-          <cell r="G31">
-            <v>0.5</v>
-          </cell>
-          <cell r="H31">
-            <v>0.06</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="A34" t="str">
-            <v>AddActorState00201</v>
-          </cell>
-          <cell r="B34" t="str">
-            <v>AddActorState003</v>
-          </cell>
-          <cell r="C34" t="str">
-            <v>AddActorState</v>
-          </cell>
-          <cell r="D34">
-            <v>1</v>
-          </cell>
-          <cell r="F34">
-            <v>3.5</v>
-          </cell>
-          <cell r="J34" t="str">
-            <v>기절</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="C36" t="str">
-            <v>AddActorState</v>
-          </cell>
-          <cell r="J36" t="str">
-            <v>캐릭9방어상승1</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="C37" t="str">
-            <v>스탯변경</v>
-          </cell>
-          <cell r="F37">
-            <v>0.2</v>
-          </cell>
-          <cell r="J37" t="str">
-            <v>방어력</v>
-          </cell>
-          <cell r="L37" t="str">
-            <v>이펙트넘버3</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="B40" t="str">
-            <v>DOT대미지003</v>
-          </cell>
-          <cell r="C40" t="str">
-            <v>DOT대미지</v>
-          </cell>
-          <cell r="D40">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="C42" t="str">
-            <v>DOT대미지</v>
-          </cell>
-          <cell r="J42" t="str">
-            <v>리젠힐</v>
-          </cell>
-        </row>
       </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1637,7 +1306,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1666,55 +1337,55 @@
   <sheetData>
     <row r="1" spans="1:23" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B1" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="C1" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="D1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="E1" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="F1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="G1" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="H1" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="I1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K1" t="s">
         <v>79</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
+        <v>128</v>
+      </c>
+      <c r="M1" t="s">
         <v>80</v>
       </c>
-      <c r="K1" t="s">
-        <v>89</v>
-      </c>
-      <c r="L1" t="s">
-        <v>144</v>
-      </c>
-      <c r="M1" t="s">
-        <v>90</v>
-      </c>
       <c r="N1" t="s">
+        <v>71</v>
+      </c>
+      <c r="O1" t="s">
         <v>81</v>
       </c>
-      <c r="O1" t="s">
-        <v>91</v>
-      </c>
       <c r="Q1" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="S1" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="T1" t="s">
         <v>34</v>
@@ -1748,7 +1419,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -1848,7 +1519,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -1858,7 +1529,7 @@
         <v/>
       </c>
       <c r="F3" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="G3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1901,13 +1572,13 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="C4" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="H4" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="I4">
         <v>0.05</v>
@@ -1943,21 +1614,21 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="E5" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="F5" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>3, 4</v>
       </c>
       <c r="H5" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I5">
         <v>0.05</v>
@@ -1996,14 +1667,14 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="E6" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="F6" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2016,14 +1687,14 @@
         <v>0.05</v>
       </c>
       <c r="J6" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="K6" t="str">
         <f>IF(ISBLANK(J6),"",IF(ISERROR(VLOOKUP(J6,ControlTable!$A:$A,1,0)),"없음",""))</f>
         <v/>
       </c>
       <c r="L6" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="M6" t="str">
         <f>IF(ISBLANK(L6),"",IF(ISERROR(VLOOKUP(L6,CastingTable!$A:$A,1,0)),"없음",""))</f>
@@ -2039,17 +1710,17 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="B7" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="E7" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="F7" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2062,7 +1733,7 @@
         <v>0.05</v>
       </c>
       <c r="J7" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K7" t="str">
         <f>IF(ISBLANK(J7),"",IF(ISERROR(VLOOKUP(J7,ControlTable!$A:$A,1,0)),"없음",""))</f>
@@ -2085,7 +1756,7 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
@@ -2122,7 +1793,7 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
@@ -2132,7 +1803,7 @@
         <v/>
       </c>
       <c r="F9" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2162,13 +1833,13 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="C10" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="H10" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="I10">
         <v>0.05</v>
@@ -2191,21 +1862,21 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="E11" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="F11" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="G11" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>3, 4</v>
       </c>
       <c r="H11" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I11">
         <v>0.05</v>
@@ -2231,14 +1902,14 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="E12" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="F12" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="G12" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2251,7 +1922,7 @@
         <v>0.05</v>
       </c>
       <c r="J12" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K12" t="str">
         <f>IF(ISBLANK(J12),"",IF(ISERROR(VLOOKUP(J12,ControlTable!$A:$A,1,0)),"없음",""))</f>
@@ -2271,17 +1942,17 @@
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="B13" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="E13" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="F13" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="G13" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2294,7 +1965,7 @@
         <v>0.05</v>
       </c>
       <c r="J13" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K13" t="str">
         <f>IF(ISBLANK(J13),"",IF(ISERROR(VLOOKUP(J13,ControlTable!$A:$A,1,0)),"없음",""))</f>
@@ -2314,13 +1985,13 @@
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B14" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C14" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="E14" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -2351,20 +2022,20 @@
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="B15" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C15" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="E15" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="F15" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="G15" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2391,13 +2062,13 @@
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="B16" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C16" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="E16" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -2408,7 +2079,7 @@
         <v/>
       </c>
       <c r="H16" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="I16">
         <v>0.05</v>
@@ -2466,25 +2137,25 @@
   <sheetData>
     <row r="1" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C1" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D1" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="E1" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G1" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="I1" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="J1" t="s">
         <v>34</v>
@@ -2513,10 +2184,10 @@
         <v>len</v>
       </c>
       <c r="M1" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="O1" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="P1" t="s">
         <v>34</v>
@@ -2642,7 +2313,7 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B3" t="s">
         <v>36</v>
@@ -2733,7 +2404,7 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B4" t="s">
         <v>36</v>
@@ -2824,7 +2495,7 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B5" t="s">
         <v>27</v>
@@ -3026,37 +2697,37 @@
   <sheetData>
     <row r="1" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K1" t="s">
+        <v>97</v>
+      </c>
+      <c r="M1" t="s">
         <v>98</v>
-      </c>
-      <c r="B1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F1" t="s">
-        <v>102</v>
-      </c>
-      <c r="G1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H1" t="s">
-        <v>104</v>
-      </c>
-      <c r="I1" t="s">
-        <v>105</v>
-      </c>
-      <c r="K1" t="s">
-        <v>107</v>
-      </c>
-      <c r="M1" t="s">
-        <v>108</v>
       </c>
       <c r="N1" t="s">
         <v>34</v>
@@ -3090,7 +2761,7 @@
         <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C2" t="str">
         <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
@@ -3120,7 +2791,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="E2">
         <v>5</v>
@@ -3138,10 +2809,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="M2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="N2">
         <v>3</v>
@@ -3157,10 +2828,10 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3:C5" ca="1" si="0">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
@@ -3190,7 +2861,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="E3">
         <v>6.5</v>
@@ -3208,10 +2879,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="M3" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="N3">
         <v>4</v>
@@ -3223,17 +2894,17 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="E4">
         <v>10</v>
@@ -3251,10 +2922,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="M4" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -3266,17 +2937,17 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="E5">
         <v>4.5</v>
@@ -3294,10 +2965,10 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="M5" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="N5">
         <v>2</v>
@@ -3309,7 +2980,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="K6" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="M6" t="s">
         <v>23</v>
@@ -3341,7 +3012,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3352,47 +3023,62 @@
     <col min="3" max="3" width="11.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.25" customWidth="1"/>
-    <col min="7" max="7" width="22.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.375" customWidth="1"/>
+    <col min="6" max="6" width="28.25" customWidth="1"/>
+    <col min="7" max="7" width="20.75" customWidth="1"/>
+    <col min="8" max="8" width="30.75" customWidth="1"/>
+    <col min="9" max="9" width="22.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.375" customWidth="1"/>
+    <col min="12" max="13" width="22.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="B1" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="C1" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="D1" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E1" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="F1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G1" t="s">
         <v>131</v>
       </c>
-      <c r="G1" t="s">
-        <v>112</v>
-      </c>
       <c r="H1" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="I1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+      <c r="J1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K1" t="s">
+        <v>121</v>
+      </c>
+      <c r="L1" t="s">
+        <v>147</v>
+      </c>
+      <c r="M1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
@@ -3403,28 +3089,44 @@
       <c r="E2">
         <v>5</v>
       </c>
-      <c r="G2" t="b">
-        <f>IF(ISERROR(MATCH($A2,SkillLevelTable!$B:$B,0)),FALSE,
-IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A2,SkillLevelTable!$B:$B,0),MATCH($E$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
+      <c r="G2" t="s">
+        <v>132</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I2" t="b">
+        <f>IF(ISERROR(MATCH($A2,SkillLevelTable!$A:$A,0)),FALSE,
+IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A2,SkillLevelTable!$A:$A,0),MATCH($E$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
         <v>1</v>
       </c>
-      <c r="H2" t="b">
-        <f>IF(ISERROR(MATCH($A2,SkillLevelTable!$B:$B,0)),FALSE,
-IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A2,SkillLevelTable!$B:$B,0),MATCH(ActionTable!$H$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
+      <c r="J2" t="b">
+        <f>IF(ISERROR(MATCH($A2,SkillLevelTable!$A:$A,0)),FALSE,
+IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A2,SkillLevelTable!$A:$A,0),MATCH(ActionTable!$H$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
         <v>1</v>
       </c>
-      <c r="I2" t="b">
-        <f>IF(ISERROR(MATCH($A2,SkillLevelTable!$B:$B,0)),FALSE,
-IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A2,SkillLevelTable!$B:$B,0),MATCH($F$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
+      <c r="K2" t="b">
+        <f>IF(ISERROR(MATCH($A2,SkillLevelTable!$A:$A,0)),FALSE,
+IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A2,SkillLevelTable!$A:$A,0),MATCH($F$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
+        <v>0</v>
+      </c>
+      <c r="L2" t="b">
+        <f>IF(ISERROR(MATCH($A2,SkillLevelTable!$A:$A,0)),FALSE,
+IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A2,SkillLevelTable!$A:$A,0),MATCH($G$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="M2" t="b">
+        <f>IF(ISERROR(MATCH($A2,SkillLevelTable!$A:$A,0)),FALSE,
+IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A2,SkillLevelTable!$A:$A,0),MATCH($G$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
@@ -3435,54 +3137,75 @@
       <c r="E3">
         <v>5</v>
       </c>
-      <c r="G3" t="b">
-        <f>IF(ISERROR(MATCH($A3,SkillLevelTable!$B:$B,0)),FALSE,
-IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A3,SkillLevelTable!$B:$B,0),MATCH($E$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
-        <v>0</v>
-      </c>
-      <c r="H3" t="b">
-        <f>IF(ISERROR(MATCH($A3,SkillLevelTable!$B:$B,0)),FALSE,
-IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A3,SkillLevelTable!$B:$B,0),MATCH(ActionTable!$H$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
-        <v>0</v>
-      </c>
+      <c r="H3" s="1"/>
       <c r="I3" t="b">
-        <f>IF(ISERROR(MATCH($A3,SkillLevelTable!$B:$B,0)),FALSE,
-IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A3,SkillLevelTable!$B:$B,0),MATCH($F$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+        <f>IF(ISERROR(MATCH($A3,SkillLevelTable!$A:$A,0)),FALSE,
+IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A3,SkillLevelTable!$A:$A,0),MATCH($E$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
+        <v>0</v>
+      </c>
+      <c r="J3" t="b">
+        <f>IF(ISERROR(MATCH($A3,SkillLevelTable!$A:$A,0)),FALSE,
+IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A3,SkillLevelTable!$A:$A,0),MATCH(ActionTable!$H$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
+        <v>0</v>
+      </c>
+      <c r="K3" t="b">
+        <f>IF(ISERROR(MATCH($A3,SkillLevelTable!$A:$A,0)),FALSE,
+IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A3,SkillLevelTable!$A:$A,0),MATCH($F$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
+        <v>0</v>
+      </c>
+      <c r="L3" t="b">
+        <f>IF(ISERROR(MATCH($A3,SkillLevelTable!$A:$A,0)),FALSE,
+IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A3,SkillLevelTable!$A:$A,0),MATCH($G$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
+        <v>0</v>
+      </c>
+      <c r="M3" t="b">
+        <f>IF(ISERROR(MATCH($A3,SkillLevelTable!$A:$A,0)),FALSE,
+IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A3,SkillLevelTable!$A:$A,0),MATCH($G$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>41</v>
       </c>
       <c r="B4" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
       </c>
-      <c r="G4" t="b">
-        <f>IF(ISERROR(MATCH($A4,SkillLevelTable!$B:$B,0)),FALSE,
-IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A4,SkillLevelTable!$B:$B,0),MATCH($E$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
-        <v>0</v>
-      </c>
-      <c r="H4" t="b">
-        <f>IF(ISERROR(MATCH($A4,SkillLevelTable!$B:$B,0)),FALSE,
-IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A4,SkillLevelTable!$B:$B,0),MATCH(ActionTable!$H$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
-        <v>0</v>
-      </c>
       <c r="I4" t="b">
-        <f>IF(ISERROR(MATCH($A4,SkillLevelTable!$B:$B,0)),FALSE,
-IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A4,SkillLevelTable!$B:$B,0),MATCH($F$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
+        <f>IF(ISERROR(MATCH($A4,SkillLevelTable!$A:$A,0)),FALSE,
+IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A4,SkillLevelTable!$A:$A,0),MATCH($E$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
+        <v>0</v>
+      </c>
+      <c r="J4" t="b">
+        <f>IF(ISERROR(MATCH($A4,SkillLevelTable!$A:$A,0)),FALSE,
+IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A4,SkillLevelTable!$A:$A,0),MATCH(ActionTable!$H$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
+        <v>0</v>
+      </c>
+      <c r="K4" t="b">
+        <f>IF(ISERROR(MATCH($A4,SkillLevelTable!$A:$A,0)),FALSE,
+IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A4,SkillLevelTable!$A:$A,0),MATCH($F$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L4" t="b">
+        <f>IF(ISERROR(MATCH($A4,SkillLevelTable!$A:$A,0)),FALSE,
+IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A4,SkillLevelTable!$A:$A,0),MATCH($G$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
+        <v>0</v>
+      </c>
+      <c r="M4" t="b">
+        <f>IF(ISERROR(MATCH($A4,SkillLevelTable!$A:$A,0)),FALSE,
+IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A4,SkillLevelTable!$A:$A,0),MATCH($G$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -3493,28 +3216,38 @@
       <c r="E5">
         <v>5</v>
       </c>
-      <c r="G5" t="b">
-        <f>IF(ISERROR(MATCH($A5,SkillLevelTable!$B:$B,0)),FALSE,
-IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A5,SkillLevelTable!$B:$B,0),MATCH($E$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
-        <v>0</v>
-      </c>
-      <c r="H5" t="b">
-        <f>IF(ISERROR(MATCH($A5,SkillLevelTable!$B:$B,0)),FALSE,
-IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A5,SkillLevelTable!$B:$B,0),MATCH(ActionTable!$H$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
-        <v>0</v>
-      </c>
       <c r="I5" t="b">
-        <f>IF(ISERROR(MATCH($A5,SkillLevelTable!$B:$B,0)),FALSE,
-IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A5,SkillLevelTable!$B:$B,0),MATCH($F$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+        <f>IF(ISERROR(MATCH($A5,SkillLevelTable!$A:$A,0)),FALSE,
+IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A5,SkillLevelTable!$A:$A,0),MATCH($E$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
+        <v>0</v>
+      </c>
+      <c r="J5" t="b">
+        <f>IF(ISERROR(MATCH($A5,SkillLevelTable!$A:$A,0)),FALSE,
+IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A5,SkillLevelTable!$A:$A,0),MATCH(ActionTable!$H$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
+        <v>0</v>
+      </c>
+      <c r="K5" t="b">
+        <f>IF(ISERROR(MATCH($A5,SkillLevelTable!$A:$A,0)),FALSE,
+IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A5,SkillLevelTable!$A:$A,0),MATCH($F$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
+        <v>0</v>
+      </c>
+      <c r="L5" t="b">
+        <f>IF(ISERROR(MATCH($A5,SkillLevelTable!$A:$A,0)),FALSE,
+IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A5,SkillLevelTable!$A:$A,0),MATCH($G$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
+        <v>0</v>
+      </c>
+      <c r="M5" t="b">
+        <f>IF(ISERROR(MATCH($A5,SkillLevelTable!$A:$A,0)),FALSE,
+IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A5,SkillLevelTable!$A:$A,0),MATCH($G$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
@@ -3525,46 +3258,118 @@
       <c r="E6">
         <v>5</v>
       </c>
-      <c r="G6" t="b">
-        <f>IF(ISERROR(MATCH($A6,SkillLevelTable!$B:$B,0)),FALSE,
-IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A6,SkillLevelTable!$B:$B,0),MATCH($E$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
-        <v>0</v>
-      </c>
-      <c r="H6" t="b">
-        <f>IF(ISERROR(MATCH($A6,SkillLevelTable!$B:$B,0)),FALSE,
-IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A6,SkillLevelTable!$B:$B,0),MATCH(ActionTable!$H$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
-        <v>0</v>
-      </c>
       <c r="I6" t="b">
-        <f>IF(ISERROR(MATCH($A6,SkillLevelTable!$B:$B,0)),FALSE,
-IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A6,SkillLevelTable!$B:$B,0),MATCH($F$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+        <f>IF(ISERROR(MATCH($A6,SkillLevelTable!$A:$A,0)),FALSE,
+IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A6,SkillLevelTable!$A:$A,0),MATCH($E$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
+        <v>0</v>
+      </c>
+      <c r="J6" t="b">
+        <f>IF(ISERROR(MATCH($A6,SkillLevelTable!$A:$A,0)),FALSE,
+IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A6,SkillLevelTable!$A:$A,0),MATCH(ActionTable!$H$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
+        <v>0</v>
+      </c>
+      <c r="K6" t="b">
+        <f>IF(ISERROR(MATCH($A6,SkillLevelTable!$A:$A,0)),FALSE,
+IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A6,SkillLevelTable!$A:$A,0),MATCH($F$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
+        <v>0</v>
+      </c>
+      <c r="L6" t="b">
+        <f>IF(ISERROR(MATCH($A6,SkillLevelTable!$A:$A,0)),FALSE,
+IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A6,SkillLevelTable!$A:$A,0),MATCH($G$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
+        <v>0</v>
+      </c>
+      <c r="M6" t="b">
+        <f>IF(ISERROR(MATCH($A6,SkillLevelTable!$A:$A,0)),FALSE,
+IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A6,SkillLevelTable!$A:$A,0),MATCH($G$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>44</v>
       </c>
       <c r="B7" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="C7" t="b">
         <v>1</v>
       </c>
-      <c r="G7" t="b">
-        <f>IF(ISERROR(MATCH($A7,SkillLevelTable!$B:$B,0)),FALSE,
-IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A7,SkillLevelTable!$B:$B,0),MATCH($E$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
-        <v>0</v>
-      </c>
-      <c r="H7" t="b">
-        <f>IF(ISERROR(MATCH($A7,SkillLevelTable!$B:$B,0)),FALSE,
-IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A7,SkillLevelTable!$B:$B,0),MATCH(ActionTable!$H$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
-        <v>0</v>
-      </c>
       <c r="I7" t="b">
-        <f>IF(ISERROR(MATCH($A7,SkillLevelTable!$B:$B,0)),FALSE,
-IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A7,SkillLevelTable!$B:$B,0),MATCH($F$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
-        <v>0</v>
+        <f>IF(ISERROR(MATCH($A7,SkillLevelTable!$A:$A,0)),FALSE,
+IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A7,SkillLevelTable!$A:$A,0),MATCH($E$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
+        <v>0</v>
+      </c>
+      <c r="J7" t="b">
+        <f>IF(ISERROR(MATCH($A7,SkillLevelTable!$A:$A,0)),FALSE,
+IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A7,SkillLevelTable!$A:$A,0),MATCH(ActionTable!$H$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
+        <v>0</v>
+      </c>
+      <c r="K7" t="b">
+        <f>IF(ISERROR(MATCH($A7,SkillLevelTable!$A:$A,0)),FALSE,
+IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A7,SkillLevelTable!$A:$A,0),MATCH($F$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
+        <v>0</v>
+      </c>
+      <c r="L7" t="b">
+        <f>IF(ISERROR(MATCH($A7,SkillLevelTable!$A:$A,0)),FALSE,
+IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A7,SkillLevelTable!$A:$A,0),MATCH($G$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
+        <v>0</v>
+      </c>
+      <c r="M7" t="b">
+        <f>IF(ISERROR(MATCH($A7,SkillLevelTable!$A:$A,0)),FALSE,
+IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A7,SkillLevelTable!$A:$A,0),MATCH($G$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>138</v>
+      </c>
+      <c r="B8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>140</v>
+      </c>
+      <c r="C9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>142</v>
+      </c>
+      <c r="C11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -3577,291 +3382,260 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.75" customWidth="1"/>
-    <col min="8" max="8" width="30.75" customWidth="1"/>
-    <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="11" width="12.875" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="10.625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="13" width="10.625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="15" width="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.75" customWidth="1"/>
+    <col min="7" max="7" width="30.75" customWidth="1"/>
+    <col min="8" max="8" width="19" customWidth="1"/>
+    <col min="9" max="10" width="12.875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="10.625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="10.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="14" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B1" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C1" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="D1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E1" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="F1" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="G1" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="H1" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="I1" t="s">
-        <v>151</v>
-      </c>
-      <c r="J1" t="s">
-        <v>141</v>
-      </c>
-      <c r="L1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+      <c r="K1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J2" t="str">
+        <f>I2&amp;TEXT(B2,"00")</f>
+        <v>AffectorValue00101</v>
+      </c>
+      <c r="K2" t="e">
+        <f>VLOOKUP(J2,[1]AffectorValueLevelTable!$1:$1048576,6,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
         <v>45</v>
       </c>
-      <c r="B2" t="s">
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="C2">
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
         <v>1</v>
       </c>
-      <c r="D2">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
-        <v>148</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="I2" t="s">
-        <v>140</v>
-      </c>
-      <c r="J2" t="s">
-        <v>142</v>
-      </c>
-      <c r="K2" t="str">
-        <f>J2&amp;TEXT(C2,"00")</f>
-        <v>AffectorValue00101</v>
-      </c>
-      <c r="L2" t="str">
-        <f>VLOOKUP(K2,[1]AffectorValueLevelTable!$1:$1048576,6,0)</f>
-        <v>0.4,0.5,0.6,0.9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3">
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
         <v>2</v>
       </c>
-      <c r="D3">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4">
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
         <v>3</v>
       </c>
-      <c r="D4">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5">
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
         <v>4</v>
       </c>
-      <c r="D5">
-        <v>7</v>
-      </c>
-      <c r="E5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6">
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
         <v>5</v>
       </c>
-      <c r="D6">
-        <v>6</v>
-      </c>
-      <c r="E6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7">
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8">
+      <c r="E12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9">
+      <c r="E13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10">
+      <c r="E14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>55</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11">
+      <c r="E15" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>133</v>
-      </c>
-      <c r="B12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12">
+      <c r="E16" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17">
         <v>1</v>
       </c>
-      <c r="F12" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>134</v>
-      </c>
-      <c r="B13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13">
+      <c r="E17" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B18">
         <v>2</v>
       </c>
-      <c r="F13" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>135</v>
-      </c>
-      <c r="B14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14">
-        <v>3</v>
-      </c>
-      <c r="F14" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="E18" t="s">
         <v>136</v>
-      </c>
-      <c r="B15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15">
-        <v>4</v>
-      </c>
-      <c r="F15" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>137</v>
-      </c>
-      <c r="B16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16">
-        <v>5</v>
-      </c>
-      <c r="F16" t="s">
-        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/작업Action.xlsx
+++ b/Excel/작업Action.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C979DEE7-0920-4FDA-AEAA-D0DD4B6D50B1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A42514A8-DB79-4A27-A453-C2F15FF3D810}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ActionTable" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
   <calcPr calcId="181029"/>
   <extLst>
@@ -176,7 +177,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="148">
   <si>
     <t>Action00101</t>
   </si>
@@ -606,14 +607,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>툴에적은어펙터밸류Id이건엑셀전용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AffectorValue001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Attacked</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -622,10 +615,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>중간용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>descriptionId|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -648,55 +637,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>피어싱어펙터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Actor011</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>특수피어싱패시브</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xxx 레벨팩을 x레벨 소유하는 어펙터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LP_Piercing001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LP_ATK10per</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LP_ATK20per</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LP_ChangeActorStatus010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LP_ChangeActorStatus020</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무적</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LPAF_PiercingHitObject</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>useNameIdOverriding|Bool</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>useDescriptionIdOverriding|Bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>툴입력어펙터밸류1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NormalAttack01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fValue1|Float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iValue1|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sValue1|String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가작업First</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가작업Second</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가작업Third</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>툴입력어펙터밸류2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>툴입력어펙터밸류3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름참고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명참고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패시브어펙터밸류참고</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -756,12 +753,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -793,182 +793,197 @@
       <sheetName val="AffectorValueLevelTable임시"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1">
         <row r="1">
           <cell r="A1" t="str">
+            <v>vlookup용아이디</v>
+          </cell>
+          <cell r="B1" t="str">
             <v>affectorValueId|String</v>
           </cell>
-          <cell r="B1" t="str">
+          <cell r="C1" t="str">
             <v>내가가져오는</v>
           </cell>
-          <cell r="C1" t="str">
+          <cell r="D1" t="str">
             <v>level|Int</v>
           </cell>
-          <cell r="D1" t="str">
+          <cell r="E1" t="str">
             <v>conditionValueId|String!</v>
           </cell>
-          <cell r="E1" t="str">
+          <cell r="F1" t="str">
             <v>fValue1|Float</v>
           </cell>
-          <cell r="F1" t="str">
+          <cell r="G1" t="str">
             <v>fValue2|Float</v>
           </cell>
-          <cell r="G1" t="str">
+          <cell r="H1" t="str">
             <v>fValue3|Float</v>
           </cell>
-          <cell r="H1" t="str">
+          <cell r="I1" t="str">
             <v>fValue4|Float</v>
           </cell>
-          <cell r="I1" t="str">
+          <cell r="J1" t="str">
             <v>iValue1|Int</v>
           </cell>
-          <cell r="J1" t="str">
+          <cell r="K1" t="str">
             <v>iValue2|Int</v>
           </cell>
-          <cell r="K1" t="str">
+          <cell r="L1" t="str">
             <v>sValue1|String</v>
           </cell>
-          <cell r="L1" t="str">
+          <cell r="M1" t="str">
             <v>sValue2|String</v>
           </cell>
-          <cell r="M1" t="str">
+          <cell r="N1" t="str">
             <v>어펙터호출</v>
           </cell>
-          <cell r="O1" t="str">
+          <cell r="P1" t="str">
             <v>affectorId_Verify</v>
           </cell>
-          <cell r="Q1" t="str">
+          <cell r="R1" t="str">
             <v>affectorId_List</v>
           </cell>
-          <cell r="R1" t="str">
+          <cell r="S1" t="str">
             <v>value</v>
           </cell>
-          <cell r="S1" t="str">
+          <cell r="T1" t="str">
             <v>len</v>
           </cell>
         </row>
         <row r="2">
           <cell r="A2" t="str">
+            <v>NormalAttack0101</v>
+          </cell>
+          <cell r="B2" t="str">
             <v>NormalAttack01</v>
           </cell>
-          <cell r="B2" t="str">
+          <cell r="C2" t="str">
             <v>BaseDamage</v>
           </cell>
-          <cell r="C2">
+          <cell r="D2">
             <v>1</v>
           </cell>
-          <cell r="E2">
+          <cell r="F2">
             <v>1</v>
           </cell>
-          <cell r="I2">
+          <cell r="J2">
             <v>1</v>
           </cell>
-          <cell r="J2" t="str">
+          <cell r="K2" t="str">
             <v>1:온킬</v>
           </cell>
-          <cell r="K2" t="str">
+          <cell r="L2" t="str">
             <v>0.4,0.5,0.6</v>
           </cell>
-          <cell r="L2" t="str">
+          <cell r="M2" t="str">
             <v>시전자회복밸류아이디</v>
           </cell>
-          <cell r="O2" t="str">
+          <cell r="P2" t="str">
             <v>ChangeAction</v>
           </cell>
-          <cell r="Q2" t="str">
+          <cell r="R2" t="str">
             <v>ChangeAction</v>
           </cell>
-          <cell r="R2">
+          <cell r="S2">
             <v>1</v>
           </cell>
-          <cell r="S2">
+          <cell r="T2">
             <v>12</v>
           </cell>
-          <cell r="U2" t="str">
+          <cell r="V2" t="str">
             <v/>
           </cell>
         </row>
         <row r="3">
           <cell r="A3" t="str">
+            <v>시전자회복밸류아이디00</v>
+          </cell>
+          <cell r="B3" t="str">
             <v>시전자회복밸류아이디</v>
           </cell>
-          <cell r="D3" t="str">
+          <cell r="E3" t="str">
             <v>HP이하</v>
           </cell>
-          <cell r="O3" t="str">
+          <cell r="P3" t="str">
             <v>AddForce</v>
           </cell>
-          <cell r="Q3" t="str">
+          <cell r="R3" t="str">
             <v>BaseDamage</v>
           </cell>
-          <cell r="R3">
+          <cell r="S3">
             <v>3</v>
           </cell>
-          <cell r="S3">
+          <cell r="T3">
             <v>10</v>
           </cell>
         </row>
         <row r="4">
           <cell r="A4" t="str">
+            <v>LP_PiercingHitObject01</v>
+          </cell>
+          <cell r="B4" t="str">
             <v>LP_PiercingHitObject</v>
           </cell>
-          <cell r="C4">
+          <cell r="D4">
             <v>1</v>
           </cell>
-          <cell r="I4">
+          <cell r="J4">
             <v>1</v>
           </cell>
-          <cell r="L4">
+          <cell r="M4">
             <v>0.9</v>
           </cell>
-          <cell r="O4" t="str">
+          <cell r="P4" t="str">
             <v>BaseDamage</v>
           </cell>
-          <cell r="Q4" t="str">
+          <cell r="R4" t="str">
             <v>AddForce</v>
           </cell>
-          <cell r="R4">
+          <cell r="S4">
             <v>2</v>
           </cell>
-          <cell r="S4">
+          <cell r="T4">
             <v>8</v>
           </cell>
         </row>
         <row r="5">
           <cell r="A5" t="str">
+            <v>LP_PiercingHitObject02</v>
+          </cell>
+          <cell r="B5" t="str">
             <v>LP_PiercingHitObject</v>
           </cell>
-          <cell r="C5">
+          <cell r="D5">
             <v>2</v>
           </cell>
-          <cell r="I5">
+          <cell r="J5">
             <v>2</v>
           </cell>
-          <cell r="L5" t="str">
+          <cell r="M5" t="str">
             <v>0.95,0.9</v>
           </cell>
-          <cell r="O5" t="str">
+          <cell r="P5" t="str">
             <v>AddActorState</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="O6" t="str">
+          <cell r="P6" t="str">
             <v>스탯변경</v>
           </cell>
         </row>
         <row r="7">
-          <cell r="O7" t="str">
+          <cell r="P7" t="str">
             <v>DOT대미지</v>
           </cell>
         </row>
         <row r="8">
-          <cell r="O8" t="str">
+          <cell r="P8" t="str">
             <v>BaseDamageWithOnKill</v>
           </cell>
         </row>
         <row r="9">
-          <cell r="O9" t="str">
+          <cell r="P9" t="str">
             <v>DropItem</v>
           </cell>
         </row>
@@ -978,6 +993,64 @@
       <sheetData sheetId="4" refreshError="1"/>
       <sheetData sheetId="5" refreshError="1"/>
       <sheetData sheetId="6" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="StringTable"/>
+      <sheetName val="TitleStringTable"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>id|String</v>
+          </cell>
+          <cell r="B1" t="str">
+            <v>kor|String</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>GameUI_Play</v>
+          </cell>
+          <cell r="B2" t="str">
+            <v>진행</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>Skill_ActiveOne001_Name</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>하트가 폭발한다</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>Skill_ActiveOne001_Description</v>
+          </cell>
+          <cell r="B4" t="str">
+            <v>대미지를 &lt;color=#FFFF00&gt;{0}%,{1}%,{2}%,{3}%&lt;/color&gt; 먹이고 적이 죽이면 하트를 반드시 떨어뜨린다
+적이 죽지 않으면 기절을 먹인다</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>Skill_ActiveOne002_Description</v>
+          </cell>
+          <cell r="B5" t="str">
+            <v>대미지를 {0}% 먹이고 적이 죽이면 하트를 반드시 떨어뜨린다
+적이 죽지 않으면 기절을 먹인다</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1306,8 +1379,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -1315,24 +1391,21 @@
     <col min="1" max="1" width="14.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="16.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="21.875" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="19.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.5" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.875" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="19.875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24.125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="12.25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="9.875" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="14" width="13.625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="13.625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="16" max="16" width="9" collapsed="1"/>
-    <col min="17" max="17" width="14.25" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="18" max="18" width="9" collapsed="1"/>
-    <col min="19" max="19" width="12.125" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="20" max="21" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="22" width="9" collapsed="1"/>
+    <col min="11" max="11" width="11" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.875" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.625" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="17" width="14.25" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="19" width="12.125" customWidth="1" outlineLevel="1"/>
+    <col min="20" max="21" width="9" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -1370,7 +1443,7 @@
         <v>79</v>
       </c>
       <c r="L1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="M1" t="s">
         <v>80</v>
@@ -1391,26 +1464,31 @@
         <v>34</v>
       </c>
       <c r="U1" t="str">
-        <f ca="1">IF(OR(OFFSET(U1,1,0)&lt;OFFSET(U1,2,0),
-OFFSET(U1,1,0)&lt;OFFSET(U1,2,0),
-OFFSET(U1,2,0)&lt;OFFSET(U1,3,0),
-OFFSET(U1,3,0)&lt;OFFSET(U1,4,0),
-OFFSET(U1,4,0)&lt;OFFSET(U1,5,0),
-OFFSET(U1,5,0)&lt;OFFSET(U1,6,0),
-OFFSET(U1,6,0)&lt;OFFSET(U1,7,0),
-OFFSET(U1,7,0)&lt;OFFSET(U1,8,0),
-OFFSET(U1,8,0)&lt;OFFSET(U1,9,0),
-OFFSET(U1,9,0)&lt;OFFSET(U1,10,0),
-OFFSET(U1,10,0)&lt;OFFSET(U1,11,0),
-OFFSET(U1,11,0)&lt;OFFSET(U1,12,0),
-OFFSET(U1,12,0)&lt;OFFSET(U1,13,0),
-OFFSET(U1,13,0)&lt;OFFSET(U1,14,0),
-OFFSET(U1,14,0)&lt;OFFSET(U1,15,0),
-OFFSET(U1,15,0)&lt;OFFSET(U1,16,0),
-OFFSET(U1,16,0)&lt;OFFSET(U1,17,0),
-OFFSET(U1,17,0)&lt;OFFSET(U1,18,0),
-OFFSET(U1,18,0)&lt;OFFSET(U1,19,0),
-OFFSET(U1,19,0)&lt;OFFSET(U1,20,0)),"내림차순 정렬할 것","len")</f>
+        <f ca="1">IF(OR(OFFSET(U1,1,0)&lt;OFFSET(U1,2,0),OFFSET(U1,2,0)&lt;OFFSET(U1,3,0),
+OFFSET(U1,3,0)&lt;OFFSET(U1,4,0),OFFSET(U1,4,0)&lt;OFFSET(U1,5,0),
+OFFSET(U1,5,0)&lt;OFFSET(U1,6,0),OFFSET(U1,6,0)&lt;OFFSET(U1,7,0),
+OFFSET(U1,7,0)&lt;OFFSET(U1,8,0),OFFSET(U1,8,0)&lt;OFFSET(U1,9,0),
+OFFSET(U1,9,0)&lt;OFFSET(U1,10,0),OFFSET(U1,10,0)&lt;OFFSET(U1,11,0),
+OFFSET(U1,11,0)&lt;OFFSET(U1,12,0),OFFSET(U1,12,0)&lt;OFFSET(U1,13,0),
+OFFSET(U1,13,0)&lt;OFFSET(U1,14,0),OFFSET(U1,14,0)&lt;OFFSET(U1,15,0),
+OFFSET(U1,15,0)&lt;OFFSET(U1,16,0),OFFSET(U1,16,0)&lt;OFFSET(U1,17,0),
+OFFSET(U1,17,0)&lt;OFFSET(U1,18,0),OFFSET(U1,18,0)&lt;OFFSET(U1,19,0),
+OFFSET(U1,19,0)&lt;OFFSET(U1,20,0),OFFSET(U1,20,0)&lt;OFFSET(U1,21,0),
+OFFSET(U1,21,0)&lt;OFFSET(U1,22,0),OFFSET(U1,22,0)&lt;OFFSET(U1,23,0),
+OFFSET(U1,23,0)&lt;OFFSET(U1,24,0),OFFSET(U1,24,0)&lt;OFFSET(U1,25,0),
+OFFSET(U1,25,0)&lt;OFFSET(U1,26,0),OFFSET(U1,26,0)&lt;OFFSET(U1,27,0),
+OFFSET(U1,27,0)&lt;OFFSET(U1,28,0),OFFSET(U1,28,0)&lt;OFFSET(U1,29,0),
+OFFSET(U1,29,0)&lt;OFFSET(U1,30,0),OFFSET(U1,30,0)&lt;OFFSET(U1,31,0),
+OFFSET(U1,31,0)&lt;OFFSET(U1,32,0),OFFSET(U1,32,0)&lt;OFFSET(U1,33,0),
+OFFSET(U1,33,0)&lt;OFFSET(U1,34,0),OFFSET(U1,34,0)&lt;OFFSET(U1,35,0),
+OFFSET(U1,35,0)&lt;OFFSET(U1,36,0),OFFSET(U1,36,0)&lt;OFFSET(U1,37,0),
+OFFSET(U1,37,0)&lt;OFFSET(U1,38,0),OFFSET(U1,38,0)&lt;OFFSET(U1,39,0),
+OFFSET(U1,39,0)&lt;OFFSET(U1,40,0),OFFSET(U1,40,0)&lt;OFFSET(U1,41,0),
+OFFSET(U1,41,0)&lt;OFFSET(U1,42,0),OFFSET(U1,42,0)&lt;OFFSET(U1,43,0),
+OFFSET(U1,43,0)&lt;OFFSET(U1,44,0),OFFSET(U1,44,0)&lt;OFFSET(U1,45,0),
+OFFSET(U1,45,0)&lt;OFFSET(U1,46,0),OFFSET(U1,46,0)&lt;OFFSET(U1,47,0),
+OFFSET(U1,47,0)&lt;OFFSET(U1,48,0),OFFSET(U1,48,0)&lt;OFFSET(U1,49,0),
+OFFSET(U1,49,0)&lt;OFFSET(U1,50,0)),"내림차순 정렬할 것","len")</f>
         <v>len</v>
       </c>
     </row>
@@ -1529,7 +1607,7 @@
         <v/>
       </c>
       <c r="F3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1803,7 +1881,7 @@
         <v/>
       </c>
       <c r="F9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2103,8 +2181,8 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="D2:D13 F2:F13 F15" xr:uid="{00000000-0002-0000-0000-000000000000}">
-      <formula1>$Q$2:$Q$5</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="D2:D16 F2:F16" xr:uid="{9089C6B6-A03B-469A-BC47-88308B12ED20}">
+      <formula1>OFFSET(INDIRECT("$A$1"),1,MATCH(D$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1,COUNTA(OFFSET(INDIRECT("$A:$A"),0,MATCH(D$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1))-1,1)</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2116,7 +2194,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2161,26 +2241,31 @@
         <v>34</v>
       </c>
       <c r="K1" t="str">
-        <f ca="1">IF(OR(OFFSET(K1,1,0)&lt;OFFSET(K1,2,0),
-OFFSET(K1,1,0)&lt;OFFSET(K1,2,0),
-OFFSET(K1,2,0)&lt;OFFSET(K1,3,0),
-OFFSET(K1,3,0)&lt;OFFSET(K1,4,0),
-OFFSET(K1,4,0)&lt;OFFSET(K1,5,0),
-OFFSET(K1,5,0)&lt;OFFSET(K1,6,0),
-OFFSET(K1,6,0)&lt;OFFSET(K1,7,0),
-OFFSET(K1,7,0)&lt;OFFSET(K1,8,0),
-OFFSET(K1,8,0)&lt;OFFSET(K1,9,0),
-OFFSET(K1,9,0)&lt;OFFSET(K1,10,0),
-OFFSET(K1,10,0)&lt;OFFSET(K1,11,0),
-OFFSET(K1,11,0)&lt;OFFSET(K1,12,0),
-OFFSET(K1,12,0)&lt;OFFSET(K1,13,0),
-OFFSET(K1,13,0)&lt;OFFSET(K1,14,0),
-OFFSET(K1,14,0)&lt;OFFSET(K1,15,0),
-OFFSET(K1,15,0)&lt;OFFSET(K1,16,0),
-OFFSET(K1,16,0)&lt;OFFSET(K1,17,0),
-OFFSET(K1,17,0)&lt;OFFSET(K1,18,0),
-OFFSET(K1,18,0)&lt;OFFSET(K1,19,0),
-OFFSET(K1,19,0)&lt;OFFSET(K1,20,0)),"내림차순 정렬할 것","len")</f>
+        <f ca="1">IF(OR(OFFSET(K1,1,0)&lt;OFFSET(K1,2,0),OFFSET(K1,2,0)&lt;OFFSET(K1,3,0),
+OFFSET(K1,3,0)&lt;OFFSET(K1,4,0),OFFSET(K1,4,0)&lt;OFFSET(K1,5,0),
+OFFSET(K1,5,0)&lt;OFFSET(K1,6,0),OFFSET(K1,6,0)&lt;OFFSET(K1,7,0),
+OFFSET(K1,7,0)&lt;OFFSET(K1,8,0),OFFSET(K1,8,0)&lt;OFFSET(K1,9,0),
+OFFSET(K1,9,0)&lt;OFFSET(K1,10,0),OFFSET(K1,10,0)&lt;OFFSET(K1,11,0),
+OFFSET(K1,11,0)&lt;OFFSET(K1,12,0),OFFSET(K1,12,0)&lt;OFFSET(K1,13,0),
+OFFSET(K1,13,0)&lt;OFFSET(K1,14,0),OFFSET(K1,14,0)&lt;OFFSET(K1,15,0),
+OFFSET(K1,15,0)&lt;OFFSET(K1,16,0),OFFSET(K1,16,0)&lt;OFFSET(K1,17,0),
+OFFSET(K1,17,0)&lt;OFFSET(K1,18,0),OFFSET(K1,18,0)&lt;OFFSET(K1,19,0),
+OFFSET(K1,19,0)&lt;OFFSET(K1,20,0),OFFSET(K1,20,0)&lt;OFFSET(K1,21,0),
+OFFSET(K1,21,0)&lt;OFFSET(K1,22,0),OFFSET(K1,22,0)&lt;OFFSET(K1,23,0),
+OFFSET(K1,23,0)&lt;OFFSET(K1,24,0),OFFSET(K1,24,0)&lt;OFFSET(K1,25,0),
+OFFSET(K1,25,0)&lt;OFFSET(K1,26,0),OFFSET(K1,26,0)&lt;OFFSET(K1,27,0),
+OFFSET(K1,27,0)&lt;OFFSET(K1,28,0),OFFSET(K1,28,0)&lt;OFFSET(K1,29,0),
+OFFSET(K1,29,0)&lt;OFFSET(K1,30,0),OFFSET(K1,30,0)&lt;OFFSET(K1,31,0),
+OFFSET(K1,31,0)&lt;OFFSET(K1,32,0),OFFSET(K1,32,0)&lt;OFFSET(K1,33,0),
+OFFSET(K1,33,0)&lt;OFFSET(K1,34,0),OFFSET(K1,34,0)&lt;OFFSET(K1,35,0),
+OFFSET(K1,35,0)&lt;OFFSET(K1,36,0),OFFSET(K1,36,0)&lt;OFFSET(K1,37,0),
+OFFSET(K1,37,0)&lt;OFFSET(K1,38,0),OFFSET(K1,38,0)&lt;OFFSET(K1,39,0),
+OFFSET(K1,39,0)&lt;OFFSET(K1,40,0),OFFSET(K1,40,0)&lt;OFFSET(K1,41,0),
+OFFSET(K1,41,0)&lt;OFFSET(K1,42,0),OFFSET(K1,42,0)&lt;OFFSET(K1,43,0),
+OFFSET(K1,43,0)&lt;OFFSET(K1,44,0),OFFSET(K1,44,0)&lt;OFFSET(K1,45,0),
+OFFSET(K1,45,0)&lt;OFFSET(K1,46,0),OFFSET(K1,46,0)&lt;OFFSET(K1,47,0),
+OFFSET(K1,47,0)&lt;OFFSET(K1,48,0),OFFSET(K1,48,0)&lt;OFFSET(K1,49,0),
+OFFSET(K1,49,0)&lt;OFFSET(K1,50,0)),"내림차순 정렬할 것","len")</f>
         <v>len</v>
       </c>
       <c r="M1" t="s">
@@ -2193,26 +2278,31 @@
         <v>34</v>
       </c>
       <c r="Q1" t="str">
-        <f ca="1">IF(OR(OFFSET(Q1,1,0)&lt;OFFSET(Q1,2,0),
-OFFSET(Q1,1,0)&lt;OFFSET(Q1,2,0),
-OFFSET(Q1,2,0)&lt;OFFSET(Q1,3,0),
-OFFSET(Q1,3,0)&lt;OFFSET(Q1,4,0),
-OFFSET(Q1,4,0)&lt;OFFSET(Q1,5,0),
-OFFSET(Q1,5,0)&lt;OFFSET(Q1,6,0),
-OFFSET(Q1,6,0)&lt;OFFSET(Q1,7,0),
-OFFSET(Q1,7,0)&lt;OFFSET(Q1,8,0),
-OFFSET(Q1,8,0)&lt;OFFSET(Q1,9,0),
-OFFSET(Q1,9,0)&lt;OFFSET(Q1,10,0),
-OFFSET(Q1,10,0)&lt;OFFSET(Q1,11,0),
-OFFSET(Q1,11,0)&lt;OFFSET(Q1,12,0),
-OFFSET(Q1,12,0)&lt;OFFSET(Q1,13,0),
-OFFSET(Q1,13,0)&lt;OFFSET(Q1,14,0),
-OFFSET(Q1,14,0)&lt;OFFSET(Q1,15,0),
-OFFSET(Q1,15,0)&lt;OFFSET(Q1,16,0),
-OFFSET(Q1,16,0)&lt;OFFSET(Q1,17,0),
-OFFSET(Q1,17,0)&lt;OFFSET(Q1,18,0),
-OFFSET(Q1,18,0)&lt;OFFSET(Q1,19,0),
-OFFSET(Q1,19,0)&lt;OFFSET(Q1,20,0)),"내림차순 정렬할 것","len")</f>
+        <f ca="1">IF(OR(OFFSET(Q1,1,0)&lt;OFFSET(Q1,2,0),OFFSET(Q1,2,0)&lt;OFFSET(Q1,3,0),
+OFFSET(Q1,3,0)&lt;OFFSET(Q1,4,0),OFFSET(Q1,4,0)&lt;OFFSET(Q1,5,0),
+OFFSET(Q1,5,0)&lt;OFFSET(Q1,6,0),OFFSET(Q1,6,0)&lt;OFFSET(Q1,7,0),
+OFFSET(Q1,7,0)&lt;OFFSET(Q1,8,0),OFFSET(Q1,8,0)&lt;OFFSET(Q1,9,0),
+OFFSET(Q1,9,0)&lt;OFFSET(Q1,10,0),OFFSET(Q1,10,0)&lt;OFFSET(Q1,11,0),
+OFFSET(Q1,11,0)&lt;OFFSET(Q1,12,0),OFFSET(Q1,12,0)&lt;OFFSET(Q1,13,0),
+OFFSET(Q1,13,0)&lt;OFFSET(Q1,14,0),OFFSET(Q1,14,0)&lt;OFFSET(Q1,15,0),
+OFFSET(Q1,15,0)&lt;OFFSET(Q1,16,0),OFFSET(Q1,16,0)&lt;OFFSET(Q1,17,0),
+OFFSET(Q1,17,0)&lt;OFFSET(Q1,18,0),OFFSET(Q1,18,0)&lt;OFFSET(Q1,19,0),
+OFFSET(Q1,19,0)&lt;OFFSET(Q1,20,0),OFFSET(Q1,20,0)&lt;OFFSET(Q1,21,0),
+OFFSET(Q1,21,0)&lt;OFFSET(Q1,22,0),OFFSET(Q1,22,0)&lt;OFFSET(Q1,23,0),
+OFFSET(Q1,23,0)&lt;OFFSET(Q1,24,0),OFFSET(Q1,24,0)&lt;OFFSET(Q1,25,0),
+OFFSET(Q1,25,0)&lt;OFFSET(Q1,26,0),OFFSET(Q1,26,0)&lt;OFFSET(Q1,27,0),
+OFFSET(Q1,27,0)&lt;OFFSET(Q1,28,0),OFFSET(Q1,28,0)&lt;OFFSET(Q1,29,0),
+OFFSET(Q1,29,0)&lt;OFFSET(Q1,30,0),OFFSET(Q1,30,0)&lt;OFFSET(Q1,31,0),
+OFFSET(Q1,31,0)&lt;OFFSET(Q1,32,0),OFFSET(Q1,32,0)&lt;OFFSET(Q1,33,0),
+OFFSET(Q1,33,0)&lt;OFFSET(Q1,34,0),OFFSET(Q1,34,0)&lt;OFFSET(Q1,35,0),
+OFFSET(Q1,35,0)&lt;OFFSET(Q1,36,0),OFFSET(Q1,36,0)&lt;OFFSET(Q1,37,0),
+OFFSET(Q1,37,0)&lt;OFFSET(Q1,38,0),OFFSET(Q1,38,0)&lt;OFFSET(Q1,39,0),
+OFFSET(Q1,39,0)&lt;OFFSET(Q1,40,0),OFFSET(Q1,40,0)&lt;OFFSET(Q1,41,0),
+OFFSET(Q1,41,0)&lt;OFFSET(Q1,42,0),OFFSET(Q1,42,0)&lt;OFFSET(Q1,43,0),
+OFFSET(Q1,43,0)&lt;OFFSET(Q1,44,0),OFFSET(Q1,44,0)&lt;OFFSET(Q1,45,0),
+OFFSET(Q1,45,0)&lt;OFFSET(Q1,46,0),OFFSET(Q1,46,0)&lt;OFFSET(Q1,47,0),
+OFFSET(Q1,47,0)&lt;OFFSET(Q1,48,0),OFFSET(Q1,48,0)&lt;OFFSET(Q1,49,0),
+OFFSET(Q1,49,0)&lt;OFFSET(Q1,50,0)),"내림차순 정렬할 것","len")</f>
         <v>len</v>
       </c>
     </row>
@@ -2663,12 +2753,9 @@
     <sortCondition ref="P2:P7"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B5" xr:uid="{00000000-0002-0000-0100-000000000000}">
-      <formula1>$G$2:$G$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D5" xr:uid="{00000000-0002-0000-0100-000001000000}">
-      <formula1>$M$2:$M$9</formula1>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B5 D2:D5" xr:uid="{809BE1C9-E5C4-442E-8B69-082FB6A8DFCA}">
+      <formula1>OFFSET(INDIRECT("$A$1"),1,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1,COUNTA(OFFSET(INDIRECT("$A:$A"),0,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1))-1,1)</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2733,26 +2820,31 @@
         <v>34</v>
       </c>
       <c r="O1" t="str">
-        <f ca="1">IF(OR(OFFSET(O1,1,0)&lt;OFFSET(O1,2,0),
-OFFSET(O1,1,0)&lt;OFFSET(O1,2,0),
-OFFSET(O1,2,0)&lt;OFFSET(O1,3,0),
-OFFSET(O1,3,0)&lt;OFFSET(O1,4,0),
-OFFSET(O1,4,0)&lt;OFFSET(O1,5,0),
-OFFSET(O1,5,0)&lt;OFFSET(O1,6,0),
-OFFSET(O1,6,0)&lt;OFFSET(O1,7,0),
-OFFSET(O1,7,0)&lt;OFFSET(O1,8,0),
-OFFSET(O1,8,0)&lt;OFFSET(O1,9,0),
-OFFSET(O1,9,0)&lt;OFFSET(O1,10,0),
-OFFSET(O1,10,0)&lt;OFFSET(O1,11,0),
-OFFSET(O1,11,0)&lt;OFFSET(O1,12,0),
-OFFSET(O1,12,0)&lt;OFFSET(O1,13,0),
-OFFSET(O1,13,0)&lt;OFFSET(O1,14,0),
-OFFSET(O1,14,0)&lt;OFFSET(O1,15,0),
-OFFSET(O1,15,0)&lt;OFFSET(O1,16,0),
-OFFSET(O1,16,0)&lt;OFFSET(O1,17,0),
-OFFSET(O1,17,0)&lt;OFFSET(O1,18,0),
-OFFSET(O1,18,0)&lt;OFFSET(O1,19,0),
-OFFSET(O1,19,0)&lt;OFFSET(O1,20,0)),"내림차순 정렬할 것","len")</f>
+        <f ca="1">IF(OR(OFFSET(O1,1,0)&lt;OFFSET(O1,2,0),OFFSET(O1,2,0)&lt;OFFSET(O1,3,0),
+OFFSET(O1,3,0)&lt;OFFSET(O1,4,0),OFFSET(O1,4,0)&lt;OFFSET(O1,5,0),
+OFFSET(O1,5,0)&lt;OFFSET(O1,6,0),OFFSET(O1,6,0)&lt;OFFSET(O1,7,0),
+OFFSET(O1,7,0)&lt;OFFSET(O1,8,0),OFFSET(O1,8,0)&lt;OFFSET(O1,9,0),
+OFFSET(O1,9,0)&lt;OFFSET(O1,10,0),OFFSET(O1,10,0)&lt;OFFSET(O1,11,0),
+OFFSET(O1,11,0)&lt;OFFSET(O1,12,0),OFFSET(O1,12,0)&lt;OFFSET(O1,13,0),
+OFFSET(O1,13,0)&lt;OFFSET(O1,14,0),OFFSET(O1,14,0)&lt;OFFSET(O1,15,0),
+OFFSET(O1,15,0)&lt;OFFSET(O1,16,0),OFFSET(O1,16,0)&lt;OFFSET(O1,17,0),
+OFFSET(O1,17,0)&lt;OFFSET(O1,18,0),OFFSET(O1,18,0)&lt;OFFSET(O1,19,0),
+OFFSET(O1,19,0)&lt;OFFSET(O1,20,0),OFFSET(O1,20,0)&lt;OFFSET(O1,21,0),
+OFFSET(O1,21,0)&lt;OFFSET(O1,22,0),OFFSET(O1,22,0)&lt;OFFSET(O1,23,0),
+OFFSET(O1,23,0)&lt;OFFSET(O1,24,0),OFFSET(O1,24,0)&lt;OFFSET(O1,25,0),
+OFFSET(O1,25,0)&lt;OFFSET(O1,26,0),OFFSET(O1,26,0)&lt;OFFSET(O1,27,0),
+OFFSET(O1,27,0)&lt;OFFSET(O1,28,0),OFFSET(O1,28,0)&lt;OFFSET(O1,29,0),
+OFFSET(O1,29,0)&lt;OFFSET(O1,30,0),OFFSET(O1,30,0)&lt;OFFSET(O1,31,0),
+OFFSET(O1,31,0)&lt;OFFSET(O1,32,0),OFFSET(O1,32,0)&lt;OFFSET(O1,33,0),
+OFFSET(O1,33,0)&lt;OFFSET(O1,34,0),OFFSET(O1,34,0)&lt;OFFSET(O1,35,0),
+OFFSET(O1,35,0)&lt;OFFSET(O1,36,0),OFFSET(O1,36,0)&lt;OFFSET(O1,37,0),
+OFFSET(O1,37,0)&lt;OFFSET(O1,38,0),OFFSET(O1,38,0)&lt;OFFSET(O1,39,0),
+OFFSET(O1,39,0)&lt;OFFSET(O1,40,0),OFFSET(O1,40,0)&lt;OFFSET(O1,41,0),
+OFFSET(O1,41,0)&lt;OFFSET(O1,42,0),OFFSET(O1,42,0)&lt;OFFSET(O1,43,0),
+OFFSET(O1,43,0)&lt;OFFSET(O1,44,0),OFFSET(O1,44,0)&lt;OFFSET(O1,45,0),
+OFFSET(O1,45,0)&lt;OFFSET(O1,46,0),OFFSET(O1,46,0)&lt;OFFSET(O1,47,0),
+OFFSET(O1,47,0)&lt;OFFSET(O1,48,0),OFFSET(O1,48,0)&lt;OFFSET(O1,49,0),
+OFFSET(O1,49,0)&lt;OFFSET(O1,50,0)),"내림차순 정렬할 것","len")</f>
         <v>len</v>
       </c>
     </row>
@@ -2999,9 +3091,9 @@
     <sortCondition ref="N2:N5"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B5" xr:uid="{00000000-0002-0000-0200-000000000000}">
-      <formula1>$K$2:$K$6</formula1>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B5" xr:uid="{287F595D-69A7-4D67-AEBB-30F19973E109}">
+      <formula1>OFFSET(INDIRECT("$A$1"),1,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1,COUNTA(OFFSET(INDIRECT("$A:$A"),0,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1))-1,1)</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3012,364 +3104,374 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.25" customWidth="1"/>
-    <col min="3" max="3" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.25" customWidth="1"/>
-    <col min="7" max="7" width="20.75" customWidth="1"/>
-    <col min="8" max="8" width="30.75" customWidth="1"/>
-    <col min="9" max="9" width="22.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.375" customWidth="1"/>
-    <col min="12" max="13" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.25" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.25" style="2" customWidth="1"/>
+    <col min="7" max="7" width="20.75" style="2" customWidth="1"/>
+    <col min="8" max="8" width="22.875" style="2" customWidth="1"/>
+    <col min="9" max="10" width="22.875" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="22.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.375" style="2" customWidth="1"/>
+    <col min="14" max="15" width="22.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="G1" t="s">
-        <v>131</v>
-      </c>
-      <c r="H1" t="s">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="2">
+        <v>5</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="I1" t="s">
-        <v>102</v>
-      </c>
-      <c r="J1" t="s">
-        <v>103</v>
-      </c>
-      <c r="K1" t="s">
-        <v>121</v>
-      </c>
-      <c r="L1" t="s">
-        <v>147</v>
-      </c>
-      <c r="M1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>132</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="I2" t="b">
+      <c r="I2" s="2" t="str">
+        <f>IFERROR(IF(ISBLANK(G2),"",VLOOKUP(G2,[2]StringTable!$A:$B,2,0)),"스트링없음")</f>
+        <v>하트가 폭발한다</v>
+      </c>
+      <c r="J2" s="2" t="str">
+        <f>IFERROR(IF(ISBLANK(H2),"",VLOOKUP(H2,[2]StringTable!$A:$B,2,0)),"스트링없음")</f>
+        <v>대미지를 &lt;color=#FFFF00&gt;{0}%,{1}%,{2}%,{3}%&lt;/color&gt; 먹이고 적이 죽이면 하트를 반드시 떨어뜨린다
+적이 죽지 않으면 기절을 먹인다</v>
+      </c>
+      <c r="K2" s="2" t="b">
         <f>IF(ISERROR(MATCH($A2,SkillLevelTable!$A:$A,0)),FALSE,
 IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A2,SkillLevelTable!$A:$A,0),MATCH($E$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
         <v>1</v>
       </c>
-      <c r="J2" t="b">
+      <c r="L2" s="2" t="b">
         <f>IF(ISERROR(MATCH($A2,SkillLevelTable!$A:$A,0)),FALSE,
 IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A2,SkillLevelTable!$A:$A,0),MATCH(ActionTable!$H$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
         <v>1</v>
       </c>
-      <c r="K2" t="b">
+      <c r="M2" s="2" t="b">
         <f>IF(ISERROR(MATCH($A2,SkillLevelTable!$A:$A,0)),FALSE,
 IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A2,SkillLevelTable!$A:$A,0),MATCH($F$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
         <v>0</v>
       </c>
-      <c r="L2" t="b">
+      <c r="N2" s="2" t="b">
         <f>IF(ISERROR(MATCH($A2,SkillLevelTable!$A:$A,0)),FALSE,
 IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A2,SkillLevelTable!$A:$A,0),MATCH($G$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
-        <v>1</v>
-      </c>
-      <c r="M2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O2" s="2" t="b">
         <f>IF(ISERROR(MATCH($A2,SkillLevelTable!$A:$A,0)),FALSE,
-IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A2,SkillLevelTable!$A:$A,0),MATCH($G$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A2,SkillLevelTable!$A:$A,0),MATCH($H$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="2">
         <v>5</v>
       </c>
-      <c r="H3" s="1"/>
-      <c r="I3" t="b">
+      <c r="I3" s="2" t="str">
+        <f>IFERROR(IF(ISBLANK(G3),"",VLOOKUP(G3,[2]StringTable!$A:$B,2,0)),"스트링없음")</f>
+        <v/>
+      </c>
+      <c r="J3" s="2" t="str">
+        <f>IFERROR(IF(ISBLANK(H3),"",VLOOKUP(H3,[2]StringTable!$A:$B,2,0)),"스트링없음")</f>
+        <v/>
+      </c>
+      <c r="K3" s="2" t="b">
         <f>IF(ISERROR(MATCH($A3,SkillLevelTable!$A:$A,0)),FALSE,
 IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A3,SkillLevelTable!$A:$A,0),MATCH($E$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
         <v>0</v>
       </c>
-      <c r="J3" t="b">
+      <c r="L3" s="2" t="b">
         <f>IF(ISERROR(MATCH($A3,SkillLevelTable!$A:$A,0)),FALSE,
 IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A3,SkillLevelTable!$A:$A,0),MATCH(ActionTable!$H$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
         <v>0</v>
       </c>
-      <c r="K3" t="b">
+      <c r="M3" s="2" t="b">
         <f>IF(ISERROR(MATCH($A3,SkillLevelTable!$A:$A,0)),FALSE,
 IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A3,SkillLevelTable!$A:$A,0),MATCH($F$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
         <v>0</v>
       </c>
-      <c r="L3" t="b">
+      <c r="N3" s="2" t="b">
         <f>IF(ISERROR(MATCH($A3,SkillLevelTable!$A:$A,0)),FALSE,
 IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A3,SkillLevelTable!$A:$A,0),MATCH($G$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
         <v>0</v>
       </c>
-      <c r="M3" t="b">
+      <c r="O3" s="2" t="b">
         <f>IF(ISERROR(MATCH($A3,SkillLevelTable!$A:$A,0)),FALSE,
-IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A3,SkillLevelTable!$A:$A,0),MATCH($G$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A3,SkillLevelTable!$A:$A,0),MATCH($H$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C4" t="b">
+      <c r="C4" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="I4" t="b">
+      <c r="F4"/>
+      <c r="I4" s="2" t="str">
+        <f>IFERROR(IF(ISBLANK(G4),"",VLOOKUP(G4,[2]StringTable!$A:$B,2,0)),"스트링없음")</f>
+        <v/>
+      </c>
+      <c r="J4" s="2" t="str">
+        <f>IFERROR(IF(ISBLANK(H4),"",VLOOKUP(H4,[2]StringTable!$A:$B,2,0)),"스트링없음")</f>
+        <v/>
+      </c>
+      <c r="K4" s="2" t="b">
         <f>IF(ISERROR(MATCH($A4,SkillLevelTable!$A:$A,0)),FALSE,
 IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A4,SkillLevelTable!$A:$A,0),MATCH($E$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
         <v>0</v>
       </c>
-      <c r="J4" t="b">
+      <c r="L4" s="2" t="b">
         <f>IF(ISERROR(MATCH($A4,SkillLevelTable!$A:$A,0)),FALSE,
 IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A4,SkillLevelTable!$A:$A,0),MATCH(ActionTable!$H$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
         <v>0</v>
       </c>
-      <c r="K4" t="b">
+      <c r="M4" s="2" t="b">
         <f>IF(ISERROR(MATCH($A4,SkillLevelTable!$A:$A,0)),FALSE,
 IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A4,SkillLevelTable!$A:$A,0),MATCH($F$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
         <v>1</v>
       </c>
-      <c r="L4" t="b">
+      <c r="N4" s="2" t="b">
         <f>IF(ISERROR(MATCH($A4,SkillLevelTable!$A:$A,0)),FALSE,
 IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A4,SkillLevelTable!$A:$A,0),MATCH($G$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
         <v>0</v>
       </c>
-      <c r="M4" t="b">
+      <c r="O4" s="2" t="b">
         <f>IF(ISERROR(MATCH($A4,SkillLevelTable!$A:$A,0)),FALSE,
-IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A4,SkillLevelTable!$A:$A,0),MATCH($G$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A4,SkillLevelTable!$A:$A,0),MATCH($H$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>5</v>
       </c>
-      <c r="I5" t="b">
+      <c r="I5" s="2" t="str">
+        <f>IFERROR(IF(ISBLANK(G5),"",VLOOKUP(G5,[2]StringTable!$A:$B,2,0)),"스트링없음")</f>
+        <v/>
+      </c>
+      <c r="J5" s="2" t="str">
+        <f>IFERROR(IF(ISBLANK(H5),"",VLOOKUP(H5,[2]StringTable!$A:$B,2,0)),"스트링없음")</f>
+        <v/>
+      </c>
+      <c r="K5" s="2" t="b">
         <f>IF(ISERROR(MATCH($A5,SkillLevelTable!$A:$A,0)),FALSE,
 IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A5,SkillLevelTable!$A:$A,0),MATCH($E$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
         <v>0</v>
       </c>
-      <c r="J5" t="b">
+      <c r="L5" s="2" t="b">
         <f>IF(ISERROR(MATCH($A5,SkillLevelTable!$A:$A,0)),FALSE,
 IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A5,SkillLevelTable!$A:$A,0),MATCH(ActionTable!$H$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
         <v>0</v>
       </c>
-      <c r="K5" t="b">
+      <c r="M5" s="2" t="b">
         <f>IF(ISERROR(MATCH($A5,SkillLevelTable!$A:$A,0)),FALSE,
 IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A5,SkillLevelTable!$A:$A,0),MATCH($F$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
         <v>0</v>
       </c>
-      <c r="L5" t="b">
+      <c r="N5" s="2" t="b">
         <f>IF(ISERROR(MATCH($A5,SkillLevelTable!$A:$A,0)),FALSE,
 IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A5,SkillLevelTable!$A:$A,0),MATCH($G$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
         <v>0</v>
       </c>
-      <c r="M5" t="b">
+      <c r="O5" s="2" t="b">
         <f>IF(ISERROR(MATCH($A5,SkillLevelTable!$A:$A,0)),FALSE,
-IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A5,SkillLevelTable!$A:$A,0),MATCH($G$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A5,SkillLevelTable!$A:$A,0),MATCH($H$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="C6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <v>5</v>
       </c>
-      <c r="I6" t="b">
+      <c r="I6" s="2" t="str">
+        <f>IFERROR(IF(ISBLANK(G6),"",VLOOKUP(G6,[2]StringTable!$A:$B,2,0)),"스트링없음")</f>
+        <v/>
+      </c>
+      <c r="J6" s="2" t="str">
+        <f>IFERROR(IF(ISBLANK(H6),"",VLOOKUP(H6,[2]StringTable!$A:$B,2,0)),"스트링없음")</f>
+        <v/>
+      </c>
+      <c r="K6" s="2" t="b">
         <f>IF(ISERROR(MATCH($A6,SkillLevelTable!$A:$A,0)),FALSE,
 IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A6,SkillLevelTable!$A:$A,0),MATCH($E$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
         <v>0</v>
       </c>
-      <c r="J6" t="b">
+      <c r="L6" s="2" t="b">
         <f>IF(ISERROR(MATCH($A6,SkillLevelTable!$A:$A,0)),FALSE,
 IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A6,SkillLevelTable!$A:$A,0),MATCH(ActionTable!$H$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
         <v>0</v>
       </c>
-      <c r="K6" t="b">
+      <c r="M6" s="2" t="b">
         <f>IF(ISERROR(MATCH($A6,SkillLevelTable!$A:$A,0)),FALSE,
 IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A6,SkillLevelTable!$A:$A,0),MATCH($F$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
         <v>0</v>
       </c>
-      <c r="L6" t="b">
+      <c r="N6" s="2" t="b">
         <f>IF(ISERROR(MATCH($A6,SkillLevelTable!$A:$A,0)),FALSE,
 IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A6,SkillLevelTable!$A:$A,0),MATCH($G$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
         <v>0</v>
       </c>
-      <c r="M6" t="b">
+      <c r="O6" s="2" t="b">
         <f>IF(ISERROR(MATCH($A6,SkillLevelTable!$A:$A,0)),FALSE,
-IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A6,SkillLevelTable!$A:$A,0),MATCH($G$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A6,SkillLevelTable!$A:$A,0),MATCH($H$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C7" t="b">
+      <c r="C7" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="I7" t="b">
+      <c r="I7" s="2" t="str">
+        <f>IFERROR(IF(ISBLANK(G7),"",VLOOKUP(G7,[2]StringTable!$A:$B,2,0)),"스트링없음")</f>
+        <v/>
+      </c>
+      <c r="J7" s="2" t="str">
+        <f>IFERROR(IF(ISBLANK(H7),"",VLOOKUP(H7,[2]StringTable!$A:$B,2,0)),"스트링없음")</f>
+        <v/>
+      </c>
+      <c r="K7" s="2" t="b">
         <f>IF(ISERROR(MATCH($A7,SkillLevelTable!$A:$A,0)),FALSE,
 IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A7,SkillLevelTable!$A:$A,0),MATCH($E$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
         <v>0</v>
       </c>
-      <c r="J7" t="b">
+      <c r="L7" s="2" t="b">
         <f>IF(ISERROR(MATCH($A7,SkillLevelTable!$A:$A,0)),FALSE,
 IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A7,SkillLevelTable!$A:$A,0),MATCH(ActionTable!$H$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
         <v>0</v>
       </c>
-      <c r="K7" t="b">
+      <c r="M7" s="2" t="b">
         <f>IF(ISERROR(MATCH($A7,SkillLevelTable!$A:$A,0)),FALSE,
 IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A7,SkillLevelTable!$A:$A,0),MATCH($F$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
         <v>0</v>
       </c>
-      <c r="L7" t="b">
+      <c r="N7" s="2" t="b">
         <f>IF(ISERROR(MATCH($A7,SkillLevelTable!$A:$A,0)),FALSE,
 IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A7,SkillLevelTable!$A:$A,0),MATCH($G$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
         <v>0</v>
       </c>
-      <c r="M7" t="b">
+      <c r="O7" s="2" t="b">
         <f>IF(ISERROR(MATCH($A7,SkillLevelTable!$A:$A,0)),FALSE,
-IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A7,SkillLevelTable!$A:$A,0),MATCH($G$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>138</v>
-      </c>
-      <c r="B8" t="s">
-        <v>137</v>
-      </c>
-      <c r="C8" t="b">
-        <v>1</v>
-      </c>
-      <c r="F8" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>140</v>
-      </c>
-      <c r="C9" t="b">
-        <v>1</v>
-      </c>
-      <c r="F9" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>141</v>
-      </c>
-      <c r="C10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F10" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>142</v>
-      </c>
-      <c r="C11" t="b">
-        <v>1</v>
-      </c>
-      <c r="F11" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>145</v>
+IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A7,SkillLevelTable!$A:$A,0),MATCH($H$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3382,10 +3484,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:AG16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -3394,17 +3496,29 @@
     <col min="2" max="2" width="5.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.75" customWidth="1"/>
-    <col min="7" max="7" width="30.75" customWidth="1"/>
-    <col min="8" max="8" width="19" customWidth="1"/>
-    <col min="9" max="10" width="12.875" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="10.625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="10.625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="14" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27" customWidth="1"/>
+    <col min="6" max="6" width="18.25" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="17.375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="30.75" customWidth="1"/>
+    <col min="9" max="9" width="16.125" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="22.375" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="19" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="17.25" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="12.875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="15" width="10.625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="18" width="11.375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="19" width="17.25" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="20" max="20" width="12.875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="22" width="10.625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="23" max="25" width="11.375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="26" max="26" width="17.25" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="27" max="27" width="12.875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="28" max="29" width="10.625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="30" max="32" width="11.375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="33" max="33" width="9" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>104</v>
       </c>
@@ -3418,25 +3532,91 @@
         <v>106</v>
       </c>
       <c r="E1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F1" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="G1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="K1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L1" t="s">
         <v>135</v>
       </c>
-      <c r="I1" t="s">
-        <v>125</v>
-      </c>
-      <c r="K1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M1" t="s">
+        <v>137</v>
+      </c>
+      <c r="N1" t="s">
+        <v>138</v>
+      </c>
+      <c r="O1" t="s">
+        <v>139</v>
+      </c>
+      <c r="P1" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>141</v>
+      </c>
+      <c r="R1" t="s">
+        <v>142</v>
+      </c>
+      <c r="S1" t="s">
+        <v>143</v>
+      </c>
+      <c r="T1" t="s">
+        <v>137</v>
+      </c>
+      <c r="U1" t="s">
+        <v>138</v>
+      </c>
+      <c r="V1" t="s">
+        <v>139</v>
+      </c>
+      <c r="W1" t="s">
+        <v>140</v>
+      </c>
+      <c r="X1" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>142</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -3449,28 +3629,63 @@
       <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
-        <v>132</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="F2" s="1" t="str">
+        <f>IF(ISBLANK(VLOOKUP($A2,SkillTable!$1:$1048576,MATCH(SkillTable!$F$1,SkillTable!$1:$1,0),0)),"",VLOOKUP($A2,SkillTable!$1:$1048576,MATCH(SkillTable!$F$1,SkillTable!$1:$1,0),0))</f>
+        <v/>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="2" t="str">
+        <f>IFERROR(IF(ISBLANK(G2),"",VLOOKUP(G2,[2]StringTable!$A:$B,2,0)),"스트링없음")</f>
+        <v/>
+      </c>
+      <c r="J2" s="2" t="str">
+        <f>IFERROR(IF(ISBLANK(H2),"",VLOOKUP(H2,[2]StringTable!$A:$B,2,0)),"스트링없음")</f>
+        <v/>
+      </c>
+      <c r="K2" t="s">
         <v>124</v>
       </c>
-      <c r="I2" t="s">
-        <v>126</v>
-      </c>
-      <c r="J2" t="str">
-        <f>I2&amp;TEXT(B2,"00")</f>
-        <v>AffectorValue00101</v>
-      </c>
-      <c r="K2" t="e">
-        <f>VLOOKUP(J2,[1]AffectorValueLevelTable!$1:$1048576,6,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L2" t="s">
+        <v>136</v>
+      </c>
+      <c r="M2">
+        <f>IFERROR(IF(ISBLANK($L2),"",VLOOKUP($L2&amp;TEXT($B2,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(M$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <f>IFERROR(IF(ISBLANK($L2),"",VLOOKUP($L2&amp;TEXT($B2,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(N$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v>1</v>
+      </c>
+      <c r="O2" t="str">
+        <f>IFERROR(IF(ISBLANK($L2),"",VLOOKUP($L2&amp;TEXT($B2,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(O$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v>0.4,0.5,0.6</v>
+      </c>
+      <c r="T2" t="str">
+        <f>IFERROR(IF(ISBLANK($S2),"",VLOOKUP($S2&amp;TEXT($B2,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(T$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+      <c r="U2" t="str">
+        <f>IFERROR(IF(ISBLANK($S2),"",VLOOKUP($S2&amp;TEXT($B2,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(U$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+      <c r="V2" t="str">
+        <f>IFERROR(IF(ISBLANK($S2),"",VLOOKUP($S2&amp;TEXT($B2,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(V$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+      <c r="AA2" t="str">
+        <f>IFERROR(IF(ISBLANK($Z2),"",VLOOKUP($Z2&amp;TEXT($B2,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AA$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+      <c r="AB2" t="str">
+        <f>IFERROR(IF(ISBLANK($Z2),"",VLOOKUP($Z2&amp;TEXT($B2,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AB$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+      <c r="AC2" t="str">
+        <f>IFERROR(IF(ISBLANK($Z2),"",VLOOKUP($Z2&amp;TEXT($B2,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AC$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -3483,9 +3698,52 @@
       <c r="D3" t="s">
         <v>45</v>
       </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F3" s="1" t="str">
+        <f>IF(ISBLANK(VLOOKUP($A3,SkillTable!$1:$1048576,MATCH(SkillTable!$F$1,SkillTable!$1:$1,0),0)),"",VLOOKUP($A3,SkillTable!$1:$1048576,MATCH(SkillTable!$F$1,SkillTable!$1:$1,0),0))</f>
+        <v/>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="K3" t="s">
+        <v>124</v>
+      </c>
+      <c r="M3" t="str">
+        <f>IFERROR(IF(ISBLANK($L3),"",VLOOKUP($L3&amp;TEXT($B3,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(M$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+      <c r="N3" t="str">
+        <f>IFERROR(IF(ISBLANK($L3),"",VLOOKUP($L3&amp;TEXT($B3,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(N$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+      <c r="O3" t="str">
+        <f>IFERROR(IF(ISBLANK($L3),"",VLOOKUP($L3&amp;TEXT($B3,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(O$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+      <c r="T3" t="str">
+        <f>IFERROR(IF(ISBLANK($S3),"",VLOOKUP($S3&amp;TEXT($B3,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(T$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+      <c r="U3" t="str">
+        <f>IFERROR(IF(ISBLANK($S3),"",VLOOKUP($S3&amp;TEXT($B3,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(U$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+      <c r="V3" t="str">
+        <f>IFERROR(IF(ISBLANK($S3),"",VLOOKUP($S3&amp;TEXT($B3,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(V$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+      <c r="AA3" t="str">
+        <f>IFERROR(IF(ISBLANK($Z3),"",VLOOKUP($Z3&amp;TEXT($B3,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AA$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+      <c r="AB3" t="str">
+        <f>IFERROR(IF(ISBLANK($Z3),"",VLOOKUP($Z3&amp;TEXT($B3,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AB$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+      <c r="AC3" t="str">
+        <f>IFERROR(IF(ISBLANK($Z3),"",VLOOKUP($Z3&amp;TEXT($B3,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AC$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -3498,8 +3756,52 @@
       <c r="D4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F4" s="1" t="str">
+        <f>IF(ISBLANK(VLOOKUP($A4,SkillTable!$1:$1048576,MATCH(SkillTable!$F$1,SkillTable!$1:$1,0),0)),"",VLOOKUP($A4,SkillTable!$1:$1048576,MATCH(SkillTable!$F$1,SkillTable!$1:$1,0),0))</f>
+        <v/>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="K4" t="s">
+        <v>124</v>
+      </c>
+      <c r="M4" t="str">
+        <f>IFERROR(IF(ISBLANK($L4),"",VLOOKUP($L4&amp;TEXT($B4,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(M$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+      <c r="N4" t="str">
+        <f>IFERROR(IF(ISBLANK($L4),"",VLOOKUP($L4&amp;TEXT($B4,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(N$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+      <c r="O4" t="str">
+        <f>IFERROR(IF(ISBLANK($L4),"",VLOOKUP($L4&amp;TEXT($B4,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(O$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+      <c r="T4" t="str">
+        <f>IFERROR(IF(ISBLANK($S4),"",VLOOKUP($S4&amp;TEXT($B4,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(T$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+      <c r="U4" t="str">
+        <f>IFERROR(IF(ISBLANK($S4),"",VLOOKUP($S4&amp;TEXT($B4,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(U$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+      <c r="V4" t="str">
+        <f>IFERROR(IF(ISBLANK($S4),"",VLOOKUP($S4&amp;TEXT($B4,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(V$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+      <c r="AA4" t="str">
+        <f>IFERROR(IF(ISBLANK($Z4),"",VLOOKUP($Z4&amp;TEXT($B4,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AA$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+      <c r="AB4" t="str">
+        <f>IFERROR(IF(ISBLANK($Z4),"",VLOOKUP($Z4&amp;TEXT($B4,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AB$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+      <c r="AC4" t="str">
+        <f>IFERROR(IF(ISBLANK($Z4),"",VLOOKUP($Z4&amp;TEXT($B4,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AC$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -3512,8 +3814,52 @@
       <c r="D5" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F5" s="1" t="str">
+        <f>IF(ISBLANK(VLOOKUP($A5,SkillTable!$1:$1048576,MATCH(SkillTable!$F$1,SkillTable!$1:$1,0),0)),"",VLOOKUP($A5,SkillTable!$1:$1048576,MATCH(SkillTable!$F$1,SkillTable!$1:$1,0),0))</f>
+        <v/>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="K5" t="s">
+        <v>124</v>
+      </c>
+      <c r="M5" t="str">
+        <f>IFERROR(IF(ISBLANK($L5),"",VLOOKUP($L5&amp;TEXT($B5,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(M$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+      <c r="N5" t="str">
+        <f>IFERROR(IF(ISBLANK($L5),"",VLOOKUP($L5&amp;TEXT($B5,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(N$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+      <c r="O5" t="str">
+        <f>IFERROR(IF(ISBLANK($L5),"",VLOOKUP($L5&amp;TEXT($B5,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(O$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+      <c r="T5" t="str">
+        <f>IFERROR(IF(ISBLANK($S5),"",VLOOKUP($S5&amp;TEXT($B5,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(T$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+      <c r="U5" t="str">
+        <f>IFERROR(IF(ISBLANK($S5),"",VLOOKUP($S5&amp;TEXT($B5,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(U$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+      <c r="V5" t="str">
+        <f>IFERROR(IF(ISBLANK($S5),"",VLOOKUP($S5&amp;TEXT($B5,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(V$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+      <c r="AA5" t="str">
+        <f>IFERROR(IF(ISBLANK($Z5),"",VLOOKUP($Z5&amp;TEXT($B5,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AA$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+      <c r="AB5" t="str">
+        <f>IFERROR(IF(ISBLANK($Z5),"",VLOOKUP($Z5&amp;TEXT($B5,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AB$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+      <c r="AC5" t="str">
+        <f>IFERROR(IF(ISBLANK($Z5),"",VLOOKUP($Z5&amp;TEXT($B5,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AC$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -3526,48 +3872,292 @@
       <c r="D6" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F6" s="1" t="str">
+        <f>IF(ISBLANK(VLOOKUP($A6,SkillTable!$1:$1048576,MATCH(SkillTable!$F$1,SkillTable!$1:$1,0),0)),"",VLOOKUP($A6,SkillTable!$1:$1048576,MATCH(SkillTable!$F$1,SkillTable!$1:$1,0),0))</f>
+        <v/>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="K6" t="s">
+        <v>124</v>
+      </c>
+      <c r="M6" t="str">
+        <f>IFERROR(IF(ISBLANK($L6),"",VLOOKUP($L6&amp;TEXT($B6,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(M$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+      <c r="N6" t="str">
+        <f>IFERROR(IF(ISBLANK($L6),"",VLOOKUP($L6&amp;TEXT($B6,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(N$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+      <c r="O6" t="str">
+        <f>IFERROR(IF(ISBLANK($L6),"",VLOOKUP($L6&amp;TEXT($B6,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(O$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+      <c r="T6" t="str">
+        <f>IFERROR(IF(ISBLANK($S6),"",VLOOKUP($S6&amp;TEXT($B6,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(T$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+      <c r="U6" t="str">
+        <f>IFERROR(IF(ISBLANK($S6),"",VLOOKUP($S6&amp;TEXT($B6,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(U$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+      <c r="V6" t="str">
+        <f>IFERROR(IF(ISBLANK($S6),"",VLOOKUP($S6&amp;TEXT($B6,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(V$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+      <c r="AA6" t="str">
+        <f>IFERROR(IF(ISBLANK($Z6),"",VLOOKUP($Z6&amp;TEXT($B6,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AA$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+      <c r="AB6" t="str">
+        <f>IFERROR(IF(ISBLANK($Z6),"",VLOOKUP($Z6&amp;TEXT($B6,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AB$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+      <c r="AC6" t="str">
+        <f>IFERROR(IF(ISBLANK($Z6),"",VLOOKUP($Z6&amp;TEXT($B6,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AC$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F7" s="1" t="str">
+        <f>IF(ISBLANK(VLOOKUP($A7,SkillTable!$1:$1048576,MATCH(SkillTable!$F$1,SkillTable!$1:$1,0),0)),"",VLOOKUP($A7,SkillTable!$1:$1048576,MATCH(SkillTable!$F$1,SkillTable!$1:$1,0),0))</f>
+        <v/>
+      </c>
+      <c r="M7" t="str">
+        <f>IFERROR(IF(ISBLANK($L7),"",VLOOKUP($L7&amp;TEXT($B7,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(M$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+      <c r="N7" t="str">
+        <f>IFERROR(IF(ISBLANK($L7),"",VLOOKUP($L7&amp;TEXT($B7,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(N$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+      <c r="O7" t="str">
+        <f>IFERROR(IF(ISBLANK($L7),"",VLOOKUP($L7&amp;TEXT($B7,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(O$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+      <c r="T7" t="str">
+        <f>IFERROR(IF(ISBLANK($S7),"",VLOOKUP($S7&amp;TEXT($B7,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(T$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+      <c r="U7" t="str">
+        <f>IFERROR(IF(ISBLANK($S7),"",VLOOKUP($S7&amp;TEXT($B7,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(U$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+      <c r="V7" t="str">
+        <f>IFERROR(IF(ISBLANK($S7),"",VLOOKUP($S7&amp;TEXT($B7,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(V$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+      <c r="AA7" t="str">
+        <f>IFERROR(IF(ISBLANK($Z7),"",VLOOKUP($Z7&amp;TEXT($B7,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AA$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+      <c r="AB7" t="str">
+        <f>IFERROR(IF(ISBLANK($Z7),"",VLOOKUP($Z7&amp;TEXT($B7,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AB$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+      <c r="AC7" t="str">
+        <f>IFERROR(IF(ISBLANK($Z7),"",VLOOKUP($Z7&amp;TEXT($B7,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AC$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F8" s="1" t="str">
+        <f>IF(ISBLANK(VLOOKUP($A8,SkillTable!$1:$1048576,MATCH(SkillTable!$F$1,SkillTable!$1:$1,0),0)),"",VLOOKUP($A8,SkillTable!$1:$1048576,MATCH(SkillTable!$F$1,SkillTable!$1:$1,0),0))</f>
+        <v/>
+      </c>
+      <c r="M8" t="str">
+        <f>IFERROR(IF(ISBLANK($L8),"",VLOOKUP($L8&amp;TEXT($B8,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(M$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+      <c r="N8" t="str">
+        <f>IFERROR(IF(ISBLANK($L8),"",VLOOKUP($L8&amp;TEXT($B8,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(N$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+      <c r="O8" t="str">
+        <f>IFERROR(IF(ISBLANK($L8),"",VLOOKUP($L8&amp;TEXT($B8,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(O$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+      <c r="T8" t="str">
+        <f>IFERROR(IF(ISBLANK($S8),"",VLOOKUP($S8&amp;TEXT($B8,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(T$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+      <c r="U8" t="str">
+        <f>IFERROR(IF(ISBLANK($S8),"",VLOOKUP($S8&amp;TEXT($B8,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(U$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+      <c r="V8" t="str">
+        <f>IFERROR(IF(ISBLANK($S8),"",VLOOKUP($S8&amp;TEXT($B8,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(V$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+      <c r="AA8" t="str">
+        <f>IFERROR(IF(ISBLANK($Z8),"",VLOOKUP($Z8&amp;TEXT($B8,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AA$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+      <c r="AB8" t="str">
+        <f>IFERROR(IF(ISBLANK($Z8),"",VLOOKUP($Z8&amp;TEXT($B8,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AB$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+      <c r="AC8" t="str">
+        <f>IFERROR(IF(ISBLANK($Z8),"",VLOOKUP($Z8&amp;TEXT($B8,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AC$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
       <c r="B9">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F9" s="1" t="str">
+        <f>IF(ISBLANK(VLOOKUP($A9,SkillTable!$1:$1048576,MATCH(SkillTable!$F$1,SkillTable!$1:$1,0),0)),"",VLOOKUP($A9,SkillTable!$1:$1048576,MATCH(SkillTable!$F$1,SkillTable!$1:$1,0),0))</f>
+        <v/>
+      </c>
+      <c r="M9" t="str">
+        <f>IFERROR(IF(ISBLANK($L9),"",VLOOKUP($L9&amp;TEXT($B9,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(M$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+      <c r="N9" t="str">
+        <f>IFERROR(IF(ISBLANK($L9),"",VLOOKUP($L9&amp;TEXT($B9,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(N$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+      <c r="O9" t="str">
+        <f>IFERROR(IF(ISBLANK($L9),"",VLOOKUP($L9&amp;TEXT($B9,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(O$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+      <c r="T9" t="str">
+        <f>IFERROR(IF(ISBLANK($S9),"",VLOOKUP($S9&amp;TEXT($B9,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(T$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+      <c r="U9" t="str">
+        <f>IFERROR(IF(ISBLANK($S9),"",VLOOKUP($S9&amp;TEXT($B9,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(U$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+      <c r="V9" t="str">
+        <f>IFERROR(IF(ISBLANK($S9),"",VLOOKUP($S9&amp;TEXT($B9,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(V$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+      <c r="AA9" t="str">
+        <f>IFERROR(IF(ISBLANK($Z9),"",VLOOKUP($Z9&amp;TEXT($B9,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AA$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+      <c r="AB9" t="str">
+        <f>IFERROR(IF(ISBLANK($Z9),"",VLOOKUP($Z9&amp;TEXT($B9,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AB$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+      <c r="AC9" t="str">
+        <f>IFERROR(IF(ISBLANK($Z9),"",VLOOKUP($Z9&amp;TEXT($B9,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AC$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
       <c r="B10">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F10" s="1" t="str">
+        <f>IF(ISBLANK(VLOOKUP($A10,SkillTable!$1:$1048576,MATCH(SkillTable!$F$1,SkillTable!$1:$1,0),0)),"",VLOOKUP($A10,SkillTable!$1:$1048576,MATCH(SkillTable!$F$1,SkillTable!$1:$1,0),0))</f>
+        <v/>
+      </c>
+      <c r="M10" t="str">
+        <f>IFERROR(IF(ISBLANK($L10),"",VLOOKUP($L10&amp;TEXT($B10,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(M$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+      <c r="N10" t="str">
+        <f>IFERROR(IF(ISBLANK($L10),"",VLOOKUP($L10&amp;TEXT($B10,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(N$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+      <c r="O10" t="str">
+        <f>IFERROR(IF(ISBLANK($L10),"",VLOOKUP($L10&amp;TEXT($B10,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(O$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+      <c r="T10" t="str">
+        <f>IFERROR(IF(ISBLANK($S10),"",VLOOKUP($S10&amp;TEXT($B10,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(T$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+      <c r="U10" t="str">
+        <f>IFERROR(IF(ISBLANK($S10),"",VLOOKUP($S10&amp;TEXT($B10,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(U$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+      <c r="V10" t="str">
+        <f>IFERROR(IF(ISBLANK($S10),"",VLOOKUP($S10&amp;TEXT($B10,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(V$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+      <c r="AA10" t="str">
+        <f>IFERROR(IF(ISBLANK($Z10),"",VLOOKUP($Z10&amp;TEXT($B10,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AA$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+      <c r="AB10" t="str">
+        <f>IFERROR(IF(ISBLANK($Z10),"",VLOOKUP($Z10&amp;TEXT($B10,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AB$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+      <c r="AC10" t="str">
+        <f>IFERROR(IF(ISBLANK($Z10),"",VLOOKUP($Z10&amp;TEXT($B10,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AC$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
       <c r="B11">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F11" s="1" t="str">
+        <f>IF(ISBLANK(VLOOKUP($A11,SkillTable!$1:$1048576,MATCH(SkillTable!$F$1,SkillTable!$1:$1,0),0)),"",VLOOKUP($A11,SkillTable!$1:$1048576,MATCH(SkillTable!$F$1,SkillTable!$1:$1,0),0))</f>
+        <v/>
+      </c>
+      <c r="M11" t="str">
+        <f>IFERROR(IF(ISBLANK($L11),"",VLOOKUP($L11&amp;TEXT($B11,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(M$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+      <c r="N11" t="str">
+        <f>IFERROR(IF(ISBLANK($L11),"",VLOOKUP($L11&amp;TEXT($B11,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(N$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+      <c r="O11" t="str">
+        <f>IFERROR(IF(ISBLANK($L11),"",VLOOKUP($L11&amp;TEXT($B11,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(O$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+      <c r="T11" t="str">
+        <f>IFERROR(IF(ISBLANK($S11),"",VLOOKUP($S11&amp;TEXT($B11,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(T$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+      <c r="U11" t="str">
+        <f>IFERROR(IF(ISBLANK($S11),"",VLOOKUP($S11&amp;TEXT($B11,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(U$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+      <c r="V11" t="str">
+        <f>IFERROR(IF(ISBLANK($S11),"",VLOOKUP($S11&amp;TEXT($B11,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(V$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+      <c r="AA11" t="str">
+        <f>IFERROR(IF(ISBLANK($Z11),"",VLOOKUP($Z11&amp;TEXT($B11,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AA$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+      <c r="AB11" t="str">
+        <f>IFERROR(IF(ISBLANK($Z11),"",VLOOKUP($Z11&amp;TEXT($B11,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AB$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+      <c r="AC11" t="str">
+        <f>IFERROR(IF(ISBLANK($Z11),"",VLOOKUP($Z11&amp;TEXT($B11,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AC$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>41</v>
       </c>
@@ -3577,8 +4167,52 @@
       <c r="E12" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F12" s="1" t="str">
+        <f>IF(ISBLANK(VLOOKUP($A12,SkillTable!$1:$1048576,MATCH(SkillTable!$F$1,SkillTable!$1:$1,0),0)),"",VLOOKUP($A12,SkillTable!$1:$1048576,MATCH(SkillTable!$F$1,SkillTable!$1:$1,0),0))</f>
+        <v/>
+      </c>
+      <c r="L12" t="str">
+        <f>E12</f>
+        <v>AtkUpBuff001</v>
+      </c>
+      <c r="M12" t="str">
+        <f>IFERROR(IF(ISBLANK($L12),"",VLOOKUP($L12&amp;TEXT($B12,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(M$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v>어펙터밸류 없음</v>
+      </c>
+      <c r="N12" t="str">
+        <f>IFERROR(IF(ISBLANK($L12),"",VLOOKUP($L12&amp;TEXT($B12,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(N$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v>어펙터밸류 없음</v>
+      </c>
+      <c r="O12" t="str">
+        <f>IFERROR(IF(ISBLANK($L12),"",VLOOKUP($L12&amp;TEXT($B12,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(O$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v>어펙터밸류 없음</v>
+      </c>
+      <c r="T12" t="str">
+        <f>IFERROR(IF(ISBLANK($S12),"",VLOOKUP($S12&amp;TEXT($B12,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(T$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+      <c r="U12" t="str">
+        <f>IFERROR(IF(ISBLANK($S12),"",VLOOKUP($S12&amp;TEXT($B12,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(U$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+      <c r="V12" t="str">
+        <f>IFERROR(IF(ISBLANK($S12),"",VLOOKUP($S12&amp;TEXT($B12,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(V$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+      <c r="AA12" t="str">
+        <f>IFERROR(IF(ISBLANK($Z12),"",VLOOKUP($Z12&amp;TEXT($B12,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AA$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+      <c r="AB12" t="str">
+        <f>IFERROR(IF(ISBLANK($Z12),"",VLOOKUP($Z12&amp;TEXT($B12,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AB$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+      <c r="AC12" t="str">
+        <f>IFERROR(IF(ISBLANK($Z12),"",VLOOKUP($Z12&amp;TEXT($B12,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AC$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -3588,8 +4222,48 @@
       <c r="E13" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F13" s="1" t="str">
+        <f>IF(ISBLANK(VLOOKUP($A13,SkillTable!$1:$1048576,MATCH(SkillTable!$F$1,SkillTable!$1:$1,0),0)),"",VLOOKUP($A13,SkillTable!$1:$1048576,MATCH(SkillTable!$F$1,SkillTable!$1:$1,0),0))</f>
+        <v/>
+      </c>
+      <c r="M13" t="str">
+        <f>IFERROR(IF(ISBLANK($L13),"",VLOOKUP($L13&amp;TEXT($B13,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(M$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+      <c r="N13" t="str">
+        <f>IFERROR(IF(ISBLANK($L13),"",VLOOKUP($L13&amp;TEXT($B13,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(N$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+      <c r="O13" t="str">
+        <f>IFERROR(IF(ISBLANK($L13),"",VLOOKUP($L13&amp;TEXT($B13,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(O$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+      <c r="T13" t="str">
+        <f>IFERROR(IF(ISBLANK($S13),"",VLOOKUP($S13&amp;TEXT($B13,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(T$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+      <c r="U13" t="str">
+        <f>IFERROR(IF(ISBLANK($S13),"",VLOOKUP($S13&amp;TEXT($B13,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(U$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+      <c r="V13" t="str">
+        <f>IFERROR(IF(ISBLANK($S13),"",VLOOKUP($S13&amp;TEXT($B13,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(V$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+      <c r="AA13" t="str">
+        <f>IFERROR(IF(ISBLANK($Z13),"",VLOOKUP($Z13&amp;TEXT($B13,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AA$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+      <c r="AB13" t="str">
+        <f>IFERROR(IF(ISBLANK($Z13),"",VLOOKUP($Z13&amp;TEXT($B13,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AB$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+      <c r="AC13" t="str">
+        <f>IFERROR(IF(ISBLANK($Z13),"",VLOOKUP($Z13&amp;TEXT($B13,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AC$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -3599,8 +4273,48 @@
       <c r="E14" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F14" s="1" t="str">
+        <f>IF(ISBLANK(VLOOKUP($A14,SkillTable!$1:$1048576,MATCH(SkillTable!$F$1,SkillTable!$1:$1,0),0)),"",VLOOKUP($A14,SkillTable!$1:$1048576,MATCH(SkillTable!$F$1,SkillTable!$1:$1,0),0))</f>
+        <v/>
+      </c>
+      <c r="M14" t="str">
+        <f>IFERROR(IF(ISBLANK($L14),"",VLOOKUP($L14&amp;TEXT($B14,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(M$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+      <c r="N14" t="str">
+        <f>IFERROR(IF(ISBLANK($L14),"",VLOOKUP($L14&amp;TEXT($B14,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(N$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+      <c r="O14" t="str">
+        <f>IFERROR(IF(ISBLANK($L14),"",VLOOKUP($L14&amp;TEXT($B14,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(O$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+      <c r="T14" t="str">
+        <f>IFERROR(IF(ISBLANK($S14),"",VLOOKUP($S14&amp;TEXT($B14,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(T$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+      <c r="U14" t="str">
+        <f>IFERROR(IF(ISBLANK($S14),"",VLOOKUP($S14&amp;TEXT($B14,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(U$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+      <c r="V14" t="str">
+        <f>IFERROR(IF(ISBLANK($S14),"",VLOOKUP($S14&amp;TEXT($B14,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(V$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+      <c r="AA14" t="str">
+        <f>IFERROR(IF(ISBLANK($Z14),"",VLOOKUP($Z14&amp;TEXT($B14,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AA$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+      <c r="AB14" t="str">
+        <f>IFERROR(IF(ISBLANK($Z14),"",VLOOKUP($Z14&amp;TEXT($B14,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AB$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+      <c r="AC14" t="str">
+        <f>IFERROR(IF(ISBLANK($Z14),"",VLOOKUP($Z14&amp;TEXT($B14,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AC$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -3610,8 +4324,48 @@
       <c r="E15" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F15" s="1" t="str">
+        <f>IF(ISBLANK(VLOOKUP($A15,SkillTable!$1:$1048576,MATCH(SkillTable!$F$1,SkillTable!$1:$1,0),0)),"",VLOOKUP($A15,SkillTable!$1:$1048576,MATCH(SkillTable!$F$1,SkillTable!$1:$1,0),0))</f>
+        <v/>
+      </c>
+      <c r="M15" t="str">
+        <f>IFERROR(IF(ISBLANK($L15),"",VLOOKUP($L15&amp;TEXT($B15,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(M$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+      <c r="N15" t="str">
+        <f>IFERROR(IF(ISBLANK($L15),"",VLOOKUP($L15&amp;TEXT($B15,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(N$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+      <c r="O15" t="str">
+        <f>IFERROR(IF(ISBLANK($L15),"",VLOOKUP($L15&amp;TEXT($B15,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(O$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+      <c r="T15" t="str">
+        <f>IFERROR(IF(ISBLANK($S15),"",VLOOKUP($S15&amp;TEXT($B15,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(T$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+      <c r="U15" t="str">
+        <f>IFERROR(IF(ISBLANK($S15),"",VLOOKUP($S15&amp;TEXT($B15,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(U$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+      <c r="V15" t="str">
+        <f>IFERROR(IF(ISBLANK($S15),"",VLOOKUP($S15&amp;TEXT($B15,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(V$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+      <c r="AA15" t="str">
+        <f>IFERROR(IF(ISBLANK($Z15),"",VLOOKUP($Z15&amp;TEXT($B15,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AA$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+      <c r="AB15" t="str">
+        <f>IFERROR(IF(ISBLANK($Z15),"",VLOOKUP($Z15&amp;TEXT($B15,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AB$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+      <c r="AC15" t="str">
+        <f>IFERROR(IF(ISBLANK($Z15),"",VLOOKUP($Z15&amp;TEXT($B15,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AC$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -3621,21 +4375,45 @@
       <c r="E16" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="E17" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18">
-        <v>2</v>
-      </c>
-      <c r="E18" t="s">
-        <v>136</v>
+      <c r="F16" s="1" t="str">
+        <f>IF(ISBLANK(VLOOKUP($A16,SkillTable!$1:$1048576,MATCH(SkillTable!$F$1,SkillTable!$1:$1,0),0)),"",VLOOKUP($A16,SkillTable!$1:$1048576,MATCH(SkillTable!$F$1,SkillTable!$1:$1,0),0))</f>
+        <v/>
+      </c>
+      <c r="M16" t="str">
+        <f>IFERROR(IF(ISBLANK($L16),"",VLOOKUP($L16&amp;TEXT($B16,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(M$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+      <c r="N16" t="str">
+        <f>IFERROR(IF(ISBLANK($L16),"",VLOOKUP($L16&amp;TEXT($B16,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(N$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+      <c r="O16" t="str">
+        <f>IFERROR(IF(ISBLANK($L16),"",VLOOKUP($L16&amp;TEXT($B16,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(O$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+      <c r="T16" t="str">
+        <f>IFERROR(IF(ISBLANK($S16),"",VLOOKUP($S16&amp;TEXT($B16,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(T$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+      <c r="U16" t="str">
+        <f>IFERROR(IF(ISBLANK($S16),"",VLOOKUP($S16&amp;TEXT($B16,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(U$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+      <c r="V16" t="str">
+        <f>IFERROR(IF(ISBLANK($S16),"",VLOOKUP($S16&amp;TEXT($B16,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(V$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+      <c r="AA16" t="str">
+        <f>IFERROR(IF(ISBLANK($Z16),"",VLOOKUP($Z16&amp;TEXT($B16,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AA$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+      <c r="AB16" t="str">
+        <f>IFERROR(IF(ISBLANK($Z16),"",VLOOKUP($Z16&amp;TEXT($B16,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AB$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+      <c r="AC16" t="str">
+        <f>IFERROR(IF(ISBLANK($Z16),"",VLOOKUP($Z16&amp;TEXT($B16,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AC$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/Excel/작업Action.xlsx
+++ b/Excel/작업Action.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A42514A8-DB79-4A27-A453-C2F15FF3D810}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B98B57-9D7C-45E1-98CF-EA19D8161F50}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ActionTable" sheetId="1" r:id="rId1"/>
@@ -177,10 +177,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="148">
-  <si>
-    <t>Action00101</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="132">
   <si>
     <t>Idle</t>
   </si>
@@ -188,9 +185,6 @@
     <t>Base Layer.Idle</t>
   </si>
   <si>
-    <t>Action00102</t>
-  </si>
-  <si>
     <t>Move</t>
   </si>
   <si>
@@ -200,45 +194,21 @@
     <t>Control101</t>
   </si>
   <si>
-    <t>Action00103</t>
-  </si>
-  <si>
-    <t>Action00104</t>
-  </si>
-  <si>
     <t>Base Layer.Attack.skill1</t>
   </si>
   <si>
     <t>ActiveOne001</t>
   </si>
   <si>
-    <t>Action00105</t>
-  </si>
-  <si>
     <t>Base Layer.Attack.skill2</t>
   </si>
   <si>
     <t>ActiveTwo001</t>
   </si>
   <si>
-    <t>Action00201</t>
-  </si>
-  <si>
-    <t>Action00202</t>
-  </si>
-  <si>
-    <t>Action00203</t>
-  </si>
-  <si>
-    <t>Action00204</t>
-  </si>
-  <si>
     <t>ActiveOne002</t>
   </si>
   <si>
-    <t>Action00205</t>
-  </si>
-  <si>
     <t>ActiveTwo002</t>
   </si>
   <si>
@@ -380,163 +350,160 @@
     <t>Point</t>
   </si>
   <si>
+    <t>actionName|String</t>
+  </si>
+  <si>
+    <t>listAllowingState|String</t>
+  </si>
+  <si>
+    <t>listNotAllowingState|String</t>
+  </si>
+  <si>
+    <t>mecanimName|String</t>
+  </si>
+  <si>
+    <t>fadeDuration|Float</t>
+  </si>
+  <si>
+    <t>controlId|String</t>
+  </si>
+  <si>
+    <t>skillId|String</t>
+  </si>
+  <si>
+    <t>Base Layer.Attack1</t>
+  </si>
+  <si>
+    <t>Control204</t>
+  </si>
+  <si>
+    <t>Control301</t>
+  </si>
+  <si>
+    <t>Control201</t>
+  </si>
+  <si>
     <t>id|String</t>
-  </si>
-  <si>
-    <t>actionName|String</t>
-  </si>
-  <si>
-    <t>listAllowingState|String</t>
-  </si>
-  <si>
-    <t>listNotAllowingState|String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>controlType|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inputType|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>controlId_검증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>castingId_검증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skillId_검증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>controlType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inputType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>controlType_Verify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>controlType_List</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inputType_Verify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inputType_List</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>castingType|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prefab|String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>range|Float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>angle|Float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pointRadius|Float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>width|Float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>longDistance|Bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>castingType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>castingType_Verify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>castingType_List</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>passiveSkill|Bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon|String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cooltime|Float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>useCooltimeOverriding|Bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>useMecanimNameOverriding|Bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skillId|String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>mecanimName|String</t>
-  </si>
-  <si>
-    <t>fadeDuration|Float</t>
-  </si>
-  <si>
-    <t>controlId|String</t>
-  </si>
-  <si>
-    <t>skillId|String</t>
-  </si>
-  <si>
-    <t>Base Layer.Attack1</t>
-  </si>
-  <si>
-    <t>Control204</t>
-  </si>
-  <si>
-    <t>Control301</t>
-  </si>
-  <si>
-    <t>Control201</t>
-  </si>
-  <si>
-    <t>id|String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>controlType|Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>inputType|Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>controlId_검증</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>castingId_검증</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skillId_검증</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>controlType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>inputType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>controlType_Verify</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>controlType_List</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>inputType_Verify</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>inputType_List</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id|Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>castingType|Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prefab|String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>range|Float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>angle|Float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pointRadius|Float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>width|Float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>longDistance|Bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>castingType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>castingType_Verify</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>castingType_List</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>passiveSkill|Bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>icon|String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cooltime|Float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>useCooltimeOverriding|Bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>useMecanimNameOverriding|Bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skillId|String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>level|Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mecanimName|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -555,16 +522,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Rosehips01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rosehips02</t>
-  </si>
-  <si>
-    <t>Rosehips03</t>
-  </si>
-  <si>
     <t>Idle</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -579,12 +536,6 @@
   <si>
     <t>Base Layer.Die</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Action00106</t>
-  </si>
-  <si>
-    <t>Action00206</t>
   </si>
   <si>
     <t>Actor001</t>
@@ -784,6 +735,64 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
+      <sheetName val="StringTable"/>
+      <sheetName val="TitleStringTable"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>id|String</v>
+          </cell>
+          <cell r="B1" t="str">
+            <v>kor|String</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>GameUI_Play</v>
+          </cell>
+          <cell r="B2" t="str">
+            <v>진행</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>Skill_ActiveOne001_Name</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>하트가 폭발한다</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>Skill_ActiveOne001_Description</v>
+          </cell>
+          <cell r="B4" t="str">
+            <v>대미지를 &lt;color=#FFFF00&gt;{0}%,{1}%,{2}%,{3}%&lt;/color&gt; 먹이고 적이 죽이면 하트를 반드시 떨어뜨린다
+적이 죽지 않으면 기절을 먹인다</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>Skill_ActiveOne002_Description</v>
+          </cell>
+          <cell r="B5" t="str">
+            <v>대미지를 {0}% 먹이고 적이 죽이면 하트를 반드시 떨어뜨린다
+적이 죽지 않으면 기절을 먹인다</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
       <sheetName val="AffectorValueTable"/>
       <sheetName val="AffectorValueLevelTable"/>
       <sheetName val="ActorStateTable"/>
@@ -793,7 +802,7 @@
       <sheetName val="AffectorValueLevelTable임시"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
         <row r="1">
           <cell r="A1" t="str">
@@ -803,7 +812,7 @@
             <v>affectorValueId|String</v>
           </cell>
           <cell r="C1" t="str">
-            <v>내가가져오는</v>
+            <v>참고affectId</v>
           </cell>
           <cell r="D1" t="str">
             <v>level|Int</v>
@@ -988,69 +997,11 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="StringTable"/>
-      <sheetName val="TitleStringTable"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>id|String</v>
-          </cell>
-          <cell r="B1" t="str">
-            <v>kor|String</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>GameUI_Play</v>
-          </cell>
-          <cell r="B2" t="str">
-            <v>진행</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>Skill_ActiveOne001_Name</v>
-          </cell>
-          <cell r="B3" t="str">
-            <v>하트가 폭발한다</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>Skill_ActiveOne001_Description</v>
-          </cell>
-          <cell r="B4" t="str">
-            <v>대미지를 &lt;color=#FFFF00&gt;{0}%,{1}%,{2}%,{3}%&lt;/color&gt; 먹이고 적이 죽이면 하트를 반드시 떨어뜨린다
-적이 죽지 않으면 기절을 먹인다</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>Skill_ActiveOne002_Description</v>
-          </cell>
-          <cell r="B5" t="str">
-            <v>대미지를 {0}% 먹이고 적이 죽이면 하트를 반드시 떨어뜨린다
-적이 죽지 않으면 기절을 먹인다</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1377,812 +1328,765 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W16"/>
+  <dimension ref="A1:V16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.875" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="19.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.875" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="14" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.625" customWidth="1" outlineLevel="1"/>
-    <col min="17" max="17" width="14.25" customWidth="1" outlineLevel="1"/>
-    <col min="19" max="19" width="12.125" customWidth="1" outlineLevel="1"/>
-    <col min="20" max="21" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="1" max="1" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.75" customWidth="1"/>
+    <col min="3" max="3" width="18.5" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="16.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="19.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="24.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="12.25" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="9.875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="13.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="13.625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="9" collapsed="1"/>
+    <col min="16" max="16" width="14.25" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="17" width="9" collapsed="1"/>
+    <col min="18" max="18" width="12.125" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="20" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="21" width="9" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T1" t="str">
+        <f ca="1">IF(OR(OFFSET(T1,1,0)&lt;OFFSET(T1,2,0),OFFSET(T1,2,0)&lt;OFFSET(T1,3,0),
+OFFSET(T1,3,0)&lt;OFFSET(T1,4,0),OFFSET(T1,4,0)&lt;OFFSET(T1,5,0),
+OFFSET(T1,5,0)&lt;OFFSET(T1,6,0),OFFSET(T1,6,0)&lt;OFFSET(T1,7,0),
+OFFSET(T1,7,0)&lt;OFFSET(T1,8,0),OFFSET(T1,8,0)&lt;OFFSET(T1,9,0),
+OFFSET(T1,9,0)&lt;OFFSET(T1,10,0),OFFSET(T1,10,0)&lt;OFFSET(T1,11,0),
+OFFSET(T1,11,0)&lt;OFFSET(T1,12,0),OFFSET(T1,12,0)&lt;OFFSET(T1,13,0),
+OFFSET(T1,13,0)&lt;OFFSET(T1,14,0),OFFSET(T1,14,0)&lt;OFFSET(T1,15,0),
+OFFSET(T1,15,0)&lt;OFFSET(T1,16,0),OFFSET(T1,16,0)&lt;OFFSET(T1,17,0),
+OFFSET(T1,17,0)&lt;OFFSET(T1,18,0),OFFSET(T1,18,0)&lt;OFFSET(T1,19,0),
+OFFSET(T1,19,0)&lt;OFFSET(T1,20,0),OFFSET(T1,20,0)&lt;OFFSET(T1,21,0),
+OFFSET(T1,21,0)&lt;OFFSET(T1,22,0),OFFSET(T1,22,0)&lt;OFFSET(T1,23,0),
+OFFSET(T1,23,0)&lt;OFFSET(T1,24,0),OFFSET(T1,24,0)&lt;OFFSET(T1,25,0),
+OFFSET(T1,25,0)&lt;OFFSET(T1,26,0),OFFSET(T1,26,0)&lt;OFFSET(T1,27,0),
+OFFSET(T1,27,0)&lt;OFFSET(T1,28,0),OFFSET(T1,28,0)&lt;OFFSET(T1,29,0),
+OFFSET(T1,29,0)&lt;OFFSET(T1,30,0),OFFSET(T1,30,0)&lt;OFFSET(T1,31,0),
+OFFSET(T1,31,0)&lt;OFFSET(T1,32,0),OFFSET(T1,32,0)&lt;OFFSET(T1,33,0),
+OFFSET(T1,33,0)&lt;OFFSET(T1,34,0),OFFSET(T1,34,0)&lt;OFFSET(T1,35,0),
+OFFSET(T1,35,0)&lt;OFFSET(T1,36,0),OFFSET(T1,36,0)&lt;OFFSET(T1,37,0),
+OFFSET(T1,37,0)&lt;OFFSET(T1,38,0),OFFSET(T1,38,0)&lt;OFFSET(T1,39,0),
+OFFSET(T1,39,0)&lt;OFFSET(T1,40,0),OFFSET(T1,40,0)&lt;OFFSET(T1,41,0),
+OFFSET(T1,41,0)&lt;OFFSET(T1,42,0),OFFSET(T1,42,0)&lt;OFFSET(T1,43,0),
+OFFSET(T1,43,0)&lt;OFFSET(T1,44,0),OFFSET(T1,44,0)&lt;OFFSET(T1,45,0),
+OFFSET(T1,45,0)&lt;OFFSET(T1,46,0),OFFSET(T1,46,0)&lt;OFFSET(T1,47,0),
+OFFSET(T1,47,0)&lt;OFFSET(T1,48,0),OFFSET(T1,48,0)&lt;OFFSET(T1,49,0),
+OFFSET(T1,49,0)&lt;OFFSET(T1,50,0)),"내림차순 정렬할 것","len")</f>
+        <v>len</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="str">
+        <f t="shared" ref="D2:F16" ca="1" si="0">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C2,
+OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="F2" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="G2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>0.1</v>
+      </c>
+      <c r="J2" t="str">
+        <f>IF(ISBLANK(I2),"",IF(ISERROR(VLOOKUP(I2,ControlTable!$A:$A,1,0)),"없음",""))</f>
+        <v/>
+      </c>
+      <c r="L2" t="str">
+        <f>IF(ISBLANK(K2),"",IF(ISERROR(VLOOKUP(K2,CastingTable!$A:$A,1,0)),"없음",""))</f>
+        <v/>
+      </c>
+      <c r="N2" t="str">
+        <f>IF(ISBLANK(M2),"",IF(ISERROR(VLOOKUP(M2,SkillTable!$A:$A,1,0)),"없음",""))</f>
+        <v/>
+      </c>
+      <c r="P2" t="s">
+        <v>0</v>
+      </c>
+      <c r="R2" t="s">
+        <v>11</v>
+      </c>
+      <c r="S2">
+        <v>4</v>
+      </c>
+      <c r="T2">
+        <f>LEN(R2)</f>
+        <v>8</v>
+      </c>
+      <c r="V2" t="str">
+        <f ca="1">IFERROR(HLOOKUP("내림차순 정렬할 것",$1:$1,1,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="E3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <v>0.1</v>
+      </c>
+      <c r="J3" t="str">
+        <f>IF(ISBLANK(I3),"",IF(ISERROR(VLOOKUP(I3,ControlTable!$A:$A,1,0)),"없음",""))</f>
+        <v/>
+      </c>
+      <c r="L3" t="str">
+        <f>IF(ISBLANK(K3),"",IF(ISERROR(VLOOKUP(K3,CastingTable!$A:$A,1,0)),"없음",""))</f>
+        <v/>
+      </c>
+      <c r="N3" t="str">
+        <f>IF(ISBLANK(M3),"",IF(ISERROR(VLOOKUP(M3,SkillTable!$A:$A,1,0)),"없음",""))</f>
+        <v/>
+      </c>
+      <c r="P3" t="s">
+        <v>2</v>
+      </c>
+      <c r="R3" t="s">
+        <v>12</v>
+      </c>
+      <c r="S3">
+        <v>3</v>
+      </c>
+      <c r="T3">
+        <f>LEN(R3)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="G4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H4">
+        <v>0.05</v>
+      </c>
+      <c r="J4" t="str">
+        <f>IF(ISBLANK(I4),"",IF(ISERROR(VLOOKUP(I4,ControlTable!$A:$A,1,0)),"없음",""))</f>
+        <v/>
+      </c>
+      <c r="L4" t="str">
+        <f>IF(ISBLANK(K4),"",IF(ISERROR(VLOOKUP(K4,CastingTable!$A:$A,1,0)),"없음",""))</f>
+        <v/>
+      </c>
+      <c r="N4" t="str">
+        <f>IF(ISBLANK(M4),"",IF(ISERROR(VLOOKUP(M4,SkillTable!$A:$A,1,0)),"없음",""))</f>
+        <v/>
+      </c>
+      <c r="P4" t="s">
+        <v>12</v>
+      </c>
+      <c r="R4" t="s">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <f>LEN(R4)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="E5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>3, 4</v>
+      </c>
+      <c r="G5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5">
+        <v>0.05</v>
+      </c>
+      <c r="I5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" t="str">
+        <f>IF(ISBLANK(I5),"",IF(ISERROR(VLOOKUP(I5,ControlTable!$A:$A,1,0)),"없음",""))</f>
+        <v/>
+      </c>
+      <c r="L5" t="str">
+        <f>IF(ISBLANK(K5),"",IF(ISERROR(VLOOKUP(K5,CastingTable!$A:$A,1,0)),"없음",""))</f>
+        <v/>
+      </c>
+      <c r="N5" t="str">
+        <f>IF(ISBLANK(M5),"",IF(ISERROR(VLOOKUP(M5,SkillTable!$A:$A,1,0)),"없음",""))</f>
+        <v/>
+      </c>
+      <c r="P5" t="s">
+        <v>11</v>
+      </c>
+      <c r="R5" t="s">
+        <v>2</v>
+      </c>
+      <c r="S5">
+        <v>2</v>
+      </c>
+      <c r="T5">
+        <f>LEN(R5)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="E6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>3, 4</v>
+      </c>
+      <c r="G6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <v>0.05</v>
+      </c>
+      <c r="I6" t="s">
+        <v>62</v>
+      </c>
+      <c r="J6" t="str">
+        <f>IF(ISBLANK(I6),"",IF(ISERROR(VLOOKUP(I6,ControlTable!$A:$A,1,0)),"없음",""))</f>
+        <v/>
+      </c>
+      <c r="K6" t="s">
+        <v>40</v>
+      </c>
+      <c r="L6" t="str">
+        <f>IF(ISBLANK(K6),"",IF(ISERROR(VLOOKUP(K6,CastingTable!$A:$A,1,0)),"없음",""))</f>
+        <v/>
+      </c>
+      <c r="M6" t="s">
+        <v>6</v>
+      </c>
+      <c r="N6" t="str">
+        <f>IF(ISBLANK(M6),"",IF(ISERROR(VLOOKUP(M6,SkillTable!$A:$A,1,0)),"없음",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="E7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>3, 4</v>
+      </c>
+      <c r="G7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7">
+        <v>0.05</v>
+      </c>
+      <c r="I7" t="s">
+        <v>63</v>
+      </c>
+      <c r="J7" t="str">
+        <f>IF(ISBLANK(I7),"",IF(ISERROR(VLOOKUP(I7,ControlTable!$A:$A,1,0)),"없음",""))</f>
+        <v/>
+      </c>
+      <c r="L7" t="str">
+        <f>IF(ISBLANK(K7),"",IF(ISERROR(VLOOKUP(K7,CastingTable!$A:$A,1,0)),"없음",""))</f>
+        <v/>
+      </c>
+      <c r="M7" t="s">
+        <v>8</v>
+      </c>
+      <c r="N7" t="str">
+        <f>IF(ISBLANK(M7),"",IF(ISERROR(VLOOKUP(M7,SkillTable!$A:$A,1,0)),"없음",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="G8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>0.1</v>
+      </c>
+      <c r="J8" t="str">
+        <f>IF(ISBLANK(I8),"",IF(ISERROR(VLOOKUP(I8,ControlTable!$A:$A,1,0)),"없음",""))</f>
+        <v/>
+      </c>
+      <c r="L8" t="str">
+        <f>IF(ISBLANK(K8),"",IF(ISERROR(VLOOKUP(K8,CastingTable!$A:$A,1,0)),"없음",""))</f>
+        <v/>
+      </c>
+      <c r="N8" t="str">
+        <f>IF(ISBLANK(M8),"",IF(ISERROR(VLOOKUP(M8,SkillTable!$A:$A,1,0)),"없음",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="E9" t="s">
+        <v>109</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <v>0.1</v>
+      </c>
+      <c r="J9" t="str">
+        <f>IF(ISBLANK(I9),"",IF(ISERROR(VLOOKUP(I9,ControlTable!$A:$A,1,0)),"없음",""))</f>
+        <v/>
+      </c>
+      <c r="L9" t="str">
+        <f>IF(ISBLANK(K9),"",IF(ISERROR(VLOOKUP(K9,CastingTable!$A:$A,1,0)),"없음",""))</f>
+        <v/>
+      </c>
+      <c r="N9" t="str">
+        <f>IF(ISBLANK(M9),"",IF(ISERROR(VLOOKUP(M9,SkillTable!$A:$A,1,0)),"없음",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="G10" t="s">
+        <v>103</v>
+      </c>
+      <c r="H10">
+        <v>0.05</v>
+      </c>
+      <c r="J10" t="str">
+        <f>IF(ISBLANK(I10),"",IF(ISERROR(VLOOKUP(I10,ControlTable!$A:$A,1,0)),"없음",""))</f>
+        <v/>
+      </c>
+      <c r="L10" t="str">
+        <f>IF(ISBLANK(K10),"",IF(ISERROR(VLOOKUP(K10,CastingTable!$A:$A,1,0)),"없음",""))</f>
+        <v/>
+      </c>
+      <c r="N10" t="str">
+        <f>IF(ISBLANK(M10),"",IF(ISERROR(VLOOKUP(M10,SkillTable!$A:$A,1,0)),"없음",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="E11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>3, 4</v>
+      </c>
+      <c r="G11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11">
+        <v>0.05</v>
+      </c>
+      <c r="I11" t="s">
+        <v>4</v>
+      </c>
+      <c r="J11" t="str">
+        <f>IF(ISBLANK(I11),"",IF(ISERROR(VLOOKUP(I11,ControlTable!$A:$A,1,0)),"없음",""))</f>
+        <v/>
+      </c>
+      <c r="L11" t="str">
+        <f>IF(ISBLANK(K11),"",IF(ISERROR(VLOOKUP(K11,CastingTable!$A:$A,1,0)),"없음",""))</f>
+        <v/>
+      </c>
+      <c r="N11" t="str">
+        <f>IF(ISBLANK(M11),"",IF(ISERROR(VLOOKUP(M11,SkillTable!$A:$A,1,0)),"없음",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="E12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>3, 4</v>
+      </c>
+      <c r="G12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12">
+        <v>0.05</v>
+      </c>
+      <c r="I12" t="s">
         <v>64</v>
       </c>
-      <c r="B1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I1" t="s">
-        <v>69</v>
-      </c>
-      <c r="J1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L1" t="s">
-        <v>126</v>
-      </c>
-      <c r="M1" t="s">
-        <v>80</v>
-      </c>
-      <c r="N1" t="s">
-        <v>71</v>
-      </c>
-      <c r="O1" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>49</v>
-      </c>
-      <c r="S1" t="s">
-        <v>47</v>
-      </c>
-      <c r="T1" t="s">
-        <v>34</v>
-      </c>
-      <c r="U1" t="str">
-        <f ca="1">IF(OR(OFFSET(U1,1,0)&lt;OFFSET(U1,2,0),OFFSET(U1,2,0)&lt;OFFSET(U1,3,0),
-OFFSET(U1,3,0)&lt;OFFSET(U1,4,0),OFFSET(U1,4,0)&lt;OFFSET(U1,5,0),
-OFFSET(U1,5,0)&lt;OFFSET(U1,6,0),OFFSET(U1,6,0)&lt;OFFSET(U1,7,0),
-OFFSET(U1,7,0)&lt;OFFSET(U1,8,0),OFFSET(U1,8,0)&lt;OFFSET(U1,9,0),
-OFFSET(U1,9,0)&lt;OFFSET(U1,10,0),OFFSET(U1,10,0)&lt;OFFSET(U1,11,0),
-OFFSET(U1,11,0)&lt;OFFSET(U1,12,0),OFFSET(U1,12,0)&lt;OFFSET(U1,13,0),
-OFFSET(U1,13,0)&lt;OFFSET(U1,14,0),OFFSET(U1,14,0)&lt;OFFSET(U1,15,0),
-OFFSET(U1,15,0)&lt;OFFSET(U1,16,0),OFFSET(U1,16,0)&lt;OFFSET(U1,17,0),
-OFFSET(U1,17,0)&lt;OFFSET(U1,18,0),OFFSET(U1,18,0)&lt;OFFSET(U1,19,0),
-OFFSET(U1,19,0)&lt;OFFSET(U1,20,0),OFFSET(U1,20,0)&lt;OFFSET(U1,21,0),
-OFFSET(U1,21,0)&lt;OFFSET(U1,22,0),OFFSET(U1,22,0)&lt;OFFSET(U1,23,0),
-OFFSET(U1,23,0)&lt;OFFSET(U1,24,0),OFFSET(U1,24,0)&lt;OFFSET(U1,25,0),
-OFFSET(U1,25,0)&lt;OFFSET(U1,26,0),OFFSET(U1,26,0)&lt;OFFSET(U1,27,0),
-OFFSET(U1,27,0)&lt;OFFSET(U1,28,0),OFFSET(U1,28,0)&lt;OFFSET(U1,29,0),
-OFFSET(U1,29,0)&lt;OFFSET(U1,30,0),OFFSET(U1,30,0)&lt;OFFSET(U1,31,0),
-OFFSET(U1,31,0)&lt;OFFSET(U1,32,0),OFFSET(U1,32,0)&lt;OFFSET(U1,33,0),
-OFFSET(U1,33,0)&lt;OFFSET(U1,34,0),OFFSET(U1,34,0)&lt;OFFSET(U1,35,0),
-OFFSET(U1,35,0)&lt;OFFSET(U1,36,0),OFFSET(U1,36,0)&lt;OFFSET(U1,37,0),
-OFFSET(U1,37,0)&lt;OFFSET(U1,38,0),OFFSET(U1,38,0)&lt;OFFSET(U1,39,0),
-OFFSET(U1,39,0)&lt;OFFSET(U1,40,0),OFFSET(U1,40,0)&lt;OFFSET(U1,41,0),
-OFFSET(U1,41,0)&lt;OFFSET(U1,42,0),OFFSET(U1,42,0)&lt;OFFSET(U1,43,0),
-OFFSET(U1,43,0)&lt;OFFSET(U1,44,0),OFFSET(U1,44,0)&lt;OFFSET(U1,45,0),
-OFFSET(U1,45,0)&lt;OFFSET(U1,46,0),OFFSET(U1,46,0)&lt;OFFSET(U1,47,0),
-OFFSET(U1,47,0)&lt;OFFSET(U1,48,0),OFFSET(U1,48,0)&lt;OFFSET(U1,49,0),
-OFFSET(U1,49,0)&lt;OFFSET(U1,50,0)),"내림차순 정렬할 것","len")</f>
-        <v>len</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="J12" t="str">
+        <f>IF(ISBLANK(I12),"",IF(ISERROR(VLOOKUP(I12,ControlTable!$A:$A,1,0)),"없음",""))</f>
+        <v/>
+      </c>
+      <c r="L12" t="str">
+        <f>IF(ISBLANK(K12),"",IF(ISERROR(VLOOKUP(K12,CastingTable!$A:$A,1,0)),"없음",""))</f>
+        <v/>
+      </c>
+      <c r="M12" t="s">
+        <v>9</v>
+      </c>
+      <c r="N12" t="str">
+        <f>IF(ISBLANK(M12),"",IF(ISERROR(VLOOKUP(M12,SkillTable!$A:$A,1,0)),"없음",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="E13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>3, 4</v>
+      </c>
+      <c r="G13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13">
+        <v>0.05</v>
+      </c>
+      <c r="I13" t="s">
+        <v>63</v>
+      </c>
+      <c r="J13" t="str">
+        <f>IF(ISBLANK(I13),"",IF(ISERROR(VLOOKUP(I13,ControlTable!$A:$A,1,0)),"없음",""))</f>
+        <v/>
+      </c>
+      <c r="L13" t="str">
+        <f>IF(ISBLANK(K13),"",IF(ISERROR(VLOOKUP(K13,CastingTable!$A:$A,1,0)),"없음",""))</f>
+        <v/>
+      </c>
+      <c r="M13" t="s">
+        <v>10</v>
+      </c>
+      <c r="N13" t="str">
+        <f>IF(ISBLANK(M13),"",IF(ISERROR(VLOOKUP(M13,SkillTable!$A:$A,1,0)),"없음",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" t="s">
+        <v>100</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="G14" t="s">
         <v>1</v>
       </c>
-      <c r="E2" t="str">
-        <f t="shared" ref="E2:E16" ca="1" si="0">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D2,
-OFFSET($A$1,1,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(D$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,2,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(D$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,3,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(D$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,4,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(D$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,5,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(D$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,6,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(D$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,7,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(D$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,8,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(D$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,9,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(D$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,10,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(D$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,11,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(D$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,12,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(D$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,13,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(D$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,14,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(D$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,15,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(D$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,16,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(D$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,17,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(D$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,18,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(D$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,19,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(D$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,20,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(D$1&amp;"_List",$1:$1,0)))</f>
-        <v/>
-      </c>
-      <c r="G2" t="str">
-        <f t="shared" ref="G2:G16" ca="1" si="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(F2,
-OFFSET($A$1,1,MATCH(F$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(F$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,2,MATCH(F$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(F$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,3,MATCH(F$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(F$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,4,MATCH(F$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(F$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,5,MATCH(F$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(F$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,6,MATCH(F$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(F$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,7,MATCH(F$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(F$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,8,MATCH(F$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(F$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,9,MATCH(F$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(F$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,10,MATCH(F$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(F$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,11,MATCH(F$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(F$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,12,MATCH(F$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(F$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,13,MATCH(F$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(F$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,14,MATCH(F$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(F$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,15,MATCH(F$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(F$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,16,MATCH(F$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(F$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,17,MATCH(F$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(F$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,18,MATCH(F$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(F$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,19,MATCH(F$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(F$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,20,MATCH(F$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(F$1&amp;"_List",$1:$1,0)))</f>
-        <v/>
-      </c>
-      <c r="H2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2">
+      <c r="H14">
         <v>0.1</v>
       </c>
-      <c r="K2" t="str">
-        <f>IF(ISBLANK(J2),"",IF(ISERROR(VLOOKUP(J2,ControlTable!$A:$A,1,0)),"없음",""))</f>
-        <v/>
-      </c>
-      <c r="M2" t="str">
-        <f>IF(ISBLANK(L2),"",IF(ISERROR(VLOOKUP(L2,CastingTable!$A:$A,1,0)),"없음",""))</f>
-        <v/>
-      </c>
-      <c r="O2" t="str">
-        <f>IF(ISBLANK(N2),"",IF(ISERROR(VLOOKUP(N2,SkillTable!$A:$A,1,0)),"없음",""))</f>
-        <v/>
-      </c>
-      <c r="Q2" t="s">
-        <v>1</v>
-      </c>
-      <c r="S2" t="s">
-        <v>21</v>
-      </c>
-      <c r="T2">
-        <v>4</v>
-      </c>
-      <c r="U2">
-        <f>LEN(S2)</f>
-        <v>8</v>
-      </c>
-      <c r="W2" t="str">
-        <f ca="1">IFERROR(HLOOKUP("내림차순 정렬할 것",$1:$1,1,0),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="J14" t="str">
+        <f>IF(ISBLANK(I14),"",IF(ISERROR(VLOOKUP(I14,ControlTable!$A:$A,1,0)),"없음",""))</f>
+        <v/>
+      </c>
+      <c r="L14" t="str">
+        <f>IF(ISBLANK(K14),"",IF(ISERROR(VLOOKUP(K14,CastingTable!$A:$A,1,0)),"없음",""))</f>
+        <v/>
+      </c>
+      <c r="N14" t="str">
+        <f>IF(ISBLANK(M14),"",IF(ISERROR(VLOOKUP(M14,SkillTable!$A:$A,1,0)),"없음",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15" t="s">
+        <v>101</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="E15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>3, 4</v>
+      </c>
+      <c r="G15" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" t="str">
+      <c r="H15">
+        <v>0.1</v>
+      </c>
+      <c r="J15" t="str">
+        <f>IF(ISBLANK(I15),"",IF(ISERROR(VLOOKUP(I15,ControlTable!$A:$A,1,0)),"없음",""))</f>
+        <v/>
+      </c>
+      <c r="L15" t="str">
+        <f>IF(ISBLANK(K15),"",IF(ISERROR(VLOOKUP(K15,CastingTable!$A:$A,1,0)),"없음",""))</f>
+        <v/>
+      </c>
+      <c r="N15" t="str">
+        <f>IF(ISBLANK(M15),"",IF(ISERROR(VLOOKUP(M15,SkillTable!$A:$A,1,0)),"없음",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="F3" t="s">
-        <v>125</v>
-      </c>
-      <c r="G3" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="H3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3">
-        <v>0.1</v>
-      </c>
-      <c r="K3" t="str">
-        <f>IF(ISBLANK(J3),"",IF(ISERROR(VLOOKUP(J3,ControlTable!$A:$A,1,0)),"없음",""))</f>
-        <v/>
-      </c>
-      <c r="M3" t="str">
-        <f>IF(ISBLANK(L3),"",IF(ISERROR(VLOOKUP(L3,CastingTable!$A:$A,1,0)),"없음",""))</f>
-        <v/>
-      </c>
-      <c r="O3" t="str">
-        <f>IF(ISBLANK(N3),"",IF(ISERROR(VLOOKUP(N3,SkillTable!$A:$A,1,0)),"없음",""))</f>
-        <v/>
-      </c>
-      <c r="Q3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S3" t="s">
-        <v>22</v>
-      </c>
-      <c r="T3">
-        <v>3</v>
-      </c>
-      <c r="U3">
-        <f>LEN(S3)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C4" t="s">
-        <v>116</v>
-      </c>
-      <c r="H4" t="s">
-        <v>117</v>
-      </c>
-      <c r="I4">
+      <c r="F16" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="G16" t="s">
+        <v>103</v>
+      </c>
+      <c r="H16">
         <v>0.05</v>
       </c>
-      <c r="K4" t="str">
-        <f>IF(ISBLANK(J4),"",IF(ISERROR(VLOOKUP(J4,ControlTable!$A:$A,1,0)),"없음",""))</f>
-        <v/>
-      </c>
-      <c r="M4" t="str">
-        <f>IF(ISBLANK(L4),"",IF(ISERROR(VLOOKUP(L4,CastingTable!$A:$A,1,0)),"없음",""))</f>
-        <v/>
-      </c>
-      <c r="O4" t="str">
-        <f>IF(ISBLANK(N4),"",IF(ISERROR(VLOOKUP(N4,SkillTable!$A:$A,1,0)),"없음",""))</f>
-        <v/>
-      </c>
-      <c r="Q4" t="s">
-        <v>22</v>
-      </c>
-      <c r="S4" t="s">
-        <v>1</v>
-      </c>
-      <c r="T4">
-        <v>1</v>
-      </c>
-      <c r="U4">
-        <f>LEN(S4)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E5" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="F5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>3, 4</v>
-      </c>
-      <c r="H5" t="s">
-        <v>72</v>
-      </c>
-      <c r="I5">
-        <v>0.05</v>
-      </c>
-      <c r="J5" t="s">
-        <v>6</v>
-      </c>
-      <c r="K5" t="str">
-        <f>IF(ISBLANK(J5),"",IF(ISERROR(VLOOKUP(J5,ControlTable!$A:$A,1,0)),"없음",""))</f>
-        <v/>
-      </c>
-      <c r="M5" t="str">
-        <f>IF(ISBLANK(L5),"",IF(ISERROR(VLOOKUP(L5,CastingTable!$A:$A,1,0)),"없음",""))</f>
-        <v/>
-      </c>
-      <c r="O5" t="str">
-        <f>IF(ISBLANK(N5),"",IF(ISERROR(VLOOKUP(N5,SkillTable!$A:$A,1,0)),"없음",""))</f>
-        <v/>
-      </c>
-      <c r="Q5" t="s">
-        <v>21</v>
-      </c>
-      <c r="S5" t="s">
-        <v>4</v>
-      </c>
-      <c r="T5">
-        <v>2</v>
-      </c>
-      <c r="U5">
-        <f>LEN(S5)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>108</v>
-      </c>
-      <c r="E6" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="F6" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>3, 4</v>
-      </c>
-      <c r="H6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6">
-        <v>0.05</v>
-      </c>
-      <c r="J6" t="s">
-        <v>73</v>
-      </c>
-      <c r="K6" t="str">
-        <f>IF(ISBLANK(J6),"",IF(ISERROR(VLOOKUP(J6,ControlTable!$A:$A,1,0)),"없음",""))</f>
-        <v/>
-      </c>
-      <c r="L6" t="s">
-        <v>50</v>
-      </c>
-      <c r="M6" t="str">
-        <f>IF(ISBLANK(L6),"",IF(ISERROR(VLOOKUP(L6,CastingTable!$A:$A,1,0)),"없음",""))</f>
-        <v/>
-      </c>
-      <c r="N6" t="s">
-        <v>10</v>
-      </c>
-      <c r="O6" t="str">
-        <f>IF(ISBLANK(N6),"",IF(ISERROR(VLOOKUP(N6,SkillTable!$A:$A,1,0)),"없음",""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>118</v>
-      </c>
-      <c r="B7" t="s">
-        <v>108</v>
-      </c>
-      <c r="E7" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="F7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>3, 4</v>
-      </c>
-      <c r="H7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7">
-        <v>0.05</v>
-      </c>
-      <c r="J7" t="s">
-        <v>74</v>
-      </c>
-      <c r="K7" t="str">
-        <f>IF(ISBLANK(J7),"",IF(ISERROR(VLOOKUP(J7,ControlTable!$A:$A,1,0)),"없음",""))</f>
-        <v/>
-      </c>
-      <c r="M7" t="str">
-        <f>IF(ISBLANK(L7),"",IF(ISERROR(VLOOKUP(L7,CastingTable!$A:$A,1,0)),"없음",""))</f>
-        <v/>
-      </c>
-      <c r="N7" t="s">
-        <v>13</v>
-      </c>
-      <c r="O7" t="str">
-        <f>IF(ISBLANK(N7),"",IF(ISERROR(VLOOKUP(N7,SkillTable!$A:$A,1,0)),"없음",""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>109</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="G8" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="H8" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8">
-        <v>0.1</v>
-      </c>
-      <c r="K8" t="str">
-        <f>IF(ISBLANK(J8),"",IF(ISERROR(VLOOKUP(J8,ControlTable!$A:$A,1,0)),"없음",""))</f>
-        <v/>
-      </c>
-      <c r="M8" t="str">
-        <f>IF(ISBLANK(L8),"",IF(ISERROR(VLOOKUP(L8,CastingTable!$A:$A,1,0)),"없음",""))</f>
-        <v/>
-      </c>
-      <c r="O8" t="str">
-        <f>IF(ISBLANK(N8),"",IF(ISERROR(VLOOKUP(N8,SkillTable!$A:$A,1,0)),"없음",""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>109</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="F9" t="s">
-        <v>125</v>
-      </c>
-      <c r="G9" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="H9" t="s">
-        <v>5</v>
-      </c>
-      <c r="I9">
-        <v>0.1</v>
-      </c>
-      <c r="K9" t="str">
-        <f>IF(ISBLANK(J9),"",IF(ISERROR(VLOOKUP(J9,ControlTable!$A:$A,1,0)),"없음",""))</f>
-        <v/>
-      </c>
-      <c r="M9" t="str">
-        <f>IF(ISBLANK(L9),"",IF(ISERROR(VLOOKUP(L9,CastingTable!$A:$A,1,0)),"없음",""))</f>
-        <v/>
-      </c>
-      <c r="O9" t="str">
-        <f>IF(ISBLANK(N9),"",IF(ISERROR(VLOOKUP(N9,SkillTable!$A:$A,1,0)),"없음",""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" t="s">
-        <v>109</v>
-      </c>
-      <c r="C10" t="s">
-        <v>116</v>
-      </c>
-      <c r="H10" t="s">
-        <v>117</v>
-      </c>
-      <c r="I10">
-        <v>0.05</v>
-      </c>
-      <c r="K10" t="str">
-        <f>IF(ISBLANK(J10),"",IF(ISERROR(VLOOKUP(J10,ControlTable!$A:$A,1,0)),"없음",""))</f>
-        <v/>
-      </c>
-      <c r="M10" t="str">
-        <f>IF(ISBLANK(L10),"",IF(ISERROR(VLOOKUP(L10,CastingTable!$A:$A,1,0)),"없음",""))</f>
-        <v/>
-      </c>
-      <c r="O10" t="str">
-        <f>IF(ISBLANK(N10),"",IF(ISERROR(VLOOKUP(N10,SkillTable!$A:$A,1,0)),"없음",""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" t="s">
-        <v>109</v>
-      </c>
-      <c r="E11" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="F11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>3, 4</v>
-      </c>
-      <c r="H11" t="s">
-        <v>72</v>
-      </c>
-      <c r="I11">
-        <v>0.05</v>
-      </c>
-      <c r="J11" t="s">
-        <v>6</v>
-      </c>
-      <c r="K11" t="str">
-        <f>IF(ISBLANK(J11),"",IF(ISERROR(VLOOKUP(J11,ControlTable!$A:$A,1,0)),"없음",""))</f>
-        <v/>
-      </c>
-      <c r="M11" t="str">
-        <f>IF(ISBLANK(L11),"",IF(ISERROR(VLOOKUP(L11,CastingTable!$A:$A,1,0)),"없음",""))</f>
-        <v/>
-      </c>
-      <c r="O11" t="str">
-        <f>IF(ISBLANK(N11),"",IF(ISERROR(VLOOKUP(N11,SkillTable!$A:$A,1,0)),"없음",""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" t="s">
-        <v>109</v>
-      </c>
-      <c r="E12" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="F12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>3, 4</v>
-      </c>
-      <c r="H12" t="s">
-        <v>9</v>
-      </c>
-      <c r="I12">
-        <v>0.05</v>
-      </c>
-      <c r="J12" t="s">
-        <v>75</v>
-      </c>
-      <c r="K12" t="str">
-        <f>IF(ISBLANK(J12),"",IF(ISERROR(VLOOKUP(J12,ControlTable!$A:$A,1,0)),"없음",""))</f>
-        <v/>
-      </c>
-      <c r="M12" t="str">
-        <f>IF(ISBLANK(L12),"",IF(ISERROR(VLOOKUP(L12,CastingTable!$A:$A,1,0)),"없음",""))</f>
-        <v/>
-      </c>
-      <c r="N12" t="s">
-        <v>18</v>
-      </c>
-      <c r="O12" t="str">
-        <f>IF(ISBLANK(N12),"",IF(ISERROR(VLOOKUP(N12,SkillTable!$A:$A,1,0)),"없음",""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>119</v>
-      </c>
-      <c r="B13" t="s">
-        <v>109</v>
-      </c>
-      <c r="E13" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="F13" t="s">
-        <v>48</v>
-      </c>
-      <c r="G13" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>3, 4</v>
-      </c>
-      <c r="H13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I13">
-        <v>0.05</v>
-      </c>
-      <c r="J13" t="s">
-        <v>74</v>
-      </c>
-      <c r="K13" t="str">
-        <f>IF(ISBLANK(J13),"",IF(ISERROR(VLOOKUP(J13,ControlTable!$A:$A,1,0)),"없음",""))</f>
-        <v/>
-      </c>
-      <c r="M13" t="str">
-        <f>IF(ISBLANK(L13),"",IF(ISERROR(VLOOKUP(L13,CastingTable!$A:$A,1,0)),"없음",""))</f>
-        <v/>
-      </c>
-      <c r="N13" t="s">
-        <v>20</v>
-      </c>
-      <c r="O13" t="str">
-        <f>IF(ISBLANK(N13),"",IF(ISERROR(VLOOKUP(N13,SkillTable!$A:$A,1,0)),"없음",""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>111</v>
-      </c>
-      <c r="B14" t="s">
-        <v>110</v>
-      </c>
-      <c r="C14" t="s">
-        <v>114</v>
-      </c>
-      <c r="E14" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="G14" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="H14" t="s">
-        <v>2</v>
-      </c>
-      <c r="I14">
-        <v>0.1</v>
-      </c>
-      <c r="K14" t="str">
-        <f>IF(ISBLANK(J14),"",IF(ISERROR(VLOOKUP(J14,ControlTable!$A:$A,1,0)),"없음",""))</f>
-        <v/>
-      </c>
-      <c r="M14" t="str">
-        <f>IF(ISBLANK(L14),"",IF(ISERROR(VLOOKUP(L14,CastingTable!$A:$A,1,0)),"없음",""))</f>
-        <v/>
-      </c>
-      <c r="O14" t="str">
-        <f>IF(ISBLANK(N14),"",IF(ISERROR(VLOOKUP(N14,SkillTable!$A:$A,1,0)),"없음",""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>112</v>
-      </c>
-      <c r="B15" t="s">
-        <v>110</v>
-      </c>
-      <c r="C15" t="s">
-        <v>115</v>
-      </c>
-      <c r="E15" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="F15" t="s">
-        <v>48</v>
-      </c>
-      <c r="G15" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>3, 4</v>
-      </c>
-      <c r="H15" t="s">
-        <v>5</v>
-      </c>
-      <c r="I15">
-        <v>0.1</v>
-      </c>
-      <c r="K15" t="str">
-        <f>IF(ISBLANK(J15),"",IF(ISERROR(VLOOKUP(J15,ControlTable!$A:$A,1,0)),"없음",""))</f>
-        <v/>
-      </c>
-      <c r="M15" t="str">
-        <f>IF(ISBLANK(L15),"",IF(ISERROR(VLOOKUP(L15,CastingTable!$A:$A,1,0)),"없음",""))</f>
-        <v/>
-      </c>
-      <c r="O15" t="str">
-        <f>IF(ISBLANK(N15),"",IF(ISERROR(VLOOKUP(N15,SkillTable!$A:$A,1,0)),"없음",""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>113</v>
-      </c>
-      <c r="B16" t="s">
-        <v>110</v>
-      </c>
-      <c r="C16" t="s">
-        <v>116</v>
-      </c>
-      <c r="E16" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="G16" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="H16" t="s">
-        <v>117</v>
-      </c>
-      <c r="I16">
-        <v>0.05</v>
-      </c>
-      <c r="K16" t="str">
-        <f>IF(ISBLANK(J16),"",IF(ISERROR(VLOOKUP(J16,ControlTable!$A:$A,1,0)),"없음",""))</f>
-        <v/>
-      </c>
-      <c r="M16" t="str">
-        <f>IF(ISBLANK(L16),"",IF(ISERROR(VLOOKUP(L16,CastingTable!$A:$A,1,0)),"없음",""))</f>
-        <v/>
-      </c>
-      <c r="O16" t="str">
-        <f>IF(ISBLANK(N16),"",IF(ISERROR(VLOOKUP(N16,SkillTable!$A:$A,1,0)),"없음",""))</f>
+      <c r="J16" t="str">
+        <f>IF(ISBLANK(I16),"",IF(ISERROR(VLOOKUP(I16,ControlTable!$A:$A,1,0)),"없음",""))</f>
+        <v/>
+      </c>
+      <c r="L16" t="str">
+        <f>IF(ISBLANK(K16),"",IF(ISERROR(VLOOKUP(K16,CastingTable!$A:$A,1,0)),"없음",""))</f>
+        <v/>
+      </c>
+      <c r="N16" t="str">
+        <f>IF(ISBLANK(M16),"",IF(ISERROR(VLOOKUP(M16,SkillTable!$A:$A,1,0)),"없음",""))</f>
         <v/>
       </c>
     </row>
   </sheetData>
-  <sortState ref="S2:U4">
-    <sortCondition descending="1" ref="U2:U4"/>
+  <sortState ref="R2:T4">
+    <sortCondition descending="1" ref="T2:T4"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="D2:D16 F2:F16" xr:uid="{9089C6B6-A03B-469A-BC47-88308B12ED20}">
-      <formula1>OFFSET(INDIRECT("$A$1"),1,MATCH(D$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1,COUNTA(OFFSET(INDIRECT("$A:$A"),0,MATCH(D$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1))-1,1)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="C2:C16 E2:E16" xr:uid="{9089C6B6-A03B-469A-BC47-88308B12ED20}">
+      <formula1>OFFSET(INDIRECT("$A$1"),1,MATCH(C$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1,COUNTA(OFFSET(INDIRECT("$A:$A"),0,MATCH(C$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1))-1,1)</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2195,7 +2099,7 @@
   <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -2217,28 +2121,28 @@
   <sheetData>
     <row r="1" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="B1" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C1" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="D1" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="E1" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="G1" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="I1" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="K1" t="str">
         <f ca="1">IF(OR(OFFSET(K1,1,0)&lt;OFFSET(K1,2,0),OFFSET(K1,2,0)&lt;OFFSET(K1,3,0),
@@ -2269,13 +2173,13 @@
         <v>len</v>
       </c>
       <c r="M1" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="O1" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="P1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="Q1" t="str">
         <f ca="1">IF(OR(OFFSET(Q1,1,0)&lt;OFFSET(Q1,2,0),OFFSET(Q1,2,0)&lt;OFFSET(Q1,3,0),
@@ -2308,10 +2212,10 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C2" t="str">
         <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
@@ -2341,7 +2245,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E2" t="str">
         <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
@@ -2371,10 +2275,10 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="J2">
         <v>4</v>
@@ -2384,10 +2288,10 @@
         <v>17</v>
       </c>
       <c r="M2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="O2" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="P2">
         <v>6</v>
@@ -2403,10 +2307,10 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C3" t="str">
         <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
@@ -2436,7 +2340,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E3" t="str">
         <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
@@ -2466,10 +2370,10 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="I3" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -2479,10 +2383,10 @@
         <v>16</v>
       </c>
       <c r="M3" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="O3" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="P3">
         <v>7</v>
@@ -2494,10 +2398,10 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C4" t="str">
         <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
@@ -2527,7 +2431,7 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E4" t="str">
         <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
@@ -2557,10 +2461,10 @@
         <v>4</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="I4" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="J4">
         <v>2</v>
@@ -2570,10 +2474,10 @@
         <v>16</v>
       </c>
       <c r="M4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="O4" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="P4">
         <v>4</v>
@@ -2585,10 +2489,10 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C5" t="str">
         <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
@@ -2618,7 +2522,7 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E5" t="str">
         <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
@@ -2648,10 +2552,10 @@
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="I5" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="J5">
         <v>3</v>
@@ -2661,10 +2565,10 @@
         <v>16</v>
       </c>
       <c r="M5" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="O5" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="P5">
         <v>5</v>
@@ -2676,10 +2580,10 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="G6" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="I6" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -2689,10 +2593,10 @@
         <v>4</v>
       </c>
       <c r="M6" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="O6" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -2704,10 +2608,10 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="M7" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="O7" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="P7">
         <v>1</v>
@@ -2719,10 +2623,10 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="M8" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="O8" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="P8">
         <v>3</v>
@@ -2734,10 +2638,10 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="M9" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="O9" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="P9">
         <v>2</v>
@@ -2784,40 +2688,40 @@
   <sheetData>
     <row r="1" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="B1" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="C1" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="D1" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="E1" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="F1" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G1" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H1" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="I1" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="K1" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="M1" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="N1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="O1" t="str">
         <f ca="1">IF(OR(OFFSET(O1,1,0)&lt;OFFSET(O1,2,0),OFFSET(O1,2,0)&lt;OFFSET(O1,3,0),
@@ -2850,10 +2754,10 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C2" t="str">
         <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
@@ -2883,7 +2787,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="E2">
         <v>5</v>
@@ -2901,10 +2805,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="M2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="N2">
         <v>3</v>
@@ -2920,10 +2824,10 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3:C5" ca="1" si="0">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
@@ -2953,7 +2857,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="E3">
         <v>6.5</v>
@@ -2971,10 +2875,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="M3" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="N3">
         <v>4</v>
@@ -2986,17 +2890,17 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="E4">
         <v>10</v>
@@ -3014,10 +2918,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="M4" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -3029,17 +2933,17 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="E5">
         <v>4.5</v>
@@ -3057,10 +2961,10 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="M5" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="N5">
         <v>2</v>
@@ -3072,10 +2976,10 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="K6" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="M6" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -3133,79 +3037,79 @@
   <sheetData>
     <row r="1" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="C2" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E2" s="2">
         <v>5</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="I2" s="2" t="str">
-        <f>IFERROR(IF(ISBLANK(G2),"",VLOOKUP(G2,[2]StringTable!$A:$B,2,0)),"스트링없음")</f>
+        <f>IFERROR(IF(ISBLANK(G2),"",VLOOKUP(G2,[1]StringTable!$A:$B,2,0)),"스트링없음")</f>
         <v>하트가 폭발한다</v>
       </c>
       <c r="J2" s="2" t="str">
-        <f>IFERROR(IF(ISBLANK(H2),"",VLOOKUP(H2,[2]StringTable!$A:$B,2,0)),"스트링없음")</f>
+        <f>IFERROR(IF(ISBLANK(H2),"",VLOOKUP(H2,[1]StringTable!$A:$B,2,0)),"스트링없음")</f>
         <v>대미지를 &lt;color=#FFFF00&gt;{0}%,{1}%,{2}%,{3}%&lt;/color&gt; 먹이고 적이 죽이면 하트를 반드시 떨어뜨린다
 적이 죽지 않으면 기절을 먹인다</v>
       </c>
@@ -3216,7 +3120,7 @@
       </c>
       <c r="L2" s="2" t="b">
         <f>IF(ISERROR(MATCH($A2,SkillLevelTable!$A:$A,0)),FALSE,
-IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A2,SkillLevelTable!$A:$A,0),MATCH(ActionTable!$H$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
+IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A2,SkillLevelTable!$A:$A,0),MATCH(ActionTable!$G$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
         <v>1</v>
       </c>
       <c r="M2" s="2" t="b">
@@ -3237,26 +3141,26 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="C3" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E3" s="2">
         <v>5</v>
       </c>
       <c r="I3" s="2" t="str">
-        <f>IFERROR(IF(ISBLANK(G3),"",VLOOKUP(G3,[2]StringTable!$A:$B,2,0)),"스트링없음")</f>
+        <f>IFERROR(IF(ISBLANK(G3),"",VLOOKUP(G3,[1]StringTable!$A:$B,2,0)),"스트링없음")</f>
         <v/>
       </c>
       <c r="J3" s="2" t="str">
-        <f>IFERROR(IF(ISBLANK(H3),"",VLOOKUP(H3,[2]StringTable!$A:$B,2,0)),"스트링없음")</f>
+        <f>IFERROR(IF(ISBLANK(H3),"",VLOOKUP(H3,[1]StringTable!$A:$B,2,0)),"스트링없음")</f>
         <v/>
       </c>
       <c r="K3" s="2" t="b">
@@ -3266,7 +3170,7 @@
       </c>
       <c r="L3" s="2" t="b">
         <f>IF(ISERROR(MATCH($A3,SkillLevelTable!$A:$A,0)),FALSE,
-IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A3,SkillLevelTable!$A:$A,0),MATCH(ActionTable!$H$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
+IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A3,SkillLevelTable!$A:$A,0),MATCH(ActionTable!$G$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
         <v>0</v>
       </c>
       <c r="M3" s="2" t="b">
@@ -3287,21 +3191,21 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="C4" s="2" t="b">
         <v>1</v>
       </c>
       <c r="F4"/>
       <c r="I4" s="2" t="str">
-        <f>IFERROR(IF(ISBLANK(G4),"",VLOOKUP(G4,[2]StringTable!$A:$B,2,0)),"스트링없음")</f>
+        <f>IFERROR(IF(ISBLANK(G4),"",VLOOKUP(G4,[1]StringTable!$A:$B,2,0)),"스트링없음")</f>
         <v/>
       </c>
       <c r="J4" s="2" t="str">
-        <f>IFERROR(IF(ISBLANK(H4),"",VLOOKUP(H4,[2]StringTable!$A:$B,2,0)),"스트링없음")</f>
+        <f>IFERROR(IF(ISBLANK(H4),"",VLOOKUP(H4,[1]StringTable!$A:$B,2,0)),"스트링없음")</f>
         <v/>
       </c>
       <c r="K4" s="2" t="b">
@@ -3311,7 +3215,7 @@
       </c>
       <c r="L4" s="2" t="b">
         <f>IF(ISERROR(MATCH($A4,SkillLevelTable!$A:$A,0)),FALSE,
-IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A4,SkillLevelTable!$A:$A,0),MATCH(ActionTable!$H$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
+IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A4,SkillLevelTable!$A:$A,0),MATCH(ActionTable!$G$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
         <v>0</v>
       </c>
       <c r="M4" s="2" t="b">
@@ -3332,26 +3236,26 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="C5" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E5" s="2">
         <v>5</v>
       </c>
       <c r="I5" s="2" t="str">
-        <f>IFERROR(IF(ISBLANK(G5),"",VLOOKUP(G5,[2]StringTable!$A:$B,2,0)),"스트링없음")</f>
+        <f>IFERROR(IF(ISBLANK(G5),"",VLOOKUP(G5,[1]StringTable!$A:$B,2,0)),"스트링없음")</f>
         <v/>
       </c>
       <c r="J5" s="2" t="str">
-        <f>IFERROR(IF(ISBLANK(H5),"",VLOOKUP(H5,[2]StringTable!$A:$B,2,0)),"스트링없음")</f>
+        <f>IFERROR(IF(ISBLANK(H5),"",VLOOKUP(H5,[1]StringTable!$A:$B,2,0)),"스트링없음")</f>
         <v/>
       </c>
       <c r="K5" s="2" t="b">
@@ -3361,7 +3265,7 @@
       </c>
       <c r="L5" s="2" t="b">
         <f>IF(ISERROR(MATCH($A5,SkillLevelTable!$A:$A,0)),FALSE,
-IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A5,SkillLevelTable!$A:$A,0),MATCH(ActionTable!$H$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
+IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A5,SkillLevelTable!$A:$A,0),MATCH(ActionTable!$G$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
         <v>0</v>
       </c>
       <c r="M5" s="2" t="b">
@@ -3382,26 +3286,26 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="C6" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="E6" s="2">
         <v>5</v>
       </c>
       <c r="I6" s="2" t="str">
-        <f>IFERROR(IF(ISBLANK(G6),"",VLOOKUP(G6,[2]StringTable!$A:$B,2,0)),"스트링없음")</f>
+        <f>IFERROR(IF(ISBLANK(G6),"",VLOOKUP(G6,[1]StringTable!$A:$B,2,0)),"스트링없음")</f>
         <v/>
       </c>
       <c r="J6" s="2" t="str">
-        <f>IFERROR(IF(ISBLANK(H6),"",VLOOKUP(H6,[2]StringTable!$A:$B,2,0)),"스트링없음")</f>
+        <f>IFERROR(IF(ISBLANK(H6),"",VLOOKUP(H6,[1]StringTable!$A:$B,2,0)),"스트링없음")</f>
         <v/>
       </c>
       <c r="K6" s="2" t="b">
@@ -3411,7 +3315,7 @@
       </c>
       <c r="L6" s="2" t="b">
         <f>IF(ISERROR(MATCH($A6,SkillLevelTable!$A:$A,0)),FALSE,
-IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A6,SkillLevelTable!$A:$A,0),MATCH(ActionTable!$H$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
+IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A6,SkillLevelTable!$A:$A,0),MATCH(ActionTable!$G$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
         <v>0</v>
       </c>
       <c r="M6" s="2" t="b">
@@ -3432,20 +3336,20 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="C7" s="2" t="b">
         <v>1</v>
       </c>
       <c r="I7" s="2" t="str">
-        <f>IFERROR(IF(ISBLANK(G7),"",VLOOKUP(G7,[2]StringTable!$A:$B,2,0)),"스트링없음")</f>
+        <f>IFERROR(IF(ISBLANK(G7),"",VLOOKUP(G7,[1]StringTable!$A:$B,2,0)),"스트링없음")</f>
         <v/>
       </c>
       <c r="J7" s="2" t="str">
-        <f>IFERROR(IF(ISBLANK(H7),"",VLOOKUP(H7,[2]StringTable!$A:$B,2,0)),"스트링없음")</f>
+        <f>IFERROR(IF(ISBLANK(H7),"",VLOOKUP(H7,[1]StringTable!$A:$B,2,0)),"스트링없음")</f>
         <v/>
       </c>
       <c r="K7" s="2" t="b">
@@ -3455,7 +3359,7 @@
       </c>
       <c r="L7" s="2" t="b">
         <f>IF(ISERROR(MATCH($A7,SkillLevelTable!$A:$A,0)),FALSE,
-IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A7,SkillLevelTable!$A:$A,0),MATCH(ActionTable!$H$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
+IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A7,SkillLevelTable!$A:$A,0),MATCH(ActionTable!$G$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
         <v>0</v>
       </c>
       <c r="M7" s="2" t="b">
@@ -3520,105 +3424,105 @@
   <sheetData>
     <row r="1" spans="1:32" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B1" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="C1" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="D1" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="E1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F1" t="s">
         <v>131</v>
       </c>
-      <c r="F1" t="s">
-        <v>147</v>
-      </c>
       <c r="G1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="K1" t="s">
+        <v>116</v>
+      </c>
+      <c r="L1" t="s">
+        <v>119</v>
+      </c>
+      <c r="M1" t="s">
+        <v>121</v>
+      </c>
+      <c r="N1" t="s">
+        <v>122</v>
+      </c>
+      <c r="O1" t="s">
+        <v>123</v>
+      </c>
+      <c r="P1" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>125</v>
+      </c>
+      <c r="R1" t="s">
+        <v>126</v>
+      </c>
+      <c r="S1" t="s">
+        <v>127</v>
+      </c>
+      <c r="T1" t="s">
+        <v>121</v>
+      </c>
+      <c r="U1" t="s">
+        <v>122</v>
+      </c>
+      <c r="V1" t="s">
+        <v>123</v>
+      </c>
+      <c r="W1" t="s">
+        <v>124</v>
+      </c>
+      <c r="X1" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z1" t="s">
         <v>128</v>
       </c>
-      <c r="H1" t="s">
-        <v>127</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="K1" t="s">
-        <v>132</v>
-      </c>
-      <c r="L1" t="s">
-        <v>135</v>
-      </c>
-      <c r="M1" t="s">
-        <v>137</v>
-      </c>
-      <c r="N1" t="s">
-        <v>138</v>
-      </c>
-      <c r="O1" t="s">
-        <v>139</v>
-      </c>
-      <c r="P1" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>141</v>
-      </c>
-      <c r="R1" t="s">
-        <v>142</v>
-      </c>
-      <c r="S1" t="s">
-        <v>143</v>
-      </c>
-      <c r="T1" t="s">
-        <v>137</v>
-      </c>
-      <c r="U1" t="s">
-        <v>138</v>
-      </c>
-      <c r="V1" t="s">
-        <v>139</v>
-      </c>
-      <c r="W1" t="s">
-        <v>140</v>
-      </c>
-      <c r="X1" t="s">
-        <v>141</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>142</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>144</v>
-      </c>
       <c r="AA1" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="AB1" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="AC1" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="AD1" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="AE1" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="AF1" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -3627,7 +3531,7 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F2" s="1" t="str">
         <f>IF(ISBLANK(VLOOKUP($A2,SkillTable!$1:$1048576,MATCH(SkillTable!$F$1,SkillTable!$1:$1,0),0)),"",VLOOKUP($A2,SkillTable!$1:$1048576,MATCH(SkillTable!$F$1,SkillTable!$1:$1,0),0))</f>
@@ -3635,59 +3539,59 @@
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="2" t="str">
-        <f>IFERROR(IF(ISBLANK(G2),"",VLOOKUP(G2,[2]StringTable!$A:$B,2,0)),"스트링없음")</f>
+        <f>IFERROR(IF(ISBLANK(G2),"",VLOOKUP(G2,[1]StringTable!$A:$B,2,0)),"스트링없음")</f>
         <v/>
       </c>
       <c r="J2" s="2" t="str">
-        <f>IFERROR(IF(ISBLANK(H2),"",VLOOKUP(H2,[2]StringTable!$A:$B,2,0)),"스트링없음")</f>
+        <f>IFERROR(IF(ISBLANK(H2),"",VLOOKUP(H2,[1]StringTable!$A:$B,2,0)),"스트링없음")</f>
         <v/>
       </c>
       <c r="K2" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="L2" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="M2">
-        <f>IFERROR(IF(ISBLANK($L2),"",VLOOKUP($L2&amp;TEXT($B2,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(M$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($L2),"",VLOOKUP($L2&amp;TEXT($B2,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(M$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v>1</v>
       </c>
       <c r="N2">
-        <f>IFERROR(IF(ISBLANK($L2),"",VLOOKUP($L2&amp;TEXT($B2,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(N$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($L2),"",VLOOKUP($L2&amp;TEXT($B2,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(N$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v>1</v>
       </c>
       <c r="O2" t="str">
-        <f>IFERROR(IF(ISBLANK($L2),"",VLOOKUP($L2&amp;TEXT($B2,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(O$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($L2),"",VLOOKUP($L2&amp;TEXT($B2,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(O$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v>0.4,0.5,0.6</v>
       </c>
       <c r="T2" t="str">
-        <f>IFERROR(IF(ISBLANK($S2),"",VLOOKUP($S2&amp;TEXT($B2,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(T$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($S2),"",VLOOKUP($S2&amp;TEXT($B2,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(T$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
       <c r="U2" t="str">
-        <f>IFERROR(IF(ISBLANK($S2),"",VLOOKUP($S2&amp;TEXT($B2,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(U$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($S2),"",VLOOKUP($S2&amp;TEXT($B2,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(U$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
       <c r="V2" t="str">
-        <f>IFERROR(IF(ISBLANK($S2),"",VLOOKUP($S2&amp;TEXT($B2,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(V$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($S2),"",VLOOKUP($S2&amp;TEXT($B2,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(V$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
       <c r="AA2" t="str">
-        <f>IFERROR(IF(ISBLANK($Z2),"",VLOOKUP($Z2&amp;TEXT($B2,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AA$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($Z2),"",VLOOKUP($Z2&amp;TEXT($B2,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(AA$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
       <c r="AB2" t="str">
-        <f>IFERROR(IF(ISBLANK($Z2),"",VLOOKUP($Z2&amp;TEXT($B2,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AB$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($Z2),"",VLOOKUP($Z2&amp;TEXT($B2,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(AB$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
       <c r="AC2" t="str">
-        <f>IFERROR(IF(ISBLANK($Z2),"",VLOOKUP($Z2&amp;TEXT($B2,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AC$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($Z2),"",VLOOKUP($Z2&amp;TEXT($B2,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(AC$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -3696,7 +3600,7 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="F3" s="1" t="str">
         <f>IF(ISBLANK(VLOOKUP($A3,SkillTable!$1:$1048576,MATCH(SkillTable!$F$1,SkillTable!$1:$1,0),0)),"",VLOOKUP($A3,SkillTable!$1:$1048576,MATCH(SkillTable!$F$1,SkillTable!$1:$1,0),0))</f>
@@ -3704,48 +3608,48 @@
       </c>
       <c r="H3" s="1"/>
       <c r="K3" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="M3" t="str">
-        <f>IFERROR(IF(ISBLANK($L3),"",VLOOKUP($L3&amp;TEXT($B3,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(M$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($L3),"",VLOOKUP($L3&amp;TEXT($B3,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(M$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
       <c r="N3" t="str">
-        <f>IFERROR(IF(ISBLANK($L3),"",VLOOKUP($L3&amp;TEXT($B3,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(N$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($L3),"",VLOOKUP($L3&amp;TEXT($B3,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(N$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
       <c r="O3" t="str">
-        <f>IFERROR(IF(ISBLANK($L3),"",VLOOKUP($L3&amp;TEXT($B3,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(O$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($L3),"",VLOOKUP($L3&amp;TEXT($B3,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(O$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
       <c r="T3" t="str">
-        <f>IFERROR(IF(ISBLANK($S3),"",VLOOKUP($S3&amp;TEXT($B3,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(T$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($S3),"",VLOOKUP($S3&amp;TEXT($B3,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(T$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
       <c r="U3" t="str">
-        <f>IFERROR(IF(ISBLANK($S3),"",VLOOKUP($S3&amp;TEXT($B3,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(U$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($S3),"",VLOOKUP($S3&amp;TEXT($B3,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(U$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
       <c r="V3" t="str">
-        <f>IFERROR(IF(ISBLANK($S3),"",VLOOKUP($S3&amp;TEXT($B3,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(V$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($S3),"",VLOOKUP($S3&amp;TEXT($B3,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(V$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
       <c r="AA3" t="str">
-        <f>IFERROR(IF(ISBLANK($Z3),"",VLOOKUP($Z3&amp;TEXT($B3,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AA$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($Z3),"",VLOOKUP($Z3&amp;TEXT($B3,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(AA$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
       <c r="AB3" t="str">
-        <f>IFERROR(IF(ISBLANK($Z3),"",VLOOKUP($Z3&amp;TEXT($B3,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AB$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($Z3),"",VLOOKUP($Z3&amp;TEXT($B3,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(AB$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
       <c r="AC3" t="str">
-        <f>IFERROR(IF(ISBLANK($Z3),"",VLOOKUP($Z3&amp;TEXT($B3,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AC$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($Z3),"",VLOOKUP($Z3&amp;TEXT($B3,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(AC$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -3754,7 +3658,7 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="F4" s="1" t="str">
         <f>IF(ISBLANK(VLOOKUP($A4,SkillTable!$1:$1048576,MATCH(SkillTable!$F$1,SkillTable!$1:$1,0),0)),"",VLOOKUP($A4,SkillTable!$1:$1048576,MATCH(SkillTable!$F$1,SkillTable!$1:$1,0),0))</f>
@@ -3762,48 +3666,48 @@
       </c>
       <c r="H4" s="1"/>
       <c r="K4" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="M4" t="str">
-        <f>IFERROR(IF(ISBLANK($L4),"",VLOOKUP($L4&amp;TEXT($B4,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(M$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($L4),"",VLOOKUP($L4&amp;TEXT($B4,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(M$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
       <c r="N4" t="str">
-        <f>IFERROR(IF(ISBLANK($L4),"",VLOOKUP($L4&amp;TEXT($B4,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(N$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($L4),"",VLOOKUP($L4&amp;TEXT($B4,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(N$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
       <c r="O4" t="str">
-        <f>IFERROR(IF(ISBLANK($L4),"",VLOOKUP($L4&amp;TEXT($B4,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(O$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($L4),"",VLOOKUP($L4&amp;TEXT($B4,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(O$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
       <c r="T4" t="str">
-        <f>IFERROR(IF(ISBLANK($S4),"",VLOOKUP($S4&amp;TEXT($B4,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(T$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($S4),"",VLOOKUP($S4&amp;TEXT($B4,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(T$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
       <c r="U4" t="str">
-        <f>IFERROR(IF(ISBLANK($S4),"",VLOOKUP($S4&amp;TEXT($B4,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(U$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($S4),"",VLOOKUP($S4&amp;TEXT($B4,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(U$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
       <c r="V4" t="str">
-        <f>IFERROR(IF(ISBLANK($S4),"",VLOOKUP($S4&amp;TEXT($B4,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(V$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($S4),"",VLOOKUP($S4&amp;TEXT($B4,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(V$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
       <c r="AA4" t="str">
-        <f>IFERROR(IF(ISBLANK($Z4),"",VLOOKUP($Z4&amp;TEXT($B4,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AA$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($Z4),"",VLOOKUP($Z4&amp;TEXT($B4,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(AA$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
       <c r="AB4" t="str">
-        <f>IFERROR(IF(ISBLANK($Z4),"",VLOOKUP($Z4&amp;TEXT($B4,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AB$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($Z4),"",VLOOKUP($Z4&amp;TEXT($B4,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(AB$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
       <c r="AC4" t="str">
-        <f>IFERROR(IF(ISBLANK($Z4),"",VLOOKUP($Z4&amp;TEXT($B4,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AC$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($Z4),"",VLOOKUP($Z4&amp;TEXT($B4,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(AC$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -3812,7 +3716,7 @@
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="F5" s="1" t="str">
         <f>IF(ISBLANK(VLOOKUP($A5,SkillTable!$1:$1048576,MATCH(SkillTable!$F$1,SkillTable!$1:$1,0),0)),"",VLOOKUP($A5,SkillTable!$1:$1048576,MATCH(SkillTable!$F$1,SkillTable!$1:$1,0),0))</f>
@@ -3820,48 +3724,48 @@
       </c>
       <c r="H5" s="1"/>
       <c r="K5" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="M5" t="str">
-        <f>IFERROR(IF(ISBLANK($L5),"",VLOOKUP($L5&amp;TEXT($B5,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(M$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($L5),"",VLOOKUP($L5&amp;TEXT($B5,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(M$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
       <c r="N5" t="str">
-        <f>IFERROR(IF(ISBLANK($L5),"",VLOOKUP($L5&amp;TEXT($B5,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(N$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($L5),"",VLOOKUP($L5&amp;TEXT($B5,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(N$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
       <c r="O5" t="str">
-        <f>IFERROR(IF(ISBLANK($L5),"",VLOOKUP($L5&amp;TEXT($B5,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(O$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($L5),"",VLOOKUP($L5&amp;TEXT($B5,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(O$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
       <c r="T5" t="str">
-        <f>IFERROR(IF(ISBLANK($S5),"",VLOOKUP($S5&amp;TEXT($B5,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(T$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($S5),"",VLOOKUP($S5&amp;TEXT($B5,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(T$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
       <c r="U5" t="str">
-        <f>IFERROR(IF(ISBLANK($S5),"",VLOOKUP($S5&amp;TEXT($B5,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(U$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($S5),"",VLOOKUP($S5&amp;TEXT($B5,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(U$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
       <c r="V5" t="str">
-        <f>IFERROR(IF(ISBLANK($S5),"",VLOOKUP($S5&amp;TEXT($B5,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(V$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($S5),"",VLOOKUP($S5&amp;TEXT($B5,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(V$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
       <c r="AA5" t="str">
-        <f>IFERROR(IF(ISBLANK($Z5),"",VLOOKUP($Z5&amp;TEXT($B5,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AA$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($Z5),"",VLOOKUP($Z5&amp;TEXT($B5,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(AA$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
       <c r="AB5" t="str">
-        <f>IFERROR(IF(ISBLANK($Z5),"",VLOOKUP($Z5&amp;TEXT($B5,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AB$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($Z5),"",VLOOKUP($Z5&amp;TEXT($B5,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(AB$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
       <c r="AC5" t="str">
-        <f>IFERROR(IF(ISBLANK($Z5),"",VLOOKUP($Z5&amp;TEXT($B5,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AC$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($Z5),"",VLOOKUP($Z5&amp;TEXT($B5,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(AC$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -3870,7 +3774,7 @@
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="F6" s="1" t="str">
         <f>IF(ISBLANK(VLOOKUP($A6,SkillTable!$1:$1048576,MATCH(SkillTable!$F$1,SkillTable!$1:$1,0),0)),"",VLOOKUP($A6,SkillTable!$1:$1048576,MATCH(SkillTable!$F$1,SkillTable!$1:$1,0),0))</f>
@@ -3878,48 +3782,48 @@
       </c>
       <c r="H6" s="1"/>
       <c r="K6" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="M6" t="str">
-        <f>IFERROR(IF(ISBLANK($L6),"",VLOOKUP($L6&amp;TEXT($B6,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(M$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($L6),"",VLOOKUP($L6&amp;TEXT($B6,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(M$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
       <c r="N6" t="str">
-        <f>IFERROR(IF(ISBLANK($L6),"",VLOOKUP($L6&amp;TEXT($B6,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(N$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($L6),"",VLOOKUP($L6&amp;TEXT($B6,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(N$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
       <c r="O6" t="str">
-        <f>IFERROR(IF(ISBLANK($L6),"",VLOOKUP($L6&amp;TEXT($B6,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(O$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($L6),"",VLOOKUP($L6&amp;TEXT($B6,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(O$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
       <c r="T6" t="str">
-        <f>IFERROR(IF(ISBLANK($S6),"",VLOOKUP($S6&amp;TEXT($B6,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(T$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($S6),"",VLOOKUP($S6&amp;TEXT($B6,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(T$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
       <c r="U6" t="str">
-        <f>IFERROR(IF(ISBLANK($S6),"",VLOOKUP($S6&amp;TEXT($B6,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(U$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($S6),"",VLOOKUP($S6&amp;TEXT($B6,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(U$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
       <c r="V6" t="str">
-        <f>IFERROR(IF(ISBLANK($S6),"",VLOOKUP($S6&amp;TEXT($B6,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(V$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($S6),"",VLOOKUP($S6&amp;TEXT($B6,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(V$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
       <c r="AA6" t="str">
-        <f>IFERROR(IF(ISBLANK($Z6),"",VLOOKUP($Z6&amp;TEXT($B6,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AA$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($Z6),"",VLOOKUP($Z6&amp;TEXT($B6,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(AA$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
       <c r="AB6" t="str">
-        <f>IFERROR(IF(ISBLANK($Z6),"",VLOOKUP($Z6&amp;TEXT($B6,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AB$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($Z6),"",VLOOKUP($Z6&amp;TEXT($B6,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(AB$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
       <c r="AC6" t="str">
-        <f>IFERROR(IF(ISBLANK($Z6),"",VLOOKUP($Z6&amp;TEXT($B6,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AC$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($Z6),"",VLOOKUP($Z6&amp;TEXT($B6,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(AC$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -3929,45 +3833,45 @@
         <v/>
       </c>
       <c r="M7" t="str">
-        <f>IFERROR(IF(ISBLANK($L7),"",VLOOKUP($L7&amp;TEXT($B7,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(M$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($L7),"",VLOOKUP($L7&amp;TEXT($B7,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(M$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
       <c r="N7" t="str">
-        <f>IFERROR(IF(ISBLANK($L7),"",VLOOKUP($L7&amp;TEXT($B7,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(N$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($L7),"",VLOOKUP($L7&amp;TEXT($B7,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(N$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
       <c r="O7" t="str">
-        <f>IFERROR(IF(ISBLANK($L7),"",VLOOKUP($L7&amp;TEXT($B7,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(O$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($L7),"",VLOOKUP($L7&amp;TEXT($B7,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(O$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
       <c r="T7" t="str">
-        <f>IFERROR(IF(ISBLANK($S7),"",VLOOKUP($S7&amp;TEXT($B7,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(T$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($S7),"",VLOOKUP($S7&amp;TEXT($B7,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(T$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
       <c r="U7" t="str">
-        <f>IFERROR(IF(ISBLANK($S7),"",VLOOKUP($S7&amp;TEXT($B7,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(U$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($S7),"",VLOOKUP($S7&amp;TEXT($B7,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(U$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
       <c r="V7" t="str">
-        <f>IFERROR(IF(ISBLANK($S7),"",VLOOKUP($S7&amp;TEXT($B7,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(V$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($S7),"",VLOOKUP($S7&amp;TEXT($B7,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(V$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
       <c r="AA7" t="str">
-        <f>IFERROR(IF(ISBLANK($Z7),"",VLOOKUP($Z7&amp;TEXT($B7,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AA$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($Z7),"",VLOOKUP($Z7&amp;TEXT($B7,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(AA$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
       <c r="AB7" t="str">
-        <f>IFERROR(IF(ISBLANK($Z7),"",VLOOKUP($Z7&amp;TEXT($B7,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AB$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($Z7),"",VLOOKUP($Z7&amp;TEXT($B7,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(AB$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
       <c r="AC7" t="str">
-        <f>IFERROR(IF(ISBLANK($Z7),"",VLOOKUP($Z7&amp;TEXT($B7,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AC$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($Z7),"",VLOOKUP($Z7&amp;TEXT($B7,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(AC$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -3977,45 +3881,45 @@
         <v/>
       </c>
       <c r="M8" t="str">
-        <f>IFERROR(IF(ISBLANK($L8),"",VLOOKUP($L8&amp;TEXT($B8,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(M$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($L8),"",VLOOKUP($L8&amp;TEXT($B8,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(M$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
       <c r="N8" t="str">
-        <f>IFERROR(IF(ISBLANK($L8),"",VLOOKUP($L8&amp;TEXT($B8,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(N$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($L8),"",VLOOKUP($L8&amp;TEXT($B8,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(N$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
       <c r="O8" t="str">
-        <f>IFERROR(IF(ISBLANK($L8),"",VLOOKUP($L8&amp;TEXT($B8,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(O$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($L8),"",VLOOKUP($L8&amp;TEXT($B8,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(O$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
       <c r="T8" t="str">
-        <f>IFERROR(IF(ISBLANK($S8),"",VLOOKUP($S8&amp;TEXT($B8,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(T$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($S8),"",VLOOKUP($S8&amp;TEXT($B8,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(T$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
       <c r="U8" t="str">
-        <f>IFERROR(IF(ISBLANK($S8),"",VLOOKUP($S8&amp;TEXT($B8,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(U$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($S8),"",VLOOKUP($S8&amp;TEXT($B8,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(U$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
       <c r="V8" t="str">
-        <f>IFERROR(IF(ISBLANK($S8),"",VLOOKUP($S8&amp;TEXT($B8,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(V$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($S8),"",VLOOKUP($S8&amp;TEXT($B8,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(V$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
       <c r="AA8" t="str">
-        <f>IFERROR(IF(ISBLANK($Z8),"",VLOOKUP($Z8&amp;TEXT($B8,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AA$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($Z8),"",VLOOKUP($Z8&amp;TEXT($B8,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(AA$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
       <c r="AB8" t="str">
-        <f>IFERROR(IF(ISBLANK($Z8),"",VLOOKUP($Z8&amp;TEXT($B8,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AB$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($Z8),"",VLOOKUP($Z8&amp;TEXT($B8,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(AB$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
       <c r="AC8" t="str">
-        <f>IFERROR(IF(ISBLANK($Z8),"",VLOOKUP($Z8&amp;TEXT($B8,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AC$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($Z8),"",VLOOKUP($Z8&amp;TEXT($B8,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(AC$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>3</v>
@@ -4025,45 +3929,45 @@
         <v/>
       </c>
       <c r="M9" t="str">
-        <f>IFERROR(IF(ISBLANK($L9),"",VLOOKUP($L9&amp;TEXT($B9,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(M$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($L9),"",VLOOKUP($L9&amp;TEXT($B9,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(M$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
       <c r="N9" t="str">
-        <f>IFERROR(IF(ISBLANK($L9),"",VLOOKUP($L9&amp;TEXT($B9,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(N$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($L9),"",VLOOKUP($L9&amp;TEXT($B9,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(N$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
       <c r="O9" t="str">
-        <f>IFERROR(IF(ISBLANK($L9),"",VLOOKUP($L9&amp;TEXT($B9,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(O$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($L9),"",VLOOKUP($L9&amp;TEXT($B9,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(O$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
       <c r="T9" t="str">
-        <f>IFERROR(IF(ISBLANK($S9),"",VLOOKUP($S9&amp;TEXT($B9,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(T$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($S9),"",VLOOKUP($S9&amp;TEXT($B9,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(T$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
       <c r="U9" t="str">
-        <f>IFERROR(IF(ISBLANK($S9),"",VLOOKUP($S9&amp;TEXT($B9,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(U$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($S9),"",VLOOKUP($S9&amp;TEXT($B9,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(U$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
       <c r="V9" t="str">
-        <f>IFERROR(IF(ISBLANK($S9),"",VLOOKUP($S9&amp;TEXT($B9,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(V$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($S9),"",VLOOKUP($S9&amp;TEXT($B9,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(V$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
       <c r="AA9" t="str">
-        <f>IFERROR(IF(ISBLANK($Z9),"",VLOOKUP($Z9&amp;TEXT($B9,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AA$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($Z9),"",VLOOKUP($Z9&amp;TEXT($B9,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(AA$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
       <c r="AB9" t="str">
-        <f>IFERROR(IF(ISBLANK($Z9),"",VLOOKUP($Z9&amp;TEXT($B9,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AB$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($Z9),"",VLOOKUP($Z9&amp;TEXT($B9,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(AB$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
       <c r="AC9" t="str">
-        <f>IFERROR(IF(ISBLANK($Z9),"",VLOOKUP($Z9&amp;TEXT($B9,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AC$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($Z9),"",VLOOKUP($Z9&amp;TEXT($B9,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(AC$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>4</v>
@@ -4073,45 +3977,45 @@
         <v/>
       </c>
       <c r="M10" t="str">
-        <f>IFERROR(IF(ISBLANK($L10),"",VLOOKUP($L10&amp;TEXT($B10,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(M$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($L10),"",VLOOKUP($L10&amp;TEXT($B10,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(M$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
       <c r="N10" t="str">
-        <f>IFERROR(IF(ISBLANK($L10),"",VLOOKUP($L10&amp;TEXT($B10,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(N$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($L10),"",VLOOKUP($L10&amp;TEXT($B10,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(N$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
       <c r="O10" t="str">
-        <f>IFERROR(IF(ISBLANK($L10),"",VLOOKUP($L10&amp;TEXT($B10,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(O$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($L10),"",VLOOKUP($L10&amp;TEXT($B10,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(O$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
       <c r="T10" t="str">
-        <f>IFERROR(IF(ISBLANK($S10),"",VLOOKUP($S10&amp;TEXT($B10,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(T$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($S10),"",VLOOKUP($S10&amp;TEXT($B10,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(T$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
       <c r="U10" t="str">
-        <f>IFERROR(IF(ISBLANK($S10),"",VLOOKUP($S10&amp;TEXT($B10,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(U$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($S10),"",VLOOKUP($S10&amp;TEXT($B10,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(U$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
       <c r="V10" t="str">
-        <f>IFERROR(IF(ISBLANK($S10),"",VLOOKUP($S10&amp;TEXT($B10,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(V$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($S10),"",VLOOKUP($S10&amp;TEXT($B10,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(V$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
       <c r="AA10" t="str">
-        <f>IFERROR(IF(ISBLANK($Z10),"",VLOOKUP($Z10&amp;TEXT($B10,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AA$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($Z10),"",VLOOKUP($Z10&amp;TEXT($B10,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(AA$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
       <c r="AB10" t="str">
-        <f>IFERROR(IF(ISBLANK($Z10),"",VLOOKUP($Z10&amp;TEXT($B10,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AB$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($Z10),"",VLOOKUP($Z10&amp;TEXT($B10,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(AB$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
       <c r="AC10" t="str">
-        <f>IFERROR(IF(ISBLANK($Z10),"",VLOOKUP($Z10&amp;TEXT($B10,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AC$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($Z10),"",VLOOKUP($Z10&amp;TEXT($B10,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(AC$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B11">
         <v>5</v>
@@ -4121,51 +4025,51 @@
         <v/>
       </c>
       <c r="M11" t="str">
-        <f>IFERROR(IF(ISBLANK($L11),"",VLOOKUP($L11&amp;TEXT($B11,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(M$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($L11),"",VLOOKUP($L11&amp;TEXT($B11,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(M$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
       <c r="N11" t="str">
-        <f>IFERROR(IF(ISBLANK($L11),"",VLOOKUP($L11&amp;TEXT($B11,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(N$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($L11),"",VLOOKUP($L11&amp;TEXT($B11,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(N$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
       <c r="O11" t="str">
-        <f>IFERROR(IF(ISBLANK($L11),"",VLOOKUP($L11&amp;TEXT($B11,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(O$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($L11),"",VLOOKUP($L11&amp;TEXT($B11,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(O$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
       <c r="T11" t="str">
-        <f>IFERROR(IF(ISBLANK($S11),"",VLOOKUP($S11&amp;TEXT($B11,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(T$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($S11),"",VLOOKUP($S11&amp;TEXT($B11,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(T$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
       <c r="U11" t="str">
-        <f>IFERROR(IF(ISBLANK($S11),"",VLOOKUP($S11&amp;TEXT($B11,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(U$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($S11),"",VLOOKUP($S11&amp;TEXT($B11,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(U$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
       <c r="V11" t="str">
-        <f>IFERROR(IF(ISBLANK($S11),"",VLOOKUP($S11&amp;TEXT($B11,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(V$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($S11),"",VLOOKUP($S11&amp;TEXT($B11,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(V$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
       <c r="AA11" t="str">
-        <f>IFERROR(IF(ISBLANK($Z11),"",VLOOKUP($Z11&amp;TEXT($B11,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AA$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($Z11),"",VLOOKUP($Z11&amp;TEXT($B11,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(AA$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
       <c r="AB11" t="str">
-        <f>IFERROR(IF(ISBLANK($Z11),"",VLOOKUP($Z11&amp;TEXT($B11,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AB$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($Z11),"",VLOOKUP($Z11&amp;TEXT($B11,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(AB$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
       <c r="AC11" t="str">
-        <f>IFERROR(IF(ISBLANK($Z11),"",VLOOKUP($Z11&amp;TEXT($B11,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AC$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($Z11),"",VLOOKUP($Z11&amp;TEXT($B11,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(AC$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="F12" s="1" t="str">
         <f>IF(ISBLANK(VLOOKUP($A12,SkillTable!$1:$1048576,MATCH(SkillTable!$F$1,SkillTable!$1:$1,0),0)),"",VLOOKUP($A12,SkillTable!$1:$1048576,MATCH(SkillTable!$F$1,SkillTable!$1:$1,0),0))</f>
@@ -4176,243 +4080,243 @@
         <v>AtkUpBuff001</v>
       </c>
       <c r="M12" t="str">
-        <f>IFERROR(IF(ISBLANK($L12),"",VLOOKUP($L12&amp;TEXT($B12,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(M$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($L12),"",VLOOKUP($L12&amp;TEXT($B12,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(M$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v>어펙터밸류 없음</v>
       </c>
       <c r="N12" t="str">
-        <f>IFERROR(IF(ISBLANK($L12),"",VLOOKUP($L12&amp;TEXT($B12,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(N$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($L12),"",VLOOKUP($L12&amp;TEXT($B12,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(N$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v>어펙터밸류 없음</v>
       </c>
       <c r="O12" t="str">
-        <f>IFERROR(IF(ISBLANK($L12),"",VLOOKUP($L12&amp;TEXT($B12,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(O$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($L12),"",VLOOKUP($L12&amp;TEXT($B12,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(O$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v>어펙터밸류 없음</v>
       </c>
       <c r="T12" t="str">
-        <f>IFERROR(IF(ISBLANK($S12),"",VLOOKUP($S12&amp;TEXT($B12,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(T$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($S12),"",VLOOKUP($S12&amp;TEXT($B12,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(T$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
       <c r="U12" t="str">
-        <f>IFERROR(IF(ISBLANK($S12),"",VLOOKUP($S12&amp;TEXT($B12,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(U$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($S12),"",VLOOKUP($S12&amp;TEXT($B12,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(U$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
       <c r="V12" t="str">
-        <f>IFERROR(IF(ISBLANK($S12),"",VLOOKUP($S12&amp;TEXT($B12,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(V$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($S12),"",VLOOKUP($S12&amp;TEXT($B12,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(V$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
       <c r="AA12" t="str">
-        <f>IFERROR(IF(ISBLANK($Z12),"",VLOOKUP($Z12&amp;TEXT($B12,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AA$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($Z12),"",VLOOKUP($Z12&amp;TEXT($B12,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(AA$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
       <c r="AB12" t="str">
-        <f>IFERROR(IF(ISBLANK($Z12),"",VLOOKUP($Z12&amp;TEXT($B12,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AB$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($Z12),"",VLOOKUP($Z12&amp;TEXT($B12,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(AB$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
       <c r="AC12" t="str">
-        <f>IFERROR(IF(ISBLANK($Z12),"",VLOOKUP($Z12&amp;TEXT($B12,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AC$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($Z12),"",VLOOKUP($Z12&amp;TEXT($B12,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(AC$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="F13" s="1" t="str">
         <f>IF(ISBLANK(VLOOKUP($A13,SkillTable!$1:$1048576,MATCH(SkillTable!$F$1,SkillTable!$1:$1,0),0)),"",VLOOKUP($A13,SkillTable!$1:$1048576,MATCH(SkillTable!$F$1,SkillTable!$1:$1,0),0))</f>
         <v/>
       </c>
       <c r="M13" t="str">
-        <f>IFERROR(IF(ISBLANK($L13),"",VLOOKUP($L13&amp;TEXT($B13,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(M$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($L13),"",VLOOKUP($L13&amp;TEXT($B13,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(M$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
       <c r="N13" t="str">
-        <f>IFERROR(IF(ISBLANK($L13),"",VLOOKUP($L13&amp;TEXT($B13,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(N$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($L13),"",VLOOKUP($L13&amp;TEXT($B13,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(N$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
       <c r="O13" t="str">
-        <f>IFERROR(IF(ISBLANK($L13),"",VLOOKUP($L13&amp;TEXT($B13,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(O$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($L13),"",VLOOKUP($L13&amp;TEXT($B13,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(O$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
       <c r="T13" t="str">
-        <f>IFERROR(IF(ISBLANK($S13),"",VLOOKUP($S13&amp;TEXT($B13,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(T$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($S13),"",VLOOKUP($S13&amp;TEXT($B13,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(T$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
       <c r="U13" t="str">
-        <f>IFERROR(IF(ISBLANK($S13),"",VLOOKUP($S13&amp;TEXT($B13,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(U$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($S13),"",VLOOKUP($S13&amp;TEXT($B13,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(U$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
       <c r="V13" t="str">
-        <f>IFERROR(IF(ISBLANK($S13),"",VLOOKUP($S13&amp;TEXT($B13,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(V$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($S13),"",VLOOKUP($S13&amp;TEXT($B13,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(V$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
       <c r="AA13" t="str">
-        <f>IFERROR(IF(ISBLANK($Z13),"",VLOOKUP($Z13&amp;TEXT($B13,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AA$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($Z13),"",VLOOKUP($Z13&amp;TEXT($B13,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(AA$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
       <c r="AB13" t="str">
-        <f>IFERROR(IF(ISBLANK($Z13),"",VLOOKUP($Z13&amp;TEXT($B13,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AB$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($Z13),"",VLOOKUP($Z13&amp;TEXT($B13,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(AB$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
       <c r="AC13" t="str">
-        <f>IFERROR(IF(ISBLANK($Z13),"",VLOOKUP($Z13&amp;TEXT($B13,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AC$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($Z13),"",VLOOKUP($Z13&amp;TEXT($B13,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(AC$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B14">
         <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="F14" s="1" t="str">
         <f>IF(ISBLANK(VLOOKUP($A14,SkillTable!$1:$1048576,MATCH(SkillTable!$F$1,SkillTable!$1:$1,0),0)),"",VLOOKUP($A14,SkillTable!$1:$1048576,MATCH(SkillTable!$F$1,SkillTable!$1:$1,0),0))</f>
         <v/>
       </c>
       <c r="M14" t="str">
-        <f>IFERROR(IF(ISBLANK($L14),"",VLOOKUP($L14&amp;TEXT($B14,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(M$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($L14),"",VLOOKUP($L14&amp;TEXT($B14,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(M$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
       <c r="N14" t="str">
-        <f>IFERROR(IF(ISBLANK($L14),"",VLOOKUP($L14&amp;TEXT($B14,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(N$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($L14),"",VLOOKUP($L14&amp;TEXT($B14,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(N$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
       <c r="O14" t="str">
-        <f>IFERROR(IF(ISBLANK($L14),"",VLOOKUP($L14&amp;TEXT($B14,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(O$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($L14),"",VLOOKUP($L14&amp;TEXT($B14,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(O$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
       <c r="T14" t="str">
-        <f>IFERROR(IF(ISBLANK($S14),"",VLOOKUP($S14&amp;TEXT($B14,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(T$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($S14),"",VLOOKUP($S14&amp;TEXT($B14,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(T$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
       <c r="U14" t="str">
-        <f>IFERROR(IF(ISBLANK($S14),"",VLOOKUP($S14&amp;TEXT($B14,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(U$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($S14),"",VLOOKUP($S14&amp;TEXT($B14,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(U$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
       <c r="V14" t="str">
-        <f>IFERROR(IF(ISBLANK($S14),"",VLOOKUP($S14&amp;TEXT($B14,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(V$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($S14),"",VLOOKUP($S14&amp;TEXT($B14,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(V$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
       <c r="AA14" t="str">
-        <f>IFERROR(IF(ISBLANK($Z14),"",VLOOKUP($Z14&amp;TEXT($B14,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AA$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($Z14),"",VLOOKUP($Z14&amp;TEXT($B14,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(AA$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
       <c r="AB14" t="str">
-        <f>IFERROR(IF(ISBLANK($Z14),"",VLOOKUP($Z14&amp;TEXT($B14,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AB$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($Z14),"",VLOOKUP($Z14&amp;TEXT($B14,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(AB$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
       <c r="AC14" t="str">
-        <f>IFERROR(IF(ISBLANK($Z14),"",VLOOKUP($Z14&amp;TEXT($B14,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AC$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($Z14),"",VLOOKUP($Z14&amp;TEXT($B14,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(AC$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B15">
         <v>4</v>
       </c>
       <c r="E15" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="F15" s="1" t="str">
         <f>IF(ISBLANK(VLOOKUP($A15,SkillTable!$1:$1048576,MATCH(SkillTable!$F$1,SkillTable!$1:$1,0),0)),"",VLOOKUP($A15,SkillTable!$1:$1048576,MATCH(SkillTable!$F$1,SkillTable!$1:$1,0),0))</f>
         <v/>
       </c>
       <c r="M15" t="str">
-        <f>IFERROR(IF(ISBLANK($L15),"",VLOOKUP($L15&amp;TEXT($B15,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(M$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($L15),"",VLOOKUP($L15&amp;TEXT($B15,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(M$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
       <c r="N15" t="str">
-        <f>IFERROR(IF(ISBLANK($L15),"",VLOOKUP($L15&amp;TEXT($B15,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(N$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($L15),"",VLOOKUP($L15&amp;TEXT($B15,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(N$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
       <c r="O15" t="str">
-        <f>IFERROR(IF(ISBLANK($L15),"",VLOOKUP($L15&amp;TEXT($B15,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(O$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($L15),"",VLOOKUP($L15&amp;TEXT($B15,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(O$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
       <c r="T15" t="str">
-        <f>IFERROR(IF(ISBLANK($S15),"",VLOOKUP($S15&amp;TEXT($B15,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(T$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($S15),"",VLOOKUP($S15&amp;TEXT($B15,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(T$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
       <c r="U15" t="str">
-        <f>IFERROR(IF(ISBLANK($S15),"",VLOOKUP($S15&amp;TEXT($B15,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(U$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($S15),"",VLOOKUP($S15&amp;TEXT($B15,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(U$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
       <c r="V15" t="str">
-        <f>IFERROR(IF(ISBLANK($S15),"",VLOOKUP($S15&amp;TEXT($B15,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(V$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($S15),"",VLOOKUP($S15&amp;TEXT($B15,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(V$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
       <c r="AA15" t="str">
-        <f>IFERROR(IF(ISBLANK($Z15),"",VLOOKUP($Z15&amp;TEXT($B15,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AA$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($Z15),"",VLOOKUP($Z15&amp;TEXT($B15,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(AA$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
       <c r="AB15" t="str">
-        <f>IFERROR(IF(ISBLANK($Z15),"",VLOOKUP($Z15&amp;TEXT($B15,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AB$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($Z15),"",VLOOKUP($Z15&amp;TEXT($B15,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(AB$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
       <c r="AC15" t="str">
-        <f>IFERROR(IF(ISBLANK($Z15),"",VLOOKUP($Z15&amp;TEXT($B15,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AC$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($Z15),"",VLOOKUP($Z15&amp;TEXT($B15,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(AC$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B16">
         <v>5</v>
       </c>
       <c r="E16" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="F16" s="1" t="str">
         <f>IF(ISBLANK(VLOOKUP($A16,SkillTable!$1:$1048576,MATCH(SkillTable!$F$1,SkillTable!$1:$1,0),0)),"",VLOOKUP($A16,SkillTable!$1:$1048576,MATCH(SkillTable!$F$1,SkillTable!$1:$1,0),0))</f>
         <v/>
       </c>
       <c r="M16" t="str">
-        <f>IFERROR(IF(ISBLANK($L16),"",VLOOKUP($L16&amp;TEXT($B16,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(M$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($L16),"",VLOOKUP($L16&amp;TEXT($B16,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(M$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
       <c r="N16" t="str">
-        <f>IFERROR(IF(ISBLANK($L16),"",VLOOKUP($L16&amp;TEXT($B16,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(N$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($L16),"",VLOOKUP($L16&amp;TEXT($B16,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(N$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
       <c r="O16" t="str">
-        <f>IFERROR(IF(ISBLANK($L16),"",VLOOKUP($L16&amp;TEXT($B16,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(O$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($L16),"",VLOOKUP($L16&amp;TEXT($B16,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(O$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
       <c r="T16" t="str">
-        <f>IFERROR(IF(ISBLANK($S16),"",VLOOKUP($S16&amp;TEXT($B16,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(T$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($S16),"",VLOOKUP($S16&amp;TEXT($B16,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(T$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
       <c r="U16" t="str">
-        <f>IFERROR(IF(ISBLANK($S16),"",VLOOKUP($S16&amp;TEXT($B16,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(U$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($S16),"",VLOOKUP($S16&amp;TEXT($B16,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(U$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
       <c r="V16" t="str">
-        <f>IFERROR(IF(ISBLANK($S16),"",VLOOKUP($S16&amp;TEXT($B16,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(V$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($S16),"",VLOOKUP($S16&amp;TEXT($B16,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(V$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
       <c r="AA16" t="str">
-        <f>IFERROR(IF(ISBLANK($Z16),"",VLOOKUP($Z16&amp;TEXT($B16,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AA$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($Z16),"",VLOOKUP($Z16&amp;TEXT($B16,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(AA$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
       <c r="AB16" t="str">
-        <f>IFERROR(IF(ISBLANK($Z16),"",VLOOKUP($Z16&amp;TEXT($B16,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AB$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($Z16),"",VLOOKUP($Z16&amp;TEXT($B16,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(AB$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
       <c r="AC16" t="str">
-        <f>IFERROR(IF(ISBLANK($Z16),"",VLOOKUP($Z16&amp;TEXT($B16,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AC$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($Z16),"",VLOOKUP($Z16&amp;TEXT($B16,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(AC$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
     </row>

--- a/Excel/작업Action.xlsx
+++ b/Excel/작업Action.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B98B57-9D7C-45E1-98CF-EA19D8161F50}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8804B73E-B65F-4AB9-9D10-3ABC9358971B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ActionTable" sheetId="1" r:id="rId1"/>
@@ -177,7 +177,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="130">
   <si>
     <t>Idle</t>
   </si>
@@ -218,9 +218,6 @@
     <t>Attack</t>
   </si>
   <si>
-    <t>None</t>
-  </si>
-  <si>
     <t>ScreenController</t>
   </si>
   <si>
@@ -333,10 +330,6 @@
     <t>PointNormal</t>
   </si>
   <si>
-    <t>None</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Range</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -395,18 +388,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>controlId_검증</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>castingId_검증</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skillId_검증</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>controlType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -596,14 +577,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>툴입력어펙터밸류1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NormalAttack01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>fValue1|Float</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -628,14 +601,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>툴입력어펙터밸류2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>툴입력어펙터밸류3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>이름참고</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -644,7 +609,29 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>패시브어펙터밸류참고</t>
+    <t>controlId검증</t>
+  </si>
+  <si>
+    <t>castingId검증</t>
+  </si>
+  <si>
+    <t>skillId검증</t>
+  </si>
+  <si>
+    <t>어펙터밸류4개검증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력어펙터밸류1</t>
+  </si>
+  <si>
+    <t>입력어펙터밸류2</t>
+  </si>
+  <si>
+    <t>입력어펙터밸류3</t>
+  </si>
+  <si>
+    <t>LP_PiercingHitObject</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -704,12 +691,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -718,7 +702,13 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -735,8 +725,11 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="StringTable"/>
-      <sheetName val="TitleStringTable"/>
+      <sheetName val="AffectorValueTable"/>
+      <sheetName val="AffectorValueLevelTable"/>
+      <sheetName val="ActorStateTable"/>
+      <sheetName val="ConditionValueTable"/>
+      <sheetName val="어펙터인자"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -744,46 +737,181 @@
           <cell r="A1" t="str">
             <v>id|String</v>
           </cell>
-          <cell r="B1" t="str">
-            <v>kor|String</v>
-          </cell>
         </row>
         <row r="2">
           <cell r="A2" t="str">
-            <v>GameUI_Play</v>
-          </cell>
-          <cell r="B2" t="str">
-            <v>진행</v>
+            <v>NormalAttack01</v>
           </cell>
         </row>
         <row r="3">
           <cell r="A3" t="str">
-            <v>Skill_ActiveOne001_Name</v>
-          </cell>
-          <cell r="B3" t="str">
-            <v>하트가 폭발한다</v>
+            <v>LP_ChangeActorStatus010</v>
           </cell>
         </row>
         <row r="4">
           <cell r="A4" t="str">
-            <v>Skill_ActiveOne001_Description</v>
+            <v>LP_PiercingHitObject</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>vlookup용아이디</v>
+          </cell>
+          <cell r="B1" t="str">
+            <v>affectorValueId|String</v>
+          </cell>
+          <cell r="C1" t="str">
+            <v>level|Int</v>
+          </cell>
+          <cell r="D1" t="str">
+            <v>affectId참고</v>
+          </cell>
+          <cell r="E1" t="str">
+            <v>어펙터설명참고</v>
+          </cell>
+          <cell r="F1" t="str">
+            <v>conditionValueId|String!</v>
+          </cell>
+          <cell r="G1" t="str">
+            <v>컨디션밸류4개검증</v>
+          </cell>
+          <cell r="H1" t="str">
+            <v>fValue1|Float</v>
+          </cell>
+          <cell r="I1" t="str">
+            <v>fValue2|Float</v>
+          </cell>
+          <cell r="J1" t="str">
+            <v>fValue3|Float</v>
+          </cell>
+          <cell r="K1" t="str">
+            <v>fValue4|Float</v>
+          </cell>
+          <cell r="L1" t="str">
+            <v>iValue1|Int</v>
+          </cell>
+          <cell r="M1" t="str">
+            <v>iValue2|Int</v>
+          </cell>
+          <cell r="N1" t="str">
+            <v>iValue3|Int</v>
+          </cell>
+          <cell r="O1" t="str">
+            <v>sValue1|String</v>
+          </cell>
+          <cell r="P1" t="str">
+            <v>sValue2|String</v>
+          </cell>
+          <cell r="Q1" t="str">
+            <v>sValue3|String</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="D2" t="str">
+            <v>BaseDamage</v>
+          </cell>
+          <cell r="E2" t="str">
+            <v>기본 대미지 계산식</v>
+          </cell>
+          <cell r="H2" t="str">
+            <v>단일 대미지 배율</v>
+          </cell>
+          <cell r="I2" t="str">
+            <v/>
+          </cell>
+          <cell r="J2" t="str">
+            <v/>
+          </cell>
+          <cell r="K2" t="str">
+            <v/>
+          </cell>
+          <cell r="L2" t="str">
+            <v>1: 다단히트</v>
+          </cell>
+          <cell r="M2" t="str">
+            <v>1: 온킬 여부</v>
+          </cell>
+          <cell r="O2" t="str">
+            <v>다단히트 시
+연속 대미지</v>
+          </cell>
+          <cell r="P2" t="str">
+            <v>온킬 시 불려질
+어펙터밸류 아이디</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>NormalAttack0101</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>NormalAttack01</v>
+          </cell>
+          <cell r="C3">
+            <v>1</v>
+          </cell>
+          <cell r="D3" t="str">
+            <v>BaseDamage</v>
+          </cell>
+          <cell r="G3" t="str">
+            <v/>
+          </cell>
+          <cell r="H3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>LP_PiercingHitObject01</v>
           </cell>
           <cell r="B4" t="str">
-            <v>대미지를 &lt;color=#FFFF00&gt;{0}%,{1}%,{2}%,{3}%&lt;/color&gt; 먹이고 적이 죽이면 하트를 반드시 떨어뜨린다
-적이 죽지 않으면 기절을 먹인다</v>
+            <v>LP_PiercingHitObject</v>
+          </cell>
+          <cell r="C4">
+            <v>1</v>
+          </cell>
+          <cell r="D4" t="str">
+            <v>PiercingHitObject</v>
+          </cell>
+          <cell r="G4" t="str">
+            <v/>
+          </cell>
+          <cell r="L4">
+            <v>1</v>
+          </cell>
+          <cell r="O4">
+            <v>0.9</v>
           </cell>
         </row>
         <row r="5">
           <cell r="A5" t="str">
-            <v>Skill_ActiveOne002_Description</v>
+            <v>LP_PiercingHitObject02</v>
           </cell>
           <cell r="B5" t="str">
-            <v>대미지를 {0}% 먹이고 적이 죽이면 하트를 반드시 떨어뜨린다
-적이 죽지 않으면 기절을 먹인다</v>
+            <v>LP_PiercingHitObject</v>
+          </cell>
+          <cell r="C5">
+            <v>2</v>
+          </cell>
+          <cell r="D5" t="str">
+            <v>PiercingHitObject</v>
+          </cell>
+          <cell r="G5" t="str">
+            <v/>
+          </cell>
+          <cell r="L5">
+            <v>2</v>
+          </cell>
+          <cell r="O5" t="str">
+            <v>0.95,0.9</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -793,215 +921,61 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="AffectorValueTable"/>
-      <sheetName val="AffectorValueLevelTable"/>
-      <sheetName val="ActorStateTable"/>
-      <sheetName val="ConditionValueTable"/>
-      <sheetName val="어펙터종류"/>
-      <sheetName val="AffectorValueTable임시"/>
-      <sheetName val="AffectorValueLevelTable임시"/>
+      <sheetName val="StringTable"/>
+      <sheetName val="TitleStringTable"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
+      <sheetData sheetId="0">
         <row r="1">
           <cell r="A1" t="str">
-            <v>vlookup용아이디</v>
+            <v>id|String</v>
           </cell>
           <cell r="B1" t="str">
-            <v>affectorValueId|String</v>
+            <v>kor|String</v>
           </cell>
           <cell r="C1" t="str">
-            <v>참고affectId</v>
-          </cell>
-          <cell r="D1" t="str">
-            <v>level|Int</v>
-          </cell>
-          <cell r="E1" t="str">
-            <v>conditionValueId|String!</v>
-          </cell>
-          <cell r="F1" t="str">
-            <v>fValue1|Float</v>
-          </cell>
-          <cell r="G1" t="str">
-            <v>fValue2|Float</v>
-          </cell>
-          <cell r="H1" t="str">
-            <v>fValue3|Float</v>
-          </cell>
-          <cell r="I1" t="str">
-            <v>fValue4|Float</v>
-          </cell>
-          <cell r="J1" t="str">
-            <v>iValue1|Int</v>
-          </cell>
-          <cell r="K1" t="str">
-            <v>iValue2|Int</v>
-          </cell>
-          <cell r="L1" t="str">
-            <v>sValue1|String</v>
-          </cell>
-          <cell r="M1" t="str">
-            <v>sValue2|String</v>
-          </cell>
-          <cell r="N1" t="str">
-            <v>어펙터호출</v>
-          </cell>
-          <cell r="P1" t="str">
-            <v>affectorId_Verify</v>
-          </cell>
-          <cell r="R1" t="str">
-            <v>affectorId_List</v>
-          </cell>
-          <cell r="S1" t="str">
-            <v>value</v>
-          </cell>
-          <cell r="T1" t="str">
-            <v>len</v>
+            <v>eng|String</v>
           </cell>
         </row>
         <row r="2">
           <cell r="A2" t="str">
-            <v>NormalAttack0101</v>
+            <v>GameUI_Play</v>
           </cell>
           <cell r="B2" t="str">
-            <v>NormalAttack01</v>
+            <v>진행</v>
           </cell>
           <cell r="C2" t="str">
-            <v>BaseDamage</v>
-          </cell>
-          <cell r="D2">
-            <v>1</v>
-          </cell>
-          <cell r="F2">
-            <v>1</v>
-          </cell>
-          <cell r="J2">
-            <v>1</v>
-          </cell>
-          <cell r="K2" t="str">
-            <v>1:온킬</v>
-          </cell>
-          <cell r="L2" t="str">
-            <v>0.4,0.5,0.6</v>
-          </cell>
-          <cell r="M2" t="str">
-            <v>시전자회복밸류아이디</v>
-          </cell>
-          <cell r="P2" t="str">
-            <v>ChangeAction</v>
-          </cell>
-          <cell r="R2" t="str">
-            <v>ChangeAction</v>
-          </cell>
-          <cell r="S2">
-            <v>1</v>
-          </cell>
-          <cell r="T2">
-            <v>12</v>
-          </cell>
-          <cell r="V2" t="str">
-            <v/>
+            <v>Play</v>
           </cell>
         </row>
         <row r="3">
           <cell r="A3" t="str">
-            <v>시전자회복밸류아이디00</v>
+            <v>Skill_ActiveOne001_Name</v>
           </cell>
           <cell r="B3" t="str">
-            <v>시전자회복밸류아이디</v>
-          </cell>
-          <cell r="E3" t="str">
-            <v>HP이하</v>
-          </cell>
-          <cell r="P3" t="str">
-            <v>AddForce</v>
-          </cell>
-          <cell r="R3" t="str">
-            <v>BaseDamage</v>
-          </cell>
-          <cell r="S3">
-            <v>3</v>
-          </cell>
-          <cell r="T3">
-            <v>10</v>
+            <v>하트가 폭발한다</v>
           </cell>
         </row>
         <row r="4">
           <cell r="A4" t="str">
-            <v>LP_PiercingHitObject01</v>
+            <v>Skill_ActiveOne001_Description</v>
           </cell>
           <cell r="B4" t="str">
-            <v>LP_PiercingHitObject</v>
-          </cell>
-          <cell r="D4">
-            <v>1</v>
-          </cell>
-          <cell r="J4">
-            <v>1</v>
-          </cell>
-          <cell r="M4">
-            <v>0.9</v>
-          </cell>
-          <cell r="P4" t="str">
-            <v>BaseDamage</v>
-          </cell>
-          <cell r="R4" t="str">
-            <v>AddForce</v>
-          </cell>
-          <cell r="S4">
-            <v>2</v>
-          </cell>
-          <cell r="T4">
-            <v>8</v>
+            <v>대미지를 &lt;color=#FFFF00&gt;{0}%,{1}%,{2}%,{3}%&lt;/color&gt; 먹이고 적이 죽이면 하트를 반드시 떨어뜨린다
+적이 죽지 않으면 기절을 먹인다</v>
           </cell>
         </row>
         <row r="5">
           <cell r="A5" t="str">
-            <v>LP_PiercingHitObject02</v>
+            <v>Skill_ActiveOne002_Description</v>
           </cell>
           <cell r="B5" t="str">
-            <v>LP_PiercingHitObject</v>
-          </cell>
-          <cell r="D5">
-            <v>2</v>
-          </cell>
-          <cell r="J5">
-            <v>2</v>
-          </cell>
-          <cell r="M5" t="str">
-            <v>0.95,0.9</v>
-          </cell>
-          <cell r="P5" t="str">
-            <v>AddActorState</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="P6" t="str">
-            <v>스탯변경</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="P7" t="str">
-            <v>DOT대미지</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="P8" t="str">
-            <v>BaseDamageWithOnKill</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="P9" t="str">
-            <v>DropItem</v>
+            <v>대미지를 {0}% 먹이고 적이 죽이면 하트를 반드시 떨어뜨린다
+적이 죽지 않으면 기절을 먹인다</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1330,88 +1304,83 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.75" customWidth="1"/>
-    <col min="3" max="3" width="18.5" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="16.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21.875" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="19.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.5" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.875" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="19.875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="12.25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="9.875" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="13" width="13.625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="13.625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="15" width="9" collapsed="1"/>
-    <col min="16" max="16" width="14.25" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="17" max="17" width="9" collapsed="1"/>
-    <col min="18" max="18" width="12.125" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="19" max="20" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="21" max="21" width="9" collapsed="1"/>
+    <col min="10" max="10" width="11" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.875" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.625" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="16" width="14.25" customWidth="1" outlineLevel="1"/>
+    <col min="18" max="18" width="12.125" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="20" width="9" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" t="s">
         <v>54</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K1" t="s">
+        <v>105</v>
+      </c>
+      <c r="L1" t="s">
+        <v>123</v>
+      </c>
+      <c r="M1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1" t="s">
+        <v>124</v>
+      </c>
+      <c r="P1" t="s">
+        <v>38</v>
+      </c>
+      <c r="R1" t="s">
         <v>36</v>
       </c>
-      <c r="D1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K1" t="s">
-        <v>110</v>
-      </c>
-      <c r="L1" t="s">
-        <v>69</v>
-      </c>
-      <c r="M1" t="s">
-        <v>60</v>
-      </c>
-      <c r="N1" t="s">
-        <v>70</v>
-      </c>
-      <c r="P1" t="s">
-        <v>39</v>
-      </c>
-      <c r="R1" t="s">
-        <v>37</v>
-      </c>
       <c r="S1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T1" t="str">
         <f ca="1">IF(OR(OFFSET(T1,1,0)&lt;OFFSET(T1,2,0),OFFSET(T1,2,0)&lt;OFFSET(T1,3,0),
@@ -1444,7 +1413,7 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -1493,15 +1462,15 @@
         <v>0.1</v>
       </c>
       <c r="J2" t="str">
-        <f>IF(ISBLANK(I2),"",IF(ISERROR(VLOOKUP(I2,ControlTable!$A:$A,1,0)),"없음",""))</f>
+        <f>IF(ISBLANK(I2),"",IF(ISERROR(VLOOKUP(I2,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
         <v/>
       </c>
       <c r="L2" t="str">
-        <f>IF(ISBLANK(K2),"",IF(ISERROR(VLOOKUP(K2,CastingTable!$A:$A,1,0)),"없음",""))</f>
+        <f>IF(ISBLANK(K2),"",IF(ISERROR(VLOOKUP(K2,CastingTable!$A:$A,1,0)),"캐스팅없음",""))</f>
         <v/>
       </c>
       <c r="N2" t="str">
-        <f>IF(ISBLANK(M2),"",IF(ISERROR(VLOOKUP(M2,SkillTable!$A:$A,1,0)),"없음",""))</f>
+        <f>IF(ISBLANK(M2),"",IF(ISERROR(VLOOKUP(M2,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
         <v/>
       </c>
       <c r="P2" t="s">
@@ -1524,7 +1493,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -1534,7 +1503,7 @@
         <v/>
       </c>
       <c r="E3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F3" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -1547,15 +1516,15 @@
         <v>0.1</v>
       </c>
       <c r="J3" t="str">
-        <f>IF(ISBLANK(I3),"",IF(ISERROR(VLOOKUP(I3,ControlTable!$A:$A,1,0)),"없음",""))</f>
+        <f>IF(ISBLANK(I3),"",IF(ISERROR(VLOOKUP(I3,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
         <v/>
       </c>
       <c r="L3" t="str">
-        <f>IF(ISBLANK(K3),"",IF(ISERROR(VLOOKUP(K3,CastingTable!$A:$A,1,0)),"없음",""))</f>
+        <f>IF(ISBLANK(K3),"",IF(ISERROR(VLOOKUP(K3,CastingTable!$A:$A,1,0)),"캐스팅없음",""))</f>
         <v/>
       </c>
       <c r="N3" t="str">
-        <f>IF(ISBLANK(M3),"",IF(ISERROR(VLOOKUP(M3,SkillTable!$A:$A,1,0)),"없음",""))</f>
+        <f>IF(ISBLANK(M3),"",IF(ISERROR(VLOOKUP(M3,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
         <v/>
       </c>
       <c r="P3" t="s">
@@ -1574,10 +1543,10 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" t="s">
         <v>97</v>
-      </c>
-      <c r="B4" t="s">
-        <v>102</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -1588,21 +1557,21 @@
         <v/>
       </c>
       <c r="G4" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H4">
         <v>0.05</v>
       </c>
       <c r="J4" t="str">
-        <f>IF(ISBLANK(I4),"",IF(ISERROR(VLOOKUP(I4,ControlTable!$A:$A,1,0)),"없음",""))</f>
+        <f>IF(ISBLANK(I4),"",IF(ISERROR(VLOOKUP(I4,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
         <v/>
       </c>
       <c r="L4" t="str">
-        <f>IF(ISBLANK(K4),"",IF(ISERROR(VLOOKUP(K4,CastingTable!$A:$A,1,0)),"없음",""))</f>
+        <f>IF(ISBLANK(K4),"",IF(ISERROR(VLOOKUP(K4,CastingTable!$A:$A,1,0)),"캐스팅없음",""))</f>
         <v/>
       </c>
       <c r="N4" t="str">
-        <f>IF(ISBLANK(M4),"",IF(ISERROR(VLOOKUP(M4,SkillTable!$A:$A,1,0)),"없음",""))</f>
+        <f>IF(ISBLANK(M4),"",IF(ISERROR(VLOOKUP(M4,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
         <v/>
       </c>
       <c r="P4" t="s">
@@ -1621,21 +1590,21 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>3, 4</v>
       </c>
       <c r="G5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H5">
         <v>0.05</v>
@@ -1644,15 +1613,15 @@
         <v>4</v>
       </c>
       <c r="J5" t="str">
-        <f>IF(ISBLANK(I5),"",IF(ISERROR(VLOOKUP(I5,ControlTable!$A:$A,1,0)),"없음",""))</f>
+        <f>IF(ISBLANK(I5),"",IF(ISERROR(VLOOKUP(I5,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
         <v/>
       </c>
       <c r="L5" t="str">
-        <f>IF(ISBLANK(K5),"",IF(ISERROR(VLOOKUP(K5,CastingTable!$A:$A,1,0)),"없음",""))</f>
+        <f>IF(ISBLANK(K5),"",IF(ISERROR(VLOOKUP(K5,CastingTable!$A:$A,1,0)),"캐스팅없음",""))</f>
         <v/>
       </c>
       <c r="N5" t="str">
-        <f>IF(ISBLANK(M5),"",IF(ISERROR(VLOOKUP(M5,SkillTable!$A:$A,1,0)),"없음",""))</f>
+        <f>IF(ISBLANK(M5),"",IF(ISERROR(VLOOKUP(M5,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
         <v/>
       </c>
       <c r="P5" t="s">
@@ -1671,14 +1640,14 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -1691,37 +1660,37 @@
         <v>0.05</v>
       </c>
       <c r="I6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J6" t="str">
-        <f>IF(ISBLANK(I6),"",IF(ISERROR(VLOOKUP(I6,ControlTable!$A:$A,1,0)),"없음",""))</f>
+        <f>IF(ISBLANK(I6),"",IF(ISERROR(VLOOKUP(I6,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
         <v/>
       </c>
       <c r="K6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L6" t="str">
-        <f>IF(ISBLANK(K6),"",IF(ISERROR(VLOOKUP(K6,CastingTable!$A:$A,1,0)),"없음",""))</f>
+        <f>IF(ISBLANK(K6),"",IF(ISERROR(VLOOKUP(K6,CastingTable!$A:$A,1,0)),"캐스팅없음",""))</f>
         <v/>
       </c>
       <c r="M6" t="s">
         <v>6</v>
       </c>
       <c r="N6" t="str">
-        <f>IF(ISBLANK(M6),"",IF(ISERROR(VLOOKUP(M6,SkillTable!$A:$A,1,0)),"없음",""))</f>
+        <f>IF(ISBLANK(M6),"",IF(ISERROR(VLOOKUP(M6,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
         <v/>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -1734,27 +1703,27 @@
         <v>0.05</v>
       </c>
       <c r="I7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J7" t="str">
-        <f>IF(ISBLANK(I7),"",IF(ISERROR(VLOOKUP(I7,ControlTable!$A:$A,1,0)),"없음",""))</f>
+        <f>IF(ISBLANK(I7),"",IF(ISERROR(VLOOKUP(I7,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
         <v/>
       </c>
       <c r="L7" t="str">
-        <f>IF(ISBLANK(K7),"",IF(ISERROR(VLOOKUP(K7,CastingTable!$A:$A,1,0)),"없음",""))</f>
+        <f>IF(ISBLANK(K7),"",IF(ISERROR(VLOOKUP(K7,CastingTable!$A:$A,1,0)),"캐스팅없음",""))</f>
         <v/>
       </c>
       <c r="M7" t="s">
         <v>8</v>
       </c>
       <c r="N7" t="str">
-        <f>IF(ISBLANK(M7),"",IF(ISERROR(VLOOKUP(M7,SkillTable!$A:$A,1,0)),"없음",""))</f>
+        <f>IF(ISBLANK(M7),"",IF(ISERROR(VLOOKUP(M7,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
         <v/>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B8" t="s">
         <v>0</v>
@@ -1774,21 +1743,21 @@
         <v>0.1</v>
       </c>
       <c r="J8" t="str">
-        <f>IF(ISBLANK(I8),"",IF(ISERROR(VLOOKUP(I8,ControlTable!$A:$A,1,0)),"없음",""))</f>
+        <f>IF(ISBLANK(I8),"",IF(ISERROR(VLOOKUP(I8,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
         <v/>
       </c>
       <c r="L8" t="str">
-        <f>IF(ISBLANK(K8),"",IF(ISERROR(VLOOKUP(K8,CastingTable!$A:$A,1,0)),"없음",""))</f>
+        <f>IF(ISBLANK(K8),"",IF(ISERROR(VLOOKUP(K8,CastingTable!$A:$A,1,0)),"캐스팅없음",""))</f>
         <v/>
       </c>
       <c r="N8" t="str">
-        <f>IF(ISBLANK(M8),"",IF(ISERROR(VLOOKUP(M8,SkillTable!$A:$A,1,0)),"없음",""))</f>
+        <f>IF(ISBLANK(M8),"",IF(ISERROR(VLOOKUP(M8,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
         <v/>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B9" t="s">
         <v>2</v>
@@ -1798,7 +1767,7 @@
         <v/>
       </c>
       <c r="E9" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -1811,24 +1780,24 @@
         <v>0.1</v>
       </c>
       <c r="J9" t="str">
-        <f>IF(ISBLANK(I9),"",IF(ISERROR(VLOOKUP(I9,ControlTable!$A:$A,1,0)),"없음",""))</f>
+        <f>IF(ISBLANK(I9),"",IF(ISERROR(VLOOKUP(I9,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
         <v/>
       </c>
       <c r="L9" t="str">
-        <f>IF(ISBLANK(K9),"",IF(ISERROR(VLOOKUP(K9,CastingTable!$A:$A,1,0)),"없음",""))</f>
+        <f>IF(ISBLANK(K9),"",IF(ISERROR(VLOOKUP(K9,CastingTable!$A:$A,1,0)),"캐스팅없음",""))</f>
         <v/>
       </c>
       <c r="N9" t="str">
-        <f>IF(ISBLANK(M9),"",IF(ISERROR(VLOOKUP(M9,SkillTable!$A:$A,1,0)),"없음",""))</f>
+        <f>IF(ISBLANK(M9),"",IF(ISERROR(VLOOKUP(M9,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
         <v/>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B10" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -1839,41 +1808,41 @@
         <v/>
       </c>
       <c r="G10" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H10">
         <v>0.05</v>
       </c>
       <c r="J10" t="str">
-        <f>IF(ISBLANK(I10),"",IF(ISERROR(VLOOKUP(I10,ControlTable!$A:$A,1,0)),"없음",""))</f>
+        <f>IF(ISBLANK(I10),"",IF(ISERROR(VLOOKUP(I10,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
         <v/>
       </c>
       <c r="L10" t="str">
-        <f>IF(ISBLANK(K10),"",IF(ISERROR(VLOOKUP(K10,CastingTable!$A:$A,1,0)),"없음",""))</f>
+        <f>IF(ISBLANK(K10),"",IF(ISERROR(VLOOKUP(K10,CastingTable!$A:$A,1,0)),"캐스팅없음",""))</f>
         <v/>
       </c>
       <c r="N10" t="str">
-        <f>IF(ISBLANK(M10),"",IF(ISERROR(VLOOKUP(M10,SkillTable!$A:$A,1,0)),"없음",""))</f>
+        <f>IF(ISBLANK(M10),"",IF(ISERROR(VLOOKUP(M10,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
         <v/>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="E11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>3, 4</v>
       </c>
       <c r="G11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H11">
         <v>0.05</v>
@@ -1882,28 +1851,28 @@
         <v>4</v>
       </c>
       <c r="J11" t="str">
-        <f>IF(ISBLANK(I11),"",IF(ISERROR(VLOOKUP(I11,ControlTable!$A:$A,1,0)),"없음",""))</f>
+        <f>IF(ISBLANK(I11),"",IF(ISERROR(VLOOKUP(I11,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
         <v/>
       </c>
       <c r="L11" t="str">
-        <f>IF(ISBLANK(K11),"",IF(ISERROR(VLOOKUP(K11,CastingTable!$A:$A,1,0)),"없음",""))</f>
+        <f>IF(ISBLANK(K11),"",IF(ISERROR(VLOOKUP(K11,CastingTable!$A:$A,1,0)),"캐스팅없음",""))</f>
         <v/>
       </c>
       <c r="N11" t="str">
-        <f>IF(ISBLANK(M11),"",IF(ISERROR(VLOOKUP(M11,SkillTable!$A:$A,1,0)),"없음",""))</f>
+        <f>IF(ISBLANK(M11),"",IF(ISERROR(VLOOKUP(M11,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
         <v/>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -1916,34 +1885,34 @@
         <v>0.05</v>
       </c>
       <c r="I12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J12" t="str">
-        <f>IF(ISBLANK(I12),"",IF(ISERROR(VLOOKUP(I12,ControlTable!$A:$A,1,0)),"없음",""))</f>
+        <f>IF(ISBLANK(I12),"",IF(ISERROR(VLOOKUP(I12,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
         <v/>
       </c>
       <c r="L12" t="str">
-        <f>IF(ISBLANK(K12),"",IF(ISERROR(VLOOKUP(K12,CastingTable!$A:$A,1,0)),"없음",""))</f>
+        <f>IF(ISBLANK(K12),"",IF(ISERROR(VLOOKUP(K12,CastingTable!$A:$A,1,0)),"캐스팅없음",""))</f>
         <v/>
       </c>
       <c r="M12" t="s">
         <v>9</v>
       </c>
       <c r="N12" t="str">
-        <f>IF(ISBLANK(M12),"",IF(ISERROR(VLOOKUP(M12,SkillTable!$A:$A,1,0)),"없음",""))</f>
+        <f>IF(ISBLANK(M12),"",IF(ISERROR(VLOOKUP(M12,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
         <v/>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -1956,30 +1925,30 @@
         <v>0.05</v>
       </c>
       <c r="I13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J13" t="str">
-        <f>IF(ISBLANK(I13),"",IF(ISERROR(VLOOKUP(I13,ControlTable!$A:$A,1,0)),"없음",""))</f>
+        <f>IF(ISBLANK(I13),"",IF(ISERROR(VLOOKUP(I13,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
         <v/>
       </c>
       <c r="L13" t="str">
-        <f>IF(ISBLANK(K13),"",IF(ISERROR(VLOOKUP(K13,CastingTable!$A:$A,1,0)),"없음",""))</f>
+        <f>IF(ISBLANK(K13),"",IF(ISERROR(VLOOKUP(K13,CastingTable!$A:$A,1,0)),"캐스팅없음",""))</f>
         <v/>
       </c>
       <c r="M13" t="s">
         <v>10</v>
       </c>
       <c r="N13" t="str">
-        <f>IF(ISBLANK(M13),"",IF(ISERROR(VLOOKUP(M13,SkillTable!$A:$A,1,0)),"없음",""))</f>
+        <f>IF(ISBLANK(M13),"",IF(ISERROR(VLOOKUP(M13,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
         <v/>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B14" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -1996,31 +1965,31 @@
         <v>0.1</v>
       </c>
       <c r="J14" t="str">
-        <f>IF(ISBLANK(I14),"",IF(ISERROR(VLOOKUP(I14,ControlTable!$A:$A,1,0)),"없음",""))</f>
+        <f>IF(ISBLANK(I14),"",IF(ISERROR(VLOOKUP(I14,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
         <v/>
       </c>
       <c r="L14" t="str">
-        <f>IF(ISBLANK(K14),"",IF(ISERROR(VLOOKUP(K14,CastingTable!$A:$A,1,0)),"없음",""))</f>
+        <f>IF(ISBLANK(K14),"",IF(ISERROR(VLOOKUP(K14,CastingTable!$A:$A,1,0)),"캐스팅없음",""))</f>
         <v/>
       </c>
       <c r="N14" t="str">
-        <f>IF(ISBLANK(M14),"",IF(ISERROR(VLOOKUP(M14,SkillTable!$A:$A,1,0)),"없음",""))</f>
+        <f>IF(ISBLANK(M14),"",IF(ISERROR(VLOOKUP(M14,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
         <v/>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B15" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="E15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -2033,24 +2002,24 @@
         <v>0.1</v>
       </c>
       <c r="J15" t="str">
-        <f>IF(ISBLANK(I15),"",IF(ISERROR(VLOOKUP(I15,ControlTable!$A:$A,1,0)),"없음",""))</f>
+        <f>IF(ISBLANK(I15),"",IF(ISERROR(VLOOKUP(I15,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
         <v/>
       </c>
       <c r="L15" t="str">
-        <f>IF(ISBLANK(K15),"",IF(ISERROR(VLOOKUP(K15,CastingTable!$A:$A,1,0)),"없음",""))</f>
+        <f>IF(ISBLANK(K15),"",IF(ISERROR(VLOOKUP(K15,CastingTable!$A:$A,1,0)),"캐스팅없음",""))</f>
         <v/>
       </c>
       <c r="N15" t="str">
-        <f>IF(ISBLANK(M15),"",IF(ISERROR(VLOOKUP(M15,SkillTable!$A:$A,1,0)),"없음",""))</f>
+        <f>IF(ISBLANK(M15),"",IF(ISERROR(VLOOKUP(M15,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B16" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -2061,27 +2030,28 @@
         <v/>
       </c>
       <c r="G16" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H16">
         <v>0.05</v>
       </c>
       <c r="J16" t="str">
-        <f>IF(ISBLANK(I16),"",IF(ISERROR(VLOOKUP(I16,ControlTable!$A:$A,1,0)),"없음",""))</f>
+        <f>IF(ISBLANK(I16),"",IF(ISERROR(VLOOKUP(I16,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
         <v/>
       </c>
       <c r="L16" t="str">
-        <f>IF(ISBLANK(K16),"",IF(ISERROR(VLOOKUP(K16,CastingTable!$A:$A,1,0)),"없음",""))</f>
+        <f>IF(ISBLANK(K16),"",IF(ISERROR(VLOOKUP(K16,CastingTable!$A:$A,1,0)),"캐스팅없음",""))</f>
         <v/>
       </c>
       <c r="N16" t="str">
-        <f>IF(ISBLANK(M16),"",IF(ISERROR(VLOOKUP(M16,SkillTable!$A:$A,1,0)),"없음",""))</f>
+        <f>IF(ISBLANK(M16),"",IF(ISERROR(VLOOKUP(M16,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
         <v/>
       </c>
     </row>
   </sheetData>
-  <sortState ref="R2:T4">
-    <sortCondition descending="1" ref="T2:T4"/>
+  <sortState ref="R2:T5">
+    <sortCondition descending="1" ref="T2:T5"/>
+    <sortCondition ref="S2:S5"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -2091,16 +2061,38 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E98A69ED-ACB1-4726-AFB2-FA695D9C95A0}">
+          <x14:formula1>
+            <xm:f>OFFSET(ControlTable!$A$1,1,0,COUNTA(ControlTable!$A:$A)-1,1)</xm:f>
+          </x14:formula1>
+          <xm:sqref>I2:I16</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BBEE6704-C898-430D-9E20-E95D3C6D1C53}">
+          <x14:formula1>
+            <xm:f>OFFSET(CastingTable!$A$1,1,0,COUNTA(CastingTable!$A:$A)-1,1)</xm:f>
+          </x14:formula1>
+          <xm:sqref>K2:K16</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6148342E-FC8D-4AB3-B559-9AFD35EC1A83}">
+          <x14:formula1>
+            <xm:f>OFFSET(SkillTable!$A$1,1,0,COUNTA(SkillTable!$A:$A)-1,1)</xm:f>
+          </x14:formula1>
+          <xm:sqref>M2:M16</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:S9"/>
+  <dimension ref="A1:S8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2121,28 +2113,28 @@
   <sheetData>
     <row r="1" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" t="s">
         <v>65</v>
       </c>
-      <c r="B1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E1" t="s">
-        <v>67</v>
-      </c>
       <c r="G1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="I1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="J1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K1" t="str">
         <f ca="1">IF(OR(OFFSET(K1,1,0)&lt;OFFSET(K1,2,0),OFFSET(K1,2,0)&lt;OFFSET(K1,3,0),
@@ -2173,13 +2165,13 @@
         <v>len</v>
       </c>
       <c r="M1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="O1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="P1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q1" t="str">
         <f ca="1">IF(OR(OFFSET(Q1,1,0)&lt;OFFSET(Q1,2,0),OFFSET(Q1,2,0)&lt;OFFSET(Q1,3,0),
@@ -2215,70 +2207,82 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="str">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B2,
-OFFSET($A$1,1,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,2,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,3,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,4,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,5,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,6,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,7,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,8,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,9,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,10,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,11,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,12,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,13,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,14,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,15,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,16,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,17,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,18,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,19,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,20,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(B$1&amp;"_List",$1:$1,0)))</f>
+        <f t="shared" ref="C2:C5" ca="1" si="0">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B2,
+OFFSET($A$1,1,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(B$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,3,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(B$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,5,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(B$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,7,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(B$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,9,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(B$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,11,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(B$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,13,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(B$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,15,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(B$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,17,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(B$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,19,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(B$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,21,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(B$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,23,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(B$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,25,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(B$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,27,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(B$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,29,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(B$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,31,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(B$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,33,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(B$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,35,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(B$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,37,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(B$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,39,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(B$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,41,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(B$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,43,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(B$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,45,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(B$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,47,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(B$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,49,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(B$1&amp;"_List",$1:$1,0)))</f>
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2" t="str">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D2,
-OFFSET($A$1,1,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(D$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,2,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(D$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,3,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(D$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,4,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(D$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,5,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(D$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,6,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(D$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,7,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(D$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,8,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(D$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,9,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(D$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,10,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(D$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,11,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(D$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,12,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(D$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,13,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(D$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,14,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(D$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,15,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(D$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,16,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(D$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,17,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(D$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,18,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(D$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,19,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(D$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,20,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(D$1&amp;"_List",$1:$1,0)))</f>
+        <f t="shared" ref="E2:E5" ca="1" si="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D2,
+OFFSET($A$1,1,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(D$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(D$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,3,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(D$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(D$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,5,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(D$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(D$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,7,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(D$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(D$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,9,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(D$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(D$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,11,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(D$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(D$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,13,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(D$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(D$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,15,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(D$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(D$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,17,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(D$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(D$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,19,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(D$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(D$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,21,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(D$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(D$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,23,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(D$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(D$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,25,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(D$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(D$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,27,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(D$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(D$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,29,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(D$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(D$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,31,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(D$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(D$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,33,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(D$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(D$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,35,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(D$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(D$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,37,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(D$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(D$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,39,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(D$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(D$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,41,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(D$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(D$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,43,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(D$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(D$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,45,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(D$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(D$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,47,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(D$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(D$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,49,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(D$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(D$1&amp;"_List",$1:$1,0)))</f>
         <v>1</v>
       </c>
       <c r="G2" t="s">
         <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J2">
         <v>4</v>
@@ -2288,16 +2292,16 @@
         <v>17</v>
       </c>
       <c r="M2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P2">
         <v>6</v>
       </c>
       <c r="Q2">
-        <f t="shared" ref="Q2:Q9" si="0">LEN(O2)</f>
+        <f t="shared" ref="Q2:Q8" si="2">LEN(O2)</f>
         <v>7</v>
       </c>
       <c r="S2" t="str">
@@ -2307,73 +2311,27 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="str">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B3,
-OFFSET($A$1,1,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,2,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,3,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,4,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,5,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,6,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,7,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,8,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,9,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,10,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,11,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,12,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,13,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,14,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,15,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,16,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,17,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,18,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,19,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,20,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(B$1&amp;"_List",$1:$1,0)))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3" t="str">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D3,
-OFFSET($A$1,1,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(D$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,2,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(D$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,3,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(D$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,4,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(D$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,5,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(D$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,6,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(D$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,7,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(D$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,8,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(D$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,9,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(D$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,10,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(D$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,11,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(D$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,12,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(D$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,13,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(D$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,14,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(D$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,15,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(D$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,16,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(D$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,17,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(D$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,18,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(D$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,19,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(D$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,20,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(D$1&amp;"_List",$1:$1,0)))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="I3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -2386,85 +2344,39 @@
         <v>15</v>
       </c>
       <c r="O3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P3">
         <v>7</v>
       </c>
       <c r="Q3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" t="s">
         <v>26</v>
-      </c>
-      <c r="C4" t="str">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B4,
-OFFSET($A$1,1,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,2,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,3,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,4,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,5,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,6,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,7,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,8,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,9,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,10,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,11,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,12,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,13,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,14,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,15,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,16,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,17,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,18,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,19,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,20,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(B$1&amp;"_List",$1:$1,0)))</f>
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" t="str">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D4,
-OFFSET($A$1,1,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(D$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,2,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(D$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,3,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(D$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,4,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(D$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,5,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(D$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,6,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(D$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,7,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(D$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,8,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(D$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,9,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(D$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,10,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(D$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,11,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(D$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,12,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(D$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,13,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(D$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,14,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(D$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,15,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(D$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,16,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(D$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,17,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(D$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,18,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(D$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,19,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(D$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,20,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(D$1&amp;"_List",$1:$1,0)))</f>
-        <v>4</v>
-      </c>
-      <c r="G4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" t="s">
-        <v>27</v>
       </c>
       <c r="J4">
         <v>2</v>
@@ -2474,88 +2386,42 @@
         <v>16</v>
       </c>
       <c r="M4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="O4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P4">
         <v>4</v>
       </c>
       <c r="Q4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" t="str">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B5,
-OFFSET($A$1,1,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,2,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,3,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,4,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,5,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,6,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,7,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,8,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,9,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,10,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,11,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,12,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,13,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,14,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,15,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,16,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,17,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,18,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,19,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,20,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(B$1&amp;"_List",$1:$1,0)))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5" t="str">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D5,
-OFFSET($A$1,1,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(D$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,2,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(D$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,3,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(D$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,4,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(D$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,5,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(D$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,6,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(D$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,7,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(D$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,8,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(D$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,9,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(D$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,10,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(D$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,11,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(D$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,12,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(D$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,13,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(D$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,14,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(D$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,15,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(D$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,16,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(D$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,17,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(D$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,18,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(D$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,19,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(D$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,20,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(D$1&amp;"_List",$1:$1,0)))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J5">
         <v>3</v>
@@ -2565,44 +2431,31 @@
         <v>16</v>
       </c>
       <c r="M5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P5">
         <v>5</v>
       </c>
       <c r="Q5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="G6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <f>LEN(I6)</f>
-        <v>4</v>
-      </c>
       <c r="M6" t="s">
         <v>20</v>
       </c>
       <c r="O6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -2611,13 +2464,13 @@
         <v>21</v>
       </c>
       <c r="O7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="P7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -2626,35 +2479,20 @@
         <v>22</v>
       </c>
       <c r="O8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="P8">
+        <v>2</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="Q8">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="M9" t="s">
-        <v>23</v>
-      </c>
-      <c r="O9" t="s">
-        <v>16</v>
-      </c>
-      <c r="P9">
-        <v>2</v>
-      </c>
-      <c r="Q9">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
     </row>
   </sheetData>
-  <sortState ref="O2:Q7">
-    <sortCondition descending="1" ref="Q2:Q7"/>
-    <sortCondition ref="P2:P7"/>
+  <sortState ref="O2:Q8">
+    <sortCondition descending="1" ref="Q2:Q8"/>
+    <sortCondition ref="P2:P8"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -2669,7 +2507,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2688,40 +2526,40 @@
   <sheetData>
     <row r="1" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" t="s">
         <v>77</v>
       </c>
-      <c r="B1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="H1" t="s">
         <v>78</v>
       </c>
-      <c r="D1" t="s">
+      <c r="I1" t="s">
         <v>79</v>
       </c>
-      <c r="E1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="K1" t="s">
         <v>81</v>
       </c>
-      <c r="G1" t="s">
+      <c r="M1" t="s">
         <v>82</v>
       </c>
-      <c r="H1" t="s">
-        <v>83</v>
-      </c>
-      <c r="I1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K1" t="s">
-        <v>86</v>
-      </c>
-      <c r="M1" t="s">
-        <v>87</v>
-      </c>
       <c r="N1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O1" t="str">
         <f ca="1">IF(OR(OFFSET(O1,1,0)&lt;OFFSET(O1,2,0),OFFSET(O1,2,0)&lt;OFFSET(O1,3,0),
@@ -2754,40 +2592,46 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="str">
+        <f t="shared" ref="C2:C5" ca="1" si="0">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B2,
+OFFSET($A$1,1,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(B$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,3,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(B$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,5,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(B$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,7,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(B$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,9,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(B$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,11,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(B$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,13,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(B$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,15,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(B$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,17,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(B$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,19,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(B$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,21,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(B$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,23,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(B$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,25,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(B$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,27,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(B$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,29,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(B$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,31,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(B$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,33,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(B$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,35,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(B$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,37,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(B$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,39,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(B$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,41,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(B$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,43,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(B$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,45,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(B$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,47,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(B$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,49,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(B$1&amp;"_List",$1:$1,0)))</f>
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
         <v>41</v>
-      </c>
-      <c r="C2" t="str">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B2,
-OFFSET($A$1,1,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,2,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,3,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,4,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,5,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,6,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,7,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,8,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,9,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,10,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,11,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,12,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,13,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,14,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,15,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,16,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,17,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,18,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,19,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,20,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(B$1&amp;"_List",$1:$1,0)))</f>
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>42</v>
       </c>
       <c r="E2">
         <v>5</v>
@@ -2805,10 +2649,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N2">
         <v>3</v>
@@ -2824,40 +2668,17 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
         <v>43</v>
-      </c>
-      <c r="B3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" t="str">
-        <f t="shared" ref="C3:C5" ca="1" si="0">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B3,
-OFFSET($A$1,1,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,2,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,3,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,4,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,5,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,6,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,7,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,8,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,9,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,10,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,11,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,12,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,13,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,14,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,15,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,16,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,17,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,18,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,19,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,20,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(B$1&amp;"_List",$1:$1,0)))</f>
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>44</v>
       </c>
       <c r="E3">
         <v>6.5</v>
@@ -2875,10 +2696,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N3">
         <v>4</v>
@@ -2890,17 +2711,17 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E4">
         <v>10</v>
@@ -2918,10 +2739,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -2933,17 +2754,17 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E5">
         <v>4.5</v>
@@ -2961,10 +2782,10 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="N5">
         <v>2</v>
@@ -2974,25 +2795,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="K6" t="s">
-        <v>53</v>
-      </c>
-      <c r="M6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <f>LEN(M6)</f>
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState ref="M2:O5">
-    <sortCondition descending="1" ref="O2:O5"/>
-    <sortCondition ref="N2:N5"/>
+  <sortState ref="M2:O4">
+    <sortCondition descending="1" ref="O2:O4"/>
+    <sortCondition ref="N2:N4"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -3008,7 +2814,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -3019,362 +2825,468 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.25" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.25" style="2" customWidth="1"/>
-    <col min="7" max="7" width="20.75" style="2" customWidth="1"/>
-    <col min="8" max="8" width="22.875" style="2" customWidth="1"/>
-    <col min="9" max="10" width="22.875" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="22.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.375" style="2" customWidth="1"/>
-    <col min="14" max="15" width="22.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="14.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="20.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="22.875" style="1" customWidth="1"/>
+    <col min="10" max="11" width="22.875" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="22.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.375" style="1" customWidth="1"/>
+    <col min="15" max="16" width="22.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="G1" s="2" t="s">
+    <row r="1" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="P1" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C2" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="B2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="1">
         <v>5</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="I2" s="2" t="str">
-        <f>IFERROR(IF(ISBLANK(G2),"",VLOOKUP(G2,[1]StringTable!$A:$B,2,0)),"스트링없음")</f>
+      <c r="G2" s="1" t="str">
+        <f>IF(ISBLANK(F2),"",
+IF(ISERROR(FIND(",",F2)),
+  IF(ISERROR(VLOOKUP(F2,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F2,FIND(",",F2)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F2,FIND(",",F2)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F2,FIND(",",F2)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F2,FIND(",",F2,FIND(",",F2)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F2,FIND(",",F2)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F2,FIND(",",F2)+1,FIND(",",F2,FIND(",",F2)+1)-FIND(",",F2)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F2,FIND(",",F2,FIND(",",F2)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F2,FIND(",",F2,FIND(",",F2,FIND(",",F2)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F2,FIND(",",F2)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F2,FIND(",",F2)+1,FIND(",",F2,FIND(",",F2)+1)-FIND(",",F2)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F2,FIND(",",F2,FIND(",",F2)+1)+1,FIND(",",F2,FIND(",",F2,FIND(",",F2)+1)+1)-FIND(",",F2,FIND(",",F2)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F2,FIND(",",F2,FIND(",",F2,FIND(",",F2)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+)))))</f>
+        <v/>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J2" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK(H2),"",VLOOKUP(H2,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0)),"스트링없음")</f>
         <v>하트가 폭발한다</v>
       </c>
-      <c r="J2" s="2" t="str">
-        <f>IFERROR(IF(ISBLANK(H2),"",VLOOKUP(H2,[1]StringTable!$A:$B,2,0)),"스트링없음")</f>
+      <c r="K2" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK(I2),"",VLOOKUP(I2,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0)),"스트링없음")</f>
         <v>대미지를 &lt;color=#FFFF00&gt;{0}%,{1}%,{2}%,{3}%&lt;/color&gt; 먹이고 적이 죽이면 하트를 반드시 떨어뜨린다
 적이 죽지 않으면 기절을 먹인다</v>
       </c>
-      <c r="K2" s="2" t="b">
+      <c r="L2" s="1" t="b">
         <f>IF(ISERROR(MATCH($A2,SkillLevelTable!$A:$A,0)),FALSE,
 IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A2,SkillLevelTable!$A:$A,0),MATCH($E$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
         <v>1</v>
       </c>
-      <c r="L2" s="2" t="b">
+      <c r="M2" s="1" t="b">
         <f>IF(ISERROR(MATCH($A2,SkillLevelTable!$A:$A,0)),FALSE,
 IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A2,SkillLevelTable!$A:$A,0),MATCH(ActionTable!$G$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
         <v>1</v>
       </c>
-      <c r="M2" s="2" t="b">
+      <c r="N2" s="1" t="b">
         <f>IF(ISERROR(MATCH($A2,SkillLevelTable!$A:$A,0)),FALSE,
 IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A2,SkillLevelTable!$A:$A,0),MATCH($F$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
         <v>0</v>
       </c>
-      <c r="N2" s="2" t="b">
-        <f>IF(ISERROR(MATCH($A2,SkillLevelTable!$A:$A,0)),FALSE,
-IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A2,SkillLevelTable!$A:$A,0),MATCH($G$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
-        <v>0</v>
-      </c>
-      <c r="O2" s="2" t="b">
+      <c r="O2" s="1" t="b">
         <f>IF(ISERROR(MATCH($A2,SkillLevelTable!$A:$A,0)),FALSE,
 IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A2,SkillLevelTable!$A:$A,0),MATCH($H$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="P2" s="1" t="b">
+        <f>IF(ISERROR(MATCH($A2,SkillLevelTable!$A:$A,0)),FALSE,
+IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A2,SkillLevelTable!$A:$A,0),MATCH($I$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="2">
+      <c r="B3" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="1">
         <v>5</v>
       </c>
-      <c r="I3" s="2" t="str">
-        <f>IFERROR(IF(ISBLANK(G3),"",VLOOKUP(G3,[1]StringTable!$A:$B,2,0)),"스트링없음")</f>
-        <v/>
-      </c>
-      <c r="J3" s="2" t="str">
-        <f>IFERROR(IF(ISBLANK(H3),"",VLOOKUP(H3,[1]StringTable!$A:$B,2,0)),"스트링없음")</f>
-        <v/>
-      </c>
-      <c r="K3" s="2" t="b">
+      <c r="G3" s="1" t="str">
+        <f>IF(ISBLANK(F3),"",
+IF(ISERROR(FIND(",",F3)),
+  IF(ISERROR(VLOOKUP(F3,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F3,FIND(",",F3)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F3,FIND(",",F3)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F3,FIND(",",F3)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F3,FIND(",",F3,FIND(",",F3)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F3,FIND(",",F3)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F3,FIND(",",F3)+1,FIND(",",F3,FIND(",",F3)+1)-FIND(",",F3)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F3,FIND(",",F3,FIND(",",F3)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F3,FIND(",",F3,FIND(",",F3,FIND(",",F3)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F3,FIND(",",F3)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F3,FIND(",",F3)+1,FIND(",",F3,FIND(",",F3)+1)-FIND(",",F3)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F3,FIND(",",F3,FIND(",",F3)+1)+1,FIND(",",F3,FIND(",",F3,FIND(",",F3)+1)+1)-FIND(",",F3,FIND(",",F3)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F3,FIND(",",F3,FIND(",",F3,FIND(",",F3)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+)))))</f>
+        <v/>
+      </c>
+      <c r="J3" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK(H3),"",VLOOKUP(H3,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0)),"스트링없음")</f>
+        <v/>
+      </c>
+      <c r="K3" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK(I3),"",VLOOKUP(I3,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0)),"스트링없음")</f>
+        <v/>
+      </c>
+      <c r="L3" s="1" t="b">
         <f>IF(ISERROR(MATCH($A3,SkillLevelTable!$A:$A,0)),FALSE,
 IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A3,SkillLevelTable!$A:$A,0),MATCH($E$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
         <v>0</v>
       </c>
-      <c r="L3" s="2" t="b">
+      <c r="M3" s="1" t="b">
         <f>IF(ISERROR(MATCH($A3,SkillLevelTable!$A:$A,0)),FALSE,
 IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A3,SkillLevelTable!$A:$A,0),MATCH(ActionTable!$G$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
         <v>0</v>
       </c>
-      <c r="M3" s="2" t="b">
+      <c r="N3" s="1" t="b">
         <f>IF(ISERROR(MATCH($A3,SkillLevelTable!$A:$A,0)),FALSE,
 IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A3,SkillLevelTable!$A:$A,0),MATCH($F$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
         <v>0</v>
       </c>
-      <c r="N3" s="2" t="b">
-        <f>IF(ISERROR(MATCH($A3,SkillLevelTable!$A:$A,0)),FALSE,
-IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A3,SkillLevelTable!$A:$A,0),MATCH($G$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
-        <v>0</v>
-      </c>
-      <c r="O3" s="2" t="b">
+      <c r="O3" s="1" t="b">
         <f>IF(ISERROR(MATCH($A3,SkillLevelTable!$A:$A,0)),FALSE,
 IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A3,SkillLevelTable!$A:$A,0),MATCH($H$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C4" s="2" t="b">
+      <c r="P3" s="1" t="b">
+        <f>IF(ISERROR(MATCH($A3,SkillLevelTable!$A:$A,0)),FALSE,
+IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A3,SkillLevelTable!$A:$A,0),MATCH($I$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="1" t="b">
         <v>1</v>
       </c>
       <c r="F4"/>
-      <c r="I4" s="2" t="str">
-        <f>IFERROR(IF(ISBLANK(G4),"",VLOOKUP(G4,[1]StringTable!$A:$B,2,0)),"스트링없음")</f>
-        <v/>
-      </c>
-      <c r="J4" s="2" t="str">
-        <f>IFERROR(IF(ISBLANK(H4),"",VLOOKUP(H4,[1]StringTable!$A:$B,2,0)),"스트링없음")</f>
-        <v/>
-      </c>
-      <c r="K4" s="2" t="b">
+      <c r="G4" s="1" t="str">
+        <f>IF(ISBLANK(F4),"",
+IF(ISERROR(FIND(",",F4)),
+  IF(ISERROR(VLOOKUP(F4,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F4,FIND(",",F4)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F4,FIND(",",F4)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F4,FIND(",",F4)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F4,FIND(",",F4,FIND(",",F4)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F4,FIND(",",F4)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F4,FIND(",",F4)+1,FIND(",",F4,FIND(",",F4)+1)-FIND(",",F4)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F4,FIND(",",F4,FIND(",",F4)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F4,FIND(",",F4,FIND(",",F4,FIND(",",F4)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F4,FIND(",",F4)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F4,FIND(",",F4)+1,FIND(",",F4,FIND(",",F4)+1)-FIND(",",F4)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F4,FIND(",",F4,FIND(",",F4)+1)+1,FIND(",",F4,FIND(",",F4,FIND(",",F4)+1)+1)-FIND(",",F4,FIND(",",F4)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F4,FIND(",",F4,FIND(",",F4,FIND(",",F4)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+)))))</f>
+        <v/>
+      </c>
+      <c r="J4" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK(H4),"",VLOOKUP(H4,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0)),"스트링없음")</f>
+        <v/>
+      </c>
+      <c r="K4" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK(I4),"",VLOOKUP(I4,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0)),"스트링없음")</f>
+        <v/>
+      </c>
+      <c r="L4" s="1" t="b">
         <f>IF(ISERROR(MATCH($A4,SkillLevelTable!$A:$A,0)),FALSE,
 IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A4,SkillLevelTable!$A:$A,0),MATCH($E$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
         <v>0</v>
       </c>
-      <c r="L4" s="2" t="b">
+      <c r="M4" s="1" t="b">
         <f>IF(ISERROR(MATCH($A4,SkillLevelTable!$A:$A,0)),FALSE,
 IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A4,SkillLevelTable!$A:$A,0),MATCH(ActionTable!$G$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
         <v>0</v>
       </c>
-      <c r="M4" s="2" t="b">
+      <c r="N4" s="1" t="b">
         <f>IF(ISERROR(MATCH($A4,SkillLevelTable!$A:$A,0)),FALSE,
 IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A4,SkillLevelTable!$A:$A,0),MATCH($F$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
         <v>1</v>
       </c>
-      <c r="N4" s="2" t="b">
-        <f>IF(ISERROR(MATCH($A4,SkillLevelTable!$A:$A,0)),FALSE,
-IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A4,SkillLevelTable!$A:$A,0),MATCH($G$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
-        <v>0</v>
-      </c>
-      <c r="O4" s="2" t="b">
+      <c r="O4" s="1" t="b">
         <f>IF(ISERROR(MATCH($A4,SkillLevelTable!$A:$A,0)),FALSE,
 IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A4,SkillLevelTable!$A:$A,0),MATCH($H$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="P4" s="1" t="b">
+        <f>IF(ISERROR(MATCH($A4,SkillLevelTable!$A:$A,0)),FALSE,
+IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A4,SkillLevelTable!$A:$A,0),MATCH($I$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="2">
+      <c r="B5" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="1">
         <v>5</v>
       </c>
-      <c r="I5" s="2" t="str">
-        <f>IFERROR(IF(ISBLANK(G5),"",VLOOKUP(G5,[1]StringTable!$A:$B,2,0)),"스트링없음")</f>
-        <v/>
-      </c>
-      <c r="J5" s="2" t="str">
-        <f>IFERROR(IF(ISBLANK(H5),"",VLOOKUP(H5,[1]StringTable!$A:$B,2,0)),"스트링없음")</f>
-        <v/>
-      </c>
-      <c r="K5" s="2" t="b">
+      <c r="G5" s="1" t="str">
+        <f>IF(ISBLANK(F5),"",
+IF(ISERROR(FIND(",",F5)),
+  IF(ISERROR(VLOOKUP(F5,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F5,FIND(",",F5)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F5,FIND(",",F5)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F5,FIND(",",F5)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F5,FIND(",",F5,FIND(",",F5)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F5,FIND(",",F5)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F5,FIND(",",F5)+1,FIND(",",F5,FIND(",",F5)+1)-FIND(",",F5)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F5,FIND(",",F5,FIND(",",F5)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F5,FIND(",",F5,FIND(",",F5,FIND(",",F5)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F5,FIND(",",F5)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F5,FIND(",",F5)+1,FIND(",",F5,FIND(",",F5)+1)-FIND(",",F5)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F5,FIND(",",F5,FIND(",",F5)+1)+1,FIND(",",F5,FIND(",",F5,FIND(",",F5)+1)+1)-FIND(",",F5,FIND(",",F5)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F5,FIND(",",F5,FIND(",",F5,FIND(",",F5)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+)))))</f>
+        <v/>
+      </c>
+      <c r="J5" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK(H5),"",VLOOKUP(H5,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0)),"스트링없음")</f>
+        <v/>
+      </c>
+      <c r="K5" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK(I5),"",VLOOKUP(I5,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0)),"스트링없음")</f>
+        <v/>
+      </c>
+      <c r="L5" s="1" t="b">
         <f>IF(ISERROR(MATCH($A5,SkillLevelTable!$A:$A,0)),FALSE,
 IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A5,SkillLevelTable!$A:$A,0),MATCH($E$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
         <v>0</v>
       </c>
-      <c r="L5" s="2" t="b">
+      <c r="M5" s="1" t="b">
         <f>IF(ISERROR(MATCH($A5,SkillLevelTable!$A:$A,0)),FALSE,
 IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A5,SkillLevelTable!$A:$A,0),MATCH(ActionTable!$G$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
         <v>0</v>
       </c>
-      <c r="M5" s="2" t="b">
+      <c r="N5" s="1" t="b">
         <f>IF(ISERROR(MATCH($A5,SkillLevelTable!$A:$A,0)),FALSE,
 IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A5,SkillLevelTable!$A:$A,0),MATCH($F$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
         <v>0</v>
       </c>
-      <c r="N5" s="2" t="b">
-        <f>IF(ISERROR(MATCH($A5,SkillLevelTable!$A:$A,0)),FALSE,
-IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A5,SkillLevelTable!$A:$A,0),MATCH($G$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
-        <v>0</v>
-      </c>
-      <c r="O5" s="2" t="b">
+      <c r="O5" s="1" t="b">
         <f>IF(ISERROR(MATCH($A5,SkillLevelTable!$A:$A,0)),FALSE,
 IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A5,SkillLevelTable!$A:$A,0),MATCH($H$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="P5" s="1" t="b">
+        <f>IF(ISERROR(MATCH($A5,SkillLevelTable!$A:$A,0)),FALSE,
+IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A5,SkillLevelTable!$A:$A,0),MATCH($I$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="2">
+      <c r="B6" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="1">
         <v>5</v>
       </c>
-      <c r="I6" s="2" t="str">
-        <f>IFERROR(IF(ISBLANK(G6),"",VLOOKUP(G6,[1]StringTable!$A:$B,2,0)),"스트링없음")</f>
-        <v/>
-      </c>
-      <c r="J6" s="2" t="str">
-        <f>IFERROR(IF(ISBLANK(H6),"",VLOOKUP(H6,[1]StringTable!$A:$B,2,0)),"스트링없음")</f>
-        <v/>
-      </c>
-      <c r="K6" s="2" t="b">
+      <c r="G6" s="1" t="str">
+        <f>IF(ISBLANK(F6),"",
+IF(ISERROR(FIND(",",F6)),
+  IF(ISERROR(VLOOKUP(F6,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F6,FIND(",",F6)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F6,FIND(",",F6)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F6,FIND(",",F6)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F6,FIND(",",F6,FIND(",",F6)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F6,FIND(",",F6)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F6,FIND(",",F6)+1,FIND(",",F6,FIND(",",F6)+1)-FIND(",",F6)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F6,FIND(",",F6,FIND(",",F6)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F6,FIND(",",F6,FIND(",",F6,FIND(",",F6)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F6,FIND(",",F6)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F6,FIND(",",F6)+1,FIND(",",F6,FIND(",",F6)+1)-FIND(",",F6)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F6,FIND(",",F6,FIND(",",F6)+1)+1,FIND(",",F6,FIND(",",F6,FIND(",",F6)+1)+1)-FIND(",",F6,FIND(",",F6)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F6,FIND(",",F6,FIND(",",F6,FIND(",",F6)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+)))))</f>
+        <v/>
+      </c>
+      <c r="J6" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK(H6),"",VLOOKUP(H6,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0)),"스트링없음")</f>
+        <v/>
+      </c>
+      <c r="K6" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK(I6),"",VLOOKUP(I6,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0)),"스트링없음")</f>
+        <v/>
+      </c>
+      <c r="L6" s="1" t="b">
         <f>IF(ISERROR(MATCH($A6,SkillLevelTable!$A:$A,0)),FALSE,
 IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A6,SkillLevelTable!$A:$A,0),MATCH($E$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
         <v>0</v>
       </c>
-      <c r="L6" s="2" t="b">
+      <c r="M6" s="1" t="b">
         <f>IF(ISERROR(MATCH($A6,SkillLevelTable!$A:$A,0)),FALSE,
 IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A6,SkillLevelTable!$A:$A,0),MATCH(ActionTable!$G$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
         <v>0</v>
       </c>
-      <c r="M6" s="2" t="b">
+      <c r="N6" s="1" t="b">
         <f>IF(ISERROR(MATCH($A6,SkillLevelTable!$A:$A,0)),FALSE,
 IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A6,SkillLevelTable!$A:$A,0),MATCH($F$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
         <v>0</v>
       </c>
-      <c r="N6" s="2" t="b">
-        <f>IF(ISERROR(MATCH($A6,SkillLevelTable!$A:$A,0)),FALSE,
-IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A6,SkillLevelTable!$A:$A,0),MATCH($G$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
-        <v>0</v>
-      </c>
-      <c r="O6" s="2" t="b">
+      <c r="O6" s="1" t="b">
         <f>IF(ISERROR(MATCH($A6,SkillLevelTable!$A:$A,0)),FALSE,
 IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A6,SkillLevelTable!$A:$A,0),MATCH($H$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C7" s="2" t="b">
+      <c r="P6" s="1" t="b">
+        <f>IF(ISERROR(MATCH($A6,SkillLevelTable!$A:$A,0)),FALSE,
+IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A6,SkillLevelTable!$A:$A,0),MATCH($I$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I7" s="2" t="str">
-        <f>IFERROR(IF(ISBLANK(G7),"",VLOOKUP(G7,[1]StringTable!$A:$B,2,0)),"스트링없음")</f>
-        <v/>
-      </c>
-      <c r="J7" s="2" t="str">
-        <f>IFERROR(IF(ISBLANK(H7),"",VLOOKUP(H7,[1]StringTable!$A:$B,2,0)),"스트링없음")</f>
-        <v/>
-      </c>
-      <c r="K7" s="2" t="b">
+      <c r="G7" s="1" t="str">
+        <f>IF(ISBLANK(F7),"",
+IF(ISERROR(FIND(",",F7)),
+  IF(ISERROR(VLOOKUP(F7,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F7,FIND(",",F7)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F7,FIND(",",F7)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F7,FIND(",",F7)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F7,FIND(",",F7,FIND(",",F7)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F7,FIND(",",F7)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F7,FIND(",",F7)+1,FIND(",",F7,FIND(",",F7)+1)-FIND(",",F7)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F7,FIND(",",F7,FIND(",",F7)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",F7,FIND(",",F7,FIND(",",F7,FIND(",",F7)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(F7,FIND(",",F7)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F7,FIND(",",F7)+1,FIND(",",F7,FIND(",",F7)+1)-FIND(",",F7)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F7,FIND(",",F7,FIND(",",F7)+1)+1,FIND(",",F7,FIND(",",F7,FIND(",",F7)+1)+1)-FIND(",",F7,FIND(",",F7)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(F7,FIND(",",F7,FIND(",",F7,FIND(",",F7)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+)))))</f>
+        <v/>
+      </c>
+      <c r="J7" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK(H7),"",VLOOKUP(H7,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0)),"스트링없음")</f>
+        <v/>
+      </c>
+      <c r="K7" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK(I7),"",VLOOKUP(I7,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0)),"스트링없음")</f>
+        <v/>
+      </c>
+      <c r="L7" s="1" t="b">
         <f>IF(ISERROR(MATCH($A7,SkillLevelTable!$A:$A,0)),FALSE,
 IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A7,SkillLevelTable!$A:$A,0),MATCH($E$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
         <v>0</v>
       </c>
-      <c r="L7" s="2" t="b">
+      <c r="M7" s="1" t="b">
         <f>IF(ISERROR(MATCH($A7,SkillLevelTable!$A:$A,0)),FALSE,
 IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A7,SkillLevelTable!$A:$A,0),MATCH(ActionTable!$G$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
         <v>0</v>
       </c>
-      <c r="M7" s="2" t="b">
+      <c r="N7" s="1" t="b">
         <f>IF(ISERROR(MATCH($A7,SkillLevelTable!$A:$A,0)),FALSE,
 IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A7,SkillLevelTable!$A:$A,0),MATCH($F$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
         <v>0</v>
       </c>
-      <c r="N7" s="2" t="b">
-        <f>IF(ISERROR(MATCH($A7,SkillLevelTable!$A:$A,0)),FALSE,
-IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A7,SkillLevelTable!$A:$A,0),MATCH($G$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
-        <v>0</v>
-      </c>
-      <c r="O7" s="2" t="b">
+      <c r="O7" s="1" t="b">
         <f>IF(ISERROR(MATCH($A7,SkillLevelTable!$A:$A,0)),FALSE,
 IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A7,SkillLevelTable!$A:$A,0),MATCH($H$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
+        <v>0</v>
+      </c>
+      <c r="P7" s="1" t="b">
+        <f>IF(ISERROR(MATCH($A7,SkillLevelTable!$A:$A,0)),FALSE,
+IF(ISBLANK(INDEX(SkillLevelTable!$1:$1048576,MATCH($A7,SkillLevelTable!$A:$A,0),MATCH($I$1,SkillLevelTable!$1:$1,0))),FALSE,TRUE))</f>
         <v>0</v>
       </c>
     </row>
@@ -3388,10 +3300,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:AG16"/>
+  <dimension ref="A1:AF16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -3401,927 +3316,1518 @@
     <col min="3" max="3" width="8.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27" customWidth="1"/>
-    <col min="6" max="6" width="18.25" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="17.375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="17.375" customWidth="1"/>
     <col min="8" max="8" width="30.75" customWidth="1"/>
-    <col min="9" max="9" width="16.125" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="10" width="22.375" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="19" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="17.25" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="13" width="12.875" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="15" width="10.625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="16" max="18" width="11.375" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="19" max="19" width="17.25" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="20" max="20" width="12.875" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="21" max="22" width="10.625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="23" max="25" width="11.375" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="26" max="26" width="17.25" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="27" max="27" width="12.875" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="28" max="29" width="10.625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="30" max="32" width="11.375" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="33" max="33" width="9" collapsed="1"/>
+    <col min="9" max="9" width="16.125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="22.375" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="19" customWidth="1"/>
+    <col min="12" max="12" width="17.25" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="12.875" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="15" width="10.625" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="18" width="11.375" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="19" width="17.25" customWidth="1" outlineLevel="1"/>
+    <col min="20" max="20" width="12.875" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="22" width="10.625" customWidth="1" outlineLevel="1"/>
+    <col min="23" max="25" width="11.375" customWidth="1" outlineLevel="1"/>
+    <col min="26" max="26" width="17.25" customWidth="1" outlineLevel="1"/>
+    <col min="27" max="27" width="12.875" customWidth="1" outlineLevel="1"/>
+    <col min="28" max="29" width="10.625" customWidth="1" outlineLevel="1"/>
+    <col min="30" max="32" width="11.375" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F1" t="s">
-        <v>131</v>
-      </c>
-      <c r="G1" t="s">
-        <v>112</v>
-      </c>
-      <c r="H1" t="s">
-        <v>111</v>
-      </c>
-      <c r="I1" s="2" t="s">
+      <c r="O1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1" t="str">
+        <f>IF(ISBLANK(E2),"",
+IF(ISERROR(FIND(",",E2)),
+  IF(ISERROR(VLOOKUP(E2,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",E2,FIND(",",E2)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(E2,FIND(",",E2)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E2,FIND(",",E2)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",E2,FIND(",",E2,FIND(",",E2)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(E2,FIND(",",E2)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E2,FIND(",",E2)+1,FIND(",",E2,FIND(",",E2)+1)-FIND(",",E2)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E2,FIND(",",E2,FIND(",",E2)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",E2,FIND(",",E2,FIND(",",E2,FIND(",",E2)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(E2,FIND(",",E2)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E2,FIND(",",E2)+1,FIND(",",E2,FIND(",",E2)+1)-FIND(",",E2)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E2,FIND(",",E2,FIND(",",E2)+1)+1,FIND(",",E2,FIND(",",E2,FIND(",",E2)+1)+1)-FIND(",",E2,FIND(",",E2)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E2,FIND(",",E2,FIND(",",E2,FIND(",",E2)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+)))))</f>
+        <v/>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="str">
+        <f>IF(NOT(VLOOKUP($A2,SkillTable!$1:$1048576,MATCH(SkillTable!$O$1,SkillTable!$1:$1,0),0)),VLOOKUP($A2,SkillTable!$1:$1048576,MATCH(SkillTable!$J$1,SkillTable!$1:$1,0),0),
+IFERROR(IF(ISBLANK(G2),"",VLOOKUP(G2,[2]StringTable!$A:$B,2,0)),"스트링없음"))</f>
+        <v>하트가 폭발한다</v>
+      </c>
+      <c r="J2" s="1" t="str">
+        <f>IF(NOT(VLOOKUP($A2,SkillTable!$1:$1048576,MATCH(SkillTable!$P$1,SkillTable!$1:$1,0),0)),VLOOKUP($A2,SkillTable!$1:$1048576,MATCH(SkillTable!$K$1,SkillTable!$1:$1,0),0),
+IFERROR(IF(ISBLANK(H2),"",VLOOKUP(H2,[2]StringTable!$A:$B,2,0)),"스트링없음"))</f>
+        <v>대미지를 &lt;color=#FFFF00&gt;{0}%,{1}%,{2}%,{3}%&lt;/color&gt; 먹이고 적이 죽이면 하트를 반드시 떨어뜨린다
+적이 죽지 않으면 기절을 먹인다</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="K1" t="s">
-        <v>116</v>
-      </c>
-      <c r="L1" t="s">
-        <v>119</v>
-      </c>
-      <c r="M1" t="s">
-        <v>121</v>
-      </c>
-      <c r="N1" t="s">
-        <v>122</v>
-      </c>
-      <c r="O1" t="s">
-        <v>123</v>
-      </c>
-      <c r="P1" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>125</v>
-      </c>
-      <c r="R1" t="s">
-        <v>126</v>
-      </c>
-      <c r="S1" t="s">
-        <v>127</v>
-      </c>
-      <c r="T1" t="s">
-        <v>121</v>
-      </c>
-      <c r="U1" t="s">
-        <v>122</v>
-      </c>
-      <c r="V1" t="s">
-        <v>123</v>
-      </c>
-      <c r="W1" t="s">
-        <v>124</v>
-      </c>
-      <c r="X1" t="s">
-        <v>125</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>126</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>121</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>122</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="M2" s="1">
+        <f>IFERROR(IF(ISBLANK($L2),"",VLOOKUP($L2&amp;TEXT($B2,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(M$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
+        <f>IFERROR(IF(ISBLANK($L2),"",VLOOKUP($L2&amp;TEXT($B2,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(N$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v>1</v>
+      </c>
+      <c r="O2" s="1">
+        <f>IFERROR(IF(ISBLANK($L2),"",VLOOKUP($L2&amp;TEXT($B2,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(O$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v>0.9</v>
+      </c>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK($S2),"",VLOOKUP($S2&amp;TEXT($B2,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(T$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="U2" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK($S2),"",VLOOKUP($S2&amp;TEXT($B2,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(U$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="V2" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK($S2),"",VLOOKUP($S2&amp;TEXT($B2,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(V$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK($Z2),"",VLOOKUP($Z2&amp;TEXT($B2,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AA$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="AB2" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK($Z2),"",VLOOKUP($Z2&amp;TEXT($B2,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AB$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="AC2" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK($Z2),"",VLOOKUP($Z2&amp;TEXT($B2,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AC$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1"/>
+      <c r="AF2" s="1"/>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2">
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1" t="str">
+        <f>IF(ISBLANK(E3),"",
+IF(ISERROR(FIND(",",E3)),
+  IF(ISERROR(VLOOKUP(E3,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",E3,FIND(",",E3)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(E3,FIND(",",E3)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E3,FIND(",",E3)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",E3,FIND(",",E3,FIND(",",E3)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(E3,FIND(",",E3)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E3,FIND(",",E3)+1,FIND(",",E3,FIND(",",E3)+1)-FIND(",",E3)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E3,FIND(",",E3,FIND(",",E3)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",E3,FIND(",",E3,FIND(",",E3,FIND(",",E3)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(E3,FIND(",",E3)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E3,FIND(",",E3)+1,FIND(",",E3,FIND(",",E3)+1)-FIND(",",E3)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E3,FIND(",",E3,FIND(",",E3)+1)+1,FIND(",",E3,FIND(",",E3,FIND(",",E3)+1)+1)-FIND(",",E3,FIND(",",E3)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E3,FIND(",",E3,FIND(",",E3,FIND(",",E3)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+)))))</f>
+        <v/>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1" t="str">
+        <f>IF(NOT(VLOOKUP($A3,SkillTable!$1:$1048576,MATCH(SkillTable!$O$1,SkillTable!$1:$1,0),0)),VLOOKUP($A3,SkillTable!$1:$1048576,MATCH(SkillTable!$J$1,SkillTable!$1:$1,0),0),
+IFERROR(IF(ISBLANK(G3),"",VLOOKUP(G3,[2]StringTable!$A:$B,2,0)),"스트링없음"))</f>
+        <v>하트가 폭발한다</v>
+      </c>
+      <c r="J3" s="1" t="str">
+        <f>IF(NOT(VLOOKUP($A3,SkillTable!$1:$1048576,MATCH(SkillTable!$P$1,SkillTable!$1:$1,0),0)),VLOOKUP($A3,SkillTable!$1:$1048576,MATCH(SkillTable!$K$1,SkillTable!$1:$1,0),0),
+IFERROR(IF(ISBLANK(H3),"",VLOOKUP(H3,[2]StringTable!$A:$B,2,0)),"스트링없음"))</f>
+        <v>대미지를 &lt;color=#FFFF00&gt;{0}%,{1}%,{2}%,{3}%&lt;/color&gt; 먹이고 적이 죽이면 하트를 반드시 떨어뜨린다
+적이 죽지 않으면 기절을 먹인다</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="M3" s="1">
+        <f>IFERROR(IF(ISBLANK($L3),"",VLOOKUP($L3&amp;TEXT($B3,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(M$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="1">
+        <f>IFERROR(IF(ISBLANK($L3),"",VLOOKUP($L3&amp;TEXT($B3,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(N$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v>2</v>
+      </c>
+      <c r="O3" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK($L3),"",VLOOKUP($L3&amp;TEXT($B3,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(O$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v>0.95,0.9</v>
+      </c>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK($S3),"",VLOOKUP($S3&amp;TEXT($B3,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(T$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="U3" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK($S3),"",VLOOKUP($S3&amp;TEXT($B3,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(U$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="V3" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK($S3),"",VLOOKUP($S3&amp;TEXT($B3,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(V$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK($Z3),"",VLOOKUP($Z3&amp;TEXT($B3,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AA$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="AB3" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK($Z3),"",VLOOKUP($Z3&amp;TEXT($B3,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AB$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="AC3" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK($Z3),"",VLOOKUP($Z3&amp;TEXT($B3,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AC$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="str">
+        <f>IF(ISBLANK(E4),"",
+IF(ISERROR(FIND(",",E4)),
+  IF(ISERROR(VLOOKUP(E4,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",E4,FIND(",",E4)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(E4,FIND(",",E4)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E4,FIND(",",E4)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",E4,FIND(",",E4,FIND(",",E4)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(E4,FIND(",",E4)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E4,FIND(",",E4)+1,FIND(",",E4,FIND(",",E4)+1)-FIND(",",E4)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E4,FIND(",",E4,FIND(",",E4)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",E4,FIND(",",E4,FIND(",",E4,FIND(",",E4)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(E4,FIND(",",E4)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E4,FIND(",",E4)+1,FIND(",",E4,FIND(",",E4)+1)-FIND(",",E4)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E4,FIND(",",E4,FIND(",",E4)+1)+1,FIND(",",E4,FIND(",",E4,FIND(",",E4)+1)+1)-FIND(",",E4,FIND(",",E4)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E4,FIND(",",E4,FIND(",",E4,FIND(",",E4)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+)))))</f>
+        <v/>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1" t="str">
+        <f>IF(NOT(VLOOKUP($A4,SkillTable!$1:$1048576,MATCH(SkillTable!$O$1,SkillTable!$1:$1,0),0)),VLOOKUP($A4,SkillTable!$1:$1048576,MATCH(SkillTable!$J$1,SkillTable!$1:$1,0),0),
+IFERROR(IF(ISBLANK(G4),"",VLOOKUP(G4,[2]StringTable!$A:$B,2,0)),"스트링없음"))</f>
+        <v>하트가 폭발한다</v>
+      </c>
+      <c r="J4" s="1" t="str">
+        <f>IF(NOT(VLOOKUP($A4,SkillTable!$1:$1048576,MATCH(SkillTable!$P$1,SkillTable!$1:$1,0),0)),VLOOKUP($A4,SkillTable!$1:$1048576,MATCH(SkillTable!$K$1,SkillTable!$1:$1,0),0),
+IFERROR(IF(ISBLANK(H4),"",VLOOKUP(H4,[2]StringTable!$A:$B,2,0)),"스트링없음"))</f>
+        <v>대미지를 &lt;color=#FFFF00&gt;{0}%,{1}%,{2}%,{3}%&lt;/color&gt; 먹이고 적이 죽이면 하트를 반드시 떨어뜨린다
+적이 죽지 않으면 기절을 먹인다</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK($L4),"",VLOOKUP($L4&amp;TEXT($B4,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(M$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="N4" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK($L4),"",VLOOKUP($L4&amp;TEXT($B4,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(N$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="O4" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK($L4),"",VLOOKUP($L4&amp;TEXT($B4,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(O$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK($S4),"",VLOOKUP($S4&amp;TEXT($B4,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(T$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="U4" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK($S4),"",VLOOKUP($S4&amp;TEXT($B4,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(U$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="V4" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK($S4),"",VLOOKUP($S4&amp;TEXT($B4,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(V$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK($Z4),"",VLOOKUP($Z4&amp;TEXT($B4,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AA$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="AB4" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK($Z4),"",VLOOKUP($Z4&amp;TEXT($B4,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AB$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="AC4" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK($Z4),"",VLOOKUP($Z4&amp;TEXT($B4,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AC$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1"/>
+      <c r="AF4" s="1"/>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>7</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1" t="str">
+        <f>IF(ISBLANK(E5),"",
+IF(ISERROR(FIND(",",E5)),
+  IF(ISERROR(VLOOKUP(E5,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",E5,FIND(",",E5)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(E5,FIND(",",E5)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E5,FIND(",",E5)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",E5,FIND(",",E5,FIND(",",E5)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(E5,FIND(",",E5)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E5,FIND(",",E5)+1,FIND(",",E5,FIND(",",E5)+1)-FIND(",",E5)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E5,FIND(",",E5,FIND(",",E5)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",E5,FIND(",",E5,FIND(",",E5,FIND(",",E5)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(E5,FIND(",",E5)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E5,FIND(",",E5)+1,FIND(",",E5,FIND(",",E5)+1)-FIND(",",E5)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E5,FIND(",",E5,FIND(",",E5)+1)+1,FIND(",",E5,FIND(",",E5,FIND(",",E5)+1)+1)-FIND(",",E5,FIND(",",E5)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E5,FIND(",",E5,FIND(",",E5,FIND(",",E5)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+)))))</f>
+        <v/>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1" t="str">
+        <f>IF(NOT(VLOOKUP($A5,SkillTable!$1:$1048576,MATCH(SkillTable!$O$1,SkillTable!$1:$1,0),0)),VLOOKUP($A5,SkillTable!$1:$1048576,MATCH(SkillTable!$J$1,SkillTable!$1:$1,0),0),
+IFERROR(IF(ISBLANK(G5),"",VLOOKUP(G5,[2]StringTable!$A:$B,2,0)),"스트링없음"))</f>
+        <v>하트가 폭발한다</v>
+      </c>
+      <c r="J5" s="1" t="str">
+        <f>IF(NOT(VLOOKUP($A5,SkillTable!$1:$1048576,MATCH(SkillTable!$P$1,SkillTable!$1:$1,0),0)),VLOOKUP($A5,SkillTable!$1:$1048576,MATCH(SkillTable!$K$1,SkillTable!$1:$1,0),0),
+IFERROR(IF(ISBLANK(H5),"",VLOOKUP(H5,[2]StringTable!$A:$B,2,0)),"스트링없음"))</f>
+        <v>대미지를 &lt;color=#FFFF00&gt;{0}%,{1}%,{2}%,{3}%&lt;/color&gt; 먹이고 적이 죽이면 하트를 반드시 떨어뜨린다
+적이 죽지 않으면 기절을 먹인다</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK($L5),"",VLOOKUP($L5&amp;TEXT($B5,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(M$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="N5" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK($L5),"",VLOOKUP($L5&amp;TEXT($B5,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(N$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="O5" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK($L5),"",VLOOKUP($L5&amp;TEXT($B5,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(O$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK($S5),"",VLOOKUP($S5&amp;TEXT($B5,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(T$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="U5" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK($S5),"",VLOOKUP($S5&amp;TEXT($B5,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(U$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="V5" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK($S5),"",VLOOKUP($S5&amp;TEXT($B5,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(V$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK($Z5),"",VLOOKUP($Z5&amp;TEXT($B5,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AA$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="AB5" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK($Z5),"",VLOOKUP($Z5&amp;TEXT($B5,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AB$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="AC5" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK($Z5),"",VLOOKUP($Z5&amp;TEXT($B5,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AC$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="1"/>
+      <c r="AF5" s="1"/>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="str">
+        <f>IF(ISBLANK(E6),"",
+IF(ISERROR(FIND(",",E6)),
+  IF(ISERROR(VLOOKUP(E6,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",E6,FIND(",",E6)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(E6,FIND(",",E6)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E6,FIND(",",E6)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",E6,FIND(",",E6,FIND(",",E6)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(E6,FIND(",",E6)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E6,FIND(",",E6)+1,FIND(",",E6,FIND(",",E6)+1)-FIND(",",E6)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E6,FIND(",",E6,FIND(",",E6)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",E6,FIND(",",E6,FIND(",",E6,FIND(",",E6)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(E6,FIND(",",E6)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E6,FIND(",",E6)+1,FIND(",",E6,FIND(",",E6)+1)-FIND(",",E6)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E6,FIND(",",E6,FIND(",",E6)+1)+1,FIND(",",E6,FIND(",",E6,FIND(",",E6)+1)+1)-FIND(",",E6,FIND(",",E6)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E6,FIND(",",E6,FIND(",",E6,FIND(",",E6)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+)))))</f>
+        <v/>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1" t="str">
+        <f>IF(NOT(VLOOKUP($A6,SkillTable!$1:$1048576,MATCH(SkillTable!$O$1,SkillTable!$1:$1,0),0)),VLOOKUP($A6,SkillTable!$1:$1048576,MATCH(SkillTable!$J$1,SkillTable!$1:$1,0),0),
+IFERROR(IF(ISBLANK(G6),"",VLOOKUP(G6,[2]StringTable!$A:$B,2,0)),"스트링없음"))</f>
+        <v>하트가 폭발한다</v>
+      </c>
+      <c r="J6" s="1" t="str">
+        <f>IF(NOT(VLOOKUP($A6,SkillTable!$1:$1048576,MATCH(SkillTable!$P$1,SkillTable!$1:$1,0),0)),VLOOKUP($A6,SkillTable!$1:$1048576,MATCH(SkillTable!$K$1,SkillTable!$1:$1,0),0),
+IFERROR(IF(ISBLANK(H6),"",VLOOKUP(H6,[2]StringTable!$A:$B,2,0)),"스트링없음"))</f>
+        <v>대미지를 &lt;color=#FFFF00&gt;{0}%,{1}%,{2}%,{3}%&lt;/color&gt; 먹이고 적이 죽이면 하트를 반드시 떨어뜨린다
+적이 죽지 않으면 기절을 먹인다</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK($L6),"",VLOOKUP($L6&amp;TEXT($B6,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(M$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="N6" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK($L6),"",VLOOKUP($L6&amp;TEXT($B6,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(N$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="O6" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK($L6),"",VLOOKUP($L6&amp;TEXT($B6,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(O$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK($S6),"",VLOOKUP($S6&amp;TEXT($B6,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(T$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="U6" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK($S6),"",VLOOKUP($S6&amp;TEXT($B6,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(U$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="V6" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK($S6),"",VLOOKUP($S6&amp;TEXT($B6,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(V$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK($Z6),"",VLOOKUP($Z6&amp;TEXT($B6,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AA$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="AB6" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK($Z6),"",VLOOKUP($Z6&amp;TEXT($B6,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AB$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="AC6" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK($Z6),"",VLOOKUP($Z6&amp;TEXT($B6,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AC$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="AD6" s="1"/>
+      <c r="AE6" s="1"/>
+      <c r="AF6" s="1"/>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1" t="str">
+        <f>IF(ISBLANK(E7),"",
+IF(ISERROR(FIND(",",E7)),
+  IF(ISERROR(VLOOKUP(E7,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",E7,FIND(",",E7)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(E7,FIND(",",E7)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E7,FIND(",",E7)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",E7,FIND(",",E7,FIND(",",E7)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(E7,FIND(",",E7)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E7,FIND(",",E7)+1,FIND(",",E7,FIND(",",E7)+1)-FIND(",",E7)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E7,FIND(",",E7,FIND(",",E7)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",E7,FIND(",",E7,FIND(",",E7,FIND(",",E7)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(E7,FIND(",",E7)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E7,FIND(",",E7)+1,FIND(",",E7,FIND(",",E7)+1)-FIND(",",E7)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E7,FIND(",",E7,FIND(",",E7)+1)+1,FIND(",",E7,FIND(",",E7,FIND(",",E7)+1)+1)-FIND(",",E7,FIND(",",E7)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E7,FIND(",",E7,FIND(",",E7,FIND(",",E7)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+)))))</f>
+        <v/>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1" t="str">
+        <f>IF(NOT(VLOOKUP($A7,SkillTable!$1:$1048576,MATCH(SkillTable!$O$1,SkillTable!$1:$1,0),0)),VLOOKUP($A7,SkillTable!$1:$1048576,MATCH(SkillTable!$J$1,SkillTable!$1:$1,0),0),
+IFERROR(IF(ISBLANK(G7),"",VLOOKUP(G7,[2]StringTable!$A:$B,2,0)),"스트링없음"))</f>
+        <v/>
+      </c>
+      <c r="J7" s="1" t="str">
+        <f>IF(NOT(VLOOKUP($A7,SkillTable!$1:$1048576,MATCH(SkillTable!$P$1,SkillTable!$1:$1,0),0)),VLOOKUP($A7,SkillTable!$1:$1048576,MATCH(SkillTable!$K$1,SkillTable!$1:$1,0),0),
+IFERROR(IF(ISBLANK(H7),"",VLOOKUP(H7,[2]StringTable!$A:$B,2,0)),"스트링없음"))</f>
+        <v/>
+      </c>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK($L7),"",VLOOKUP($L7&amp;TEXT($B7,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(M$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="N7" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK($L7),"",VLOOKUP($L7&amp;TEXT($B7,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(N$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="O7" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK($L7),"",VLOOKUP($L7&amp;TEXT($B7,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(O$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK($S7),"",VLOOKUP($S7&amp;TEXT($B7,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(T$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="U7" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK($S7),"",VLOOKUP($S7&amp;TEXT($B7,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(U$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="V7" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK($S7),"",VLOOKUP($S7&amp;TEXT($B7,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(V$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK($Z7),"",VLOOKUP($Z7&amp;TEXT($B7,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AA$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="AB7" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK($Z7),"",VLOOKUP($Z7&amp;TEXT($B7,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AB$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="AC7" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK($Z7),"",VLOOKUP($Z7&amp;TEXT($B7,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AC$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="1"/>
+      <c r="AF7" s="1"/>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1" t="str">
+        <f>IF(ISBLANK(E8),"",
+IF(ISERROR(FIND(",",E8)),
+  IF(ISERROR(VLOOKUP(E8,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",E8,FIND(",",E8)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(E8,FIND(",",E8)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E8,FIND(",",E8)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",E8,FIND(",",E8,FIND(",",E8)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(E8,FIND(",",E8)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E8,FIND(",",E8)+1,FIND(",",E8,FIND(",",E8)+1)-FIND(",",E8)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E8,FIND(",",E8,FIND(",",E8)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",E8,FIND(",",E8,FIND(",",E8,FIND(",",E8)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(E8,FIND(",",E8)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E8,FIND(",",E8)+1,FIND(",",E8,FIND(",",E8)+1)-FIND(",",E8)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E8,FIND(",",E8,FIND(",",E8)+1)+1,FIND(",",E8,FIND(",",E8,FIND(",",E8)+1)+1)-FIND(",",E8,FIND(",",E8)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E8,FIND(",",E8,FIND(",",E8,FIND(",",E8)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+)))))</f>
+        <v/>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1" t="str">
+        <f>IF(NOT(VLOOKUP($A8,SkillTable!$1:$1048576,MATCH(SkillTable!$O$1,SkillTable!$1:$1,0),0)),VLOOKUP($A8,SkillTable!$1:$1048576,MATCH(SkillTable!$J$1,SkillTable!$1:$1,0),0),
+IFERROR(IF(ISBLANK(G8),"",VLOOKUP(G8,[2]StringTable!$A:$B,2,0)),"스트링없음"))</f>
+        <v/>
+      </c>
+      <c r="J8" s="1" t="str">
+        <f>IF(NOT(VLOOKUP($A8,SkillTable!$1:$1048576,MATCH(SkillTable!$P$1,SkillTable!$1:$1,0),0)),VLOOKUP($A8,SkillTable!$1:$1048576,MATCH(SkillTable!$K$1,SkillTable!$1:$1,0),0),
+IFERROR(IF(ISBLANK(H8),"",VLOOKUP(H8,[2]StringTable!$A:$B,2,0)),"스트링없음"))</f>
+        <v/>
+      </c>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK($L8),"",VLOOKUP($L8&amp;TEXT($B8,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(M$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="N8" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK($L8),"",VLOOKUP($L8&amp;TEXT($B8,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(N$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="O8" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK($L8),"",VLOOKUP($L8&amp;TEXT($B8,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(O$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK($S8),"",VLOOKUP($S8&amp;TEXT($B8,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(T$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="U8" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK($S8),"",VLOOKUP($S8&amp;TEXT($B8,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(U$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="V8" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK($S8),"",VLOOKUP($S8&amp;TEXT($B8,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(V$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK($Z8),"",VLOOKUP($Z8&amp;TEXT($B8,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AA$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="AB8" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK($Z8),"",VLOOKUP($Z8&amp;TEXT($B8,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AB$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="AC8" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK($Z8),"",VLOOKUP($Z8&amp;TEXT($B8,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AC$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="AD8" s="1"/>
+      <c r="AE8" s="1"/>
+      <c r="AF8" s="1"/>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1" t="str">
+        <f>IF(ISBLANK(E9),"",
+IF(ISERROR(FIND(",",E9)),
+  IF(ISERROR(VLOOKUP(E9,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",E9,FIND(",",E9)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(E9,FIND(",",E9)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E9,FIND(",",E9)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",E9,FIND(",",E9,FIND(",",E9)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(E9,FIND(",",E9)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E9,FIND(",",E9)+1,FIND(",",E9,FIND(",",E9)+1)-FIND(",",E9)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E9,FIND(",",E9,FIND(",",E9)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",E9,FIND(",",E9,FIND(",",E9,FIND(",",E9)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(E9,FIND(",",E9)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E9,FIND(",",E9)+1,FIND(",",E9,FIND(",",E9)+1)-FIND(",",E9)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E9,FIND(",",E9,FIND(",",E9)+1)+1,FIND(",",E9,FIND(",",E9,FIND(",",E9)+1)+1)-FIND(",",E9,FIND(",",E9)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E9,FIND(",",E9,FIND(",",E9,FIND(",",E9)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+)))))</f>
+        <v/>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1" t="str">
+        <f>IF(NOT(VLOOKUP($A9,SkillTable!$1:$1048576,MATCH(SkillTable!$O$1,SkillTable!$1:$1,0),0)),VLOOKUP($A9,SkillTable!$1:$1048576,MATCH(SkillTable!$J$1,SkillTable!$1:$1,0),0),
+IFERROR(IF(ISBLANK(G9),"",VLOOKUP(G9,[2]StringTable!$A:$B,2,0)),"스트링없음"))</f>
+        <v/>
+      </c>
+      <c r="J9" s="1" t="str">
+        <f>IF(NOT(VLOOKUP($A9,SkillTable!$1:$1048576,MATCH(SkillTable!$P$1,SkillTable!$1:$1,0),0)),VLOOKUP($A9,SkillTable!$1:$1048576,MATCH(SkillTable!$K$1,SkillTable!$1:$1,0),0),
+IFERROR(IF(ISBLANK(H9),"",VLOOKUP(H9,[2]StringTable!$A:$B,2,0)),"스트링없음"))</f>
+        <v/>
+      </c>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK($L9),"",VLOOKUP($L9&amp;TEXT($B9,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(M$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="N9" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK($L9),"",VLOOKUP($L9&amp;TEXT($B9,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(N$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="O9" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK($L9),"",VLOOKUP($L9&amp;TEXT($B9,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(O$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK($S9),"",VLOOKUP($S9&amp;TEXT($B9,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(T$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="U9" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK($S9),"",VLOOKUP($S9&amp;TEXT($B9,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(U$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="V9" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK($S9),"",VLOOKUP($S9&amp;TEXT($B9,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(V$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK($Z9),"",VLOOKUP($Z9&amp;TEXT($B9,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AA$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="AB9" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK($Z9),"",VLOOKUP($Z9&amp;TEXT($B9,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AB$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="AC9" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK($Z9),"",VLOOKUP($Z9&amp;TEXT($B9,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AC$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="AD9" s="1"/>
+      <c r="AE9" s="1"/>
+      <c r="AF9" s="1"/>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1" t="str">
+        <f>IF(ISBLANK(E10),"",
+IF(ISERROR(FIND(",",E10)),
+  IF(ISERROR(VLOOKUP(E10,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",E10,FIND(",",E10)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(E10,FIND(",",E10)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E10,FIND(",",E10)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",E10,FIND(",",E10,FIND(",",E10)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(E10,FIND(",",E10)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E10,FIND(",",E10)+1,FIND(",",E10,FIND(",",E10)+1)-FIND(",",E10)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E10,FIND(",",E10,FIND(",",E10)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",E10,FIND(",",E10,FIND(",",E10,FIND(",",E10)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(E10,FIND(",",E10)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E10,FIND(",",E10)+1,FIND(",",E10,FIND(",",E10)+1)-FIND(",",E10)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E10,FIND(",",E10,FIND(",",E10)+1)+1,FIND(",",E10,FIND(",",E10,FIND(",",E10)+1)+1)-FIND(",",E10,FIND(",",E10)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E10,FIND(",",E10,FIND(",",E10,FIND(",",E10)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+)))))</f>
+        <v/>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1" t="str">
+        <f>IF(NOT(VLOOKUP($A10,SkillTable!$1:$1048576,MATCH(SkillTable!$O$1,SkillTable!$1:$1,0),0)),VLOOKUP($A10,SkillTable!$1:$1048576,MATCH(SkillTable!$J$1,SkillTable!$1:$1,0),0),
+IFERROR(IF(ISBLANK(G10),"",VLOOKUP(G10,[2]StringTable!$A:$B,2,0)),"스트링없음"))</f>
+        <v/>
+      </c>
+      <c r="J10" s="1" t="str">
+        <f>IF(NOT(VLOOKUP($A10,SkillTable!$1:$1048576,MATCH(SkillTable!$P$1,SkillTable!$1:$1,0),0)),VLOOKUP($A10,SkillTable!$1:$1048576,MATCH(SkillTable!$K$1,SkillTable!$1:$1,0),0),
+IFERROR(IF(ISBLANK(H10),"",VLOOKUP(H10,[2]StringTable!$A:$B,2,0)),"스트링없음"))</f>
+        <v/>
+      </c>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK($L10),"",VLOOKUP($L10&amp;TEXT($B10,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(M$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="N10" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK($L10),"",VLOOKUP($L10&amp;TEXT($B10,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(N$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="O10" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK($L10),"",VLOOKUP($L10&amp;TEXT($B10,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(O$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK($S10),"",VLOOKUP($S10&amp;TEXT($B10,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(T$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="U10" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK($S10),"",VLOOKUP($S10&amp;TEXT($B10,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(U$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="V10" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK($S10),"",VLOOKUP($S10&amp;TEXT($B10,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(V$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK($Z10),"",VLOOKUP($Z10&amp;TEXT($B10,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AA$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="AB10" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK($Z10),"",VLOOKUP($Z10&amp;TEXT($B10,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AB$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="AC10" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK($Z10),"",VLOOKUP($Z10&amp;TEXT($B10,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AC$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="AD10" s="1"/>
+      <c r="AE10" s="1"/>
+      <c r="AF10" s="1"/>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="str">
-        <f>IF(ISBLANK(VLOOKUP($A2,SkillTable!$1:$1048576,MATCH(SkillTable!$F$1,SkillTable!$1:$1,0),0)),"",VLOOKUP($A2,SkillTable!$1:$1048576,MATCH(SkillTable!$F$1,SkillTable!$1:$1,0),0))</f>
-        <v/>
-      </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="2" t="str">
-        <f>IFERROR(IF(ISBLANK(G2),"",VLOOKUP(G2,[1]StringTable!$A:$B,2,0)),"스트링없음")</f>
-        <v/>
-      </c>
-      <c r="J2" s="2" t="str">
-        <f>IFERROR(IF(ISBLANK(H2),"",VLOOKUP(H2,[1]StringTable!$A:$B,2,0)),"스트링없음")</f>
-        <v/>
-      </c>
-      <c r="K2" t="s">
-        <v>108</v>
-      </c>
-      <c r="L2" t="s">
-        <v>120</v>
-      </c>
-      <c r="M2">
-        <f>IFERROR(IF(ISBLANK($L2),"",VLOOKUP($L2&amp;TEXT($B2,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(M$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1" t="str">
+        <f>IF(ISBLANK(E11),"",
+IF(ISERROR(FIND(",",E11)),
+  IF(ISERROR(VLOOKUP(E11,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",E11,FIND(",",E11)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(E11,FIND(",",E11)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E11,FIND(",",E11)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",E11,FIND(",",E11,FIND(",",E11)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(E11,FIND(",",E11)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E11,FIND(",",E11)+1,FIND(",",E11,FIND(",",E11)+1)-FIND(",",E11)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E11,FIND(",",E11,FIND(",",E11)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",E11,FIND(",",E11,FIND(",",E11,FIND(",",E11)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(E11,FIND(",",E11)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E11,FIND(",",E11)+1,FIND(",",E11,FIND(",",E11)+1)-FIND(",",E11)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E11,FIND(",",E11,FIND(",",E11)+1)+1,FIND(",",E11,FIND(",",E11,FIND(",",E11)+1)+1)-FIND(",",E11,FIND(",",E11)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E11,FIND(",",E11,FIND(",",E11,FIND(",",E11)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+)))))</f>
+        <v/>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1" t="str">
+        <f>IF(NOT(VLOOKUP($A11,SkillTable!$1:$1048576,MATCH(SkillTable!$O$1,SkillTable!$1:$1,0),0)),VLOOKUP($A11,SkillTable!$1:$1048576,MATCH(SkillTable!$J$1,SkillTable!$1:$1,0),0),
+IFERROR(IF(ISBLANK(G11),"",VLOOKUP(G11,[2]StringTable!$A:$B,2,0)),"스트링없음"))</f>
+        <v/>
+      </c>
+      <c r="J11" s="1" t="str">
+        <f>IF(NOT(VLOOKUP($A11,SkillTable!$1:$1048576,MATCH(SkillTable!$P$1,SkillTable!$1:$1,0),0)),VLOOKUP($A11,SkillTable!$1:$1048576,MATCH(SkillTable!$K$1,SkillTable!$1:$1,0),0),
+IFERROR(IF(ISBLANK(H11),"",VLOOKUP(H11,[2]StringTable!$A:$B,2,0)),"스트링없음"))</f>
+        <v/>
+      </c>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK($L11),"",VLOOKUP($L11&amp;TEXT($B11,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(M$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="N11" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK($L11),"",VLOOKUP($L11&amp;TEXT($B11,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(N$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="O11" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK($L11),"",VLOOKUP($L11&amp;TEXT($B11,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(O$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK($S11),"",VLOOKUP($S11&amp;TEXT($B11,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(T$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="U11" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK($S11),"",VLOOKUP($S11&amp;TEXT($B11,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(U$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="V11" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK($S11),"",VLOOKUP($S11&amp;TEXT($B11,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(V$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK($Z11),"",VLOOKUP($Z11&amp;TEXT($B11,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AA$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="AB11" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK($Z11),"",VLOOKUP($Z11&amp;TEXT($B11,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AB$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="AC11" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK($Z11),"",VLOOKUP($Z11&amp;TEXT($B11,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AC$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="AD11" s="1"/>
+      <c r="AE11" s="1"/>
+      <c r="AF11" s="1"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="1">
         <v>1</v>
       </c>
-      <c r="N2">
-        <f>IFERROR(IF(ISBLANK($L2),"",VLOOKUP($L2&amp;TEXT($B2,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(N$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v>1</v>
-      </c>
-      <c r="O2" t="str">
-        <f>IFERROR(IF(ISBLANK($L2),"",VLOOKUP($L2&amp;TEXT($B2,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(O$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v>0.4,0.5,0.6</v>
-      </c>
-      <c r="T2" t="str">
-        <f>IFERROR(IF(ISBLANK($S2),"",VLOOKUP($S2&amp;TEXT($B2,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(T$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="U2" t="str">
-        <f>IFERROR(IF(ISBLANK($S2),"",VLOOKUP($S2&amp;TEXT($B2,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(U$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="V2" t="str">
-        <f>IFERROR(IF(ISBLANK($S2),"",VLOOKUP($S2&amp;TEXT($B2,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(V$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="AA2" t="str">
-        <f>IFERROR(IF(ISBLANK($Z2),"",VLOOKUP($Z2&amp;TEXT($B2,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(AA$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="AB2" t="str">
-        <f>IFERROR(IF(ISBLANK($Z2),"",VLOOKUP($Z2&amp;TEXT($B2,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(AB$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="AC2" t="str">
-        <f>IFERROR(IF(ISBLANK($Z2),"",VLOOKUP($Z2&amp;TEXT($B2,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(AC$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="1" t="str">
-        <f>IF(ISBLANK(VLOOKUP($A3,SkillTable!$1:$1048576,MATCH(SkillTable!$F$1,SkillTable!$1:$1,0),0)),"",VLOOKUP($A3,SkillTable!$1:$1048576,MATCH(SkillTable!$F$1,SkillTable!$1:$1,0),0))</f>
-        <v/>
-      </c>
-      <c r="H3" s="1"/>
-      <c r="K3" t="s">
-        <v>108</v>
-      </c>
-      <c r="M3" t="str">
-        <f>IFERROR(IF(ISBLANK($L3),"",VLOOKUP($L3&amp;TEXT($B3,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(M$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="N3" t="str">
-        <f>IFERROR(IF(ISBLANK($L3),"",VLOOKUP($L3&amp;TEXT($B3,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(N$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="O3" t="str">
-        <f>IFERROR(IF(ISBLANK($L3),"",VLOOKUP($L3&amp;TEXT($B3,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(O$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="T3" t="str">
-        <f>IFERROR(IF(ISBLANK($S3),"",VLOOKUP($S3&amp;TEXT($B3,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(T$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="U3" t="str">
-        <f>IFERROR(IF(ISBLANK($S3),"",VLOOKUP($S3&amp;TEXT($B3,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(U$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="V3" t="str">
-        <f>IFERROR(IF(ISBLANK($S3),"",VLOOKUP($S3&amp;TEXT($B3,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(V$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="AA3" t="str">
-        <f>IFERROR(IF(ISBLANK($Z3),"",VLOOKUP($Z3&amp;TEXT($B3,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(AA$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="AB3" t="str">
-        <f>IFERROR(IF(ISBLANK($Z3),"",VLOOKUP($Z3&amp;TEXT($B3,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(AB$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="AC3" t="str">
-        <f>IFERROR(IF(ISBLANK($Z3),"",VLOOKUP($Z3&amp;TEXT($B3,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(AC$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="1" t="str">
-        <f>IF(ISBLANK(VLOOKUP($A4,SkillTable!$1:$1048576,MATCH(SkillTable!$F$1,SkillTable!$1:$1,0),0)),"",VLOOKUP($A4,SkillTable!$1:$1048576,MATCH(SkillTable!$F$1,SkillTable!$1:$1,0),0))</f>
-        <v/>
-      </c>
-      <c r="H4" s="1"/>
-      <c r="K4" t="s">
-        <v>108</v>
-      </c>
-      <c r="M4" t="str">
-        <f>IFERROR(IF(ISBLANK($L4),"",VLOOKUP($L4&amp;TEXT($B4,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(M$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="N4" t="str">
-        <f>IFERROR(IF(ISBLANK($L4),"",VLOOKUP($L4&amp;TEXT($B4,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(N$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="O4" t="str">
-        <f>IFERROR(IF(ISBLANK($L4),"",VLOOKUP($L4&amp;TEXT($B4,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(O$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="T4" t="str">
-        <f>IFERROR(IF(ISBLANK($S4),"",VLOOKUP($S4&amp;TEXT($B4,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(T$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="U4" t="str">
-        <f>IFERROR(IF(ISBLANK($S4),"",VLOOKUP($S4&amp;TEXT($B4,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(U$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="V4" t="str">
-        <f>IFERROR(IF(ISBLANK($S4),"",VLOOKUP($S4&amp;TEXT($B4,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(V$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="AA4" t="str">
-        <f>IFERROR(IF(ISBLANK($Z4),"",VLOOKUP($Z4&amp;TEXT($B4,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(AA$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="AB4" t="str">
-        <f>IFERROR(IF(ISBLANK($Z4),"",VLOOKUP($Z4&amp;TEXT($B4,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(AB$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="AC4" t="str">
-        <f>IFERROR(IF(ISBLANK($Z4),"",VLOOKUP($Z4&amp;TEXT($B4,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(AC$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="1" t="str">
-        <f>IF(ISBLANK(VLOOKUP($A5,SkillTable!$1:$1048576,MATCH(SkillTable!$F$1,SkillTable!$1:$1,0),0)),"",VLOOKUP($A5,SkillTable!$1:$1048576,MATCH(SkillTable!$F$1,SkillTable!$1:$1,0),0))</f>
-        <v/>
-      </c>
-      <c r="H5" s="1"/>
-      <c r="K5" t="s">
-        <v>108</v>
-      </c>
-      <c r="M5" t="str">
-        <f>IFERROR(IF(ISBLANK($L5),"",VLOOKUP($L5&amp;TEXT($B5,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(M$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="N5" t="str">
-        <f>IFERROR(IF(ISBLANK($L5),"",VLOOKUP($L5&amp;TEXT($B5,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(N$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="O5" t="str">
-        <f>IFERROR(IF(ISBLANK($L5),"",VLOOKUP($L5&amp;TEXT($B5,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(O$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="T5" t="str">
-        <f>IFERROR(IF(ISBLANK($S5),"",VLOOKUP($S5&amp;TEXT($B5,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(T$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="U5" t="str">
-        <f>IFERROR(IF(ISBLANK($S5),"",VLOOKUP($S5&amp;TEXT($B5,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(U$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="V5" t="str">
-        <f>IFERROR(IF(ISBLANK($S5),"",VLOOKUP($S5&amp;TEXT($B5,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(V$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="AA5" t="str">
-        <f>IFERROR(IF(ISBLANK($Z5),"",VLOOKUP($Z5&amp;TEXT($B5,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(AA$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="AB5" t="str">
-        <f>IFERROR(IF(ISBLANK($Z5),"",VLOOKUP($Z5&amp;TEXT($B5,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(AB$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="AC5" t="str">
-        <f>IFERROR(IF(ISBLANK($Z5),"",VLOOKUP($Z5&amp;TEXT($B5,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(AC$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="1" t="str">
-        <f>IF(ISBLANK(VLOOKUP($A6,SkillTable!$1:$1048576,MATCH(SkillTable!$F$1,SkillTable!$1:$1,0),0)),"",VLOOKUP($A6,SkillTable!$1:$1048576,MATCH(SkillTable!$F$1,SkillTable!$1:$1,0),0))</f>
-        <v/>
-      </c>
-      <c r="H6" s="1"/>
-      <c r="K6" t="s">
-        <v>108</v>
-      </c>
-      <c r="M6" t="str">
-        <f>IFERROR(IF(ISBLANK($L6),"",VLOOKUP($L6&amp;TEXT($B6,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(M$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="N6" t="str">
-        <f>IFERROR(IF(ISBLANK($L6),"",VLOOKUP($L6&amp;TEXT($B6,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(N$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="O6" t="str">
-        <f>IFERROR(IF(ISBLANK($L6),"",VLOOKUP($L6&amp;TEXT($B6,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(O$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="T6" t="str">
-        <f>IFERROR(IF(ISBLANK($S6),"",VLOOKUP($S6&amp;TEXT($B6,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(T$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="U6" t="str">
-        <f>IFERROR(IF(ISBLANK($S6),"",VLOOKUP($S6&amp;TEXT($B6,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(U$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="V6" t="str">
-        <f>IFERROR(IF(ISBLANK($S6),"",VLOOKUP($S6&amp;TEXT($B6,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(V$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="AA6" t="str">
-        <f>IFERROR(IF(ISBLANK($Z6),"",VLOOKUP($Z6&amp;TEXT($B6,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(AA$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="AB6" t="str">
-        <f>IFERROR(IF(ISBLANK($Z6),"",VLOOKUP($Z6&amp;TEXT($B6,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(AB$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="AC6" t="str">
-        <f>IFERROR(IF(ISBLANK($Z6),"",VLOOKUP($Z6&amp;TEXT($B6,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(AC$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1" t="str">
-        <f>IF(ISBLANK(VLOOKUP($A7,SkillTable!$1:$1048576,MATCH(SkillTable!$F$1,SkillTable!$1:$1,0),0)),"",VLOOKUP($A7,SkillTable!$1:$1048576,MATCH(SkillTable!$F$1,SkillTable!$1:$1,0),0))</f>
-        <v/>
-      </c>
-      <c r="M7" t="str">
-        <f>IFERROR(IF(ISBLANK($L7),"",VLOOKUP($L7&amp;TEXT($B7,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(M$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="N7" t="str">
-        <f>IFERROR(IF(ISBLANK($L7),"",VLOOKUP($L7&amp;TEXT($B7,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(N$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="O7" t="str">
-        <f>IFERROR(IF(ISBLANK($L7),"",VLOOKUP($L7&amp;TEXT($B7,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(O$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="T7" t="str">
-        <f>IFERROR(IF(ISBLANK($S7),"",VLOOKUP($S7&amp;TEXT($B7,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(T$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="U7" t="str">
-        <f>IFERROR(IF(ISBLANK($S7),"",VLOOKUP($S7&amp;TEXT($B7,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(U$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="V7" t="str">
-        <f>IFERROR(IF(ISBLANK($S7),"",VLOOKUP($S7&amp;TEXT($B7,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(V$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="AA7" t="str">
-        <f>IFERROR(IF(ISBLANK($Z7),"",VLOOKUP($Z7&amp;TEXT($B7,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(AA$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="AB7" t="str">
-        <f>IFERROR(IF(ISBLANK($Z7),"",VLOOKUP($Z7&amp;TEXT($B7,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(AB$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="AC7" t="str">
-        <f>IFERROR(IF(ISBLANK($Z7),"",VLOOKUP($Z7&amp;TEXT($B7,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(AC$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="F8" s="1" t="str">
-        <f>IF(ISBLANK(VLOOKUP($A8,SkillTable!$1:$1048576,MATCH(SkillTable!$F$1,SkillTable!$1:$1,0),0)),"",VLOOKUP($A8,SkillTable!$1:$1048576,MATCH(SkillTable!$F$1,SkillTable!$1:$1,0),0))</f>
-        <v/>
-      </c>
-      <c r="M8" t="str">
-        <f>IFERROR(IF(ISBLANK($L8),"",VLOOKUP($L8&amp;TEXT($B8,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(M$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="N8" t="str">
-        <f>IFERROR(IF(ISBLANK($L8),"",VLOOKUP($L8&amp;TEXT($B8,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(N$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="O8" t="str">
-        <f>IFERROR(IF(ISBLANK($L8),"",VLOOKUP($L8&amp;TEXT($B8,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(O$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="T8" t="str">
-        <f>IFERROR(IF(ISBLANK($S8),"",VLOOKUP($S8&amp;TEXT($B8,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(T$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="U8" t="str">
-        <f>IFERROR(IF(ISBLANK($S8),"",VLOOKUP($S8&amp;TEXT($B8,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(U$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="V8" t="str">
-        <f>IFERROR(IF(ISBLANK($S8),"",VLOOKUP($S8&amp;TEXT($B8,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(V$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="AA8" t="str">
-        <f>IFERROR(IF(ISBLANK($Z8),"",VLOOKUP($Z8&amp;TEXT($B8,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(AA$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="AB8" t="str">
-        <f>IFERROR(IF(ISBLANK($Z8),"",VLOOKUP($Z8&amp;TEXT($B8,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(AB$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="AC8" t="str">
-        <f>IFERROR(IF(ISBLANK($Z8),"",VLOOKUP($Z8&amp;TEXT($B8,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(AC$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>3</v>
-      </c>
-      <c r="F9" s="1" t="str">
-        <f>IF(ISBLANK(VLOOKUP($A9,SkillTable!$1:$1048576,MATCH(SkillTable!$F$1,SkillTable!$1:$1,0),0)),"",VLOOKUP($A9,SkillTable!$1:$1048576,MATCH(SkillTable!$F$1,SkillTable!$1:$1,0),0))</f>
-        <v/>
-      </c>
-      <c r="M9" t="str">
-        <f>IFERROR(IF(ISBLANK($L9),"",VLOOKUP($L9&amp;TEXT($B9,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(M$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="N9" t="str">
-        <f>IFERROR(IF(ISBLANK($L9),"",VLOOKUP($L9&amp;TEXT($B9,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(N$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="O9" t="str">
-        <f>IFERROR(IF(ISBLANK($L9),"",VLOOKUP($L9&amp;TEXT($B9,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(O$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="T9" t="str">
-        <f>IFERROR(IF(ISBLANK($S9),"",VLOOKUP($S9&amp;TEXT($B9,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(T$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="U9" t="str">
-        <f>IFERROR(IF(ISBLANK($S9),"",VLOOKUP($S9&amp;TEXT($B9,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(U$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="V9" t="str">
-        <f>IFERROR(IF(ISBLANK($S9),"",VLOOKUP($S9&amp;TEXT($B9,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(V$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="AA9" t="str">
-        <f>IFERROR(IF(ISBLANK($Z9),"",VLOOKUP($Z9&amp;TEXT($B9,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(AA$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="AB9" t="str">
-        <f>IFERROR(IF(ISBLANK($Z9),"",VLOOKUP($Z9&amp;TEXT($B9,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(AB$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="AC9" t="str">
-        <f>IFERROR(IF(ISBLANK($Z9),"",VLOOKUP($Z9&amp;TEXT($B9,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(AC$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>4</v>
-      </c>
-      <c r="F10" s="1" t="str">
-        <f>IF(ISBLANK(VLOOKUP($A10,SkillTable!$1:$1048576,MATCH(SkillTable!$F$1,SkillTable!$1:$1,0),0)),"",VLOOKUP($A10,SkillTable!$1:$1048576,MATCH(SkillTable!$F$1,SkillTable!$1:$1,0),0))</f>
-        <v/>
-      </c>
-      <c r="M10" t="str">
-        <f>IFERROR(IF(ISBLANK($L10),"",VLOOKUP($L10&amp;TEXT($B10,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(M$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="N10" t="str">
-        <f>IFERROR(IF(ISBLANK($L10),"",VLOOKUP($L10&amp;TEXT($B10,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(N$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="O10" t="str">
-        <f>IFERROR(IF(ISBLANK($L10),"",VLOOKUP($L10&amp;TEXT($B10,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(O$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="T10" t="str">
-        <f>IFERROR(IF(ISBLANK($S10),"",VLOOKUP($S10&amp;TEXT($B10,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(T$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="U10" t="str">
-        <f>IFERROR(IF(ISBLANK($S10),"",VLOOKUP($S10&amp;TEXT($B10,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(U$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="V10" t="str">
-        <f>IFERROR(IF(ISBLANK($S10),"",VLOOKUP($S10&amp;TEXT($B10,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(V$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="AA10" t="str">
-        <f>IFERROR(IF(ISBLANK($Z10),"",VLOOKUP($Z10&amp;TEXT($B10,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(AA$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="AB10" t="str">
-        <f>IFERROR(IF(ISBLANK($Z10),"",VLOOKUP($Z10&amp;TEXT($B10,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(AB$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="AC10" t="str">
-        <f>IFERROR(IF(ISBLANK($Z10),"",VLOOKUP($Z10&amp;TEXT($B10,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(AC$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11">
-        <v>5</v>
-      </c>
-      <c r="F11" s="1" t="str">
-        <f>IF(ISBLANK(VLOOKUP($A11,SkillTable!$1:$1048576,MATCH(SkillTable!$F$1,SkillTable!$1:$1,0),0)),"",VLOOKUP($A11,SkillTable!$1:$1048576,MATCH(SkillTable!$F$1,SkillTable!$1:$1,0),0))</f>
-        <v/>
-      </c>
-      <c r="M11" t="str">
-        <f>IFERROR(IF(ISBLANK($L11),"",VLOOKUP($L11&amp;TEXT($B11,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(M$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="N11" t="str">
-        <f>IFERROR(IF(ISBLANK($L11),"",VLOOKUP($L11&amp;TEXT($B11,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(N$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="O11" t="str">
-        <f>IFERROR(IF(ISBLANK($L11),"",VLOOKUP($L11&amp;TEXT($B11,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(O$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="T11" t="str">
-        <f>IFERROR(IF(ISBLANK($S11),"",VLOOKUP($S11&amp;TEXT($B11,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(T$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="U11" t="str">
-        <f>IFERROR(IF(ISBLANK($S11),"",VLOOKUP($S11&amp;TEXT($B11,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(U$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="V11" t="str">
-        <f>IFERROR(IF(ISBLANK($S11),"",VLOOKUP($S11&amp;TEXT($B11,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(V$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="AA11" t="str">
-        <f>IFERROR(IF(ISBLANK($Z11),"",VLOOKUP($Z11&amp;TEXT($B11,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(AA$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="AB11" t="str">
-        <f>IFERROR(IF(ISBLANK($Z11),"",VLOOKUP($Z11&amp;TEXT($B11,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(AB$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="AC11" t="str">
-        <f>IFERROR(IF(ISBLANK($Z11),"",VLOOKUP($Z11&amp;TEXT($B11,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(AC$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="E12" t="s">
-        <v>106</v>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="F12" s="1" t="str">
-        <f>IF(ISBLANK(VLOOKUP($A12,SkillTable!$1:$1048576,MATCH(SkillTable!$F$1,SkillTable!$1:$1,0),0)),"",VLOOKUP($A12,SkillTable!$1:$1048576,MATCH(SkillTable!$F$1,SkillTable!$1:$1,0),0))</f>
-        <v/>
-      </c>
-      <c r="L12" t="str">
+        <f>IF(ISBLANK(E12),"",
+IF(ISERROR(FIND(",",E12)),
+  IF(ISERROR(VLOOKUP(E12,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",E12,FIND(",",E12)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(E12,FIND(",",E12)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E12,FIND(",",E12)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",E12,FIND(",",E12,FIND(",",E12)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(E12,FIND(",",E12)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E12,FIND(",",E12)+1,FIND(",",E12,FIND(",",E12)+1)-FIND(",",E12)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E12,FIND(",",E12,FIND(",",E12)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",E12,FIND(",",E12,FIND(",",E12,FIND(",",E12)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(E12,FIND(",",E12)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E12,FIND(",",E12)+1,FIND(",",E12,FIND(",",E12)+1)-FIND(",",E12)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E12,FIND(",",E12,FIND(",",E12)+1)+1,FIND(",",E12,FIND(",",E12,FIND(",",E12)+1)+1)-FIND(",",E12,FIND(",",E12)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E12,FIND(",",E12,FIND(",",E12,FIND(",",E12)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+)))))</f>
+        <v>어펙터밸류없음</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1" t="str">
+        <f>IF(NOT(VLOOKUP($A12,SkillTable!$1:$1048576,MATCH(SkillTable!$O$1,SkillTable!$1:$1,0),0)),VLOOKUP($A12,SkillTable!$1:$1048576,MATCH(SkillTable!$J$1,SkillTable!$1:$1,0),0),
+IFERROR(IF(ISBLANK(G12),"",VLOOKUP(G12,[2]StringTable!$A:$B,2,0)),"스트링없음"))</f>
+        <v/>
+      </c>
+      <c r="J12" s="1" t="str">
+        <f>IF(NOT(VLOOKUP($A12,SkillTable!$1:$1048576,MATCH(SkillTable!$P$1,SkillTable!$1:$1,0),0)),VLOOKUP($A12,SkillTable!$1:$1048576,MATCH(SkillTable!$K$1,SkillTable!$1:$1,0),0),
+IFERROR(IF(ISBLANK(H12),"",VLOOKUP(H12,[2]StringTable!$A:$B,2,0)),"스트링없음"))</f>
+        <v/>
+      </c>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1" t="str">
         <f>E12</f>
         <v>AtkUpBuff001</v>
       </c>
-      <c r="M12" t="str">
-        <f>IFERROR(IF(ISBLANK($L12),"",VLOOKUP($L12&amp;TEXT($B12,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(M$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v>어펙터밸류 없음</v>
-      </c>
-      <c r="N12" t="str">
-        <f>IFERROR(IF(ISBLANK($L12),"",VLOOKUP($L12&amp;TEXT($B12,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(N$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v>어펙터밸류 없음</v>
-      </c>
-      <c r="O12" t="str">
-        <f>IFERROR(IF(ISBLANK($L12),"",VLOOKUP($L12&amp;TEXT($B12,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(O$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v>어펙터밸류 없음</v>
-      </c>
-      <c r="T12" t="str">
-        <f>IFERROR(IF(ISBLANK($S12),"",VLOOKUP($S12&amp;TEXT($B12,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(T$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="U12" t="str">
-        <f>IFERROR(IF(ISBLANK($S12),"",VLOOKUP($S12&amp;TEXT($B12,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(U$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="V12" t="str">
-        <f>IFERROR(IF(ISBLANK($S12),"",VLOOKUP($S12&amp;TEXT($B12,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(V$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="AA12" t="str">
-        <f>IFERROR(IF(ISBLANK($Z12),"",VLOOKUP($Z12&amp;TEXT($B12,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(AA$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="AB12" t="str">
-        <f>IFERROR(IF(ISBLANK($Z12),"",VLOOKUP($Z12&amp;TEXT($B12,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(AB$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="AC12" t="str">
-        <f>IFERROR(IF(ISBLANK($Z12),"",VLOOKUP($Z12&amp;TEXT($B12,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(AC$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
+      <c r="M12" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK($L12),"",VLOOKUP($L12&amp;TEXT($B12,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(M$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v>어펙터밸류레벨없음</v>
+      </c>
+      <c r="N12" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK($L12),"",VLOOKUP($L12&amp;TEXT($B12,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(N$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v>어펙터밸류레벨없음</v>
+      </c>
+      <c r="O12" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK($L12),"",VLOOKUP($L12&amp;TEXT($B12,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(O$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v>어펙터밸류레벨없음</v>
+      </c>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK($S12),"",VLOOKUP($S12&amp;TEXT($B12,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(T$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="U12" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK($S12),"",VLOOKUP($S12&amp;TEXT($B12,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(U$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="V12" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK($S12),"",VLOOKUP($S12&amp;TEXT($B12,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(V$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK($Z12),"",VLOOKUP($Z12&amp;TEXT($B12,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AA$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="AB12" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK($Z12),"",VLOOKUP($Z12&amp;TEXT($B12,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AB$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="AC12" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK($Z12),"",VLOOKUP($Z12&amp;TEXT($B12,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AC$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="AD12" s="1"/>
+      <c r="AE12" s="1"/>
+      <c r="AF12" s="1"/>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13">
+      <c r="A13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="1">
         <v>2</v>
       </c>
-      <c r="E13" t="s">
-        <v>106</v>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="F13" s="1" t="str">
-        <f>IF(ISBLANK(VLOOKUP($A13,SkillTable!$1:$1048576,MATCH(SkillTable!$F$1,SkillTable!$1:$1,0),0)),"",VLOOKUP($A13,SkillTable!$1:$1048576,MATCH(SkillTable!$F$1,SkillTable!$1:$1,0),0))</f>
-        <v/>
-      </c>
-      <c r="M13" t="str">
-        <f>IFERROR(IF(ISBLANK($L13),"",VLOOKUP($L13&amp;TEXT($B13,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(M$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="N13" t="str">
-        <f>IFERROR(IF(ISBLANK($L13),"",VLOOKUP($L13&amp;TEXT($B13,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(N$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="O13" t="str">
-        <f>IFERROR(IF(ISBLANK($L13),"",VLOOKUP($L13&amp;TEXT($B13,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(O$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="T13" t="str">
-        <f>IFERROR(IF(ISBLANK($S13),"",VLOOKUP($S13&amp;TEXT($B13,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(T$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="U13" t="str">
-        <f>IFERROR(IF(ISBLANK($S13),"",VLOOKUP($S13&amp;TEXT($B13,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(U$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="V13" t="str">
-        <f>IFERROR(IF(ISBLANK($S13),"",VLOOKUP($S13&amp;TEXT($B13,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(V$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="AA13" t="str">
-        <f>IFERROR(IF(ISBLANK($Z13),"",VLOOKUP($Z13&amp;TEXT($B13,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(AA$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="AB13" t="str">
-        <f>IFERROR(IF(ISBLANK($Z13),"",VLOOKUP($Z13&amp;TEXT($B13,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(AB$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="AC13" t="str">
-        <f>IFERROR(IF(ISBLANK($Z13),"",VLOOKUP($Z13&amp;TEXT($B13,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(AC$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
+        <f>IF(ISBLANK(E13),"",
+IF(ISERROR(FIND(",",E13)),
+  IF(ISERROR(VLOOKUP(E13,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",E13,FIND(",",E13)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(E13,FIND(",",E13)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E13,FIND(",",E13)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",E13,FIND(",",E13,FIND(",",E13)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(E13,FIND(",",E13)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E13,FIND(",",E13)+1,FIND(",",E13,FIND(",",E13)+1)-FIND(",",E13)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E13,FIND(",",E13,FIND(",",E13)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",E13,FIND(",",E13,FIND(",",E13,FIND(",",E13)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(E13,FIND(",",E13)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E13,FIND(",",E13)+1,FIND(",",E13,FIND(",",E13)+1)-FIND(",",E13)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E13,FIND(",",E13,FIND(",",E13)+1)+1,FIND(",",E13,FIND(",",E13,FIND(",",E13)+1)+1)-FIND(",",E13,FIND(",",E13)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E13,FIND(",",E13,FIND(",",E13,FIND(",",E13)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+)))))</f>
+        <v>어펙터밸류없음</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1" t="str">
+        <f>IF(NOT(VLOOKUP($A13,SkillTable!$1:$1048576,MATCH(SkillTable!$O$1,SkillTable!$1:$1,0),0)),VLOOKUP($A13,SkillTable!$1:$1048576,MATCH(SkillTable!$J$1,SkillTable!$1:$1,0),0),
+IFERROR(IF(ISBLANK(G13),"",VLOOKUP(G13,[2]StringTable!$A:$B,2,0)),"스트링없음"))</f>
+        <v/>
+      </c>
+      <c r="J13" s="1" t="str">
+        <f>IF(NOT(VLOOKUP($A13,SkillTable!$1:$1048576,MATCH(SkillTable!$P$1,SkillTable!$1:$1,0),0)),VLOOKUP($A13,SkillTable!$1:$1048576,MATCH(SkillTable!$K$1,SkillTable!$1:$1,0),0),
+IFERROR(IF(ISBLANK(H13),"",VLOOKUP(H13,[2]StringTable!$A:$B,2,0)),"스트링없음"))</f>
+        <v/>
+      </c>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK($L13),"",VLOOKUP($L13&amp;TEXT($B13,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(M$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+      <c r="N13" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK($L13),"",VLOOKUP($L13&amp;TEXT($B13,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(N$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+      <c r="O13" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK($L13),"",VLOOKUP($L13&amp;TEXT($B13,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(O$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK($S13),"",VLOOKUP($S13&amp;TEXT($B13,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(T$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="U13" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK($S13),"",VLOOKUP($S13&amp;TEXT($B13,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(U$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="V13" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK($S13),"",VLOOKUP($S13&amp;TEXT($B13,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(V$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK($Z13),"",VLOOKUP($Z13&amp;TEXT($B13,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AA$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="AB13" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK($Z13),"",VLOOKUP($Z13&amp;TEXT($B13,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AB$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="AC13" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK($Z13),"",VLOOKUP($Z13&amp;TEXT($B13,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AC$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="AD13" s="1"/>
+      <c r="AE13" s="1"/>
+      <c r="AF13" s="1"/>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14">
+      <c r="A14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="1">
         <v>3</v>
       </c>
-      <c r="E14" t="s">
-        <v>106</v>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="F14" s="1" t="str">
-        <f>IF(ISBLANK(VLOOKUP($A14,SkillTable!$1:$1048576,MATCH(SkillTable!$F$1,SkillTable!$1:$1,0),0)),"",VLOOKUP($A14,SkillTable!$1:$1048576,MATCH(SkillTable!$F$1,SkillTable!$1:$1,0),0))</f>
-        <v/>
-      </c>
-      <c r="M14" t="str">
-        <f>IFERROR(IF(ISBLANK($L14),"",VLOOKUP($L14&amp;TEXT($B14,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(M$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="N14" t="str">
-        <f>IFERROR(IF(ISBLANK($L14),"",VLOOKUP($L14&amp;TEXT($B14,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(N$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="O14" t="str">
-        <f>IFERROR(IF(ISBLANK($L14),"",VLOOKUP($L14&amp;TEXT($B14,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(O$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="T14" t="str">
-        <f>IFERROR(IF(ISBLANK($S14),"",VLOOKUP($S14&amp;TEXT($B14,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(T$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="U14" t="str">
-        <f>IFERROR(IF(ISBLANK($S14),"",VLOOKUP($S14&amp;TEXT($B14,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(U$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="V14" t="str">
-        <f>IFERROR(IF(ISBLANK($S14),"",VLOOKUP($S14&amp;TEXT($B14,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(V$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="AA14" t="str">
-        <f>IFERROR(IF(ISBLANK($Z14),"",VLOOKUP($Z14&amp;TEXT($B14,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(AA$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="AB14" t="str">
-        <f>IFERROR(IF(ISBLANK($Z14),"",VLOOKUP($Z14&amp;TEXT($B14,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(AB$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="AC14" t="str">
-        <f>IFERROR(IF(ISBLANK($Z14),"",VLOOKUP($Z14&amp;TEXT($B14,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(AC$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
+        <f>IF(ISBLANK(E14),"",
+IF(ISERROR(FIND(",",E14)),
+  IF(ISERROR(VLOOKUP(E14,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",E14,FIND(",",E14)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(E14,FIND(",",E14)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E14,FIND(",",E14)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",E14,FIND(",",E14,FIND(",",E14)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(E14,FIND(",",E14)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E14,FIND(",",E14)+1,FIND(",",E14,FIND(",",E14)+1)-FIND(",",E14)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E14,FIND(",",E14,FIND(",",E14)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",E14,FIND(",",E14,FIND(",",E14,FIND(",",E14)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(E14,FIND(",",E14)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E14,FIND(",",E14)+1,FIND(",",E14,FIND(",",E14)+1)-FIND(",",E14)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E14,FIND(",",E14,FIND(",",E14)+1)+1,FIND(",",E14,FIND(",",E14,FIND(",",E14)+1)+1)-FIND(",",E14,FIND(",",E14)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E14,FIND(",",E14,FIND(",",E14,FIND(",",E14)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+)))))</f>
+        <v>어펙터밸류없음</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1" t="str">
+        <f>IF(NOT(VLOOKUP($A14,SkillTable!$1:$1048576,MATCH(SkillTable!$O$1,SkillTable!$1:$1,0),0)),VLOOKUP($A14,SkillTable!$1:$1048576,MATCH(SkillTable!$J$1,SkillTable!$1:$1,0),0),
+IFERROR(IF(ISBLANK(G14),"",VLOOKUP(G14,[2]StringTable!$A:$B,2,0)),"스트링없음"))</f>
+        <v/>
+      </c>
+      <c r="J14" s="1" t="str">
+        <f>IF(NOT(VLOOKUP($A14,SkillTable!$1:$1048576,MATCH(SkillTable!$P$1,SkillTable!$1:$1,0),0)),VLOOKUP($A14,SkillTable!$1:$1048576,MATCH(SkillTable!$K$1,SkillTable!$1:$1,0),0),
+IFERROR(IF(ISBLANK(H14),"",VLOOKUP(H14,[2]StringTable!$A:$B,2,0)),"스트링없음"))</f>
+        <v/>
+      </c>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK($L14),"",VLOOKUP($L14&amp;TEXT($B14,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(M$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+      <c r="N14" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK($L14),"",VLOOKUP($L14&amp;TEXT($B14,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(N$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+      <c r="O14" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK($L14),"",VLOOKUP($L14&amp;TEXT($B14,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(O$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK($S14),"",VLOOKUP($S14&amp;TEXT($B14,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(T$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="U14" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK($S14),"",VLOOKUP($S14&amp;TEXT($B14,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(U$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="V14" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK($S14),"",VLOOKUP($S14&amp;TEXT($B14,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(V$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK($Z14),"",VLOOKUP($Z14&amp;TEXT($B14,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AA$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="AB14" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK($Z14),"",VLOOKUP($Z14&amp;TEXT($B14,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AB$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="AC14" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK($Z14),"",VLOOKUP($Z14&amp;TEXT($B14,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AC$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="AD14" s="1"/>
+      <c r="AE14" s="1"/>
+      <c r="AF14" s="1"/>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15">
+      <c r="A15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="1">
         <v>4</v>
       </c>
-      <c r="E15" t="s">
-        <v>107</v>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="F15" s="1" t="str">
-        <f>IF(ISBLANK(VLOOKUP($A15,SkillTable!$1:$1048576,MATCH(SkillTable!$F$1,SkillTable!$1:$1,0),0)),"",VLOOKUP($A15,SkillTable!$1:$1048576,MATCH(SkillTable!$F$1,SkillTable!$1:$1,0),0))</f>
-        <v/>
-      </c>
-      <c r="M15" t="str">
-        <f>IFERROR(IF(ISBLANK($L15),"",VLOOKUP($L15&amp;TEXT($B15,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(M$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="N15" t="str">
-        <f>IFERROR(IF(ISBLANK($L15),"",VLOOKUP($L15&amp;TEXT($B15,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(N$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="O15" t="str">
-        <f>IFERROR(IF(ISBLANK($L15),"",VLOOKUP($L15&amp;TEXT($B15,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(O$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="T15" t="str">
-        <f>IFERROR(IF(ISBLANK($S15),"",VLOOKUP($S15&amp;TEXT($B15,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(T$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="U15" t="str">
-        <f>IFERROR(IF(ISBLANK($S15),"",VLOOKUP($S15&amp;TEXT($B15,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(U$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="V15" t="str">
-        <f>IFERROR(IF(ISBLANK($S15),"",VLOOKUP($S15&amp;TEXT($B15,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(V$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="AA15" t="str">
-        <f>IFERROR(IF(ISBLANK($Z15),"",VLOOKUP($Z15&amp;TEXT($B15,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(AA$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="AB15" t="str">
-        <f>IFERROR(IF(ISBLANK($Z15),"",VLOOKUP($Z15&amp;TEXT($B15,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(AB$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="AC15" t="str">
-        <f>IFERROR(IF(ISBLANK($Z15),"",VLOOKUP($Z15&amp;TEXT($B15,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(AC$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
+        <f>IF(ISBLANK(E15),"",
+IF(ISERROR(FIND(",",E15)),
+  IF(ISERROR(VLOOKUP(E15,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",E15,FIND(",",E15)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(E15,FIND(",",E15)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E15,FIND(",",E15)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",E15,FIND(",",E15,FIND(",",E15)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(E15,FIND(",",E15)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E15,FIND(",",E15)+1,FIND(",",E15,FIND(",",E15)+1)-FIND(",",E15)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E15,FIND(",",E15,FIND(",",E15)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",E15,FIND(",",E15,FIND(",",E15,FIND(",",E15)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(E15,FIND(",",E15)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E15,FIND(",",E15)+1,FIND(",",E15,FIND(",",E15)+1)-FIND(",",E15)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E15,FIND(",",E15,FIND(",",E15)+1)+1,FIND(",",E15,FIND(",",E15,FIND(",",E15)+1)+1)-FIND(",",E15,FIND(",",E15)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E15,FIND(",",E15,FIND(",",E15,FIND(",",E15)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+)))))</f>
+        <v>어펙터밸류없음</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1" t="str">
+        <f>IF(NOT(VLOOKUP($A15,SkillTable!$1:$1048576,MATCH(SkillTable!$O$1,SkillTable!$1:$1,0),0)),VLOOKUP($A15,SkillTable!$1:$1048576,MATCH(SkillTable!$J$1,SkillTable!$1:$1,0),0),
+IFERROR(IF(ISBLANK(G15),"",VLOOKUP(G15,[2]StringTable!$A:$B,2,0)),"스트링없음"))</f>
+        <v/>
+      </c>
+      <c r="J15" s="1" t="str">
+        <f>IF(NOT(VLOOKUP($A15,SkillTable!$1:$1048576,MATCH(SkillTable!$P$1,SkillTable!$1:$1,0),0)),VLOOKUP($A15,SkillTable!$1:$1048576,MATCH(SkillTable!$K$1,SkillTable!$1:$1,0),0),
+IFERROR(IF(ISBLANK(H15),"",VLOOKUP(H15,[2]StringTable!$A:$B,2,0)),"스트링없음"))</f>
+        <v/>
+      </c>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK($L15),"",VLOOKUP($L15&amp;TEXT($B15,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(M$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+      <c r="N15" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK($L15),"",VLOOKUP($L15&amp;TEXT($B15,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(N$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+      <c r="O15" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK($L15),"",VLOOKUP($L15&amp;TEXT($B15,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(O$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK($S15),"",VLOOKUP($S15&amp;TEXT($B15,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(T$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="U15" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK($S15),"",VLOOKUP($S15&amp;TEXT($B15,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(U$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="V15" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK($S15),"",VLOOKUP($S15&amp;TEXT($B15,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(V$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK($Z15),"",VLOOKUP($Z15&amp;TEXT($B15,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AA$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="AB15" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK($Z15),"",VLOOKUP($Z15&amp;TEXT($B15,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AB$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="AC15" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK($Z15),"",VLOOKUP($Z15&amp;TEXT($B15,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AC$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="AD15" s="1"/>
+      <c r="AE15" s="1"/>
+      <c r="AF15" s="1"/>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16">
+      <c r="A16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="1">
         <v>5</v>
       </c>
-      <c r="E16" t="s">
-        <v>107</v>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="F16" s="1" t="str">
-        <f>IF(ISBLANK(VLOOKUP($A16,SkillTable!$1:$1048576,MATCH(SkillTable!$F$1,SkillTable!$1:$1,0),0)),"",VLOOKUP($A16,SkillTable!$1:$1048576,MATCH(SkillTable!$F$1,SkillTable!$1:$1,0),0))</f>
-        <v/>
-      </c>
-      <c r="M16" t="str">
-        <f>IFERROR(IF(ISBLANK($L16),"",VLOOKUP($L16&amp;TEXT($B16,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(M$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="N16" t="str">
-        <f>IFERROR(IF(ISBLANK($L16),"",VLOOKUP($L16&amp;TEXT($B16,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(N$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="O16" t="str">
-        <f>IFERROR(IF(ISBLANK($L16),"",VLOOKUP($L16&amp;TEXT($B16,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(O$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="T16" t="str">
-        <f>IFERROR(IF(ISBLANK($S16),"",VLOOKUP($S16&amp;TEXT($B16,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(T$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="U16" t="str">
-        <f>IFERROR(IF(ISBLANK($S16),"",VLOOKUP($S16&amp;TEXT($B16,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(U$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="V16" t="str">
-        <f>IFERROR(IF(ISBLANK($S16),"",VLOOKUP($S16&amp;TEXT($B16,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(V$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="AA16" t="str">
-        <f>IFERROR(IF(ISBLANK($Z16),"",VLOOKUP($Z16&amp;TEXT($B16,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(AA$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="AB16" t="str">
-        <f>IFERROR(IF(ISBLANK($Z16),"",VLOOKUP($Z16&amp;TEXT($B16,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(AB$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
-      <c r="AC16" t="str">
-        <f>IFERROR(IF(ISBLANK($Z16),"",VLOOKUP($Z16&amp;TEXT($B16,"00"),[2]AffectorValueLevelTable!$1:$1048576,MATCH(AC$1,[2]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
-        <v/>
-      </c>
+        <f>IF(ISBLANK(E16),"",
+IF(ISERROR(FIND(",",E16)),
+  IF(ISERROR(VLOOKUP(E16,[1]AffectorValueTable!$A:$A,1,0)),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",E16,FIND(",",E16)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(E16,FIND(",",E16)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E16,FIND(",",E16)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",E16,FIND(",",E16,FIND(",",E16)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(E16,FIND(",",E16)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E16,FIND(",",E16)+1,FIND(",",E16,FIND(",",E16)+1)-FIND(",",E16)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E16,FIND(",",E16,FIND(",",E16)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+IF(ISERROR(FIND(",",E16,FIND(",",E16,FIND(",",E16,FIND(",",E16)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(E16,FIND(",",E16)-1),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E16,FIND(",",E16)+1,FIND(",",E16,FIND(",",E16)+1)-FIND(",",E16)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E16,FIND(",",E16,FIND(",",E16)+1)+1,FIND(",",E16,FIND(",",E16,FIND(",",E16)+1)+1)-FIND(",",E16,FIND(",",E16)+1)-1)),[1]AffectorValueTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(E16,FIND(",",E16,FIND(",",E16,FIND(",",E16)+1)+1)+1,999)),[1]AffectorValueTable!$A:$A,1,0))),"어펙터밸류없음",
+  ""),
+)))))</f>
+        <v>어펙터밸류없음</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1" t="str">
+        <f>IF(NOT(VLOOKUP($A16,SkillTable!$1:$1048576,MATCH(SkillTable!$O$1,SkillTable!$1:$1,0),0)),VLOOKUP($A16,SkillTable!$1:$1048576,MATCH(SkillTable!$J$1,SkillTable!$1:$1,0),0),
+IFERROR(IF(ISBLANK(G16),"",VLOOKUP(G16,[2]StringTable!$A:$B,2,0)),"스트링없음"))</f>
+        <v/>
+      </c>
+      <c r="J16" s="1" t="str">
+        <f>IF(NOT(VLOOKUP($A16,SkillTable!$1:$1048576,MATCH(SkillTable!$P$1,SkillTable!$1:$1,0),0)),VLOOKUP($A16,SkillTable!$1:$1048576,MATCH(SkillTable!$K$1,SkillTable!$1:$1,0),0),
+IFERROR(IF(ISBLANK(H16),"",VLOOKUP(H16,[2]StringTable!$A:$B,2,0)),"스트링없음"))</f>
+        <v/>
+      </c>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK($L16),"",VLOOKUP($L16&amp;TEXT($B16,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(M$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+      <c r="N16" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK($L16),"",VLOOKUP($L16&amp;TEXT($B16,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(N$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+      <c r="O16" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK($L16),"",VLOOKUP($L16&amp;TEXT($B16,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(O$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <v/>
+      </c>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK($S16),"",VLOOKUP($S16&amp;TEXT($B16,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(T$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="U16" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK($S16),"",VLOOKUP($S16&amp;TEXT($B16,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(U$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="V16" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK($S16),"",VLOOKUP($S16&amp;TEXT($B16,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(V$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK($Z16),"",VLOOKUP($Z16&amp;TEXT($B16,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AA$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="AB16" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK($Z16),"",VLOOKUP($Z16&amp;TEXT($B16,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AB$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="AC16" s="1" t="str">
+        <f>IFERROR(IF(ISBLANK($Z16),"",VLOOKUP($Z16&amp;TEXT($B16,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AC$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <v/>
+      </c>
+      <c r="AD16" s="1"/>
+      <c r="AE16" s="1"/>
+      <c r="AF16" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A1:AF1048576">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>A1=A1048576</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Excel/작업Action.xlsx
+++ b/Excel/작업Action.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8804B73E-B65F-4AB9-9D10-3ABC9358971B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E8D6A77-047C-4C8F-B619-A9536CB6E10F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ActionTable" sheetId="1" r:id="rId1"/>
@@ -691,12 +691,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -753,6 +756,11 @@
             <v>LP_PiercingHitObject</v>
           </cell>
         </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>TestPoison01</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="1">
         <row r="1">
@@ -810,36 +818,35 @@
         </row>
         <row r="2">
           <cell r="D2" t="str">
-            <v>BaseDamage</v>
+            <v>DotDamage</v>
           </cell>
           <cell r="E2" t="str">
-            <v>기본 대미지 계산식</v>
+            <v>도트형 대미지 계산식</v>
           </cell>
           <cell r="H2" t="str">
-            <v>단일 대미지 배율</v>
+            <v>지속시간</v>
           </cell>
           <cell r="I2" t="str">
-            <v/>
+            <v>틱</v>
           </cell>
           <cell r="J2" t="str">
-            <v/>
+            <v>자신HP의
+퍼센트량</v>
           </cell>
           <cell r="K2" t="str">
             <v/>
           </cell>
           <cell r="L2" t="str">
-            <v>1: 다단히트</v>
+            <v/>
           </cell>
           <cell r="M2" t="str">
-            <v>1: 온킬 여부</v>
+            <v/>
           </cell>
           <cell r="O2" t="str">
-            <v>다단히트 시
-연속 대미지</v>
+            <v/>
           </cell>
           <cell r="P2" t="str">
-            <v>온킬 시 불려질
-어펙터밸류 아이디</v>
+            <v/>
           </cell>
         </row>
         <row r="3">
@@ -906,6 +913,29 @@
           </cell>
           <cell r="O5" t="str">
             <v>0.95,0.9</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>TestPoison0101</v>
+          </cell>
+          <cell r="B6" t="str">
+            <v>TestPoison01</v>
+          </cell>
+          <cell r="C6">
+            <v>1</v>
+          </cell>
+          <cell r="D6" t="str">
+            <v>DotDamage</v>
+          </cell>
+          <cell r="H6">
+            <v>5</v>
+          </cell>
+          <cell r="I6">
+            <v>0.5</v>
+          </cell>
+          <cell r="J6">
+            <v>0.01</v>
           </cell>
         </row>
       </sheetData>
@@ -1306,7 +1336,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -1418,6 +1448,7 @@
       <c r="B2" t="s">
         <v>0</v>
       </c>
+      <c r="C2" s="2"/>
       <c r="D2" t="str">
         <f t="shared" ref="D2:F16" ca="1" si="0">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
@@ -1451,7 +1482,7 @@
 OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
         <v/>
       </c>
-      <c r="F2" t="str">
+      <c r="F2" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
@@ -1498,6 +1529,7 @@
       <c r="B3" t="s">
         <v>2</v>
       </c>
+      <c r="C3" s="2"/>
       <c r="D3" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -1505,7 +1537,7 @@
       <c r="E3" t="s">
         <v>104</v>
       </c>
-      <c r="F3" t="str">
+      <c r="F3" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>4</v>
       </c>
@@ -1548,11 +1580,12 @@
       <c r="B4" t="s">
         <v>97</v>
       </c>
+      <c r="C4" s="2"/>
       <c r="D4" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="F4" t="str">
+      <c r="F4" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
@@ -1592,6 +1625,7 @@
       <c r="A5" t="s">
         <v>92</v>
       </c>
+      <c r="C5" s="2"/>
       <c r="D5" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -1599,7 +1633,7 @@
       <c r="E5" t="s">
         <v>37</v>
       </c>
-      <c r="F5" t="str">
+      <c r="F5" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>3, 4</v>
       </c>
@@ -1642,6 +1676,7 @@
       <c r="A6" t="s">
         <v>92</v>
       </c>
+      <c r="C6" s="2"/>
       <c r="D6" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -1649,7 +1684,7 @@
       <c r="E6" t="s">
         <v>37</v>
       </c>
-      <c r="F6" t="str">
+      <c r="F6" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>3, 4</v>
       </c>
@@ -1685,6 +1720,7 @@
       <c r="A7" t="s">
         <v>92</v>
       </c>
+      <c r="C7" s="2"/>
       <c r="D7" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -1692,7 +1728,7 @@
       <c r="E7" t="s">
         <v>37</v>
       </c>
-      <c r="F7" t="str">
+      <c r="F7" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>3, 4</v>
       </c>
@@ -1728,11 +1764,12 @@
       <c r="B8" t="s">
         <v>0</v>
       </c>
+      <c r="C8" s="2"/>
       <c r="D8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="F8" t="str">
+      <c r="F8" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
@@ -1762,6 +1799,7 @@
       <c r="B9" t="s">
         <v>2</v>
       </c>
+      <c r="C9" s="2"/>
       <c r="D9" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -1769,7 +1807,7 @@
       <c r="E9" t="s">
         <v>104</v>
       </c>
-      <c r="F9" t="str">
+      <c r="F9" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>4</v>
       </c>
@@ -1799,11 +1837,12 @@
       <c r="B10" t="s">
         <v>97</v>
       </c>
+      <c r="C10" s="2"/>
       <c r="D10" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="F10" t="str">
+      <c r="F10" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
@@ -1830,6 +1869,7 @@
       <c r="A11" t="s">
         <v>93</v>
       </c>
+      <c r="C11" s="2"/>
       <c r="D11" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -1837,7 +1877,7 @@
       <c r="E11" t="s">
         <v>37</v>
       </c>
-      <c r="F11" t="str">
+      <c r="F11" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>3, 4</v>
       </c>
@@ -1867,6 +1907,7 @@
       <c r="A12" t="s">
         <v>93</v>
       </c>
+      <c r="C12" s="2"/>
       <c r="D12" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -1874,7 +1915,7 @@
       <c r="E12" t="s">
         <v>37</v>
       </c>
-      <c r="F12" t="str">
+      <c r="F12" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>3, 4</v>
       </c>
@@ -1907,6 +1948,7 @@
       <c r="A13" t="s">
         <v>93</v>
       </c>
+      <c r="C13" s="2"/>
       <c r="D13" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -1914,7 +1956,7 @@
       <c r="E13" t="s">
         <v>37</v>
       </c>
-      <c r="F13" t="str">
+      <c r="F13" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>3, 4</v>
       </c>
@@ -1950,11 +1992,12 @@
       <c r="B14" t="s">
         <v>95</v>
       </c>
+      <c r="C14" s="2"/>
       <c r="D14" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="F14" t="str">
+      <c r="F14" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
@@ -1984,6 +2027,7 @@
       <c r="B15" t="s">
         <v>96</v>
       </c>
+      <c r="C15" s="2"/>
       <c r="D15" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -1991,7 +2035,7 @@
       <c r="E15" t="s">
         <v>37</v>
       </c>
-      <c r="F15" t="str">
+      <c r="F15" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>3, 4</v>
       </c>
@@ -2021,11 +2065,12 @@
       <c r="B16" t="s">
         <v>97</v>
       </c>
+      <c r="C16" s="2"/>
       <c r="D16" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="F16" t="str">
+      <c r="F16" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
@@ -2049,7 +2094,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="R2:T5">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="R2:T5">
     <sortCondition descending="1" ref="T2:T5"/>
     <sortCondition ref="S2:S5"/>
   </sortState>
@@ -2209,7 +2254,7 @@
       <c r="B2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="str">
+      <c r="C2" s="2" t="str">
         <f t="shared" ref="C2:C5" ca="1" si="0">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
@@ -2245,7 +2290,7 @@
       <c r="D2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" t="str">
+      <c r="E2" s="2" t="str">
         <f t="shared" ref="E2:E5" ca="1" si="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
@@ -2316,14 +2361,14 @@
       <c r="B3" t="s">
         <v>25</v>
       </c>
-      <c r="C3" t="str">
+      <c r="C3" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
       </c>
-      <c r="E3" t="str">
+      <c r="E3" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
@@ -2361,14 +2406,14 @@
       <c r="B4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" t="str">
+      <c r="C4" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
       <c r="D4" t="s">
         <v>19</v>
       </c>
-      <c r="E4" t="str">
+      <c r="E4" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>4</v>
       </c>
@@ -2406,14 +2451,14 @@
       <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" t="str">
+      <c r="C5" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
       </c>
-      <c r="E5" t="str">
+      <c r="E5" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
@@ -2490,7 +2535,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="O2:Q8">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="O2:Q8">
     <sortCondition descending="1" ref="Q2:Q8"/>
     <sortCondition ref="P2:P8"/>
   </sortState>
@@ -2509,7 +2554,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2597,7 +2644,7 @@
       <c r="B2" t="s">
         <v>40</v>
       </c>
-      <c r="C2" t="str">
+      <c r="C2" s="2" t="str">
         <f t="shared" ref="C2:C5" ca="1" si="0">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
@@ -2673,7 +2720,7 @@
       <c r="B3" t="s">
         <v>49</v>
       </c>
-      <c r="C3" t="str">
+      <c r="C3" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
@@ -2716,7 +2763,7 @@
       <c r="B4" t="s">
         <v>50</v>
       </c>
-      <c r="C4" t="str">
+      <c r="C4" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
@@ -2759,7 +2806,7 @@
       <c r="B5" t="s">
         <v>51</v>
       </c>
-      <c r="C5" t="str">
+      <c r="C5" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>4</v>
       </c>
@@ -2796,7 +2843,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="M2:O4">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="M2:O4">
     <sortCondition descending="1" ref="O2:O4"/>
     <sortCondition ref="N2:N4"/>
   </sortState>
@@ -2820,7 +2867,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -3302,7 +3349,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AF16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>

--- a/Excel/작업Action.xlsx
+++ b/Excel/작업Action.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E8D6A77-047C-4C8F-B619-A9536CB6E10F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADF6BBF0-272B-4DF3-98B0-6E5B18107362}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ActionTable" sheetId="1" r:id="rId1"/>
@@ -177,7 +177,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="131">
   <si>
     <t>Idle</t>
   </si>
@@ -632,6 +632,10 @@
   </si>
   <si>
     <t>LP_PiercingHitObject</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -818,36 +822,42 @@
         </row>
         <row r="2">
           <cell r="D2" t="str">
-            <v>DotDamage</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="E2" t="str">
-            <v>도트형 대미지 계산식</v>
-          </cell>
+            <v>특정 어펙터를 호출함</v>
+          </cell>
+          <cell r="F2"/>
+          <cell r="G2"/>
           <cell r="H2" t="str">
-            <v>지속시간</v>
+            <v>지속시간
+무제한은 -1</v>
           </cell>
           <cell r="I2" t="str">
-            <v>틱</v>
+            <v>3.HP&lt;= 수치</v>
           </cell>
           <cell r="J2" t="str">
-            <v>자신HP의
-퍼센트량</v>
+            <v/>
           </cell>
           <cell r="K2" t="str">
             <v/>
           </cell>
           <cell r="L2" t="str">
-            <v/>
+            <v>1: 온스타트맵
+2: 온다이
+3: HP&lt;=</v>
           </cell>
           <cell r="M2" t="str">
-            <v/>
-          </cell>
+            <v>지속횟수</v>
+          </cell>
+          <cell r="N2"/>
           <cell r="O2" t="str">
-            <v/>
+            <v>어펙터밸류아이디</v>
           </cell>
           <cell r="P2" t="str">
             <v/>
           </cell>
+          <cell r="Q2"/>
         </row>
         <row r="3">
           <cell r="A3" t="str">
@@ -885,6 +895,7 @@
           <cell r="G4" t="str">
             <v/>
           </cell>
+          <cell r="J4"/>
           <cell r="L4">
             <v>1</v>
           </cell>
@@ -939,9 +950,9 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1332,9 +1343,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V16"/>
+  <dimension ref="A1:V17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -1625,6 +1636,9 @@
       <c r="A5" t="s">
         <v>92</v>
       </c>
+      <c r="B5" t="s">
+        <v>130</v>
+      </c>
       <c r="C5" s="2"/>
       <c r="D5" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -1869,6 +1883,9 @@
       <c r="A11" t="s">
         <v>93</v>
       </c>
+      <c r="B11" t="s">
+        <v>130</v>
+      </c>
       <c r="C11" s="2"/>
       <c r="D11" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -2090,6 +2107,102 @@
       </c>
       <c r="N16" t="str">
         <f>IF(ISBLANK(M16),"",IF(ISERROR(VLOOKUP(M16,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>94</v>
+      </c>
+      <c r="B17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" t="str">
+        <f t="shared" ref="D17" ca="1" si="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C17,
+OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="E17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="2" t="str">
+        <f t="shared" ref="F17" ca="1" si="2">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(E17,
+OFFSET($A$1,1,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,3,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,5,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,7,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,9,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,11,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,13,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,15,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,17,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,19,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,21,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,23,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,25,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,27,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,29,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,31,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,33,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,35,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,37,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,39,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,41,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,43,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,45,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,47,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,49,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(E$1&amp;"_List",$1:$1,0)))</f>
+        <v>3, 4</v>
+      </c>
+      <c r="G17" t="s">
+        <v>59</v>
+      </c>
+      <c r="H17">
+        <v>0.05</v>
+      </c>
+      <c r="J17" t="str">
+        <f>IF(ISBLANK(I17),"",IF(ISERROR(VLOOKUP(I17,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
+        <v/>
+      </c>
+      <c r="L17" t="str">
+        <f>IF(ISBLANK(K17),"",IF(ISERROR(VLOOKUP(K17,CastingTable!$A:$A,1,0)),"캐스팅없음",""))</f>
+        <v/>
+      </c>
+      <c r="N17" t="str">
+        <f>IF(ISBLANK(M17),"",IF(ISERROR(VLOOKUP(M17,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
         <v/>
       </c>
     </row>
@@ -2100,7 +2213,7 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="C2:C16 E2:E16" xr:uid="{9089C6B6-A03B-469A-BC47-88308B12ED20}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="C2:C17 E2:E17" xr:uid="{9089C6B6-A03B-469A-BC47-88308B12ED20}">
       <formula1>OFFSET(INDIRECT("$A$1"),1,MATCH(C$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1,COUNTA(OFFSET(INDIRECT("$A:$A"),0,MATCH(C$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1))-1,1)</formula1>
     </dataValidation>
   </dataValidations>
@@ -2113,19 +2226,19 @@
           <x14:formula1>
             <xm:f>OFFSET(ControlTable!$A$1,1,0,COUNTA(ControlTable!$A:$A)-1,1)</xm:f>
           </x14:formula1>
-          <xm:sqref>I2:I16</xm:sqref>
+          <xm:sqref>I2:I17</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BBEE6704-C898-430D-9E20-E95D3C6D1C53}">
           <x14:formula1>
             <xm:f>OFFSET(CastingTable!$A$1,1,0,COUNTA(CastingTable!$A:$A)-1,1)</xm:f>
           </x14:formula1>
-          <xm:sqref>K2:K16</xm:sqref>
+          <xm:sqref>K2:K17</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6148342E-FC8D-4AB3-B559-9AFD35EC1A83}">
           <x14:formula1>
             <xm:f>OFFSET(SkillTable!$A$1,1,0,COUNTA(SkillTable!$A:$A)-1,1)</xm:f>
           </x14:formula1>
-          <xm:sqref>M2:M16</xm:sqref>
+          <xm:sqref>M2:M17</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2554,7 +2667,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>

--- a/Excel/작업Action.xlsx
+++ b/Excel/작업Action.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADF6BBF0-272B-4DF3-98B0-6E5B18107362}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F528A17-B916-48AA-9A19-90AF2009543E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ActionTable" sheetId="1" r:id="rId1"/>
@@ -177,7 +177,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="132">
   <si>
     <t>Idle</t>
   </si>
@@ -636,6 +636,10 @@
   </si>
   <si>
     <t>Attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Madcap</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1343,32 +1347,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V17"/>
+  <dimension ref="A1:V21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.75" customWidth="1"/>
-    <col min="3" max="3" width="18.5" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.875" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="16.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="19.875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="24.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.875" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="13" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.625" customWidth="1" outlineLevel="1"/>
-    <col min="16" max="16" width="14.25" customWidth="1" outlineLevel="1"/>
-    <col min="18" max="18" width="12.125" customWidth="1" outlineLevel="1"/>
-    <col min="19" max="20" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="11" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="12.25" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="9.875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="13.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="13.625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="9" collapsed="1"/>
+    <col min="16" max="16" width="14.25" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="17" width="9" collapsed="1"/>
+    <col min="18" max="18" width="12.125" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="20" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="21" width="9" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -2119,7 +2126,7 @@
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="str">
-        <f t="shared" ref="D17" ca="1" si="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+        <f t="shared" ref="D17:D20" ca="1" si="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
@@ -2155,7 +2162,7 @@
         <v>37</v>
       </c>
       <c r="F17" s="2" t="str">
-        <f t="shared" ref="F17" ca="1" si="2">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+        <f t="shared" ref="F17:F20" ca="1" si="2">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
@@ -2206,14 +2213,218 @@
         <v/>
       </c>
     </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>131</v>
+      </c>
+      <c r="B18" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="F18" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="G18" t="s">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>0.1</v>
+      </c>
+      <c r="J18" t="str">
+        <f>IF(ISBLANK(I18),"",IF(ISERROR(VLOOKUP(I18,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
+        <v/>
+      </c>
+      <c r="L18" t="str">
+        <f>IF(ISBLANK(K18),"",IF(ISERROR(VLOOKUP(K18,CastingTable!$A:$A,1,0)),"캐스팅없음",""))</f>
+        <v/>
+      </c>
+      <c r="N18" t="str">
+        <f>IF(ISBLANK(M18),"",IF(ISERROR(VLOOKUP(M18,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>131</v>
+      </c>
+      <c r="B19" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="E19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>3, 4</v>
+      </c>
+      <c r="G19" t="s">
+        <v>3</v>
+      </c>
+      <c r="H19">
+        <v>0.1</v>
+      </c>
+      <c r="J19" t="str">
+        <f>IF(ISBLANK(I19),"",IF(ISERROR(VLOOKUP(I19,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
+        <v/>
+      </c>
+      <c r="L19" t="str">
+        <f>IF(ISBLANK(K19),"",IF(ISERROR(VLOOKUP(K19,CastingTable!$A:$A,1,0)),"캐스팅없음",""))</f>
+        <v/>
+      </c>
+      <c r="N19" t="str">
+        <f>IF(ISBLANK(M19),"",IF(ISERROR(VLOOKUP(M19,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>131</v>
+      </c>
+      <c r="B20" t="s">
+        <v>97</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="F20" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="G20" t="s">
+        <v>98</v>
+      </c>
+      <c r="H20">
+        <v>0.05</v>
+      </c>
+      <c r="J20" t="str">
+        <f>IF(ISBLANK(I20),"",IF(ISERROR(VLOOKUP(I20,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
+        <v/>
+      </c>
+      <c r="L20" t="str">
+        <f>IF(ISBLANK(K20),"",IF(ISERROR(VLOOKUP(K20,CastingTable!$A:$A,1,0)),"캐스팅없음",""))</f>
+        <v/>
+      </c>
+      <c r="N20" t="str">
+        <f>IF(ISBLANK(M20),"",IF(ISERROR(VLOOKUP(M20,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>131</v>
+      </c>
+      <c r="B21" t="s">
+        <v>130</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" t="str">
+        <f t="shared" ref="D21" ca="1" si="3">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C21,
+OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="E21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" s="2" t="str">
+        <f t="shared" ref="F21" ca="1" si="4">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(E21,
+OFFSET($A$1,1,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,3,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,5,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,7,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,9,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,11,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,13,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,15,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,17,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,19,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,21,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,23,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,25,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,27,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,29,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,31,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,33,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,35,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,37,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,39,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,41,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,43,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,45,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,47,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,49,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(E$1&amp;"_List",$1:$1,0)))</f>
+        <v>3, 4</v>
+      </c>
+      <c r="G21" t="s">
+        <v>59</v>
+      </c>
+      <c r="H21">
+        <v>0.05</v>
+      </c>
+      <c r="J21" t="str">
+        <f>IF(ISBLANK(I21),"",IF(ISERROR(VLOOKUP(I21,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
+        <v/>
+      </c>
+      <c r="L21" t="str">
+        <f>IF(ISBLANK(K21),"",IF(ISERROR(VLOOKUP(K21,CastingTable!$A:$A,1,0)),"캐스팅없음",""))</f>
+        <v/>
+      </c>
+      <c r="N21" t="str">
+        <f>IF(ISBLANK(M21),"",IF(ISERROR(VLOOKUP(M21,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="R2:T5">
+  <sortState ref="R2:T5">
     <sortCondition descending="1" ref="T2:T5"/>
     <sortCondition ref="S2:S5"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="C2:C17 E2:E17" xr:uid="{9089C6B6-A03B-469A-BC47-88308B12ED20}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="C2:C21 E2:E21" xr:uid="{9089C6B6-A03B-469A-BC47-88308B12ED20}">
       <formula1>OFFSET(INDIRECT("$A$1"),1,MATCH(C$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1,COUNTA(OFFSET(INDIRECT("$A:$A"),0,MATCH(C$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1))-1,1)</formula1>
     </dataValidation>
   </dataValidations>
@@ -2226,19 +2437,19 @@
           <x14:formula1>
             <xm:f>OFFSET(ControlTable!$A$1,1,0,COUNTA(ControlTable!$A:$A)-1,1)</xm:f>
           </x14:formula1>
-          <xm:sqref>I2:I17</xm:sqref>
+          <xm:sqref>I2:I21</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BBEE6704-C898-430D-9E20-E95D3C6D1C53}">
           <x14:formula1>
             <xm:f>OFFSET(CastingTable!$A$1,1,0,COUNTA(CastingTable!$A:$A)-1,1)</xm:f>
           </x14:formula1>
-          <xm:sqref>K2:K17</xm:sqref>
+          <xm:sqref>K2:K21</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6148342E-FC8D-4AB3-B559-9AFD35EC1A83}">
           <x14:formula1>
             <xm:f>OFFSET(SkillTable!$A$1,1,0,COUNTA(SkillTable!$A:$A)-1,1)</xm:f>
           </x14:formula1>
-          <xm:sqref>M2:M17</xm:sqref>
+          <xm:sqref>M2:M21</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2648,7 +2859,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="O2:Q8">
+  <sortState ref="O2:Q8">
     <sortCondition descending="1" ref="Q2:Q8"/>
     <sortCondition ref="P2:P8"/>
   </sortState>
@@ -2956,7 +3167,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="M2:O4">
+  <sortState ref="M2:O4">
     <sortCondition descending="1" ref="O2:O4"/>
     <sortCondition ref="N2:N4"/>
   </sortState>

--- a/Excel/작업Action.xlsx
+++ b/Excel/작업Action.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F528A17-B916-48AA-9A19-90AF2009543E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83615856-7172-47C1-BB7C-9F6454CA0FA2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -177,7 +177,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="133">
   <si>
     <t>Idle</t>
   </si>
@@ -640,6 +640,10 @@
   </si>
   <si>
     <t>Madcap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Swinecone</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1347,11 +1351,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V21"/>
+  <dimension ref="A1:V25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
+      <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -2330,7 +2334,7 @@
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="str">
-        <f t="shared" ref="D21" ca="1" si="3">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+        <f t="shared" ref="D21:D24" ca="1" si="3">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
@@ -2366,7 +2370,7 @@
         <v>37</v>
       </c>
       <c r="F21" s="2" t="str">
-        <f t="shared" ref="F21" ca="1" si="4">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+        <f t="shared" ref="F21:F24" ca="1" si="4">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
@@ -2417,6 +2421,210 @@
         <v/>
       </c>
     </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>132</v>
+      </c>
+      <c r="B22" t="s">
+        <v>95</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="F22" s="2" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="G22" t="s">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>0.1</v>
+      </c>
+      <c r="J22" t="str">
+        <f>IF(ISBLANK(I22),"",IF(ISERROR(VLOOKUP(I22,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
+        <v/>
+      </c>
+      <c r="L22" t="str">
+        <f>IF(ISBLANK(K22),"",IF(ISERROR(VLOOKUP(K22,CastingTable!$A:$A,1,0)),"캐스팅없음",""))</f>
+        <v/>
+      </c>
+      <c r="N22" t="str">
+        <f>IF(ISBLANK(M22),"",IF(ISERROR(VLOOKUP(M22,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>132</v>
+      </c>
+      <c r="B23" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="E23" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" s="2" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>3, 4</v>
+      </c>
+      <c r="G23" t="s">
+        <v>3</v>
+      </c>
+      <c r="H23">
+        <v>0.1</v>
+      </c>
+      <c r="J23" t="str">
+        <f>IF(ISBLANK(I23),"",IF(ISERROR(VLOOKUP(I23,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
+        <v/>
+      </c>
+      <c r="L23" t="str">
+        <f>IF(ISBLANK(K23),"",IF(ISERROR(VLOOKUP(K23,CastingTable!$A:$A,1,0)),"캐스팅없음",""))</f>
+        <v/>
+      </c>
+      <c r="N23" t="str">
+        <f>IF(ISBLANK(M23),"",IF(ISERROR(VLOOKUP(M23,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>132</v>
+      </c>
+      <c r="B24" t="s">
+        <v>97</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="F24" s="2" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="G24" t="s">
+        <v>98</v>
+      </c>
+      <c r="H24">
+        <v>0.05</v>
+      </c>
+      <c r="J24" t="str">
+        <f>IF(ISBLANK(I24),"",IF(ISERROR(VLOOKUP(I24,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
+        <v/>
+      </c>
+      <c r="L24" t="str">
+        <f>IF(ISBLANK(K24),"",IF(ISERROR(VLOOKUP(K24,CastingTable!$A:$A,1,0)),"캐스팅없음",""))</f>
+        <v/>
+      </c>
+      <c r="N24" t="str">
+        <f>IF(ISBLANK(M24),"",IF(ISERROR(VLOOKUP(M24,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>132</v>
+      </c>
+      <c r="B25" t="s">
+        <v>130</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" t="str">
+        <f t="shared" ref="D25" ca="1" si="5">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C25,
+OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="E25" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25" s="2" t="str">
+        <f t="shared" ref="F25" ca="1" si="6">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(E25,
+OFFSET($A$1,1,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,3,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,5,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,7,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,9,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,11,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,13,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,15,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,17,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,19,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,21,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,23,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,25,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,27,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,29,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,31,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,33,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,35,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,37,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,39,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,41,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,43,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,45,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,47,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,49,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(E$1&amp;"_List",$1:$1,0)))</f>
+        <v>3, 4</v>
+      </c>
+      <c r="G25" t="s">
+        <v>59</v>
+      </c>
+      <c r="H25">
+        <v>0.05</v>
+      </c>
+      <c r="J25" t="str">
+        <f>IF(ISBLANK(I25),"",IF(ISERROR(VLOOKUP(I25,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
+        <v/>
+      </c>
+      <c r="L25" t="str">
+        <f>IF(ISBLANK(K25),"",IF(ISERROR(VLOOKUP(K25,CastingTable!$A:$A,1,0)),"캐스팅없음",""))</f>
+        <v/>
+      </c>
+      <c r="N25" t="str">
+        <f>IF(ISBLANK(M25),"",IF(ISERROR(VLOOKUP(M25,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="R2:T5">
     <sortCondition descending="1" ref="T2:T5"/>
@@ -2424,7 +2632,7 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="C2:C21 E2:E21" xr:uid="{9089C6B6-A03B-469A-BC47-88308B12ED20}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="C2:C25 E2:E25" xr:uid="{9089C6B6-A03B-469A-BC47-88308B12ED20}">
       <formula1>OFFSET(INDIRECT("$A$1"),1,MATCH(C$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1,COUNTA(OFFSET(INDIRECT("$A:$A"),0,MATCH(C$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1))-1,1)</formula1>
     </dataValidation>
   </dataValidations>
@@ -2437,19 +2645,19 @@
           <x14:formula1>
             <xm:f>OFFSET(ControlTable!$A$1,1,0,COUNTA(ControlTable!$A:$A)-1,1)</xm:f>
           </x14:formula1>
-          <xm:sqref>I2:I21</xm:sqref>
+          <xm:sqref>I2:I25</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BBEE6704-C898-430D-9E20-E95D3C6D1C53}">
           <x14:formula1>
             <xm:f>OFFSET(CastingTable!$A$1,1,0,COUNTA(CastingTable!$A:$A)-1,1)</xm:f>
           </x14:formula1>
-          <xm:sqref>K2:K21</xm:sqref>
+          <xm:sqref>K2:K25</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6148342E-FC8D-4AB3-B559-9AFD35EC1A83}">
           <x14:formula1>
             <xm:f>OFFSET(SkillTable!$A$1,1,0,COUNTA(SkillTable!$A:$A)-1,1)</xm:f>
           </x14:formula1>
-          <xm:sqref>M2:M21</xm:sqref>
+          <xm:sqref>M2:M25</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Excel/작업Action.xlsx
+++ b/Excel/작업Action.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83615856-7172-47C1-BB7C-9F6454CA0FA2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67BC2989-175E-46D5-9BC3-FA6EA02558ED}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ActionTable" sheetId="1" r:id="rId1"/>
@@ -1353,33 +1353,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.75" customWidth="1"/>
-    <col min="3" max="3" width="18.5" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="16.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21.875" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="19.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.5" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.875" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="19.875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="12.25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="9.875" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="13" width="13.625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="13.625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="15" width="9" collapsed="1"/>
-    <col min="16" max="16" width="14.25" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="17" max="17" width="9" collapsed="1"/>
-    <col min="18" max="18" width="12.125" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="19" max="20" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="21" max="21" width="9" collapsed="1"/>
+    <col min="10" max="10" width="11" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.875" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.625" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="16" width="14.25" customWidth="1" outlineLevel="1"/>
+    <col min="18" max="18" width="12.125" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="20" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="22" width="9" outlineLevel="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -2686,6 +2684,7 @@
     <col min="15" max="15" width="14" customWidth="1" outlineLevel="1"/>
     <col min="16" max="16" width="6" customWidth="1" outlineLevel="1"/>
     <col min="17" max="17" width="4.125" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="19" width="9" outlineLevel="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -3086,9 +3085,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3101,6 +3098,7 @@
     <col min="9" max="9" width="13.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9" customWidth="1" outlineLevel="1"/>
     <col min="13" max="15" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="17" width="9" outlineLevel="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -3399,7 +3397,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>

--- a/Excel/작업Action.xlsx
+++ b/Excel/작업Action.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67BC2989-175E-46D5-9BC3-FA6EA02558ED}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E59F8ED-9F0C-4F34-AF8F-F417798ECEA0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ActionTable" sheetId="1" r:id="rId1"/>
@@ -37,10 +37,10 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>PJY</author>
+    <author>Hoohoo</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{68023393-CF9E-40ED-8AB2-EBD8951C0298}">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{097A843D-F75D-4114-9986-5778BD048F59}">
       <text>
         <r>
           <rPr>
@@ -49,17 +49,18 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Resources\CastingObject </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>안에</t>
+          <t xml:space="preserve">Tab:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>터치하고</t>
         </r>
         <r>
           <rPr>
@@ -78,7 +79,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>프리팹으로</t>
+          <t>풀</t>
         </r>
         <r>
           <rPr>
@@ -97,7 +98,1546 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
+          <t>때</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>나간다</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">. </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>일반</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>공격에</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>사용</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">. </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>움직이면</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>탭으로써</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>존재하지</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">않음
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Hold:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>누르고</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
           <t>있음</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">. </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>누르고</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>있을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>때</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 0.5</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>초</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>코딩</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>픽스</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">) </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>뒤에</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>발동</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">. </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>발동</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>전에</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>움직이면</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>존재하지</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">않음
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Swipe:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>움직이고나서</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>떼었을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>때</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>델타가</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>일정량</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>코딩</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>픽스</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">) </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이상이면</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>스와이프</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">. </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>느리게</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>떼면</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>발동되지</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">않음
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Press:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>누를</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>때</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>발동</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">. </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>현재</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>캐스팅들은</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이것으로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>사용</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">. </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>방향은</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>그</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>뒤에</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>움직이면서</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>캐스팅이</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>처리한다</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">.
+Release:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>뗄</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>때</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>발동</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">. </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>버튼에다가</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>연결하면</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>누르고</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>뗄</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>때</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>발동</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">. </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>눌렀다가</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>버튼</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>밖으로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>갔다가</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>되돌아와서</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>떼어도</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>발동</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">.
+Pressed:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>누르고</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>있을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>때</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>매</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>프레임</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>계속</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>발동</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">. </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>쿨타임이</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>돌아오고</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>있는데</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>미리</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>누르고</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>있으면</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>바로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>발사된다</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>.</t>
         </r>
       </text>
     </comment>
@@ -111,6 +1651,77 @@
     <author>PJY</author>
   </authors>
   <commentList>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{68023393-CF9E-40ED-8AB2-EBD8951C0298}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Resources\CastingObject </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>안에</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>프리팹으로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>있음</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>PJY</author>
+  </authors>
+  <commentList>
     <comment ref="D1" authorId="0" shapeId="0" xr:uid="{D875C911-E174-41CC-8F5A-107D39EBE377}">
       <text>
         <r>
@@ -177,7 +1788,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="136">
   <si>
     <t>Idle</t>
   </si>
@@ -200,9 +1811,6 @@
     <t>ActiveOne001</t>
   </si>
   <si>
-    <t>Base Layer.Attack.skill2</t>
-  </si>
-  <si>
     <t>ActiveTwo001</t>
   </si>
   <si>
@@ -221,9 +1829,6 @@
     <t>ScreenController</t>
   </si>
   <si>
-    <t>Drag</t>
-  </si>
-  <si>
     <t>Tab</t>
   </si>
   <si>
@@ -255,13 +1860,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ActiveSkillslot1</t>
-  </si>
-  <si>
-    <t>ActiveSkillslot1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Casting1001</t>
   </si>
   <si>
@@ -302,348 +1900,375 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>RangeNormal</t>
+  </si>
+  <si>
     <t>Casting1002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConeNormalBlue</t>
+  </si>
+  <si>
+    <t>Casting1003</t>
+  </si>
+  <si>
+    <t>DirectionNormal</t>
+  </si>
+  <si>
+    <t>Casting1004</t>
+  </si>
+  <si>
+    <t>PointNormal</t>
   </si>
   <si>
     <t>Range</t>
-  </si>
-  <si>
-    <t>RangeNormal</t>
-  </si>
-  <si>
-    <t>Casting1002</t>
-  </si>
-  <si>
-    <t>ConeNormalBlue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cone</t>
+  </si>
+  <si>
+    <t>Direction</t>
+  </si>
+  <si>
+    <t>Point</t>
+  </si>
+  <si>
+    <t>actionName|String</t>
+  </si>
+  <si>
+    <t>listAllowingState|String</t>
+  </si>
+  <si>
+    <t>listNotAllowingState|String</t>
+  </si>
+  <si>
+    <t>mecanimName|String</t>
+  </si>
+  <si>
+    <t>fadeDuration|Float</t>
+  </si>
+  <si>
+    <t>controlId|String</t>
+  </si>
+  <si>
+    <t>skillId|String</t>
+  </si>
+  <si>
+    <t>Base Layer.Attack1</t>
+  </si>
+  <si>
+    <t>Control204</t>
+  </si>
+  <si>
+    <t>Control301</t>
+  </si>
+  <si>
+    <t>Control201</t>
+  </si>
+  <si>
+    <t>id|String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>controlType|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inputType|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>controlType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inputType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>controlType_Verify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>controlType_List</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inputType_Verify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inputType_List</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>castingType|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prefab|String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>range|Float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>angle|Float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pointRadius|Float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>width|Float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>longDistance|Bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>castingType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>castingType_Verify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>castingType_List</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>passiveSkill|Bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon|String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cooltime|Float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>useCooltimeOverriding|Bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>useMecanimNameOverriding|Bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skillId|String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mecanimName|String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>actorId|String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Actor001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Actor002</t>
+  </si>
+  <si>
+    <t>Rosehips</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Idle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Move</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Die</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base Layer.Die</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Actor001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>usePassiveAffectorValueIdOverriding|Bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AtkUpBuff001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AtkUpBuff001,DefUpBuff001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40,50,60,90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attacked</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>castingId|String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>descriptionId|String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nameId|String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_ActiveOne001_Name</t>
+  </si>
+  <si>
+    <t>Skill_ActiveOne001_Description</t>
+  </si>
+  <si>
+    <t>passiveAffectorValueId|String!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parameter|String!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>useNameIdOverriding|Bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>useDescriptionIdOverriding|Bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fValue1|Float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iValue1|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sValue1|String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가작업First</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가작업Second</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가작업Third</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름참고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명참고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>controlId검증</t>
+  </si>
+  <si>
+    <t>castingId검증</t>
+  </si>
+  <si>
+    <t>skillId검증</t>
+  </si>
+  <si>
+    <t>어펙터밸류4개검증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력어펙터밸류1</t>
+  </si>
+  <si>
+    <t>입력어펙터밸류2</t>
+  </si>
+  <si>
+    <t>입력어펙터밸류3</t>
+  </si>
+  <si>
+    <t>LP_PiercingHitObject</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Madcap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Swinecone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Control401</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActiveSkillSlot1</t>
+  </si>
+  <si>
+    <t>ActiveSkillSlot1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActiveSkillSlot1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Press</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base Layer.Ultimate1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Casting1003</t>
-  </si>
-  <si>
-    <t>DirectionNormal</t>
-  </si>
-  <si>
-    <t>Casting1004</t>
-  </si>
-  <si>
-    <t>PointNormal</t>
-  </si>
-  <si>
-    <t>Range</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cone</t>
-  </si>
-  <si>
-    <t>Direction</t>
-  </si>
-  <si>
-    <t>Point</t>
-  </si>
-  <si>
-    <t>actionName|String</t>
-  </si>
-  <si>
-    <t>listAllowingState|String</t>
-  </si>
-  <si>
-    <t>listNotAllowingState|String</t>
-  </si>
-  <si>
-    <t>mecanimName|String</t>
-  </si>
-  <si>
-    <t>fadeDuration|Float</t>
-  </si>
-  <si>
-    <t>controlId|String</t>
-  </si>
-  <si>
-    <t>skillId|String</t>
-  </si>
-  <si>
-    <t>Base Layer.Attack1</t>
-  </si>
-  <si>
-    <t>Control204</t>
-  </si>
-  <si>
-    <t>Control301</t>
-  </si>
-  <si>
-    <t>Control201</t>
-  </si>
-  <si>
-    <t>id|String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>controlType|Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>inputType|Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>controlType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>inputType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>controlType_Verify</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>controlType_List</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>inputType_Verify</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>inputType_List</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id|Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>castingType|Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prefab|String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>range|Float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>angle|Float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pointRadius|Float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>width|Float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>longDistance|Bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>castingType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>castingType_Verify</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>castingType_List</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>passiveSkill|Bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>icon|String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cooltime|Float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>useCooltimeOverriding|Bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>useMecanimNameOverriding|Bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skillId|String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>level|Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mecanimName|String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>actorId|String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Actor001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Actor002</t>
-  </si>
-  <si>
-    <t>Rosehips</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Idle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Move</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Die</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Base Layer.Die</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Actor001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>usePassiveAffectorValueIdOverriding|Bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AtkUpBuff001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AtkUpBuff001,DefUpBuff001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>40,50,60,90</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Attacked</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>castingId|String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>descriptionId|String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nameId|String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skill_ActiveOne001_Name</t>
-  </si>
-  <si>
-    <t>Skill_ActiveOne001_Description</t>
-  </si>
-  <si>
-    <t>passiveAffectorValueId|String!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>parameter|String!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>useNameIdOverriding|Bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>useDescriptionIdOverriding|Bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fValue1|Float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iValue1|Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sValue1|String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>추가작업First</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>추가작업Second</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>추가작업Third</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이름참고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>설명참고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>controlId검증</t>
-  </si>
-  <si>
-    <t>castingId검증</t>
-  </si>
-  <si>
-    <t>skillId검증</t>
-  </si>
-  <si>
-    <t>어펙터밸류4개검증</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>입력어펙터밸류1</t>
-  </si>
-  <si>
-    <t>입력어펙터밸류2</t>
-  </si>
-  <si>
-    <t>입력어펙터밸류3</t>
-  </si>
-  <si>
-    <t>LP_PiercingHitObject</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Attack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Madcap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Swinecone</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -970,11 +2595,12 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
+      <sheetName val="TitleStringTable"/>
       <sheetName val="StringTable"/>
-      <sheetName val="TitleStringTable"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
         <row r="1">
           <cell r="A1" t="str">
             <v>id|String</v>
@@ -988,43 +2614,75 @@
         </row>
         <row r="2">
           <cell r="A2" t="str">
-            <v>GameUI_Play</v>
+            <v>GameUI_Swappable</v>
           </cell>
           <cell r="B2" t="str">
-            <v>진행</v>
+            <v>교체 가능</v>
           </cell>
           <cell r="C2" t="str">
-            <v>Play</v>
+            <v>Can be swapped</v>
           </cell>
         </row>
         <row r="3">
           <cell r="A3" t="str">
-            <v>Skill_ActiveOne001_Name</v>
+            <v>GameUI_TouchToMove</v>
           </cell>
           <cell r="B3" t="str">
-            <v>하트가 폭발한다</v>
+            <v>터치하여 이동하세요</v>
+          </cell>
+          <cell r="C3" t="str">
+            <v>Touch to move</v>
           </cell>
         </row>
         <row r="4">
           <cell r="A4" t="str">
-            <v>Skill_ActiveOne001_Description</v>
+            <v>GameUI_RepiarPack</v>
           </cell>
           <cell r="B4" t="str">
-            <v>대미지를 &lt;color=#FFFF00&gt;{0}%,{1}%,{2}%,{3}%&lt;/color&gt; 먹이고 적이 죽이면 하트를 반드시 떨어뜨린다
-적이 죽지 않으면 기절을 먹인다</v>
+            <v>{0}레벨 수리킷 사용</v>
+          </cell>
+          <cell r="C4" t="str">
+            <v>Use Repair Kit Lv. {0}</v>
           </cell>
         </row>
         <row r="5">
           <cell r="A5" t="str">
+            <v>GameUI_Play</v>
+          </cell>
+          <cell r="B5" t="str">
+            <v>진행</v>
+          </cell>
+          <cell r="C5" t="str">
+            <v>Play</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>Skill_ActiveOne001_Name</v>
+          </cell>
+          <cell r="B6" t="str">
+            <v>하트가 폭발한다</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>Skill_ActiveOne001_Description</v>
+          </cell>
+          <cell r="B7" t="str">
+            <v>대미지를 &lt;color=#FFFF00&gt;{0}%,{1}%,{2}%,{3}%&lt;/color&gt; 먹이고 적이 죽이면 하트를 반드시 떨어뜨린다
+적이 죽지 않으면 기절을 먹인다</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
             <v>Skill_ActiveOne002_Description</v>
           </cell>
-          <cell r="B5" t="str">
+          <cell r="B8" t="str">
             <v>대미지를 {0}% 먹이고 적이 죽이면 하트를 반드시 떨어뜨린다
 적이 죽지 않으면 기절을 먹인다</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1351,9 +3009,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V25"/>
+  <dimension ref="A1:W23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -1362,75 +3020,79 @@
   <cols>
     <col min="1" max="1" width="13.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.75" customWidth="1"/>
-    <col min="3" max="3" width="18.5" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.875" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="16.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="19.875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="24.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.875" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="13" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.625" customWidth="1" outlineLevel="1"/>
-    <col min="16" max="16" width="14.25" customWidth="1" outlineLevel="1"/>
-    <col min="18" max="18" width="12.125" customWidth="1" outlineLevel="1"/>
-    <col min="19" max="20" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="22" width="9" outlineLevel="1"/>
+    <col min="10" max="10" width="11" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="12.25" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="9.875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="13.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="13.625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="9" collapsed="1"/>
+    <col min="16" max="16" width="14.25" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="17" width="9" collapsed="1"/>
+    <col min="18" max="18" width="12.125" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="20" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="21" width="9" collapsed="1"/>
+    <col min="22" max="22" width="0" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="23" max="23" width="9" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" t="s">
         <v>52</v>
       </c>
-      <c r="C1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="J1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K1" t="s">
+        <v>100</v>
+      </c>
+      <c r="L1" t="s">
+        <v>118</v>
+      </c>
+      <c r="M1" t="s">
         <v>53</v>
       </c>
-      <c r="E1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I1" t="s">
-        <v>57</v>
-      </c>
-      <c r="J1" t="s">
-        <v>122</v>
-      </c>
-      <c r="K1" t="s">
-        <v>105</v>
-      </c>
-      <c r="L1" t="s">
-        <v>123</v>
-      </c>
-      <c r="M1" t="s">
-        <v>58</v>
-      </c>
       <c r="N1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="P1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="R1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="S1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="T1" t="str">
         <f ca="1">IF(OR(OFFSET(T1,1,0)&lt;OFFSET(T1,2,0),OFFSET(T1,2,0)&lt;OFFSET(T1,3,0),
@@ -1463,14 +3125,14 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="str">
-        <f t="shared" ref="D2:F16" ca="1" si="0">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+        <f t="shared" ref="D2:F14" ca="1" si="0">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
@@ -1528,7 +3190,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S2">
         <v>4</v>
@@ -1544,7 +3206,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -1555,7 +3217,7 @@
         <v/>
       </c>
       <c r="E3" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F3" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -1583,7 +3245,7 @@
         <v>2</v>
       </c>
       <c r="R3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="S3">
         <v>3</v>
@@ -1595,10 +3257,10 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" t="s">
         <v>92</v>
-      </c>
-      <c r="B4" t="s">
-        <v>97</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="str">
@@ -1610,7 +3272,7 @@
         <v/>
       </c>
       <c r="G4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="H4">
         <v>0.05</v>
@@ -1628,7 +3290,7 @@
         <v/>
       </c>
       <c r="P4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R4" t="s">
         <v>0</v>
@@ -1643,10 +3305,10 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B5" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="str">
@@ -1654,14 +3316,14 @@
         <v/>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F5" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>3, 4</v>
       </c>
       <c r="G5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H5">
         <v>0.05</v>
@@ -1682,7 +3344,7 @@
         <v/>
       </c>
       <c r="P5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R5" t="s">
         <v>2</v>
@@ -1697,7 +3359,7 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="str">
@@ -1705,34 +3367,31 @@
         <v/>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F6" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>3, 4</v>
       </c>
       <c r="G6" t="s">
-        <v>5</v>
+        <v>134</v>
       </c>
       <c r="H6">
         <v>0.05</v>
       </c>
       <c r="I6" t="s">
-        <v>60</v>
+        <v>129</v>
       </c>
       <c r="J6" t="str">
         <f>IF(ISBLANK(I6),"",IF(ISERROR(VLOOKUP(I6,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
         <v/>
       </c>
       <c r="K6" t="s">
-        <v>39</v>
+        <v>135</v>
       </c>
       <c r="L6" t="str">
         <f>IF(ISBLANK(K6),"",IF(ISERROR(VLOOKUP(K6,CastingTable!$A:$A,1,0)),"캐스팅없음",""))</f>
         <v/>
-      </c>
-      <c r="M6" t="s">
-        <v>6</v>
       </c>
       <c r="N6" t="str">
         <f>IF(ISBLANK(M6),"",IF(ISERROR(VLOOKUP(M6,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
@@ -1741,28 +3400,25 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>92</v>
+        <v>88</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="E7" t="s">
-        <v>37</v>
-      </c>
       <c r="F7" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>3, 4</v>
+        <v/>
       </c>
       <c r="G7" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>0.05</v>
-      </c>
-      <c r="I7" t="s">
-        <v>61</v>
+        <v>0.1</v>
       </c>
       <c r="J7" t="str">
         <f>IF(ISBLANK(I7),"",IF(ISERROR(VLOOKUP(I7,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -1771,9 +3427,6 @@
       <c r="L7" t="str">
         <f>IF(ISBLANK(K7),"",IF(ISERROR(VLOOKUP(K7,CastingTable!$A:$A,1,0)),"캐스팅없음",""))</f>
         <v/>
-      </c>
-      <c r="M7" t="s">
-        <v>8</v>
       </c>
       <c r="N7" t="str">
         <f>IF(ISBLANK(M7),"",IF(ISERROR(VLOOKUP(M7,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
@@ -1782,22 +3435,25 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B8" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
+      <c r="E8" t="s">
+        <v>99</v>
+      </c>
       <c r="F8" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="G8" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H8">
         <v>0.1</v>
@@ -1817,28 +3473,25 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>92</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="E9" t="s">
-        <v>104</v>
-      </c>
       <c r="F9" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v/>
       </c>
       <c r="G9" t="s">
-        <v>3</v>
+        <v>93</v>
       </c>
       <c r="H9">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="J9" t="str">
         <f>IF(ISBLANK(I9),"",IF(ISERROR(VLOOKUP(I9,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -1855,25 +3508,31 @@
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B10" t="s">
-        <v>97</v>
+        <v>125</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
+      <c r="E10" t="s">
+        <v>33</v>
+      </c>
       <c r="F10" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v>3, 4</v>
       </c>
       <c r="G10" t="s">
-        <v>98</v>
+        <v>54</v>
       </c>
       <c r="H10">
         <v>0.05</v>
+      </c>
+      <c r="I10" t="s">
+        <v>4</v>
       </c>
       <c r="J10" t="str">
         <f>IF(ISBLANK(I10),"",IF(ISERROR(VLOOKUP(I10,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -1890,10 +3549,7 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>93</v>
-      </c>
-      <c r="B11" t="s">
-        <v>130</v>
+        <v>88</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="str">
@@ -1901,20 +3557,20 @@
         <v/>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F11" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>3, 4</v>
       </c>
       <c r="G11" t="s">
-        <v>59</v>
+        <v>134</v>
       </c>
       <c r="H11">
         <v>0.05</v>
       </c>
       <c r="I11" t="s">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="J11" t="str">
         <f>IF(ISBLANK(I11),"",IF(ISERROR(VLOOKUP(I11,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -1923,6 +3579,9 @@
       <c r="L11" t="str">
         <f>IF(ISBLANK(K11),"",IF(ISERROR(VLOOKUP(K11,CastingTable!$A:$A,1,0)),"캐스팅없음",""))</f>
         <v/>
+      </c>
+      <c r="M11" t="s">
+        <v>8</v>
       </c>
       <c r="N11" t="str">
         <f>IF(ISBLANK(M11),"",IF(ISERROR(VLOOKUP(M11,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
@@ -1931,28 +3590,25 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>93</v>
+        <v>89</v>
+      </c>
+      <c r="B12" t="s">
+        <v>90</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="E12" t="s">
-        <v>37</v>
-      </c>
       <c r="F12" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>3, 4</v>
+        <v/>
       </c>
       <c r="G12" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H12">
-        <v>0.05</v>
-      </c>
-      <c r="I12" t="s">
-        <v>62</v>
+        <v>0.1</v>
       </c>
       <c r="J12" t="str">
         <f>IF(ISBLANK(I12),"",IF(ISERROR(VLOOKUP(I12,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -1961,9 +3617,6 @@
       <c r="L12" t="str">
         <f>IF(ISBLANK(K12),"",IF(ISERROR(VLOOKUP(K12,CastingTable!$A:$A,1,0)),"캐스팅없음",""))</f>
         <v/>
-      </c>
-      <c r="M12" t="s">
-        <v>9</v>
       </c>
       <c r="N12" t="str">
         <f>IF(ISBLANK(M12),"",IF(ISERROR(VLOOKUP(M12,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
@@ -1972,7 +3625,10 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>93</v>
+        <v>89</v>
+      </c>
+      <c r="B13" t="s">
+        <v>91</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="str">
@@ -1980,20 +3636,17 @@
         <v/>
       </c>
       <c r="E13" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F13" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>3, 4</v>
       </c>
       <c r="G13" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H13">
-        <v>0.05</v>
-      </c>
-      <c r="I13" t="s">
-        <v>61</v>
+        <v>0.1</v>
       </c>
       <c r="J13" t="str">
         <f>IF(ISBLANK(I13),"",IF(ISERROR(VLOOKUP(I13,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -2002,9 +3655,6 @@
       <c r="L13" t="str">
         <f>IF(ISBLANK(K13),"",IF(ISERROR(VLOOKUP(K13,CastingTable!$A:$A,1,0)),"캐스팅없음",""))</f>
         <v/>
-      </c>
-      <c r="M13" t="s">
-        <v>10</v>
       </c>
       <c r="N13" t="str">
         <f>IF(ISBLANK(M13),"",IF(ISERROR(VLOOKUP(M13,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
@@ -2013,10 +3663,10 @@
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B14" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="str">
@@ -2028,10 +3678,10 @@
         <v/>
       </c>
       <c r="G14" t="s">
-        <v>1</v>
+        <v>93</v>
       </c>
       <c r="H14">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="J14" t="str">
         <f>IF(ISBLANK(I14),"",IF(ISERROR(VLOOKUP(I14,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -2048,91 +3698,18 @@
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B15" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="E15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>3, 4</v>
-      </c>
-      <c r="G15" t="s">
-        <v>3</v>
-      </c>
-      <c r="H15">
-        <v>0.1</v>
-      </c>
-      <c r="J15" t="str">
-        <f>IF(ISBLANK(I15),"",IF(ISERROR(VLOOKUP(I15,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
-        <v/>
-      </c>
-      <c r="L15" t="str">
-        <f>IF(ISBLANK(K15),"",IF(ISERROR(VLOOKUP(K15,CastingTable!$A:$A,1,0)),"캐스팅없음",""))</f>
-        <v/>
-      </c>
-      <c r="N15" t="str">
-        <f>IF(ISBLANK(M15),"",IF(ISERROR(VLOOKUP(M15,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>94</v>
-      </c>
-      <c r="B16" t="s">
-        <v>97</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="F16" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="G16" t="s">
-        <v>98</v>
-      </c>
-      <c r="H16">
-        <v>0.05</v>
-      </c>
-      <c r="J16" t="str">
-        <f>IF(ISBLANK(I16),"",IF(ISERROR(VLOOKUP(I16,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
-        <v/>
-      </c>
-      <c r="L16" t="str">
-        <f>IF(ISBLANK(K16),"",IF(ISERROR(VLOOKUP(K16,CastingTable!$A:$A,1,0)),"캐스팅없음",""))</f>
-        <v/>
-      </c>
-      <c r="N16" t="str">
-        <f>IF(ISBLANK(M16),"",IF(ISERROR(VLOOKUP(M16,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>94</v>
-      </c>
-      <c r="B17" t="s">
-        <v>130</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" t="str">
-        <f t="shared" ref="D17:D20" ca="1" si="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+        <f t="shared" ref="D15:D18" ca="1" si="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C17,
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C15,
 OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
 OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
 OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
@@ -2160,15 +3737,15 @@
 OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
         <v/>
       </c>
-      <c r="E17" t="s">
-        <v>37</v>
-      </c>
-      <c r="F17" s="2" t="str">
-        <f t="shared" ref="F17:F20" ca="1" si="2">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+      <c r="E15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="2" t="str">
+        <f t="shared" ref="F15:F18" ca="1" si="2">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(E17,
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(E15,
 OFFSET($A$1,1,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(E$1&amp;"_List",$1:$1,0))),
 OFFSET($A$1,3,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(E$1&amp;"_List",$1:$1,0))),
 OFFSET($A$1,5,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(E$1&amp;"_List",$1:$1,0))),
@@ -2196,11 +3773,84 @@
 OFFSET($A$1,49,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(E$1&amp;"_List",$1:$1,0)))</f>
         <v>3, 4</v>
       </c>
+      <c r="G15" t="s">
+        <v>54</v>
+      </c>
+      <c r="H15">
+        <v>0.05</v>
+      </c>
+      <c r="J15" t="str">
+        <f>IF(ISBLANK(I15),"",IF(ISERROR(VLOOKUP(I15,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
+        <v/>
+      </c>
+      <c r="L15" t="str">
+        <f>IF(ISBLANK(K15),"",IF(ISERROR(VLOOKUP(K15,CastingTable!$A:$A,1,0)),"캐스팅없음",""))</f>
+        <v/>
+      </c>
+      <c r="N15" t="str">
+        <f>IF(ISBLANK(M15),"",IF(ISERROR(VLOOKUP(M15,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>126</v>
+      </c>
+      <c r="B16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="F16" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="G16" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>0.1</v>
+      </c>
+      <c r="J16" t="str">
+        <f>IF(ISBLANK(I16),"",IF(ISERROR(VLOOKUP(I16,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
+        <v/>
+      </c>
+      <c r="L16" t="str">
+        <f>IF(ISBLANK(K16),"",IF(ISERROR(VLOOKUP(K16,CastingTable!$A:$A,1,0)),"캐스팅없음",""))</f>
+        <v/>
+      </c>
+      <c r="N16" t="str">
+        <f>IF(ISBLANK(M16),"",IF(ISERROR(VLOOKUP(M16,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>126</v>
+      </c>
+      <c r="B17" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="E17" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>3, 4</v>
+      </c>
       <c r="G17" t="s">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="H17">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="J17" t="str">
         <f>IF(ISBLANK(I17),"",IF(ISERROR(VLOOKUP(I17,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -2217,10 +3867,10 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B18" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="str">
@@ -2232,10 +3882,10 @@
         <v/>
       </c>
       <c r="G18" t="s">
-        <v>1</v>
+        <v>93</v>
       </c>
       <c r="H18">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="J18" t="str">
         <f>IF(ISBLANK(I18),"",IF(ISERROR(VLOOKUP(I18,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -2252,91 +3902,18 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B19" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="E19" t="s">
-        <v>37</v>
-      </c>
-      <c r="F19" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>3, 4</v>
-      </c>
-      <c r="G19" t="s">
-        <v>3</v>
-      </c>
-      <c r="H19">
-        <v>0.1</v>
-      </c>
-      <c r="J19" t="str">
-        <f>IF(ISBLANK(I19),"",IF(ISERROR(VLOOKUP(I19,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
-        <v/>
-      </c>
-      <c r="L19" t="str">
-        <f>IF(ISBLANK(K19),"",IF(ISERROR(VLOOKUP(K19,CastingTable!$A:$A,1,0)),"캐스팅없음",""))</f>
-        <v/>
-      </c>
-      <c r="N19" t="str">
-        <f>IF(ISBLANK(M19),"",IF(ISERROR(VLOOKUP(M19,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>131</v>
-      </c>
-      <c r="B20" t="s">
-        <v>97</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="F20" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="G20" t="s">
-        <v>98</v>
-      </c>
-      <c r="H20">
-        <v>0.05</v>
-      </c>
-      <c r="J20" t="str">
-        <f>IF(ISBLANK(I20),"",IF(ISERROR(VLOOKUP(I20,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
-        <v/>
-      </c>
-      <c r="L20" t="str">
-        <f>IF(ISBLANK(K20),"",IF(ISERROR(VLOOKUP(K20,CastingTable!$A:$A,1,0)),"캐스팅없음",""))</f>
-        <v/>
-      </c>
-      <c r="N20" t="str">
-        <f>IF(ISBLANK(M20),"",IF(ISERROR(VLOOKUP(M20,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>131</v>
-      </c>
-      <c r="B21" t="s">
-        <v>130</v>
-      </c>
-      <c r="C21" s="2"/>
-      <c r="D21" t="str">
-        <f t="shared" ref="D21:D24" ca="1" si="3">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+        <f t="shared" ref="D19:D22" ca="1" si="3">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C21,
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C19,
 OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
 OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
 OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
@@ -2364,15 +3941,15 @@
 OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
         <v/>
       </c>
-      <c r="E21" t="s">
-        <v>37</v>
-      </c>
-      <c r="F21" s="2" t="str">
-        <f t="shared" ref="F21:F24" ca="1" si="4">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+      <c r="E19" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="2" t="str">
+        <f t="shared" ref="F19:F22" ca="1" si="4">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(E21,
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(E19,
 OFFSET($A$1,1,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(E$1&amp;"_List",$1:$1,0))),
 OFFSET($A$1,3,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(E$1&amp;"_List",$1:$1,0))),
 OFFSET($A$1,5,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(E$1&amp;"_List",$1:$1,0))),
@@ -2400,11 +3977,84 @@
 OFFSET($A$1,49,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(E$1&amp;"_List",$1:$1,0)))</f>
         <v>3, 4</v>
       </c>
+      <c r="G19" t="s">
+        <v>54</v>
+      </c>
+      <c r="H19">
+        <v>0.05</v>
+      </c>
+      <c r="J19" t="str">
+        <f>IF(ISBLANK(I19),"",IF(ISERROR(VLOOKUP(I19,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
+        <v/>
+      </c>
+      <c r="L19" t="str">
+        <f>IF(ISBLANK(K19),"",IF(ISERROR(VLOOKUP(K19,CastingTable!$A:$A,1,0)),"캐스팅없음",""))</f>
+        <v/>
+      </c>
+      <c r="N19" t="str">
+        <f>IF(ISBLANK(M19),"",IF(ISERROR(VLOOKUP(M19,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>127</v>
+      </c>
+      <c r="B20" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="F20" s="2" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="G20" t="s">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>0.1</v>
+      </c>
+      <c r="J20" t="str">
+        <f>IF(ISBLANK(I20),"",IF(ISERROR(VLOOKUP(I20,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
+        <v/>
+      </c>
+      <c r="L20" t="str">
+        <f>IF(ISBLANK(K20),"",IF(ISERROR(VLOOKUP(K20,CastingTable!$A:$A,1,0)),"캐스팅없음",""))</f>
+        <v/>
+      </c>
+      <c r="N20" t="str">
+        <f>IF(ISBLANK(M20),"",IF(ISERROR(VLOOKUP(M20,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>127</v>
+      </c>
+      <c r="B21" t="s">
+        <v>91</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="E21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" s="2" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>3, 4</v>
+      </c>
       <c r="G21" t="s">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="H21">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="J21" t="str">
         <f>IF(ISBLANK(I21),"",IF(ISERROR(VLOOKUP(I21,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -2421,10 +4071,10 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B22" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="str">
@@ -2436,10 +4086,10 @@
         <v/>
       </c>
       <c r="G22" t="s">
-        <v>1</v>
+        <v>93</v>
       </c>
       <c r="H22">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="J22" t="str">
         <f>IF(ISBLANK(I22),"",IF(ISERROR(VLOOKUP(I22,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -2456,91 +4106,18 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B23" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="E23" t="s">
-        <v>37</v>
-      </c>
-      <c r="F23" s="2" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>3, 4</v>
-      </c>
-      <c r="G23" t="s">
-        <v>3</v>
-      </c>
-      <c r="H23">
-        <v>0.1</v>
-      </c>
-      <c r="J23" t="str">
-        <f>IF(ISBLANK(I23),"",IF(ISERROR(VLOOKUP(I23,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
-        <v/>
-      </c>
-      <c r="L23" t="str">
-        <f>IF(ISBLANK(K23),"",IF(ISERROR(VLOOKUP(K23,CastingTable!$A:$A,1,0)),"캐스팅없음",""))</f>
-        <v/>
-      </c>
-      <c r="N23" t="str">
-        <f>IF(ISBLANK(M23),"",IF(ISERROR(VLOOKUP(M23,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>132</v>
-      </c>
-      <c r="B24" t="s">
-        <v>97</v>
-      </c>
-      <c r="C24" s="2"/>
-      <c r="D24" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="F24" s="2" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="G24" t="s">
-        <v>98</v>
-      </c>
-      <c r="H24">
-        <v>0.05</v>
-      </c>
-      <c r="J24" t="str">
-        <f>IF(ISBLANK(I24),"",IF(ISERROR(VLOOKUP(I24,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
-        <v/>
-      </c>
-      <c r="L24" t="str">
-        <f>IF(ISBLANK(K24),"",IF(ISERROR(VLOOKUP(K24,CastingTable!$A:$A,1,0)),"캐스팅없음",""))</f>
-        <v/>
-      </c>
-      <c r="N24" t="str">
-        <f>IF(ISBLANK(M24),"",IF(ISERROR(VLOOKUP(M24,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>132</v>
-      </c>
-      <c r="B25" t="s">
-        <v>130</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25" t="str">
-        <f t="shared" ref="D25" ca="1" si="5">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+        <f t="shared" ref="D23" ca="1" si="5">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C25,
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C23,
 OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
 OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
 OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
@@ -2568,15 +4145,15 @@
 OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
         <v/>
       </c>
-      <c r="E25" t="s">
-        <v>37</v>
-      </c>
-      <c r="F25" s="2" t="str">
-        <f t="shared" ref="F25" ca="1" si="6">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+      <c r="E23" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23" s="2" t="str">
+        <f t="shared" ref="F23" ca="1" si="6">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(E25,
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(E23,
 OFFSET($A$1,1,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(E$1&amp;"_List",$1:$1,0))),
 OFFSET($A$1,3,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(E$1&amp;"_List",$1:$1,0))),
 OFFSET($A$1,5,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(E$1&amp;"_List",$1:$1,0))),
@@ -2604,22 +4181,22 @@
 OFFSET($A$1,49,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(E$1&amp;"_List",$1:$1,0)))</f>
         <v>3, 4</v>
       </c>
-      <c r="G25" t="s">
-        <v>59</v>
-      </c>
-      <c r="H25">
+      <c r="G23" t="s">
+        <v>54</v>
+      </c>
+      <c r="H23">
         <v>0.05</v>
       </c>
-      <c r="J25" t="str">
-        <f>IF(ISBLANK(I25),"",IF(ISERROR(VLOOKUP(I25,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
-        <v/>
-      </c>
-      <c r="L25" t="str">
-        <f>IF(ISBLANK(K25),"",IF(ISERROR(VLOOKUP(K25,CastingTable!$A:$A,1,0)),"캐스팅없음",""))</f>
-        <v/>
-      </c>
-      <c r="N25" t="str">
-        <f>IF(ISBLANK(M25),"",IF(ISERROR(VLOOKUP(M25,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
+      <c r="J23" t="str">
+        <f>IF(ISBLANK(I23),"",IF(ISERROR(VLOOKUP(I23,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
+        <v/>
+      </c>
+      <c r="L23" t="str">
+        <f>IF(ISBLANK(K23),"",IF(ISERROR(VLOOKUP(K23,CastingTable!$A:$A,1,0)),"캐스팅없음",""))</f>
+        <v/>
+      </c>
+      <c r="N23" t="str">
+        <f>IF(ISBLANK(M23),"",IF(ISERROR(VLOOKUP(M23,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
         <v/>
       </c>
     </row>
@@ -2630,7 +4207,7 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="C2:C25 E2:E25" xr:uid="{9089C6B6-A03B-469A-BC47-88308B12ED20}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="C2:C23 E2:E23" xr:uid="{9089C6B6-A03B-469A-BC47-88308B12ED20}">
       <formula1>OFFSET(INDIRECT("$A$1"),1,MATCH(C$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1,COUNTA(OFFSET(INDIRECT("$A:$A"),0,MATCH(C$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1))-1,1)</formula1>
     </dataValidation>
   </dataValidations>
@@ -2639,23 +4216,23 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E98A69ED-ACB1-4726-AFB2-FA695D9C95A0}">
-          <x14:formula1>
-            <xm:f>OFFSET(ControlTable!$A$1,1,0,COUNTA(ControlTable!$A:$A)-1,1)</xm:f>
-          </x14:formula1>
-          <xm:sqref>I2:I25</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BBEE6704-C898-430D-9E20-E95D3C6D1C53}">
           <x14:formula1>
             <xm:f>OFFSET(CastingTable!$A$1,1,0,COUNTA(CastingTable!$A:$A)-1,1)</xm:f>
           </x14:formula1>
-          <xm:sqref>K2:K25</xm:sqref>
+          <xm:sqref>K2:K23</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6148342E-FC8D-4AB3-B559-9AFD35EC1A83}">
           <x14:formula1>
             <xm:f>OFFSET(SkillTable!$A$1,1,0,COUNTA(SkillTable!$A:$A)-1,1)</xm:f>
           </x14:formula1>
-          <xm:sqref>M2:M25</xm:sqref>
+          <xm:sqref>M2:M23</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E98A69ED-ACB1-4726-AFB2-FA695D9C95A0}">
+          <x14:formula1>
+            <xm:f>OFFSET(ControlTable!$A$1,1,0,COUNTA(ControlTable!$A:$A)-1,1)</xm:f>
+          </x14:formula1>
+          <xm:sqref>I2:I23</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2664,53 +4241,58 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:S8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.25" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.125" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.375" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="16.25" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="10" width="6" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="4.125" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="13" width="16.25" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="15" width="14" customWidth="1" outlineLevel="1"/>
-    <col min="16" max="16" width="6" customWidth="1" outlineLevel="1"/>
-    <col min="17" max="17" width="4.125" customWidth="1" outlineLevel="1"/>
-    <col min="19" max="19" width="9" outlineLevel="1"/>
+    <col min="2" max="2" width="16.25" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="12.125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.125" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="9" collapsed="1"/>
+    <col min="9" max="9" width="16.25" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="6" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="4.125" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="9" collapsed="1"/>
+    <col min="13" max="13" width="16.25" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="9" collapsed="1"/>
+    <col min="15" max="15" width="14" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="16" width="6" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="17" width="4.125" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="18" max="18" width="9" collapsed="1"/>
+    <col min="19" max="19" width="0" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="20" max="20" width="9" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" t="s">
         <v>63</v>
       </c>
-      <c r="B1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="I1" t="s">
         <v>64</v>
       </c>
-      <c r="D1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I1" t="s">
-        <v>69</v>
-      </c>
       <c r="J1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K1" t="str">
         <f ca="1">IF(OR(OFFSET(K1,1,0)&lt;OFFSET(K1,2,0),OFFSET(K1,2,0)&lt;OFFSET(K1,3,0),
@@ -2741,13 +4323,13 @@
         <v>len</v>
       </c>
       <c r="M1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="O1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="P1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q1" t="str">
         <f ca="1">IF(OR(OFFSET(Q1,1,0)&lt;OFFSET(Q1,2,0),OFFSET(Q1,2,0)&lt;OFFSET(Q1,3,0),
@@ -2783,7 +4365,402 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="C2" s="2" t="str">
+        <f t="shared" ref="C2:C6" ca="1" si="0">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B2,
+OFFSET($A$1,1,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(B$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,3,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(B$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,5,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(B$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,7,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(B$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,9,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(B$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,11,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(B$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,13,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(B$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,15,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(B$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,17,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(B$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,19,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(B$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,21,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(B$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,23,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(B$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,25,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(B$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,27,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(B$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,29,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(B$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,31,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(B$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,33,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(B$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,35,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(B$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,37,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(B$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,39,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(B$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,41,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(B$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,43,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(B$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,45,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(B$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,47,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(B$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,49,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(B$1&amp;"_List",$1:$1,0)))</f>
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E2" s="2" t="str">
+        <f t="shared" ref="E2:E6" ca="1" si="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D2,
+OFFSET($A$1,1,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(D$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(D$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,3,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(D$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(D$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,5,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(D$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(D$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,7,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(D$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(D$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,9,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(D$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(D$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,11,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(D$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(D$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,13,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(D$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(D$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,15,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(D$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(D$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,17,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(D$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(D$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,19,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(D$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(D$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,21,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(D$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(D$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,23,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(D$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(D$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,25,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(D$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(D$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,27,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(D$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(D$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,29,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(D$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(D$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,31,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(D$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(D$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,33,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(D$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(D$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,35,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(D$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(D$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,37,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(D$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(D$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,39,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(D$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(D$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,41,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(D$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(D$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,43,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(D$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(D$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,45,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(D$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(D$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,47,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(D$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(D$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,49,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(D$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(D$1&amp;"_List",$1:$1,0)))</f>
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2">
+        <v>4</v>
+      </c>
+      <c r="K2">
+        <f>LEN(I2)</f>
+        <v>17</v>
+      </c>
+      <c r="M2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P2">
+        <v>5</v>
+      </c>
+      <c r="Q2">
+        <f t="shared" ref="Q2:Q7" si="2">LEN(O2)</f>
+        <v>7</v>
+      </c>
+      <c r="S2" t="str">
+        <f ca="1">IFERROR(HLOOKUP("내림차순 정렬할 것",$1:$1,1,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" s="2" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>132</v>
+      </c>
+      <c r="I3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <f>LEN(I3)</f>
+        <v>16</v>
+      </c>
+      <c r="M3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O3" t="s">
+        <v>20</v>
+      </c>
+      <c r="P3">
+        <v>6</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C4" s="2" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>131</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <f>LEN(I4)</f>
+        <v>16</v>
+      </c>
+      <c r="M4" t="s">
+        <v>17</v>
+      </c>
+      <c r="O4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P4">
+        <v>3</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5">
+        <v>3</v>
+      </c>
+      <c r="K5">
+        <f>LEN(I5)</f>
+        <v>16</v>
+      </c>
+      <c r="M5" t="s">
+        <v>18</v>
+      </c>
+      <c r="O5" t="s">
+        <v>18</v>
+      </c>
+      <c r="P5">
+        <v>4</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="2" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>133</v>
+      </c>
+      <c r="E6" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="M6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O6" t="s">
+        <v>15</v>
+      </c>
+      <c r="P6">
+        <v>2</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="M7" t="s">
+        <v>20</v>
+      </c>
+      <c r="O7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="O2:Q6">
+    <sortCondition descending="1" ref="Q2:Q6"/>
+    <sortCondition ref="P2:P6"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B6 D2:D5" xr:uid="{809BE1C9-E5C4-442E-8B69-082FB6A8DFCA}">
+      <formula1>OFFSET(INDIRECT("$A$1"),1,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1,COUNTA(OFFSET(INDIRECT("$A:$A"),0,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1))-1,1)</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:R5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="12.25" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="9" collapsed="1"/>
+    <col min="13" max="15" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="16" width="9" collapsed="1"/>
+    <col min="17" max="17" width="0" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="18" max="18" width="9" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" t="str">
+        <f ca="1">IF(OR(OFFSET(O1,1,0)&lt;OFFSET(O1,2,0),OFFSET(O1,2,0)&lt;OFFSET(O1,3,0),
+OFFSET(O1,3,0)&lt;OFFSET(O1,4,0),OFFSET(O1,4,0)&lt;OFFSET(O1,5,0),
+OFFSET(O1,5,0)&lt;OFFSET(O1,6,0),OFFSET(O1,6,0)&lt;OFFSET(O1,7,0),
+OFFSET(O1,7,0)&lt;OFFSET(O1,8,0),OFFSET(O1,8,0)&lt;OFFSET(O1,9,0),
+OFFSET(O1,9,0)&lt;OFFSET(O1,10,0),OFFSET(O1,10,0)&lt;OFFSET(O1,11,0),
+OFFSET(O1,11,0)&lt;OFFSET(O1,12,0),OFFSET(O1,12,0)&lt;OFFSET(O1,13,0),
+OFFSET(O1,13,0)&lt;OFFSET(O1,14,0),OFFSET(O1,14,0)&lt;OFFSET(O1,15,0),
+OFFSET(O1,15,0)&lt;OFFSET(O1,16,0),OFFSET(O1,16,0)&lt;OFFSET(O1,17,0),
+OFFSET(O1,17,0)&lt;OFFSET(O1,18,0),OFFSET(O1,18,0)&lt;OFFSET(O1,19,0),
+OFFSET(O1,19,0)&lt;OFFSET(O1,20,0),OFFSET(O1,20,0)&lt;OFFSET(O1,21,0),
+OFFSET(O1,21,0)&lt;OFFSET(O1,22,0),OFFSET(O1,22,0)&lt;OFFSET(O1,23,0),
+OFFSET(O1,23,0)&lt;OFFSET(O1,24,0),OFFSET(O1,24,0)&lt;OFFSET(O1,25,0),
+OFFSET(O1,25,0)&lt;OFFSET(O1,26,0),OFFSET(O1,26,0)&lt;OFFSET(O1,27,0),
+OFFSET(O1,27,0)&lt;OFFSET(O1,28,0),OFFSET(O1,28,0)&lt;OFFSET(O1,29,0),
+OFFSET(O1,29,0)&lt;OFFSET(O1,30,0),OFFSET(O1,30,0)&lt;OFFSET(O1,31,0),
+OFFSET(O1,31,0)&lt;OFFSET(O1,32,0),OFFSET(O1,32,0)&lt;OFFSET(O1,33,0),
+OFFSET(O1,33,0)&lt;OFFSET(O1,34,0),OFFSET(O1,34,0)&lt;OFFSET(O1,35,0),
+OFFSET(O1,35,0)&lt;OFFSET(O1,36,0),OFFSET(O1,36,0)&lt;OFFSET(O1,37,0),
+OFFSET(O1,37,0)&lt;OFFSET(O1,38,0),OFFSET(O1,38,0)&lt;OFFSET(O1,39,0),
+OFFSET(O1,39,0)&lt;OFFSET(O1,40,0),OFFSET(O1,40,0)&lt;OFFSET(O1,41,0),
+OFFSET(O1,41,0)&lt;OFFSET(O1,42,0),OFFSET(O1,42,0)&lt;OFFSET(O1,43,0),
+OFFSET(O1,43,0)&lt;OFFSET(O1,44,0),OFFSET(O1,44,0)&lt;OFFSET(O1,45,0),
+OFFSET(O1,45,0)&lt;OFFSET(O1,46,0),OFFSET(O1,46,0)&lt;OFFSET(O1,47,0),
+OFFSET(O1,47,0)&lt;OFFSET(O1,48,0),OFFSET(O1,48,0)&lt;OFFSET(O1,49,0),
+OFFSET(O1,49,0)&lt;OFFSET(O1,50,0)),"내림차순 정렬할 것","len")</f>
+        <v>len</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
       </c>
       <c r="C2" s="2" t="str">
         <f t="shared" ref="C2:C5" ca="1" si="0">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
@@ -2819,443 +4796,54 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="2" t="str">
-        <f t="shared" ref="E2:E5" ca="1" si="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D2,
-OFFSET($A$1,1,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(D$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(D$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,3,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(D$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(D$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,5,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(D$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(D$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,7,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(D$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(D$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,9,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(D$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(D$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,11,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(D$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(D$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,13,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(D$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(D$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,15,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(D$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(D$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,17,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(D$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(D$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,19,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(D$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(D$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,21,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(D$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(D$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,23,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(D$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(D$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,25,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(D$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(D$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,27,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(D$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(D$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,29,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(D$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(D$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,31,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(D$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(D$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,33,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(D$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(D$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,35,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(D$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(D$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,37,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(D$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(D$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,39,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(D$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(D$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,41,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(D$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(D$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,43,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(D$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(D$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,45,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(D$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(D$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,47,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(D$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(D$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,49,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(D$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(D$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(D$1&amp;"_List",$1:$1,0)))</f>
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2">
-        <v>4</v>
-      </c>
-      <c r="K2">
-        <f>LEN(I2)</f>
-        <v>17</v>
+        <v>36</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
+        <v>43</v>
       </c>
       <c r="M2" t="s">
-        <v>14</v>
-      </c>
-      <c r="O2" t="s">
-        <v>21</v>
-      </c>
-      <c r="P2">
-        <v>6</v>
-      </c>
-      <c r="Q2">
-        <f t="shared" ref="Q2:Q8" si="2">LEN(O2)</f>
-        <v>7</v>
-      </c>
-      <c r="S2" t="str">
+        <v>45</v>
+      </c>
+      <c r="N2">
+        <v>3</v>
+      </c>
+      <c r="O2">
+        <f>LEN(M2)</f>
+        <v>9</v>
+      </c>
+      <c r="Q2" t="str">
         <f ca="1">IFERROR(HLOOKUP("내림차순 정렬할 것",$1:$1,1,0),"")</f>
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="C3" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="G3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <f>LEN(I3)</f>
-        <v>16</v>
-      </c>
-      <c r="M3" t="s">
-        <v>15</v>
-      </c>
-      <c r="O3" t="s">
-        <v>22</v>
-      </c>
-      <c r="P3">
-        <v>7</v>
-      </c>
-      <c r="Q3">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4">
-        <v>2</v>
-      </c>
-      <c r="K4">
-        <f>LEN(I4)</f>
-        <v>16</v>
-      </c>
-      <c r="M4" t="s">
-        <v>17</v>
-      </c>
-      <c r="O4" t="s">
-        <v>19</v>
-      </c>
-      <c r="P4">
-        <v>4</v>
-      </c>
-      <c r="Q4">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="G5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5">
-        <v>3</v>
-      </c>
-      <c r="K5">
-        <f>LEN(I5)</f>
-        <v>16</v>
-      </c>
-      <c r="M5" t="s">
-        <v>19</v>
-      </c>
-      <c r="O5" t="s">
-        <v>20</v>
-      </c>
-      <c r="P5">
-        <v>5</v>
-      </c>
-      <c r="Q5">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="M6" t="s">
-        <v>20</v>
-      </c>
-      <c r="O6" t="s">
-        <v>14</v>
-      </c>
-      <c r="P6">
-        <v>1</v>
-      </c>
-      <c r="Q6">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="M7" t="s">
-        <v>21</v>
-      </c>
-      <c r="O7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P7">
-        <v>3</v>
-      </c>
-      <c r="Q7">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="M8" t="s">
-        <v>22</v>
-      </c>
-      <c r="O8" t="s">
-        <v>15</v>
-      </c>
-      <c r="P8">
-        <v>2</v>
-      </c>
-      <c r="Q8">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState ref="O2:Q8">
-    <sortCondition descending="1" ref="Q2:Q8"/>
-    <sortCondition ref="P2:P8"/>
-  </sortState>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B5 D2:D5" xr:uid="{809BE1C9-E5C4-442E-8B69-082FB6A8DFCA}">
-      <formula1>OFFSET(INDIRECT("$A$1"),1,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1,COUNTA(OFFSET(INDIRECT("$A:$A"),0,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1))-1,1)</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Q5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.375" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="15" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="17" max="17" width="9" outlineLevel="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H1" t="s">
-        <v>78</v>
-      </c>
-      <c r="I1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K1" t="s">
-        <v>81</v>
-      </c>
-      <c r="M1" t="s">
-        <v>82</v>
-      </c>
-      <c r="N1" t="s">
-        <v>23</v>
-      </c>
-      <c r="O1" t="str">
-        <f ca="1">IF(OR(OFFSET(O1,1,0)&lt;OFFSET(O1,2,0),OFFSET(O1,2,0)&lt;OFFSET(O1,3,0),
-OFFSET(O1,3,0)&lt;OFFSET(O1,4,0),OFFSET(O1,4,0)&lt;OFFSET(O1,5,0),
-OFFSET(O1,5,0)&lt;OFFSET(O1,6,0),OFFSET(O1,6,0)&lt;OFFSET(O1,7,0),
-OFFSET(O1,7,0)&lt;OFFSET(O1,8,0),OFFSET(O1,8,0)&lt;OFFSET(O1,9,0),
-OFFSET(O1,9,0)&lt;OFFSET(O1,10,0),OFFSET(O1,10,0)&lt;OFFSET(O1,11,0),
-OFFSET(O1,11,0)&lt;OFFSET(O1,12,0),OFFSET(O1,12,0)&lt;OFFSET(O1,13,0),
-OFFSET(O1,13,0)&lt;OFFSET(O1,14,0),OFFSET(O1,14,0)&lt;OFFSET(O1,15,0),
-OFFSET(O1,15,0)&lt;OFFSET(O1,16,0),OFFSET(O1,16,0)&lt;OFFSET(O1,17,0),
-OFFSET(O1,17,0)&lt;OFFSET(O1,18,0),OFFSET(O1,18,0)&lt;OFFSET(O1,19,0),
-OFFSET(O1,19,0)&lt;OFFSET(O1,20,0),OFFSET(O1,20,0)&lt;OFFSET(O1,21,0),
-OFFSET(O1,21,0)&lt;OFFSET(O1,22,0),OFFSET(O1,22,0)&lt;OFFSET(O1,23,0),
-OFFSET(O1,23,0)&lt;OFFSET(O1,24,0),OFFSET(O1,24,0)&lt;OFFSET(O1,25,0),
-OFFSET(O1,25,0)&lt;OFFSET(O1,26,0),OFFSET(O1,26,0)&lt;OFFSET(O1,27,0),
-OFFSET(O1,27,0)&lt;OFFSET(O1,28,0),OFFSET(O1,28,0)&lt;OFFSET(O1,29,0),
-OFFSET(O1,29,0)&lt;OFFSET(O1,30,0),OFFSET(O1,30,0)&lt;OFFSET(O1,31,0),
-OFFSET(O1,31,0)&lt;OFFSET(O1,32,0),OFFSET(O1,32,0)&lt;OFFSET(O1,33,0),
-OFFSET(O1,33,0)&lt;OFFSET(O1,34,0),OFFSET(O1,34,0)&lt;OFFSET(O1,35,0),
-OFFSET(O1,35,0)&lt;OFFSET(O1,36,0),OFFSET(O1,36,0)&lt;OFFSET(O1,37,0),
-OFFSET(O1,37,0)&lt;OFFSET(O1,38,0),OFFSET(O1,38,0)&lt;OFFSET(O1,39,0),
-OFFSET(O1,39,0)&lt;OFFSET(O1,40,0),OFFSET(O1,40,0)&lt;OFFSET(O1,41,0),
-OFFSET(O1,41,0)&lt;OFFSET(O1,42,0),OFFSET(O1,42,0)&lt;OFFSET(O1,43,0),
-OFFSET(O1,43,0)&lt;OFFSET(O1,44,0),OFFSET(O1,44,0)&lt;OFFSET(O1,45,0),
-OFFSET(O1,45,0)&lt;OFFSET(O1,46,0),OFFSET(O1,46,0)&lt;OFFSET(O1,47,0),
-OFFSET(O1,47,0)&lt;OFFSET(O1,48,0),OFFSET(O1,48,0)&lt;OFFSET(O1,49,0),
-OFFSET(O1,49,0)&lt;OFFSET(O1,50,0)),"내림차순 정렬할 것","len")</f>
-        <v>len</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="2" t="str">
-        <f t="shared" ref="C2:C5" ca="1" si="0">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B2,
-OFFSET($A$1,1,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,3,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,5,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,7,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,9,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,11,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,13,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,15,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,17,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,19,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,21,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,23,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,25,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,27,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,29,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,31,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,33,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,35,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,37,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,39,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,41,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,43,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,45,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,47,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(B$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,49,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(B$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(B$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(B$1&amp;"_List",$1:$1,0)))</f>
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2">
-        <v>5</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K2" t="s">
-        <v>48</v>
-      </c>
-      <c r="M2" t="s">
-        <v>50</v>
-      </c>
-      <c r="N2">
-        <v>3</v>
-      </c>
-      <c r="O2">
-        <f>LEN(M2)</f>
-        <v>9</v>
-      </c>
-      <c r="Q2" t="str">
-        <f ca="1">IFERROR(HLOOKUP("내림차순 정렬할 것",$1:$1,1,0),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E3">
         <v>6.5</v>
@@ -3273,10 +4861,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="M3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="N3">
         <v>4</v>
@@ -3288,20 +4876,20 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C4" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E4">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -3316,10 +4904,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="M4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -3331,17 +4919,17 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" t="s">
         <v>46</v>
-      </c>
-      <c r="B5" t="s">
-        <v>51</v>
       </c>
       <c r="C5" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E5">
         <v>4.5</v>
@@ -3359,10 +4947,10 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="M5" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="N5">
         <v>2</v>
@@ -3421,52 +5009,52 @@
   <sheetData>
     <row r="1" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>112</v>
-      </c>
       <c r="P1" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
@@ -3474,13 +5062,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C2" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E2" s="1">
         <v>5</v>
@@ -3503,10 +5091,10 @@
         <v/>
       </c>
       <c r="H2" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="J2" s="1" t="str">
         <f>IFERROR(IF(ISBLANK(H2),"",VLOOKUP(H2,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0)),"스트링없음")</f>
@@ -3545,16 +5133,16 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C3" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E3" s="1">
         <v>5</v>
@@ -3612,10 +5200,10 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C4" s="1" t="b">
         <v>1</v>
@@ -3674,16 +5262,16 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C5" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E5" s="1">
         <v>5</v>
@@ -3741,16 +5329,16 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C6" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E6" s="1">
         <v>5</v>
@@ -3808,10 +5396,10 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C7" s="1" t="b">
         <v>1</v>
@@ -3915,100 +5503,100 @@
   <sheetData>
     <row r="1" spans="1:32" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="E1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>119</v>
-      </c>
       <c r="S1" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="T1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>119</v>
-      </c>
       <c r="Z1" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="AA1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF1" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.3">
@@ -4056,10 +5644,10 @@
 적이 죽지 않으면 기절을 먹인다</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="M2" s="1">
         <f>IFERROR(IF(ISBLANK($L2),"",VLOOKUP($L2&amp;TEXT($B2,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(M$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
@@ -4120,7 +5708,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="str">
@@ -4154,10 +5742,10 @@
 적이 죽지 않으면 기절을 먹인다</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="M3" s="1">
         <f>IFERROR(IF(ISBLANK($L3),"",VLOOKUP($L3&amp;TEXT($B3,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(M$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
@@ -4218,7 +5806,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="str">
@@ -4252,7 +5840,7 @@
 적이 죽지 않으면 기절을 먹인다</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1" t="str">
@@ -4314,7 +5902,7 @@
         <v>7</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="str">
@@ -4348,7 +5936,7 @@
 적이 죽지 않으면 기절을 먹인다</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1" t="str">
@@ -4410,7 +5998,7 @@
         <v>6</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="str">
@@ -4444,7 +6032,7 @@
 적이 죽지 않으면 기절을 먹인다</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1" t="str">
@@ -4497,7 +6085,7 @@
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
@@ -4586,7 +6174,7 @@
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1">
         <v>2</v>
@@ -4675,7 +6263,7 @@
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>3</v>
@@ -4764,7 +6352,7 @@
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="1">
         <v>4</v>
@@ -4853,7 +6441,7 @@
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" s="1">
         <v>5</v>
@@ -4942,7 +6530,7 @@
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B12" s="1">
         <v>1</v>
@@ -4950,7 +6538,7 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F12" s="1" t="str">
         <f>IF(ISBLANK(E12),"",
@@ -5036,7 +6624,7 @@
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B13" s="1">
         <v>2</v>
@@ -5044,7 +6632,7 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F13" s="1" t="str">
         <f>IF(ISBLANK(E13),"",
@@ -5127,7 +6715,7 @@
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B14" s="1">
         <v>3</v>
@@ -5135,7 +6723,7 @@
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F14" s="1" t="str">
         <f>IF(ISBLANK(E14),"",
@@ -5218,7 +6806,7 @@
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B15" s="1">
         <v>4</v>
@@ -5226,7 +6814,7 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F15" s="1" t="str">
         <f>IF(ISBLANK(E15),"",
@@ -5309,7 +6897,7 @@
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B16" s="1">
         <v>5</v>
@@ -5317,7 +6905,7 @@
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F16" s="1" t="str">
         <f>IF(ISBLANK(E16),"",

--- a/Excel/작업Action.xlsx
+++ b/Excel/작업Action.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E59F8ED-9F0C-4F34-AF8F-F417798ECEA0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0376C4B6-3BBC-454A-A148-51F52FF2F3CF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ActionTable" sheetId="1" r:id="rId1"/>
@@ -1788,7 +1788,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="135">
   <si>
     <t>Idle</t>
   </si>
@@ -2003,10 +2003,6 @@
   </si>
   <si>
     <t>inputType_List</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id|Int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3011,7 +3007,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -3044,7 +3040,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B1" t="s">
         <v>47</v>
@@ -3071,19 +3067,19 @@
         <v>52</v>
       </c>
       <c r="J1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L1" t="s">
         <v>117</v>
-      </c>
-      <c r="K1" t="s">
-        <v>100</v>
-      </c>
-      <c r="L1" t="s">
-        <v>118</v>
       </c>
       <c r="M1" t="s">
         <v>53</v>
       </c>
       <c r="N1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P1" t="s">
         <v>34</v>
@@ -3125,7 +3121,7 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -3206,7 +3202,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -3217,7 +3213,7 @@
         <v/>
       </c>
       <c r="E3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F3" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -3257,10 +3253,10 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="str">
@@ -3272,7 +3268,7 @@
         <v/>
       </c>
       <c r="G4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H4">
         <v>0.05</v>
@@ -3305,10 +3301,10 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="str">
@@ -3359,7 +3355,7 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="str">
@@ -3374,20 +3370,20 @@
         <v>3, 4</v>
       </c>
       <c r="G6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H6">
         <v>0.05</v>
       </c>
       <c r="I6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J6" t="str">
         <f>IF(ISBLANK(I6),"",IF(ISERROR(VLOOKUP(I6,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
         <v/>
       </c>
       <c r="K6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L6" t="str">
         <f>IF(ISBLANK(K6),"",IF(ISERROR(VLOOKUP(K6,CastingTable!$A:$A,1,0)),"캐스팅없음",""))</f>
@@ -3400,7 +3396,7 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B7" t="s">
         <v>0</v>
@@ -3435,7 +3431,7 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
@@ -3446,7 +3442,7 @@
         <v/>
       </c>
       <c r="E8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F8" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -3473,10 +3469,10 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="str">
@@ -3488,7 +3484,7 @@
         <v/>
       </c>
       <c r="G9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H9">
         <v>0.05</v>
@@ -3508,10 +3504,10 @@
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="str">
@@ -3549,7 +3545,7 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="str">
@@ -3564,7 +3560,7 @@
         <v>3, 4</v>
       </c>
       <c r="G11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H11">
         <v>0.05</v>
@@ -3590,10 +3586,10 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12" t="s">
         <v>89</v>
-      </c>
-      <c r="B12" t="s">
-        <v>90</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="str">
@@ -3625,10 +3621,10 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="str">
@@ -3663,10 +3659,10 @@
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="str">
@@ -3678,7 +3674,7 @@
         <v/>
       </c>
       <c r="G14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H14">
         <v>0.05</v>
@@ -3698,10 +3694,10 @@
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="str">
@@ -3794,10 +3790,10 @@
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="str">
@@ -3829,10 +3825,10 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="str">
@@ -3867,10 +3863,10 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="str">
@@ -3882,7 +3878,7 @@
         <v/>
       </c>
       <c r="G18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H18">
         <v>0.05</v>
@@ -3902,10 +3898,10 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="str">
@@ -3998,10 +3994,10 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="str">
@@ -4033,10 +4029,10 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="str">
@@ -4071,10 +4067,10 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="str">
@@ -4086,7 +4082,7 @@
         <v/>
       </c>
       <c r="G22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H22">
         <v>0.05</v>
@@ -4106,10 +4102,10 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B23" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="str">
@@ -4401,7 +4397,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E2" s="2" t="str">
         <f t="shared" ref="E2:E6" ca="1" si="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
@@ -4472,7 +4468,7 @@
         <v>57</v>
       </c>
       <c r="B3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C3" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -4486,7 +4482,7 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I3" t="s">
         <v>12</v>
@@ -4517,7 +4513,7 @@
         <v>55</v>
       </c>
       <c r="B4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C4" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -4534,7 +4530,7 @@
         <v>14</v>
       </c>
       <c r="I4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J4">
         <v>2</v>
@@ -4604,7 +4600,7 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
@@ -4614,7 +4610,7 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E6" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -4670,7 +4666,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4685,43 +4681,43 @@
     <col min="12" max="12" width="9" collapsed="1"/>
     <col min="13" max="15" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="16" max="16" width="9" collapsed="1"/>
-    <col min="17" max="17" width="0" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="17" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="18" max="18" width="9" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" t="s">
         <v>67</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K1" t="s">
         <v>75</v>
       </c>
-      <c r="C1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G1" t="s">
-        <v>72</v>
-      </c>
-      <c r="H1" t="s">
-        <v>73</v>
-      </c>
-      <c r="I1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>76</v>
-      </c>
-      <c r="M1" t="s">
-        <v>77</v>
       </c>
       <c r="N1" t="s">
         <v>21</v>
@@ -5012,49 +5008,49 @@
         <v>58</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="N1" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
@@ -5062,7 +5058,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C2" s="1" t="b">
         <v>0</v>
@@ -5091,10 +5087,10 @@
         <v/>
       </c>
       <c r="H2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="J2" s="1" t="str">
         <f>IFERROR(IF(ISBLANK(H2),"",VLOOKUP(H2,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0)),"스트링없음")</f>
@@ -5136,7 +5132,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C3" s="1" t="b">
         <v>0</v>
@@ -5203,7 +5199,7 @@
         <v>26</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C4" s="1" t="b">
         <v>1</v>
@@ -5265,7 +5261,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C5" s="1" t="b">
         <v>0</v>
@@ -5332,7 +5328,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C6" s="1" t="b">
         <v>0</v>
@@ -5399,7 +5395,7 @@
         <v>29</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C7" s="1" t="b">
         <v>1</v>
@@ -5503,100 +5499,100 @@
   <sheetData>
     <row r="1" spans="1:32" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="E1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="T1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="S1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.3">
@@ -5644,10 +5640,10 @@
 적이 죽지 않으면 기절을 먹인다</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M2" s="1">
         <f>IFERROR(IF(ISBLANK($L2),"",VLOOKUP($L2&amp;TEXT($B2,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(M$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
@@ -5742,10 +5738,10 @@
 적이 죽지 않으면 기절을 먹인다</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M3" s="1">
         <f>IFERROR(IF(ISBLANK($L3),"",VLOOKUP($L3&amp;TEXT($B3,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(M$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
@@ -5840,7 +5836,7 @@
 적이 죽지 않으면 기절을 먹인다</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1" t="str">
@@ -5936,7 +5932,7 @@
 적이 죽지 않으면 기절을 먹인다</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1" t="str">
@@ -6032,7 +6028,7 @@
 적이 죽지 않으면 기절을 먹인다</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1" t="str">
@@ -6538,7 +6534,7 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F12" s="1" t="str">
         <f>IF(ISBLANK(E12),"",
@@ -6632,7 +6628,7 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F13" s="1" t="str">
         <f>IF(ISBLANK(E13),"",
@@ -6723,7 +6719,7 @@
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F14" s="1" t="str">
         <f>IF(ISBLANK(E14),"",
@@ -6814,7 +6810,7 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F15" s="1" t="str">
         <f>IF(ISBLANK(E15),"",
@@ -6905,7 +6901,7 @@
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F16" s="1" t="str">
         <f>IF(ISBLANK(E16),"",

--- a/Excel/작업Action.xlsx
+++ b/Excel/작업Action.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0376C4B6-3BBC-454A-A148-51F52FF2F3CF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A13C69DA-C2AE-4C6C-9DB2-59CAF5A63E52}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ActionTable" sheetId="1" r:id="rId1"/>
@@ -1788,7 +1788,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="132">
   <si>
     <t>Idle</t>
   </si>
@@ -2133,10 +2133,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>castingId|String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>descriptionId|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2202,9 +2198,6 @@
     <t>controlId검증</t>
   </si>
   <si>
-    <t>castingId검증</t>
-  </si>
-  <si>
     <t>skillId검증</t>
   </si>
   <si>
@@ -2256,16 +2249,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Press</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Base Layer.Ultimate1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Casting1003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Control401</t>
   </si>
 </sst>
 </file>
@@ -3005,9 +2993,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W23"/>
+  <dimension ref="A1:U23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -3024,21 +3012,19 @@
     <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="12.25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="9.875" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="13" width="13.625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="13.625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="13.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="9" collapsed="1"/>
+    <col min="14" max="14" width="14.25" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="15" max="15" width="9" collapsed="1"/>
-    <col min="16" max="16" width="14.25" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="17" max="17" width="9" collapsed="1"/>
-    <col min="18" max="18" width="12.125" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="19" max="20" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="16" width="12.125" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="18" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="19" width="9" collapsed="1"/>
+    <col min="20" max="20" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="21" max="21" width="9" collapsed="1"/>
-    <col min="22" max="22" width="0" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="23" max="23" width="9" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>85</v>
       </c>
@@ -3067,59 +3053,53 @@
         <v>52</v>
       </c>
       <c r="J1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L1" t="s">
         <v>116</v>
       </c>
-      <c r="K1" t="s">
-        <v>99</v>
-      </c>
-      <c r="L1" t="s">
-        <v>117</v>
-      </c>
-      <c r="M1" t="s">
-        <v>53</v>
-      </c>
       <c r="N1" t="s">
-        <v>118</v>
+        <v>34</v>
       </c>
       <c r="P1" t="s">
-        <v>34</v>
-      </c>
-      <c r="R1" t="s">
         <v>32</v>
       </c>
-      <c r="S1" t="s">
+      <c r="Q1" t="s">
         <v>21</v>
       </c>
-      <c r="T1" t="str">
-        <f ca="1">IF(OR(OFFSET(T1,1,0)&lt;OFFSET(T1,2,0),OFFSET(T1,2,0)&lt;OFFSET(T1,3,0),
-OFFSET(T1,3,0)&lt;OFFSET(T1,4,0),OFFSET(T1,4,0)&lt;OFFSET(T1,5,0),
-OFFSET(T1,5,0)&lt;OFFSET(T1,6,0),OFFSET(T1,6,0)&lt;OFFSET(T1,7,0),
-OFFSET(T1,7,0)&lt;OFFSET(T1,8,0),OFFSET(T1,8,0)&lt;OFFSET(T1,9,0),
-OFFSET(T1,9,0)&lt;OFFSET(T1,10,0),OFFSET(T1,10,0)&lt;OFFSET(T1,11,0),
-OFFSET(T1,11,0)&lt;OFFSET(T1,12,0),OFFSET(T1,12,0)&lt;OFFSET(T1,13,0),
-OFFSET(T1,13,0)&lt;OFFSET(T1,14,0),OFFSET(T1,14,0)&lt;OFFSET(T1,15,0),
-OFFSET(T1,15,0)&lt;OFFSET(T1,16,0),OFFSET(T1,16,0)&lt;OFFSET(T1,17,0),
-OFFSET(T1,17,0)&lt;OFFSET(T1,18,0),OFFSET(T1,18,0)&lt;OFFSET(T1,19,0),
-OFFSET(T1,19,0)&lt;OFFSET(T1,20,0),OFFSET(T1,20,0)&lt;OFFSET(T1,21,0),
-OFFSET(T1,21,0)&lt;OFFSET(T1,22,0),OFFSET(T1,22,0)&lt;OFFSET(T1,23,0),
-OFFSET(T1,23,0)&lt;OFFSET(T1,24,0),OFFSET(T1,24,0)&lt;OFFSET(T1,25,0),
-OFFSET(T1,25,0)&lt;OFFSET(T1,26,0),OFFSET(T1,26,0)&lt;OFFSET(T1,27,0),
-OFFSET(T1,27,0)&lt;OFFSET(T1,28,0),OFFSET(T1,28,0)&lt;OFFSET(T1,29,0),
-OFFSET(T1,29,0)&lt;OFFSET(T1,30,0),OFFSET(T1,30,0)&lt;OFFSET(T1,31,0),
-OFFSET(T1,31,0)&lt;OFFSET(T1,32,0),OFFSET(T1,32,0)&lt;OFFSET(T1,33,0),
-OFFSET(T1,33,0)&lt;OFFSET(T1,34,0),OFFSET(T1,34,0)&lt;OFFSET(T1,35,0),
-OFFSET(T1,35,0)&lt;OFFSET(T1,36,0),OFFSET(T1,36,0)&lt;OFFSET(T1,37,0),
-OFFSET(T1,37,0)&lt;OFFSET(T1,38,0),OFFSET(T1,38,0)&lt;OFFSET(T1,39,0),
-OFFSET(T1,39,0)&lt;OFFSET(T1,40,0),OFFSET(T1,40,0)&lt;OFFSET(T1,41,0),
-OFFSET(T1,41,0)&lt;OFFSET(T1,42,0),OFFSET(T1,42,0)&lt;OFFSET(T1,43,0),
-OFFSET(T1,43,0)&lt;OFFSET(T1,44,0),OFFSET(T1,44,0)&lt;OFFSET(T1,45,0),
-OFFSET(T1,45,0)&lt;OFFSET(T1,46,0),OFFSET(T1,46,0)&lt;OFFSET(T1,47,0),
-OFFSET(T1,47,0)&lt;OFFSET(T1,48,0),OFFSET(T1,48,0)&lt;OFFSET(T1,49,0),
-OFFSET(T1,49,0)&lt;OFFSET(T1,50,0)),"내림차순 정렬할 것","len")</f>
+      <c r="R1" t="str">
+        <f ca="1">IF(OR(OFFSET(R1,1,0)&lt;OFFSET(R1,2,0),OFFSET(R1,2,0)&lt;OFFSET(R1,3,0),
+OFFSET(R1,3,0)&lt;OFFSET(R1,4,0),OFFSET(R1,4,0)&lt;OFFSET(R1,5,0),
+OFFSET(R1,5,0)&lt;OFFSET(R1,6,0),OFFSET(R1,6,0)&lt;OFFSET(R1,7,0),
+OFFSET(R1,7,0)&lt;OFFSET(R1,8,0),OFFSET(R1,8,0)&lt;OFFSET(R1,9,0),
+OFFSET(R1,9,0)&lt;OFFSET(R1,10,0),OFFSET(R1,10,0)&lt;OFFSET(R1,11,0),
+OFFSET(R1,11,0)&lt;OFFSET(R1,12,0),OFFSET(R1,12,0)&lt;OFFSET(R1,13,0),
+OFFSET(R1,13,0)&lt;OFFSET(R1,14,0),OFFSET(R1,14,0)&lt;OFFSET(R1,15,0),
+OFFSET(R1,15,0)&lt;OFFSET(R1,16,0),OFFSET(R1,16,0)&lt;OFFSET(R1,17,0),
+OFFSET(R1,17,0)&lt;OFFSET(R1,18,0),OFFSET(R1,18,0)&lt;OFFSET(R1,19,0),
+OFFSET(R1,19,0)&lt;OFFSET(R1,20,0),OFFSET(R1,20,0)&lt;OFFSET(R1,21,0),
+OFFSET(R1,21,0)&lt;OFFSET(R1,22,0),OFFSET(R1,22,0)&lt;OFFSET(R1,23,0),
+OFFSET(R1,23,0)&lt;OFFSET(R1,24,0),OFFSET(R1,24,0)&lt;OFFSET(R1,25,0),
+OFFSET(R1,25,0)&lt;OFFSET(R1,26,0),OFFSET(R1,26,0)&lt;OFFSET(R1,27,0),
+OFFSET(R1,27,0)&lt;OFFSET(R1,28,0),OFFSET(R1,28,0)&lt;OFFSET(R1,29,0),
+OFFSET(R1,29,0)&lt;OFFSET(R1,30,0),OFFSET(R1,30,0)&lt;OFFSET(R1,31,0),
+OFFSET(R1,31,0)&lt;OFFSET(R1,32,0),OFFSET(R1,32,0)&lt;OFFSET(R1,33,0),
+OFFSET(R1,33,0)&lt;OFFSET(R1,34,0),OFFSET(R1,34,0)&lt;OFFSET(R1,35,0),
+OFFSET(R1,35,0)&lt;OFFSET(R1,36,0),OFFSET(R1,36,0)&lt;OFFSET(R1,37,0),
+OFFSET(R1,37,0)&lt;OFFSET(R1,38,0),OFFSET(R1,38,0)&lt;OFFSET(R1,39,0),
+OFFSET(R1,39,0)&lt;OFFSET(R1,40,0),OFFSET(R1,40,0)&lt;OFFSET(R1,41,0),
+OFFSET(R1,41,0)&lt;OFFSET(R1,42,0),OFFSET(R1,42,0)&lt;OFFSET(R1,43,0),
+OFFSET(R1,43,0)&lt;OFFSET(R1,44,0),OFFSET(R1,44,0)&lt;OFFSET(R1,45,0),
+OFFSET(R1,45,0)&lt;OFFSET(R1,46,0),OFFSET(R1,46,0)&lt;OFFSET(R1,47,0),
+OFFSET(R1,47,0)&lt;OFFSET(R1,48,0),OFFSET(R1,48,0)&lt;OFFSET(R1,49,0),
+OFFSET(R1,49,0)&lt;OFFSET(R1,50,0)),"내림차순 정렬할 것","len")</f>
         <v>len</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>86</v>
       </c>
@@ -3128,7 +3108,7 @@
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="str">
-        <f t="shared" ref="D2:F14" ca="1" si="0">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
@@ -3161,7 +3141,36 @@
         <v/>
       </c>
       <c r="F2" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(E2,
+OFFSET($A$1,1,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,3,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,5,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,7,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,9,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,11,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,13,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,15,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,17,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,19,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,21,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,23,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,25,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,27,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,29,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,31,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,33,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,35,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,37,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,39,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,41,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,43,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,45,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,47,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,49,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(E$1&amp;"_List",$1:$1,0)))</f>
         <v/>
       </c>
       <c r="G2" t="s">
@@ -3175,32 +3184,28 @@
         <v/>
       </c>
       <c r="L2" t="str">
-        <f>IF(ISBLANK(K2),"",IF(ISERROR(VLOOKUP(K2,CastingTable!$A:$A,1,0)),"캐스팅없음",""))</f>
-        <v/>
-      </c>
-      <c r="N2" t="str">
-        <f>IF(ISBLANK(M2),"",IF(ISERROR(VLOOKUP(M2,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
-        <v/>
+        <f>IF(ISBLANK(K2),"",IF(ISERROR(VLOOKUP(K2,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
+        <v/>
+      </c>
+      <c r="N2" t="s">
+        <v>0</v>
       </c>
       <c r="P2" t="s">
-        <v>0</v>
-      </c>
-      <c r="R2" t="s">
         <v>10</v>
       </c>
-      <c r="S2">
+      <c r="Q2">
         <v>4</v>
       </c>
-      <c r="T2">
-        <f>LEN(R2)</f>
+      <c r="R2">
+        <f>LEN(P2)</f>
         <v>8</v>
       </c>
-      <c r="V2" t="str">
+      <c r="T2" t="str">
         <f ca="1">IFERROR(HLOOKUP("내림차순 정렬할 것",$1:$1,1,0),"")</f>
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>86</v>
       </c>
@@ -3209,14 +3214,72 @@
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C3,
+OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
         <v/>
       </c>
       <c r="E3" t="s">
         <v>98</v>
       </c>
       <c r="F3" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(E3,
+OFFSET($A$1,1,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,3,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,5,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,7,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,9,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,11,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,13,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,15,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,17,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,19,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,21,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,23,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,25,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,27,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,29,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,31,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,33,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,35,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,37,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,39,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,41,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,43,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,45,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,47,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,49,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(E$1&amp;"_List",$1:$1,0)))</f>
         <v>4</v>
       </c>
       <c r="G3" t="s">
@@ -3230,28 +3293,24 @@
         <v/>
       </c>
       <c r="L3" t="str">
-        <f>IF(ISBLANK(K3),"",IF(ISERROR(VLOOKUP(K3,CastingTable!$A:$A,1,0)),"캐스팅없음",""))</f>
-        <v/>
-      </c>
-      <c r="N3" t="str">
-        <f>IF(ISBLANK(M3),"",IF(ISERROR(VLOOKUP(M3,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
-        <v/>
+        <f>IF(ISBLANK(K3),"",IF(ISERROR(VLOOKUP(K3,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
+        <v/>
+      </c>
+      <c r="N3" t="s">
+        <v>2</v>
       </c>
       <c r="P3" t="s">
-        <v>2</v>
-      </c>
-      <c r="R3" t="s">
         <v>11</v>
       </c>
-      <c r="S3">
+      <c r="Q3">
         <v>3</v>
       </c>
-      <c r="T3">
-        <f>LEN(R3)</f>
+      <c r="R3">
+        <f>LEN(P3)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>86</v>
       </c>
@@ -3260,11 +3319,69 @@
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C4,
+OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
         <v/>
       </c>
       <c r="F4" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(E4,
+OFFSET($A$1,1,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,3,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,5,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,7,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,9,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,11,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,13,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,15,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,17,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,19,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,21,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,23,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,25,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,27,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,29,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,31,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,33,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,35,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,37,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,39,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,41,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,43,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,45,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,47,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,49,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(E$1&amp;"_List",$1:$1,0)))</f>
         <v/>
       </c>
       <c r="G4" t="s">
@@ -3278,44 +3395,98 @@
         <v/>
       </c>
       <c r="L4" t="str">
-        <f>IF(ISBLANK(K4),"",IF(ISERROR(VLOOKUP(K4,CastingTable!$A:$A,1,0)),"캐스팅없음",""))</f>
-        <v/>
-      </c>
-      <c r="N4" t="str">
-        <f>IF(ISBLANK(M4),"",IF(ISERROR(VLOOKUP(M4,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
-        <v/>
+        <f>IF(ISBLANK(K4),"",IF(ISERROR(VLOOKUP(K4,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
+        <v/>
+      </c>
+      <c r="N4" t="s">
+        <v>11</v>
       </c>
       <c r="P4" t="s">
-        <v>11</v>
-      </c>
-      <c r="R4" t="s">
         <v>0</v>
       </c>
-      <c r="S4">
+      <c r="Q4">
         <v>1</v>
       </c>
-      <c r="T4">
-        <f>LEN(R4)</f>
+      <c r="R4">
+        <f>LEN(P4)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>86</v>
       </c>
       <c r="B5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C5,
+OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
         <v/>
       </c>
       <c r="E5" t="s">
         <v>33</v>
       </c>
       <c r="F5" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(E5,
+OFFSET($A$1,1,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,3,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,5,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,7,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,9,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,11,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,13,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,15,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,17,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,19,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,21,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,23,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,25,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,27,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,29,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,31,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,33,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,35,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,37,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,39,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,41,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,43,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,45,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,47,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,49,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(E$1&amp;"_List",$1:$1,0)))</f>
         <v>3, 4</v>
       </c>
       <c r="G5" t="s">
@@ -3332,69 +3503,116 @@
         <v/>
       </c>
       <c r="L5" t="str">
-        <f>IF(ISBLANK(K5),"",IF(ISERROR(VLOOKUP(K5,CastingTable!$A:$A,1,0)),"캐스팅없음",""))</f>
-        <v/>
-      </c>
-      <c r="N5" t="str">
-        <f>IF(ISBLANK(M5),"",IF(ISERROR(VLOOKUP(M5,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
-        <v/>
+        <f>IF(ISBLANK(K5),"",IF(ISERROR(VLOOKUP(K5,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
+        <v/>
+      </c>
+      <c r="N5" t="s">
+        <v>10</v>
       </c>
       <c r="P5" t="s">
-        <v>10</v>
-      </c>
-      <c r="R5" t="s">
         <v>2</v>
       </c>
-      <c r="S5">
+      <c r="Q5">
         <v>2</v>
       </c>
-      <c r="T5">
-        <f>LEN(R5)</f>
+      <c r="R5">
+        <f>LEN(P5)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>86</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C6,
+OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
         <v/>
       </c>
       <c r="E6" t="s">
         <v>33</v>
       </c>
       <c r="F6" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(E6,
+OFFSET($A$1,1,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,3,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,5,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,7,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,9,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,11,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,13,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,15,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,17,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,19,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,21,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,23,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,25,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,27,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,29,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,31,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,33,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,35,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,37,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,39,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,41,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,43,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,45,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,47,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,49,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(E$1&amp;"_List",$1:$1,0)))</f>
         <v>3, 4</v>
       </c>
       <c r="G6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H6">
         <v>0.05</v>
       </c>
       <c r="I6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J6" t="str">
         <f>IF(ISBLANK(I6),"",IF(ISERROR(VLOOKUP(I6,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
         <v/>
       </c>
-      <c r="K6" t="s">
-        <v>134</v>
-      </c>
       <c r="L6" t="str">
-        <f>IF(ISBLANK(K6),"",IF(ISERROR(VLOOKUP(K6,CastingTable!$A:$A,1,0)),"캐스팅없음",""))</f>
-        <v/>
-      </c>
-      <c r="N6" t="str">
-        <f>IF(ISBLANK(M6),"",IF(ISERROR(VLOOKUP(M6,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
+        <f>IF(ISBLANK(K6),"",IF(ISERROR(VLOOKUP(K6,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>87</v>
       </c>
@@ -3403,11 +3621,69 @@
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C7,
+OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
         <v/>
       </c>
       <c r="F7" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(E7,
+OFFSET($A$1,1,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,3,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,5,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,7,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,9,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,11,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,13,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,15,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,17,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,19,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,21,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,23,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,25,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,27,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,29,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,31,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,33,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,35,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,37,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,39,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,41,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,43,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,45,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,47,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,49,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(E$1&amp;"_List",$1:$1,0)))</f>
         <v/>
       </c>
       <c r="G7" t="s">
@@ -3421,15 +3697,11 @@
         <v/>
       </c>
       <c r="L7" t="str">
-        <f>IF(ISBLANK(K7),"",IF(ISERROR(VLOOKUP(K7,CastingTable!$A:$A,1,0)),"캐스팅없음",""))</f>
-        <v/>
-      </c>
-      <c r="N7" t="str">
-        <f>IF(ISBLANK(M7),"",IF(ISERROR(VLOOKUP(M7,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
+        <f>IF(ISBLANK(K7),"",IF(ISERROR(VLOOKUP(K7,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>87</v>
       </c>
@@ -3438,14 +3710,72 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C8,
+OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
         <v/>
       </c>
       <c r="E8" t="s">
         <v>98</v>
       </c>
       <c r="F8" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(E8,
+OFFSET($A$1,1,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,3,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,5,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,7,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,9,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,11,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,13,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,15,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,17,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,19,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,21,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,23,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,25,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,27,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,29,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,31,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,33,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,35,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,37,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,39,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,41,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,43,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,45,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,47,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,49,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(E$1&amp;"_List",$1:$1,0)))</f>
         <v>4</v>
       </c>
       <c r="G8" t="s">
@@ -3459,15 +3789,11 @@
         <v/>
       </c>
       <c r="L8" t="str">
-        <f>IF(ISBLANK(K8),"",IF(ISERROR(VLOOKUP(K8,CastingTable!$A:$A,1,0)),"캐스팅없음",""))</f>
-        <v/>
-      </c>
-      <c r="N8" t="str">
-        <f>IF(ISBLANK(M8),"",IF(ISERROR(VLOOKUP(M8,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
+        <f>IF(ISBLANK(K8),"",IF(ISERROR(VLOOKUP(K8,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>87</v>
       </c>
@@ -3476,11 +3802,69 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C9,
+OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
         <v/>
       </c>
       <c r="F9" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(E9,
+OFFSET($A$1,1,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,3,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,5,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,7,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,9,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,11,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,13,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,15,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,17,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,19,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,21,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,23,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,25,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,27,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,29,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,31,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,33,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,35,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,37,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,39,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,41,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,43,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,45,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,47,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,49,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(E$1&amp;"_List",$1:$1,0)))</f>
         <v/>
       </c>
       <c r="G9" t="s">
@@ -3494,31 +3878,85 @@
         <v/>
       </c>
       <c r="L9" t="str">
-        <f>IF(ISBLANK(K9),"",IF(ISERROR(VLOOKUP(K9,CastingTable!$A:$A,1,0)),"캐스팅없음",""))</f>
-        <v/>
-      </c>
-      <c r="N9" t="str">
-        <f>IF(ISBLANK(M9),"",IF(ISERROR(VLOOKUP(M9,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
+        <f>IF(ISBLANK(K9),"",IF(ISERROR(VLOOKUP(K9,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>87</v>
       </c>
       <c r="B10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C10,
+OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
         <v/>
       </c>
       <c r="E10" t="s">
         <v>33</v>
       </c>
       <c r="F10" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(E10,
+OFFSET($A$1,1,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,3,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,5,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,7,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,9,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,11,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,13,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,15,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,17,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,19,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,21,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,23,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,25,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,27,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,29,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,31,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,33,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,35,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,37,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,39,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,41,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,43,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,45,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,47,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,49,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(E$1&amp;"_List",$1:$1,0)))</f>
         <v>3, 4</v>
       </c>
       <c r="G10" t="s">
@@ -3535,56 +3973,106 @@
         <v/>
       </c>
       <c r="L10" t="str">
-        <f>IF(ISBLANK(K10),"",IF(ISERROR(VLOOKUP(K10,CastingTable!$A:$A,1,0)),"캐스팅없음",""))</f>
-        <v/>
-      </c>
-      <c r="N10" t="str">
-        <f>IF(ISBLANK(M10),"",IF(ISERROR(VLOOKUP(M10,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
+        <f>IF(ISBLANK(K10),"",IF(ISERROR(VLOOKUP(K10,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>87</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C11,
+OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
         <v/>
       </c>
       <c r="E11" t="s">
         <v>33</v>
       </c>
       <c r="F11" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(E11,
+OFFSET($A$1,1,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,3,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,5,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,7,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,9,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,11,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,13,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,15,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,17,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,19,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,21,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,23,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,25,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,27,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,29,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,31,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,33,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,35,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,37,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,39,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,41,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,43,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,45,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,47,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,49,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(E$1&amp;"_List",$1:$1,0)))</f>
         <v>3, 4</v>
       </c>
       <c r="G11" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H11">
         <v>0.05</v>
       </c>
       <c r="I11" t="s">
-        <v>57</v>
+        <v>131</v>
       </c>
       <c r="J11" t="str">
         <f>IF(ISBLANK(I11),"",IF(ISERROR(VLOOKUP(I11,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
         <v/>
       </c>
+      <c r="K11" t="s">
+        <v>8</v>
+      </c>
       <c r="L11" t="str">
-        <f>IF(ISBLANK(K11),"",IF(ISERROR(VLOOKUP(K11,CastingTable!$A:$A,1,0)),"캐스팅없음",""))</f>
-        <v/>
-      </c>
-      <c r="M11" t="s">
-        <v>8</v>
-      </c>
-      <c r="N11" t="str">
-        <f>IF(ISBLANK(M11),"",IF(ISERROR(VLOOKUP(M11,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
+        <f>IF(ISBLANK(K11),"",IF(ISERROR(VLOOKUP(K11,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>88</v>
       </c>
@@ -3593,11 +4081,69 @@
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C12,
+OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
         <v/>
       </c>
       <c r="F12" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(E12,
+OFFSET($A$1,1,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,3,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,5,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,7,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,9,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,11,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,13,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,15,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,17,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,19,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,21,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,23,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,25,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,27,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,29,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,31,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,33,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,35,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,37,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,39,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,41,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,43,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,45,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,47,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,49,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(E$1&amp;"_List",$1:$1,0)))</f>
         <v/>
       </c>
       <c r="G12" t="s">
@@ -3611,15 +4157,11 @@
         <v/>
       </c>
       <c r="L12" t="str">
-        <f>IF(ISBLANK(K12),"",IF(ISERROR(VLOOKUP(K12,CastingTable!$A:$A,1,0)),"캐스팅없음",""))</f>
-        <v/>
-      </c>
-      <c r="N12" t="str">
-        <f>IF(ISBLANK(M12),"",IF(ISERROR(VLOOKUP(M12,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
+        <f>IF(ISBLANK(K12),"",IF(ISERROR(VLOOKUP(K12,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>88</v>
       </c>
@@ -3628,14 +4170,72 @@
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C13,
+OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
         <v/>
       </c>
       <c r="E13" t="s">
         <v>33</v>
       </c>
       <c r="F13" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(E13,
+OFFSET($A$1,1,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,3,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,5,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,7,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,9,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,11,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,13,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,15,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,17,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,19,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,21,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,23,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,25,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,27,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,29,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,31,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,33,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,35,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,37,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,39,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,41,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,43,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,45,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,47,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,49,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(E$1&amp;"_List",$1:$1,0)))</f>
         <v>3, 4</v>
       </c>
       <c r="G13" t="s">
@@ -3649,15 +4249,11 @@
         <v/>
       </c>
       <c r="L13" t="str">
-        <f>IF(ISBLANK(K13),"",IF(ISERROR(VLOOKUP(K13,CastingTable!$A:$A,1,0)),"캐스팅없음",""))</f>
-        <v/>
-      </c>
-      <c r="N13" t="str">
-        <f>IF(ISBLANK(M13),"",IF(ISERROR(VLOOKUP(M13,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
+        <f>IF(ISBLANK(K13),"",IF(ISERROR(VLOOKUP(K13,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>88</v>
       </c>
@@ -3666,11 +4262,69 @@
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C14,
+OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
         <v/>
       </c>
       <c r="F14" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(E14,
+OFFSET($A$1,1,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,3,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,5,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,7,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,9,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,11,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,13,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,15,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,17,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,19,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,21,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,23,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,25,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,27,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,29,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,31,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,33,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,35,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,37,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,39,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,41,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,43,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,45,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,47,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,49,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(E$1&amp;"_List",$1:$1,0)))</f>
         <v/>
       </c>
       <c r="G14" t="s">
@@ -3684,24 +4338,20 @@
         <v/>
       </c>
       <c r="L14" t="str">
-        <f>IF(ISBLANK(K14),"",IF(ISERROR(VLOOKUP(K14,CastingTable!$A:$A,1,0)),"캐스팅없음",""))</f>
-        <v/>
-      </c>
-      <c r="N14" t="str">
-        <f>IF(ISBLANK(M14),"",IF(ISERROR(VLOOKUP(M14,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
+        <f>IF(ISBLANK(K14),"",IF(ISERROR(VLOOKUP(K14,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>88</v>
       </c>
       <c r="B15" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="str">
-        <f t="shared" ref="D15:D18" ca="1" si="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
@@ -3737,7 +4387,7 @@
         <v>33</v>
       </c>
       <c r="F15" s="2" t="str">
-        <f t="shared" ref="F15:F18" ca="1" si="2">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
@@ -3780,28 +4430,82 @@
         <v/>
       </c>
       <c r="L15" t="str">
-        <f>IF(ISBLANK(K15),"",IF(ISERROR(VLOOKUP(K15,CastingTable!$A:$A,1,0)),"캐스팅없음",""))</f>
-        <v/>
-      </c>
-      <c r="N15" t="str">
-        <f>IF(ISBLANK(M15),"",IF(ISERROR(VLOOKUP(M15,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
+        <f>IF(ISBLANK(K15),"",IF(ISERROR(VLOOKUP(K15,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B16" t="s">
         <v>89</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C16,
+OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
         <v/>
       </c>
       <c r="F16" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(E16,
+OFFSET($A$1,1,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,3,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,5,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,7,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,9,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,11,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,13,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,15,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,17,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,19,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,21,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,23,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,25,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,27,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,29,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,31,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,33,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,35,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,37,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,39,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,41,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,43,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,45,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,47,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,49,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(E$1&amp;"_List",$1:$1,0)))</f>
         <v/>
       </c>
       <c r="G16" t="s">
@@ -3815,31 +4519,85 @@
         <v/>
       </c>
       <c r="L16" t="str">
-        <f>IF(ISBLANK(K16),"",IF(ISERROR(VLOOKUP(K16,CastingTable!$A:$A,1,0)),"캐스팅없음",""))</f>
-        <v/>
-      </c>
-      <c r="N16" t="str">
-        <f>IF(ISBLANK(M16),"",IF(ISERROR(VLOOKUP(M16,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
+        <f>IF(ISBLANK(K16),"",IF(ISERROR(VLOOKUP(K16,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B17" t="s">
         <v>90</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C17,
+OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
         <v/>
       </c>
       <c r="E17" t="s">
         <v>33</v>
       </c>
       <c r="F17" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(E17,
+OFFSET($A$1,1,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,3,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,5,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,7,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,9,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,11,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,13,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,15,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,17,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,19,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,21,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,23,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,25,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,27,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,29,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,31,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,33,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,35,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,37,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,39,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,41,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,43,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,45,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,47,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,49,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(E$1&amp;"_List",$1:$1,0)))</f>
         <v>3, 4</v>
       </c>
       <c r="G17" t="s">
@@ -3853,28 +4611,82 @@
         <v/>
       </c>
       <c r="L17" t="str">
-        <f>IF(ISBLANK(K17),"",IF(ISERROR(VLOOKUP(K17,CastingTable!$A:$A,1,0)),"캐스팅없음",""))</f>
-        <v/>
-      </c>
-      <c r="N17" t="str">
-        <f>IF(ISBLANK(M17),"",IF(ISERROR(VLOOKUP(M17,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
+        <f>IF(ISBLANK(K17),"",IF(ISERROR(VLOOKUP(K17,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B18" t="s">
         <v>91</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C18,
+OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
         <v/>
       </c>
       <c r="F18" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(E18,
+OFFSET($A$1,1,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,3,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,5,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,7,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,9,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,11,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,13,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,15,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,17,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,19,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,21,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,23,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,25,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,27,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,29,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,31,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,33,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,35,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,37,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,39,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,41,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,43,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,45,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,47,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,49,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(E$1&amp;"_List",$1:$1,0)))</f>
         <v/>
       </c>
       <c r="G18" t="s">
@@ -3888,24 +4700,20 @@
         <v/>
       </c>
       <c r="L18" t="str">
-        <f>IF(ISBLANK(K18),"",IF(ISERROR(VLOOKUP(K18,CastingTable!$A:$A,1,0)),"캐스팅없음",""))</f>
-        <v/>
-      </c>
-      <c r="N18" t="str">
-        <f>IF(ISBLANK(M18),"",IF(ISERROR(VLOOKUP(M18,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
+        <f>IF(ISBLANK(K18),"",IF(ISERROR(VLOOKUP(K18,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B19" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="str">
-        <f t="shared" ref="D19:D22" ca="1" si="3">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
@@ -3941,7 +4749,7 @@
         <v>33</v>
       </c>
       <c r="F19" s="2" t="str">
-        <f t="shared" ref="F19:F22" ca="1" si="4">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
@@ -3984,28 +4792,82 @@
         <v/>
       </c>
       <c r="L19" t="str">
-        <f>IF(ISBLANK(K19),"",IF(ISERROR(VLOOKUP(K19,CastingTable!$A:$A,1,0)),"캐스팅없음",""))</f>
-        <v/>
-      </c>
-      <c r="N19" t="str">
-        <f>IF(ISBLANK(M19),"",IF(ISERROR(VLOOKUP(M19,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
+        <f>IF(ISBLANK(K19),"",IF(ISERROR(VLOOKUP(K19,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B20" t="s">
         <v>89</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C20,
+OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
         <v/>
       </c>
       <c r="F20" s="2" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(E20,
+OFFSET($A$1,1,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,3,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,5,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,7,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,9,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,11,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,13,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,15,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,17,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,19,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,21,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,23,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,25,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,27,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,29,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,31,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,33,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,35,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,37,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,39,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,41,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,43,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,45,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,47,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,49,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(E$1&amp;"_List",$1:$1,0)))</f>
         <v/>
       </c>
       <c r="G20" t="s">
@@ -4019,31 +4881,85 @@
         <v/>
       </c>
       <c r="L20" t="str">
-        <f>IF(ISBLANK(K20),"",IF(ISERROR(VLOOKUP(K20,CastingTable!$A:$A,1,0)),"캐스팅없음",""))</f>
-        <v/>
-      </c>
-      <c r="N20" t="str">
-        <f>IF(ISBLANK(M20),"",IF(ISERROR(VLOOKUP(M20,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
+        <f>IF(ISBLANK(K20),"",IF(ISERROR(VLOOKUP(K20,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B21" t="s">
         <v>90</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C21,
+OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
         <v/>
       </c>
       <c r="E21" t="s">
         <v>33</v>
       </c>
       <c r="F21" s="2" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(E21,
+OFFSET($A$1,1,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,3,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,5,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,7,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,9,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,11,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,13,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,15,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,17,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,19,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,21,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,23,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,25,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,27,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,29,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,31,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,33,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,35,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,37,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,39,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,41,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,43,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,45,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,47,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,49,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(E$1&amp;"_List",$1:$1,0)))</f>
         <v>3, 4</v>
       </c>
       <c r="G21" t="s">
@@ -4057,28 +4973,82 @@
         <v/>
       </c>
       <c r="L21" t="str">
-        <f>IF(ISBLANK(K21),"",IF(ISERROR(VLOOKUP(K21,CastingTable!$A:$A,1,0)),"캐스팅없음",""))</f>
-        <v/>
-      </c>
-      <c r="N21" t="str">
-        <f>IF(ISBLANK(M21),"",IF(ISERROR(VLOOKUP(M21,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
+        <f>IF(ISBLANK(K21),"",IF(ISERROR(VLOOKUP(K21,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" t="s">
         <v>91</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C22,
+OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
         <v/>
       </c>
       <c r="F22" s="2" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(E22,
+OFFSET($A$1,1,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,3,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,5,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,7,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,9,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,11,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,13,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,15,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,17,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,19,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,21,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,23,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,25,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,27,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,29,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,31,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,33,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,35,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,37,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,39,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,41,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,43,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,45,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,47,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,49,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(E$1&amp;"_List",$1:$1,0)))</f>
         <v/>
       </c>
       <c r="G22" t="s">
@@ -4092,24 +5062,20 @@
         <v/>
       </c>
       <c r="L22" t="str">
-        <f>IF(ISBLANK(K22),"",IF(ISERROR(VLOOKUP(K22,CastingTable!$A:$A,1,0)),"캐스팅없음",""))</f>
-        <v/>
-      </c>
-      <c r="N22" t="str">
-        <f>IF(ISBLANK(M22),"",IF(ISERROR(VLOOKUP(M22,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
+        <f>IF(ISBLANK(K22),"",IF(ISERROR(VLOOKUP(K22,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B23" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="str">
-        <f t="shared" ref="D23" ca="1" si="5">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
@@ -4145,7 +5111,7 @@
         <v>33</v>
       </c>
       <c r="F23" s="2" t="str">
-        <f t="shared" ref="F23" ca="1" si="6">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
@@ -4188,18 +5154,14 @@
         <v/>
       </c>
       <c r="L23" t="str">
-        <f>IF(ISBLANK(K23),"",IF(ISERROR(VLOOKUP(K23,CastingTable!$A:$A,1,0)),"캐스팅없음",""))</f>
-        <v/>
-      </c>
-      <c r="N23" t="str">
-        <f>IF(ISBLANK(M23),"",IF(ISERROR(VLOOKUP(M23,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
+        <f>IF(ISBLANK(K23),"",IF(ISERROR(VLOOKUP(K23,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
         <v/>
       </c>
     </row>
   </sheetData>
-  <sortState ref="R2:T5">
-    <sortCondition descending="1" ref="T2:T5"/>
-    <sortCondition ref="S2:S5"/>
+  <sortState ref="P2:R5">
+    <sortCondition descending="1" ref="R2:R5"/>
+    <sortCondition ref="Q2:Q5"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -4211,18 +5173,12 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BBEE6704-C898-430D-9E20-E95D3C6D1C53}">
-          <x14:formula1>
-            <xm:f>OFFSET(CastingTable!$A$1,1,0,COUNTA(CastingTable!$A:$A)-1,1)</xm:f>
-          </x14:formula1>
-          <xm:sqref>K2:K23</xm:sqref>
-        </x14:dataValidation>
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6148342E-FC8D-4AB3-B559-9AFD35EC1A83}">
           <x14:formula1>
             <xm:f>OFFSET(SkillTable!$A$1,1,0,COUNTA(SkillTable!$A:$A)-1,1)</xm:f>
           </x14:formula1>
-          <xm:sqref>M2:M23</xm:sqref>
+          <xm:sqref>K2:K23</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E98A69ED-ACB1-4726-AFB2-FA695D9C95A0}">
           <x14:formula1>
@@ -4261,7 +5217,7 @@
     <col min="16" max="16" width="6" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="17" max="17" width="4.125" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="18" max="18" width="9" collapsed="1"/>
-    <col min="19" max="19" width="0" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="19" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="20" max="20" width="9" collapsed="1"/>
   </cols>
   <sheetData>
@@ -4397,7 +5353,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E2" s="2" t="str">
         <f t="shared" ref="E2:E6" ca="1" si="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
@@ -4468,7 +5424,7 @@
         <v>57</v>
       </c>
       <c r="B3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C3" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -4482,7 +5438,7 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I3" t="s">
         <v>12</v>
@@ -4513,7 +5469,7 @@
         <v>55</v>
       </c>
       <c r="B4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C4" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -4530,7 +5486,7 @@
         <v>14</v>
       </c>
       <c r="I4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J4">
         <v>2</v>
@@ -4600,7 +5556,7 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
@@ -4610,11 +5566,11 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="E6" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M6" t="s">
         <v>19</v>
@@ -4652,7 +5608,7 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B6 D2:D5" xr:uid="{809BE1C9-E5C4-442E-8B69-082FB6A8DFCA}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B6 D2:D6" xr:uid="{809BE1C9-E5C4-442E-8B69-082FB6A8DFCA}">
       <formula1>OFFSET(INDIRECT("$A$1"),1,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1,COUNTA(OFFSET(INDIRECT("$A:$A"),0,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1))-1,1)</formula1>
     </dataValidation>
   </dataValidations>
@@ -4666,7 +5622,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5020,22 +5976,22 @@
         <v>79</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>80</v>
@@ -5047,10 +6003,10 @@
         <v>94</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
@@ -5087,10 +6043,10 @@
         <v/>
       </c>
       <c r="H2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="J2" s="1" t="str">
         <f>IFERROR(IF(ISBLANK(H2),"",VLOOKUP(H2,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0)),"스트링없음")</f>
@@ -5511,88 +6467,88 @@
         <v>84</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="T1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.3">
@@ -5643,7 +6599,7 @@
         <v>97</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="M2" s="1">
         <f>IFERROR(IF(ISBLANK($L2),"",VLOOKUP($L2&amp;TEXT($B2,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(M$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
@@ -5741,7 +6697,7 @@
         <v>97</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="M3" s="1">
         <f>IFERROR(IF(ISBLANK($L3),"",VLOOKUP($L3&amp;TEXT($B3,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(M$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>

--- a/Excel/작업Action.xlsx
+++ b/Excel/작업Action.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A13C69DA-C2AE-4C6C-9DB2-59CAF5A63E52}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7191181B-BFA3-46D9-9C66-115DBA300B84}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1788,7 +1788,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="133">
   <si>
     <t>Idle</t>
   </si>
@@ -2254,6 +2254,10 @@
   </si>
   <si>
     <t>Control401</t>
+  </si>
+  <si>
+    <t>Ultimate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2997,7 +3001,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -3108,7 +3112,7 @@
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="str">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+        <f t="shared" ref="D2:D23" ca="1" si="0">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
@@ -3141,7 +3145,7 @@
         <v/>
       </c>
       <c r="F2" s="2" t="str">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+        <f t="shared" ref="F2:F23" ca="1" si="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
@@ -3214,72 +3218,14 @@
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="str">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C3,
-OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="E3" t="s">
         <v>98</v>
       </c>
       <c r="F3" s="2" t="str">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(E3,
-OFFSET($A$1,1,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,3,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,5,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,7,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,9,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,11,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,13,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,15,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,17,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,19,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,21,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,23,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,25,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,27,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,29,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,31,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,33,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,35,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,37,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,39,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,41,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,43,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,45,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,47,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,49,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(E$1&amp;"_List",$1:$1,0)))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>4</v>
       </c>
       <c r="G3" t="s">
@@ -3319,69 +3265,11 @@
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="str">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C4,
-OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="F4" s="2" t="str">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(E4,
-OFFSET($A$1,1,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,3,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,5,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,7,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,9,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,11,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,13,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,15,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,17,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,19,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,21,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,23,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,25,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,27,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,29,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,31,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,33,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,35,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,37,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,39,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,41,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,43,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,45,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,47,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,49,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(E$1&amp;"_List",$1:$1,0)))</f>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="G4" t="s">
@@ -3421,72 +3309,14 @@
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="str">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C5,
-OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="E5" t="s">
         <v>33</v>
       </c>
       <c r="F5" s="2" t="str">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(E5,
-OFFSET($A$1,1,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,3,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,5,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,7,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,9,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,11,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,13,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,15,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,17,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,19,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,21,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,23,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,25,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,27,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,29,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,31,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,33,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,35,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,37,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,39,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,41,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,43,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,45,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,47,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,49,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(E$1&amp;"_List",$1:$1,0)))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>3, 4</v>
       </c>
       <c r="G5" t="s">
@@ -3524,74 +3354,19 @@
       <c r="A6" t="s">
         <v>86</v>
       </c>
+      <c r="B6" t="s">
+        <v>132</v>
+      </c>
       <c r="C6" s="2"/>
       <c r="D6" t="str">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C6,
-OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="E6" t="s">
         <v>33</v>
       </c>
       <c r="F6" s="2" t="str">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(E6,
-OFFSET($A$1,1,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,3,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,5,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,7,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,9,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,11,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,13,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,15,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,17,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,19,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,21,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,23,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,25,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,27,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,29,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,31,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,33,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,35,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,37,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,39,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,41,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,43,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,45,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,47,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,49,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(E$1&amp;"_List",$1:$1,0)))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>3, 4</v>
       </c>
       <c r="G6" t="s">
@@ -3621,69 +3396,11 @@
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="str">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C7,
-OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="F7" s="2" t="str">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(E7,
-OFFSET($A$1,1,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,3,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,5,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,7,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,9,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,11,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,13,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,15,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,17,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,19,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,21,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,23,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,25,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,27,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,29,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,31,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,33,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,35,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,37,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,39,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,41,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,43,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,45,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,47,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,49,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(E$1&amp;"_List",$1:$1,0)))</f>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="G7" t="s">
@@ -3710,72 +3427,14 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="str">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C8,
-OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="E8" t="s">
         <v>98</v>
       </c>
       <c r="F8" s="2" t="str">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(E8,
-OFFSET($A$1,1,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,3,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,5,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,7,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,9,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,11,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,13,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,15,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,17,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,19,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,21,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,23,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,25,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,27,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,29,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,31,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,33,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,35,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,37,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,39,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,41,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,43,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,45,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,47,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,49,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(E$1&amp;"_List",$1:$1,0)))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>4</v>
       </c>
       <c r="G8" t="s">
@@ -3802,69 +3461,11 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="str">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C9,
-OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="F9" s="2" t="str">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(E9,
-OFFSET($A$1,1,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,3,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,5,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,7,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,9,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,11,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,13,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,15,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,17,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,19,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,21,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,23,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,25,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,27,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,29,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,31,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,33,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,35,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,37,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,39,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,41,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,43,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,45,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,47,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,49,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(E$1&amp;"_List",$1:$1,0)))</f>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="G9" t="s">
@@ -3891,72 +3492,14 @@
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="str">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C10,
-OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="E10" t="s">
         <v>33</v>
       </c>
       <c r="F10" s="2" t="str">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(E10,
-OFFSET($A$1,1,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,3,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,5,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,7,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,9,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,11,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,13,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,15,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,17,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,19,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,21,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,23,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,25,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,27,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,29,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,31,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,33,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,35,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,37,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,39,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,41,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,43,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,45,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,47,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,49,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(E$1&amp;"_List",$1:$1,0)))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>3, 4</v>
       </c>
       <c r="G10" t="s">
@@ -3981,74 +3524,19 @@
       <c r="A11" t="s">
         <v>87</v>
       </c>
+      <c r="B11" t="s">
+        <v>132</v>
+      </c>
       <c r="C11" s="2"/>
       <c r="D11" t="str">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C11,
-OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="E11" t="s">
         <v>33</v>
       </c>
       <c r="F11" s="2" t="str">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(E11,
-OFFSET($A$1,1,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,3,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,5,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,7,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,9,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,11,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,13,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,15,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,17,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,19,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,21,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,23,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,25,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,27,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,29,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,31,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,33,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,35,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,37,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,39,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,41,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,43,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,45,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,47,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,49,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(E$1&amp;"_List",$1:$1,0)))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>3, 4</v>
       </c>
       <c r="G11" t="s">
@@ -4081,69 +3569,11 @@
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="str">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C12,
-OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="F12" s="2" t="str">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(E12,
-OFFSET($A$1,1,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,3,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,5,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,7,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,9,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,11,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,13,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,15,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,17,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,19,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,21,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,23,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,25,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,27,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,29,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,31,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,33,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,35,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,37,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,39,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,41,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,43,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,45,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,47,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,49,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(E$1&amp;"_List",$1:$1,0)))</f>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="G12" t="s">
@@ -4170,72 +3600,14 @@
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="str">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C13,
-OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="E13" t="s">
         <v>33</v>
       </c>
       <c r="F13" s="2" t="str">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(E13,
-OFFSET($A$1,1,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,3,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,5,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,7,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,9,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,11,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,13,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,15,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,17,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,19,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,21,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,23,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,25,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,27,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,29,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,31,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,33,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,35,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,37,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,39,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,41,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,43,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,45,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,47,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,49,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(E$1&amp;"_List",$1:$1,0)))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>3, 4</v>
       </c>
       <c r="G13" t="s">
@@ -4262,69 +3634,11 @@
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="str">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C14,
-OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="F14" s="2" t="str">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(E14,
-OFFSET($A$1,1,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,3,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,5,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,7,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,9,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,11,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,13,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,15,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,17,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,19,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,21,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,23,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,25,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,27,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,29,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,31,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,33,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,35,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,37,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,39,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,41,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,43,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,45,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,47,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,49,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(E$1&amp;"_List",$1:$1,0)))</f>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="G14" t="s">
@@ -4351,72 +3665,14 @@
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="str">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C15,
-OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="E15" t="s">
         <v>33</v>
       </c>
       <c r="F15" s="2" t="str">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(E15,
-OFFSET($A$1,1,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,3,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,5,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,7,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,9,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,11,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,13,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,15,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,17,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,19,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,21,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,23,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,25,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,27,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,29,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,31,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,33,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,35,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,37,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,39,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,41,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,43,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,45,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,47,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,49,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(E$1&amp;"_List",$1:$1,0)))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>3, 4</v>
       </c>
       <c r="G15" t="s">
@@ -4443,69 +3699,11 @@
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="str">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C16,
-OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="F16" s="2" t="str">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(E16,
-OFFSET($A$1,1,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,3,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,5,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,7,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,9,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,11,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,13,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,15,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,17,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,19,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,21,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,23,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,25,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,27,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,29,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,31,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,33,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,35,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,37,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,39,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,41,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,43,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,45,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,47,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,49,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(E$1&amp;"_List",$1:$1,0)))</f>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="G16" t="s">
@@ -4532,72 +3730,14 @@
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="str">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C17,
-OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="E17" t="s">
         <v>33</v>
       </c>
       <c r="F17" s="2" t="str">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(E17,
-OFFSET($A$1,1,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,3,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,5,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,7,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,9,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,11,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,13,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,15,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,17,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,19,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,21,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,23,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,25,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,27,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,29,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,31,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,33,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,35,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,37,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,39,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,41,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,43,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,45,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,47,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,49,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(E$1&amp;"_List",$1:$1,0)))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>3, 4</v>
       </c>
       <c r="G17" t="s">
@@ -4624,69 +3764,11 @@
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="str">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C18,
-OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="F18" s="2" t="str">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(E18,
-OFFSET($A$1,1,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,3,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,5,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,7,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,9,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,11,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,13,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,15,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,17,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,19,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,21,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,23,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,25,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,27,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,29,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,31,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,33,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,35,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,37,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,39,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,41,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,43,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,45,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,47,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,49,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(E$1&amp;"_List",$1:$1,0)))</f>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="G18" t="s">
@@ -4713,72 +3795,14 @@
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="str">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C19,
-OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="E19" t="s">
         <v>33</v>
       </c>
       <c r="F19" s="2" t="str">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(E19,
-OFFSET($A$1,1,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,3,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,5,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,7,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,9,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,11,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,13,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,15,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,17,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,19,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,21,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,23,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,25,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,27,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,29,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,31,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,33,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,35,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,37,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,39,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,41,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,43,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,45,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,47,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,49,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(E$1&amp;"_List",$1:$1,0)))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>3, 4</v>
       </c>
       <c r="G19" t="s">
@@ -4805,69 +3829,11 @@
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="str">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C20,
-OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="F20" s="2" t="str">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(E20,
-OFFSET($A$1,1,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,3,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,5,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,7,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,9,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,11,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,13,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,15,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,17,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,19,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,21,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,23,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,25,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,27,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,29,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,31,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,33,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,35,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,37,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,39,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,41,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,43,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,45,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,47,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,49,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(E$1&amp;"_List",$1:$1,0)))</f>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="G20" t="s">
@@ -4894,72 +3860,14 @@
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="str">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C21,
-OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="E21" t="s">
         <v>33</v>
       </c>
       <c r="F21" s="2" t="str">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(E21,
-OFFSET($A$1,1,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,3,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,5,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,7,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,9,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,11,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,13,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,15,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,17,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,19,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,21,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,23,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,25,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,27,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,29,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,31,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,33,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,35,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,37,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,39,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,41,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,43,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,45,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,47,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,49,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(E$1&amp;"_List",$1:$1,0)))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>3, 4</v>
       </c>
       <c r="G21" t="s">
@@ -4986,69 +3894,11 @@
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="str">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C22,
-OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="F22" s="2" t="str">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(E22,
-OFFSET($A$1,1,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,3,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,5,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,7,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,9,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,11,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,13,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,15,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,17,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,19,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,21,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,23,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,25,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,27,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,29,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,31,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,33,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,35,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,37,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,39,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,41,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,43,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,45,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,47,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,49,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(E$1&amp;"_List",$1:$1,0)))</f>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="G22" t="s">
@@ -5075,72 +3925,14 @@
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="str">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C23,
-OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="E23" t="s">
         <v>33</v>
       </c>
       <c r="F23" s="2" t="str">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(E23,
-OFFSET($A$1,1,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,3,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,5,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,7,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,9,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,11,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,13,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,15,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,17,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,19,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,21,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,23,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,25,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,27,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,29,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,31,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,33,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,35,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,37,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,39,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,41,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,43,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,45,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,47,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(E$1&amp;"_List",$1:$1,0))),
-OFFSET($A$1,49,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(E$1&amp;"_List",$1:$1,0)))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>3, 4</v>
       </c>
       <c r="G23" t="s">

--- a/Excel/작업Action.xlsx
+++ b/Excel/작업Action.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7191181B-BFA3-46D9-9C66-115DBA300B84}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{573414A3-4995-48E1-9813-D13798A1FF9B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1788,7 +1788,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="133">
   <si>
     <t>Idle</t>
   </si>
@@ -1892,10 +1892,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Attack, Attacked</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>listState_Verify</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2129,10 +2125,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Attacked</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>descriptionId|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2257,6 +2249,14 @@
   </si>
   <si>
     <t>Ultimate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ultimate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack, Ultimate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3001,7 +3001,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -3030,43 +3030,43 @@
   <sheetData>
     <row r="1" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C1" t="s">
         <v>31</v>
       </c>
       <c r="D1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E1" t="s">
         <v>31</v>
       </c>
       <c r="F1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" t="s">
         <v>49</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>50</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>51</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1" t="s">
         <v>52</v>
       </c>
-      <c r="J1" t="s">
-        <v>115</v>
-      </c>
-      <c r="K1" t="s">
-        <v>53</v>
-      </c>
       <c r="L1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="N1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
         <v>32</v>
@@ -3105,7 +3105,7 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -3211,7 +3211,7 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -3222,11 +3222,11 @@
         <v/>
       </c>
       <c r="E3" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="F3" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G3" t="s">
         <v>3</v>
@@ -3246,22 +3246,22 @@
         <v>2</v>
       </c>
       <c r="P3" t="s">
-        <v>11</v>
+        <v>131</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R3">
         <f>LEN(P3)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="str">
@@ -3273,7 +3273,7 @@
         <v/>
       </c>
       <c r="G4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H4">
         <v>0.05</v>
@@ -3290,22 +3290,22 @@
         <v>11</v>
       </c>
       <c r="P4" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R4">
         <f>LEN(P4)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="str">
@@ -3313,14 +3313,14 @@
         <v/>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>132</v>
       </c>
       <c r="F5" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>3, 4</v>
+        <v>3, 5</v>
       </c>
       <c r="G5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H5">
         <v>0.05</v>
@@ -3340,10 +3340,10 @@
         <v>10</v>
       </c>
       <c r="P5" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R5">
         <f>LEN(P5)</f>
@@ -3352,10 +3352,10 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="str">
@@ -3363,20 +3363,20 @@
         <v/>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>130</v>
       </c>
       <c r="F6" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>3, 4</v>
+        <v>5</v>
       </c>
       <c r="G6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H6">
         <v>0.05</v>
       </c>
       <c r="I6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J6" t="str">
         <f>IF(ISBLANK(I6),"",IF(ISERROR(VLOOKUP(I6,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -3385,11 +3385,24 @@
       <c r="L6" t="str">
         <f>IF(ISBLANK(K6),"",IF(ISERROR(VLOOKUP(K6,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
         <v/>
+      </c>
+      <c r="N6" t="s">
+        <v>131</v>
+      </c>
+      <c r="P6" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q6">
+        <v>2</v>
+      </c>
+      <c r="R6">
+        <f>LEN(P6)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B7" t="s">
         <v>0</v>
@@ -3420,7 +3433,7 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
@@ -3431,11 +3444,11 @@
         <v/>
       </c>
       <c r="E8" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="F8" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G8" t="s">
         <v>3</v>
@@ -3454,10 +3467,10 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="str">
@@ -3469,7 +3482,7 @@
         <v/>
       </c>
       <c r="G9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H9">
         <v>0.05</v>
@@ -3485,10 +3498,10 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="str">
@@ -3496,14 +3509,14 @@
         <v/>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>132</v>
       </c>
       <c r="F10" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>3, 4</v>
+        <v>3, 5</v>
       </c>
       <c r="G10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H10">
         <v>0.05</v>
@@ -3522,10 +3535,10 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B11" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="str">
@@ -3533,20 +3546,20 @@
         <v/>
       </c>
       <c r="E11" t="s">
-        <v>33</v>
+        <v>130</v>
       </c>
       <c r="F11" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>3, 4</v>
+        <v>5</v>
       </c>
       <c r="G11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H11">
         <v>0.05</v>
       </c>
       <c r="I11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J11" t="str">
         <f>IF(ISBLANK(I11),"",IF(ISERROR(VLOOKUP(I11,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -3562,10 +3575,10 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" t="s">
         <v>88</v>
-      </c>
-      <c r="B12" t="s">
-        <v>89</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="str">
@@ -3593,10 +3606,10 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="str">
@@ -3604,11 +3617,11 @@
         <v/>
       </c>
       <c r="E13" t="s">
-        <v>33</v>
+        <v>120</v>
       </c>
       <c r="F13" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>3, 4</v>
+        <v>3</v>
       </c>
       <c r="G13" t="s">
         <v>3</v>
@@ -3627,10 +3640,10 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="str">
@@ -3642,7 +3655,7 @@
         <v/>
       </c>
       <c r="G14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H14">
         <v>0.05</v>
@@ -3658,10 +3671,10 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B15" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="str">
@@ -3669,14 +3682,14 @@
         <v/>
       </c>
       <c r="E15" t="s">
-        <v>33</v>
+        <v>120</v>
       </c>
       <c r="F15" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>3, 4</v>
+        <v>3</v>
       </c>
       <c r="G15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H15">
         <v>0.05</v>
@@ -3692,10 +3705,10 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="str">
@@ -3723,10 +3736,10 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="str">
@@ -3734,11 +3747,11 @@
         <v/>
       </c>
       <c r="E17" t="s">
-        <v>33</v>
+        <v>120</v>
       </c>
       <c r="F17" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>3, 4</v>
+        <v>3</v>
       </c>
       <c r="G17" t="s">
         <v>3</v>
@@ -3757,10 +3770,10 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="str">
@@ -3772,7 +3785,7 @@
         <v/>
       </c>
       <c r="G18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H18">
         <v>0.05</v>
@@ -3788,10 +3801,10 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B19" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="str">
@@ -3799,14 +3812,14 @@
         <v/>
       </c>
       <c r="E19" t="s">
-        <v>33</v>
+        <v>120</v>
       </c>
       <c r="F19" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>3, 4</v>
+        <v>3</v>
       </c>
       <c r="G19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H19">
         <v>0.05</v>
@@ -3822,10 +3835,10 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="str">
@@ -3853,10 +3866,10 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="str">
@@ -3864,11 +3877,11 @@
         <v/>
       </c>
       <c r="E21" t="s">
-        <v>33</v>
+        <v>120</v>
       </c>
       <c r="F21" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>3, 4</v>
+        <v>3</v>
       </c>
       <c r="G21" t="s">
         <v>3</v>
@@ -3887,10 +3900,10 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="str">
@@ -3902,7 +3915,7 @@
         <v/>
       </c>
       <c r="G22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H22">
         <v>0.05</v>
@@ -3918,10 +3931,10 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B23" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="str">
@@ -3929,14 +3942,14 @@
         <v/>
       </c>
       <c r="E23" t="s">
-        <v>33</v>
+        <v>120</v>
       </c>
       <c r="F23" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>3, 4</v>
+        <v>3</v>
       </c>
       <c r="G23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H23">
         <v>0.05</v>
@@ -3951,9 +3964,9 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="P2:R5">
-    <sortCondition descending="1" ref="R2:R5"/>
-    <sortCondition ref="Q2:Q5"/>
+  <sortState ref="P2:R6">
+    <sortCondition descending="1" ref="R2:R6"/>
+    <sortCondition ref="Q2:Q6"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -4015,25 +4028,25 @@
   <sheetData>
     <row r="1" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" t="s">
         <v>58</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>61</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>59</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>62</v>
       </c>
-      <c r="E1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>63</v>
-      </c>
-      <c r="I1" t="s">
-        <v>64</v>
       </c>
       <c r="J1" t="s">
         <v>21</v>
@@ -4067,10 +4080,10 @@
         <v>len</v>
       </c>
       <c r="M1" t="s">
+        <v>64</v>
+      </c>
+      <c r="O1" t="s">
         <v>65</v>
-      </c>
-      <c r="O1" t="s">
-        <v>66</v>
       </c>
       <c r="P1" t="s">
         <v>21</v>
@@ -4145,7 +4158,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E2" s="2" t="str">
         <f t="shared" ref="E2:E6" ca="1" si="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
@@ -4213,10 +4226,10 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C3" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -4230,7 +4243,7 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I3" t="s">
         <v>12</v>
@@ -4258,10 +4271,10 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C4" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -4278,7 +4291,7 @@
         <v>14</v>
       </c>
       <c r="I4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J4">
         <v>2</v>
@@ -4303,7 +4316,7 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
@@ -4348,7 +4361,7 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
@@ -4435,37 +4448,37 @@
   <sheetData>
     <row r="1" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K1" t="s">
         <v>74</v>
       </c>
-      <c r="C1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H1" t="s">
-        <v>72</v>
-      </c>
-      <c r="I1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>75</v>
-      </c>
-      <c r="M1" t="s">
-        <v>76</v>
       </c>
       <c r="N1" t="s">
         <v>21</v>
@@ -4504,7 +4517,7 @@
         <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C2" s="2" t="str">
         <f t="shared" ref="C2:C5" ca="1" si="0">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
@@ -4540,7 +4553,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E2">
         <v>5</v>
@@ -4558,10 +4571,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N2">
         <v>3</v>
@@ -4577,17 +4590,17 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C3" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>6.5</v>
@@ -4605,10 +4618,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N3">
         <v>4</v>
@@ -4620,17 +4633,17 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C4" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E4">
         <v>50</v>
@@ -4648,10 +4661,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -4663,17 +4676,17 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C5" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E5">
         <v>4.5</v>
@@ -4691,10 +4704,10 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N5">
         <v>2</v>
@@ -4753,52 +4766,52 @@
   <sheetData>
     <row r="1" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="P1" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
@@ -4806,7 +4819,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C2" s="1" t="b">
         <v>0</v>
@@ -4835,10 +4848,10 @@
         <v/>
       </c>
       <c r="H2" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J2" s="1" t="str">
         <f>IFERROR(IF(ISBLANK(H2),"",VLOOKUP(H2,[2]StringTable!$1:$1048576,MATCH([2]StringTable!$B$1,[2]StringTable!$1:$1,0),0)),"스트링없음")</f>
@@ -4880,7 +4893,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C3" s="1" t="b">
         <v>0</v>
@@ -4947,7 +4960,7 @@
         <v>26</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C4" s="1" t="b">
         <v>1</v>
@@ -5009,7 +5022,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C5" s="1" t="b">
         <v>0</v>
@@ -5076,7 +5089,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C6" s="1" t="b">
         <v>0</v>
@@ -5143,7 +5156,7 @@
         <v>29</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C7" s="1" t="b">
         <v>1</v>
@@ -5247,100 +5260,100 @@
   <sheetData>
     <row r="1" spans="1:32" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="T1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.3">
@@ -5388,10 +5401,10 @@
 적이 죽지 않으면 기절을 먹인다</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M2" s="1">
         <f>IFERROR(IF(ISBLANK($L2),"",VLOOKUP($L2&amp;TEXT($B2,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(M$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
@@ -5486,10 +5499,10 @@
 적이 죽지 않으면 기절을 먹인다</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M3" s="1">
         <f>IFERROR(IF(ISBLANK($L3),"",VLOOKUP($L3&amp;TEXT($B3,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(M$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
@@ -5584,7 +5597,7 @@
 적이 죽지 않으면 기절을 먹인다</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1" t="str">
@@ -5680,7 +5693,7 @@
 적이 죽지 않으면 기절을 먹인다</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1" t="str">
@@ -5776,7 +5789,7 @@
 적이 죽지 않으면 기절을 먹인다</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1" t="str">
@@ -6282,7 +6295,7 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F12" s="1" t="str">
         <f>IF(ISBLANK(E12),"",
@@ -6376,7 +6389,7 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F13" s="1" t="str">
         <f>IF(ISBLANK(E13),"",
@@ -6467,7 +6480,7 @@
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F14" s="1" t="str">
         <f>IF(ISBLANK(E14),"",
@@ -6558,7 +6571,7 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F15" s="1" t="str">
         <f>IF(ISBLANK(E15),"",
@@ -6649,7 +6662,7 @@
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F16" s="1" t="str">
         <f>IF(ISBLANK(E16),"",

--- a/Excel/작업Action.xlsx
+++ b/Excel/작업Action.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{573414A3-4995-48E1-9813-D13798A1FF9B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{396A22B5-2A1E-412A-97EF-8D344BDCFF55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1788,7 +1788,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="134">
   <si>
     <t>Idle</t>
   </si>
@@ -2257,6 +2257,10 @@
   </si>
   <si>
     <t>Attack, Ultimate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SlimeRabbit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2997,7 +3001,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U23"/>
+  <dimension ref="A1:T27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -3008,24 +3012,20 @@
   <cols>
     <col min="1" max="1" width="13.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.75" customWidth="1"/>
-    <col min="3" max="3" width="18.5" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="16.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21.875" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="19.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.5" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.875" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="19.875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="13.625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="13" width="9" collapsed="1"/>
-    <col min="14" max="14" width="14.25" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="15" width="9" collapsed="1"/>
-    <col min="16" max="16" width="12.125" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="17" max="18" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="19" max="19" width="9" collapsed="1"/>
-    <col min="20" max="20" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="21" max="21" width="9" collapsed="1"/>
+    <col min="10" max="10" width="11" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.625" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="14.25" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="16" width="12.125" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="18" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="20" max="20" width="9" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -3565,9 +3565,6 @@
         <f>IF(ISBLANK(I11),"",IF(ISERROR(VLOOKUP(I11,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
         <v/>
       </c>
-      <c r="K11" t="s">
-        <v>8</v>
-      </c>
       <c r="L11" t="str">
         <f>IF(ISBLANK(K11),"",IF(ISERROR(VLOOKUP(K11,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
         <v/>
@@ -3960,6 +3957,194 @@
       </c>
       <c r="L23" t="str">
         <f>IF(ISBLANK(K23),"",IF(ISERROR(VLOOKUP(K23,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>133</v>
+      </c>
+      <c r="B24" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" t="str">
+        <f t="shared" ref="D24:D27" ca="1" si="2">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C24,
+OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="F24" s="2" t="str">
+        <f t="shared" ref="F24:F27" ca="1" si="3">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(E24,
+OFFSET($A$1,1,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,3,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,5,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,7,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,9,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,11,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,13,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,15,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,17,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,19,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,21,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,23,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,25,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,27,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,29,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,31,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,33,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,35,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,37,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,39,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,41,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,43,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,45,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,47,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,49,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(E$1&amp;"_List",$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="G24" t="s">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>0.1</v>
+      </c>
+      <c r="J24" t="str">
+        <f>IF(ISBLANK(I24),"",IF(ISERROR(VLOOKUP(I24,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
+        <v/>
+      </c>
+      <c r="L24" t="str">
+        <f>IF(ISBLANK(K24),"",IF(ISERROR(VLOOKUP(K24,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>133</v>
+      </c>
+      <c r="B25" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="E25" t="s">
+        <v>120</v>
+      </c>
+      <c r="F25" s="2" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="G25" t="s">
+        <v>3</v>
+      </c>
+      <c r="H25">
+        <v>0.1</v>
+      </c>
+      <c r="J25" t="str">
+        <f>IF(ISBLANK(I25),"",IF(ISERROR(VLOOKUP(I25,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
+        <v/>
+      </c>
+      <c r="L25" t="str">
+        <f>IF(ISBLANK(K25),"",IF(ISERROR(VLOOKUP(K25,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>133</v>
+      </c>
+      <c r="B26" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="F26" s="2" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="G26" t="s">
+        <v>91</v>
+      </c>
+      <c r="H26">
+        <v>0.05</v>
+      </c>
+      <c r="J26" t="str">
+        <f>IF(ISBLANK(I26),"",IF(ISERROR(VLOOKUP(I26,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
+        <v/>
+      </c>
+      <c r="L26" t="str">
+        <f>IF(ISBLANK(K26),"",IF(ISERROR(VLOOKUP(K26,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>133</v>
+      </c>
+      <c r="B27" t="s">
+        <v>120</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="E27" t="s">
+        <v>120</v>
+      </c>
+      <c r="F27" s="2" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="G27" t="s">
+        <v>53</v>
+      </c>
+      <c r="H27">
+        <v>0.05</v>
+      </c>
+      <c r="J27" t="str">
+        <f>IF(ISBLANK(I27),"",IF(ISERROR(VLOOKUP(I27,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
+        <v/>
+      </c>
+      <c r="L27" t="str">
+        <f>IF(ISBLANK(K27),"",IF(ISERROR(VLOOKUP(K27,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
         <v/>
       </c>
     </row>
@@ -3970,7 +4155,7 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="C2:C23 E2:E23" xr:uid="{9089C6B6-A03B-469A-BC47-88308B12ED20}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="C2:C27 E2:E27" xr:uid="{9089C6B6-A03B-469A-BC47-88308B12ED20}">
       <formula1>OFFSET(INDIRECT("$A$1"),1,MATCH(C$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1,COUNTA(OFFSET(INDIRECT("$A:$A"),0,MATCH(C$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1))-1,1)</formula1>
     </dataValidation>
   </dataValidations>
@@ -3983,13 +4168,13 @@
           <x14:formula1>
             <xm:f>OFFSET(SkillTable!$A$1,1,0,COUNTA(SkillTable!$A:$A)-1,1)</xm:f>
           </x14:formula1>
-          <xm:sqref>K2:K23</xm:sqref>
+          <xm:sqref>K2:K27</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E98A69ED-ACB1-4726-AFB2-FA695D9C95A0}">
           <x14:formula1>
             <xm:f>OFFSET(ControlTable!$A$1,1,0,COUNTA(ControlTable!$A:$A)-1,1)</xm:f>
           </x14:formula1>
-          <xm:sqref>I2:I23</xm:sqref>
+          <xm:sqref>I2:I27</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Excel/작업Action.xlsx
+++ b/Excel/작업Action.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{396A22B5-2A1E-412A-97EF-8D344BDCFF55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DDF6A92-941B-4D5E-B731-CC6871B00374}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1788,7 +1788,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="135">
   <si>
     <t>Idle</t>
   </si>
@@ -2261,6 +2261,10 @@
   </si>
   <si>
     <t>SlimeRabbit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Actor003</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2587,8 +2591,9 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="TitleStringTable"/>
+      <sheetName val="InApkStringTable"/>
       <sheetName val="StringTable"/>
+      <sheetName val="FontTable"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -2606,75 +2611,41 @@
         </row>
         <row r="2">
           <cell r="A2" t="str">
-            <v>GameUI_Swappable</v>
+            <v>Skill_ActiveOne001_Name</v>
           </cell>
           <cell r="B2" t="str">
-            <v>교체 가능</v>
+            <v>하트가 폭발한다</v>
           </cell>
           <cell r="C2" t="str">
-            <v>Can be swapped</v>
+            <v>Hearts exploding!</v>
           </cell>
         </row>
         <row r="3">
           <cell r="A3" t="str">
-            <v>GameUI_TouchToMove</v>
+            <v>Skill_ActiveOne001_Description</v>
           </cell>
           <cell r="B3" t="str">
-            <v>터치하여 이동하세요</v>
+            <v>대미지를 &lt;color=#FFFF00&gt;{0}%,{1}%,{2}%,{3}%&lt;/color&gt; 먹이고 적이 죽이면 하트를 반드시 떨어뜨린다
+적이 죽지 않으면 기절을 먹인다</v>
           </cell>
           <cell r="C3" t="str">
-            <v>Touch to move</v>
+            <v>Deal &lt;color=#FFFF00&gt;{0}%,{1}%,{2}%,{3}%&lt;/color&gt; and then the enemy drops a heart if killed. If not, stunned.</v>
           </cell>
         </row>
         <row r="4">
           <cell r="A4" t="str">
-            <v>GameUI_RepiarPack</v>
+            <v>Skill_ActiveOne002_Description</v>
           </cell>
           <cell r="B4" t="str">
-            <v>{0}레벨 수리킷 사용</v>
-          </cell>
-          <cell r="C4" t="str">
-            <v>Use Repair Kit Lv. {0}</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>GameUI_Play</v>
-          </cell>
-          <cell r="B5" t="str">
-            <v>진행</v>
-          </cell>
-          <cell r="C5" t="str">
-            <v>Play</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>Skill_ActiveOne001_Name</v>
-          </cell>
-          <cell r="B6" t="str">
-            <v>하트가 폭발한다</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>Skill_ActiveOne001_Description</v>
-          </cell>
-          <cell r="B7" t="str">
-            <v>대미지를 &lt;color=#FFFF00&gt;{0}%,{1}%,{2}%,{3}%&lt;/color&gt; 먹이고 적이 죽이면 하트를 반드시 떨어뜨린다
-적이 죽지 않으면 기절을 먹인다</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>Skill_ActiveOne002_Description</v>
-          </cell>
-          <cell r="B8" t="str">
             <v>대미지를 {0}% 먹이고 적이 죽이면 하트를 반드시 떨어뜨린다
 적이 죽지 않으면 기절을 먹인다</v>
           </cell>
+          <cell r="C4" t="str">
+            <v>Deal &lt;color=#FFFF00&gt;{0}%&lt;/color&gt; and then the enemy drops a heart if killed. If not, stunned.</v>
+          </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3001,7 +2972,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T27"/>
+  <dimension ref="A1:T32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -3112,7 +3083,7 @@
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="str">
-        <f t="shared" ref="D2:D23" ca="1" si="0">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+        <f t="shared" ref="D2:D28" ca="1" si="0">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
@@ -3145,7 +3116,7 @@
         <v/>
       </c>
       <c r="F2" s="2" t="str">
-        <f t="shared" ref="F2:F23" ca="1" si="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+        <f t="shared" ref="F2:F28" ca="1" si="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
@@ -3572,408 +3543,18 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>87</v>
+        <v>134</v>
       </c>
       <c r="B12" t="s">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="F12" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="G12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>0.1</v>
-      </c>
-      <c r="J12" t="str">
-        <f>IF(ISBLANK(I12),"",IF(ISERROR(VLOOKUP(I12,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
-        <v/>
-      </c>
-      <c r="L12" t="str">
-        <f>IF(ISBLANK(K12),"",IF(ISERROR(VLOOKUP(K12,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>87</v>
-      </c>
-      <c r="B13" t="s">
-        <v>89</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="E13" t="s">
-        <v>120</v>
-      </c>
-      <c r="F13" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="G13" t="s">
-        <v>3</v>
-      </c>
-      <c r="H13">
-        <v>0.1</v>
-      </c>
-      <c r="J13" t="str">
-        <f>IF(ISBLANK(I13),"",IF(ISERROR(VLOOKUP(I13,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
-        <v/>
-      </c>
-      <c r="L13" t="str">
-        <f>IF(ISBLANK(K13),"",IF(ISERROR(VLOOKUP(K13,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>87</v>
-      </c>
-      <c r="B14" t="s">
-        <v>90</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="F14" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="G14" t="s">
-        <v>91</v>
-      </c>
-      <c r="H14">
-        <v>0.05</v>
-      </c>
-      <c r="J14" t="str">
-        <f>IF(ISBLANK(I14),"",IF(ISERROR(VLOOKUP(I14,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
-        <v/>
-      </c>
-      <c r="L14" t="str">
-        <f>IF(ISBLANK(K14),"",IF(ISERROR(VLOOKUP(K14,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>87</v>
-      </c>
-      <c r="B15" t="s">
-        <v>120</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="E15" t="s">
-        <v>120</v>
-      </c>
-      <c r="F15" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="G15" t="s">
-        <v>53</v>
-      </c>
-      <c r="H15">
-        <v>0.05</v>
-      </c>
-      <c r="J15" t="str">
-        <f>IF(ISBLANK(I15),"",IF(ISERROR(VLOOKUP(I15,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
-        <v/>
-      </c>
-      <c r="L15" t="str">
-        <f>IF(ISBLANK(K15),"",IF(ISERROR(VLOOKUP(K15,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>121</v>
-      </c>
-      <c r="B16" t="s">
-        <v>88</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="F16" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="G16" t="s">
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <v>0.1</v>
-      </c>
-      <c r="J16" t="str">
-        <f>IF(ISBLANK(I16),"",IF(ISERROR(VLOOKUP(I16,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
-        <v/>
-      </c>
-      <c r="L16" t="str">
-        <f>IF(ISBLANK(K16),"",IF(ISERROR(VLOOKUP(K16,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>121</v>
-      </c>
-      <c r="B17" t="s">
-        <v>89</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="E17" t="s">
-        <v>120</v>
-      </c>
-      <c r="F17" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="G17" t="s">
-        <v>3</v>
-      </c>
-      <c r="H17">
-        <v>0.1</v>
-      </c>
-      <c r="J17" t="str">
-        <f>IF(ISBLANK(I17),"",IF(ISERROR(VLOOKUP(I17,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
-        <v/>
-      </c>
-      <c r="L17" t="str">
-        <f>IF(ISBLANK(K17),"",IF(ISERROR(VLOOKUP(K17,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>121</v>
-      </c>
-      <c r="B18" t="s">
-        <v>90</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="F18" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="G18" t="s">
-        <v>91</v>
-      </c>
-      <c r="H18">
-        <v>0.05</v>
-      </c>
-      <c r="J18" t="str">
-        <f>IF(ISBLANK(I18),"",IF(ISERROR(VLOOKUP(I18,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
-        <v/>
-      </c>
-      <c r="L18" t="str">
-        <f>IF(ISBLANK(K18),"",IF(ISERROR(VLOOKUP(K18,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>121</v>
-      </c>
-      <c r="B19" t="s">
-        <v>120</v>
-      </c>
-      <c r="C19" s="2"/>
-      <c r="D19" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="E19" t="s">
-        <v>120</v>
-      </c>
-      <c r="F19" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="G19" t="s">
-        <v>53</v>
-      </c>
-      <c r="H19">
-        <v>0.05</v>
-      </c>
-      <c r="J19" t="str">
-        <f>IF(ISBLANK(I19),"",IF(ISERROR(VLOOKUP(I19,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
-        <v/>
-      </c>
-      <c r="L19" t="str">
-        <f>IF(ISBLANK(K19),"",IF(ISERROR(VLOOKUP(K19,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>122</v>
-      </c>
-      <c r="B20" t="s">
-        <v>88</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="F20" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="G20" t="s">
-        <v>1</v>
-      </c>
-      <c r="H20">
-        <v>0.1</v>
-      </c>
-      <c r="J20" t="str">
-        <f>IF(ISBLANK(I20),"",IF(ISERROR(VLOOKUP(I20,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
-        <v/>
-      </c>
-      <c r="L20" t="str">
-        <f>IF(ISBLANK(K20),"",IF(ISERROR(VLOOKUP(K20,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>122</v>
-      </c>
-      <c r="B21" t="s">
-        <v>89</v>
-      </c>
-      <c r="C21" s="2"/>
-      <c r="D21" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="E21" t="s">
-        <v>120</v>
-      </c>
-      <c r="F21" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="G21" t="s">
-        <v>3</v>
-      </c>
-      <c r="H21">
-        <v>0.1</v>
-      </c>
-      <c r="J21" t="str">
-        <f>IF(ISBLANK(I21),"",IF(ISERROR(VLOOKUP(I21,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
-        <v/>
-      </c>
-      <c r="L21" t="str">
-        <f>IF(ISBLANK(K21),"",IF(ISERROR(VLOOKUP(K21,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>122</v>
-      </c>
-      <c r="B22" t="s">
-        <v>90</v>
-      </c>
-      <c r="C22" s="2"/>
-      <c r="D22" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="F22" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="G22" t="s">
-        <v>91</v>
-      </c>
-      <c r="H22">
-        <v>0.05</v>
-      </c>
-      <c r="J22" t="str">
-        <f>IF(ISBLANK(I22),"",IF(ISERROR(VLOOKUP(I22,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
-        <v/>
-      </c>
-      <c r="L22" t="str">
-        <f>IF(ISBLANK(K22),"",IF(ISERROR(VLOOKUP(K22,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>122</v>
-      </c>
-      <c r="B23" t="s">
-        <v>120</v>
-      </c>
-      <c r="C23" s="2"/>
-      <c r="D23" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="E23" t="s">
-        <v>120</v>
-      </c>
-      <c r="F23" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="G23" t="s">
-        <v>53</v>
-      </c>
-      <c r="H23">
-        <v>0.05</v>
-      </c>
-      <c r="J23" t="str">
-        <f>IF(ISBLANK(I23),"",IF(ISERROR(VLOOKUP(I23,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
-        <v/>
-      </c>
-      <c r="L23" t="str">
-        <f>IF(ISBLANK(K23),"",IF(ISERROR(VLOOKUP(K23,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>133</v>
-      </c>
-      <c r="B24" t="s">
-        <v>88</v>
-      </c>
-      <c r="C24" s="2"/>
-      <c r="D24" t="str">
-        <f t="shared" ref="D24:D27" ca="1" si="2">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+        <f t="shared" ref="D12:D16" ca="1" si="2">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C24,
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C12,
 OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
 OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
 OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
@@ -4001,12 +3582,12 @@
 OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
         <v/>
       </c>
-      <c r="F24" s="2" t="str">
-        <f t="shared" ref="F24:F27" ca="1" si="3">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+      <c r="F12" s="2" t="str">
+        <f t="shared" ref="F12:F16" ca="1" si="3">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(E24,
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(E12,
 OFFSET($A$1,1,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(E$1&amp;"_List",$1:$1,0))),
 OFFSET($A$1,3,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(E$1&amp;"_List",$1:$1,0))),
 OFFSET($A$1,5,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(E$1&amp;"_List",$1:$1,0))),
@@ -4034,11 +3615,410 @@
 OFFSET($A$1,49,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(E$1&amp;"_List",$1:$1,0)))</f>
         <v/>
       </c>
+      <c r="G12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>0.1</v>
+      </c>
+      <c r="J12" t="str">
+        <f>IF(ISBLANK(I12),"",IF(ISERROR(VLOOKUP(I12,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
+        <v/>
+      </c>
+      <c r="L12" t="str">
+        <f>IF(ISBLANK(K12),"",IF(ISERROR(VLOOKUP(K12,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>134</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="E13" t="s">
+        <v>130</v>
+      </c>
+      <c r="F13" s="2" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="G13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H13">
+        <v>0.1</v>
+      </c>
+      <c r="J13" t="str">
+        <f>IF(ISBLANK(I13),"",IF(ISERROR(VLOOKUP(I13,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
+        <v/>
+      </c>
+      <c r="L13" t="str">
+        <f>IF(ISBLANK(K13),"",IF(ISERROR(VLOOKUP(K13,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>134</v>
+      </c>
+      <c r="B14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="F14" s="2" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="G14" t="s">
+        <v>91</v>
+      </c>
+      <c r="H14">
+        <v>0.05</v>
+      </c>
+      <c r="J14" t="str">
+        <f>IF(ISBLANK(I14),"",IF(ISERROR(VLOOKUP(I14,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
+        <v/>
+      </c>
+      <c r="L14" t="str">
+        <f>IF(ISBLANK(K14),"",IF(ISERROR(VLOOKUP(K14,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>134</v>
+      </c>
+      <c r="B15" t="s">
+        <v>120</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="E15" t="s">
+        <v>132</v>
+      </c>
+      <c r="F15" s="2" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>3, 5</v>
+      </c>
+      <c r="G15" t="s">
+        <v>53</v>
+      </c>
+      <c r="H15">
+        <v>0.05</v>
+      </c>
+      <c r="I15" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" t="str">
+        <f>IF(ISBLANK(I15),"",IF(ISERROR(VLOOKUP(I15,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
+        <v/>
+      </c>
+      <c r="L15" t="str">
+        <f>IF(ISBLANK(K15),"",IF(ISERROR(VLOOKUP(K15,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>134</v>
+      </c>
+      <c r="B16" t="s">
+        <v>130</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="E16" t="s">
+        <v>130</v>
+      </c>
+      <c r="F16" s="2" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="G16" t="s">
+        <v>128</v>
+      </c>
+      <c r="H16">
+        <v>0.05</v>
+      </c>
+      <c r="I16" t="s">
+        <v>129</v>
+      </c>
+      <c r="J16" t="str">
+        <f>IF(ISBLANK(I16),"",IF(ISERROR(VLOOKUP(I16,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
+        <v/>
+      </c>
+      <c r="L16" t="str">
+        <f>IF(ISBLANK(K16),"",IF(ISERROR(VLOOKUP(K16,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>87</v>
+      </c>
+      <c r="B17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="F17" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="G17" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>0.1</v>
+      </c>
+      <c r="J17" t="str">
+        <f>IF(ISBLANK(I17),"",IF(ISERROR(VLOOKUP(I17,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
+        <v/>
+      </c>
+      <c r="L17" t="str">
+        <f>IF(ISBLANK(K17),"",IF(ISERROR(VLOOKUP(K17,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>87</v>
+      </c>
+      <c r="B18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="E18" t="s">
+        <v>120</v>
+      </c>
+      <c r="F18" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G18" t="s">
+        <v>3</v>
+      </c>
+      <c r="H18">
+        <v>0.1</v>
+      </c>
+      <c r="J18" t="str">
+        <f>IF(ISBLANK(I18),"",IF(ISERROR(VLOOKUP(I18,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
+        <v/>
+      </c>
+      <c r="L18" t="str">
+        <f>IF(ISBLANK(K18),"",IF(ISERROR(VLOOKUP(K18,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B19" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="F19" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="G19" t="s">
+        <v>91</v>
+      </c>
+      <c r="H19">
+        <v>0.05</v>
+      </c>
+      <c r="J19" t="str">
+        <f>IF(ISBLANK(I19),"",IF(ISERROR(VLOOKUP(I19,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
+        <v/>
+      </c>
+      <c r="L19" t="str">
+        <f>IF(ISBLANK(K19),"",IF(ISERROR(VLOOKUP(K19,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>87</v>
+      </c>
+      <c r="B20" t="s">
+        <v>120</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="E20" t="s">
+        <v>120</v>
+      </c>
+      <c r="F20" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G20" t="s">
+        <v>53</v>
+      </c>
+      <c r="H20">
+        <v>0.05</v>
+      </c>
+      <c r="J20" t="str">
+        <f>IF(ISBLANK(I20),"",IF(ISERROR(VLOOKUP(I20,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
+        <v/>
+      </c>
+      <c r="L20" t="str">
+        <f>IF(ISBLANK(K20),"",IF(ISERROR(VLOOKUP(K20,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>121</v>
+      </c>
+      <c r="B21" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="F21" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="G21" t="s">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>0.1</v>
+      </c>
+      <c r="J21" t="str">
+        <f>IF(ISBLANK(I21),"",IF(ISERROR(VLOOKUP(I21,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
+        <v/>
+      </c>
+      <c r="L21" t="str">
+        <f>IF(ISBLANK(K21),"",IF(ISERROR(VLOOKUP(K21,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>121</v>
+      </c>
+      <c r="B22" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="E22" t="s">
+        <v>120</v>
+      </c>
+      <c r="F22" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G22" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22">
+        <v>0.1</v>
+      </c>
+      <c r="J22" t="str">
+        <f>IF(ISBLANK(I22),"",IF(ISERROR(VLOOKUP(I22,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
+        <v/>
+      </c>
+      <c r="L22" t="str">
+        <f>IF(ISBLANK(K22),"",IF(ISERROR(VLOOKUP(K22,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>121</v>
+      </c>
+      <c r="B23" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="F23" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="G23" t="s">
+        <v>91</v>
+      </c>
+      <c r="H23">
+        <v>0.05</v>
+      </c>
+      <c r="J23" t="str">
+        <f>IF(ISBLANK(I23),"",IF(ISERROR(VLOOKUP(I23,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
+        <v/>
+      </c>
+      <c r="L23" t="str">
+        <f>IF(ISBLANK(K23),"",IF(ISERROR(VLOOKUP(K23,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>121</v>
+      </c>
+      <c r="B24" t="s">
+        <v>120</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="E24" t="s">
+        <v>120</v>
+      </c>
+      <c r="F24" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
       <c r="G24" t="s">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="H24">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="J24" t="str">
         <f>IF(ISBLANK(I24),"",IF(ISERROR(VLOOKUP(I24,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -4051,25 +4031,22 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="B25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="E25" t="s">
-        <v>120</v>
+        <f t="shared" ca="1" si="0"/>
+        <v/>
       </c>
       <c r="F25" s="2" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="1"/>
+        <v/>
       </c>
       <c r="G25" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H25">
         <v>0.1</v>
@@ -4085,25 +4062,28 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="B26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="E26" t="s">
+        <v>120</v>
       </c>
       <c r="F26" s="2" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
       </c>
       <c r="G26" t="s">
-        <v>91</v>
+        <v>3</v>
       </c>
       <c r="H26">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="J26" t="str">
         <f>IF(ISBLANK(I26),"",IF(ISERROR(VLOOKUP(I26,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -4116,25 +4096,22 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="B27" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="E27" t="s">
-        <v>120</v>
+        <f t="shared" ca="1" si="0"/>
+        <v/>
       </c>
       <c r="F27" s="2" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="1"/>
+        <v/>
       </c>
       <c r="G27" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="H27">
         <v>0.05</v>
@@ -4145,6 +4122,228 @@
       </c>
       <c r="L27" t="str">
         <f>IF(ISBLANK(K27),"",IF(ISERROR(VLOOKUP(K27,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>122</v>
+      </c>
+      <c r="B28" t="s">
+        <v>120</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="E28" t="s">
+        <v>120</v>
+      </c>
+      <c r="F28" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G28" t="s">
+        <v>53</v>
+      </c>
+      <c r="H28">
+        <v>0.05</v>
+      </c>
+      <c r="J28" t="str">
+        <f>IF(ISBLANK(I28),"",IF(ISERROR(VLOOKUP(I28,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
+        <v/>
+      </c>
+      <c r="L28" t="str">
+        <f>IF(ISBLANK(K28),"",IF(ISERROR(VLOOKUP(K28,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>133</v>
+      </c>
+      <c r="B29" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" t="str">
+        <f t="shared" ref="D29:D32" ca="1" si="4">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C29,
+OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="F29" s="2" t="str">
+        <f t="shared" ref="F29:F32" ca="1" si="5">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(E29,
+OFFSET($A$1,1,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,3,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,5,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,7,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,9,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,11,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,13,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,15,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,17,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,19,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,21,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,23,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,25,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,27,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,29,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,31,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,33,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,35,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,37,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,39,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,41,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,43,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,45,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,47,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,49,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(E$1&amp;"_List",$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="G29" t="s">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>0.1</v>
+      </c>
+      <c r="J29" t="str">
+        <f>IF(ISBLANK(I29),"",IF(ISERROR(VLOOKUP(I29,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
+        <v/>
+      </c>
+      <c r="L29" t="str">
+        <f>IF(ISBLANK(K29),"",IF(ISERROR(VLOOKUP(K29,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>133</v>
+      </c>
+      <c r="B30" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="E30" t="s">
+        <v>120</v>
+      </c>
+      <c r="F30" s="2" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="G30" t="s">
+        <v>3</v>
+      </c>
+      <c r="H30">
+        <v>0.1</v>
+      </c>
+      <c r="J30" t="str">
+        <f>IF(ISBLANK(I30),"",IF(ISERROR(VLOOKUP(I30,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
+        <v/>
+      </c>
+      <c r="L30" t="str">
+        <f>IF(ISBLANK(K30),"",IF(ISERROR(VLOOKUP(K30,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>133</v>
+      </c>
+      <c r="B31" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="F31" s="2" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="G31" t="s">
+        <v>91</v>
+      </c>
+      <c r="H31">
+        <v>0.05</v>
+      </c>
+      <c r="J31" t="str">
+        <f>IF(ISBLANK(I31),"",IF(ISERROR(VLOOKUP(I31,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
+        <v/>
+      </c>
+      <c r="L31" t="str">
+        <f>IF(ISBLANK(K31),"",IF(ISERROR(VLOOKUP(K31,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>133</v>
+      </c>
+      <c r="B32" t="s">
+        <v>120</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="E32" t="s">
+        <v>120</v>
+      </c>
+      <c r="F32" s="2" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="G32" t="s">
+        <v>53</v>
+      </c>
+      <c r="H32">
+        <v>0.05</v>
+      </c>
+      <c r="J32" t="str">
+        <f>IF(ISBLANK(I32),"",IF(ISERROR(VLOOKUP(I32,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
+        <v/>
+      </c>
+      <c r="L32" t="str">
+        <f>IF(ISBLANK(K32),"",IF(ISERROR(VLOOKUP(K32,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
         <v/>
       </c>
     </row>
@@ -4155,7 +4354,7 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="C2:C27 E2:E27" xr:uid="{9089C6B6-A03B-469A-BC47-88308B12ED20}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="E2:E32 C2:C32" xr:uid="{9089C6B6-A03B-469A-BC47-88308B12ED20}">
       <formula1>OFFSET(INDIRECT("$A$1"),1,MATCH(C$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1,COUNTA(OFFSET(INDIRECT("$A:$A"),0,MATCH(C$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1))-1,1)</formula1>
     </dataValidation>
   </dataValidations>
@@ -4168,13 +4367,13 @@
           <x14:formula1>
             <xm:f>OFFSET(SkillTable!$A$1,1,0,COUNTA(SkillTable!$A:$A)-1,1)</xm:f>
           </x14:formula1>
-          <xm:sqref>K2:K27</xm:sqref>
+          <xm:sqref>K2:K32</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E98A69ED-ACB1-4726-AFB2-FA695D9C95A0}">
           <x14:formula1>
             <xm:f>OFFSET(ControlTable!$A$1,1,0,COUNTA(ControlTable!$A:$A)-1,1)</xm:f>
           </x14:formula1>
-          <xm:sqref>I2:I27</xm:sqref>
+          <xm:sqref>I2:I32</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Excel/작업Action.xlsx
+++ b/Excel/작업Action.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DDF6A92-941B-4D5E-B731-CC6871B00374}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18C26384-80D8-4950-8E29-FD08D2ED812B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ActionTable" sheetId="1" r:id="rId1"/>
@@ -1788,7 +1788,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="136">
   <si>
     <t>Idle</t>
   </si>
@@ -2266,6 +2266,9 @@
   <si>
     <t>Actor003</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tortoise</t>
   </si>
 </sst>
 </file>
@@ -2448,6 +2451,9 @@
           <cell r="Q1" t="str">
             <v>sValue3|String</v>
           </cell>
+          <cell r="R1" t="str">
+            <v>sValue4|String</v>
+          </cell>
         </row>
         <row r="2">
           <cell r="D2" t="str">
@@ -2472,21 +2478,23 @@
             <v/>
           </cell>
           <cell r="L2" t="str">
-            <v>1: 온스타트맵
+            <v>1: 온스타트맵(캐릭전용)
 2: 온다이
-3: HP&lt;=</v>
+3: HP&lt;=
+4: 온대미지</v>
           </cell>
           <cell r="M2" t="str">
             <v>지속횟수</v>
           </cell>
           <cell r="N2"/>
           <cell r="O2" t="str">
-            <v>어펙터밸류아이디</v>
+            <v/>
           </cell>
           <cell r="P2" t="str">
-            <v/>
+            <v>어펙터밸류아이디들</v>
           </cell>
           <cell r="Q2"/>
+          <cell r="R2"/>
         </row>
         <row r="3">
           <cell r="A3" t="str">
@@ -2972,11 +2980,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T32"/>
+  <dimension ref="A1:T36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -4347,6 +4355,162 @@
         <v/>
       </c>
     </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>135</v>
+      </c>
+      <c r="B33" t="s">
+        <v>88</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" t="str">
+        <f t="shared" ref="D33:D36" ca="1" si="6">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C33,
+OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="F33" s="2" t="str">
+        <f t="shared" ref="F33:F36" ca="1" si="7">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(E33,
+OFFSET($A$1,1,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,3,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,5,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,7,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,9,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,11,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,13,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,15,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,17,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,19,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,21,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,23,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,25,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,27,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,29,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,31,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,33,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,35,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,37,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,39,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,41,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,43,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,45,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,47,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,49,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(E$1&amp;"_List",$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="G33" t="s">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>135</v>
+      </c>
+      <c r="B34" t="s">
+        <v>89</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="E34" t="s">
+        <v>120</v>
+      </c>
+      <c r="F34" s="2" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="G34" t="s">
+        <v>3</v>
+      </c>
+      <c r="H34">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>135</v>
+      </c>
+      <c r="B35" t="s">
+        <v>90</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="F35" s="2" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="G35" t="s">
+        <v>91</v>
+      </c>
+      <c r="H35">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>135</v>
+      </c>
+      <c r="B36" t="s">
+        <v>120</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="E36" t="s">
+        <v>120</v>
+      </c>
+      <c r="F36" s="2" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="G36" t="s">
+        <v>53</v>
+      </c>
+      <c r="H36">
+        <v>0.05</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="P2:R6">
     <sortCondition descending="1" ref="R2:R6"/>
@@ -4354,7 +4518,7 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="E2:E32 C2:C32" xr:uid="{9089C6B6-A03B-469A-BC47-88308B12ED20}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="E2:E36 C2:C36" xr:uid="{9089C6B6-A03B-469A-BC47-88308B12ED20}">
       <formula1>OFFSET(INDIRECT("$A$1"),1,MATCH(C$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1,COUNTA(OFFSET(INDIRECT("$A:$A"),0,MATCH(C$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1))-1,1)</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/작업Action.xlsx
+++ b/Excel/작업Action.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18C26384-80D8-4950-8E29-FD08D2ED812B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B82323ED-1DDB-42BD-AF93-1E9E5CCF07B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ActionTable" sheetId="1" r:id="rId1"/>
@@ -2384,24 +2384,34 @@
         </row>
         <row r="3">
           <cell r="A3" t="str">
-            <v>LP_ChangeActorStatus010</v>
+            <v>CallInvincibleTortoise</v>
           </cell>
         </row>
         <row r="4">
           <cell r="A4" t="str">
-            <v>LP_PiercingHitObject</v>
+            <v>InvincbleTortoise</v>
           </cell>
         </row>
         <row r="5">
           <cell r="A5" t="str">
             <v>TestPoison01</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>LP_ChangeActorStatus010</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>LP_PiercingHitObject</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
         <row r="1">
           <cell r="A1" t="str">
-            <v>vlookup용아이디</v>
+            <v>idForVlookup|String</v>
           </cell>
           <cell r="B1" t="str">
             <v>affectorValueId|String</v>
@@ -2457,19 +2467,17 @@
         </row>
         <row r="2">
           <cell r="D2" t="str">
-            <v>CallAffectorValue</v>
+            <v>InvincibleTortoise</v>
           </cell>
           <cell r="E2" t="str">
-            <v>특정 어펙터를 호출함</v>
-          </cell>
-          <cell r="F2"/>
-          <cell r="G2"/>
+            <v>거북이 전용 컨티뉴어스 무적 어펙터</v>
+          </cell>
           <cell r="H2" t="str">
             <v>지속시간
 무제한은 -1</v>
           </cell>
           <cell r="I2" t="str">
-            <v>3.HP&lt;= 수치</v>
+            <v/>
           </cell>
           <cell r="J2" t="str">
             <v/>
@@ -2478,27 +2486,21 @@
             <v/>
           </cell>
           <cell r="L2" t="str">
-            <v>1: 온스타트맵(캐릭전용)
-2: 온다이
-3: HP&lt;=
-4: 온대미지</v>
+            <v/>
           </cell>
           <cell r="M2" t="str">
-            <v>지속횟수</v>
-          </cell>
-          <cell r="N2"/>
+            <v/>
+          </cell>
           <cell r="O2" t="str">
-            <v/>
+            <v>히트 시 시작되는 메카님스테이트</v>
           </cell>
           <cell r="P2" t="str">
-            <v>어펙터밸류아이디들</v>
-          </cell>
-          <cell r="Q2"/>
-          <cell r="R2"/>
+            <v>끝날 때 복구하는 메카님스테이트</v>
+          </cell>
         </row>
         <row r="3">
           <cell r="A3" t="str">
-            <v>NormalAttack0101</v>
+            <v>NormalAttack01_01</v>
           </cell>
           <cell r="B3" t="str">
             <v>NormalAttack01</v>
@@ -2518,54 +2520,53 @@
         </row>
         <row r="4">
           <cell r="A4" t="str">
-            <v>LP_PiercingHitObject01</v>
+            <v>CallInvincibleTortoise_01</v>
           </cell>
           <cell r="B4" t="str">
-            <v>LP_PiercingHitObject</v>
+            <v>CallInvincibleTortoise</v>
           </cell>
           <cell r="C4">
             <v>1</v>
           </cell>
           <cell r="D4" t="str">
-            <v>PiercingHitObject</v>
-          </cell>
-          <cell r="G4" t="str">
-            <v/>
-          </cell>
-          <cell r="J4"/>
+            <v>CallAffectorValue</v>
+          </cell>
+          <cell r="H4">
+            <v>-1</v>
+          </cell>
           <cell r="L4">
-            <v>1</v>
-          </cell>
-          <cell r="O4">
-            <v>0.9</v>
+            <v>4</v>
+          </cell>
+          <cell r="P4" t="str">
+            <v>InvincbleTortoise</v>
           </cell>
         </row>
         <row r="5">
           <cell r="A5" t="str">
-            <v>LP_PiercingHitObject02</v>
+            <v>InvincbleTortoise_01</v>
           </cell>
           <cell r="B5" t="str">
-            <v>LP_PiercingHitObject</v>
+            <v>InvincbleTortoise</v>
           </cell>
           <cell r="C5">
-            <v>2</v>
+            <v>1</v>
           </cell>
           <cell r="D5" t="str">
-            <v>PiercingHitObject</v>
-          </cell>
-          <cell r="G5" t="str">
-            <v/>
-          </cell>
-          <cell r="L5">
-            <v>2</v>
+            <v>InvincibleTortoise</v>
+          </cell>
+          <cell r="H5">
+            <v>3</v>
           </cell>
           <cell r="O5" t="str">
-            <v>0.95,0.9</v>
+            <v>GuardStart</v>
+          </cell>
+          <cell r="P5" t="str">
+            <v>GuardEnd</v>
           </cell>
         </row>
         <row r="6">
           <cell r="A6" t="str">
-            <v>TestPoison0101</v>
+            <v>TestPoison01_01</v>
           </cell>
           <cell r="B6" t="str">
             <v>TestPoison01</v>
@@ -2584,6 +2585,52 @@
           </cell>
           <cell r="J6">
             <v>0.01</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>LP_PiercingHitObject_01</v>
+          </cell>
+          <cell r="B7" t="str">
+            <v>LP_PiercingHitObject</v>
+          </cell>
+          <cell r="C7">
+            <v>1</v>
+          </cell>
+          <cell r="D7" t="str">
+            <v>PiercingHitObject</v>
+          </cell>
+          <cell r="G7" t="str">
+            <v/>
+          </cell>
+          <cell r="L7">
+            <v>1</v>
+          </cell>
+          <cell r="O7">
+            <v>0.9</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>LP_PiercingHitObject_02</v>
+          </cell>
+          <cell r="B8" t="str">
+            <v>LP_PiercingHitObject</v>
+          </cell>
+          <cell r="C8">
+            <v>2</v>
+          </cell>
+          <cell r="D8" t="str">
+            <v>PiercingHitObject</v>
+          </cell>
+          <cell r="G8" t="str">
+            <v/>
+          </cell>
+          <cell r="L8">
+            <v>2</v>
+          </cell>
+          <cell r="O8" t="str">
+            <v>0.95,0.9</v>
           </cell>
         </row>
       </sheetData>
@@ -2602,6 +2649,7 @@
       <sheetName val="InApkStringTable"/>
       <sheetName val="StringTable"/>
       <sheetName val="FontTable"/>
+      <sheetName val="TitleStringTable"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -2654,6 +2702,7 @@
         </row>
       </sheetData>
       <sheetData sheetId="2"/>
+      <sheetData sheetId="3" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2982,7 +3031,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A37" sqref="A37"/>
     </sheetView>
@@ -5772,7 +5821,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AF16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -5955,15 +6004,15 @@
         <v>119</v>
       </c>
       <c r="M2" s="1">
-        <f>IFERROR(IF(ISBLANK($L2),"",VLOOKUP($L2&amp;TEXT($B2,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(M$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($L2),"",VLOOKUP($L2&amp;"_"&amp;TEXT($B2,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(M$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v>0</v>
       </c>
       <c r="N2" s="1">
-        <f>IFERROR(IF(ISBLANK($L2),"",VLOOKUP($L2&amp;TEXT($B2,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(N$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($L2),"",VLOOKUP($L2&amp;"_"&amp;TEXT($B2,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(N$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v>1</v>
       </c>
       <c r="O2" s="1">
-        <f>IFERROR(IF(ISBLANK($L2),"",VLOOKUP($L2&amp;TEXT($B2,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(O$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($L2),"",VLOOKUP($L2&amp;"_"&amp;TEXT($B2,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(O$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v>0.9</v>
       </c>
       <c r="P2" s="1"/>
@@ -5971,15 +6020,15 @@
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
       <c r="T2" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK($S2),"",VLOOKUP($S2&amp;TEXT($B2,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(T$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($S2),"",VLOOKUP($S2&amp;"_"&amp;TEXT($B2,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(T$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="U2" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK($S2),"",VLOOKUP($S2&amp;TEXT($B2,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(U$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($S2),"",VLOOKUP($S2&amp;"_"&amp;TEXT($B2,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(U$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="V2" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK($S2),"",VLOOKUP($S2&amp;TEXT($B2,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(V$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($S2),"",VLOOKUP($S2&amp;"_"&amp;TEXT($B2,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(V$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="W2" s="1"/>
@@ -5987,15 +6036,15 @@
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
       <c r="AA2" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK($Z2),"",VLOOKUP($Z2&amp;TEXT($B2,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AA$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($Z2),"",VLOOKUP($Z2&amp;"_"&amp;TEXT($B2,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AA$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="AB2" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK($Z2),"",VLOOKUP($Z2&amp;TEXT($B2,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AB$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($Z2),"",VLOOKUP($Z2&amp;"_"&amp;TEXT($B2,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AB$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="AC2" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK($Z2),"",VLOOKUP($Z2&amp;TEXT($B2,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AC$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($Z2),"",VLOOKUP($Z2&amp;"_"&amp;TEXT($B2,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AC$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="AD2" s="1"/>
@@ -6053,15 +6102,15 @@
         <v>119</v>
       </c>
       <c r="M3" s="1">
-        <f>IFERROR(IF(ISBLANK($L3),"",VLOOKUP($L3&amp;TEXT($B3,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(M$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($L3),"",VLOOKUP($L3&amp;"_"&amp;TEXT($B3,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(M$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v>0</v>
       </c>
       <c r="N3" s="1">
-        <f>IFERROR(IF(ISBLANK($L3),"",VLOOKUP($L3&amp;TEXT($B3,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(N$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($L3),"",VLOOKUP($L3&amp;"_"&amp;TEXT($B3,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(N$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v>2</v>
       </c>
       <c r="O3" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK($L3),"",VLOOKUP($L3&amp;TEXT($B3,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(O$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($L3),"",VLOOKUP($L3&amp;"_"&amp;TEXT($B3,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(O$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v>0.95,0.9</v>
       </c>
       <c r="P3" s="1"/>
@@ -6069,15 +6118,15 @@
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK($S3),"",VLOOKUP($S3&amp;TEXT($B3,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(T$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($S3),"",VLOOKUP($S3&amp;"_"&amp;TEXT($B3,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(T$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="U3" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK($S3),"",VLOOKUP($S3&amp;TEXT($B3,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(U$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($S3),"",VLOOKUP($S3&amp;"_"&amp;TEXT($B3,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(U$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="V3" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK($S3),"",VLOOKUP($S3&amp;TEXT($B3,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(V$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($S3),"",VLOOKUP($S3&amp;"_"&amp;TEXT($B3,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(V$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="W3" s="1"/>
@@ -6085,15 +6134,15 @@
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
       <c r="AA3" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK($Z3),"",VLOOKUP($Z3&amp;TEXT($B3,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AA$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($Z3),"",VLOOKUP($Z3&amp;"_"&amp;TEXT($B3,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AA$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="AB3" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK($Z3),"",VLOOKUP($Z3&amp;TEXT($B3,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AB$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($Z3),"",VLOOKUP($Z3&amp;"_"&amp;TEXT($B3,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AB$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="AC3" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK($Z3),"",VLOOKUP($Z3&amp;TEXT($B3,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AC$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($Z3),"",VLOOKUP($Z3&amp;"_"&amp;TEXT($B3,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AC$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="AD3" s="1"/>
@@ -6149,15 +6198,15 @@
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK($L4),"",VLOOKUP($L4&amp;TEXT($B4,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(M$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($L4),"",VLOOKUP($L4&amp;"_"&amp;TEXT($B4,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(M$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="N4" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK($L4),"",VLOOKUP($L4&amp;TEXT($B4,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(N$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($L4),"",VLOOKUP($L4&amp;"_"&amp;TEXT($B4,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(N$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="O4" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK($L4),"",VLOOKUP($L4&amp;TEXT($B4,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(O$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($L4),"",VLOOKUP($L4&amp;"_"&amp;TEXT($B4,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(O$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="P4" s="1"/>
@@ -6165,15 +6214,15 @@
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK($S4),"",VLOOKUP($S4&amp;TEXT($B4,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(T$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($S4),"",VLOOKUP($S4&amp;"_"&amp;TEXT($B4,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(T$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="U4" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK($S4),"",VLOOKUP($S4&amp;TEXT($B4,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(U$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($S4),"",VLOOKUP($S4&amp;"_"&amp;TEXT($B4,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(U$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="V4" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK($S4),"",VLOOKUP($S4&amp;TEXT($B4,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(V$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($S4),"",VLOOKUP($S4&amp;"_"&amp;TEXT($B4,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(V$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="W4" s="1"/>
@@ -6181,15 +6230,15 @@
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
       <c r="AA4" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK($Z4),"",VLOOKUP($Z4&amp;TEXT($B4,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AA$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($Z4),"",VLOOKUP($Z4&amp;"_"&amp;TEXT($B4,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AA$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="AB4" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK($Z4),"",VLOOKUP($Z4&amp;TEXT($B4,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AB$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($Z4),"",VLOOKUP($Z4&amp;"_"&amp;TEXT($B4,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AB$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="AC4" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK($Z4),"",VLOOKUP($Z4&amp;TEXT($B4,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AC$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($Z4),"",VLOOKUP($Z4&amp;"_"&amp;TEXT($B4,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AC$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="AD4" s="1"/>
@@ -6245,15 +6294,15 @@
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK($L5),"",VLOOKUP($L5&amp;TEXT($B5,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(M$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($L5),"",VLOOKUP($L5&amp;"_"&amp;TEXT($B5,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(M$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="N5" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK($L5),"",VLOOKUP($L5&amp;TEXT($B5,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(N$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($L5),"",VLOOKUP($L5&amp;"_"&amp;TEXT($B5,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(N$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="O5" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK($L5),"",VLOOKUP($L5&amp;TEXT($B5,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(O$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($L5),"",VLOOKUP($L5&amp;"_"&amp;TEXT($B5,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(O$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="P5" s="1"/>
@@ -6261,15 +6310,15 @@
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK($S5),"",VLOOKUP($S5&amp;TEXT($B5,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(T$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($S5),"",VLOOKUP($S5&amp;"_"&amp;TEXT($B5,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(T$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="U5" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK($S5),"",VLOOKUP($S5&amp;TEXT($B5,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(U$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($S5),"",VLOOKUP($S5&amp;"_"&amp;TEXT($B5,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(U$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="V5" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK($S5),"",VLOOKUP($S5&amp;TEXT($B5,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(V$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($S5),"",VLOOKUP($S5&amp;"_"&amp;TEXT($B5,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(V$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="W5" s="1"/>
@@ -6277,15 +6326,15 @@
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
       <c r="AA5" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK($Z5),"",VLOOKUP($Z5&amp;TEXT($B5,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AA$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($Z5),"",VLOOKUP($Z5&amp;"_"&amp;TEXT($B5,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AA$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="AB5" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK($Z5),"",VLOOKUP($Z5&amp;TEXT($B5,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AB$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($Z5),"",VLOOKUP($Z5&amp;"_"&amp;TEXT($B5,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AB$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="AC5" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK($Z5),"",VLOOKUP($Z5&amp;TEXT($B5,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AC$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($Z5),"",VLOOKUP($Z5&amp;"_"&amp;TEXT($B5,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AC$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="AD5" s="1"/>
@@ -6341,15 +6390,15 @@
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK($L6),"",VLOOKUP($L6&amp;TEXT($B6,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(M$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($L6),"",VLOOKUP($L6&amp;"_"&amp;TEXT($B6,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(M$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="N6" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK($L6),"",VLOOKUP($L6&amp;TEXT($B6,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(N$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($L6),"",VLOOKUP($L6&amp;"_"&amp;TEXT($B6,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(N$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="O6" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK($L6),"",VLOOKUP($L6&amp;TEXT($B6,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(O$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($L6),"",VLOOKUP($L6&amp;"_"&amp;TEXT($B6,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(O$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="P6" s="1"/>
@@ -6357,15 +6406,15 @@
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
       <c r="T6" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK($S6),"",VLOOKUP($S6&amp;TEXT($B6,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(T$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($S6),"",VLOOKUP($S6&amp;"_"&amp;TEXT($B6,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(T$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="U6" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK($S6),"",VLOOKUP($S6&amp;TEXT($B6,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(U$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($S6),"",VLOOKUP($S6&amp;"_"&amp;TEXT($B6,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(U$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="V6" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK($S6),"",VLOOKUP($S6&amp;TEXT($B6,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(V$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($S6),"",VLOOKUP($S6&amp;"_"&amp;TEXT($B6,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(V$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="W6" s="1"/>
@@ -6373,15 +6422,15 @@
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
       <c r="AA6" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK($Z6),"",VLOOKUP($Z6&amp;TEXT($B6,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AA$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($Z6),"",VLOOKUP($Z6&amp;"_"&amp;TEXT($B6,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AA$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="AB6" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK($Z6),"",VLOOKUP($Z6&amp;TEXT($B6,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AB$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($Z6),"",VLOOKUP($Z6&amp;"_"&amp;TEXT($B6,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AB$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="AC6" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK($Z6),"",VLOOKUP($Z6&amp;TEXT($B6,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AC$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($Z6),"",VLOOKUP($Z6&amp;"_"&amp;TEXT($B6,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AC$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="AD6" s="1"/>
@@ -6430,15 +6479,15 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK($L7),"",VLOOKUP($L7&amp;TEXT($B7,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(M$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($L7),"",VLOOKUP($L7&amp;"_"&amp;TEXT($B7,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(M$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="N7" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK($L7),"",VLOOKUP($L7&amp;TEXT($B7,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(N$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($L7),"",VLOOKUP($L7&amp;"_"&amp;TEXT($B7,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(N$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="O7" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK($L7),"",VLOOKUP($L7&amp;TEXT($B7,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(O$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($L7),"",VLOOKUP($L7&amp;"_"&amp;TEXT($B7,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(O$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="P7" s="1"/>
@@ -6446,15 +6495,15 @@
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK($S7),"",VLOOKUP($S7&amp;TEXT($B7,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(T$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($S7),"",VLOOKUP($S7&amp;"_"&amp;TEXT($B7,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(T$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="U7" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK($S7),"",VLOOKUP($S7&amp;TEXT($B7,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(U$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($S7),"",VLOOKUP($S7&amp;"_"&amp;TEXT($B7,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(U$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="V7" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK($S7),"",VLOOKUP($S7&amp;TEXT($B7,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(V$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($S7),"",VLOOKUP($S7&amp;"_"&amp;TEXT($B7,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(V$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="W7" s="1"/>
@@ -6462,15 +6511,15 @@
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
       <c r="AA7" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK($Z7),"",VLOOKUP($Z7&amp;TEXT($B7,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AA$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($Z7),"",VLOOKUP($Z7&amp;"_"&amp;TEXT($B7,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AA$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="AB7" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK($Z7),"",VLOOKUP($Z7&amp;TEXT($B7,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AB$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($Z7),"",VLOOKUP($Z7&amp;"_"&amp;TEXT($B7,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AB$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="AC7" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK($Z7),"",VLOOKUP($Z7&amp;TEXT($B7,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AC$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($Z7),"",VLOOKUP($Z7&amp;"_"&amp;TEXT($B7,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AC$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="AD7" s="1"/>
@@ -6519,15 +6568,15 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK($L8),"",VLOOKUP($L8&amp;TEXT($B8,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(M$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($L8),"",VLOOKUP($L8&amp;"_"&amp;TEXT($B8,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(M$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="N8" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK($L8),"",VLOOKUP($L8&amp;TEXT($B8,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(N$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($L8),"",VLOOKUP($L8&amp;"_"&amp;TEXT($B8,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(N$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="O8" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK($L8),"",VLOOKUP($L8&amp;TEXT($B8,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(O$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($L8),"",VLOOKUP($L8&amp;"_"&amp;TEXT($B8,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(O$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="P8" s="1"/>
@@ -6535,15 +6584,15 @@
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK($S8),"",VLOOKUP($S8&amp;TEXT($B8,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(T$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($S8),"",VLOOKUP($S8&amp;"_"&amp;TEXT($B8,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(T$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="U8" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK($S8),"",VLOOKUP($S8&amp;TEXT($B8,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(U$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($S8),"",VLOOKUP($S8&amp;"_"&amp;TEXT($B8,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(U$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="V8" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK($S8),"",VLOOKUP($S8&amp;TEXT($B8,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(V$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($S8),"",VLOOKUP($S8&amp;"_"&amp;TEXT($B8,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(V$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="W8" s="1"/>
@@ -6551,15 +6600,15 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
       <c r="AA8" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK($Z8),"",VLOOKUP($Z8&amp;TEXT($B8,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AA$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($Z8),"",VLOOKUP($Z8&amp;"_"&amp;TEXT($B8,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AA$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="AB8" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK($Z8),"",VLOOKUP($Z8&amp;TEXT($B8,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AB$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($Z8),"",VLOOKUP($Z8&amp;"_"&amp;TEXT($B8,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AB$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="AC8" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK($Z8),"",VLOOKUP($Z8&amp;TEXT($B8,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AC$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($Z8),"",VLOOKUP($Z8&amp;"_"&amp;TEXT($B8,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AC$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="AD8" s="1"/>
@@ -6608,15 +6657,15 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK($L9),"",VLOOKUP($L9&amp;TEXT($B9,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(M$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($L9),"",VLOOKUP($L9&amp;"_"&amp;TEXT($B9,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(M$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="N9" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK($L9),"",VLOOKUP($L9&amp;TEXT($B9,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(N$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($L9),"",VLOOKUP($L9&amp;"_"&amp;TEXT($B9,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(N$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="O9" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK($L9),"",VLOOKUP($L9&amp;TEXT($B9,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(O$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($L9),"",VLOOKUP($L9&amp;"_"&amp;TEXT($B9,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(O$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="P9" s="1"/>
@@ -6624,15 +6673,15 @@
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
       <c r="T9" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK($S9),"",VLOOKUP($S9&amp;TEXT($B9,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(T$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($S9),"",VLOOKUP($S9&amp;"_"&amp;TEXT($B9,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(T$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="U9" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK($S9),"",VLOOKUP($S9&amp;TEXT($B9,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(U$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($S9),"",VLOOKUP($S9&amp;"_"&amp;TEXT($B9,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(U$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="V9" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK($S9),"",VLOOKUP($S9&amp;TEXT($B9,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(V$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($S9),"",VLOOKUP($S9&amp;"_"&amp;TEXT($B9,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(V$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="W9" s="1"/>
@@ -6640,15 +6689,15 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
       <c r="AA9" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK($Z9),"",VLOOKUP($Z9&amp;TEXT($B9,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AA$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($Z9),"",VLOOKUP($Z9&amp;"_"&amp;TEXT($B9,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AA$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="AB9" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK($Z9),"",VLOOKUP($Z9&amp;TEXT($B9,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AB$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($Z9),"",VLOOKUP($Z9&amp;"_"&amp;TEXT($B9,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AB$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="AC9" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK($Z9),"",VLOOKUP($Z9&amp;TEXT($B9,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AC$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($Z9),"",VLOOKUP($Z9&amp;"_"&amp;TEXT($B9,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AC$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="AD9" s="1"/>
@@ -6697,15 +6746,15 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK($L10),"",VLOOKUP($L10&amp;TEXT($B10,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(M$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($L10),"",VLOOKUP($L10&amp;"_"&amp;TEXT($B10,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(M$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="N10" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK($L10),"",VLOOKUP($L10&amp;TEXT($B10,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(N$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($L10),"",VLOOKUP($L10&amp;"_"&amp;TEXT($B10,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(N$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="O10" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK($L10),"",VLOOKUP($L10&amp;TEXT($B10,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(O$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($L10),"",VLOOKUP($L10&amp;"_"&amp;TEXT($B10,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(O$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="P10" s="1"/>
@@ -6713,15 +6762,15 @@
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK($S10),"",VLOOKUP($S10&amp;TEXT($B10,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(T$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($S10),"",VLOOKUP($S10&amp;"_"&amp;TEXT($B10,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(T$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="U10" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK($S10),"",VLOOKUP($S10&amp;TEXT($B10,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(U$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($S10),"",VLOOKUP($S10&amp;"_"&amp;TEXT($B10,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(U$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="V10" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK($S10),"",VLOOKUP($S10&amp;TEXT($B10,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(V$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($S10),"",VLOOKUP($S10&amp;"_"&amp;TEXT($B10,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(V$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="W10" s="1"/>
@@ -6729,15 +6778,15 @@
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
       <c r="AA10" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK($Z10),"",VLOOKUP($Z10&amp;TEXT($B10,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AA$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($Z10),"",VLOOKUP($Z10&amp;"_"&amp;TEXT($B10,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AA$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="AB10" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK($Z10),"",VLOOKUP($Z10&amp;TEXT($B10,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AB$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($Z10),"",VLOOKUP($Z10&amp;"_"&amp;TEXT($B10,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AB$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="AC10" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK($Z10),"",VLOOKUP($Z10&amp;TEXT($B10,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AC$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($Z10),"",VLOOKUP($Z10&amp;"_"&amp;TEXT($B10,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AC$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="AD10" s="1"/>
@@ -6786,15 +6835,15 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK($L11),"",VLOOKUP($L11&amp;TEXT($B11,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(M$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($L11),"",VLOOKUP($L11&amp;"_"&amp;TEXT($B11,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(M$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="N11" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK($L11),"",VLOOKUP($L11&amp;TEXT($B11,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(N$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($L11),"",VLOOKUP($L11&amp;"_"&amp;TEXT($B11,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(N$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="O11" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK($L11),"",VLOOKUP($L11&amp;TEXT($B11,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(O$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($L11),"",VLOOKUP($L11&amp;"_"&amp;TEXT($B11,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(O$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="P11" s="1"/>
@@ -6802,15 +6851,15 @@
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK($S11),"",VLOOKUP($S11&amp;TEXT($B11,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(T$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($S11),"",VLOOKUP($S11&amp;"_"&amp;TEXT($B11,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(T$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="U11" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK($S11),"",VLOOKUP($S11&amp;TEXT($B11,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(U$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($S11),"",VLOOKUP($S11&amp;"_"&amp;TEXT($B11,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(U$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="V11" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK($S11),"",VLOOKUP($S11&amp;TEXT($B11,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(V$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($S11),"",VLOOKUP($S11&amp;"_"&amp;TEXT($B11,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(V$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="W11" s="1"/>
@@ -6818,15 +6867,15 @@
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
       <c r="AA11" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK($Z11),"",VLOOKUP($Z11&amp;TEXT($B11,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AA$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($Z11),"",VLOOKUP($Z11&amp;"_"&amp;TEXT($B11,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AA$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="AB11" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK($Z11),"",VLOOKUP($Z11&amp;TEXT($B11,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AB$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($Z11),"",VLOOKUP($Z11&amp;"_"&amp;TEXT($B11,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AB$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="AC11" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK($Z11),"",VLOOKUP($Z11&amp;TEXT($B11,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AC$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($Z11),"",VLOOKUP($Z11&amp;"_"&amp;TEXT($B11,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AC$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="AD11" s="1"/>
@@ -6880,15 +6929,15 @@
         <v>AtkUpBuff001</v>
       </c>
       <c r="M12" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK($L12),"",VLOOKUP($L12&amp;TEXT($B12,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(M$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($L12),"",VLOOKUP($L12&amp;"_"&amp;TEXT($B12,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(M$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v>어펙터밸류레벨없음</v>
       </c>
       <c r="N12" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK($L12),"",VLOOKUP($L12&amp;TEXT($B12,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(N$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($L12),"",VLOOKUP($L12&amp;"_"&amp;TEXT($B12,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(N$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v>어펙터밸류레벨없음</v>
       </c>
       <c r="O12" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK($L12),"",VLOOKUP($L12&amp;TEXT($B12,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(O$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($L12),"",VLOOKUP($L12&amp;"_"&amp;TEXT($B12,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(O$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v>어펙터밸류레벨없음</v>
       </c>
       <c r="P12" s="1"/>
@@ -6896,15 +6945,15 @@
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK($S12),"",VLOOKUP($S12&amp;TEXT($B12,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(T$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($S12),"",VLOOKUP($S12&amp;"_"&amp;TEXT($B12,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(T$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="U12" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK($S12),"",VLOOKUP($S12&amp;TEXT($B12,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(U$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($S12),"",VLOOKUP($S12&amp;"_"&amp;TEXT($B12,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(U$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="V12" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK($S12),"",VLOOKUP($S12&amp;TEXT($B12,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(V$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($S12),"",VLOOKUP($S12&amp;"_"&amp;TEXT($B12,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(V$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="W12" s="1"/>
@@ -6912,15 +6961,15 @@
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
       <c r="AA12" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK($Z12),"",VLOOKUP($Z12&amp;TEXT($B12,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AA$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($Z12),"",VLOOKUP($Z12&amp;"_"&amp;TEXT($B12,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AA$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="AB12" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK($Z12),"",VLOOKUP($Z12&amp;TEXT($B12,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AB$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($Z12),"",VLOOKUP($Z12&amp;"_"&amp;TEXT($B12,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AB$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="AC12" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK($Z12),"",VLOOKUP($Z12&amp;TEXT($B12,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AC$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($Z12),"",VLOOKUP($Z12&amp;"_"&amp;TEXT($B12,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AC$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="AD12" s="1"/>
@@ -6971,15 +7020,15 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK($L13),"",VLOOKUP($L13&amp;TEXT($B13,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(M$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($L13),"",VLOOKUP($L13&amp;"_"&amp;TEXT($B13,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(M$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
       <c r="N13" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK($L13),"",VLOOKUP($L13&amp;TEXT($B13,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(N$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($L13),"",VLOOKUP($L13&amp;"_"&amp;TEXT($B13,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(N$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
       <c r="O13" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK($L13),"",VLOOKUP($L13&amp;TEXT($B13,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(O$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($L13),"",VLOOKUP($L13&amp;"_"&amp;TEXT($B13,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(O$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
       <c r="P13" s="1"/>
@@ -6987,15 +7036,15 @@
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK($S13),"",VLOOKUP($S13&amp;TEXT($B13,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(T$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($S13),"",VLOOKUP($S13&amp;"_"&amp;TEXT($B13,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(T$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="U13" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK($S13),"",VLOOKUP($S13&amp;TEXT($B13,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(U$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($S13),"",VLOOKUP($S13&amp;"_"&amp;TEXT($B13,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(U$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="V13" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK($S13),"",VLOOKUP($S13&amp;TEXT($B13,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(V$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($S13),"",VLOOKUP($S13&amp;"_"&amp;TEXT($B13,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(V$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="W13" s="1"/>
@@ -7003,15 +7052,15 @@
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
       <c r="AA13" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK($Z13),"",VLOOKUP($Z13&amp;TEXT($B13,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AA$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($Z13),"",VLOOKUP($Z13&amp;"_"&amp;TEXT($B13,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AA$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="AB13" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK($Z13),"",VLOOKUP($Z13&amp;TEXT($B13,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AB$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($Z13),"",VLOOKUP($Z13&amp;"_"&amp;TEXT($B13,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AB$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="AC13" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK($Z13),"",VLOOKUP($Z13&amp;TEXT($B13,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AC$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($Z13),"",VLOOKUP($Z13&amp;"_"&amp;TEXT($B13,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AC$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="AD13" s="1"/>
@@ -7062,15 +7111,15 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK($L14),"",VLOOKUP($L14&amp;TEXT($B14,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(M$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($L14),"",VLOOKUP($L14&amp;"_"&amp;TEXT($B14,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(M$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
       <c r="N14" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK($L14),"",VLOOKUP($L14&amp;TEXT($B14,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(N$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($L14),"",VLOOKUP($L14&amp;"_"&amp;TEXT($B14,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(N$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
       <c r="O14" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK($L14),"",VLOOKUP($L14&amp;TEXT($B14,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(O$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($L14),"",VLOOKUP($L14&amp;"_"&amp;TEXT($B14,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(O$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
       <c r="P14" s="1"/>
@@ -7078,15 +7127,15 @@
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK($S14),"",VLOOKUP($S14&amp;TEXT($B14,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(T$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($S14),"",VLOOKUP($S14&amp;"_"&amp;TEXT($B14,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(T$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="U14" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK($S14),"",VLOOKUP($S14&amp;TEXT($B14,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(U$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($S14),"",VLOOKUP($S14&amp;"_"&amp;TEXT($B14,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(U$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="V14" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK($S14),"",VLOOKUP($S14&amp;TEXT($B14,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(V$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($S14),"",VLOOKUP($S14&amp;"_"&amp;TEXT($B14,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(V$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="W14" s="1"/>
@@ -7094,15 +7143,15 @@
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
       <c r="AA14" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK($Z14),"",VLOOKUP($Z14&amp;TEXT($B14,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AA$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($Z14),"",VLOOKUP($Z14&amp;"_"&amp;TEXT($B14,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AA$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="AB14" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK($Z14),"",VLOOKUP($Z14&amp;TEXT($B14,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AB$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($Z14),"",VLOOKUP($Z14&amp;"_"&amp;TEXT($B14,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AB$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="AC14" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK($Z14),"",VLOOKUP($Z14&amp;TEXT($B14,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AC$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($Z14),"",VLOOKUP($Z14&amp;"_"&amp;TEXT($B14,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AC$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="AD14" s="1"/>
@@ -7153,15 +7202,15 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK($L15),"",VLOOKUP($L15&amp;TEXT($B15,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(M$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($L15),"",VLOOKUP($L15&amp;"_"&amp;TEXT($B15,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(M$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
       <c r="N15" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK($L15),"",VLOOKUP($L15&amp;TEXT($B15,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(N$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($L15),"",VLOOKUP($L15&amp;"_"&amp;TEXT($B15,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(N$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
       <c r="O15" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK($L15),"",VLOOKUP($L15&amp;TEXT($B15,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(O$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($L15),"",VLOOKUP($L15&amp;"_"&amp;TEXT($B15,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(O$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
       <c r="P15" s="1"/>
@@ -7169,15 +7218,15 @@
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK($S15),"",VLOOKUP($S15&amp;TEXT($B15,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(T$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($S15),"",VLOOKUP($S15&amp;"_"&amp;TEXT($B15,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(T$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="U15" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK($S15),"",VLOOKUP($S15&amp;TEXT($B15,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(U$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($S15),"",VLOOKUP($S15&amp;"_"&amp;TEXT($B15,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(U$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="V15" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK($S15),"",VLOOKUP($S15&amp;TEXT($B15,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(V$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($S15),"",VLOOKUP($S15&amp;"_"&amp;TEXT($B15,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(V$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="W15" s="1"/>
@@ -7185,15 +7234,15 @@
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
       <c r="AA15" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK($Z15),"",VLOOKUP($Z15&amp;TEXT($B15,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AA$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($Z15),"",VLOOKUP($Z15&amp;"_"&amp;TEXT($B15,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AA$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="AB15" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK($Z15),"",VLOOKUP($Z15&amp;TEXT($B15,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AB$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($Z15),"",VLOOKUP($Z15&amp;"_"&amp;TEXT($B15,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AB$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="AC15" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK($Z15),"",VLOOKUP($Z15&amp;TEXT($B15,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AC$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($Z15),"",VLOOKUP($Z15&amp;"_"&amp;TEXT($B15,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AC$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="AD15" s="1"/>
@@ -7244,15 +7293,15 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK($L16),"",VLOOKUP($L16&amp;TEXT($B16,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(M$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($L16),"",VLOOKUP($L16&amp;"_"&amp;TEXT($B16,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(M$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
       <c r="N16" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK($L16),"",VLOOKUP($L16&amp;TEXT($B16,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(N$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($L16),"",VLOOKUP($L16&amp;"_"&amp;TEXT($B16,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(N$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
       <c r="O16" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK($L16),"",VLOOKUP($L16&amp;TEXT($B16,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(O$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
+        <f>IFERROR(IF(ISBLANK($L16),"",VLOOKUP($L16&amp;"_"&amp;TEXT($B16,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(O$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류 없음")</f>
         <v/>
       </c>
       <c r="P16" s="1"/>
@@ -7260,15 +7309,15 @@
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK($S16),"",VLOOKUP($S16&amp;TEXT($B16,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(T$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($S16),"",VLOOKUP($S16&amp;"_"&amp;TEXT($B16,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(T$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="U16" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK($S16),"",VLOOKUP($S16&amp;TEXT($B16,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(U$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($S16),"",VLOOKUP($S16&amp;"_"&amp;TEXT($B16,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(U$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="V16" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK($S16),"",VLOOKUP($S16&amp;TEXT($B16,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(V$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($S16),"",VLOOKUP($S16&amp;"_"&amp;TEXT($B16,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(V$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="W16" s="1"/>
@@ -7276,15 +7325,15 @@
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
       <c r="AA16" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK($Z16),"",VLOOKUP($Z16&amp;TEXT($B16,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AA$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($Z16),"",VLOOKUP($Z16&amp;"_"&amp;TEXT($B16,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AA$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="AB16" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK($Z16),"",VLOOKUP($Z16&amp;TEXT($B16,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AB$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($Z16),"",VLOOKUP($Z16&amp;"_"&amp;TEXT($B16,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AB$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="AC16" s="1" t="str">
-        <f>IFERROR(IF(ISBLANK($Z16),"",VLOOKUP($Z16&amp;TEXT($B16,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AC$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
+        <f>IFERROR(IF(ISBLANK($Z16),"",VLOOKUP($Z16&amp;"_"&amp;TEXT($B16,"00"),[1]AffectorValueLevelTable!$1:$1048576,MATCH(AC$1,[1]AffectorValueLevelTable!$1:$1,0),0)),"어펙터밸류레벨없음")</f>
         <v/>
       </c>
       <c r="AD16" s="1"/>
@@ -7293,9 +7342,9 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A1:AF1048576">
+  <conditionalFormatting sqref="A1:A1048576 C1:AF1048576">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>A1=A1048576</formula>
+      <formula>OFFSET(A1,-1,0)=A1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/작업Action.xlsx
+++ b/Excel/작업Action.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B82323ED-1DDB-42BD-AF93-1E9E5CCF07B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD8CE777-65B9-4CED-A1B2-D825A5A79550}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ActionTable" sheetId="1" r:id="rId1"/>
@@ -1788,7 +1788,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="137">
   <si>
     <t>Idle</t>
   </si>
@@ -2269,6 +2269,10 @@
   </si>
   <si>
     <t>Tortoise</t>
+  </si>
+  <si>
+    <t>MonsterBomb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2384,26 +2388,41 @@
         </row>
         <row r="3">
           <cell r="A3" t="str">
-            <v>CallInvincibleTortoise</v>
+            <v>KeepSeriesAttack</v>
           </cell>
         </row>
         <row r="4">
           <cell r="A4" t="str">
-            <v>InvincbleTortoise</v>
+            <v>BigBatSuccubusAttack</v>
           </cell>
         </row>
         <row r="5">
           <cell r="A5" t="str">
-            <v>TestPoison01</v>
+            <v>CallInvincibleTortoise</v>
           </cell>
         </row>
         <row r="6">
           <cell r="A6" t="str">
-            <v>LP_ChangeActorStatus010</v>
+            <v>InvincibleTortoise</v>
           </cell>
         </row>
         <row r="7">
           <cell r="A7" t="str">
+            <v>CountBarrier5Times</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>TestPoison01</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>LP_ChangeActorStatus010</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
             <v>LP_PiercingHitObject</v>
           </cell>
         </row>
@@ -2417,68 +2436,70 @@
             <v>affectorValueId|String</v>
           </cell>
           <cell r="C1" t="str">
+            <v>affectorValueId검증</v>
+          </cell>
+          <cell r="D1" t="str">
             <v>level|Int</v>
           </cell>
-          <cell r="D1" t="str">
+          <cell r="E1" t="str">
             <v>affectId참고</v>
           </cell>
-          <cell r="E1" t="str">
+          <cell r="F1" t="str">
             <v>어펙터설명참고</v>
           </cell>
-          <cell r="F1" t="str">
+          <cell r="G1" t="str">
             <v>conditionValueId|String!</v>
           </cell>
-          <cell r="G1" t="str">
+          <cell r="H1" t="str">
             <v>컨디션밸류4개검증</v>
           </cell>
-          <cell r="H1" t="str">
+          <cell r="I1" t="str">
             <v>fValue1|Float</v>
           </cell>
-          <cell r="I1" t="str">
+          <cell r="J1" t="str">
             <v>fValue2|Float</v>
           </cell>
-          <cell r="J1" t="str">
+          <cell r="K1" t="str">
             <v>fValue3|Float</v>
           </cell>
-          <cell r="K1" t="str">
+          <cell r="L1" t="str">
             <v>fValue4|Float</v>
           </cell>
-          <cell r="L1" t="str">
+          <cell r="M1" t="str">
             <v>iValue1|Int</v>
           </cell>
-          <cell r="M1" t="str">
+          <cell r="N1" t="str">
             <v>iValue2|Int</v>
           </cell>
-          <cell r="N1" t="str">
+          <cell r="O1" t="str">
             <v>iValue3|Int</v>
           </cell>
-          <cell r="O1" t="str">
+          <cell r="P1" t="str">
             <v>sValue1|String</v>
           </cell>
-          <cell r="P1" t="str">
+          <cell r="Q1" t="str">
             <v>sValue2|String</v>
           </cell>
-          <cell r="Q1" t="str">
+          <cell r="R1" t="str">
             <v>sValue3|String</v>
           </cell>
-          <cell r="R1" t="str">
+          <cell r="S1" t="str">
             <v>sValue4|String</v>
           </cell>
         </row>
         <row r="2">
-          <cell r="D2" t="str">
-            <v>InvincibleTortoise</v>
-          </cell>
           <cell r="E2" t="str">
-            <v>거북이 전용 컨티뉴어스 무적 어펙터</v>
-          </cell>
-          <cell r="H2" t="str">
+            <v>CountBarrier</v>
+          </cell>
+          <cell r="F2" t="str">
+            <v>횟수 보호막을 입는다</v>
+          </cell>
+          <cell r="G2"/>
+          <cell r="H2"/>
+          <cell r="I2" t="str">
             <v>지속시간
 무제한은 -1</v>
           </cell>
-          <cell r="I2" t="str">
-            <v/>
-          </cell>
           <cell r="J2" t="str">
             <v/>
           </cell>
@@ -2491,11 +2512,24 @@
           <cell r="M2" t="str">
             <v/>
           </cell>
+          <cell r="N2" t="str">
+            <v>지속횟수</v>
+          </cell>
           <cell r="O2" t="str">
-            <v>히트 시 시작되는 메카님스테이트</v>
+            <v/>
           </cell>
           <cell r="P2" t="str">
-            <v>끝날 때 복구하는 메카님스테이트</v>
+            <v/>
+          </cell>
+          <cell r="Q2" t="str">
+            <v/>
+          </cell>
+          <cell r="R2" t="str">
+            <v>루프 지속 및
+피격 변경 이펙트</v>
+          </cell>
+          <cell r="S2" t="str">
+            <v>추가 피격 이벤트 이펙트</v>
           </cell>
         </row>
         <row r="3">
@@ -2505,131 +2539,234 @@
           <cell r="B3" t="str">
             <v>NormalAttack01</v>
           </cell>
-          <cell r="C3">
+          <cell r="C3" t="str">
+            <v/>
+          </cell>
+          <cell r="D3">
             <v>1</v>
           </cell>
-          <cell r="D3" t="str">
+          <cell r="E3" t="str">
             <v>BaseDamage</v>
           </cell>
-          <cell r="G3" t="str">
+          <cell r="H3" t="str">
             <v/>
           </cell>
-          <cell r="H3">
+          <cell r="I3">
             <v>1</v>
           </cell>
         </row>
         <row r="4">
           <cell r="A4" t="str">
-            <v>CallInvincibleTortoise_01</v>
+            <v>KeepSeriesAttack_01</v>
           </cell>
           <cell r="B4" t="str">
-            <v>CallInvincibleTortoise</v>
-          </cell>
-          <cell r="C4">
+            <v>KeepSeriesAttack</v>
+          </cell>
+          <cell r="C4" t="str">
+            <v/>
+          </cell>
+          <cell r="D4">
             <v>1</v>
           </cell>
-          <cell r="D4" t="str">
-            <v>CallAffectorValue</v>
-          </cell>
-          <cell r="H4">
-            <v>-1</v>
-          </cell>
-          <cell r="L4">
-            <v>4</v>
-          </cell>
-          <cell r="P4" t="str">
-            <v>InvincbleTortoise</v>
+          <cell r="E4" t="str">
+            <v>BaseDamage</v>
+          </cell>
+          <cell r="H4" t="str">
+            <v/>
+          </cell>
+          <cell r="I4">
+            <v>0.45</v>
           </cell>
         </row>
         <row r="5">
           <cell r="A5" t="str">
-            <v>InvincbleTortoise_01</v>
+            <v>BigBatSuccubusAttack_01</v>
           </cell>
           <cell r="B5" t="str">
-            <v>InvincbleTortoise</v>
-          </cell>
-          <cell r="C5">
+            <v>BigBatSuccubusAttack</v>
+          </cell>
+          <cell r="C5" t="str">
+            <v/>
+          </cell>
+          <cell r="D5">
             <v>1</v>
           </cell>
-          <cell r="D5" t="str">
-            <v>InvincibleTortoise</v>
-          </cell>
-          <cell r="H5">
-            <v>3</v>
-          </cell>
-          <cell r="O5" t="str">
-            <v>GuardStart</v>
-          </cell>
-          <cell r="P5" t="str">
-            <v>GuardEnd</v>
+          <cell r="E5" t="str">
+            <v>BaseDamage</v>
+          </cell>
+          <cell r="H5" t="str">
+            <v/>
+          </cell>
+          <cell r="I5">
+            <v>0.3</v>
           </cell>
         </row>
         <row r="6">
           <cell r="A6" t="str">
-            <v>TestPoison01_01</v>
+            <v>CallInvincibleTortoise_01</v>
           </cell>
           <cell r="B6" t="str">
-            <v>TestPoison01</v>
-          </cell>
-          <cell r="C6">
+            <v>CallInvincibleTortoise</v>
+          </cell>
+          <cell r="C6" t="str">
+            <v/>
+          </cell>
+          <cell r="D6">
             <v>1</v>
           </cell>
-          <cell r="D6" t="str">
-            <v>DotDamage</v>
-          </cell>
-          <cell r="H6">
-            <v>5</v>
+          <cell r="E6" t="str">
+            <v>CallAffectorValue</v>
+          </cell>
+          <cell r="H6" t="str">
+            <v/>
           </cell>
           <cell r="I6">
-            <v>0.5</v>
-          </cell>
-          <cell r="J6">
-            <v>0.01</v>
+            <v>-1</v>
+          </cell>
+          <cell r="M6">
+            <v>4</v>
+          </cell>
+          <cell r="Q6" t="str">
+            <v>InvincibleTortoise</v>
           </cell>
         </row>
         <row r="7">
           <cell r="A7" t="str">
-            <v>LP_PiercingHitObject_01</v>
+            <v>InvincibleTortoise_01</v>
           </cell>
           <cell r="B7" t="str">
-            <v>LP_PiercingHitObject</v>
-          </cell>
-          <cell r="C7">
+            <v>InvincibleTortoise</v>
+          </cell>
+          <cell r="C7" t="str">
+            <v/>
+          </cell>
+          <cell r="D7">
             <v>1</v>
           </cell>
-          <cell r="D7" t="str">
-            <v>PiercingHitObject</v>
-          </cell>
-          <cell r="G7" t="str">
+          <cell r="E7" t="str">
+            <v>InvincibleTortoise</v>
+          </cell>
+          <cell r="H7" t="str">
             <v/>
           </cell>
-          <cell r="L7">
-            <v>1</v>
-          </cell>
-          <cell r="O7">
-            <v>0.9</v>
+          <cell r="I7">
+            <v>3</v>
+          </cell>
+          <cell r="P7" t="str">
+            <v>GuardStart</v>
+          </cell>
+          <cell r="Q7" t="str">
+            <v>GuardEnd</v>
           </cell>
         </row>
         <row r="8">
           <cell r="A8" t="str">
+            <v>CountBarrier5Times_01</v>
+          </cell>
+          <cell r="B8" t="str">
+            <v>CountBarrier5Times</v>
+          </cell>
+          <cell r="C8" t="str">
+            <v/>
+          </cell>
+          <cell r="D8">
+            <v>1</v>
+          </cell>
+          <cell r="E8" t="str">
+            <v>CountBarrier</v>
+          </cell>
+          <cell r="H8" t="str">
+            <v/>
+          </cell>
+          <cell r="I8">
+            <v>-1</v>
+          </cell>
+          <cell r="N8">
+            <v>5</v>
+          </cell>
+          <cell r="R8" t="str">
+            <v>Effect29_D</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>TestPoison01_01</v>
+          </cell>
+          <cell r="B9" t="str">
+            <v>TestPoison01</v>
+          </cell>
+          <cell r="C9" t="str">
+            <v/>
+          </cell>
+          <cell r="D9">
+            <v>1</v>
+          </cell>
+          <cell r="E9" t="str">
+            <v>DotDamage</v>
+          </cell>
+          <cell r="H9" t="str">
+            <v/>
+          </cell>
+          <cell r="I9">
+            <v>5</v>
+          </cell>
+          <cell r="J9">
+            <v>0.5</v>
+          </cell>
+          <cell r="K9">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>LP_PiercingHitObject_01</v>
+          </cell>
+          <cell r="B10" t="str">
+            <v>LP_PiercingHitObject</v>
+          </cell>
+          <cell r="C10" t="str">
+            <v/>
+          </cell>
+          <cell r="D10">
+            <v>1</v>
+          </cell>
+          <cell r="E10" t="str">
+            <v>PiercingHitObject</v>
+          </cell>
+          <cell r="H10" t="str">
+            <v/>
+          </cell>
+          <cell r="K10"/>
+          <cell r="M10">
+            <v>1</v>
+          </cell>
+          <cell r="P10">
+            <v>0.9</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
             <v>LP_PiercingHitObject_02</v>
           </cell>
-          <cell r="B8" t="str">
+          <cell r="B11" t="str">
             <v>LP_PiercingHitObject</v>
           </cell>
-          <cell r="C8">
+          <cell r="C11" t="str">
+            <v/>
+          </cell>
+          <cell r="D11">
             <v>2</v>
           </cell>
-          <cell r="D8" t="str">
+          <cell r="E11" t="str">
             <v>PiercingHitObject</v>
           </cell>
-          <cell r="G8" t="str">
+          <cell r="H11" t="str">
             <v/>
           </cell>
-          <cell r="L8">
+          <cell r="M11">
             <v>2</v>
           </cell>
-          <cell r="O8" t="str">
+          <cell r="P11" t="str">
             <v>0.95,0.9</v>
           </cell>
         </row>
@@ -3029,10 +3166,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T36"/>
+  <dimension ref="A1:U40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
@@ -3040,20 +3177,24 @@
   <cols>
     <col min="1" max="1" width="13.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.75" customWidth="1"/>
-    <col min="3" max="3" width="18.5" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.875" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="16.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="19.875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="24.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.625" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="14" width="14.25" customWidth="1" outlineLevel="1"/>
-    <col min="16" max="16" width="12.125" customWidth="1" outlineLevel="1"/>
-    <col min="17" max="18" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="20" max="20" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="11" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="13.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="9" collapsed="1"/>
+    <col min="14" max="14" width="14.25" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="9" collapsed="1"/>
+    <col min="16" max="16" width="12.125" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="18" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="19" width="9" collapsed="1"/>
+    <col min="20" max="20" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="21" width="9" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -4404,7 +4545,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>135</v>
       </c>
@@ -4484,8 +4625,16 @@
       <c r="H33">
         <v>0.1</v>
       </c>
+      <c r="J33" t="str">
+        <f>IF(ISBLANK(I33),"",IF(ISERROR(VLOOKUP(I33,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
+        <v/>
+      </c>
+      <c r="L33" t="str">
+        <f>IF(ISBLANK(K33),"",IF(ISERROR(VLOOKUP(K33,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
+        <v/>
+      </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>135</v>
       </c>
@@ -4510,8 +4659,16 @@
       <c r="H34">
         <v>0.1</v>
       </c>
+      <c r="J34" t="str">
+        <f>IF(ISBLANK(I34),"",IF(ISERROR(VLOOKUP(I34,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
+        <v/>
+      </c>
+      <c r="L34" t="str">
+        <f>IF(ISBLANK(K34),"",IF(ISERROR(VLOOKUP(K34,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
+        <v/>
+      </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>135</v>
       </c>
@@ -4533,8 +4690,16 @@
       <c r="H35">
         <v>0.05</v>
       </c>
+      <c r="J35" t="str">
+        <f>IF(ISBLANK(I35),"",IF(ISERROR(VLOOKUP(I35,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
+        <v/>
+      </c>
+      <c r="L35" t="str">
+        <f>IF(ISBLANK(K35),"",IF(ISERROR(VLOOKUP(K35,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
+        <v/>
+      </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>135</v>
       </c>
@@ -4558,6 +4723,202 @@
       </c>
       <c r="H36">
         <v>0.05</v>
+      </c>
+      <c r="J36" t="str">
+        <f>IF(ISBLANK(I36),"",IF(ISERROR(VLOOKUP(I36,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
+        <v/>
+      </c>
+      <c r="L36" t="str">
+        <f>IF(ISBLANK(K36),"",IF(ISERROR(VLOOKUP(K36,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>136</v>
+      </c>
+      <c r="B37" t="s">
+        <v>88</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" t="str">
+        <f t="shared" ref="D37:D40" ca="1" si="8">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C37,
+OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="F37" s="2" t="str">
+        <f t="shared" ref="F37:F40" ca="1" si="9">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(E37,
+OFFSET($A$1,1,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,3,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,5,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,7,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,9,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,11,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,13,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,15,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,17,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,19,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,21,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,23,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,25,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,27,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,29,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,31,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,33,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,35,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,37,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,39,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,41,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,43,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,45,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,47,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,49,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(E$1&amp;"_List",$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="G37" t="s">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>0.1</v>
+      </c>
+      <c r="J37" t="str">
+        <f>IF(ISBLANK(I37),"",IF(ISERROR(VLOOKUP(I37,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
+        <v/>
+      </c>
+      <c r="L37" t="str">
+        <f>IF(ISBLANK(K37),"",IF(ISERROR(VLOOKUP(K37,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>136</v>
+      </c>
+      <c r="B38" t="s">
+        <v>89</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="E38" t="s">
+        <v>120</v>
+      </c>
+      <c r="F38" s="2" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="G38" t="s">
+        <v>3</v>
+      </c>
+      <c r="H38">
+        <v>0.1</v>
+      </c>
+      <c r="J38" t="str">
+        <f>IF(ISBLANK(I38),"",IF(ISERROR(VLOOKUP(I38,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
+        <v/>
+      </c>
+      <c r="L38" t="str">
+        <f>IF(ISBLANK(K38),"",IF(ISERROR(VLOOKUP(K38,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>136</v>
+      </c>
+      <c r="B39" t="s">
+        <v>90</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="F39" s="2" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="G39" t="s">
+        <v>91</v>
+      </c>
+      <c r="H39">
+        <v>0.05</v>
+      </c>
+      <c r="J39" t="str">
+        <f>IF(ISBLANK(I39),"",IF(ISERROR(VLOOKUP(I39,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
+        <v/>
+      </c>
+      <c r="L39" t="str">
+        <f>IF(ISBLANK(K39),"",IF(ISERROR(VLOOKUP(K39,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>136</v>
+      </c>
+      <c r="B40" t="s">
+        <v>120</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="E40" t="s">
+        <v>120</v>
+      </c>
+      <c r="F40" s="2" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="G40" t="s">
+        <v>53</v>
+      </c>
+      <c r="H40">
+        <v>0.05</v>
+      </c>
+      <c r="J40" t="str">
+        <f>IF(ISBLANK(I40),"",IF(ISERROR(VLOOKUP(I40,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
+        <v/>
+      </c>
+      <c r="L40" t="str">
+        <f>IF(ISBLANK(K40),"",IF(ISERROR(VLOOKUP(K40,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -4567,7 +4928,7 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="E2:E36 C2:C36" xr:uid="{9089C6B6-A03B-469A-BC47-88308B12ED20}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="E2:E40 C2:C40" xr:uid="{9089C6B6-A03B-469A-BC47-88308B12ED20}">
       <formula1>OFFSET(INDIRECT("$A$1"),1,MATCH(C$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1,COUNTA(OFFSET(INDIRECT("$A:$A"),0,MATCH(C$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1))-1,1)</formula1>
     </dataValidation>
   </dataValidations>
@@ -4580,7 +4941,7 @@
           <x14:formula1>
             <xm:f>OFFSET(SkillTable!$A$1,1,0,COUNTA(SkillTable!$A:$A)-1,1)</xm:f>
           </x14:formula1>
-          <xm:sqref>K2:K32</xm:sqref>
+          <xm:sqref>K2:K40</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E98A69ED-ACB1-4726-AFB2-FA695D9C95A0}">
           <x14:formula1>
@@ -5821,7 +6182,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AF16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>

--- a/Excel/작업Action.xlsx
+++ b/Excel/작업Action.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD8CE777-65B9-4CED-A1B2-D825A5A79550}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DDC028A-D6EC-479D-8A01-B0838BFF451E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ActionTable" sheetId="1" r:id="rId1"/>
@@ -1788,7 +1788,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="138">
   <si>
     <t>Idle</t>
   </si>
@@ -2272,6 +2272,10 @@
   </si>
   <si>
     <t>MonsterBomb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NinjaAssassin</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3166,11 +3170,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U40"/>
+  <dimension ref="A1:U44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A37" sqref="A37"/>
+      <selection pane="bottomLeft" activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -4921,6 +4925,194 @@
         <v/>
       </c>
     </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>137</v>
+      </c>
+      <c r="B41" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" t="str">
+        <f t="shared" ref="D41:D44" ca="1" si="10">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C41,
+OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="F41" s="2" t="str">
+        <f t="shared" ref="F41:F44" ca="1" si="11">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(E41,
+OFFSET($A$1,1,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,3,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,5,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,7,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,9,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,11,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,13,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,15,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,17,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,19,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,21,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,23,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,25,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,27,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,29,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,31,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,33,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,35,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,37,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,39,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,41,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,43,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,45,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,47,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,49,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(E$1&amp;"_List",$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="G41" t="s">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>0.1</v>
+      </c>
+      <c r="J41" t="str">
+        <f>IF(ISBLANK(I41),"",IF(ISERROR(VLOOKUP(I41,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
+        <v/>
+      </c>
+      <c r="L41" t="str">
+        <f>IF(ISBLANK(K41),"",IF(ISERROR(VLOOKUP(K41,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>137</v>
+      </c>
+      <c r="B42" t="s">
+        <v>89</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="E42" t="s">
+        <v>120</v>
+      </c>
+      <c r="F42" s="2" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="G42" t="s">
+        <v>3</v>
+      </c>
+      <c r="H42">
+        <v>0.1</v>
+      </c>
+      <c r="J42" t="str">
+        <f>IF(ISBLANK(I42),"",IF(ISERROR(VLOOKUP(I42,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
+        <v/>
+      </c>
+      <c r="L42" t="str">
+        <f>IF(ISBLANK(K42),"",IF(ISERROR(VLOOKUP(K42,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>137</v>
+      </c>
+      <c r="B43" t="s">
+        <v>90</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="F43" s="2" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="G43" t="s">
+        <v>91</v>
+      </c>
+      <c r="H43">
+        <v>0.05</v>
+      </c>
+      <c r="J43" t="str">
+        <f>IF(ISBLANK(I43),"",IF(ISERROR(VLOOKUP(I43,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
+        <v/>
+      </c>
+      <c r="L43" t="str">
+        <f>IF(ISBLANK(K43),"",IF(ISERROR(VLOOKUP(K43,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>137</v>
+      </c>
+      <c r="B44" t="s">
+        <v>120</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="E44" t="s">
+        <v>120</v>
+      </c>
+      <c r="F44" s="2" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="G44" t="s">
+        <v>53</v>
+      </c>
+      <c r="H44">
+        <v>0.05</v>
+      </c>
+      <c r="J44" t="str">
+        <f>IF(ISBLANK(I44),"",IF(ISERROR(VLOOKUP(I44,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
+        <v/>
+      </c>
+      <c r="L44" t="str">
+        <f>IF(ISBLANK(K44),"",IF(ISERROR(VLOOKUP(K44,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="P2:R6">
     <sortCondition descending="1" ref="R2:R6"/>
@@ -4928,7 +5120,7 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="E2:E40 C2:C40" xr:uid="{9089C6B6-A03B-469A-BC47-88308B12ED20}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="E2:E44 C2:C44" xr:uid="{9089C6B6-A03B-469A-BC47-88308B12ED20}">
       <formula1>OFFSET(INDIRECT("$A$1"),1,MATCH(C$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1,COUNTA(OFFSET(INDIRECT("$A:$A"),0,MATCH(C$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1))-1,1)</formula1>
     </dataValidation>
   </dataValidations>
@@ -4941,7 +5133,7 @@
           <x14:formula1>
             <xm:f>OFFSET(SkillTable!$A$1,1,0,COUNTA(SkillTable!$A:$A)-1,1)</xm:f>
           </x14:formula1>
-          <xm:sqref>K2:K40</xm:sqref>
+          <xm:sqref>K2:K44</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E98A69ED-ACB1-4726-AFB2-FA695D9C95A0}">
           <x14:formula1>

--- a/Excel/작업Action.xlsx
+++ b/Excel/작업Action.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DDC028A-D6EC-479D-8A01-B0838BFF451E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1688B8A6-436D-4EF0-9B79-332FA6F26963}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1788,7 +1788,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="139">
   <si>
     <t>Idle</t>
   </si>
@@ -2276,6 +2276,10 @@
   </si>
   <si>
     <t>NinjaAssassin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Actor004</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2392,12 +2396,12 @@
         </row>
         <row r="3">
           <cell r="A3" t="str">
-            <v>KeepSeriesAttack</v>
+            <v>NormalAttackKeepSeries</v>
           </cell>
         </row>
         <row r="4">
           <cell r="A4" t="str">
-            <v>BigBatSuccubusAttack</v>
+            <v>NormalAttackBigBatSuccubus</v>
           </cell>
         </row>
         <row r="5">
@@ -2417,16 +2421,26 @@
         </row>
         <row r="8">
           <cell r="A8" t="str">
-            <v>TestPoison01</v>
+            <v>CallBurrowNinjaAssassin</v>
           </cell>
         </row>
         <row r="9">
           <cell r="A9" t="str">
-            <v>LP_ChangeActorStatus010</v>
+            <v>BurrowNinjaAssassin</v>
           </cell>
         </row>
         <row r="10">
           <cell r="A10" t="str">
+            <v>TestPoison01</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>LP_ChangeActorStatus010</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
             <v>LP_PiercingHitObject</v>
           </cell>
         </row>
@@ -2493,47 +2507,46 @@
         </row>
         <row r="2">
           <cell r="E2" t="str">
-            <v>CountBarrier</v>
+            <v>BurrowNinjaAssassin</v>
           </cell>
           <cell r="F2" t="str">
-            <v>횟수 보호막을 입는다</v>
+            <v>닌자어쌔신 전용 컨티뉴어스 버로우 어펙터</v>
           </cell>
           <cell r="G2"/>
           <cell r="H2"/>
           <cell r="I2" t="str">
-            <v>지속시간
-무제한은 -1</v>
+            <v>버로우 공격의 어택 딜레이</v>
           </cell>
           <cell r="J2" t="str">
             <v/>
           </cell>
           <cell r="K2" t="str">
-            <v/>
+            <v>버로우 공격 전 최초 대기</v>
           </cell>
           <cell r="L2" t="str">
-            <v/>
+            <v>버로우 공격 후 최종 대기</v>
           </cell>
           <cell r="M2" t="str">
             <v/>
           </cell>
           <cell r="N2" t="str">
-            <v>지속횟수</v>
+            <v>버로우 시
+공격횟수</v>
           </cell>
           <cell r="O2" t="str">
             <v/>
           </cell>
           <cell r="P2" t="str">
-            <v/>
+            <v>히트 시 시작되는 StateName</v>
           </cell>
           <cell r="Q2" t="str">
-            <v/>
+            <v>끝날 때 복구하는 StateName</v>
           </cell>
           <cell r="R2" t="str">
-            <v>루프 지속 및
-피격 변경 이펙트</v>
+            <v>버로우 스크롤 오브젝트</v>
           </cell>
           <cell r="S2" t="str">
-            <v>추가 피격 이벤트 이펙트</v>
+            <v>버로우 공격의 StateName</v>
           </cell>
         </row>
         <row r="3">
@@ -2561,10 +2574,10 @@
         </row>
         <row r="4">
           <cell r="A4" t="str">
-            <v>KeepSeriesAttack_01</v>
+            <v>NormalAttackKeepSeries_01</v>
           </cell>
           <cell r="B4" t="str">
-            <v>KeepSeriesAttack</v>
+            <v>NormalAttackKeepSeries</v>
           </cell>
           <cell r="C4" t="str">
             <v/>
@@ -2584,10 +2597,10 @@
         </row>
         <row r="5">
           <cell r="A5" t="str">
-            <v>BigBatSuccubusAttack_01</v>
+            <v>NormalAttackBigBatSuccubus_01</v>
           </cell>
           <cell r="B5" t="str">
-            <v>BigBatSuccubusAttack</v>
+            <v>NormalAttackBigBatSuccubus</v>
           </cell>
           <cell r="C5" t="str">
             <v/>
@@ -2694,10 +2707,10 @@
         </row>
         <row r="9">
           <cell r="A9" t="str">
-            <v>TestPoison01_01</v>
+            <v>CallBurrowNinjaAssassin_01</v>
           </cell>
           <cell r="B9" t="str">
-            <v>TestPoison01</v>
+            <v>CallBurrowNinjaAssassin</v>
           </cell>
           <cell r="C9" t="str">
             <v/>
@@ -2706,27 +2719,27 @@
             <v>1</v>
           </cell>
           <cell r="E9" t="str">
-            <v>DotDamage</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H9" t="str">
             <v/>
           </cell>
           <cell r="I9">
-            <v>5</v>
-          </cell>
-          <cell r="J9">
-            <v>0.5</v>
-          </cell>
-          <cell r="K9">
-            <v>0.01</v>
+            <v>-1</v>
+          </cell>
+          <cell r="M9">
+            <v>4</v>
+          </cell>
+          <cell r="Q9" t="str">
+            <v>BurrowNinjaAssassin</v>
           </cell>
         </row>
         <row r="10">
           <cell r="A10" t="str">
-            <v>LP_PiercingHitObject_01</v>
+            <v>BurrowNinjaAssassin_01</v>
           </cell>
           <cell r="B10" t="str">
-            <v>LP_PiercingHitObject</v>
+            <v>BurrowNinjaAssassin</v>
           </cell>
           <cell r="C10" t="str">
             <v/>
@@ -2735,42 +2748,115 @@
             <v>1</v>
           </cell>
           <cell r="E10" t="str">
-            <v>PiercingHitObject</v>
+            <v>BurrowNinjaAssassin</v>
           </cell>
           <cell r="H10" t="str">
             <v/>
           </cell>
-          <cell r="K10"/>
-          <cell r="M10">
+          <cell r="I10">
+            <v>3</v>
+          </cell>
+          <cell r="K10">
+            <v>0.5</v>
+          </cell>
+          <cell r="L10">
             <v>1</v>
           </cell>
-          <cell r="P10">
-            <v>0.9</v>
+          <cell r="N10">
+            <v>2</v>
+          </cell>
+          <cell r="P10" t="str">
+            <v>BurrowStart</v>
+          </cell>
+          <cell r="Q10" t="str">
+            <v>BurrowEnd</v>
+          </cell>
+          <cell r="R10" t="str">
+            <v>BurrowScrollObject</v>
+          </cell>
+          <cell r="S10" t="str">
+            <v>BurrowAttack</v>
           </cell>
         </row>
         <row r="11">
           <cell r="A11" t="str">
-            <v>LP_PiercingHitObject_02</v>
+            <v>TestPoison01_01</v>
           </cell>
           <cell r="B11" t="str">
-            <v>LP_PiercingHitObject</v>
+            <v>TestPoison01</v>
           </cell>
           <cell r="C11" t="str">
             <v/>
           </cell>
           <cell r="D11">
-            <v>2</v>
+            <v>1</v>
           </cell>
           <cell r="E11" t="str">
-            <v>PiercingHitObject</v>
+            <v>DotDamage</v>
           </cell>
           <cell r="H11" t="str">
             <v/>
           </cell>
-          <cell r="M11">
+          <cell r="I11">
+            <v>5</v>
+          </cell>
+          <cell r="J11">
+            <v>0.5</v>
+          </cell>
+          <cell r="K11">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>LP_PiercingHitObject_01</v>
+          </cell>
+          <cell r="B12" t="str">
+            <v>LP_PiercingHitObject</v>
+          </cell>
+          <cell r="C12" t="str">
+            <v/>
+          </cell>
+          <cell r="D12">
+            <v>1</v>
+          </cell>
+          <cell r="E12" t="str">
+            <v>PiercingHitObject</v>
+          </cell>
+          <cell r="H12" t="str">
+            <v/>
+          </cell>
+          <cell r="K12"/>
+          <cell r="M12">
+            <v>1</v>
+          </cell>
+          <cell r="P12">
+            <v>0.9</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>LP_PiercingHitObject_02</v>
+          </cell>
+          <cell r="B13" t="str">
+            <v>LP_PiercingHitObject</v>
+          </cell>
+          <cell r="C13" t="str">
+            <v/>
+          </cell>
+          <cell r="D13">
             <v>2</v>
           </cell>
-          <cell r="P11" t="str">
+          <cell r="E13" t="str">
+            <v>PiercingHitObject</v>
+          </cell>
+          <cell r="H13" t="str">
+            <v/>
+          </cell>
+          <cell r="M13">
+            <v>2</v>
+          </cell>
+          <cell r="P13" t="str">
             <v>0.95,0.9</v>
           </cell>
         </row>
@@ -3170,11 +3256,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U44"/>
+  <dimension ref="A1:U49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A45" sqref="A45"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -3285,7 +3371,7 @@
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="str">
-        <f t="shared" ref="D2:D28" ca="1" si="0">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+        <f t="shared" ref="D2:D33" ca="1" si="0">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
@@ -3318,7 +3404,7 @@
         <v/>
       </c>
       <c r="F2" s="2" t="str">
-        <f t="shared" ref="F2:F28" ca="1" si="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+        <f t="shared" ref="F2:F33" ca="1" si="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
@@ -3973,408 +4059,18 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>87</v>
+        <v>138</v>
       </c>
       <c r="B17" t="s">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="F17" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="G17" t="s">
-        <v>1</v>
-      </c>
-      <c r="H17">
-        <v>0.1</v>
-      </c>
-      <c r="J17" t="str">
-        <f>IF(ISBLANK(I17),"",IF(ISERROR(VLOOKUP(I17,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
-        <v/>
-      </c>
-      <c r="L17" t="str">
-        <f>IF(ISBLANK(K17),"",IF(ISERROR(VLOOKUP(K17,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>87</v>
-      </c>
-      <c r="B18" t="s">
-        <v>89</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="E18" t="s">
-        <v>120</v>
-      </c>
-      <c r="F18" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="G18" t="s">
-        <v>3</v>
-      </c>
-      <c r="H18">
-        <v>0.1</v>
-      </c>
-      <c r="J18" t="str">
-        <f>IF(ISBLANK(I18),"",IF(ISERROR(VLOOKUP(I18,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
-        <v/>
-      </c>
-      <c r="L18" t="str">
-        <f>IF(ISBLANK(K18),"",IF(ISERROR(VLOOKUP(K18,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>87</v>
-      </c>
-      <c r="B19" t="s">
-        <v>90</v>
-      </c>
-      <c r="C19" s="2"/>
-      <c r="D19" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="F19" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="G19" t="s">
-        <v>91</v>
-      </c>
-      <c r="H19">
-        <v>0.05</v>
-      </c>
-      <c r="J19" t="str">
-        <f>IF(ISBLANK(I19),"",IF(ISERROR(VLOOKUP(I19,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
-        <v/>
-      </c>
-      <c r="L19" t="str">
-        <f>IF(ISBLANK(K19),"",IF(ISERROR(VLOOKUP(K19,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>87</v>
-      </c>
-      <c r="B20" t="s">
-        <v>120</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="E20" t="s">
-        <v>120</v>
-      </c>
-      <c r="F20" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="G20" t="s">
-        <v>53</v>
-      </c>
-      <c r="H20">
-        <v>0.05</v>
-      </c>
-      <c r="J20" t="str">
-        <f>IF(ISBLANK(I20),"",IF(ISERROR(VLOOKUP(I20,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
-        <v/>
-      </c>
-      <c r="L20" t="str">
-        <f>IF(ISBLANK(K20),"",IF(ISERROR(VLOOKUP(K20,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>121</v>
-      </c>
-      <c r="B21" t="s">
-        <v>88</v>
-      </c>
-      <c r="C21" s="2"/>
-      <c r="D21" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="F21" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="G21" t="s">
-        <v>1</v>
-      </c>
-      <c r="H21">
-        <v>0.1</v>
-      </c>
-      <c r="J21" t="str">
-        <f>IF(ISBLANK(I21),"",IF(ISERROR(VLOOKUP(I21,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
-        <v/>
-      </c>
-      <c r="L21" t="str">
-        <f>IF(ISBLANK(K21),"",IF(ISERROR(VLOOKUP(K21,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>121</v>
-      </c>
-      <c r="B22" t="s">
-        <v>89</v>
-      </c>
-      <c r="C22" s="2"/>
-      <c r="D22" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="E22" t="s">
-        <v>120</v>
-      </c>
-      <c r="F22" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="G22" t="s">
-        <v>3</v>
-      </c>
-      <c r="H22">
-        <v>0.1</v>
-      </c>
-      <c r="J22" t="str">
-        <f>IF(ISBLANK(I22),"",IF(ISERROR(VLOOKUP(I22,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
-        <v/>
-      </c>
-      <c r="L22" t="str">
-        <f>IF(ISBLANK(K22),"",IF(ISERROR(VLOOKUP(K22,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>121</v>
-      </c>
-      <c r="B23" t="s">
-        <v>90</v>
-      </c>
-      <c r="C23" s="2"/>
-      <c r="D23" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="F23" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="G23" t="s">
-        <v>91</v>
-      </c>
-      <c r="H23">
-        <v>0.05</v>
-      </c>
-      <c r="J23" t="str">
-        <f>IF(ISBLANK(I23),"",IF(ISERROR(VLOOKUP(I23,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
-        <v/>
-      </c>
-      <c r="L23" t="str">
-        <f>IF(ISBLANK(K23),"",IF(ISERROR(VLOOKUP(K23,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>121</v>
-      </c>
-      <c r="B24" t="s">
-        <v>120</v>
-      </c>
-      <c r="C24" s="2"/>
-      <c r="D24" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="E24" t="s">
-        <v>120</v>
-      </c>
-      <c r="F24" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="G24" t="s">
-        <v>53</v>
-      </c>
-      <c r="H24">
-        <v>0.05</v>
-      </c>
-      <c r="J24" t="str">
-        <f>IF(ISBLANK(I24),"",IF(ISERROR(VLOOKUP(I24,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
-        <v/>
-      </c>
-      <c r="L24" t="str">
-        <f>IF(ISBLANK(K24),"",IF(ISERROR(VLOOKUP(K24,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>122</v>
-      </c>
-      <c r="B25" t="s">
-        <v>88</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="F25" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="G25" t="s">
-        <v>1</v>
-      </c>
-      <c r="H25">
-        <v>0.1</v>
-      </c>
-      <c r="J25" t="str">
-        <f>IF(ISBLANK(I25),"",IF(ISERROR(VLOOKUP(I25,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
-        <v/>
-      </c>
-      <c r="L25" t="str">
-        <f>IF(ISBLANK(K25),"",IF(ISERROR(VLOOKUP(K25,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>122</v>
-      </c>
-      <c r="B26" t="s">
-        <v>89</v>
-      </c>
-      <c r="C26" s="2"/>
-      <c r="D26" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="E26" t="s">
-        <v>120</v>
-      </c>
-      <c r="F26" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="G26" t="s">
-        <v>3</v>
-      </c>
-      <c r="H26">
-        <v>0.1</v>
-      </c>
-      <c r="J26" t="str">
-        <f>IF(ISBLANK(I26),"",IF(ISERROR(VLOOKUP(I26,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
-        <v/>
-      </c>
-      <c r="L26" t="str">
-        <f>IF(ISBLANK(K26),"",IF(ISERROR(VLOOKUP(K26,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>122</v>
-      </c>
-      <c r="B27" t="s">
-        <v>90</v>
-      </c>
-      <c r="C27" s="2"/>
-      <c r="D27" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="F27" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="G27" t="s">
-        <v>91</v>
-      </c>
-      <c r="H27">
-        <v>0.05</v>
-      </c>
-      <c r="J27" t="str">
-        <f>IF(ISBLANK(I27),"",IF(ISERROR(VLOOKUP(I27,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
-        <v/>
-      </c>
-      <c r="L27" t="str">
-        <f>IF(ISBLANK(K27),"",IF(ISERROR(VLOOKUP(K27,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>122</v>
-      </c>
-      <c r="B28" t="s">
-        <v>120</v>
-      </c>
-      <c r="C28" s="2"/>
-      <c r="D28" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="E28" t="s">
-        <v>120</v>
-      </c>
-      <c r="F28" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="G28" t="s">
-        <v>53</v>
-      </c>
-      <c r="H28">
-        <v>0.05</v>
-      </c>
-      <c r="J28" t="str">
-        <f>IF(ISBLANK(I28),"",IF(ISERROR(VLOOKUP(I28,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
-        <v/>
-      </c>
-      <c r="L28" t="str">
-        <f>IF(ISBLANK(K28),"",IF(ISERROR(VLOOKUP(K28,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>133</v>
-      </c>
-      <c r="B29" t="s">
-        <v>88</v>
-      </c>
-      <c r="C29" s="2"/>
-      <c r="D29" t="str">
-        <f t="shared" ref="D29:D32" ca="1" si="4">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+        <f t="shared" ref="D17:D21" ca="1" si="4">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C29,
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C17,
 OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
 OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
 OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
@@ -4402,12 +4098,12 @@
 OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
         <v/>
       </c>
-      <c r="F29" s="2" t="str">
-        <f t="shared" ref="F29:F32" ca="1" si="5">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+      <c r="F17" s="2" t="str">
+        <f t="shared" ref="F17:F21" ca="1" si="5">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(E29,
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(E17,
 OFFSET($A$1,1,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(E$1&amp;"_List",$1:$1,0))),
 OFFSET($A$1,3,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(E$1&amp;"_List",$1:$1,0))),
 OFFSET($A$1,5,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(E$1&amp;"_List",$1:$1,0))),
@@ -4435,11 +4131,410 @@
 OFFSET($A$1,49,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(E$1&amp;"_List",$1:$1,0)))</f>
         <v/>
       </c>
+      <c r="G17" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>0.1</v>
+      </c>
+      <c r="J17" t="str">
+        <f>IF(ISBLANK(I17),"",IF(ISERROR(VLOOKUP(I17,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
+        <v/>
+      </c>
+      <c r="L17" t="str">
+        <f>IF(ISBLANK(K17),"",IF(ISERROR(VLOOKUP(K17,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>138</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="E18" t="s">
+        <v>130</v>
+      </c>
+      <c r="F18" s="2" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="G18" t="s">
+        <v>3</v>
+      </c>
+      <c r="H18">
+        <v>0.1</v>
+      </c>
+      <c r="J18" t="str">
+        <f>IF(ISBLANK(I18),"",IF(ISERROR(VLOOKUP(I18,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
+        <v/>
+      </c>
+      <c r="L18" t="str">
+        <f>IF(ISBLANK(K18),"",IF(ISERROR(VLOOKUP(K18,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>138</v>
+      </c>
+      <c r="B19" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="F19" s="2" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="G19" t="s">
+        <v>91</v>
+      </c>
+      <c r="H19">
+        <v>0.05</v>
+      </c>
+      <c r="J19" t="str">
+        <f>IF(ISBLANK(I19),"",IF(ISERROR(VLOOKUP(I19,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
+        <v/>
+      </c>
+      <c r="L19" t="str">
+        <f>IF(ISBLANK(K19),"",IF(ISERROR(VLOOKUP(K19,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>138</v>
+      </c>
+      <c r="B20" t="s">
+        <v>120</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="E20" t="s">
+        <v>132</v>
+      </c>
+      <c r="F20" s="2" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>3, 5</v>
+      </c>
+      <c r="G20" t="s">
+        <v>53</v>
+      </c>
+      <c r="H20">
+        <v>0.05</v>
+      </c>
+      <c r="I20" t="s">
+        <v>4</v>
+      </c>
+      <c r="J20" t="str">
+        <f>IF(ISBLANK(I20),"",IF(ISERROR(VLOOKUP(I20,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
+        <v/>
+      </c>
+      <c r="L20" t="str">
+        <f>IF(ISBLANK(K20),"",IF(ISERROR(VLOOKUP(K20,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>138</v>
+      </c>
+      <c r="B21" t="s">
+        <v>130</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="E21" t="s">
+        <v>130</v>
+      </c>
+      <c r="F21" s="2" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="G21" t="s">
+        <v>128</v>
+      </c>
+      <c r="H21">
+        <v>0.05</v>
+      </c>
+      <c r="I21" t="s">
+        <v>129</v>
+      </c>
+      <c r="J21" t="str">
+        <f>IF(ISBLANK(I21),"",IF(ISERROR(VLOOKUP(I21,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
+        <v/>
+      </c>
+      <c r="L21" t="str">
+        <f>IF(ISBLANK(K21),"",IF(ISERROR(VLOOKUP(K21,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>87</v>
+      </c>
+      <c r="B22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="F22" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="G22" t="s">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>0.1</v>
+      </c>
+      <c r="J22" t="str">
+        <f>IF(ISBLANK(I22),"",IF(ISERROR(VLOOKUP(I22,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
+        <v/>
+      </c>
+      <c r="L22" t="str">
+        <f>IF(ISBLANK(K22),"",IF(ISERROR(VLOOKUP(K22,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>87</v>
+      </c>
+      <c r="B23" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="E23" t="s">
+        <v>120</v>
+      </c>
+      <c r="F23" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G23" t="s">
+        <v>3</v>
+      </c>
+      <c r="H23">
+        <v>0.1</v>
+      </c>
+      <c r="J23" t="str">
+        <f>IF(ISBLANK(I23),"",IF(ISERROR(VLOOKUP(I23,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
+        <v/>
+      </c>
+      <c r="L23" t="str">
+        <f>IF(ISBLANK(K23),"",IF(ISERROR(VLOOKUP(K23,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>87</v>
+      </c>
+      <c r="B24" t="s">
+        <v>90</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="F24" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="G24" t="s">
+        <v>91</v>
+      </c>
+      <c r="H24">
+        <v>0.05</v>
+      </c>
+      <c r="J24" t="str">
+        <f>IF(ISBLANK(I24),"",IF(ISERROR(VLOOKUP(I24,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
+        <v/>
+      </c>
+      <c r="L24" t="str">
+        <f>IF(ISBLANK(K24),"",IF(ISERROR(VLOOKUP(K24,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>87</v>
+      </c>
+      <c r="B25" t="s">
+        <v>120</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="E25" t="s">
+        <v>120</v>
+      </c>
+      <c r="F25" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G25" t="s">
+        <v>53</v>
+      </c>
+      <c r="H25">
+        <v>0.05</v>
+      </c>
+      <c r="J25" t="str">
+        <f>IF(ISBLANK(I25),"",IF(ISERROR(VLOOKUP(I25,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
+        <v/>
+      </c>
+      <c r="L25" t="str">
+        <f>IF(ISBLANK(K25),"",IF(ISERROR(VLOOKUP(K25,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>121</v>
+      </c>
+      <c r="B26" t="s">
+        <v>88</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="F26" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="G26" t="s">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>0.1</v>
+      </c>
+      <c r="J26" t="str">
+        <f>IF(ISBLANK(I26),"",IF(ISERROR(VLOOKUP(I26,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
+        <v/>
+      </c>
+      <c r="L26" t="str">
+        <f>IF(ISBLANK(K26),"",IF(ISERROR(VLOOKUP(K26,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>121</v>
+      </c>
+      <c r="B27" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="E27" t="s">
+        <v>120</v>
+      </c>
+      <c r="F27" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G27" t="s">
+        <v>3</v>
+      </c>
+      <c r="H27">
+        <v>0.1</v>
+      </c>
+      <c r="J27" t="str">
+        <f>IF(ISBLANK(I27),"",IF(ISERROR(VLOOKUP(I27,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
+        <v/>
+      </c>
+      <c r="L27" t="str">
+        <f>IF(ISBLANK(K27),"",IF(ISERROR(VLOOKUP(K27,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>121</v>
+      </c>
+      <c r="B28" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="F28" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="G28" t="s">
+        <v>91</v>
+      </c>
+      <c r="H28">
+        <v>0.05</v>
+      </c>
+      <c r="J28" t="str">
+        <f>IF(ISBLANK(I28),"",IF(ISERROR(VLOOKUP(I28,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
+        <v/>
+      </c>
+      <c r="L28" t="str">
+        <f>IF(ISBLANK(K28),"",IF(ISERROR(VLOOKUP(K28,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>121</v>
+      </c>
+      <c r="B29" t="s">
+        <v>120</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="E29" t="s">
+        <v>120</v>
+      </c>
+      <c r="F29" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
       <c r="G29" t="s">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="H29">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="J29" t="str">
         <f>IF(ISBLANK(I29),"",IF(ISERROR(VLOOKUP(I29,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -4452,25 +4547,22 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="B30" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="E30" t="s">
-        <v>120</v>
+        <f t="shared" ca="1" si="0"/>
+        <v/>
       </c>
       <c r="F30" s="2" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="1"/>
+        <v/>
       </c>
       <c r="G30" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H30">
         <v>0.1</v>
@@ -4486,25 +4578,28 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="B31" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="E31" t="s">
+        <v>120</v>
       </c>
       <c r="F31" s="2" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
       </c>
       <c r="G31" t="s">
-        <v>91</v>
+        <v>3</v>
       </c>
       <c r="H31">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="J31" t="str">
         <f>IF(ISBLANK(I31),"",IF(ISERROR(VLOOKUP(I31,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -4517,25 +4612,22 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="B32" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="E32" t="s">
-        <v>120</v>
+        <f t="shared" ca="1" si="0"/>
+        <v/>
       </c>
       <c r="F32" s="2" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="1"/>
+        <v/>
       </c>
       <c r="G32" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="H32">
         <v>0.05</v>
@@ -4551,18 +4643,52 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="B33" t="s">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="str">
-        <f t="shared" ref="D33:D36" ca="1" si="6">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="E33" t="s">
+        <v>120</v>
+      </c>
+      <c r="F33" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G33" t="s">
+        <v>53</v>
+      </c>
+      <c r="H33">
+        <v>0.05</v>
+      </c>
+      <c r="J33" t="str">
+        <f>IF(ISBLANK(I33),"",IF(ISERROR(VLOOKUP(I33,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
+        <v/>
+      </c>
+      <c r="L33" t="str">
+        <f>IF(ISBLANK(K33),"",IF(ISERROR(VLOOKUP(K33,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>133</v>
+      </c>
+      <c r="B34" t="s">
+        <v>88</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" t="str">
+        <f t="shared" ref="D34:D37" ca="1" si="6">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C33,
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C34,
 OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
 OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
 OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
@@ -4590,12 +4716,12 @@
 OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
         <v/>
       </c>
-      <c r="F33" s="2" t="str">
-        <f t="shared" ref="F33:F36" ca="1" si="7">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+      <c r="F34" s="2" t="str">
+        <f t="shared" ref="F34:F37" ca="1" si="7">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(E33,
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(E34,
 OFFSET($A$1,1,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(E$1&amp;"_List",$1:$1,0))),
 OFFSET($A$1,3,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(E$1&amp;"_List",$1:$1,0))),
 OFFSET($A$1,5,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(E$1&amp;"_List",$1:$1,0))),
@@ -4623,42 +4749,8 @@
 OFFSET($A$1,49,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(E$1&amp;"_List",$1:$1,0)))</f>
         <v/>
       </c>
-      <c r="G33" t="s">
+      <c r="G34" t="s">
         <v>1</v>
-      </c>
-      <c r="H33">
-        <v>0.1</v>
-      </c>
-      <c r="J33" t="str">
-        <f>IF(ISBLANK(I33),"",IF(ISERROR(VLOOKUP(I33,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
-        <v/>
-      </c>
-      <c r="L33" t="str">
-        <f>IF(ISBLANK(K33),"",IF(ISERROR(VLOOKUP(K33,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>135</v>
-      </c>
-      <c r="B34" t="s">
-        <v>89</v>
-      </c>
-      <c r="C34" s="2"/>
-      <c r="D34" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="E34" t="s">
-        <v>120</v>
-      </c>
-      <c r="F34" s="2" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="G34" t="s">
-        <v>3</v>
       </c>
       <c r="H34">
         <v>0.1</v>
@@ -4674,25 +4766,28 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B35" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
+      <c r="E35" t="s">
+        <v>120</v>
+      </c>
       <c r="F35" s="2" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="G35" t="s">
-        <v>91</v>
+        <v>3</v>
       </c>
       <c r="H35">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="J35" t="str">
         <f>IF(ISBLANK(I35),"",IF(ISERROR(VLOOKUP(I35,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -4705,25 +4800,22 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B36" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="E36" t="s">
-        <v>120</v>
-      </c>
       <c r="F36" s="2" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v/>
       </c>
       <c r="G36" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="H36">
         <v>0.05</v>
@@ -4739,18 +4831,52 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B37" t="s">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="str">
-        <f t="shared" ref="D37:D40" ca="1" si="8">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="E37" t="s">
+        <v>120</v>
+      </c>
+      <c r="F37" s="2" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="G37" t="s">
+        <v>53</v>
+      </c>
+      <c r="H37">
+        <v>0.05</v>
+      </c>
+      <c r="J37" t="str">
+        <f>IF(ISBLANK(I37),"",IF(ISERROR(VLOOKUP(I37,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
+        <v/>
+      </c>
+      <c r="L37" t="str">
+        <f>IF(ISBLANK(K37),"",IF(ISERROR(VLOOKUP(K37,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>135</v>
+      </c>
+      <c r="B38" t="s">
+        <v>88</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" t="str">
+        <f t="shared" ref="D38:D41" ca="1" si="8">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C37,
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C38,
 OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
 OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
 OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
@@ -4778,12 +4904,12 @@
 OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
         <v/>
       </c>
-      <c r="F37" s="2" t="str">
-        <f t="shared" ref="F37:F40" ca="1" si="9">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+      <c r="F38" s="2" t="str">
+        <f t="shared" ref="F38:F41" ca="1" si="9">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(E37,
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(E38,
 OFFSET($A$1,1,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(E$1&amp;"_List",$1:$1,0))),
 OFFSET($A$1,3,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(E$1&amp;"_List",$1:$1,0))),
 OFFSET($A$1,5,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(E$1&amp;"_List",$1:$1,0))),
@@ -4811,42 +4937,8 @@
 OFFSET($A$1,49,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(E$1&amp;"_List",$1:$1,0)))</f>
         <v/>
       </c>
-      <c r="G37" t="s">
+      <c r="G38" t="s">
         <v>1</v>
-      </c>
-      <c r="H37">
-        <v>0.1</v>
-      </c>
-      <c r="J37" t="str">
-        <f>IF(ISBLANK(I37),"",IF(ISERROR(VLOOKUP(I37,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
-        <v/>
-      </c>
-      <c r="L37" t="str">
-        <f>IF(ISBLANK(K37),"",IF(ISERROR(VLOOKUP(K37,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>136</v>
-      </c>
-      <c r="B38" t="s">
-        <v>89</v>
-      </c>
-      <c r="C38" s="2"/>
-      <c r="D38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="E38" t="s">
-        <v>120</v>
-      </c>
-      <c r="F38" s="2" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>3</v>
-      </c>
-      <c r="G38" t="s">
-        <v>3</v>
       </c>
       <c r="H38">
         <v>0.1</v>
@@ -4862,25 +4954,28 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B39" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
+      <c r="E39" t="s">
+        <v>120</v>
+      </c>
       <c r="F39" s="2" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="G39" t="s">
-        <v>91</v>
+        <v>3</v>
       </c>
       <c r="H39">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="J39" t="str">
         <f>IF(ISBLANK(I39),"",IF(ISERROR(VLOOKUP(I39,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -4893,25 +4988,22 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B40" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="E40" t="s">
-        <v>120</v>
-      </c>
       <c r="F40" s="2" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v/>
       </c>
       <c r="G40" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="H40">
         <v>0.05</v>
@@ -4927,18 +5019,52 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B41" t="s">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="str">
-        <f t="shared" ref="D41:D44" ca="1" si="10">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="E41" t="s">
+        <v>120</v>
+      </c>
+      <c r="F41" s="2" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="G41" t="s">
+        <v>53</v>
+      </c>
+      <c r="H41">
+        <v>0.05</v>
+      </c>
+      <c r="J41" t="str">
+        <f>IF(ISBLANK(I41),"",IF(ISERROR(VLOOKUP(I41,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
+        <v/>
+      </c>
+      <c r="L41" t="str">
+        <f>IF(ISBLANK(K41),"",IF(ISERROR(VLOOKUP(K41,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>136</v>
+      </c>
+      <c r="B42" t="s">
+        <v>88</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" t="str">
+        <f t="shared" ref="D42:D45" ca="1" si="10">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C41,
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C42,
 OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
 OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
 OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
@@ -4966,12 +5092,12 @@
 OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
         <v/>
       </c>
-      <c r="F41" s="2" t="str">
-        <f t="shared" ref="F41:F44" ca="1" si="11">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+      <c r="F42" s="2" t="str">
+        <f t="shared" ref="F42:F45" ca="1" si="11">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
-SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(E41,
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(E42,
 OFFSET($A$1,1,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(E$1&amp;"_List",$1:$1,0))),
 OFFSET($A$1,3,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(E$1&amp;"_List",$1:$1,0))),
 OFFSET($A$1,5,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(E$1&amp;"_List",$1:$1,0))),
@@ -4999,42 +5125,8 @@
 OFFSET($A$1,49,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(E$1&amp;"_List",$1:$1,0)))</f>
         <v/>
       </c>
-      <c r="G41" t="s">
+      <c r="G42" t="s">
         <v>1</v>
-      </c>
-      <c r="H41">
-        <v>0.1</v>
-      </c>
-      <c r="J41" t="str">
-        <f>IF(ISBLANK(I41),"",IF(ISERROR(VLOOKUP(I41,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
-        <v/>
-      </c>
-      <c r="L41" t="str">
-        <f>IF(ISBLANK(K41),"",IF(ISERROR(VLOOKUP(K41,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>137</v>
-      </c>
-      <c r="B42" t="s">
-        <v>89</v>
-      </c>
-      <c r="C42" s="2"/>
-      <c r="D42" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="E42" t="s">
-        <v>120</v>
-      </c>
-      <c r="F42" s="2" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>3</v>
-      </c>
-      <c r="G42" t="s">
-        <v>3</v>
       </c>
       <c r="H42">
         <v>0.1</v>
@@ -5050,25 +5142,28 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B43" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
+      <c r="E43" t="s">
+        <v>120</v>
+      </c>
       <c r="F43" s="2" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="G43" t="s">
-        <v>91</v>
+        <v>3</v>
       </c>
       <c r="H43">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="J43" t="str">
         <f>IF(ISBLANK(I43),"",IF(ISERROR(VLOOKUP(I43,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
@@ -5081,25 +5176,22 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B44" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
-      <c r="E44" t="s">
-        <v>120</v>
-      </c>
       <c r="F44" s="2" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>3</v>
+        <v/>
       </c>
       <c r="G44" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="H44">
         <v>0.05</v>
@@ -5110,6 +5202,228 @@
       </c>
       <c r="L44" t="str">
         <f>IF(ISBLANK(K44),"",IF(ISERROR(VLOOKUP(K44,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>136</v>
+      </c>
+      <c r="B45" t="s">
+        <v>120</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="E45" t="s">
+        <v>120</v>
+      </c>
+      <c r="F45" s="2" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="G45" t="s">
+        <v>53</v>
+      </c>
+      <c r="H45">
+        <v>0.05</v>
+      </c>
+      <c r="J45" t="str">
+        <f>IF(ISBLANK(I45),"",IF(ISERROR(VLOOKUP(I45,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
+        <v/>
+      </c>
+      <c r="L45" t="str">
+        <f>IF(ISBLANK(K45),"",IF(ISERROR(VLOOKUP(K45,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>137</v>
+      </c>
+      <c r="B46" t="s">
+        <v>88</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" t="str">
+        <f t="shared" ref="D46:D49" ca="1" si="12">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C46,
+OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="F46" s="2" t="str">
+        <f t="shared" ref="F46:F49" ca="1" si="13">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(E46,
+OFFSET($A$1,1,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,3,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,5,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,7,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,9,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,11,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,13,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,15,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,17,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,19,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,21,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,23,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,25,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,27,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,29,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,31,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,33,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,35,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,37,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,39,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,41,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,43,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,45,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,47,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,49,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(E$1&amp;"_List",$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="G46" t="s">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>0.1</v>
+      </c>
+      <c r="J46" t="str">
+        <f>IF(ISBLANK(I46),"",IF(ISERROR(VLOOKUP(I46,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
+        <v/>
+      </c>
+      <c r="L46" t="str">
+        <f>IF(ISBLANK(K46),"",IF(ISERROR(VLOOKUP(K46,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>137</v>
+      </c>
+      <c r="B47" t="s">
+        <v>89</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="E47" t="s">
+        <v>120</v>
+      </c>
+      <c r="F47" s="2" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="G47" t="s">
+        <v>3</v>
+      </c>
+      <c r="H47">
+        <v>0.1</v>
+      </c>
+      <c r="J47" t="str">
+        <f>IF(ISBLANK(I47),"",IF(ISERROR(VLOOKUP(I47,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
+        <v/>
+      </c>
+      <c r="L47" t="str">
+        <f>IF(ISBLANK(K47),"",IF(ISERROR(VLOOKUP(K47,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>137</v>
+      </c>
+      <c r="B48" t="s">
+        <v>90</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="F48" s="2" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="G48" t="s">
+        <v>91</v>
+      </c>
+      <c r="H48">
+        <v>0.05</v>
+      </c>
+      <c r="J48" t="str">
+        <f>IF(ISBLANK(I48),"",IF(ISERROR(VLOOKUP(I48,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
+        <v/>
+      </c>
+      <c r="L48" t="str">
+        <f>IF(ISBLANK(K48),"",IF(ISERROR(VLOOKUP(K48,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>137</v>
+      </c>
+      <c r="B49" t="s">
+        <v>120</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="E49" t="s">
+        <v>120</v>
+      </c>
+      <c r="F49" s="2" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="G49" t="s">
+        <v>53</v>
+      </c>
+      <c r="H49">
+        <v>0.05</v>
+      </c>
+      <c r="J49" t="str">
+        <f>IF(ISBLANK(I49),"",IF(ISERROR(VLOOKUP(I49,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
+        <v/>
+      </c>
+      <c r="L49" t="str">
+        <f>IF(ISBLANK(K49),"",IF(ISERROR(VLOOKUP(K49,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
         <v/>
       </c>
     </row>
@@ -5120,7 +5434,7 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="E2:E44 C2:C44" xr:uid="{9089C6B6-A03B-469A-BC47-88308B12ED20}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="E2:E49 C2:C49" xr:uid="{9089C6B6-A03B-469A-BC47-88308B12ED20}">
       <formula1>OFFSET(INDIRECT("$A$1"),1,MATCH(C$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1,COUNTA(OFFSET(INDIRECT("$A:$A"),0,MATCH(C$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1))-1,1)</formula1>
     </dataValidation>
   </dataValidations>
@@ -5133,13 +5447,13 @@
           <x14:formula1>
             <xm:f>OFFSET(SkillTable!$A$1,1,0,COUNTA(SkillTable!$A:$A)-1,1)</xm:f>
           </x14:formula1>
-          <xm:sqref>K2:K44</xm:sqref>
+          <xm:sqref>K2:K49</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E98A69ED-ACB1-4726-AFB2-FA695D9C95A0}">
           <x14:formula1>
             <xm:f>OFFSET(ControlTable!$A$1,1,0,COUNTA(ControlTable!$A:$A)-1,1)</xm:f>
           </x14:formula1>
-          <xm:sqref>I2:I32</xm:sqref>
+          <xm:sqref>I2:I37</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Excel/작업Action.xlsx
+++ b/Excel/작업Action.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1688B8A6-436D-4EF0-9B79-332FA6F26963}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BDA2255-743B-46EE-A7CC-29F17AD4BFE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ActionTable" sheetId="1" r:id="rId1"/>
@@ -1788,7 +1788,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="140">
   <si>
     <t>Idle</t>
   </si>
@@ -2280,6 +2280,10 @@
   </si>
   <si>
     <t>Actor004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TinyRobot</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2406,41 +2410,46 @@
         </row>
         <row r="5">
           <cell r="A5" t="str">
-            <v>CallInvincibleTortoise</v>
+            <v>NormalAttackBei</v>
           </cell>
         </row>
         <row r="6">
           <cell r="A6" t="str">
-            <v>InvincibleTortoise</v>
+            <v>CallInvincibleTortoise</v>
           </cell>
         </row>
         <row r="7">
           <cell r="A7" t="str">
-            <v>CountBarrier5Times</v>
+            <v>InvincibleTortoise</v>
           </cell>
         </row>
         <row r="8">
           <cell r="A8" t="str">
-            <v>CallBurrowNinjaAssassin</v>
+            <v>CountBarrier5Times</v>
           </cell>
         </row>
         <row r="9">
           <cell r="A9" t="str">
-            <v>BurrowNinjaAssassin</v>
+            <v>CallBurrowNinjaAssassin</v>
           </cell>
         </row>
         <row r="10">
           <cell r="A10" t="str">
-            <v>TestPoison01</v>
+            <v>BurrowNinjaAssassin</v>
           </cell>
         </row>
         <row r="11">
           <cell r="A11" t="str">
-            <v>LP_ChangeActorStatus010</v>
+            <v>TestPoison01</v>
           </cell>
         </row>
         <row r="12">
           <cell r="A12" t="str">
+            <v>LP_ChangeActorStatus010</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
             <v>LP_PiercingHitObject</v>
           </cell>
         </row>
@@ -2507,7 +2516,7 @@
         </row>
         <row r="2">
           <cell r="E2" t="str">
-            <v>BurrowNinjaAssassin</v>
+            <v>Burrow</v>
           </cell>
           <cell r="F2" t="str">
             <v>닌자어쌔신 전용 컨티뉴어스 버로우 어펙터</v>
@@ -2620,10 +2629,10 @@
         </row>
         <row r="6">
           <cell r="A6" t="str">
-            <v>CallInvincibleTortoise_01</v>
+            <v>NormalAttackBei_01</v>
           </cell>
           <cell r="B6" t="str">
-            <v>CallInvincibleTortoise</v>
+            <v>NormalAttackBei</v>
           </cell>
           <cell r="C6" t="str">
             <v/>
@@ -2632,27 +2641,21 @@
             <v>1</v>
           </cell>
           <cell r="E6" t="str">
-            <v>CallAffectorValue</v>
+            <v>BaseDamage</v>
           </cell>
           <cell r="H6" t="str">
             <v/>
           </cell>
           <cell r="I6">
-            <v>-1</v>
-          </cell>
-          <cell r="M6">
-            <v>4</v>
-          </cell>
-          <cell r="Q6" t="str">
-            <v>InvincibleTortoise</v>
+            <v>0.75</v>
           </cell>
         </row>
         <row r="7">
           <cell r="A7" t="str">
-            <v>InvincibleTortoise_01</v>
+            <v>CallInvincibleTortoise_01</v>
           </cell>
           <cell r="B7" t="str">
-            <v>InvincibleTortoise</v>
+            <v>CallInvincibleTortoise</v>
           </cell>
           <cell r="C7" t="str">
             <v/>
@@ -2661,27 +2664,27 @@
             <v>1</v>
           </cell>
           <cell r="E7" t="str">
-            <v>InvincibleTortoise</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H7" t="str">
             <v/>
           </cell>
           <cell r="I7">
-            <v>3</v>
-          </cell>
-          <cell r="P7" t="str">
-            <v>GuardStart</v>
+            <v>-1</v>
+          </cell>
+          <cell r="M7">
+            <v>4</v>
           </cell>
           <cell r="Q7" t="str">
-            <v>GuardEnd</v>
+            <v>InvincibleTortoise</v>
           </cell>
         </row>
         <row r="8">
           <cell r="A8" t="str">
-            <v>CountBarrier5Times_01</v>
+            <v>InvincibleTortoise_01</v>
           </cell>
           <cell r="B8" t="str">
-            <v>CountBarrier5Times</v>
+            <v>InvincibleTortoise</v>
           </cell>
           <cell r="C8" t="str">
             <v/>
@@ -2690,27 +2693,27 @@
             <v>1</v>
           </cell>
           <cell r="E8" t="str">
-            <v>CountBarrier</v>
+            <v>InvincibleTortoise</v>
           </cell>
           <cell r="H8" t="str">
             <v/>
           </cell>
           <cell r="I8">
-            <v>-1</v>
-          </cell>
-          <cell r="N8">
-            <v>5</v>
-          </cell>
-          <cell r="R8" t="str">
-            <v>Effect29_D</v>
+            <v>3</v>
+          </cell>
+          <cell r="P8" t="str">
+            <v>GuardStart</v>
+          </cell>
+          <cell r="Q8" t="str">
+            <v>GuardEnd</v>
           </cell>
         </row>
         <row r="9">
           <cell r="A9" t="str">
-            <v>CallBurrowNinjaAssassin_01</v>
+            <v>CountBarrier5Times_01</v>
           </cell>
           <cell r="B9" t="str">
-            <v>CallBurrowNinjaAssassin</v>
+            <v>CountBarrier5Times</v>
           </cell>
           <cell r="C9" t="str">
             <v/>
@@ -2719,7 +2722,7 @@
             <v>1</v>
           </cell>
           <cell r="E9" t="str">
-            <v>CallAffectorValue</v>
+            <v>CountBarrier</v>
           </cell>
           <cell r="H9" t="str">
             <v/>
@@ -2727,19 +2730,19 @@
           <cell r="I9">
             <v>-1</v>
           </cell>
-          <cell r="M9">
-            <v>4</v>
-          </cell>
-          <cell r="Q9" t="str">
-            <v>BurrowNinjaAssassin</v>
+          <cell r="N9">
+            <v>5</v>
+          </cell>
+          <cell r="R9" t="str">
+            <v>Effect29_D</v>
           </cell>
         </row>
         <row r="10">
           <cell r="A10" t="str">
-            <v>BurrowNinjaAssassin_01</v>
+            <v>CallBurrowNinjaAssassin_01</v>
           </cell>
           <cell r="B10" t="str">
-            <v>BurrowNinjaAssassin</v>
+            <v>CallBurrowNinjaAssassin</v>
           </cell>
           <cell r="C10" t="str">
             <v/>
@@ -2748,42 +2751,27 @@
             <v>1</v>
           </cell>
           <cell r="E10" t="str">
-            <v>BurrowNinjaAssassin</v>
+            <v>CallAffectorValue</v>
           </cell>
           <cell r="H10" t="str">
             <v/>
           </cell>
           <cell r="I10">
-            <v>3</v>
-          </cell>
-          <cell r="K10">
-            <v>0.5</v>
-          </cell>
-          <cell r="L10">
-            <v>1</v>
-          </cell>
-          <cell r="N10">
-            <v>2</v>
-          </cell>
-          <cell r="P10" t="str">
-            <v>BurrowStart</v>
+            <v>-1</v>
+          </cell>
+          <cell r="M10">
+            <v>4</v>
           </cell>
           <cell r="Q10" t="str">
-            <v>BurrowEnd</v>
-          </cell>
-          <cell r="R10" t="str">
-            <v>BurrowScrollObject</v>
-          </cell>
-          <cell r="S10" t="str">
-            <v>BurrowAttack</v>
+            <v>BurrowNinjaAssassin</v>
           </cell>
         </row>
         <row r="11">
           <cell r="A11" t="str">
-            <v>TestPoison01_01</v>
+            <v>BurrowNinjaAssassin_01</v>
           </cell>
           <cell r="B11" t="str">
-            <v>TestPoison01</v>
+            <v>BurrowNinjaAssassin</v>
           </cell>
           <cell r="C11" t="str">
             <v/>
@@ -2792,27 +2780,42 @@
             <v>1</v>
           </cell>
           <cell r="E11" t="str">
-            <v>DotDamage</v>
+            <v>Burrow</v>
           </cell>
           <cell r="H11" t="str">
             <v/>
           </cell>
           <cell r="I11">
-            <v>5</v>
-          </cell>
-          <cell r="J11">
+            <v>3</v>
+          </cell>
+          <cell r="K11">
             <v>0.5</v>
           </cell>
-          <cell r="K11">
-            <v>0.01</v>
+          <cell r="L11">
+            <v>1</v>
+          </cell>
+          <cell r="N11">
+            <v>2</v>
+          </cell>
+          <cell r="P11" t="str">
+            <v>BurrowStart</v>
+          </cell>
+          <cell r="Q11" t="str">
+            <v>BurrowEnd</v>
+          </cell>
+          <cell r="R11" t="str">
+            <v>BurrowScrollObject</v>
+          </cell>
+          <cell r="S11" t="str">
+            <v>BurrowAttack</v>
           </cell>
         </row>
         <row r="12">
           <cell r="A12" t="str">
-            <v>LP_PiercingHitObject_01</v>
+            <v>TestPoison01_01</v>
           </cell>
           <cell r="B12" t="str">
-            <v>LP_PiercingHitObject</v>
+            <v>TestPoison01</v>
           </cell>
           <cell r="C12" t="str">
             <v/>
@@ -2821,22 +2824,24 @@
             <v>1</v>
           </cell>
           <cell r="E12" t="str">
-            <v>PiercingHitObject</v>
+            <v>DotDamage</v>
           </cell>
           <cell r="H12" t="str">
             <v/>
           </cell>
-          <cell r="K12"/>
-          <cell r="M12">
-            <v>1</v>
-          </cell>
-          <cell r="P12">
-            <v>0.9</v>
+          <cell r="I12">
+            <v>5</v>
+          </cell>
+          <cell r="J12">
+            <v>0.5</v>
+          </cell>
+          <cell r="K12">
+            <v>0.01</v>
           </cell>
         </row>
         <row r="13">
           <cell r="A13" t="str">
-            <v>LP_PiercingHitObject_02</v>
+            <v>LP_PiercingHitObject_01</v>
           </cell>
           <cell r="B13" t="str">
             <v>LP_PiercingHitObject</v>
@@ -2845,7 +2850,7 @@
             <v/>
           </cell>
           <cell r="D13">
-            <v>2</v>
+            <v>1</v>
           </cell>
           <cell r="E13" t="str">
             <v>PiercingHitObject</v>
@@ -2853,10 +2858,37 @@
           <cell r="H13" t="str">
             <v/>
           </cell>
+          <cell r="K13"/>
           <cell r="M13">
+            <v>1</v>
+          </cell>
+          <cell r="P13">
+            <v>0.9</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>LP_PiercingHitObject_02</v>
+          </cell>
+          <cell r="B14" t="str">
+            <v>LP_PiercingHitObject</v>
+          </cell>
+          <cell r="C14" t="str">
+            <v/>
+          </cell>
+          <cell r="D14">
             <v>2</v>
           </cell>
-          <cell r="P13" t="str">
+          <cell r="E14" t="str">
+            <v>PiercingHitObject</v>
+          </cell>
+          <cell r="H14" t="str">
+            <v/>
+          </cell>
+          <cell r="M14">
+            <v>2</v>
+          </cell>
+          <cell r="P14" t="str">
             <v>0.95,0.9</v>
           </cell>
         </row>
@@ -3256,7 +3288,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U49"/>
+  <dimension ref="A1:U53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -5427,6 +5459,194 @@
         <v/>
       </c>
     </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>139</v>
+      </c>
+      <c r="B50" t="s">
+        <v>88</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" t="str">
+        <f t="shared" ref="D50:D53" ca="1" si="14">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C50,
+OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="F50" s="2" t="str">
+        <f t="shared" ref="F50:F53" ca="1" si="15">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(E50,
+OFFSET($A$1,1,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,3,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,5,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,7,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,9,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,11,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,13,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,15,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,17,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,19,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,21,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,23,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,25,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,27,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,29,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,31,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,33,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,35,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,37,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,39,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,41,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,43,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,45,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,47,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,49,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(E$1&amp;"_List",$1:$1,0)))</f>
+        <v/>
+      </c>
+      <c r="G50" t="s">
+        <v>1</v>
+      </c>
+      <c r="H50">
+        <v>0.1</v>
+      </c>
+      <c r="J50" t="str">
+        <f>IF(ISBLANK(I50),"",IF(ISERROR(VLOOKUP(I50,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
+        <v/>
+      </c>
+      <c r="L50" t="str">
+        <f>IF(ISBLANK(K50),"",IF(ISERROR(VLOOKUP(K50,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>139</v>
+      </c>
+      <c r="B51" t="s">
+        <v>89</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="E51" t="s">
+        <v>120</v>
+      </c>
+      <c r="F51" s="2" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="G51" t="s">
+        <v>3</v>
+      </c>
+      <c r="H51">
+        <v>0.1</v>
+      </c>
+      <c r="J51" t="str">
+        <f>IF(ISBLANK(I51),"",IF(ISERROR(VLOOKUP(I51,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
+        <v/>
+      </c>
+      <c r="L51" t="str">
+        <f>IF(ISBLANK(K51),"",IF(ISERROR(VLOOKUP(K51,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>139</v>
+      </c>
+      <c r="B52" t="s">
+        <v>90</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="F52" s="2" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="G52" t="s">
+        <v>91</v>
+      </c>
+      <c r="H52">
+        <v>0.05</v>
+      </c>
+      <c r="J52" t="str">
+        <f>IF(ISBLANK(I52),"",IF(ISERROR(VLOOKUP(I52,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
+        <v/>
+      </c>
+      <c r="L52" t="str">
+        <f>IF(ISBLANK(K52),"",IF(ISERROR(VLOOKUP(K52,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>139</v>
+      </c>
+      <c r="B53" t="s">
+        <v>120</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="E53" t="s">
+        <v>120</v>
+      </c>
+      <c r="F53" s="2" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="G53" t="s">
+        <v>53</v>
+      </c>
+      <c r="H53">
+        <v>0.05</v>
+      </c>
+      <c r="J53" t="str">
+        <f>IF(ISBLANK(I53),"",IF(ISERROR(VLOOKUP(I53,ControlTable!$A:$A,1,0)),"컨트롤없음",""))</f>
+        <v/>
+      </c>
+      <c r="L53" t="str">
+        <f>IF(ISBLANK(K53),"",IF(ISERROR(VLOOKUP(K53,SkillTable!$A:$A,1,0)),"스킬없음",""))</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="P2:R6">
     <sortCondition descending="1" ref="R2:R6"/>
@@ -5434,7 +5654,7 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="E2:E49 C2:C49" xr:uid="{9089C6B6-A03B-469A-BC47-88308B12ED20}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="E2:E53 C2:C53" xr:uid="{9089C6B6-A03B-469A-BC47-88308B12ED20}">
       <formula1>OFFSET(INDIRECT("$A$1"),1,MATCH(C$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1,COUNTA(OFFSET(INDIRECT("$A:$A"),0,MATCH(C$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1))-1,1)</formula1>
     </dataValidation>
   </dataValidations>
@@ -5447,7 +5667,7 @@
           <x14:formula1>
             <xm:f>OFFSET(SkillTable!$A$1,1,0,COUNTA(SkillTable!$A:$A)-1,1)</xm:f>
           </x14:formula1>
-          <xm:sqref>K2:K49</xm:sqref>
+          <xm:sqref>K2:K53</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E98A69ED-ACB1-4726-AFB2-FA695D9C95A0}">
           <x14:formula1>

--- a/Excel/작업Action.xlsx
+++ b/Excel/작업Action.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EDE4B4A-C19F-4285-8E3E-8B36F9AF65B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C67A83-8B35-458E-817C-DCAF88ED6778}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ActionTable" sheetId="1" r:id="rId1"/>
@@ -28,6 +28,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -239,7 +240,7 @@
     <author>Hoohoo</author>
   </authors>
   <commentList>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{097A843D-F75D-4114-9986-5778BD048F59}">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{097A843D-F75D-4114-9986-5778BD048F59}">
       <text>
         <r>
           <rPr>
@@ -1987,7 +1988,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="129">
   <si>
     <t>Idle</t>
   </si>
@@ -2189,18 +2190,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>controlType_List</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>inputType_Verify</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>inputType_List</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>castingType|Int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2237,10 +2230,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>castingType_List</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>passiveSkill|Bool</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2424,10 +2413,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ActiveSkillSlot1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Base Layer.Ultimate1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2449,6 +2434,14 @@
   </si>
   <si>
     <t>DefaultPlayer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deduction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2693,6 +2686,61 @@
             <v>LP_MaxHpHigh</v>
           </cell>
         </row>
+        <row r="29">
+          <cell r="A29" t="str">
+            <v>LP_ExtraGold</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30" t="str">
+            <v>LP_ItemChanceBoost</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31" t="str">
+            <v>LP_HealChanceBoost</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32" t="str">
+            <v>LP_MonsterThrough</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33" t="str">
+            <v>LP_Ricochet</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34" t="str">
+            <v>LP_BounceWallQuad</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35" t="str">
+            <v>LP_Parallel</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36" t="str">
+            <v>LP_DiagonalNwayGenerator</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37" t="str">
+            <v>LP_LeftRightNwayGenerator</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38" t="str">
+            <v>LP_BackNwayGenerator</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39" t="str">
+            <v>LP_Repeat</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="1">
         <row r="1">
@@ -2762,32 +2810,23 @@
           <cell r="W1" t="str">
             <v>iValue1_Verify</v>
           </cell>
-          <cell r="Y1" t="str">
-            <v>iValue1_List</v>
-          </cell>
-          <cell r="Z1" t="str">
+          <cell r="X1" t="str">
             <v>value</v>
           </cell>
-          <cell r="AA1" t="str">
-            <v>len</v>
-          </cell>
-          <cell r="AC1"/>
         </row>
         <row r="2">
           <cell r="E2" t="str">
-            <v>ChangeActorStatus</v>
+            <v>RepeatHitObject</v>
           </cell>
           <cell r="F2" t="str">
-            <v>액터스탯 변경</v>
-          </cell>
-          <cell r="G2"/>
-          <cell r="H2"/>
+            <v>평타에 반복 기능을 부여함</v>
+          </cell>
           <cell r="I2" t="str">
-            <v>지속시간
-무제한은 -1</v>
+            <v/>
           </cell>
           <cell r="J2" t="str">
-            <v>변경할 수치</v>
+            <v>공통 샷간 시간
+각 개체 액션툴의 값은 오버라이딩</v>
           </cell>
           <cell r="K2" t="str">
             <v/>
@@ -2796,19 +2835,17 @@
             <v/>
           </cell>
           <cell r="M2" t="str">
-            <v>스탯타입
-유효성 검사</v>
+            <v/>
           </cell>
           <cell r="N2" t="str">
             <v>오버라이딩
 우측 입력은 여기</v>
           </cell>
           <cell r="O2" t="str">
-            <v>스탯타입
-인자 좌측참고</v>
+            <v>반복샷 추가횟수</v>
           </cell>
           <cell r="P2" t="str">
-            <v>피격받아 종료할 지속횟수</v>
+            <v/>
           </cell>
           <cell r="Q2" t="str">
             <v/>
@@ -2828,17 +2865,8 @@
           <cell r="W2" t="str">
             <v>MaxHp</v>
           </cell>
-          <cell r="Y2" t="str">
-            <v>NormalMonsterDamageIncreaseAddRate</v>
-          </cell>
-          <cell r="Z2">
-            <v>11</v>
-          </cell>
-          <cell r="AA2">
-            <v>34</v>
-          </cell>
-          <cell r="AC2" t="str">
-            <v/>
+          <cell r="X2">
+            <v>0</v>
           </cell>
         </row>
         <row r="3">
@@ -2869,14 +2897,8 @@
           <cell r="W3" t="str">
             <v>Attack</v>
           </cell>
-          <cell r="Y3" t="str">
-            <v>NormalMonsterDamageDecreaseAddRate</v>
-          </cell>
-          <cell r="Z3">
-            <v>12</v>
-          </cell>
-          <cell r="AA3">
-            <v>34</v>
+          <cell r="X3">
+            <v>1</v>
           </cell>
         </row>
         <row r="4">
@@ -2907,14 +2929,8 @@
           <cell r="W4" t="str">
             <v>AttackDelay</v>
           </cell>
-          <cell r="Y4" t="str">
-            <v>BossMonsterDamageIncreaseAddRate</v>
-          </cell>
-          <cell r="Z4">
-            <v>13</v>
-          </cell>
-          <cell r="AA4">
-            <v>32</v>
+          <cell r="X4">
+            <v>2</v>
           </cell>
         </row>
         <row r="5">
@@ -2942,14 +2958,8 @@
           <cell r="W5" t="str">
             <v>AttackSpeedAddRate</v>
           </cell>
-          <cell r="Y5" t="str">
-            <v>BossMonsterDamageDecreaseAddRate</v>
-          </cell>
-          <cell r="Z5">
-            <v>14</v>
-          </cell>
-          <cell r="AA5">
-            <v>32</v>
+          <cell r="X5">
+            <v>3</v>
           </cell>
         </row>
         <row r="6">
@@ -2980,14 +2990,8 @@
           <cell r="W6" t="str">
             <v>EvadeRate</v>
           </cell>
-          <cell r="Y6" t="str">
-            <v>PowerSourceHealAddRate</v>
-          </cell>
-          <cell r="Z6">
-            <v>15</v>
-          </cell>
-          <cell r="AA6">
-            <v>22</v>
+          <cell r="X6">
+            <v>4</v>
           </cell>
         </row>
         <row r="7">
@@ -3024,14 +3028,8 @@
           <cell r="W7" t="str">
             <v>MoveSpeed</v>
           </cell>
-          <cell r="Y7" t="str">
-            <v>CriticalDamageAddRate</v>
-          </cell>
-          <cell r="Z7">
-            <v>9</v>
-          </cell>
-          <cell r="AA7">
-            <v>21</v>
+          <cell r="X7">
+            <v>5</v>
           </cell>
         </row>
         <row r="8">
@@ -3068,14 +3066,8 @@
           <cell r="W8" t="str">
             <v>MaxSp</v>
           </cell>
-          <cell r="Y8" t="str">
-            <v>AttackSpeedAddRate</v>
-          </cell>
-          <cell r="Z8">
-            <v>3</v>
-          </cell>
-          <cell r="AA8">
-            <v>18</v>
+          <cell r="X8">
+            <v>6</v>
           </cell>
         </row>
         <row r="9">
@@ -3112,14 +3104,8 @@
           <cell r="W9" t="str">
             <v>SpGainAddRate</v>
           </cell>
-          <cell r="Y9" t="str">
-            <v>MoveSpeedAddRate</v>
-          </cell>
-          <cell r="Z9">
-            <v>10</v>
-          </cell>
-          <cell r="AA9">
-            <v>16</v>
+          <cell r="X9">
+            <v>7</v>
           </cell>
         </row>
         <row r="10">
@@ -3156,14 +3142,8 @@
           <cell r="W10" t="str">
             <v>CriticalRate</v>
           </cell>
-          <cell r="Y10" t="str">
-            <v>SwapHealAddRate</v>
-          </cell>
-          <cell r="Z10">
-            <v>16</v>
-          </cell>
-          <cell r="AA10">
-            <v>15</v>
+          <cell r="X10">
+            <v>8</v>
           </cell>
         </row>
         <row r="11">
@@ -3215,14 +3195,8 @@
           <cell r="W11" t="str">
             <v>CriticalDamageAddRate</v>
           </cell>
-          <cell r="Y11" t="str">
-            <v>SpGainAddRate</v>
-          </cell>
-          <cell r="Z11">
-            <v>7</v>
-          </cell>
-          <cell r="AA11">
-            <v>13</v>
+          <cell r="X11">
+            <v>9</v>
           </cell>
         </row>
         <row r="12">
@@ -3253,20 +3227,14 @@
           <cell r="M12" t="str">
             <v>AttackAddRate</v>
           </cell>
-          <cell r="O12" t="str">
+          <cell r="O12">
             <v>18</v>
           </cell>
           <cell r="W12" t="str">
             <v>MoveSpeedAddRate</v>
           </cell>
-          <cell r="Y12" t="str">
-            <v>AttackAddRate</v>
-          </cell>
-          <cell r="Z12">
-            <v>18</v>
-          </cell>
-          <cell r="AA12">
-            <v>13</v>
+          <cell r="X12">
+            <v>10</v>
           </cell>
         </row>
         <row r="13">
@@ -3297,20 +3265,14 @@
           <cell r="M13" t="str">
             <v>AttackAddRate</v>
           </cell>
-          <cell r="O13" t="str">
+          <cell r="O13">
             <v>18</v>
           </cell>
           <cell r="W13" t="str">
             <v>NormalMonsterDamageIncreaseAddRate</v>
           </cell>
-          <cell r="Y13" t="str">
-            <v>CriticalRate</v>
-          </cell>
-          <cell r="Z13">
-            <v>8</v>
-          </cell>
-          <cell r="AA13">
-            <v>12</v>
+          <cell r="X13">
+            <v>11</v>
           </cell>
         </row>
         <row r="14">
@@ -3341,19 +3303,13 @@
           <cell r="M14" t="str">
             <v>AttackAddRate</v>
           </cell>
-          <cell r="O14" t="str">
+          <cell r="O14">
             <v>18</v>
           </cell>
           <cell r="W14" t="str">
             <v>NormalMonsterDamageDecreaseAddRate</v>
           </cell>
-          <cell r="Y14" t="str">
-            <v>MaxHpAddRate</v>
-          </cell>
-          <cell r="Z14">
-            <v>17</v>
-          </cell>
-          <cell r="AA14">
+          <cell r="X14">
             <v>12</v>
           </cell>
         </row>
@@ -3385,20 +3341,14 @@
           <cell r="M15" t="str">
             <v>AttackAddRate</v>
           </cell>
-          <cell r="O15" t="str">
+          <cell r="O15">
             <v>18</v>
           </cell>
           <cell r="W15" t="str">
             <v>BossMonsterDamageIncreaseAddRate</v>
           </cell>
-          <cell r="Y15" t="str">
-            <v>AttackDelay</v>
-          </cell>
-          <cell r="Z15">
-            <v>2</v>
-          </cell>
-          <cell r="AA15">
-            <v>11</v>
+          <cell r="X15">
+            <v>13</v>
           </cell>
         </row>
         <row r="16">
@@ -3429,20 +3379,14 @@
           <cell r="M16" t="str">
             <v>AttackAddRate</v>
           </cell>
-          <cell r="O16" t="str">
+          <cell r="O16">
             <v>18</v>
           </cell>
           <cell r="W16" t="str">
             <v>BossMonsterDamageDecreaseAddRate</v>
           </cell>
-          <cell r="Y16" t="str">
-            <v>EvadeRate</v>
-          </cell>
-          <cell r="Z16">
-            <v>4</v>
-          </cell>
-          <cell r="AA16">
-            <v>9</v>
+          <cell r="X16">
+            <v>14</v>
           </cell>
         </row>
         <row r="17">
@@ -3473,20 +3417,14 @@
           <cell r="M17" t="str">
             <v>AttackAddRate</v>
           </cell>
-          <cell r="O17" t="str">
+          <cell r="O17">
             <v>18</v>
           </cell>
           <cell r="W17" t="str">
             <v>PowerSourceHealAddRate</v>
           </cell>
-          <cell r="Y17" t="str">
-            <v>MoveSpeed</v>
-          </cell>
-          <cell r="Z17">
-            <v>5</v>
-          </cell>
-          <cell r="AA17">
-            <v>9</v>
+          <cell r="X17">
+            <v>15</v>
           </cell>
         </row>
         <row r="18">
@@ -3517,20 +3455,14 @@
           <cell r="M18" t="str">
             <v>AttackAddRate</v>
           </cell>
-          <cell r="O18" t="str">
+          <cell r="O18">
             <v>18</v>
           </cell>
           <cell r="W18" t="str">
             <v>SwapHealAddRate</v>
           </cell>
-          <cell r="Y18" t="str">
-            <v>Attack</v>
-          </cell>
-          <cell r="Z18">
-            <v>1</v>
-          </cell>
-          <cell r="AA18">
-            <v>6</v>
+          <cell r="X18">
+            <v>16</v>
           </cell>
         </row>
         <row r="19">
@@ -3561,20 +3493,14 @@
           <cell r="M19" t="str">
             <v>AttackAddRate</v>
           </cell>
-          <cell r="O19" t="str">
+          <cell r="O19">
             <v>18</v>
           </cell>
           <cell r="W19" t="str">
             <v>MaxHpAddRate</v>
           </cell>
-          <cell r="Y19" t="str">
-            <v>MaxHp</v>
-          </cell>
-          <cell r="Z19">
-            <v>0</v>
-          </cell>
-          <cell r="AA19">
-            <v>5</v>
+          <cell r="X19">
+            <v>17</v>
           </cell>
         </row>
         <row r="20">
@@ -3605,20 +3531,14 @@
           <cell r="M20" t="str">
             <v>AttackAddRate</v>
           </cell>
-          <cell r="O20" t="str">
+          <cell r="O20">
             <v>18</v>
           </cell>
           <cell r="W20" t="str">
             <v>AttackAddRate</v>
           </cell>
-          <cell r="Y20" t="str">
-            <v>MaxSp</v>
-          </cell>
-          <cell r="Z20">
-            <v>6</v>
-          </cell>
-          <cell r="AA20">
-            <v>5</v>
+          <cell r="X20">
+            <v>18</v>
           </cell>
         </row>
         <row r="21">
@@ -3649,7 +3569,7 @@
           <cell r="M21" t="str">
             <v>AttackAddRate</v>
           </cell>
-          <cell r="O21" t="str">
+          <cell r="O21">
             <v>18</v>
           </cell>
         </row>
@@ -3681,7 +3601,7 @@
           <cell r="M22" t="str">
             <v>AttackAddRate</v>
           </cell>
-          <cell r="O22" t="str">
+          <cell r="O22">
             <v>18</v>
           </cell>
         </row>
@@ -3713,7 +3633,7 @@
           <cell r="M23" t="str">
             <v>AttackAddRate</v>
           </cell>
-          <cell r="O23" t="str">
+          <cell r="O23">
             <v>18</v>
           </cell>
         </row>
@@ -3745,7 +3665,7 @@
           <cell r="M24" t="str">
             <v>AttackAddRate</v>
           </cell>
-          <cell r="O24" t="str">
+          <cell r="O24">
             <v>18</v>
           </cell>
         </row>
@@ -3777,7 +3697,7 @@
           <cell r="M25" t="str">
             <v>AttackAddRate</v>
           </cell>
-          <cell r="O25" t="str">
+          <cell r="O25">
             <v>18</v>
           </cell>
         </row>
@@ -3809,7 +3729,7 @@
           <cell r="M26" t="str">
             <v>AttackAddRate</v>
           </cell>
-          <cell r="O26" t="str">
+          <cell r="O26">
             <v>18</v>
           </cell>
         </row>
@@ -3841,7 +3761,7 @@
           <cell r="M27" t="str">
             <v>AttackAddRate</v>
           </cell>
-          <cell r="O27" t="str">
+          <cell r="O27">
             <v>18</v>
           </cell>
         </row>
@@ -3873,7 +3793,7 @@
           <cell r="M28" t="str">
             <v>AttackAddRate</v>
           </cell>
-          <cell r="O28" t="str">
+          <cell r="O28">
             <v>18</v>
           </cell>
         </row>
@@ -3905,7 +3825,7 @@
           <cell r="M29" t="str">
             <v>AttackAddRate</v>
           </cell>
-          <cell r="O29" t="str">
+          <cell r="O29">
             <v>18</v>
           </cell>
         </row>
@@ -3937,7 +3857,7 @@
           <cell r="M30" t="str">
             <v>AttackAddRate</v>
           </cell>
-          <cell r="O30" t="str">
+          <cell r="O30">
             <v>18</v>
           </cell>
         </row>
@@ -3969,7 +3889,7 @@
           <cell r="M31" t="str">
             <v>AttackSpeedAddRate</v>
           </cell>
-          <cell r="O31" t="str">
+          <cell r="O31">
             <v>3</v>
           </cell>
         </row>
@@ -4001,7 +3921,7 @@
           <cell r="M32" t="str">
             <v>AttackSpeedAddRate</v>
           </cell>
-          <cell r="O32" t="str">
+          <cell r="O32">
             <v>3</v>
           </cell>
         </row>
@@ -4033,7 +3953,7 @@
           <cell r="M33" t="str">
             <v>AttackSpeedAddRate</v>
           </cell>
-          <cell r="O33" t="str">
+          <cell r="O33">
             <v>3</v>
           </cell>
         </row>
@@ -4065,7 +3985,7 @@
           <cell r="M34" t="str">
             <v>AttackSpeedAddRate</v>
           </cell>
-          <cell r="O34" t="str">
+          <cell r="O34">
             <v>3</v>
           </cell>
         </row>
@@ -4097,7 +4017,7 @@
           <cell r="M35" t="str">
             <v>AttackSpeedAddRate</v>
           </cell>
-          <cell r="O35" t="str">
+          <cell r="O35">
             <v>3</v>
           </cell>
         </row>
@@ -4129,7 +4049,7 @@
           <cell r="M36" t="str">
             <v>AttackSpeedAddRate</v>
           </cell>
-          <cell r="O36" t="str">
+          <cell r="O36">
             <v>3</v>
           </cell>
         </row>
@@ -4161,7 +4081,7 @@
           <cell r="M37" t="str">
             <v>AttackSpeedAddRate</v>
           </cell>
-          <cell r="O37" t="str">
+          <cell r="O37">
             <v>3</v>
           </cell>
         </row>
@@ -4193,7 +4113,7 @@
           <cell r="M38" t="str">
             <v>AttackSpeedAddRate</v>
           </cell>
-          <cell r="O38" t="str">
+          <cell r="O38">
             <v>3</v>
           </cell>
         </row>
@@ -4225,7 +4145,7 @@
           <cell r="M39" t="str">
             <v>AttackSpeedAddRate</v>
           </cell>
-          <cell r="O39" t="str">
+          <cell r="O39">
             <v>3</v>
           </cell>
         </row>
@@ -4257,7 +4177,7 @@
           <cell r="M40" t="str">
             <v>AttackSpeedAddRate</v>
           </cell>
-          <cell r="O40" t="str">
+          <cell r="O40">
             <v>3</v>
           </cell>
         </row>
@@ -4289,7 +4209,7 @@
           <cell r="M41" t="str">
             <v>AttackSpeedAddRate</v>
           </cell>
-          <cell r="O41" t="str">
+          <cell r="O41">
             <v>3</v>
           </cell>
         </row>
@@ -4321,7 +4241,7 @@
           <cell r="M42" t="str">
             <v>AttackSpeedAddRate</v>
           </cell>
-          <cell r="O42" t="str">
+          <cell r="O42">
             <v>3</v>
           </cell>
         </row>
@@ -4353,7 +4273,7 @@
           <cell r="M43" t="str">
             <v>AttackSpeedAddRate</v>
           </cell>
-          <cell r="O43" t="str">
+          <cell r="O43">
             <v>3</v>
           </cell>
         </row>
@@ -4385,7 +4305,7 @@
           <cell r="M44" t="str">
             <v>AttackSpeedAddRate</v>
           </cell>
-          <cell r="O44" t="str">
+          <cell r="O44">
             <v>3</v>
           </cell>
         </row>
@@ -4417,7 +4337,7 @@
           <cell r="M45" t="str">
             <v>AttackSpeedAddRate</v>
           </cell>
-          <cell r="O45" t="str">
+          <cell r="O45">
             <v>3</v>
           </cell>
         </row>
@@ -4449,7 +4369,7 @@
           <cell r="M46" t="str">
             <v>AttackSpeedAddRate</v>
           </cell>
-          <cell r="O46" t="str">
+          <cell r="O46">
             <v>3</v>
           </cell>
         </row>
@@ -4481,7 +4401,7 @@
           <cell r="M47" t="str">
             <v>AttackSpeedAddRate</v>
           </cell>
-          <cell r="O47" t="str">
+          <cell r="O47">
             <v>3</v>
           </cell>
         </row>
@@ -4513,7 +4433,7 @@
           <cell r="M48" t="str">
             <v>AttackSpeedAddRate</v>
           </cell>
-          <cell r="O48" t="str">
+          <cell r="O48">
             <v>3</v>
           </cell>
         </row>
@@ -4545,7 +4465,7 @@
           <cell r="M49" t="str">
             <v>AttackSpeedAddRate</v>
           </cell>
-          <cell r="O49" t="str">
+          <cell r="O49">
             <v>3</v>
           </cell>
         </row>
@@ -4572,12 +4492,12 @@
             <v>-1</v>
           </cell>
           <cell r="J50">
-            <v>7.4999999999999997E-2</v>
+            <v>0.15</v>
           </cell>
           <cell r="M50" t="str">
             <v>CriticalRate</v>
           </cell>
-          <cell r="O50" t="str">
+          <cell r="O50">
             <v>8</v>
           </cell>
         </row>
@@ -4604,12 +4524,12 @@
             <v>-1</v>
           </cell>
           <cell r="J51">
-            <v>0.15</v>
+            <v>0.3</v>
           </cell>
           <cell r="M51" t="str">
             <v>CriticalRate</v>
           </cell>
-          <cell r="O51" t="str">
+          <cell r="O51">
             <v>8</v>
           </cell>
         </row>
@@ -4636,12 +4556,12 @@
             <v>-1</v>
           </cell>
           <cell r="J52">
-            <v>0.22500000000000001</v>
+            <v>0.45</v>
           </cell>
           <cell r="M52" t="str">
             <v>CriticalRate</v>
           </cell>
-          <cell r="O52" t="str">
+          <cell r="O52">
             <v>8</v>
           </cell>
         </row>
@@ -4668,12 +4588,12 @@
             <v>-1</v>
           </cell>
           <cell r="J53">
-            <v>0.3</v>
+            <v>0.6</v>
           </cell>
           <cell r="M53" t="str">
             <v>CriticalRate</v>
           </cell>
-          <cell r="O53" t="str">
+          <cell r="O53">
             <v>8</v>
           </cell>
         </row>
@@ -4700,12 +4620,12 @@
             <v>-1</v>
           </cell>
           <cell r="J54">
-            <v>0.375</v>
+            <v>0.75</v>
           </cell>
           <cell r="M54" t="str">
             <v>CriticalRate</v>
           </cell>
-          <cell r="O54" t="str">
+          <cell r="O54">
             <v>8</v>
           </cell>
         </row>
@@ -4732,27 +4652,27 @@
             <v>-1</v>
           </cell>
           <cell r="J55">
-            <v>0.45</v>
+            <v>0.9</v>
           </cell>
           <cell r="M55" t="str">
             <v>CriticalRate</v>
           </cell>
-          <cell r="O55" t="str">
+          <cell r="O55">
             <v>8</v>
           </cell>
         </row>
         <row r="56">
           <cell r="A56" t="str">
-            <v>LP_CritLow_07</v>
+            <v>LP_CritMedium_01</v>
           </cell>
           <cell r="B56" t="str">
-            <v>LP_CritLow</v>
+            <v>LP_CritMedium</v>
           </cell>
           <cell r="C56" t="str">
             <v/>
           </cell>
           <cell r="D56">
-            <v>7</v>
+            <v>1</v>
           </cell>
           <cell r="E56" t="str">
             <v>ChangeActorStatus</v>
@@ -4764,27 +4684,27 @@
             <v>-1</v>
           </cell>
           <cell r="J56">
-            <v>0.52500000000000002</v>
+            <v>0.15</v>
           </cell>
           <cell r="M56" t="str">
             <v>CriticalRate</v>
           </cell>
-          <cell r="O56" t="str">
+          <cell r="O56">
             <v>8</v>
           </cell>
         </row>
         <row r="57">
           <cell r="A57" t="str">
-            <v>LP_CritLow_08</v>
+            <v>LP_CritMedium_02</v>
           </cell>
           <cell r="B57" t="str">
-            <v>LP_CritLow</v>
+            <v>LP_CritMedium</v>
           </cell>
           <cell r="C57" t="str">
             <v/>
           </cell>
           <cell r="D57">
-            <v>8</v>
+            <v>2</v>
           </cell>
           <cell r="E57" t="str">
             <v>ChangeActorStatus</v>
@@ -4796,27 +4716,27 @@
             <v>-1</v>
           </cell>
           <cell r="J57">
-            <v>0.6</v>
+            <v>0.45</v>
           </cell>
           <cell r="M57" t="str">
             <v>CriticalRate</v>
           </cell>
-          <cell r="O57" t="str">
+          <cell r="O57">
             <v>8</v>
           </cell>
         </row>
         <row r="58">
           <cell r="A58" t="str">
-            <v>LP_CritLow_09</v>
+            <v>LP_CritMedium_03</v>
           </cell>
           <cell r="B58" t="str">
-            <v>LP_CritLow</v>
+            <v>LP_CritMedium</v>
           </cell>
           <cell r="C58" t="str">
             <v/>
           </cell>
           <cell r="D58">
-            <v>9</v>
+            <v>3</v>
           </cell>
           <cell r="E58" t="str">
             <v>ChangeActorStatus</v>
@@ -4828,21 +4748,21 @@
             <v>-1</v>
           </cell>
           <cell r="J58">
-            <v>0.67500000000000004</v>
+            <v>0.75</v>
           </cell>
           <cell r="M58" t="str">
             <v>CriticalRate</v>
           </cell>
-          <cell r="O58" t="str">
+          <cell r="O58">
             <v>8</v>
           </cell>
         </row>
         <row r="59">
           <cell r="A59" t="str">
-            <v>LP_CritMedium_01</v>
+            <v>LP_CritHigh_01</v>
           </cell>
           <cell r="B59" t="str">
-            <v>LP_CritMedium</v>
+            <v>LP_CritHigh</v>
           </cell>
           <cell r="C59" t="str">
             <v/>
@@ -4860,27 +4780,27 @@
             <v>-1</v>
           </cell>
           <cell r="J59">
-            <v>0.15</v>
+            <v>0.75</v>
           </cell>
           <cell r="M59" t="str">
             <v>CriticalRate</v>
           </cell>
-          <cell r="O59" t="str">
+          <cell r="O59">
             <v>8</v>
           </cell>
         </row>
         <row r="60">
           <cell r="A60" t="str">
-            <v>LP_CritMedium_02</v>
+            <v>LP_CritDmgLow_01</v>
           </cell>
           <cell r="B60" t="str">
-            <v>LP_CritMedium</v>
+            <v>LP_CritDmgLow</v>
           </cell>
           <cell r="C60" t="str">
             <v/>
           </cell>
           <cell r="D60">
-            <v>2</v>
+            <v>1</v>
           </cell>
           <cell r="E60" t="str">
             <v>ChangeActorStatus</v>
@@ -4892,27 +4812,27 @@
             <v>-1</v>
           </cell>
           <cell r="J60">
-            <v>0.3</v>
+            <v>0.7</v>
           </cell>
           <cell r="M60" t="str">
-            <v>CriticalRate</v>
-          </cell>
-          <cell r="O60" t="str">
-            <v>8</v>
+            <v>CriticalDamageAddRate</v>
+          </cell>
+          <cell r="O60">
+            <v>9</v>
           </cell>
         </row>
         <row r="61">
           <cell r="A61" t="str">
-            <v>LP_CritMedium_03</v>
+            <v>LP_CritDmgLow_02</v>
           </cell>
           <cell r="B61" t="str">
-            <v>LP_CritMedium</v>
+            <v>LP_CritDmgLow</v>
           </cell>
           <cell r="C61" t="str">
             <v/>
           </cell>
           <cell r="D61">
-            <v>3</v>
+            <v>2</v>
           </cell>
           <cell r="E61" t="str">
             <v>ChangeActorStatus</v>
@@ -4924,27 +4844,27 @@
             <v>-1</v>
           </cell>
           <cell r="J61">
-            <v>0.45</v>
+            <v>0.9</v>
           </cell>
           <cell r="M61" t="str">
-            <v>CriticalRate</v>
-          </cell>
-          <cell r="O61" t="str">
-            <v>8</v>
+            <v>CriticalDamageAddRate</v>
+          </cell>
+          <cell r="O61">
+            <v>9</v>
           </cell>
         </row>
         <row r="62">
           <cell r="A62" t="str">
-            <v>LP_CritMedium_04</v>
+            <v>LP_CritDmgLow_03</v>
           </cell>
           <cell r="B62" t="str">
-            <v>LP_CritMedium</v>
+            <v>LP_CritDmgLow</v>
           </cell>
           <cell r="C62" t="str">
             <v/>
           </cell>
           <cell r="D62">
-            <v>4</v>
+            <v>3</v>
           </cell>
           <cell r="E62" t="str">
             <v>ChangeActorStatus</v>
@@ -4956,27 +4876,27 @@
             <v>-1</v>
           </cell>
           <cell r="J62">
-            <v>0.6</v>
+            <v>1.1000000000000001</v>
           </cell>
           <cell r="M62" t="str">
-            <v>CriticalRate</v>
-          </cell>
-          <cell r="O62" t="str">
-            <v>8</v>
+            <v>CriticalDamageAddRate</v>
+          </cell>
+          <cell r="O62">
+            <v>9</v>
           </cell>
         </row>
         <row r="63">
           <cell r="A63" t="str">
-            <v>LP_CritMedium_05</v>
+            <v>LP_CritDmgLow_04</v>
           </cell>
           <cell r="B63" t="str">
-            <v>LP_CritMedium</v>
+            <v>LP_CritDmgLow</v>
           </cell>
           <cell r="C63" t="str">
             <v/>
           </cell>
           <cell r="D63">
-            <v>5</v>
+            <v>4</v>
           </cell>
           <cell r="E63" t="str">
             <v>ChangeActorStatus</v>
@@ -4988,27 +4908,27 @@
             <v>-1</v>
           </cell>
           <cell r="J63">
-            <v>0.75</v>
+            <v>1.3</v>
           </cell>
           <cell r="M63" t="str">
-            <v>CriticalRate</v>
-          </cell>
-          <cell r="O63" t="str">
-            <v>8</v>
+            <v>CriticalDamageAddRate</v>
+          </cell>
+          <cell r="O63">
+            <v>9</v>
           </cell>
         </row>
         <row r="64">
           <cell r="A64" t="str">
-            <v>LP_CritHigh_01</v>
+            <v>LP_CritDmgLow_05</v>
           </cell>
           <cell r="B64" t="str">
-            <v>LP_CritHigh</v>
+            <v>LP_CritDmgLow</v>
           </cell>
           <cell r="C64" t="str">
             <v/>
           </cell>
           <cell r="D64">
-            <v>1</v>
+            <v>5</v>
           </cell>
           <cell r="E64" t="str">
             <v>ChangeActorStatus</v>
@@ -5020,18 +4940,18 @@
             <v>-1</v>
           </cell>
           <cell r="J64">
-            <v>0.375</v>
+            <v>1.5</v>
           </cell>
           <cell r="M64" t="str">
-            <v>CriticalRate</v>
-          </cell>
-          <cell r="O64" t="str">
-            <v>8</v>
+            <v>CriticalDamageAddRate</v>
+          </cell>
+          <cell r="O64">
+            <v>9</v>
           </cell>
         </row>
         <row r="65">
           <cell r="A65" t="str">
-            <v>LP_CritDmgLow_01</v>
+            <v>LP_CritDmgLow_06</v>
           </cell>
           <cell r="B65" t="str">
             <v>LP_CritDmgLow</v>
@@ -5040,7 +4960,7 @@
             <v/>
           </cell>
           <cell r="D65">
-            <v>1</v>
+            <v>6</v>
           </cell>
           <cell r="E65" t="str">
             <v>ChangeActorStatus</v>
@@ -5052,18 +4972,18 @@
             <v>-1</v>
           </cell>
           <cell r="J65">
-            <v>0.25</v>
+            <v>1.7</v>
           </cell>
           <cell r="M65" t="str">
             <v>CriticalDamageAddRate</v>
           </cell>
-          <cell r="O65" t="str">
+          <cell r="O65">
             <v>9</v>
           </cell>
         </row>
         <row r="66">
           <cell r="A66" t="str">
-            <v>LP_CritDmgLow_02</v>
+            <v>LP_CritDmgLow_07</v>
           </cell>
           <cell r="B66" t="str">
             <v>LP_CritDmgLow</v>
@@ -5072,7 +4992,7 @@
             <v/>
           </cell>
           <cell r="D66">
-            <v>2</v>
+            <v>7</v>
           </cell>
           <cell r="E66" t="str">
             <v>ChangeActorStatus</v>
@@ -5084,18 +5004,18 @@
             <v>-1</v>
           </cell>
           <cell r="J66">
-            <v>0.25</v>
+            <v>1.9</v>
           </cell>
           <cell r="M66" t="str">
             <v>CriticalDamageAddRate</v>
           </cell>
-          <cell r="O66" t="str">
+          <cell r="O66">
             <v>9</v>
           </cell>
         </row>
         <row r="67">
           <cell r="A67" t="str">
-            <v>LP_CritDmgLow_03</v>
+            <v>LP_CritDmgLow_08</v>
           </cell>
           <cell r="B67" t="str">
             <v>LP_CritDmgLow</v>
@@ -5104,7 +5024,7 @@
             <v/>
           </cell>
           <cell r="D67">
-            <v>3</v>
+            <v>8</v>
           </cell>
           <cell r="E67" t="str">
             <v>ChangeActorStatus</v>
@@ -5116,27 +5036,27 @@
             <v>-1</v>
           </cell>
           <cell r="J67">
-            <v>0.5</v>
+            <v>2</v>
           </cell>
           <cell r="M67" t="str">
             <v>CriticalDamageAddRate</v>
           </cell>
-          <cell r="O67" t="str">
+          <cell r="O67">
             <v>9</v>
           </cell>
         </row>
         <row r="68">
           <cell r="A68" t="str">
-            <v>LP_CritDmgLow_04</v>
+            <v>LP_CritDmgMedium_01</v>
           </cell>
           <cell r="B68" t="str">
-            <v>LP_CritDmgLow</v>
+            <v>LP_CritDmgMedium</v>
           </cell>
           <cell r="C68" t="str">
             <v/>
           </cell>
           <cell r="D68">
-            <v>4</v>
+            <v>1</v>
           </cell>
           <cell r="E68" t="str">
             <v>ChangeActorStatus</v>
@@ -5148,27 +5068,27 @@
             <v>-1</v>
           </cell>
           <cell r="J68">
-            <v>0.5</v>
+            <v>0.9</v>
           </cell>
           <cell r="M68" t="str">
             <v>CriticalDamageAddRate</v>
           </cell>
-          <cell r="O68" t="str">
+          <cell r="O68">
             <v>9</v>
           </cell>
         </row>
         <row r="69">
           <cell r="A69" t="str">
-            <v>LP_CritDmgLow_05</v>
+            <v>LP_CritDmgMedium_02</v>
           </cell>
           <cell r="B69" t="str">
-            <v>LP_CritDmgLow</v>
+            <v>LP_CritDmgMedium</v>
           </cell>
           <cell r="C69" t="str">
             <v/>
           </cell>
           <cell r="D69">
-            <v>5</v>
+            <v>2</v>
           </cell>
           <cell r="E69" t="str">
             <v>ChangeActorStatus</v>
@@ -5180,27 +5100,27 @@
             <v>-1</v>
           </cell>
           <cell r="J69">
-            <v>0.75</v>
+            <v>1.3</v>
           </cell>
           <cell r="M69" t="str">
             <v>CriticalDamageAddRate</v>
           </cell>
-          <cell r="O69" t="str">
+          <cell r="O69">
             <v>9</v>
           </cell>
         </row>
         <row r="70">
           <cell r="A70" t="str">
-            <v>LP_CritDmgLow_06</v>
+            <v>LP_CritDmgMedium_03</v>
           </cell>
           <cell r="B70" t="str">
-            <v>LP_CritDmgLow</v>
+            <v>LP_CritDmgMedium</v>
           </cell>
           <cell r="C70" t="str">
             <v/>
           </cell>
           <cell r="D70">
-            <v>6</v>
+            <v>3</v>
           </cell>
           <cell r="E70" t="str">
             <v>ChangeActorStatus</v>
@@ -5212,27 +5132,27 @@
             <v>-1</v>
           </cell>
           <cell r="J70">
-            <v>0.75</v>
+            <v>1.7</v>
           </cell>
           <cell r="M70" t="str">
             <v>CriticalDamageAddRate</v>
           </cell>
-          <cell r="O70" t="str">
+          <cell r="O70">
             <v>9</v>
           </cell>
         </row>
         <row r="71">
           <cell r="A71" t="str">
-            <v>LP_CritDmgLow_07</v>
+            <v>LP_CritDmgMedium_04</v>
           </cell>
           <cell r="B71" t="str">
-            <v>LP_CritDmgLow</v>
+            <v>LP_CritDmgMedium</v>
           </cell>
           <cell r="C71" t="str">
             <v/>
           </cell>
           <cell r="D71">
-            <v>7</v>
+            <v>4</v>
           </cell>
           <cell r="E71" t="str">
             <v>ChangeActorStatus</v>
@@ -5244,27 +5164,27 @@
             <v>-1</v>
           </cell>
           <cell r="J71">
-            <v>0.75</v>
+            <v>2</v>
           </cell>
           <cell r="M71" t="str">
             <v>CriticalDamageAddRate</v>
           </cell>
-          <cell r="O71" t="str">
+          <cell r="O71">
             <v>9</v>
           </cell>
         </row>
         <row r="72">
           <cell r="A72" t="str">
-            <v>LP_CritDmgLow_08</v>
+            <v>LP_CritDmgHigh_01</v>
           </cell>
           <cell r="B72" t="str">
-            <v>LP_CritDmgLow</v>
+            <v>LP_CritDmgHigh</v>
           </cell>
           <cell r="C72" t="str">
             <v/>
           </cell>
           <cell r="D72">
-            <v>8</v>
+            <v>1</v>
           </cell>
           <cell r="E72" t="str">
             <v>ChangeActorStatus</v>
@@ -5276,27 +5196,27 @@
             <v>-1</v>
           </cell>
           <cell r="J72">
-            <v>1</v>
+            <v>1.5</v>
           </cell>
           <cell r="M72" t="str">
             <v>CriticalDamageAddRate</v>
           </cell>
-          <cell r="O72" t="str">
+          <cell r="O72">
             <v>9</v>
           </cell>
         </row>
         <row r="73">
           <cell r="A73" t="str">
-            <v>LP_CritDmgLow_09</v>
+            <v>LP_CritDmgLow_Crit_01</v>
           </cell>
           <cell r="B73" t="str">
-            <v>LP_CritDmgLow</v>
+            <v>LP_CritDmgLow_Crit</v>
           </cell>
           <cell r="C73" t="str">
             <v/>
           </cell>
           <cell r="D73">
-            <v>9</v>
+            <v>1</v>
           </cell>
           <cell r="E73" t="str">
             <v>ChangeActorStatus</v>
@@ -5308,27 +5228,27 @@
             <v>-1</v>
           </cell>
           <cell r="J73">
-            <v>1</v>
+            <v>7.0999999999999994E-2</v>
           </cell>
           <cell r="M73" t="str">
-            <v>CriticalDamageAddRate</v>
-          </cell>
-          <cell r="O73" t="str">
-            <v>9</v>
+            <v>CriticalRate</v>
+          </cell>
+          <cell r="O73">
+            <v>8</v>
           </cell>
         </row>
         <row r="74">
           <cell r="A74" t="str">
-            <v>LP_CritDmgMedium_01</v>
+            <v>LP_CritDmgLow_Crit_02</v>
           </cell>
           <cell r="B74" t="str">
-            <v>LP_CritDmgMedium</v>
+            <v>LP_CritDmgLow_Crit</v>
           </cell>
           <cell r="C74" t="str">
             <v/>
           </cell>
           <cell r="D74">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="E74" t="str">
             <v>ChangeActorStatus</v>
@@ -5340,27 +5260,27 @@
             <v>-1</v>
           </cell>
           <cell r="J74">
-            <v>0.25</v>
+            <v>0.111</v>
           </cell>
           <cell r="M74" t="str">
-            <v>CriticalDamageAddRate</v>
-          </cell>
-          <cell r="O74" t="str">
-            <v>9</v>
+            <v>CriticalRate</v>
+          </cell>
+          <cell r="O74">
+            <v>8</v>
           </cell>
         </row>
         <row r="75">
           <cell r="A75" t="str">
-            <v>LP_CritDmgMedium_02</v>
+            <v>LP_CritDmgLow_Crit_03</v>
           </cell>
           <cell r="B75" t="str">
-            <v>LP_CritDmgMedium</v>
+            <v>LP_CritDmgLow_Crit</v>
           </cell>
           <cell r="C75" t="str">
             <v/>
           </cell>
           <cell r="D75">
-            <v>2</v>
+            <v>3</v>
           </cell>
           <cell r="E75" t="str">
             <v>ChangeActorStatus</v>
@@ -5372,27 +5292,27 @@
             <v>-1</v>
           </cell>
           <cell r="J75">
-            <v>0.5</v>
+            <v>0.13600000000000001</v>
           </cell>
           <cell r="M75" t="str">
-            <v>CriticalDamageAddRate</v>
-          </cell>
-          <cell r="O75" t="str">
-            <v>9</v>
+            <v>CriticalRate</v>
+          </cell>
+          <cell r="O75">
+            <v>8</v>
           </cell>
         </row>
         <row r="76">
           <cell r="A76" t="str">
-            <v>LP_CritDmgMedium_03</v>
+            <v>LP_CritDmgLow_Crit_04</v>
           </cell>
           <cell r="B76" t="str">
-            <v>LP_CritDmgMedium</v>
+            <v>LP_CritDmgLow_Crit</v>
           </cell>
           <cell r="C76" t="str">
             <v/>
           </cell>
           <cell r="D76">
-            <v>3</v>
+            <v>4</v>
           </cell>
           <cell r="E76" t="str">
             <v>ChangeActorStatus</v>
@@ -5404,27 +5324,27 @@
             <v>-1</v>
           </cell>
           <cell r="J76">
-            <v>0.75</v>
+            <v>0.154</v>
           </cell>
           <cell r="M76" t="str">
-            <v>CriticalDamageAddRate</v>
-          </cell>
-          <cell r="O76" t="str">
-            <v>9</v>
+            <v>CriticalRate</v>
+          </cell>
+          <cell r="O76">
+            <v>8</v>
           </cell>
         </row>
         <row r="77">
           <cell r="A77" t="str">
-            <v>LP_CritDmgMedium_04</v>
+            <v>LP_CritDmgLow_Crit_05</v>
           </cell>
           <cell r="B77" t="str">
-            <v>LP_CritDmgMedium</v>
+            <v>LP_CritDmgLow_Crit</v>
           </cell>
           <cell r="C77" t="str">
             <v/>
           </cell>
           <cell r="D77">
-            <v>4</v>
+            <v>5</v>
           </cell>
           <cell r="E77" t="str">
             <v>ChangeActorStatus</v>
@@ -5436,27 +5356,27 @@
             <v>-1</v>
           </cell>
           <cell r="J77">
-            <v>1</v>
+            <v>0.16700000000000001</v>
           </cell>
           <cell r="M77" t="str">
-            <v>CriticalDamageAddRate</v>
-          </cell>
-          <cell r="O77" t="str">
-            <v>9</v>
+            <v>CriticalRate</v>
+          </cell>
+          <cell r="O77">
+            <v>8</v>
           </cell>
         </row>
         <row r="78">
           <cell r="A78" t="str">
-            <v>LP_CritDmgMedium_05</v>
+            <v>LP_CritDmgLow_Crit_06</v>
           </cell>
           <cell r="B78" t="str">
-            <v>LP_CritDmgMedium</v>
+            <v>LP_CritDmgLow_Crit</v>
           </cell>
           <cell r="C78" t="str">
             <v/>
           </cell>
           <cell r="D78">
-            <v>5</v>
+            <v>6</v>
           </cell>
           <cell r="E78" t="str">
             <v>ChangeActorStatus</v>
@@ -5468,27 +5388,27 @@
             <v>-1</v>
           </cell>
           <cell r="J78">
-            <v>1</v>
+            <v>0.17599999999999999</v>
           </cell>
           <cell r="M78" t="str">
-            <v>CriticalDamageAddRate</v>
-          </cell>
-          <cell r="O78" t="str">
-            <v>9</v>
+            <v>CriticalRate</v>
+          </cell>
+          <cell r="O78">
+            <v>8</v>
           </cell>
         </row>
         <row r="79">
           <cell r="A79" t="str">
-            <v>LP_CritDmgHigh_01</v>
+            <v>LP_CritDmgLow_Crit_07</v>
           </cell>
           <cell r="B79" t="str">
-            <v>LP_CritDmgHigh</v>
+            <v>LP_CritDmgLow_Crit</v>
           </cell>
           <cell r="C79" t="str">
             <v/>
           </cell>
           <cell r="D79">
-            <v>1</v>
+            <v>7</v>
           </cell>
           <cell r="E79" t="str">
             <v>ChangeActorStatus</v>
@@ -5500,18 +5420,18 @@
             <v>-1</v>
           </cell>
           <cell r="J79">
-            <v>0.75</v>
+            <v>0.184</v>
           </cell>
           <cell r="M79" t="str">
-            <v>CriticalDamageAddRate</v>
-          </cell>
-          <cell r="O79" t="str">
-            <v>9</v>
+            <v>CriticalRate</v>
+          </cell>
+          <cell r="O79">
+            <v>8</v>
           </cell>
         </row>
         <row r="80">
           <cell r="A80" t="str">
-            <v>LP_CritDmgLow_Crit_01</v>
+            <v>LP_CritDmgLow_Crit_08</v>
           </cell>
           <cell r="B80" t="str">
             <v>LP_CritDmgLow_Crit</v>
@@ -5520,7 +5440,7 @@
             <v/>
           </cell>
           <cell r="D80">
-            <v>1</v>
+            <v>8</v>
           </cell>
           <cell r="E80" t="str">
             <v>ChangeActorStatus</v>
@@ -5532,27 +5452,27 @@
             <v>-1</v>
           </cell>
           <cell r="J80">
-            <v>0.05</v>
+            <v>0.2</v>
           </cell>
           <cell r="M80" t="str">
             <v>CriticalRate</v>
           </cell>
-          <cell r="O80" t="str">
+          <cell r="O80">
             <v>8</v>
           </cell>
         </row>
         <row r="81">
           <cell r="A81" t="str">
-            <v>LP_CritDmgLow_Crit_02</v>
+            <v>LP_CritDmgMedium_Crit_01</v>
           </cell>
           <cell r="B81" t="str">
-            <v>LP_CritDmgLow_Crit</v>
+            <v>LP_CritDmgMedium_Crit</v>
           </cell>
           <cell r="C81" t="str">
             <v/>
           </cell>
           <cell r="D81">
-            <v>2</v>
+            <v>1</v>
           </cell>
           <cell r="E81" t="str">
             <v>ChangeActorStatus</v>
@@ -5564,27 +5484,27 @@
             <v>-1</v>
           </cell>
           <cell r="J81">
-            <v>0.1</v>
+            <v>0.111</v>
           </cell>
           <cell r="M81" t="str">
             <v>CriticalRate</v>
           </cell>
-          <cell r="O81" t="str">
+          <cell r="O81">
             <v>8</v>
           </cell>
         </row>
         <row r="82">
           <cell r="A82" t="str">
-            <v>LP_CritDmgLow_Crit_03</v>
+            <v>LP_CritDmgMedium_Crit_02</v>
           </cell>
           <cell r="B82" t="str">
-            <v>LP_CritDmgLow_Crit</v>
+            <v>LP_CritDmgMedium_Crit</v>
           </cell>
           <cell r="C82" t="str">
             <v/>
           </cell>
           <cell r="D82">
-            <v>3</v>
+            <v>2</v>
           </cell>
           <cell r="E82" t="str">
             <v>ChangeActorStatus</v>
@@ -5596,27 +5516,27 @@
             <v>-1</v>
           </cell>
           <cell r="J82">
-            <v>0.15</v>
+            <v>0.154</v>
           </cell>
           <cell r="M82" t="str">
             <v>CriticalRate</v>
           </cell>
-          <cell r="O82" t="str">
+          <cell r="O82">
             <v>8</v>
           </cell>
         </row>
         <row r="83">
           <cell r="A83" t="str">
-            <v>LP_CritDmgLow_Crit_04</v>
+            <v>LP_CritDmgMedium_Crit_03</v>
           </cell>
           <cell r="B83" t="str">
-            <v>LP_CritDmgLow_Crit</v>
+            <v>LP_CritDmgMedium_Crit</v>
           </cell>
           <cell r="C83" t="str">
             <v/>
           </cell>
           <cell r="D83">
-            <v>4</v>
+            <v>3</v>
           </cell>
           <cell r="E83" t="str">
             <v>ChangeActorStatus</v>
@@ -5628,27 +5548,27 @@
             <v>-1</v>
           </cell>
           <cell r="J83">
-            <v>0.2</v>
+            <v>0.17599999999999999</v>
           </cell>
           <cell r="M83" t="str">
             <v>CriticalRate</v>
           </cell>
-          <cell r="O83" t="str">
+          <cell r="O83">
             <v>8</v>
           </cell>
         </row>
         <row r="84">
           <cell r="A84" t="str">
-            <v>LP_CritDmgLow_Crit_05</v>
+            <v>LP_CritDmgMedium_Crit_04</v>
           </cell>
           <cell r="B84" t="str">
-            <v>LP_CritDmgLow_Crit</v>
+            <v>LP_CritDmgMedium_Crit</v>
           </cell>
           <cell r="C84" t="str">
             <v/>
           </cell>
           <cell r="D84">
-            <v>5</v>
+            <v>4</v>
           </cell>
           <cell r="E84" t="str">
             <v>ChangeActorStatus</v>
@@ -5665,22 +5585,22 @@
           <cell r="M84" t="str">
             <v>CriticalRate</v>
           </cell>
-          <cell r="O84" t="str">
+          <cell r="O84">
             <v>8</v>
           </cell>
         </row>
         <row r="85">
           <cell r="A85" t="str">
-            <v>LP_CritDmgLow_Crit_06</v>
+            <v>LP_CritDmgHigh_Crit_01</v>
           </cell>
           <cell r="B85" t="str">
-            <v>LP_CritDmgLow_Crit</v>
+            <v>LP_CritDmgHigh_Crit</v>
           </cell>
           <cell r="C85" t="str">
             <v/>
           </cell>
           <cell r="D85">
-            <v>6</v>
+            <v>1</v>
           </cell>
           <cell r="E85" t="str">
             <v>ChangeActorStatus</v>
@@ -5692,27 +5612,27 @@
             <v>-1</v>
           </cell>
           <cell r="J85">
-            <v>0.25</v>
+            <v>0.16700000000000001</v>
           </cell>
           <cell r="M85" t="str">
             <v>CriticalRate</v>
           </cell>
-          <cell r="O85" t="str">
+          <cell r="O85">
             <v>8</v>
           </cell>
         </row>
         <row r="86">
           <cell r="A86" t="str">
-            <v>LP_CritDmgLow_Crit_07</v>
+            <v>LP_MaxHpLow_01</v>
           </cell>
           <cell r="B86" t="str">
-            <v>LP_CritDmgLow_Crit</v>
+            <v>LP_MaxHpLow</v>
           </cell>
           <cell r="C86" t="str">
             <v/>
           </cell>
           <cell r="D86">
-            <v>7</v>
+            <v>1</v>
           </cell>
           <cell r="E86" t="str">
             <v>ChangeActorStatus</v>
@@ -5724,27 +5644,27 @@
             <v>-1</v>
           </cell>
           <cell r="J86">
-            <v>0.3</v>
+            <v>0.1</v>
           </cell>
           <cell r="M86" t="str">
-            <v>CriticalRate</v>
-          </cell>
-          <cell r="O86" t="str">
-            <v>8</v>
+            <v>MaxHpAddRate</v>
+          </cell>
+          <cell r="O86">
+            <v>17</v>
           </cell>
         </row>
         <row r="87">
           <cell r="A87" t="str">
-            <v>LP_CritDmgLow_Crit_08</v>
+            <v>LP_MaxHpLow_02</v>
           </cell>
           <cell r="B87" t="str">
-            <v>LP_CritDmgLow_Crit</v>
+            <v>LP_MaxHpLow</v>
           </cell>
           <cell r="C87" t="str">
             <v/>
           </cell>
           <cell r="D87">
-            <v>8</v>
+            <v>2</v>
           </cell>
           <cell r="E87" t="str">
             <v>ChangeActorStatus</v>
@@ -5756,27 +5676,27 @@
             <v>-1</v>
           </cell>
           <cell r="J87">
-            <v>0.3</v>
+            <v>0.2</v>
           </cell>
           <cell r="M87" t="str">
-            <v>CriticalRate</v>
-          </cell>
-          <cell r="O87" t="str">
-            <v>8</v>
+            <v>MaxHpAddRate</v>
+          </cell>
+          <cell r="O87">
+            <v>17</v>
           </cell>
         </row>
         <row r="88">
           <cell r="A88" t="str">
-            <v>LP_CritDmgLow_Crit_09</v>
+            <v>LP_MaxHpLow_03</v>
           </cell>
           <cell r="B88" t="str">
-            <v>LP_CritDmgLow_Crit</v>
+            <v>LP_MaxHpLow</v>
           </cell>
           <cell r="C88" t="str">
             <v/>
           </cell>
           <cell r="D88">
-            <v>9</v>
+            <v>3</v>
           </cell>
           <cell r="E88" t="str">
             <v>ChangeActorStatus</v>
@@ -5788,27 +5708,27 @@
             <v>-1</v>
           </cell>
           <cell r="J88">
-            <v>0.35</v>
+            <v>0.3</v>
           </cell>
           <cell r="M88" t="str">
-            <v>CriticalRate</v>
-          </cell>
-          <cell r="O88" t="str">
-            <v>8</v>
+            <v>MaxHpAddRate</v>
+          </cell>
+          <cell r="O88">
+            <v>17</v>
           </cell>
         </row>
         <row r="89">
           <cell r="A89" t="str">
-            <v>LP_CritDmgMedium_Crit_01</v>
+            <v>LP_MaxHpLow_04</v>
           </cell>
           <cell r="B89" t="str">
-            <v>LP_CritDmgMedium_Crit</v>
+            <v>LP_MaxHpLow</v>
           </cell>
           <cell r="C89" t="str">
             <v/>
           </cell>
           <cell r="D89">
-            <v>1</v>
+            <v>4</v>
           </cell>
           <cell r="E89" t="str">
             <v>ChangeActorStatus</v>
@@ -5820,27 +5740,27 @@
             <v>-1</v>
           </cell>
           <cell r="J89">
-            <v>0.1</v>
+            <v>0.4</v>
           </cell>
           <cell r="M89" t="str">
-            <v>CriticalRate</v>
-          </cell>
-          <cell r="O89" t="str">
-            <v>8</v>
+            <v>MaxHpAddRate</v>
+          </cell>
+          <cell r="O89">
+            <v>17</v>
           </cell>
         </row>
         <row r="90">
           <cell r="A90" t="str">
-            <v>LP_CritDmgMedium_Crit_02</v>
+            <v>LP_MaxHpLow_05</v>
           </cell>
           <cell r="B90" t="str">
-            <v>LP_CritDmgMedium_Crit</v>
+            <v>LP_MaxHpLow</v>
           </cell>
           <cell r="C90" t="str">
             <v/>
           </cell>
           <cell r="D90">
-            <v>2</v>
+            <v>5</v>
           </cell>
           <cell r="E90" t="str">
             <v>ChangeActorStatus</v>
@@ -5852,27 +5772,27 @@
             <v>-1</v>
           </cell>
           <cell r="J90">
-            <v>0.2</v>
+            <v>0.5</v>
           </cell>
           <cell r="M90" t="str">
-            <v>CriticalRate</v>
-          </cell>
-          <cell r="O90" t="str">
-            <v>8</v>
+            <v>MaxHpAddRate</v>
+          </cell>
+          <cell r="O90">
+            <v>17</v>
           </cell>
         </row>
         <row r="91">
           <cell r="A91" t="str">
-            <v>LP_CritDmgMedium_Crit_03</v>
+            <v>LP_MaxHpLow_06</v>
           </cell>
           <cell r="B91" t="str">
-            <v>LP_CritDmgMedium_Crit</v>
+            <v>LP_MaxHpLow</v>
           </cell>
           <cell r="C91" t="str">
             <v/>
           </cell>
           <cell r="D91">
-            <v>3</v>
+            <v>6</v>
           </cell>
           <cell r="E91" t="str">
             <v>ChangeActorStatus</v>
@@ -5884,27 +5804,27 @@
             <v>-1</v>
           </cell>
           <cell r="J91">
-            <v>0.25</v>
+            <v>0.6</v>
           </cell>
           <cell r="M91" t="str">
-            <v>CriticalRate</v>
-          </cell>
-          <cell r="O91" t="str">
-            <v>8</v>
+            <v>MaxHpAddRate</v>
+          </cell>
+          <cell r="O91">
+            <v>17</v>
           </cell>
         </row>
         <row r="92">
           <cell r="A92" t="str">
-            <v>LP_CritDmgMedium_Crit_04</v>
+            <v>LP_MaxHpLow_07</v>
           </cell>
           <cell r="B92" t="str">
-            <v>LP_CritDmgMedium_Crit</v>
+            <v>LP_MaxHpLow</v>
           </cell>
           <cell r="C92" t="str">
             <v/>
           </cell>
           <cell r="D92">
-            <v>4</v>
+            <v>7</v>
           </cell>
           <cell r="E92" t="str">
             <v>ChangeActorStatus</v>
@@ -5916,27 +5836,27 @@
             <v>-1</v>
           </cell>
           <cell r="J92">
-            <v>0.3</v>
+            <v>0.7</v>
           </cell>
           <cell r="M92" t="str">
-            <v>CriticalRate</v>
-          </cell>
-          <cell r="O92" t="str">
-            <v>8</v>
+            <v>MaxHpAddRate</v>
+          </cell>
+          <cell r="O92">
+            <v>17</v>
           </cell>
         </row>
         <row r="93">
           <cell r="A93" t="str">
-            <v>LP_CritDmgMedium_Crit_05</v>
+            <v>LP_MaxHpLow_08</v>
           </cell>
           <cell r="B93" t="str">
-            <v>LP_CritDmgMedium_Crit</v>
+            <v>LP_MaxHpLow</v>
           </cell>
           <cell r="C93" t="str">
             <v/>
           </cell>
           <cell r="D93">
-            <v>5</v>
+            <v>8</v>
           </cell>
           <cell r="E93" t="str">
             <v>ChangeActorStatus</v>
@@ -5948,27 +5868,27 @@
             <v>-1</v>
           </cell>
           <cell r="J93">
-            <v>0.4</v>
+            <v>0.8</v>
           </cell>
           <cell r="M93" t="str">
-            <v>CriticalRate</v>
-          </cell>
-          <cell r="O93" t="str">
-            <v>8</v>
+            <v>MaxHpAddRate</v>
+          </cell>
+          <cell r="O93">
+            <v>17</v>
           </cell>
         </row>
         <row r="94">
           <cell r="A94" t="str">
-            <v>LP_CritDmgHigh_Crit_01</v>
+            <v>LP_MaxHpLow_09</v>
           </cell>
           <cell r="B94" t="str">
-            <v>LP_CritDmgHigh_Crit</v>
+            <v>LP_MaxHpLow</v>
           </cell>
           <cell r="C94" t="str">
             <v/>
           </cell>
           <cell r="D94">
-            <v>1</v>
+            <v>9</v>
           </cell>
           <cell r="E94" t="str">
             <v>ChangeActorStatus</v>
@@ -5980,21 +5900,21 @@
             <v>-1</v>
           </cell>
           <cell r="J94">
-            <v>0.2</v>
+            <v>0.9</v>
           </cell>
           <cell r="M94" t="str">
-            <v>CriticalRate</v>
-          </cell>
-          <cell r="O94" t="str">
-            <v>8</v>
+            <v>MaxHpAddRate</v>
+          </cell>
+          <cell r="O94">
+            <v>17</v>
           </cell>
         </row>
         <row r="95">
           <cell r="A95" t="str">
-            <v>LP_MaxHpLow_01</v>
+            <v>LP_MaxHpMedium_01</v>
           </cell>
           <cell r="B95" t="str">
-            <v>LP_MaxHpLow</v>
+            <v>LP_MaxHpMedium</v>
           </cell>
           <cell r="C95" t="str">
             <v/>
@@ -6012,21 +5932,21 @@
             <v>-1</v>
           </cell>
           <cell r="J95">
-            <v>0.1</v>
+            <v>0.2</v>
           </cell>
           <cell r="M95" t="str">
             <v>MaxHpAddRate</v>
           </cell>
-          <cell r="O95" t="str">
+          <cell r="O95">
             <v>17</v>
           </cell>
         </row>
         <row r="96">
           <cell r="A96" t="str">
-            <v>LP_MaxHpLow_02</v>
+            <v>LP_MaxHpMedium_02</v>
           </cell>
           <cell r="B96" t="str">
-            <v>LP_MaxHpLow</v>
+            <v>LP_MaxHpMedium</v>
           </cell>
           <cell r="C96" t="str">
             <v/>
@@ -6044,21 +5964,21 @@
             <v>-1</v>
           </cell>
           <cell r="J96">
-            <v>0.2</v>
+            <v>0.4</v>
           </cell>
           <cell r="M96" t="str">
             <v>MaxHpAddRate</v>
           </cell>
-          <cell r="O96" t="str">
+          <cell r="O96">
             <v>17</v>
           </cell>
         </row>
         <row r="97">
           <cell r="A97" t="str">
-            <v>LP_MaxHpLow_03</v>
+            <v>LP_MaxHpMedium_03</v>
           </cell>
           <cell r="B97" t="str">
-            <v>LP_MaxHpLow</v>
+            <v>LP_MaxHpMedium</v>
           </cell>
           <cell r="C97" t="str">
             <v/>
@@ -6076,21 +5996,21 @@
             <v>-1</v>
           </cell>
           <cell r="J97">
-            <v>0.3</v>
+            <v>0.6</v>
           </cell>
           <cell r="M97" t="str">
             <v>MaxHpAddRate</v>
           </cell>
-          <cell r="O97" t="str">
+          <cell r="O97">
             <v>17</v>
           </cell>
         </row>
         <row r="98">
           <cell r="A98" t="str">
-            <v>LP_MaxHpLow_04</v>
+            <v>LP_MaxHpMedium_04</v>
           </cell>
           <cell r="B98" t="str">
-            <v>LP_MaxHpLow</v>
+            <v>LP_MaxHpMedium</v>
           </cell>
           <cell r="C98" t="str">
             <v/>
@@ -6108,21 +6028,21 @@
             <v>-1</v>
           </cell>
           <cell r="J98">
-            <v>0.4</v>
+            <v>0.8</v>
           </cell>
           <cell r="M98" t="str">
             <v>MaxHpAddRate</v>
           </cell>
-          <cell r="O98" t="str">
+          <cell r="O98">
             <v>17</v>
           </cell>
         </row>
         <row r="99">
           <cell r="A99" t="str">
-            <v>LP_MaxHpLow_05</v>
+            <v>LP_MaxHpMedium_05</v>
           </cell>
           <cell r="B99" t="str">
-            <v>LP_MaxHpLow</v>
+            <v>LP_MaxHpMedium</v>
           </cell>
           <cell r="C99" t="str">
             <v/>
@@ -6140,21 +6060,21 @@
             <v>-1</v>
           </cell>
           <cell r="J99">
-            <v>0.5</v>
+            <v>1</v>
           </cell>
           <cell r="M99" t="str">
             <v>MaxHpAddRate</v>
           </cell>
-          <cell r="O99" t="str">
+          <cell r="O99">
             <v>17</v>
           </cell>
         </row>
         <row r="100">
           <cell r="A100" t="str">
-            <v>LP_MaxHpLow_06</v>
+            <v>LP_MaxHpMedium_06</v>
           </cell>
           <cell r="B100" t="str">
-            <v>LP_MaxHpLow</v>
+            <v>LP_MaxHpMedium</v>
           </cell>
           <cell r="C100" t="str">
             <v/>
@@ -6172,21 +6092,21 @@
             <v>-1</v>
           </cell>
           <cell r="J100">
-            <v>0.6</v>
+            <v>1.2</v>
           </cell>
           <cell r="M100" t="str">
             <v>MaxHpAddRate</v>
           </cell>
-          <cell r="O100" t="str">
+          <cell r="O100">
             <v>17</v>
           </cell>
         </row>
         <row r="101">
           <cell r="A101" t="str">
-            <v>LP_MaxHpLow_07</v>
+            <v>LP_MaxHpMedium_07</v>
           </cell>
           <cell r="B101" t="str">
-            <v>LP_MaxHpLow</v>
+            <v>LP_MaxHpMedium</v>
           </cell>
           <cell r="C101" t="str">
             <v/>
@@ -6204,21 +6124,21 @@
             <v>-1</v>
           </cell>
           <cell r="J101">
-            <v>0.7</v>
+            <v>1.4</v>
           </cell>
           <cell r="M101" t="str">
             <v>MaxHpAddRate</v>
           </cell>
-          <cell r="O101" t="str">
+          <cell r="O101">
             <v>17</v>
           </cell>
         </row>
         <row r="102">
           <cell r="A102" t="str">
-            <v>LP_MaxHpLow_08</v>
+            <v>LP_MaxHpMedium_08</v>
           </cell>
           <cell r="B102" t="str">
-            <v>LP_MaxHpLow</v>
+            <v>LP_MaxHpMedium</v>
           </cell>
           <cell r="C102" t="str">
             <v/>
@@ -6236,21 +6156,21 @@
             <v>-1</v>
           </cell>
           <cell r="J102">
-            <v>0.8</v>
+            <v>1.6</v>
           </cell>
           <cell r="M102" t="str">
             <v>MaxHpAddRate</v>
           </cell>
-          <cell r="O102" t="str">
+          <cell r="O102">
             <v>17</v>
           </cell>
         </row>
         <row r="103">
           <cell r="A103" t="str">
-            <v>LP_MaxHpLow_09</v>
+            <v>LP_MaxHpMedium_09</v>
           </cell>
           <cell r="B103" t="str">
-            <v>LP_MaxHpLow</v>
+            <v>LP_MaxHpMedium</v>
           </cell>
           <cell r="C103" t="str">
             <v/>
@@ -6268,21 +6188,21 @@
             <v>-1</v>
           </cell>
           <cell r="J103">
-            <v>0.9</v>
+            <v>1.8</v>
           </cell>
           <cell r="M103" t="str">
             <v>MaxHpAddRate</v>
           </cell>
-          <cell r="O103" t="str">
+          <cell r="O103">
             <v>17</v>
           </cell>
         </row>
         <row r="104">
           <cell r="A104" t="str">
-            <v>LP_MaxHpMedium_01</v>
+            <v>LP_MaxHpHigh_01</v>
           </cell>
           <cell r="B104" t="str">
-            <v>LP_MaxHpMedium</v>
+            <v>LP_MaxHpHigh</v>
           </cell>
           <cell r="C104" t="str">
             <v/>
@@ -6300,21 +6220,21 @@
             <v>-1</v>
           </cell>
           <cell r="J104">
-            <v>0.2</v>
+            <v>0.3</v>
           </cell>
           <cell r="M104" t="str">
             <v>MaxHpAddRate</v>
           </cell>
-          <cell r="O104" t="str">
+          <cell r="O104">
             <v>17</v>
           </cell>
         </row>
         <row r="105">
           <cell r="A105" t="str">
-            <v>LP_MaxHpMedium_02</v>
+            <v>LP_MaxHpHigh_02</v>
           </cell>
           <cell r="B105" t="str">
-            <v>LP_MaxHpMedium</v>
+            <v>LP_MaxHpHigh</v>
           </cell>
           <cell r="C105" t="str">
             <v/>
@@ -6332,21 +6252,21 @@
             <v>-1</v>
           </cell>
           <cell r="J105">
-            <v>0.4</v>
+            <v>0.6</v>
           </cell>
           <cell r="M105" t="str">
             <v>MaxHpAddRate</v>
           </cell>
-          <cell r="O105" t="str">
+          <cell r="O105">
             <v>17</v>
           </cell>
         </row>
         <row r="106">
           <cell r="A106" t="str">
-            <v>LP_MaxHpMedium_03</v>
+            <v>LP_MaxHpHigh_03</v>
           </cell>
           <cell r="B106" t="str">
-            <v>LP_MaxHpMedium</v>
+            <v>LP_MaxHpHigh</v>
           </cell>
           <cell r="C106" t="str">
             <v/>
@@ -6364,21 +6284,21 @@
             <v>-1</v>
           </cell>
           <cell r="J106">
-            <v>0.6</v>
+            <v>0.85</v>
           </cell>
           <cell r="M106" t="str">
             <v>MaxHpAddRate</v>
           </cell>
-          <cell r="O106" t="str">
+          <cell r="O106">
             <v>17</v>
           </cell>
         </row>
         <row r="107">
           <cell r="A107" t="str">
-            <v>LP_MaxHpMedium_04</v>
+            <v>LP_MaxHpHigh_04</v>
           </cell>
           <cell r="B107" t="str">
-            <v>LP_MaxHpMedium</v>
+            <v>LP_MaxHpHigh</v>
           </cell>
           <cell r="C107" t="str">
             <v/>
@@ -6396,21 +6316,21 @@
             <v>-1</v>
           </cell>
           <cell r="J107">
-            <v>0.8</v>
+            <v>1.1000000000000001</v>
           </cell>
           <cell r="M107" t="str">
             <v>MaxHpAddRate</v>
           </cell>
-          <cell r="O107" t="str">
+          <cell r="O107">
             <v>17</v>
           </cell>
         </row>
         <row r="108">
           <cell r="A108" t="str">
-            <v>LP_MaxHpMedium_05</v>
+            <v>LP_MaxHpHigh_05</v>
           </cell>
           <cell r="B108" t="str">
-            <v>LP_MaxHpMedium</v>
+            <v>LP_MaxHpHigh</v>
           </cell>
           <cell r="C108" t="str">
             <v/>
@@ -6428,301 +6348,519 @@
             <v>-1</v>
           </cell>
           <cell r="J108">
-            <v>1</v>
+            <v>1.35</v>
           </cell>
           <cell r="M108" t="str">
             <v>MaxHpAddRate</v>
           </cell>
-          <cell r="O108" t="str">
+          <cell r="O108">
             <v>17</v>
           </cell>
         </row>
         <row r="109">
           <cell r="A109" t="str">
-            <v>LP_MaxHpMedium_06</v>
+            <v>LP_ExtraGold_01</v>
           </cell>
           <cell r="B109" t="str">
-            <v>LP_MaxHpMedium</v>
+            <v>LP_ExtraGold</v>
           </cell>
           <cell r="C109" t="str">
             <v/>
           </cell>
           <cell r="D109">
-            <v>6</v>
+            <v>1</v>
           </cell>
           <cell r="E109" t="str">
-            <v>ChangeActorStatus</v>
+            <v>DropAdjust</v>
           </cell>
           <cell r="H109" t="str">
             <v/>
           </cell>
-          <cell r="I109">
-            <v>-1</v>
-          </cell>
           <cell r="J109">
-            <v>1.2</v>
-          </cell>
-          <cell r="M109" t="str">
-            <v>MaxHpAddRate</v>
+            <v>0.2</v>
           </cell>
           <cell r="O109" t="str">
-            <v>17</v>
+            <v/>
           </cell>
         </row>
         <row r="110">
           <cell r="A110" t="str">
-            <v>LP_MaxHpMedium_07</v>
+            <v>LP_ItemChanceBoost_01</v>
           </cell>
           <cell r="B110" t="str">
-            <v>LP_MaxHpMedium</v>
+            <v>LP_ItemChanceBoost</v>
           </cell>
           <cell r="C110" t="str">
             <v/>
           </cell>
           <cell r="D110">
-            <v>7</v>
+            <v>1</v>
           </cell>
           <cell r="E110" t="str">
-            <v>ChangeActorStatus</v>
+            <v>DropAdjust</v>
           </cell>
           <cell r="H110" t="str">
             <v/>
           </cell>
-          <cell r="I110">
-            <v>-1</v>
-          </cell>
-          <cell r="J110">
-            <v>1.4</v>
-          </cell>
-          <cell r="M110" t="str">
-            <v>MaxHpAddRate</v>
+          <cell r="K110">
+            <v>0.2</v>
           </cell>
           <cell r="O110" t="str">
-            <v>17</v>
+            <v/>
           </cell>
         </row>
         <row r="111">
           <cell r="A111" t="str">
-            <v>LP_MaxHpMedium_08</v>
+            <v>LP_HealChanceBoost_01</v>
           </cell>
           <cell r="B111" t="str">
-            <v>LP_MaxHpMedium</v>
+            <v>LP_HealChanceBoost</v>
           </cell>
           <cell r="C111" t="str">
             <v/>
           </cell>
           <cell r="D111">
-            <v>8</v>
+            <v>1</v>
           </cell>
           <cell r="E111" t="str">
-            <v>ChangeActorStatus</v>
+            <v>DropAdjust</v>
           </cell>
           <cell r="H111" t="str">
             <v/>
           </cell>
-          <cell r="I111">
-            <v>-1</v>
-          </cell>
-          <cell r="J111">
-            <v>1.6</v>
-          </cell>
-          <cell r="M111" t="str">
-            <v>MaxHpAddRate</v>
+          <cell r="L111">
+            <v>0.5</v>
           </cell>
           <cell r="O111" t="str">
-            <v>17</v>
+            <v/>
           </cell>
         </row>
         <row r="112">
           <cell r="A112" t="str">
-            <v>LP_MaxHpMedium_09</v>
+            <v>LP_MonsterThrough_01</v>
           </cell>
           <cell r="B112" t="str">
-            <v>LP_MaxHpMedium</v>
+            <v>LP_MonsterThrough</v>
           </cell>
           <cell r="C112" t="str">
             <v/>
           </cell>
           <cell r="D112">
-            <v>9</v>
+            <v>1</v>
           </cell>
           <cell r="E112" t="str">
-            <v>ChangeActorStatus</v>
+            <v>MonsterThroughHitObject</v>
           </cell>
           <cell r="H112" t="str">
             <v/>
           </cell>
-          <cell r="I112">
-            <v>-1</v>
-          </cell>
-          <cell r="J112">
-            <v>1.8</v>
-          </cell>
-          <cell r="M112" t="str">
-            <v>MaxHpAddRate</v>
-          </cell>
-          <cell r="O112" t="str">
-            <v>17</v>
+          <cell r="N112">
+            <v>1</v>
+          </cell>
+          <cell r="O112">
+            <v>1</v>
           </cell>
         </row>
         <row r="113">
           <cell r="A113" t="str">
-            <v>LP_MaxHpHigh_01</v>
+            <v>LP_MonsterThrough_02</v>
           </cell>
           <cell r="B113" t="str">
-            <v>LP_MaxHpHigh</v>
+            <v>LP_MonsterThrough</v>
           </cell>
           <cell r="C113" t="str">
             <v/>
           </cell>
           <cell r="D113">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="E113" t="str">
-            <v>ChangeActorStatus</v>
+            <v>MonsterThroughHitObject</v>
           </cell>
           <cell r="H113" t="str">
             <v/>
           </cell>
-          <cell r="I113">
-            <v>-1</v>
-          </cell>
-          <cell r="J113">
-            <v>0.3</v>
-          </cell>
-          <cell r="M113" t="str">
-            <v>MaxHpAddRate</v>
-          </cell>
-          <cell r="O113" t="str">
-            <v>17</v>
+          <cell r="N113">
+            <v>2</v>
+          </cell>
+          <cell r="O113">
+            <v>2</v>
           </cell>
         </row>
         <row r="114">
           <cell r="A114" t="str">
-            <v>LP_MaxHpHigh_02</v>
+            <v>LP_Ricochet_01</v>
           </cell>
           <cell r="B114" t="str">
-            <v>LP_MaxHpHigh</v>
+            <v>LP_Ricochet</v>
           </cell>
           <cell r="C114" t="str">
             <v/>
           </cell>
           <cell r="D114">
-            <v>2</v>
+            <v>1</v>
           </cell>
           <cell r="E114" t="str">
-            <v>ChangeActorStatus</v>
+            <v>RicochetHitObject</v>
           </cell>
           <cell r="H114" t="str">
             <v/>
           </cell>
-          <cell r="I114">
-            <v>-1</v>
-          </cell>
-          <cell r="J114">
-            <v>0.6</v>
-          </cell>
-          <cell r="M114" t="str">
-            <v>MaxHpAddRate</v>
-          </cell>
-          <cell r="O114" t="str">
-            <v>17</v>
+          <cell r="N114">
+            <v>1</v>
+          </cell>
+          <cell r="O114">
+            <v>1</v>
           </cell>
         </row>
         <row r="115">
           <cell r="A115" t="str">
-            <v>LP_MaxHpHigh_03</v>
+            <v>LP_Ricochet_02</v>
           </cell>
           <cell r="B115" t="str">
-            <v>LP_MaxHpHigh</v>
+            <v>LP_Ricochet</v>
           </cell>
           <cell r="C115" t="str">
             <v/>
           </cell>
           <cell r="D115">
-            <v>3</v>
+            <v>2</v>
           </cell>
           <cell r="E115" t="str">
-            <v>ChangeActorStatus</v>
+            <v>RicochetHitObject</v>
           </cell>
           <cell r="H115" t="str">
             <v/>
           </cell>
-          <cell r="I115">
-            <v>-1</v>
-          </cell>
-          <cell r="J115">
-            <v>0.85</v>
-          </cell>
-          <cell r="M115" t="str">
-            <v>MaxHpAddRate</v>
-          </cell>
-          <cell r="O115" t="str">
-            <v>17</v>
+          <cell r="N115">
+            <v>2</v>
+          </cell>
+          <cell r="O115">
+            <v>2</v>
           </cell>
         </row>
         <row r="116">
           <cell r="A116" t="str">
-            <v>LP_MaxHpHigh_04</v>
+            <v>LP_BounceWallQuad_01</v>
           </cell>
           <cell r="B116" t="str">
-            <v>LP_MaxHpHigh</v>
+            <v>LP_BounceWallQuad</v>
           </cell>
           <cell r="C116" t="str">
             <v/>
           </cell>
           <cell r="D116">
-            <v>4</v>
+            <v>1</v>
           </cell>
           <cell r="E116" t="str">
-            <v>ChangeActorStatus</v>
+            <v>BounceWallQuadHitObject</v>
           </cell>
           <cell r="H116" t="str">
             <v/>
           </cell>
-          <cell r="I116">
-            <v>-1</v>
-          </cell>
-          <cell r="J116">
-            <v>1.1000000000000001</v>
-          </cell>
-          <cell r="M116" t="str">
-            <v>MaxHpAddRate</v>
-          </cell>
-          <cell r="O116" t="str">
-            <v>17</v>
+          <cell r="N116">
+            <v>1</v>
+          </cell>
+          <cell r="O116">
+            <v>1</v>
           </cell>
         </row>
         <row r="117">
           <cell r="A117" t="str">
-            <v>LP_MaxHpHigh_05</v>
+            <v>LP_BounceWallQuad_02</v>
           </cell>
           <cell r="B117" t="str">
-            <v>LP_MaxHpHigh</v>
+            <v>LP_BounceWallQuad</v>
           </cell>
           <cell r="C117" t="str">
             <v/>
           </cell>
           <cell r="D117">
-            <v>5</v>
+            <v>2</v>
           </cell>
           <cell r="E117" t="str">
-            <v>ChangeActorStatus</v>
+            <v>BounceWallQuadHitObject</v>
           </cell>
           <cell r="H117" t="str">
             <v/>
           </cell>
-          <cell r="I117">
-            <v>-1</v>
-          </cell>
-          <cell r="J117">
-            <v>1.35</v>
-          </cell>
-          <cell r="M117" t="str">
-            <v>MaxHpAddRate</v>
-          </cell>
-          <cell r="O117" t="str">
-            <v>17</v>
+          <cell r="N117">
+            <v>2</v>
+          </cell>
+          <cell r="O117">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="118">
+          <cell r="A118" t="str">
+            <v>LP_Parallel_01</v>
+          </cell>
+          <cell r="B118" t="str">
+            <v>LP_Parallel</v>
+          </cell>
+          <cell r="C118" t="str">
+            <v/>
+          </cell>
+          <cell r="D118">
+            <v>1</v>
+          </cell>
+          <cell r="E118" t="str">
+            <v>ParallelHitObject</v>
+          </cell>
+          <cell r="H118" t="str">
+            <v/>
+          </cell>
+          <cell r="J118">
+            <v>0.6</v>
+          </cell>
+          <cell r="N118">
+            <v>2</v>
+          </cell>
+          <cell r="O118">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="119">
+          <cell r="A119" t="str">
+            <v>LP_Parallel_02</v>
+          </cell>
+          <cell r="B119" t="str">
+            <v>LP_Parallel</v>
+          </cell>
+          <cell r="C119" t="str">
+            <v/>
+          </cell>
+          <cell r="D119">
+            <v>2</v>
+          </cell>
+          <cell r="E119" t="str">
+            <v>ParallelHitObject</v>
+          </cell>
+          <cell r="H119" t="str">
+            <v/>
+          </cell>
+          <cell r="J119">
+            <v>0.6</v>
+          </cell>
+          <cell r="N119">
+            <v>3</v>
+          </cell>
+          <cell r="O119">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="120">
+          <cell r="A120" t="str">
+            <v>LP_DiagonalNwayGenerator_01</v>
+          </cell>
+          <cell r="B120" t="str">
+            <v>LP_DiagonalNwayGenerator</v>
+          </cell>
+          <cell r="C120" t="str">
+            <v/>
+          </cell>
+          <cell r="D120">
+            <v>1</v>
+          </cell>
+          <cell r="E120" t="str">
+            <v>DiagonalNwayGenerator</v>
+          </cell>
+          <cell r="H120" t="str">
+            <v/>
+          </cell>
+          <cell r="N120">
+            <v>1</v>
+          </cell>
+          <cell r="O120">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="121">
+          <cell r="A121" t="str">
+            <v>LP_DiagonalNwayGenerator_02</v>
+          </cell>
+          <cell r="B121" t="str">
+            <v>LP_DiagonalNwayGenerator</v>
+          </cell>
+          <cell r="C121" t="str">
+            <v/>
+          </cell>
+          <cell r="D121">
+            <v>2</v>
+          </cell>
+          <cell r="E121" t="str">
+            <v>DiagonalNwayGenerator</v>
+          </cell>
+          <cell r="H121" t="str">
+            <v/>
+          </cell>
+          <cell r="N121">
+            <v>2</v>
+          </cell>
+          <cell r="O121">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="122">
+          <cell r="A122" t="str">
+            <v>LP_LeftRightNwayGenerator_01</v>
+          </cell>
+          <cell r="B122" t="str">
+            <v>LP_LeftRightNwayGenerator</v>
+          </cell>
+          <cell r="C122" t="str">
+            <v/>
+          </cell>
+          <cell r="D122">
+            <v>1</v>
+          </cell>
+          <cell r="E122" t="str">
+            <v>LeftRightNwayGenerator</v>
+          </cell>
+          <cell r="H122" t="str">
+            <v/>
+          </cell>
+          <cell r="N122">
+            <v>1</v>
+          </cell>
+          <cell r="O122">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="123">
+          <cell r="A123" t="str">
+            <v>LP_LeftRightNwayGenerator_02</v>
+          </cell>
+          <cell r="B123" t="str">
+            <v>LP_LeftRightNwayGenerator</v>
+          </cell>
+          <cell r="C123" t="str">
+            <v/>
+          </cell>
+          <cell r="D123">
+            <v>2</v>
+          </cell>
+          <cell r="E123" t="str">
+            <v>LeftRightNwayGenerator</v>
+          </cell>
+          <cell r="H123" t="str">
+            <v/>
+          </cell>
+          <cell r="N123">
+            <v>2</v>
+          </cell>
+          <cell r="O123">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="124">
+          <cell r="A124" t="str">
+            <v>LP_BackNwayGenerator_01</v>
+          </cell>
+          <cell r="B124" t="str">
+            <v>LP_BackNwayGenerator</v>
+          </cell>
+          <cell r="C124" t="str">
+            <v/>
+          </cell>
+          <cell r="D124">
+            <v>1</v>
+          </cell>
+          <cell r="E124" t="str">
+            <v>BackNwayGenerator</v>
+          </cell>
+          <cell r="H124" t="str">
+            <v/>
+          </cell>
+          <cell r="N124">
+            <v>1</v>
+          </cell>
+          <cell r="O124">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="125">
+          <cell r="A125" t="str">
+            <v>LP_BackNwayGenerator_02</v>
+          </cell>
+          <cell r="B125" t="str">
+            <v>LP_BackNwayGenerator</v>
+          </cell>
+          <cell r="C125" t="str">
+            <v/>
+          </cell>
+          <cell r="D125">
+            <v>2</v>
+          </cell>
+          <cell r="E125" t="str">
+            <v>BackNwayGenerator</v>
+          </cell>
+          <cell r="H125" t="str">
+            <v/>
+          </cell>
+          <cell r="N125">
+            <v>2</v>
+          </cell>
+          <cell r="O125">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="126">
+          <cell r="A126" t="str">
+            <v>LP_Repeat_01</v>
+          </cell>
+          <cell r="B126" t="str">
+            <v>LP_Repeat</v>
+          </cell>
+          <cell r="C126" t="str">
+            <v/>
+          </cell>
+          <cell r="D126">
+            <v>1</v>
+          </cell>
+          <cell r="E126" t="str">
+            <v>RepeatHitObject</v>
+          </cell>
+          <cell r="H126" t="str">
+            <v/>
+          </cell>
+          <cell r="J126">
+            <v>0.5</v>
+          </cell>
+          <cell r="N126">
+            <v>1</v>
+          </cell>
+          <cell r="O126">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="127">
+          <cell r="A127" t="str">
+            <v>LP_Repeat_02</v>
+          </cell>
+          <cell r="B127" t="str">
+            <v>LP_Repeat</v>
+          </cell>
+          <cell r="C127" t="str">
+            <v/>
+          </cell>
+          <cell r="D127">
+            <v>2</v>
+          </cell>
+          <cell r="E127" t="str">
+            <v>RepeatHitObject</v>
+          </cell>
+          <cell r="H127" t="str">
+            <v/>
+          </cell>
+          <cell r="J127">
+            <v>0.5</v>
+          </cell>
+          <cell r="N127">
+            <v>2</v>
+          </cell>
+          <cell r="O127">
+            <v>2</v>
           </cell>
         </row>
       </sheetData>
@@ -6744,7 +6882,13 @@
       <sheetName val="TitleStringTable"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>id|String</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="1">
         <row r="1">
           <cell r="A1" t="str">
@@ -7121,7 +7265,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:U10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -7144,13 +7288,13 @@
     <col min="12" max="12" width="13.625" customWidth="1" outlineLevel="1"/>
     <col min="14" max="14" width="14.25" customWidth="1" outlineLevel="1"/>
     <col min="16" max="16" width="12.125" customWidth="1" outlineLevel="1"/>
-    <col min="17" max="18" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="20" max="20" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="19" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="21" width="9" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B1" t="s">
         <v>46</v>
@@ -7177,13 +7321,13 @@
         <v>51</v>
       </c>
       <c r="J1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="K1" t="s">
         <v>52</v>
       </c>
       <c r="L1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="N1" t="s">
         <v>33</v>
@@ -7195,44 +7339,23 @@
         <v>21</v>
       </c>
       <c r="R1" t="str">
-        <f ca="1">IF(OR(OFFSET(R1,1,0)&lt;OFFSET(R1,2,0),OFFSET(R1,2,0)&lt;OFFSET(R1,3,0),
-OFFSET(R1,3,0)&lt;OFFSET(R1,4,0),OFFSET(R1,4,0)&lt;OFFSET(R1,5,0),
-OFFSET(R1,5,0)&lt;OFFSET(R1,6,0),OFFSET(R1,6,0)&lt;OFFSET(R1,7,0),
-OFFSET(R1,7,0)&lt;OFFSET(R1,8,0),OFFSET(R1,8,0)&lt;OFFSET(R1,9,0),
-OFFSET(R1,9,0)&lt;OFFSET(R1,10,0),OFFSET(R1,10,0)&lt;OFFSET(R1,11,0),
-OFFSET(R1,11,0)&lt;OFFSET(R1,12,0),OFFSET(R1,12,0)&lt;OFFSET(R1,13,0),
-OFFSET(R1,13,0)&lt;OFFSET(R1,14,0),OFFSET(R1,14,0)&lt;OFFSET(R1,15,0),
-OFFSET(R1,15,0)&lt;OFFSET(R1,16,0),OFFSET(R1,16,0)&lt;OFFSET(R1,17,0),
-OFFSET(R1,17,0)&lt;OFFSET(R1,18,0),OFFSET(R1,18,0)&lt;OFFSET(R1,19,0),
-OFFSET(R1,19,0)&lt;OFFSET(R1,20,0),OFFSET(R1,20,0)&lt;OFFSET(R1,21,0),
-OFFSET(R1,21,0)&lt;OFFSET(R1,22,0),OFFSET(R1,22,0)&lt;OFFSET(R1,23,0),
-OFFSET(R1,23,0)&lt;OFFSET(R1,24,0),OFFSET(R1,24,0)&lt;OFFSET(R1,25,0),
-OFFSET(R1,25,0)&lt;OFFSET(R1,26,0),OFFSET(R1,26,0)&lt;OFFSET(R1,27,0),
-OFFSET(R1,27,0)&lt;OFFSET(R1,28,0),OFFSET(R1,28,0)&lt;OFFSET(R1,29,0),
-OFFSET(R1,29,0)&lt;OFFSET(R1,30,0),OFFSET(R1,30,0)&lt;OFFSET(R1,31,0),
-OFFSET(R1,31,0)&lt;OFFSET(R1,32,0),OFFSET(R1,32,0)&lt;OFFSET(R1,33,0),
-OFFSET(R1,33,0)&lt;OFFSET(R1,34,0),OFFSET(R1,34,0)&lt;OFFSET(R1,35,0),
-OFFSET(R1,35,0)&lt;OFFSET(R1,36,0),OFFSET(R1,36,0)&lt;OFFSET(R1,37,0),
-OFFSET(R1,37,0)&lt;OFFSET(R1,38,0),OFFSET(R1,38,0)&lt;OFFSET(R1,39,0),
-OFFSET(R1,39,0)&lt;OFFSET(R1,40,0),OFFSET(R1,40,0)&lt;OFFSET(R1,41,0),
-OFFSET(R1,41,0)&lt;OFFSET(R1,42,0),OFFSET(R1,42,0)&lt;OFFSET(R1,43,0),
-OFFSET(R1,43,0)&lt;OFFSET(R1,44,0),OFFSET(R1,44,0)&lt;OFFSET(R1,45,0),
-OFFSET(R1,45,0)&lt;OFFSET(R1,46,0),OFFSET(R1,46,0)&lt;OFFSET(R1,47,0),
-OFFSET(R1,47,0)&lt;OFFSET(R1,48,0),OFFSET(R1,48,0)&lt;OFFSET(R1,49,0),
-OFFSET(R1,49,0)&lt;OFFSET(R1,50,0)),"내림차순 정렬할 것","len")</f>
+        <f t="array" aca="1" ref="R1" ca="1">IF(OR(IF(S:S&lt;0,1,0)),"내림차순 정렬할 것","len")</f>
         <v>len</v>
       </c>
+      <c r="S1" t="s">
+        <v>127</v>
+      </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="str">
-        <f t="shared" ref="D2:D5" ca="1" si="0">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
@@ -7265,7 +7388,7 @@
         <v/>
       </c>
       <c r="F2" s="2" t="str">
-        <f t="shared" ref="F2:F5" ca="1" si="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
@@ -7324,28 +7447,90 @@
         <f>LEN(P2)</f>
         <v>8</v>
       </c>
-      <c r="T2" t="str">
+      <c r="S2">
+        <f ca="1">OFFSET(R2,0,0)-OFFSET(R2,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U2" t="str">
         <f ca="1">IFERROR(HLOOKUP("내림차순 정렬할 것",$1:$1,1,0),"")</f>
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C3,
+OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
         <v/>
       </c>
       <c r="E3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F3" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(E3,
+OFFSET($A$1,1,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,3,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,5,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,7,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,9,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,11,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,13,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,15,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,17,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,19,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,21,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,23,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,25,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,27,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,29,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,31,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,33,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,35,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,37,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,39,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,41,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,43,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,45,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,47,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,49,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(E$1&amp;"_List",$1:$1,0)))</f>
         <v>3</v>
       </c>
       <c r="G3" t="s">
@@ -7366,7 +7551,7 @@
         <v>2</v>
       </c>
       <c r="P3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -7375,25 +7560,87 @@
         <f>LEN(P3)</f>
         <v>8</v>
       </c>
+      <c r="S3">
+        <f ca="1">OFFSET(R3,0,0)-OFFSET(R3,1,0)</f>
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C4,
+OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
         <v/>
       </c>
       <c r="F4" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(E4,
+OFFSET($A$1,1,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,3,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,5,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,7,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,9,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,11,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,13,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,15,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,17,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,19,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,21,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,23,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,25,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,27,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,29,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,31,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,33,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,35,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,37,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,39,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,41,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,43,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,45,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,47,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,49,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(E$1&amp;"_List",$1:$1,0)))</f>
         <v/>
       </c>
       <c r="G4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H4">
         <v>0.05</v>
@@ -7419,24 +7666,86 @@
         <f>LEN(P4)</f>
         <v>6</v>
       </c>
+      <c r="S4">
+        <f ca="1">OFFSET(R4,0,0)-OFFSET(R4,1,0)</f>
+        <v>2</v>
+      </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C5,
+OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
         <v/>
       </c>
       <c r="E5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F5" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(E5,
+OFFSET($A$1,1,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,3,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,5,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,7,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,9,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,11,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,13,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,15,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,17,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,19,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,21,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,23,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,25,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,27,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,29,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,31,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,33,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,35,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,37,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,39,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,41,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,43,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,45,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,47,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,49,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(E$1&amp;"_List",$1:$1,0)))</f>
         <v>3</v>
       </c>
       <c r="G5" t="s">
@@ -7466,17 +7775,21 @@
         <f>LEN(P5)</f>
         <v>4</v>
       </c>
+      <c r="S5">
+        <f ca="1">OFFSET(R5,0,0)-OFFSET(R5,1,0)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="str">
-        <f t="shared" ref="D6:D9" ca="1" si="2">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
@@ -7509,7 +7822,7 @@
         <v/>
       </c>
       <c r="F6" s="2" t="str">
-        <f t="shared" ref="F6:F9" ca="1" si="3">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
 SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
@@ -7556,7 +7869,7 @@
         <v/>
       </c>
       <c r="N6" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="P6" t="s">
         <v>2</v>
@@ -7568,24 +7881,86 @@
         <f>LEN(P6)</f>
         <v>4</v>
       </c>
+      <c r="S6">
+        <f ca="1">OFFSET(R6,0,0)-OFFSET(R6,1,0)</f>
+        <v>4</v>
+      </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C7,
+OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
         <v/>
       </c>
       <c r="E7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F7" s="2" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(E7,
+OFFSET($A$1,1,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,3,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,5,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,7,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,9,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,11,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,13,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,15,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,17,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,19,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,21,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,23,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,25,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,27,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,29,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,31,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,33,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,35,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,37,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,39,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,41,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,43,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,45,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,47,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,49,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(E$1&amp;"_List",$1:$1,0)))</f>
         <v>5</v>
       </c>
       <c r="G7" t="s">
@@ -7603,24 +7978,82 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C8,
+OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
         <v/>
       </c>
       <c r="F8" s="2" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(E8,
+OFFSET($A$1,1,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,3,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,5,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,7,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,9,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,11,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,13,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,15,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,17,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,19,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,21,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,23,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,25,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,27,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,29,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,31,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,33,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,35,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,37,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,39,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,41,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,43,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,45,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,47,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,49,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(E$1&amp;"_List",$1:$1,0)))</f>
         <v/>
       </c>
       <c r="G8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H8">
         <v>0.05</v>
@@ -7634,23 +8067,81 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B9" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C9,
+OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,18,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,19,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,20,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,21,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,22,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,23,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,24,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,25,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,26,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,27,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,28,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,29,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,30,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,31,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,32,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,33,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,34,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,35,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,36,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,37,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,38,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,39,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,40,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,41,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,42,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,43,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,44,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,45,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,46,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,47,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,48,MATCH(C$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,49,MATCH(C$1&amp;"_List",$1:$1,0))),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,50,MATCH(C$1&amp;"_List",$1:$1,0)))</f>
         <v/>
       </c>
       <c r="E9" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F9" s="2" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(
+SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(E9,
+OFFSET($A$1,1,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,1,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,2,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,2,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,3,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,3,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,4,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,4,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,5,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,5,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,6,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,6,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,7,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,7,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,8,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,8,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,9,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,9,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,10,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,10,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,11,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,11,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,12,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,12,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,13,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,13,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,14,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,14,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,15,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,15,MATCH(E$1&amp;"_List",$1:$1,0))),OFFSET($A$1,16,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,16,MATCH(E$1&amp;"_List",$1:$1,0))),
+OFFSET($A$1,17,MATCH(E$1&amp;"_List",$1:$1,0)-1),OFFSET($A$1,17,MATCH(E$1&amp;"_List",$1:$1,0))),OFF